--- a/System_Design_Architecture.xlsx
+++ b/System_Design_Architecture.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pradhapganesan/Desktop/pgjava_studydrive/Study Material/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Terms" sheetId="2" r:id="rId2"/>
     <sheet name="Princip-Theorm" sheetId="6" r:id="rId3"/>
     <sheet name="Architecture" sheetId="7" r:id="rId4"/>
-    <sheet name="Prop-Sols" sheetId="8" r:id="rId5"/>
-    <sheet name="X x Y" sheetId="9" r:id="rId6"/>
-    <sheet name="Big Applications" sheetId="11" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId8"/>
-    <sheet name="Compare Techs" sheetId="13" r:id="rId9"/>
-    <sheet name="Compare Sprn MVC vs NG" sheetId="14" r:id="rId10"/>
-    <sheet name="Internet Flow" sheetId="15" r:id="rId11"/>
+    <sheet name="System Design" sheetId="16" r:id="rId5"/>
+    <sheet name="Prop-Sols" sheetId="8" r:id="rId6"/>
+    <sheet name="X x Y" sheetId="9" r:id="rId7"/>
+    <sheet name="Big Applications" sheetId="11" r:id="rId8"/>
+    <sheet name="Situat - Sols" sheetId="12" r:id="rId9"/>
+    <sheet name="Compare Techs" sheetId="13" r:id="rId10"/>
+    <sheet name="Compare Sprn MVC vs NG" sheetId="14" r:id="rId11"/>
+    <sheet name="Internet Flow" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -37,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="383">
   <si>
     <t>Scalability</t>
   </si>
@@ -610,9 +603,6 @@
 --Process     : Grow a system's architecutre through the incremental and Iterative release of testable, executable</t>
   </si>
   <si>
-    <t>CAPS</t>
-  </si>
-  <si>
     <t>Stateless</t>
   </si>
   <si>
@@ -626,12 +616,6 @@
   </si>
   <si>
     <t>Through Sticky Connections; same request can be servced comparatively Faster than Stateless</t>
-  </si>
-  <si>
-    <t>Consistency
-Availability
-Partition Tolerance
-Scalability</t>
   </si>
   <si>
     <t>Repeated code / effort
@@ -1631,12 +1615,136 @@
   <si>
     <t>ModelAndView instance consists of a view name and a model Map. Map contains bean names and corresponding command or form.</t>
   </si>
+  <si>
+    <t>System Design</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Factors Required for SD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-- Features
+-- Abstract (Define API)
+-- Tolerance Performance
+-- Availability
+-- Scalability
+-- Durability (Data lost/compro)
+-- Security / Privacy
+-- Cost Effective</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CAP - can achieve 2 of 3
+-- Consistency (data across sources)
+-- Availability (downtime)
+-- Partision Tolerance (
+</t>
+  </si>
+  <si>
+    <t>Vertical Scaling - add hardware
+Horizontal Scale - distributed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consistency
+Availability
+Partition Tolerance
+</t>
+  </si>
+  <si>
+    <t>Can only opt 2 or 3</t>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>Partition Tolerance</t>
+  </si>
+  <si>
+    <t>Distributed system, between nodes packets could be lost</t>
+  </si>
+  <si>
+    <t>RDBMS - gives Consistency than Availability</t>
+  </si>
+  <si>
+    <t>Sure response, might NOT most recent write</t>
+  </si>
+  <si>
+    <t>No Sql - configurable between Consistence or Availability.</t>
+  </si>
+  <si>
+    <t>ACID</t>
+  </si>
+  <si>
+    <t>Atomicity
+Consistency
+Isolation
+Durability</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>Basic
+Available
+State
+Eventual</t>
+  </si>
+  <si>
+    <t>More referes to RDBMS</t>
+  </si>
+  <si>
+    <t>represents No-Sql</t>
+  </si>
+  <si>
+    <t>Partition / Sharding</t>
+  </si>
+  <si>
+    <t>in practical trillians of data can not be stored in one db; so the data must be split and stored;</t>
+  </si>
+  <si>
+    <t>this is achieved through Consistent Hashing.</t>
+  </si>
+  <si>
+    <t>Locking</t>
+  </si>
+  <si>
+    <t>solution to update a shared data.
+-- Optimistic : aquire lock at time of udpate
+-- Pesimistic : aquire lock entier process</t>
+  </si>
+  <si>
+    <t>CAP Theorm</t>
+  </si>
+  <si>
+    <t>Read most recent write.
+-- Strong
+-- Eventual - not immediate but eventually get recent data;</t>
+  </si>
+  <si>
+    <t>Caching</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1714,6 +1822,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2499,7 +2633,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2552,15 +2686,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2570,21 +2695,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2603,66 +2713,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2708,12 +2758,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2723,9 +2767,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2795,69 +2836,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2915,6 +2893,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2933,21 +2923,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2969,17 +2947,260 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3831,18 +4052,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="75" x14ac:dyDescent="0.2">
@@ -3953,7 +4174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -4005,7 +4226,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>89</v>
       </c>
@@ -4024,7 +4245,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>103</v>
       </c>
@@ -4036,95 +4257,24 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:H14"/>
+  <dimension ref="B3:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="157"/>
-    <col min="2" max="2" width="14.83203125" style="157" customWidth="1"/>
-    <col min="3" max="3" width="36" style="157" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="157" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" style="157" customWidth="1"/>
-    <col min="6" max="6" width="32.5" style="157" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" style="157" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" style="157" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="157"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="157" t="s">
-        <v>329</v>
-      </c>
-      <c r="C4" s="157" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="157" t="s">
-        <v>344</v>
-      </c>
-      <c r="E4" s="157" t="s">
-        <v>342</v>
-      </c>
-      <c r="F4" s="157" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="C5" s="157" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="C6" s="160" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B11" s="157" t="s">
-        <v>345</v>
-      </c>
-      <c r="D11" s="157" t="s">
-        <v>348</v>
-      </c>
-      <c r="E11" s="157" t="s">
-        <v>350</v>
-      </c>
-      <c r="F11" s="157" t="s">
-        <v>352</v>
-      </c>
-      <c r="G11" s="157" t="s">
-        <v>353</v>
-      </c>
-      <c r="H11" s="157" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="B13" s="157" t="s">
-        <v>346</v>
-      </c>
-      <c r="D13" s="157" t="s">
-        <v>349</v>
-      </c>
-      <c r="E13" s="160" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="E14" s="157" t="s">
-        <v>355</v>
-      </c>
-      <c r="F14" s="157" t="s">
-        <v>356</v>
-      </c>
-      <c r="G14" s="157" t="s">
-        <v>357</v>
-      </c>
-      <c r="H14" s="157" t="s">
-        <v>358</v>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" t="s">
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4134,77 +4284,175 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="87"/>
+    <col min="2" max="2" width="14.85546875" style="87" customWidth="1"/>
+    <col min="3" max="3" width="36" style="87" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="87" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="87" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="87" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="87" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="87" customWidth="1"/>
+    <col min="9" max="16384" width="10.85546875" style="87"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="87" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="C5" s="87" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="C6" s="90" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="B11" s="87" t="s">
+        <v>343</v>
+      </c>
+      <c r="D11" s="87" t="s">
+        <v>346</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>350</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>351</v>
+      </c>
+      <c r="H11" s="87" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="B13" s="87" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="E14" s="87" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="G14" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="H14" s="87" t="s">
+        <v>356</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="33.5" style="14" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="24.33203125" style="14" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="14" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" style="14" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" style="14" customWidth="1"/>
     <col min="11" max="11" width="30" style="14" customWidth="1"/>
-    <col min="12" max="12" width="32.33203125" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="14"/>
+    <col min="12" max="12" width="32.28515625" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="10.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="158" t="s">
+    <row r="4" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="88" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>329</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>330</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>331</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>335</v>
+      </c>
+      <c r="I4" s="89" t="s">
+        <v>336</v>
+      </c>
+      <c r="J4" s="88" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="88"/>
+      <c r="L4" s="88"/>
+      <c r="M4" s="88"/>
+      <c r="N4" s="88"/>
+    </row>
+    <row r="5" spans="2:14" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="87" t="s">
         <v>328</v>
       </c>
-      <c r="C4" s="158" t="s">
-        <v>329</v>
-      </c>
-      <c r="D4" s="159" t="s">
-        <v>331</v>
-      </c>
-      <c r="E4" s="159" t="s">
+      <c r="E5" s="87" t="s">
         <v>332</v>
       </c>
-      <c r="F4" s="158" t="s">
+      <c r="F5" s="14" t="s">
         <v>333</v>
-      </c>
-      <c r="G4" s="159" t="s">
-        <v>336</v>
-      </c>
-      <c r="H4" s="159" t="s">
-        <v>337</v>
-      </c>
-      <c r="I4" s="159" t="s">
-        <v>338</v>
-      </c>
-      <c r="J4" s="158" t="s">
-        <v>339</v>
-      </c>
-      <c r="K4" s="158"/>
-      <c r="L4" s="158"/>
-      <c r="M4" s="158"/>
-      <c r="N4" s="158"/>
-    </row>
-    <row r="5" spans="2:14" ht="59" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="D5" s="157" t="s">
-        <v>330</v>
-      </c>
-      <c r="E5" s="157" t="s">
-        <v>334</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4216,37 +4464,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" style="2" customWidth="1"/>
-    <col min="5" max="5" width="63.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="63.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:4" ht="12" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:4" ht="12" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:4" ht="12" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:4" ht="12" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -4259,7 +4507,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:4" ht="12" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
@@ -4267,7 +4515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="3:4" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:4" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
@@ -4283,7 +4531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="3:4" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
@@ -4291,12 +4539,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" ht="12" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" ht="12" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
@@ -4309,7 +4557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="1" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" s="1" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
@@ -4325,7 +4573,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="1" customFormat="1" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" s="1" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>59</v>
       </c>
@@ -4341,7 +4589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" ht="12" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
@@ -4352,7 +4600,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" ht="12" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
@@ -4363,8 +4611,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -4372,7 +4620,7 @@
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="2:7" ht="24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B34" s="7" t="s">
         <v>41</v>
       </c>
@@ -4382,11 +4630,11 @@
       <c r="D34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="139"/>
-      <c r="F34" s="140"/>
+      <c r="E34" s="91"/>
+      <c r="F34" s="92"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="2:7" ht="72" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>41</v>
       </c>
@@ -4396,11 +4644,11 @@
       <c r="D35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="141"/>
-      <c r="F35" s="142"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="94"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="2:7" ht="60" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>41</v>
       </c>
@@ -4410,11 +4658,11 @@
       <c r="D36" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="141"/>
-      <c r="F36" s="142"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>41</v>
       </c>
@@ -4424,11 +4672,11 @@
       <c r="D37" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="141"/>
-      <c r="F37" s="142"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="94"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>41</v>
       </c>
@@ -4438,11 +4686,11 @@
       <c r="D38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="141"/>
-      <c r="F38" s="142"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="94"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="2:7" ht="36" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>41</v>
       </c>
@@ -4452,11 +4700,11 @@
       <c r="D39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="143"/>
-      <c r="F39" s="144"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="96"/>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
@@ -4464,7 +4712,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
     </row>
-    <row r="44" spans="2:7" ht="24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>64</v>
       </c>
@@ -4475,7 +4723,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>64</v>
       </c>
@@ -4486,7 +4734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>64</v>
       </c>
@@ -4497,7 +4745,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
         <v>75</v>
       </c>
@@ -4505,12 +4753,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="48" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="C55" s="2" t="s">
         <v>65</v>
       </c>
@@ -4518,7 +4766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
         <v>80</v>
       </c>
@@ -4526,7 +4774,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
         <v>80</v>
       </c>
@@ -4537,7 +4785,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>80</v>
       </c>
@@ -4548,7 +4796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
         <v>80</v>
       </c>
@@ -4559,7 +4807,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
         <v>80</v>
       </c>
@@ -4579,1728 +4827,1238 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:AA92"/>
+  <dimension ref="A3:AA87"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.6640625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="42.6640625" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="14"/>
+    <col min="1" max="1" width="3.28515625" style="105" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="105" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="105" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="105" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="105" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="105"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="105" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C3" s="105" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="99"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="101"/>
-    </row>
-    <row r="8" spans="1:7" ht="75" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="114" t="s">
+    <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="106"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="108"/>
+    </row>
+    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="105" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>300</v>
+      </c>
+      <c r="D6" s="110"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="112"/>
+    </row>
+    <row r="7" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="113"/>
+      <c r="C7" s="114" t="s">
         <v>301</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="D7" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="111"/>
+      <c r="F7" s="111"/>
+      <c r="G7" s="112"/>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="115"/>
+      <c r="C8" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>304</v>
+      </c>
+      <c r="E8" s="118"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="119"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="115"/>
+      <c r="C9" s="116" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>305</v>
+      </c>
+      <c r="E9" s="118"/>
+      <c r="F9" s="118"/>
+      <c r="G9" s="119"/>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B10" s="115"/>
+      <c r="C10" s="116" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="119"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="115"/>
+      <c r="C11" s="116" t="s">
         <v>302</v>
       </c>
-      <c r="D8" s="108"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
-    </row>
-    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.2">
-      <c r="B9" s="102"/>
-      <c r="C9" s="112" t="s">
-        <v>303</v>
-      </c>
-      <c r="D9" s="108" t="s">
-        <v>305</v>
-      </c>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="104"/>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.2">
-      <c r="B10" s="109"/>
-      <c r="C10" s="113" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="115" t="s">
+      <c r="D11" s="118" t="s">
         <v>306</v>
       </c>
-      <c r="E10" s="110"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="111"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="109"/>
-      <c r="C11" s="113" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="110" t="s">
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119"/>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="108"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="E11" s="110"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="111"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.2">
-      <c r="B12" s="109"/>
-      <c r="C12" s="113" t="s">
-        <v>106</v>
-      </c>
-      <c r="D12" s="115" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="111"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="109"/>
-      <c r="C13" s="113" t="s">
-        <v>304</v>
-      </c>
-      <c r="D13" s="110" t="s">
+      <c r="B15" s="109" t="s">
         <v>308</v>
       </c>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="111"/>
-    </row>
-    <row r="14" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="105"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="107"/>
-    </row>
-    <row r="15" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="99"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="B17" s="114" t="s">
-        <v>310</v>
-      </c>
-      <c r="C17" s="103" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" s="103"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="104"/>
-    </row>
-    <row r="18" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="105"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="107"/>
-    </row>
-    <row r="19" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="116"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="101"/>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B21" s="119" t="s">
+      <c r="C15" s="111" t="s">
+        <v>298</v>
+      </c>
+      <c r="D15" s="111"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="112"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="120"/>
+      <c r="C16" s="121"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="122"/>
+    </row>
+    <row r="17" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="123"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="123"/>
+      <c r="E17" s="123"/>
+      <c r="F17" s="123"/>
+      <c r="G17" s="123"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="108"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="118"/>
-    </row>
-    <row r="22" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="105"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107"/>
-    </row>
-    <row r="23" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="100"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="101"/>
-    </row>
-    <row r="25" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="B25" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="104"/>
-    </row>
-    <row r="26" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="105"/>
-      <c r="C26" s="106"/>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107"/>
-    </row>
-    <row r="27" spans="1:27" s="32" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-    </row>
-    <row r="28" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A28" s="33"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-    </row>
-    <row r="29" spans="1:27" s="17" customFormat="1" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33"/>
-      <c r="B29" s="38" t="s">
+      <c r="C19" s="125"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="125"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="126"/>
+    </row>
+    <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="120"/>
+      <c r="C20" s="121"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="122"/>
+    </row>
+    <row r="21" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="108"/>
+    </row>
+    <row r="23" spans="2:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="B23" s="127" t="s">
+        <v>380</v>
+      </c>
+      <c r="C23" s="128" t="s">
+        <v>361</v>
+      </c>
+      <c r="D23" s="111" t="s">
+        <v>362</v>
+      </c>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="112"/>
+    </row>
+    <row r="24" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="129"/>
+      <c r="C24" s="130" t="s">
+        <v>363</v>
+      </c>
+      <c r="D24" s="117" t="s">
+        <v>381</v>
+      </c>
+      <c r="E24" s="118" t="s">
+        <v>366</v>
+      </c>
+      <c r="F24" s="118"/>
+      <c r="G24" s="119"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="129"/>
+      <c r="C25" s="130" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="118" t="s">
+        <v>367</v>
+      </c>
+      <c r="E25" s="118" t="s">
+        <v>368</v>
+      </c>
+      <c r="F25" s="118"/>
+      <c r="G25" s="119"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="129"/>
+      <c r="C26" s="130" t="s">
+        <v>364</v>
+      </c>
+      <c r="D26" s="118" t="s">
+        <v>365</v>
+      </c>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="119"/>
+    </row>
+    <row r="27" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="120"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="121"/>
+      <c r="E27" s="121"/>
+      <c r="F27" s="121"/>
+      <c r="G27" s="122"/>
+    </row>
+    <row r="28" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="106"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="108"/>
+    </row>
+    <row r="30" spans="2:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="B30" s="124" t="s">
+        <v>369</v>
+      </c>
+      <c r="C30" s="131" t="s">
+        <v>370</v>
+      </c>
+      <c r="D30" s="125" t="s">
+        <v>373</v>
+      </c>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="126"/>
+    </row>
+    <row r="31" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="120"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="122"/>
+    </row>
+    <row r="32" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="123"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
+      <c r="F32" s="123"/>
+      <c r="G32" s="123"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B33" s="106"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="108"/>
+    </row>
+    <row r="34" spans="1:27" ht="51" x14ac:dyDescent="0.25">
+      <c r="B34" s="124" t="s">
+        <v>371</v>
+      </c>
+      <c r="C34" s="131" t="s">
+        <v>372</v>
+      </c>
+      <c r="D34" s="125" t="s">
+        <v>374</v>
+      </c>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="126"/>
+    </row>
+    <row r="35" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="120"/>
+      <c r="C35" s="121"/>
+      <c r="D35" s="121"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="122"/>
+    </row>
+    <row r="36" spans="1:27" s="132" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+    </row>
+    <row r="37" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="123"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B38" s="106"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="108"/>
+    </row>
+    <row r="39" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B39" s="124" t="s">
+        <v>375</v>
+      </c>
+      <c r="C39" s="131" t="s">
+        <v>376</v>
+      </c>
+      <c r="D39" s="125" t="s">
+        <v>377</v>
+      </c>
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="126"/>
+    </row>
+    <row r="40" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="120"/>
+      <c r="C40" s="121"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="122"/>
+    </row>
+    <row r="41" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="123"/>
+      <c r="C41" s="123"/>
+      <c r="D41" s="123"/>
+      <c r="E41" s="123"/>
+      <c r="F41" s="123"/>
+      <c r="G41" s="123"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B42" s="106"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="108"/>
+    </row>
+    <row r="43" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B43" s="124" t="s">
+        <v>378</v>
+      </c>
+      <c r="C43" s="131" t="s">
+        <v>379</v>
+      </c>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="126"/>
+    </row>
+    <row r="44" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="120"/>
+      <c r="C44" s="121"/>
+      <c r="D44" s="121"/>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="122"/>
+    </row>
+    <row r="45" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+    </row>
+    <row r="46" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="134"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="137"/>
+      <c r="H46" s="138"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="132"/>
+      <c r="L46" s="132"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="132"/>
+      <c r="P46" s="132"/>
+      <c r="Q46" s="132"/>
+      <c r="R46" s="132"/>
+      <c r="S46" s="132"/>
+      <c r="T46" s="132"/>
+      <c r="U46" s="132"/>
+      <c r="V46" s="132"/>
+      <c r="W46" s="132"/>
+      <c r="X46" s="132"/>
+      <c r="Y46" s="132"/>
+      <c r="Z46" s="132"/>
+      <c r="AA46" s="132"/>
+    </row>
+    <row r="47" spans="1:27" s="139" customFormat="1" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="134"/>
+      <c r="B47" s="140" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="145" t="s">
+      <c r="C47" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="146"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="Q29" s="32"/>
-      <c r="R29" s="32"/>
-      <c r="S29" s="32"/>
-      <c r="T29" s="32"/>
-      <c r="U29" s="32"/>
-      <c r="V29" s="32"/>
-      <c r="W29" s="32"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="32"/>
-      <c r="AA29" s="32"/>
-    </row>
-    <row r="30" spans="1:27" s="17" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="32"/>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="32"/>
-      <c r="AA30" s="32"/>
-    </row>
-    <row r="31" spans="1:27" s="33" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:27" s="33" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A33" s="32"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="32"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="32"/>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-    </row>
-    <row r="34" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A34" s="32"/>
-      <c r="B34" s="21" t="s">
+      <c r="D47" s="142"/>
+      <c r="E47" s="141"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="143"/>
+      <c r="H47" s="138"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="132"/>
+      <c r="L47" s="132"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="132"/>
+      <c r="Q47" s="132"/>
+      <c r="R47" s="132"/>
+      <c r="S47" s="132"/>
+      <c r="T47" s="132"/>
+      <c r="U47" s="132"/>
+      <c r="V47" s="132"/>
+      <c r="W47" s="132"/>
+      <c r="X47" s="132"/>
+      <c r="Y47" s="132"/>
+      <c r="Z47" s="132"/>
+      <c r="AA47" s="132"/>
+    </row>
+    <row r="48" spans="1:27" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="134"/>
+      <c r="B48" s="144"/>
+      <c r="C48" s="145"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+      <c r="G48" s="146"/>
+      <c r="H48" s="138"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="132"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="132"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="132"/>
+      <c r="P48" s="132"/>
+      <c r="Q48" s="132"/>
+      <c r="R48" s="132"/>
+      <c r="S48" s="132"/>
+      <c r="T48" s="132"/>
+      <c r="U48" s="132"/>
+      <c r="V48" s="132"/>
+      <c r="W48" s="132"/>
+      <c r="X48" s="132"/>
+      <c r="Y48" s="132"/>
+      <c r="Z48" s="132"/>
+      <c r="AA48" s="132"/>
+    </row>
+    <row r="49" spans="1:27" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:27" s="134" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="132"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="148"/>
+      <c r="D51" s="148"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="148"/>
+      <c r="G51" s="149"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="132"/>
+      <c r="L51" s="132"/>
+      <c r="M51" s="132"/>
+      <c r="N51" s="132"/>
+      <c r="O51" s="132"/>
+      <c r="P51" s="132"/>
+      <c r="Q51" s="132"/>
+      <c r="R51" s="132"/>
+      <c r="S51" s="132"/>
+      <c r="T51" s="132"/>
+      <c r="U51" s="132"/>
+      <c r="V51" s="132"/>
+      <c r="W51" s="132"/>
+      <c r="X51" s="132"/>
+      <c r="Y51" s="132"/>
+      <c r="Z51" s="132"/>
+      <c r="AA51" s="132"/>
+    </row>
+    <row r="52" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="132"/>
+      <c r="B52" s="150" t="s">
         <v>145</v>
       </c>
-      <c r="C34" s="147" t="s">
+      <c r="C52" s="151" t="s">
         <v>151</v>
       </c>
-      <c r="D34" s="147"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="32"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="32"/>
-      <c r="U34" s="32"/>
-      <c r="V34" s="32"/>
-      <c r="W34" s="32"/>
-      <c r="X34" s="32"/>
-      <c r="Y34" s="32"/>
-      <c r="Z34" s="32"/>
-      <c r="AA34" s="32"/>
-    </row>
-    <row r="35" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A35" s="32"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="22" t="s">
+      <c r="D52" s="151"/>
+      <c r="E52" s="152"/>
+      <c r="F52" s="152"/>
+      <c r="G52" s="153"/>
+      <c r="H52" s="138"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="132"/>
+      <c r="L52" s="132"/>
+      <c r="M52" s="132"/>
+      <c r="N52" s="132"/>
+      <c r="O52" s="132"/>
+      <c r="P52" s="132"/>
+      <c r="Q52" s="132"/>
+      <c r="R52" s="132"/>
+      <c r="S52" s="132"/>
+      <c r="T52" s="132"/>
+      <c r="U52" s="132"/>
+      <c r="V52" s="132"/>
+      <c r="W52" s="132"/>
+      <c r="X52" s="132"/>
+      <c r="Y52" s="132"/>
+      <c r="Z52" s="132"/>
+      <c r="AA52" s="132"/>
+    </row>
+    <row r="53" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="132"/>
+      <c r="B53" s="150"/>
+      <c r="C53" s="152" t="s">
         <v>146</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D53" s="152" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="32"/>
-      <c r="R35" s="32"/>
-      <c r="S35" s="32"/>
-      <c r="T35" s="32"/>
-      <c r="U35" s="32"/>
-      <c r="V35" s="32"/>
-      <c r="W35" s="32"/>
-      <c r="X35" s="32"/>
-      <c r="Y35" s="32"/>
-      <c r="Z35" s="32"/>
-      <c r="AA35" s="32"/>
-    </row>
-    <row r="36" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A36" s="32"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="22" t="s">
+      <c r="E53" s="152"/>
+      <c r="F53" s="152"/>
+      <c r="G53" s="153"/>
+      <c r="H53" s="138"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="132"/>
+      <c r="K53" s="132"/>
+      <c r="L53" s="132"/>
+      <c r="M53" s="132"/>
+      <c r="N53" s="132"/>
+      <c r="O53" s="132"/>
+      <c r="P53" s="132"/>
+      <c r="Q53" s="132"/>
+      <c r="R53" s="132"/>
+      <c r="S53" s="132"/>
+      <c r="T53" s="132"/>
+      <c r="U53" s="132"/>
+      <c r="V53" s="132"/>
+      <c r="W53" s="132"/>
+      <c r="X53" s="132"/>
+      <c r="Y53" s="132"/>
+      <c r="Z53" s="132"/>
+      <c r="AA53" s="132"/>
+    </row>
+    <row r="54" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="132"/>
+      <c r="B54" s="150"/>
+      <c r="C54" s="152" t="s">
         <v>147</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D54" s="152" t="s">
         <v>153</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="Q36" s="32"/>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-    </row>
-    <row r="37" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A37" s="32"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="22" t="s">
+      <c r="E54" s="152"/>
+      <c r="F54" s="152"/>
+      <c r="G54" s="153"/>
+      <c r="H54" s="138"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="132"/>
+      <c r="L54" s="132"/>
+      <c r="M54" s="132"/>
+      <c r="N54" s="132"/>
+      <c r="O54" s="132"/>
+      <c r="P54" s="132"/>
+      <c r="Q54" s="132"/>
+      <c r="R54" s="132"/>
+      <c r="S54" s="132"/>
+      <c r="T54" s="132"/>
+      <c r="U54" s="132"/>
+      <c r="V54" s="132"/>
+      <c r="W54" s="132"/>
+      <c r="X54" s="132"/>
+      <c r="Y54" s="132"/>
+      <c r="Z54" s="132"/>
+      <c r="AA54" s="132"/>
+    </row>
+    <row r="55" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="132"/>
+      <c r="B55" s="150"/>
+      <c r="C55" s="152" t="s">
         <v>148</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D55" s="152" t="s">
         <v>154</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="Q37" s="32"/>
-      <c r="R37" s="32"/>
-      <c r="S37" s="32"/>
-      <c r="T37" s="32"/>
-      <c r="U37" s="32"/>
-      <c r="V37" s="32"/>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
-      <c r="Z37" s="32"/>
-      <c r="AA37" s="32"/>
-    </row>
-    <row r="38" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A38" s="32"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="22" t="s">
+      <c r="E55" s="152"/>
+      <c r="F55" s="152"/>
+      <c r="G55" s="153"/>
+      <c r="H55" s="138"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="132"/>
+      <c r="L55" s="132"/>
+      <c r="M55" s="132"/>
+      <c r="N55" s="132"/>
+      <c r="O55" s="132"/>
+      <c r="P55" s="132"/>
+      <c r="Q55" s="132"/>
+      <c r="R55" s="132"/>
+      <c r="S55" s="132"/>
+      <c r="T55" s="132"/>
+      <c r="U55" s="132"/>
+      <c r="V55" s="132"/>
+      <c r="W55" s="132"/>
+      <c r="X55" s="132"/>
+      <c r="Y55" s="132"/>
+      <c r="Z55" s="132"/>
+      <c r="AA55" s="132"/>
+    </row>
+    <row r="56" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="132"/>
+      <c r="B56" s="154"/>
+      <c r="C56" s="152" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D56" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="32"/>
-      <c r="R38" s="32"/>
-      <c r="S38" s="32"/>
-      <c r="T38" s="32"/>
-      <c r="U38" s="32"/>
-      <c r="V38" s="32"/>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
-      <c r="Z38" s="32"/>
-      <c r="AA38" s="32"/>
-    </row>
-    <row r="39" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="27" t="s">
+      <c r="E56" s="155"/>
+      <c r="F56" s="155"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="138"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="132"/>
+      <c r="L56" s="132"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="132"/>
+      <c r="P56" s="132"/>
+      <c r="Q56" s="132"/>
+      <c r="R56" s="132"/>
+      <c r="S56" s="132"/>
+      <c r="T56" s="132"/>
+      <c r="U56" s="132"/>
+      <c r="V56" s="132"/>
+      <c r="W56" s="132"/>
+      <c r="X56" s="132"/>
+      <c r="Y56" s="132"/>
+      <c r="Z56" s="132"/>
+      <c r="AA56" s="132"/>
+    </row>
+    <row r="57" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="132"/>
+      <c r="B57" s="154"/>
+      <c r="C57" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D57" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-    </row>
-    <row r="40" spans="1:27" s="17" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-    </row>
-    <row r="41" spans="1:27" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:27" s="32" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A43" s="32"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-    </row>
-    <row r="44" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A44" s="32"/>
-      <c r="B44" s="21" t="s">
+      <c r="E57" s="155"/>
+      <c r="F57" s="155"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="138"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="132"/>
+      <c r="L57" s="132"/>
+      <c r="M57" s="132"/>
+      <c r="N57" s="132"/>
+      <c r="O57" s="132"/>
+      <c r="P57" s="132"/>
+      <c r="Q57" s="132"/>
+      <c r="R57" s="132"/>
+      <c r="S57" s="132"/>
+      <c r="T57" s="132"/>
+      <c r="U57" s="132"/>
+      <c r="V57" s="132"/>
+      <c r="W57" s="132"/>
+      <c r="X57" s="132"/>
+      <c r="Y57" s="132"/>
+      <c r="Z57" s="132"/>
+      <c r="AA57" s="132"/>
+    </row>
+    <row r="58" spans="1:27" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="132"/>
+      <c r="B58" s="157"/>
+      <c r="C58" s="158"/>
+      <c r="D58" s="158"/>
+      <c r="E58" s="158"/>
+      <c r="F58" s="158"/>
+      <c r="G58" s="159"/>
+      <c r="H58" s="138"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="132"/>
+      <c r="L58" s="132"/>
+      <c r="M58" s="132"/>
+      <c r="N58" s="132"/>
+      <c r="O58" s="132"/>
+      <c r="P58" s="132"/>
+      <c r="Q58" s="132"/>
+      <c r="R58" s="132"/>
+      <c r="S58" s="132"/>
+      <c r="T58" s="132"/>
+      <c r="U58" s="132"/>
+      <c r="V58" s="132"/>
+      <c r="W58" s="132"/>
+      <c r="X58" s="132"/>
+      <c r="Y58" s="132"/>
+      <c r="Z58" s="132"/>
+      <c r="AA58" s="132"/>
+    </row>
+    <row r="59" spans="1:27" s="132" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="132"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="148"/>
+      <c r="D61" s="148"/>
+      <c r="E61" s="148"/>
+      <c r="F61" s="148"/>
+      <c r="G61" s="149"/>
+      <c r="H61" s="138"/>
+      <c r="I61" s="132"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="132"/>
+      <c r="L61" s="132"/>
+      <c r="M61" s="132"/>
+      <c r="N61" s="132"/>
+      <c r="O61" s="132"/>
+      <c r="P61" s="132"/>
+      <c r="Q61" s="132"/>
+      <c r="R61" s="132"/>
+      <c r="S61" s="132"/>
+      <c r="T61" s="132"/>
+      <c r="U61" s="132"/>
+      <c r="V61" s="132"/>
+      <c r="W61" s="132"/>
+      <c r="X61" s="132"/>
+      <c r="Y61" s="132"/>
+      <c r="Z61" s="132"/>
+      <c r="AA61" s="132"/>
+    </row>
+    <row r="62" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="132"/>
+      <c r="B62" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="32"/>
-    </row>
-    <row r="45" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A45" s="32"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="24" t="s">
+      <c r="C62" s="152"/>
+      <c r="D62" s="152"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="152"/>
+      <c r="G62" s="153"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="132"/>
+      <c r="J62" s="132"/>
+      <c r="K62" s="132"/>
+      <c r="L62" s="132"/>
+      <c r="M62" s="132"/>
+      <c r="N62" s="132"/>
+      <c r="O62" s="132"/>
+      <c r="P62" s="132"/>
+      <c r="Q62" s="132"/>
+      <c r="R62" s="132"/>
+      <c r="S62" s="132"/>
+      <c r="T62" s="132"/>
+      <c r="U62" s="132"/>
+      <c r="V62" s="132"/>
+      <c r="W62" s="132"/>
+      <c r="X62" s="132"/>
+      <c r="Y62" s="132"/>
+      <c r="Z62" s="132"/>
+      <c r="AA62" s="132"/>
+    </row>
+    <row r="63" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="132"/>
+      <c r="B63" s="150"/>
+      <c r="C63" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D63" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="32"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="Q45" s="32"/>
-      <c r="R45" s="32"/>
-      <c r="S45" s="32"/>
-      <c r="T45" s="32"/>
-      <c r="U45" s="32"/>
-      <c r="V45" s="32"/>
-      <c r="W45" s="32"/>
-      <c r="X45" s="32"/>
-      <c r="Y45" s="32"/>
-      <c r="Z45" s="32"/>
-      <c r="AA45" s="32"/>
-    </row>
-    <row r="46" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A46" s="32"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="24" t="s">
+      <c r="E63" s="152"/>
+      <c r="F63" s="152"/>
+      <c r="G63" s="153"/>
+      <c r="H63" s="138"/>
+      <c r="I63" s="132"/>
+      <c r="J63" s="132"/>
+      <c r="K63" s="132"/>
+      <c r="L63" s="132"/>
+      <c r="M63" s="132"/>
+      <c r="N63" s="132"/>
+      <c r="O63" s="132"/>
+      <c r="P63" s="132"/>
+      <c r="Q63" s="132"/>
+      <c r="R63" s="132"/>
+      <c r="S63" s="132"/>
+      <c r="T63" s="132"/>
+      <c r="U63" s="132"/>
+      <c r="V63" s="132"/>
+      <c r="W63" s="132"/>
+      <c r="X63" s="132"/>
+      <c r="Y63" s="132"/>
+      <c r="Z63" s="132"/>
+      <c r="AA63" s="132"/>
+    </row>
+    <row r="64" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="132"/>
+      <c r="B64" s="150"/>
+      <c r="C64" s="160" t="s">
         <v>125</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D64" s="152" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="32"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="32"/>
-      <c r="S46" s="32"/>
-      <c r="T46" s="32"/>
-      <c r="U46" s="32"/>
-      <c r="V46" s="32"/>
-      <c r="W46" s="32"/>
-      <c r="X46" s="32"/>
-      <c r="Y46" s="32"/>
-      <c r="Z46" s="32"/>
-      <c r="AA46" s="32"/>
-    </row>
-    <row r="47" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A47" s="32"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="24" t="s">
+      <c r="E64" s="152"/>
+      <c r="F64" s="152"/>
+      <c r="G64" s="153"/>
+      <c r="H64" s="138"/>
+      <c r="I64" s="132"/>
+      <c r="J64" s="132"/>
+      <c r="K64" s="132"/>
+      <c r="L64" s="132"/>
+      <c r="M64" s="132"/>
+      <c r="N64" s="132"/>
+      <c r="O64" s="132"/>
+      <c r="P64" s="132"/>
+      <c r="Q64" s="132"/>
+      <c r="R64" s="132"/>
+      <c r="S64" s="132"/>
+      <c r="T64" s="132"/>
+      <c r="U64" s="132"/>
+      <c r="V64" s="132"/>
+      <c r="W64" s="132"/>
+      <c r="X64" s="132"/>
+      <c r="Y64" s="132"/>
+      <c r="Z64" s="132"/>
+      <c r="AA64" s="132"/>
+    </row>
+    <row r="65" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="132"/>
+      <c r="B65" s="150"/>
+      <c r="C65" s="160" t="s">
         <v>126</v>
       </c>
-      <c r="D47" s="22" t="s">
+      <c r="D65" s="152" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
-      <c r="U47" s="32"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="32"/>
-      <c r="X47" s="32"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="32"/>
-      <c r="AA47" s="32"/>
-    </row>
-    <row r="48" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A48" s="32"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="26" t="s">
+      <c r="E65" s="152"/>
+      <c r="F65" s="152"/>
+      <c r="G65" s="153"/>
+      <c r="H65" s="138"/>
+      <c r="I65" s="132"/>
+      <c r="J65" s="132"/>
+      <c r="K65" s="132"/>
+      <c r="L65" s="132"/>
+      <c r="M65" s="132"/>
+      <c r="N65" s="132"/>
+      <c r="O65" s="132"/>
+      <c r="P65" s="132"/>
+      <c r="Q65" s="132"/>
+      <c r="R65" s="132"/>
+      <c r="S65" s="132"/>
+      <c r="T65" s="132"/>
+      <c r="U65" s="132"/>
+      <c r="V65" s="132"/>
+      <c r="W65" s="132"/>
+      <c r="X65" s="132"/>
+      <c r="Y65" s="132"/>
+      <c r="Z65" s="132"/>
+      <c r="AA65" s="132"/>
+    </row>
+    <row r="66" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="132"/>
+      <c r="B66" s="154"/>
+      <c r="C66" s="161" t="s">
         <v>127</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D66" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
-      <c r="U48" s="32"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="32"/>
-      <c r="X48" s="32"/>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="32"/>
-      <c r="AA48" s="32"/>
-    </row>
-    <row r="49" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A49" s="32"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="26" t="s">
+      <c r="E66" s="155"/>
+      <c r="F66" s="155"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="138"/>
+      <c r="I66" s="132"/>
+      <c r="J66" s="132"/>
+      <c r="K66" s="132"/>
+      <c r="L66" s="132"/>
+      <c r="M66" s="132"/>
+      <c r="N66" s="132"/>
+      <c r="O66" s="132"/>
+      <c r="P66" s="132"/>
+      <c r="Q66" s="132"/>
+      <c r="R66" s="132"/>
+      <c r="S66" s="132"/>
+      <c r="T66" s="132"/>
+      <c r="U66" s="132"/>
+      <c r="V66" s="132"/>
+      <c r="W66" s="132"/>
+      <c r="X66" s="132"/>
+      <c r="Y66" s="132"/>
+      <c r="Z66" s="132"/>
+      <c r="AA66" s="132"/>
+    </row>
+    <row r="67" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="132"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="161" t="s">
         <v>128</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D67" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="Q49" s="32"/>
-      <c r="R49" s="32"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="32"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="32"/>
-      <c r="X49" s="32"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="32"/>
-      <c r="AA49" s="32"/>
-    </row>
-    <row r="50" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A50" s="32"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="Q50" s="32"/>
-      <c r="R50" s="32"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="32"/>
-      <c r="U50" s="32"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="32"/>
-      <c r="X50" s="32"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="32"/>
-      <c r="AA50" s="32"/>
-    </row>
-    <row r="51" spans="1:27" s="17" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="34"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="32"/>
-      <c r="U51" s="32"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="32"/>
-      <c r="X51" s="32"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="32"/>
-      <c r="AA51" s="32"/>
-    </row>
-    <row r="52" spans="1:27" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:27" s="32" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A54" s="32"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="44"/>
-      <c r="F54" s="44"/>
-      <c r="G54" s="45"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="32"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="32"/>
-      <c r="L54" s="32"/>
-      <c r="M54" s="32"/>
-      <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
-      <c r="P54" s="32"/>
-      <c r="Q54" s="32"/>
-      <c r="R54" s="32"/>
-      <c r="S54" s="32"/>
-      <c r="T54" s="32"/>
-      <c r="U54" s="32"/>
-      <c r="V54" s="32"/>
-      <c r="W54" s="32"/>
-      <c r="X54" s="32"/>
-      <c r="Y54" s="32"/>
-      <c r="Z54" s="32"/>
-      <c r="AA54" s="32"/>
-    </row>
-    <row r="55" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A55" s="32"/>
-      <c r="B55" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="32"/>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="32"/>
-      <c r="Z55" s="32"/>
-      <c r="AA55" s="32"/>
-    </row>
-    <row r="56" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A56" s="32"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="149" t="s">
-        <v>134</v>
-      </c>
-      <c r="D56" s="149"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="48"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="32"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
-      <c r="O56" s="32"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="32"/>
-      <c r="R56" s="32"/>
-      <c r="S56" s="32"/>
-      <c r="T56" s="32"/>
-      <c r="U56" s="32"/>
-      <c r="V56" s="32"/>
-      <c r="W56" s="32"/>
-      <c r="X56" s="32"/>
-      <c r="Y56" s="32"/>
-      <c r="Z56" s="32"/>
-      <c r="AA56" s="32"/>
-    </row>
-    <row r="57" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A57" s="32"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="D57" s="149"/>
-      <c r="E57" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="F57" s="47"/>
-      <c r="G57" s="48"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="32"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="32"/>
-      <c r="L57" s="32"/>
-      <c r="M57" s="32"/>
-      <c r="N57" s="32"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="32"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
-      <c r="S57" s="32"/>
-      <c r="T57" s="32"/>
-      <c r="U57" s="32"/>
-      <c r="V57" s="32"/>
-      <c r="W57" s="32"/>
-      <c r="X57" s="32"/>
-      <c r="Y57" s="32"/>
-      <c r="Z57" s="32"/>
-      <c r="AA57" s="32"/>
-    </row>
-    <row r="58" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A58" s="32"/>
-      <c r="B58" s="46"/>
-      <c r="C58" s="149"/>
-      <c r="D58" s="149"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="48"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="32"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
-      <c r="O58" s="32"/>
-      <c r="P58" s="32"/>
-      <c r="Q58" s="32"/>
-      <c r="R58" s="32"/>
-      <c r="S58" s="32"/>
-      <c r="T58" s="32"/>
-      <c r="U58" s="32"/>
-      <c r="V58" s="32"/>
-      <c r="W58" s="32"/>
-      <c r="X58" s="32"/>
-      <c r="Y58" s="32"/>
-      <c r="Z58" s="32"/>
-      <c r="AA58" s="32"/>
-    </row>
-    <row r="59" spans="1:27" s="17" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="49"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="32"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
-      <c r="O59" s="32"/>
-      <c r="P59" s="32"/>
-      <c r="Q59" s="32"/>
-      <c r="R59" s="32"/>
-      <c r="S59" s="32"/>
-      <c r="T59" s="32"/>
-      <c r="U59" s="32"/>
-      <c r="V59" s="32"/>
-      <c r="W59" s="32"/>
-      <c r="X59" s="32"/>
-      <c r="Y59" s="32"/>
-      <c r="Z59" s="32"/>
-      <c r="AA59" s="32"/>
-    </row>
-    <row r="60" spans="1:27" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:27" s="32" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A62" s="32"/>
-      <c r="B62" s="43"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="44"/>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="45"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="32"/>
-      <c r="L62" s="32"/>
-      <c r="M62" s="32"/>
-      <c r="N62" s="32"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
-      <c r="S62" s="32"/>
-      <c r="T62" s="32"/>
-      <c r="U62" s="32"/>
-      <c r="V62" s="32"/>
-      <c r="W62" s="32"/>
-      <c r="X62" s="32"/>
-      <c r="Y62" s="32"/>
-      <c r="Z62" s="32"/>
-      <c r="AA62" s="32"/>
-    </row>
-    <row r="63" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A63" s="32"/>
-      <c r="B63" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="32"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
-      <c r="N63" s="32"/>
-      <c r="O63" s="32"/>
-      <c r="P63" s="32"/>
-      <c r="Q63" s="32"/>
-      <c r="R63" s="32"/>
-      <c r="S63" s="32"/>
-      <c r="T63" s="32"/>
-      <c r="U63" s="32"/>
-      <c r="V63" s="32"/>
-      <c r="W63" s="32"/>
-      <c r="X63" s="32"/>
-      <c r="Y63" s="32"/>
-      <c r="Z63" s="32"/>
-      <c r="AA63" s="32"/>
-    </row>
-    <row r="64" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A64" s="32"/>
-      <c r="B64" s="46"/>
-      <c r="C64" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="32"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
-      <c r="N64" s="32"/>
-      <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
-      <c r="Q64" s="32"/>
-      <c r="R64" s="32"/>
-      <c r="S64" s="32"/>
-      <c r="T64" s="32"/>
-      <c r="U64" s="32"/>
-      <c r="V64" s="32"/>
-      <c r="W64" s="32"/>
-      <c r="X64" s="32"/>
-      <c r="Y64" s="32"/>
-      <c r="Z64" s="32"/>
-      <c r="AA64" s="32"/>
-    </row>
-    <row r="65" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A65" s="32"/>
-      <c r="B65" s="46"/>
-      <c r="C65" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="32"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="32"/>
-      <c r="L65" s="32"/>
-      <c r="M65" s="32"/>
-      <c r="N65" s="32"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="32"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
-      <c r="S65" s="32"/>
-      <c r="T65" s="32"/>
-      <c r="U65" s="32"/>
-      <c r="V65" s="32"/>
-      <c r="W65" s="32"/>
-      <c r="X65" s="32"/>
-      <c r="Y65" s="32"/>
-      <c r="Z65" s="32"/>
-      <c r="AA65" s="32"/>
-    </row>
-    <row r="66" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A66" s="32"/>
-      <c r="B66" s="46"/>
-      <c r="C66" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="32"/>
-      <c r="L66" s="32"/>
-      <c r="M66" s="32"/>
-      <c r="N66" s="32"/>
-      <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="32"/>
-      <c r="R66" s="32"/>
-      <c r="S66" s="32"/>
-      <c r="T66" s="32"/>
-      <c r="U66" s="32"/>
-      <c r="V66" s="32"/>
-      <c r="W66" s="32"/>
-      <c r="X66" s="32"/>
-      <c r="Y66" s="32"/>
-      <c r="Z66" s="32"/>
-      <c r="AA66" s="32"/>
-    </row>
-    <row r="67" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A67" s="32"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="48"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="32"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="32"/>
-      <c r="T67" s="32"/>
-      <c r="U67" s="32"/>
-      <c r="V67" s="32"/>
-      <c r="W67" s="32"/>
-      <c r="X67" s="32"/>
-      <c r="Y67" s="32"/>
-      <c r="Z67" s="32"/>
-      <c r="AA67" s="32"/>
-    </row>
-    <row r="68" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A68" s="32"/>
-      <c r="B68" s="46"/>
-      <c r="C68" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="47"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="32"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="32"/>
-      <c r="L68" s="32"/>
-      <c r="M68" s="32"/>
-      <c r="N68" s="32"/>
-      <c r="O68" s="32"/>
-      <c r="P68" s="32"/>
-      <c r="Q68" s="32"/>
-      <c r="R68" s="32"/>
-      <c r="S68" s="32"/>
-      <c r="T68" s="32"/>
-      <c r="U68" s="32"/>
-      <c r="V68" s="32"/>
-      <c r="W68" s="32"/>
-      <c r="X68" s="32"/>
-      <c r="Y68" s="32"/>
-      <c r="Z68" s="32"/>
-      <c r="AA68" s="32"/>
-    </row>
-    <row r="69" spans="1:27" s="17" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="49"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="50"/>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="32"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
-      <c r="Q69" s="32"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="32"/>
-      <c r="T69" s="32"/>
-      <c r="U69" s="32"/>
-      <c r="V69" s="32"/>
-      <c r="W69" s="32"/>
-      <c r="X69" s="32"/>
-      <c r="Y69" s="32"/>
-      <c r="Z69" s="32"/>
-      <c r="AA69" s="32"/>
-    </row>
-    <row r="70" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A70" s="32"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="32"/>
-      <c r="I70" s="32"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
-      <c r="T70" s="32"/>
-      <c r="U70" s="32"/>
-      <c r="V70" s="32"/>
-      <c r="W70" s="32"/>
-      <c r="X70" s="32"/>
-      <c r="Y70" s="32"/>
-      <c r="Z70" s="32"/>
-      <c r="AA70" s="32"/>
-    </row>
-    <row r="71" spans="1:27" s="32" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A72" s="32"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="32"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="32"/>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="32"/>
-      <c r="S72" s="32"/>
-      <c r="T72" s="32"/>
-      <c r="U72" s="32"/>
-      <c r="V72" s="32"/>
-      <c r="W72" s="32"/>
-      <c r="X72" s="32"/>
-      <c r="Y72" s="32"/>
-      <c r="Z72" s="32"/>
-      <c r="AA72" s="32"/>
-    </row>
-    <row r="73" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A73" s="32"/>
-      <c r="B73" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="32"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="32"/>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="32"/>
-      <c r="O73" s="32"/>
-      <c r="P73" s="32"/>
-      <c r="Q73" s="32"/>
-      <c r="R73" s="32"/>
-      <c r="S73" s="32"/>
-      <c r="T73" s="32"/>
-      <c r="U73" s="32"/>
-      <c r="V73" s="32"/>
-      <c r="W73" s="32"/>
-      <c r="X73" s="32"/>
-      <c r="Y73" s="32"/>
-      <c r="Z73" s="32"/>
-      <c r="AA73" s="32"/>
-    </row>
-    <row r="74" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A74" s="32"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="34"/>
-      <c r="I74" s="32"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="32"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="32"/>
-      <c r="O74" s="32"/>
-      <c r="P74" s="32"/>
-      <c r="Q74" s="32"/>
-      <c r="R74" s="32"/>
-      <c r="S74" s="32"/>
-      <c r="T74" s="32"/>
-      <c r="U74" s="32"/>
-      <c r="V74" s="32"/>
-      <c r="W74" s="32"/>
-      <c r="X74" s="32"/>
-      <c r="Y74" s="32"/>
-      <c r="Z74" s="32"/>
-      <c r="AA74" s="32"/>
-    </row>
-    <row r="75" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A75" s="32"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="34"/>
-      <c r="I75" s="32"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="32"/>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="32"/>
-      <c r="O75" s="32"/>
-      <c r="P75" s="32"/>
-      <c r="Q75" s="32"/>
-      <c r="R75" s="32"/>
-      <c r="S75" s="32"/>
-      <c r="T75" s="32"/>
-      <c r="U75" s="32"/>
-      <c r="V75" s="32"/>
-      <c r="W75" s="32"/>
-      <c r="X75" s="32"/>
-      <c r="Y75" s="32"/>
-      <c r="Z75" s="32"/>
-      <c r="AA75" s="32"/>
-    </row>
-    <row r="76" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A76" s="32"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="34"/>
-      <c r="I76" s="32"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="32"/>
-      <c r="L76" s="32"/>
-      <c r="M76" s="32"/>
-      <c r="N76" s="32"/>
-      <c r="O76" s="32"/>
-      <c r="P76" s="32"/>
-      <c r="Q76" s="32"/>
-      <c r="R76" s="32"/>
-      <c r="S76" s="32"/>
-      <c r="T76" s="32"/>
-      <c r="U76" s="32"/>
-      <c r="V76" s="32"/>
-      <c r="W76" s="32"/>
-      <c r="X76" s="32"/>
-      <c r="Y76" s="32"/>
-      <c r="Z76" s="32"/>
-      <c r="AA76" s="32"/>
-    </row>
-    <row r="77" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A77" s="32"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D77" s="22"/>
-      <c r="E77" s="22"/>
-      <c r="F77" s="22"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="34"/>
-      <c r="I77" s="32"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="32"/>
-      <c r="L77" s="32"/>
-      <c r="M77" s="32"/>
-      <c r="N77" s="32"/>
-      <c r="O77" s="32"/>
-      <c r="P77" s="32"/>
-      <c r="Q77" s="32"/>
-      <c r="R77" s="32"/>
-      <c r="S77" s="32"/>
-      <c r="T77" s="32"/>
-      <c r="U77" s="32"/>
-      <c r="V77" s="32"/>
-      <c r="W77" s="32"/>
-      <c r="X77" s="32"/>
-      <c r="Y77" s="32"/>
-      <c r="Z77" s="32"/>
-      <c r="AA77" s="32"/>
-    </row>
-    <row r="78" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A78" s="32"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="22"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="34"/>
-      <c r="I78" s="32"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="32"/>
-      <c r="L78" s="32"/>
-      <c r="M78" s="32"/>
-      <c r="N78" s="32"/>
-      <c r="O78" s="32"/>
-      <c r="P78" s="32"/>
-      <c r="Q78" s="32"/>
-      <c r="R78" s="32"/>
-      <c r="S78" s="32"/>
-      <c r="T78" s="32"/>
-      <c r="U78" s="32"/>
-      <c r="V78" s="32"/>
-      <c r="W78" s="32"/>
-      <c r="X78" s="32"/>
-      <c r="Y78" s="32"/>
-      <c r="Z78" s="32"/>
-      <c r="AA78" s="32"/>
-    </row>
-    <row r="79" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A79" s="32"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="32"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="32"/>
-      <c r="L79" s="32"/>
-      <c r="M79" s="32"/>
-      <c r="N79" s="32"/>
-      <c r="O79" s="32"/>
-      <c r="P79" s="32"/>
-      <c r="Q79" s="32"/>
-      <c r="R79" s="32"/>
-      <c r="S79" s="32"/>
-      <c r="T79" s="32"/>
-      <c r="U79" s="32"/>
-      <c r="V79" s="32"/>
-      <c r="W79" s="32"/>
-      <c r="X79" s="32"/>
-      <c r="Y79" s="32"/>
-      <c r="Z79" s="32"/>
-      <c r="AA79" s="32"/>
-    </row>
-    <row r="80" spans="1:27" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A80" s="32"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
-      <c r="E80" s="22"/>
-      <c r="F80" s="22"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="32"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="32"/>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="32"/>
-      <c r="R80" s="32"/>
-      <c r="S80" s="32"/>
-      <c r="T80" s="32"/>
-      <c r="U80" s="32"/>
-      <c r="V80" s="32"/>
-      <c r="W80" s="32"/>
-      <c r="X80" s="32"/>
-      <c r="Y80" s="32"/>
-      <c r="Z80" s="32"/>
-      <c r="AA80" s="32"/>
-    </row>
-    <row r="81" spans="1:27" s="17" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="30"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="32"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="32"/>
-      <c r="L81" s="32"/>
-      <c r="M81" s="32"/>
-      <c r="N81" s="32"/>
-      <c r="O81" s="32"/>
-      <c r="P81" s="32"/>
-      <c r="Q81" s="32"/>
-      <c r="R81" s="32"/>
-      <c r="S81" s="32"/>
-      <c r="T81" s="32"/>
-      <c r="U81" s="32"/>
-      <c r="V81" s="32"/>
-      <c r="W81" s="32"/>
-      <c r="X81" s="32"/>
-      <c r="Y81" s="32"/>
-      <c r="Z81" s="32"/>
-      <c r="AA81" s="32"/>
-    </row>
-    <row r="82" spans="1:27" s="32" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:27" s="55" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="75"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="74"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="74"/>
-      <c r="G84" s="74"/>
-    </row>
-    <row r="85" spans="1:27" s="55" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A85" s="73"/>
-      <c r="B85" s="69"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="72"/>
-    </row>
-    <row r="86" spans="1:27" s="55" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A86" s="73"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="63"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="61"/>
-      <c r="H86" s="72"/>
-    </row>
-    <row r="87" spans="1:27" s="55" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A87" s="73"/>
-      <c r="B87" s="64" t="s">
-        <v>190</v>
-      </c>
-      <c r="C87" s="63" t="s">
-        <v>189</v>
-      </c>
-      <c r="D87" s="63" t="s">
+      <c r="E67" s="155"/>
+      <c r="F67" s="155"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="138"/>
+      <c r="I67" s="132"/>
+      <c r="J67" s="132"/>
+      <c r="K67" s="132"/>
+      <c r="L67" s="132"/>
+      <c r="M67" s="132"/>
+      <c r="N67" s="132"/>
+      <c r="O67" s="132"/>
+      <c r="P67" s="132"/>
+      <c r="Q67" s="132"/>
+      <c r="R67" s="132"/>
+      <c r="S67" s="132"/>
+      <c r="T67" s="132"/>
+      <c r="U67" s="132"/>
+      <c r="V67" s="132"/>
+      <c r="W67" s="132"/>
+      <c r="X67" s="132"/>
+      <c r="Y67" s="132"/>
+      <c r="Z67" s="132"/>
+      <c r="AA67" s="132"/>
+    </row>
+    <row r="68" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="132"/>
+      <c r="B68" s="154"/>
+      <c r="C68" s="155"/>
+      <c r="D68" s="155"/>
+      <c r="E68" s="155"/>
+      <c r="F68" s="155"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="138"/>
+      <c r="I68" s="132"/>
+      <c r="J68" s="132"/>
+      <c r="K68" s="132"/>
+      <c r="L68" s="132"/>
+      <c r="M68" s="132"/>
+      <c r="N68" s="132"/>
+      <c r="O68" s="132"/>
+      <c r="P68" s="132"/>
+      <c r="Q68" s="132"/>
+      <c r="R68" s="132"/>
+      <c r="S68" s="132"/>
+      <c r="T68" s="132"/>
+      <c r="U68" s="132"/>
+      <c r="V68" s="132"/>
+      <c r="W68" s="132"/>
+      <c r="X68" s="132"/>
+      <c r="Y68" s="132"/>
+      <c r="Z68" s="132"/>
+      <c r="AA68" s="132"/>
+    </row>
+    <row r="69" spans="1:27" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="132"/>
+      <c r="B69" s="157"/>
+      <c r="C69" s="158"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="158"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="159"/>
+      <c r="H69" s="138"/>
+      <c r="I69" s="132"/>
+      <c r="J69" s="132"/>
+      <c r="K69" s="132"/>
+      <c r="L69" s="132"/>
+      <c r="M69" s="132"/>
+      <c r="N69" s="132"/>
+      <c r="O69" s="132"/>
+      <c r="P69" s="132"/>
+      <c r="Q69" s="132"/>
+      <c r="R69" s="132"/>
+      <c r="S69" s="132"/>
+      <c r="T69" s="132"/>
+      <c r="U69" s="132"/>
+      <c r="V69" s="132"/>
+      <c r="W69" s="132"/>
+      <c r="X69" s="132"/>
+      <c r="Y69" s="132"/>
+      <c r="Z69" s="132"/>
+      <c r="AA69" s="132"/>
+    </row>
+    <row r="70" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:27" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="173"/>
+      <c r="B71" s="174"/>
+      <c r="C71" s="175"/>
+      <c r="D71" s="175"/>
+      <c r="E71" s="175"/>
+      <c r="F71" s="176"/>
+      <c r="G71" s="177"/>
+      <c r="H71" s="178"/>
+    </row>
+    <row r="72" spans="1:27" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="173"/>
+      <c r="B72" s="179"/>
+      <c r="C72" s="180"/>
+      <c r="D72" s="180"/>
+      <c r="E72" s="180"/>
+      <c r="F72" s="181"/>
+      <c r="G72" s="182"/>
+      <c r="H72" s="178"/>
+    </row>
+    <row r="73" spans="1:27" s="172" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="173"/>
+      <c r="B73" s="179" t="s">
         <v>188</v>
       </c>
-      <c r="E87" s="63"/>
-      <c r="F87" s="62"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="72"/>
-    </row>
-    <row r="88" spans="1:27" s="55" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A88" s="73"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="63" t="s">
+      <c r="C73" s="180" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="63" t="s">
+      <c r="D73" s="180" t="s">
         <v>186</v>
       </c>
-      <c r="E88" s="63"/>
-      <c r="F88" s="62"/>
-      <c r="G88" s="61"/>
-      <c r="H88" s="72"/>
-    </row>
-    <row r="89" spans="1:27" s="55" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A89" s="73"/>
-      <c r="B89" s="64"/>
-      <c r="C89" s="148" t="s">
+      <c r="E73" s="180"/>
+      <c r="F73" s="181"/>
+      <c r="G73" s="182"/>
+      <c r="H73" s="178"/>
+    </row>
+    <row r="74" spans="1:27" s="172" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="173"/>
+      <c r="B74" s="179"/>
+      <c r="C74" s="180" t="s">
         <v>185</v>
       </c>
-      <c r="D89" s="148"/>
-      <c r="E89" s="63"/>
-      <c r="F89" s="62"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="72"/>
-    </row>
-    <row r="90" spans="1:27" s="55" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A90" s="73"/>
-      <c r="B90" s="64"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="63"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="61"/>
-      <c r="H90" s="72"/>
-    </row>
-    <row r="91" spans="1:27" s="55" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="73"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="59"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="72"/>
-    </row>
-    <row r="92" spans="1:27" s="55" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B92" s="71"/>
-      <c r="C92" s="70"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="70"/>
-      <c r="F92" s="70"/>
-      <c r="G92" s="70"/>
+      <c r="D74" s="180" t="s">
+        <v>184</v>
+      </c>
+      <c r="E74" s="180"/>
+      <c r="F74" s="181"/>
+      <c r="G74" s="182"/>
+      <c r="H74" s="178"/>
+    </row>
+    <row r="75" spans="1:27" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="173"/>
+      <c r="B75" s="179"/>
+      <c r="C75" s="183" t="s">
+        <v>183</v>
+      </c>
+      <c r="D75" s="183"/>
+      <c r="E75" s="180"/>
+      <c r="F75" s="181"/>
+      <c r="G75" s="182"/>
+      <c r="H75" s="178"/>
+    </row>
+    <row r="76" spans="1:27" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="173"/>
+      <c r="B76" s="179"/>
+      <c r="C76" s="180"/>
+      <c r="D76" s="180"/>
+      <c r="E76" s="180"/>
+      <c r="F76" s="181"/>
+      <c r="G76" s="182"/>
+      <c r="H76" s="178"/>
+    </row>
+    <row r="77" spans="1:27" s="172" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="173"/>
+      <c r="B77" s="184"/>
+      <c r="C77" s="185"/>
+      <c r="D77" s="185"/>
+      <c r="E77" s="185"/>
+      <c r="F77" s="186"/>
+      <c r="G77" s="187"/>
+      <c r="H77" s="178"/>
+    </row>
+    <row r="78" spans="1:27" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="188"/>
+      <c r="C78" s="189"/>
+      <c r="D78" s="189"/>
+      <c r="E78" s="189"/>
+      <c r="F78" s="189"/>
+      <c r="G78" s="189"/>
+    </row>
+    <row r="79" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:27" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="173"/>
+      <c r="B80" s="174"/>
+      <c r="C80" s="175"/>
+      <c r="D80" s="175"/>
+      <c r="E80" s="175"/>
+      <c r="F80" s="176"/>
+      <c r="G80" s="177"/>
+      <c r="H80" s="178"/>
+    </row>
+    <row r="81" spans="1:8" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="173"/>
+      <c r="B81" s="179"/>
+      <c r="C81" s="180"/>
+      <c r="D81" s="180"/>
+      <c r="E81" s="180"/>
+      <c r="F81" s="181"/>
+      <c r="G81" s="182"/>
+      <c r="H81" s="178"/>
+    </row>
+    <row r="82" spans="1:8" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="173"/>
+      <c r="B82" s="179" t="s">
+        <v>382</v>
+      </c>
+      <c r="C82" s="180"/>
+      <c r="D82" s="180"/>
+      <c r="E82" s="180"/>
+      <c r="F82" s="181"/>
+      <c r="G82" s="182"/>
+      <c r="H82" s="178"/>
+    </row>
+    <row r="83" spans="1:8" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="173"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
+      <c r="F83" s="181"/>
+      <c r="G83" s="182"/>
+      <c r="H83" s="178"/>
+    </row>
+    <row r="84" spans="1:8" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="173"/>
+      <c r="B84" s="179"/>
+      <c r="C84" s="183"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="180"/>
+      <c r="F84" s="181"/>
+      <c r="G84" s="182"/>
+      <c r="H84" s="178"/>
+    </row>
+    <row r="85" spans="1:8" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="173"/>
+      <c r="B85" s="179"/>
+      <c r="C85" s="180"/>
+      <c r="D85" s="180"/>
+      <c r="E85" s="180"/>
+      <c r="F85" s="181"/>
+      <c r="G85" s="182"/>
+      <c r="H85" s="178"/>
+    </row>
+    <row r="86" spans="1:8" s="172" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="173"/>
+      <c r="B86" s="184"/>
+      <c r="C86" s="185"/>
+      <c r="D86" s="185"/>
+      <c r="E86" s="185"/>
+      <c r="F86" s="186"/>
+      <c r="G86" s="187"/>
+      <c r="H86" s="178"/>
+    </row>
+    <row r="87" spans="1:8" s="172" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="188"/>
+      <c r="C87" s="189"/>
+      <c r="D87" s="189"/>
+      <c r="E87" s="189"/>
+      <c r="F87" s="189"/>
+      <c r="G87" s="189"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C29:D29"/>
+  <mergeCells count="5">
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C75:D75"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6311,443 +6069,443 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H191"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="30.83203125" style="17" customWidth="1"/>
-    <col min="6" max="6" width="39.5" style="17" customWidth="1"/>
-    <col min="7" max="7" width="61.6640625" style="17" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="32"/>
-    <col min="9" max="16384" width="8.83203125" style="17"/>
+    <col min="1" max="1" width="4.140625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="17" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="61.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="24"/>
+    <col min="9" max="16384" width="8.85546875" style="17"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" s="55" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-    </row>
-    <row r="4" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="73"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="68" t="s">
-        <v>206</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="72"/>
-    </row>
-    <row r="5" spans="1:8" s="55" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="73"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="63" t="s">
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" s="27" customFormat="1" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+    </row>
+    <row r="4" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" spans="1:8" s="27" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="43"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:8" s="27" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A6" s="43"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="43"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="43"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="97" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="97"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:8" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="43"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="97"/>
+      <c r="E9" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:8" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="97" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="97"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:8" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="97"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="A12" s="43"/>
+      <c r="B12" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="97" t="s">
+        <v>193</v>
+      </c>
+      <c r="D12" s="97"/>
+      <c r="E12" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="H12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="97" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="97"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="42"/>
+    </row>
+    <row r="14" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A14" s="43"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:8" ht="12" x14ac:dyDescent="0.2">
+      <c r="A15" s="25"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="26"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="18" spans="2:7" s="27" customFormat="1" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="28"/>
+    </row>
+    <row r="19" spans="2:7" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B19" s="41"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="2:7" s="27" customFormat="1" ht="155.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="36" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="102" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="101"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="99"/>
+      <c r="G20" s="33"/>
+    </row>
+    <row r="21" spans="2:7" s="27" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="36"/>
+      <c r="C21" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="100" t="s">
         <v>205</v>
       </c>
-      <c r="D5" s="63" t="s">
-        <v>204</v>
-      </c>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="72"/>
-    </row>
-    <row r="6" spans="1:8" s="55" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A6" s="73"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="63" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="63" t="s">
-        <v>202</v>
-      </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="72"/>
-    </row>
-    <row r="7" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="73"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="72"/>
-    </row>
-    <row r="8" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="73"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="148" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="72"/>
-    </row>
-    <row r="9" spans="1:8" s="55" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="73"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="148" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="148"/>
-      <c r="E9" s="63" t="s">
-        <v>199</v>
-      </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="72"/>
-    </row>
-    <row r="10" spans="1:8" s="55" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="73"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="148" t="s">
-        <v>198</v>
-      </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="72"/>
-    </row>
-    <row r="11" spans="1:8" s="55" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="73"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="148" t="s">
-        <v>197</v>
-      </c>
-      <c r="D11" s="148"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="72"/>
-    </row>
-    <row r="12" spans="1:8" s="55" customFormat="1" ht="84" x14ac:dyDescent="0.2">
-      <c r="A12" s="73"/>
-      <c r="B12" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="C12" s="148" t="s">
-        <v>195</v>
-      </c>
-      <c r="D12" s="148"/>
-      <c r="E12" s="63" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="63"/>
-      <c r="G12" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="H12" s="72"/>
-    </row>
-    <row r="13" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="73"/>
-      <c r="B13" s="64" t="s">
-        <v>192</v>
-      </c>
-      <c r="C13" s="148" t="s">
-        <v>191</v>
-      </c>
-      <c r="D13" s="148"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="72"/>
-    </row>
-    <row r="14" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="73"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="72"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="34"/>
-    </row>
-    <row r="16" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="34"/>
-    </row>
-    <row r="18" spans="2:7" s="55" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="56"/>
-    </row>
-    <row r="19" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="69"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="66"/>
-    </row>
-    <row r="20" spans="2:7" s="55" customFormat="1" ht="155.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="154" t="s">
-        <v>183</v>
-      </c>
-      <c r="D20" s="153"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="61"/>
-    </row>
-    <row r="21" spans="2:7" s="55" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="64"/>
-      <c r="C21" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="E21" s="152" t="s">
-        <v>207</v>
-      </c>
-      <c r="F21" s="153"/>
-      <c r="G21" s="61"/>
-    </row>
-    <row r="22" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="64"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="61"/>
-    </row>
-    <row r="23" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="64"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="61"/>
-    </row>
-    <row r="24" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="64"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="61"/>
-    </row>
-    <row r="25" spans="2:7" s="55" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="60"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="57"/>
-    </row>
-    <row r="26" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="56"/>
-    </row>
-    <row r="27" spans="2:7" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="101"/>
+      <c r="G21" s="33"/>
+    </row>
+    <row r="22" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="33"/>
+    </row>
+    <row r="23" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="36"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="33"/>
+    </row>
+    <row r="24" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="36"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="33"/>
+    </row>
+    <row r="25" spans="2:7" s="27" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="28"/>
+    </row>
+    <row r="27" spans="2:7" s="27" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" s="24" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="24" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="32" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="32" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:7" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:7" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="E20:F20"/>
@@ -6768,24 +6526,806 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AA35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="35" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C4" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="C5" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="132"/>
+      <c r="B8" s="162"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="164"/>
+      <c r="H8" s="138"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
+      <c r="K8" s="132"/>
+      <c r="L8" s="132"/>
+      <c r="M8" s="132"/>
+      <c r="N8" s="132"/>
+      <c r="O8" s="132"/>
+      <c r="P8" s="132"/>
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="132"/>
+      <c r="T8" s="132"/>
+      <c r="U8" s="132"/>
+      <c r="V8" s="132"/>
+      <c r="W8" s="132"/>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="132"/>
+      <c r="Z8" s="132"/>
+      <c r="AA8" s="132"/>
+    </row>
+    <row r="9" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="132"/>
+      <c r="B9" s="165" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="138"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="132"/>
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="132"/>
+      <c r="Q9" s="132"/>
+      <c r="R9" s="132"/>
+      <c r="S9" s="132"/>
+      <c r="T9" s="132"/>
+      <c r="U9" s="132"/>
+      <c r="V9" s="132"/>
+      <c r="W9" s="132"/>
+      <c r="X9" s="132"/>
+      <c r="Y9" s="132"/>
+      <c r="Z9" s="132"/>
+      <c r="AA9" s="132"/>
+    </row>
+    <row r="10" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="132"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="166" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="132"/>
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="132"/>
+      <c r="Q10" s="132"/>
+      <c r="R10" s="132"/>
+      <c r="S10" s="132"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+      <c r="V10" s="132"/>
+      <c r="W10" s="132"/>
+      <c r="X10" s="132"/>
+      <c r="Y10" s="132"/>
+      <c r="Z10" s="132"/>
+      <c r="AA10" s="132"/>
+    </row>
+    <row r="11" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="132"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="166" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="132"/>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="132"/>
+      <c r="Q11" s="132"/>
+      <c r="R11" s="132"/>
+      <c r="S11" s="132"/>
+      <c r="T11" s="132"/>
+      <c r="U11" s="132"/>
+      <c r="V11" s="132"/>
+      <c r="W11" s="132"/>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="132"/>
+      <c r="Z11" s="132"/>
+      <c r="AA11" s="132"/>
+    </row>
+    <row r="12" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="132"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="166" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="138"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="132"/>
+      <c r="Q12" s="132"/>
+      <c r="R12" s="132"/>
+      <c r="S12" s="132"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="132"/>
+      <c r="V12" s="132"/>
+      <c r="W12" s="132"/>
+      <c r="X12" s="132"/>
+      <c r="Y12" s="132"/>
+      <c r="Z12" s="132"/>
+      <c r="AA12" s="132"/>
+    </row>
+    <row r="13" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="132"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="138"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="S13" s="132"/>
+      <c r="T13" s="132"/>
+      <c r="U13" s="132"/>
+      <c r="V13" s="132"/>
+      <c r="W13" s="132"/>
+      <c r="X13" s="132"/>
+      <c r="Y13" s="132"/>
+      <c r="Z13" s="132"/>
+      <c r="AA13" s="132"/>
+    </row>
+    <row r="14" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="132"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="138"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="132"/>
+      <c r="Q14" s="132"/>
+      <c r="R14" s="132"/>
+      <c r="S14" s="132"/>
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+      <c r="V14" s="132"/>
+      <c r="W14" s="132"/>
+      <c r="X14" s="132"/>
+      <c r="Y14" s="132"/>
+      <c r="Z14" s="132"/>
+      <c r="AA14" s="132"/>
+    </row>
+    <row r="15" spans="1:27" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="132"/>
+      <c r="B15" s="169"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
+      <c r="E15" s="170"/>
+      <c r="F15" s="170"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="138"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="132"/>
+      <c r="Q15" s="132"/>
+      <c r="R15" s="132"/>
+      <c r="S15" s="132"/>
+      <c r="T15" s="132"/>
+      <c r="U15" s="132"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="132"/>
+      <c r="X15" s="132"/>
+      <c r="Y15" s="132"/>
+      <c r="Z15" s="132"/>
+      <c r="AA15" s="132"/>
+    </row>
+    <row r="16" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="132"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="164"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="132"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="132"/>
+      <c r="Q17" s="132"/>
+      <c r="R17" s="132"/>
+      <c r="S17" s="132"/>
+      <c r="T17" s="132"/>
+      <c r="U17" s="132"/>
+      <c r="V17" s="132"/>
+      <c r="W17" s="132"/>
+      <c r="X17" s="132"/>
+      <c r="Y17" s="132"/>
+      <c r="Z17" s="132"/>
+      <c r="AA17" s="132"/>
+    </row>
+    <row r="18" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="132"/>
+      <c r="B18" s="165" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="132"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="132"/>
+      <c r="Q18" s="132"/>
+      <c r="R18" s="132"/>
+      <c r="S18" s="132"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+      <c r="V18" s="132"/>
+      <c r="W18" s="132"/>
+      <c r="X18" s="132"/>
+      <c r="Y18" s="132"/>
+      <c r="Z18" s="132"/>
+      <c r="AA18" s="132"/>
+    </row>
+    <row r="19" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="132"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="168" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="168"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="132"/>
+      <c r="Q19" s="132"/>
+      <c r="R19" s="132"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
+      <c r="U19" s="132"/>
+      <c r="V19" s="132"/>
+      <c r="W19" s="132"/>
+      <c r="X19" s="132"/>
+      <c r="Y19" s="132"/>
+      <c r="Z19" s="132"/>
+      <c r="AA19" s="132"/>
+    </row>
+    <row r="20" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="132"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="168" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="168"/>
+      <c r="E20" s="166" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" s="166"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="132"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="132"/>
+      <c r="Q20" s="132"/>
+      <c r="R20" s="132"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+      <c r="V20" s="132"/>
+      <c r="W20" s="132"/>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="132"/>
+      <c r="Z20" s="132"/>
+      <c r="AA20" s="132"/>
+    </row>
+    <row r="21" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="132"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="168"/>
+      <c r="D21" s="168"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="132"/>
+      <c r="Q21" s="132"/>
+      <c r="R21" s="132"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
+      <c r="U21" s="132"/>
+      <c r="V21" s="132"/>
+      <c r="W21" s="132"/>
+      <c r="X21" s="132"/>
+      <c r="Y21" s="132"/>
+      <c r="Z21" s="132"/>
+      <c r="AA21" s="132"/>
+    </row>
+    <row r="22" spans="1:27" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="132"/>
+      <c r="B22" s="169"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="132"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="132"/>
+    </row>
+    <row r="23" spans="1:27" s="132" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="132"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="148"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="148"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="138"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="132"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="132"/>
+      <c r="R25" s="132"/>
+      <c r="S25" s="132"/>
+      <c r="T25" s="132"/>
+      <c r="U25" s="132"/>
+      <c r="V25" s="132"/>
+      <c r="W25" s="132"/>
+      <c r="X25" s="132"/>
+      <c r="Y25" s="132"/>
+      <c r="Z25" s="132"/>
+      <c r="AA25" s="132"/>
+    </row>
+    <row r="26" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="132"/>
+      <c r="B26" s="150" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="138"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="132"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="132"/>
+      <c r="Q26" s="132"/>
+      <c r="R26" s="132"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+      <c r="V26" s="132"/>
+      <c r="W26" s="132"/>
+      <c r="X26" s="132"/>
+      <c r="Y26" s="132"/>
+      <c r="Z26" s="132"/>
+      <c r="AA26" s="132"/>
+    </row>
+    <row r="27" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="132"/>
+      <c r="B27" s="150"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="152"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="138"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="132"/>
+      <c r="Q27" s="132"/>
+      <c r="R27" s="132"/>
+      <c r="S27" s="132"/>
+      <c r="T27" s="132"/>
+      <c r="U27" s="132"/>
+      <c r="V27" s="132"/>
+      <c r="W27" s="132"/>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="132"/>
+      <c r="Z27" s="132"/>
+      <c r="AA27" s="132"/>
+    </row>
+    <row r="28" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="132"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="152" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="138"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="132"/>
+      <c r="Q28" s="132"/>
+      <c r="R28" s="132"/>
+      <c r="S28" s="132"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+      <c r="V28" s="132"/>
+      <c r="W28" s="132"/>
+      <c r="X28" s="132"/>
+      <c r="Y28" s="132"/>
+      <c r="Z28" s="132"/>
+      <c r="AA28" s="132"/>
+    </row>
+    <row r="29" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="132"/>
+      <c r="B29" s="150"/>
+      <c r="C29" s="152" t="s">
+        <v>141</v>
+      </c>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="138"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="132"/>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="132"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="132"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+    </row>
+    <row r="30" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="132"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="152" t="s">
+        <v>142</v>
+      </c>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="138"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+    </row>
+    <row r="31" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="132"/>
+      <c r="B31" s="150"/>
+      <c r="C31" s="152" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
+    </row>
+    <row r="32" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="132"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="152" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="132"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+    </row>
+    <row r="33" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="132"/>
+      <c r="B33" s="150"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="152"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="132"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="132"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+    </row>
+    <row r="34" spans="1:27" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="132"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="159"/>
+      <c r="H34" s="138"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="132"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="132"/>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="132"/>
+      <c r="R34" s="132"/>
+      <c r="S34" s="132"/>
+      <c r="T34" s="132"/>
+      <c r="U34" s="132"/>
+      <c r="V34" s="132"/>
+      <c r="W34" s="132"/>
+      <c r="X34" s="132"/>
+      <c r="Y34" s="132"/>
+      <c r="Z34" s="132"/>
+      <c r="AA34" s="132"/>
+    </row>
+    <row r="35" spans="1:27" s="132" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="34.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.83203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.1640625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" ht="12" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>109</v>
       </c>
@@ -6799,7 +7339,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="63.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>110</v>
       </c>
@@ -6812,10 +7352,10 @@
       <c r="E3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="155"/>
-    </row>
-    <row r="4" spans="2:6" ht="112.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="155"/>
+      <c r="F3" s="103"/>
+    </row>
+    <row r="4" spans="2:6" ht="112.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6827,7 +7367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
@@ -6835,804 +7375,804 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="120" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="120" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" style="120" customWidth="1"/>
-    <col min="4" max="4" width="60.6640625" style="120" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="120" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="120"/>
+    <col min="1" max="1" width="3.7109375" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="68" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="68" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="128"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130"/>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="123"/>
-      <c r="C3" s="78" t="s">
+    <row r="1" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B2" s="76"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+    </row>
+    <row r="3" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B3" s="71"/>
+      <c r="C3" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="72"/>
+    </row>
+    <row r="4" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B4" s="71"/>
+      <c r="C4" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="E3" s="124"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="123"/>
-      <c r="C4" s="80" t="s">
+      <c r="E4" s="72"/>
+    </row>
+    <row r="5" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B5" s="71"/>
+      <c r="C5" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="80" t="s">
-        <v>325</v>
-      </c>
-      <c r="E4" s="124"/>
-    </row>
-    <row r="5" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B5" s="123"/>
-      <c r="C5" s="80" t="s">
-        <v>327</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>326</v>
-      </c>
-      <c r="E5" s="124"/>
-    </row>
-    <row r="6" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="131"/>
-      <c r="C6" s="132"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="133"/>
-    </row>
-    <row r="7" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="128"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="130"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="134"/>
-      <c r="C9" s="78" t="s">
+      <c r="E5" s="72"/>
+    </row>
+    <row r="6" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="81"/>
+    </row>
+    <row r="7" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B8" s="76"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+    </row>
+    <row r="9" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B9" s="82"/>
+      <c r="C9" s="47" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="83"/>
+    </row>
+    <row r="10" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B10" s="82"/>
+      <c r="C10" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" s="84" t="s">
         <v>311</v>
       </c>
-      <c r="D9" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="135"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="134"/>
-      <c r="C10" s="136" t="s">
+      <c r="E10" s="83"/>
+    </row>
+    <row r="11" spans="2:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="82"/>
+      <c r="C11" s="84" t="s">
         <v>312</v>
       </c>
-      <c r="D10" s="136" t="s">
+      <c r="D11" s="84" t="s">
         <v>313</v>
       </c>
-      <c r="E10" s="135"/>
-    </row>
-    <row r="11" spans="2:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="134"/>
-      <c r="C11" s="136" t="s">
+      <c r="E11" s="83"/>
+    </row>
+    <row r="12" spans="2:5" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="81"/>
+    </row>
+    <row r="14" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B15" s="76"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
+    </row>
+    <row r="16" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B16" s="82"/>
+      <c r="C16" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="D11" s="136" t="s">
+      <c r="D16" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="E11" s="135"/>
-    </row>
-    <row r="12" spans="2:5" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="131"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-    </row>
-    <row r="14" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="130"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="134"/>
-      <c r="C16" s="78" t="s">
+      <c r="E16" s="83"/>
+    </row>
+    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="82"/>
+      <c r="C17" s="84" t="s">
         <v>316</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D17" s="84" t="s">
         <v>317</v>
       </c>
-      <c r="E16" s="135"/>
-    </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="134"/>
-      <c r="C17" s="136" t="s">
+      <c r="E17" s="83"/>
+    </row>
+    <row r="18" spans="2:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="82"/>
+      <c r="C18" s="84" t="s">
         <v>318</v>
       </c>
-      <c r="D17" s="136" t="s">
+      <c r="D18" s="84" t="s">
         <v>319</v>
       </c>
-      <c r="E17" s="135"/>
-    </row>
-    <row r="18" spans="2:5" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="134"/>
-      <c r="C18" s="136" t="s">
+      <c r="E18" s="83"/>
+    </row>
+    <row r="19" spans="2:5" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="81"/>
+    </row>
+    <row r="20" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B21" s="76"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
+    </row>
+    <row r="22" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B22" s="51"/>
+      <c r="C22" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B23" s="71"/>
+      <c r="C23" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="72" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B24" s="71"/>
+      <c r="C24" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="72" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B25" s="71"/>
+      <c r="C25" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B26" s="71"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="72"/>
+    </row>
+    <row r="27" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B27" s="71"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="72"/>
+    </row>
+    <row r="28" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B28" s="71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="72" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+      <c r="B29" s="74" t="s">
+        <v>221</v>
+      </c>
+      <c r="C29" s="73" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" s="75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+      <c r="B30" s="74" t="s">
+        <v>218</v>
+      </c>
+      <c r="C30" s="73" t="s">
+        <v>217</v>
+      </c>
+      <c r="D30" s="75" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="79"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="81"/>
+    </row>
+    <row r="32" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="76"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="71"/>
+      <c r="C34" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="71"/>
+      <c r="C35" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="72"/>
+    </row>
+    <row r="36" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B36" s="71"/>
+      <c r="C36" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="72" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="71"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="72"/>
+    </row>
+    <row r="38" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="79"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="81"/>
+    </row>
+    <row r="41" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="76"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="78"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="71"/>
+      <c r="C43" s="47" t="s">
+        <v>282</v>
+      </c>
+      <c r="D43" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="F43" s="72"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="71"/>
+      <c r="C44" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="D44" s="49" t="s">
+        <v>281</v>
+      </c>
+      <c r="E44" s="49"/>
+      <c r="F44" s="72"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="85"/>
+      <c r="C45" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="E45" s="50"/>
+      <c r="F45" s="86"/>
+    </row>
+    <row r="46" spans="2:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B46" s="85"/>
+      <c r="C46" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="86"/>
+    </row>
+    <row r="47" spans="2:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="85"/>
+      <c r="C47" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="86"/>
+    </row>
+    <row r="48" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="79"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="81"/>
+    </row>
+    <row r="49" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="76"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="78"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="71"/>
+      <c r="C51" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>280</v>
+      </c>
+      <c r="F51" s="72"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="49"/>
+      <c r="E52" s="49"/>
+      <c r="F52" s="72"/>
+    </row>
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B53" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="49"/>
+      <c r="E53" s="49"/>
+      <c r="F53" s="72"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="49"/>
+      <c r="E54" s="49"/>
+      <c r="F54" s="72"/>
+    </row>
+    <row r="55" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B55" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C55" s="49" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="49"/>
+      <c r="E55" s="49"/>
+      <c r="F55" s="72"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>171</v>
+      </c>
+      <c r="D56" s="49"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="72"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="49"/>
+      <c r="F57" s="72"/>
+    </row>
+    <row r="58" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="49"/>
+      <c r="E58" s="49"/>
+      <c r="F58" s="72"/>
+    </row>
+    <row r="59" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B59" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="86"/>
+    </row>
+    <row r="60" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="D60" s="50"/>
+      <c r="E60" s="50"/>
+      <c r="F60" s="86"/>
+    </row>
+    <row r="61" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="79"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="80"/>
+      <c r="E61" s="80"/>
+      <c r="F61" s="81"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="54"/>
+      <c r="B63" s="55"/>
+    </row>
+    <row r="64" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="D18" s="136" t="s">
-        <v>321</v>
-      </c>
-      <c r="E18" s="135"/>
-    </row>
-    <row r="19" spans="2:5" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="132"/>
-      <c r="E19" s="133"/>
-    </row>
-    <row r="20" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="128"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="130"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="82"/>
-      <c r="C22" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="79" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="123"/>
-      <c r="C23" s="80" t="s">
-        <v>211</v>
-      </c>
-      <c r="D23" s="124" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="123"/>
-      <c r="C24" s="80" t="s">
-        <v>212</v>
-      </c>
-      <c r="D24" s="124" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="123"/>
-      <c r="C25" s="80" t="s">
-        <v>215</v>
-      </c>
-      <c r="D25" s="124" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="123"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="124"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="123"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="124"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="123" t="s">
-        <v>209</v>
-      </c>
-      <c r="C28" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="D28" s="124" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" s="126" t="s">
-        <v>223</v>
-      </c>
-      <c r="C29" s="125" t="s">
-        <v>222</v>
-      </c>
-      <c r="D29" s="127" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B30" s="126" t="s">
-        <v>220</v>
-      </c>
-      <c r="C30" s="125" t="s">
-        <v>219</v>
-      </c>
-      <c r="D30" s="127" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="131"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="133"/>
-    </row>
-    <row r="32" spans="2:5" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B33" s="128"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="130"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B34" s="123"/>
-      <c r="C34" s="78" t="s">
-        <v>160</v>
-      </c>
-      <c r="D34" s="78" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B35" s="123"/>
-      <c r="C35" s="80" t="s">
-        <v>162</v>
-      </c>
-      <c r="D35" s="124"/>
-    </row>
-    <row r="36" spans="2:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="B36" s="123"/>
-      <c r="C36" s="80" t="s">
-        <v>163</v>
-      </c>
-      <c r="D36" s="124" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B37" s="123"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="124"/>
-    </row>
-    <row r="38" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="131"/>
-      <c r="C38" s="132"/>
-      <c r="D38" s="133"/>
-    </row>
-    <row r="41" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B42" s="128"/>
-      <c r="C42" s="129"/>
-      <c r="D42" s="129"/>
-      <c r="E42" s="129"/>
-      <c r="F42" s="130"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B43" s="123"/>
-      <c r="C43" s="78" t="s">
-        <v>284</v>
-      </c>
-      <c r="D43" s="78" t="s">
-        <v>282</v>
-      </c>
-      <c r="F43" s="124"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B44" s="123"/>
-      <c r="C44" s="80" t="s">
-        <v>287</v>
-      </c>
-      <c r="D44" s="80" t="s">
-        <v>283</v>
-      </c>
-      <c r="E44" s="80"/>
-      <c r="F44" s="124"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B45" s="137"/>
-      <c r="C45" s="81" t="s">
+      <c r="B64" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="C64" s="56" t="s">
+        <v>245</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="E64" s="68" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="D65" s="57" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="D45" s="81" t="s">
-        <v>285</v>
-      </c>
-      <c r="E45" s="81"/>
-      <c r="F45" s="138"/>
-    </row>
-    <row r="46" spans="2:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="B46" s="137"/>
-      <c r="C46" s="81" t="s">
-        <v>286</v>
-      </c>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="138"/>
-    </row>
-    <row r="47" spans="2:6" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="137"/>
-      <c r="C47" s="84" t="s">
+      <c r="D66" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="81"/>
-      <c r="F47" s="138"/>
-    </row>
-    <row r="48" spans="2:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="131"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="133"/>
-    </row>
-    <row r="49" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B50" s="128"/>
-      <c r="C50" s="129"/>
-      <c r="D50" s="129"/>
-      <c r="E50" s="129"/>
-      <c r="F50" s="130"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B51" s="123"/>
-      <c r="C51" s="78" t="s">
-        <v>179</v>
-      </c>
-      <c r="D51" s="78" t="s">
-        <v>178</v>
-      </c>
-      <c r="E51" s="78" t="s">
-        <v>282</v>
-      </c>
-      <c r="F51" s="124"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B52" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="C52" s="80" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="124"/>
-    </row>
-    <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="B53" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" s="80" t="s">
-        <v>176</v>
-      </c>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="124"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>175</v>
-      </c>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="124"/>
-    </row>
-    <row r="55" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="B55" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" s="80" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="124"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B56" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="80" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="124"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B57" s="123" t="s">
-        <v>172</v>
-      </c>
-      <c r="C57" s="80" t="s">
-        <v>171</v>
-      </c>
-      <c r="D57" s="80" t="s">
-        <v>170</v>
-      </c>
-      <c r="E57" s="80"/>
-      <c r="F57" s="124"/>
-    </row>
-    <row r="58" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="B58" s="123" t="s">
-        <v>167</v>
-      </c>
-      <c r="C58" s="80" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="124"/>
-    </row>
-    <row r="59" spans="1:6" ht="60" x14ac:dyDescent="0.2">
-      <c r="B59" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" s="81"/>
-      <c r="E59" s="81"/>
-      <c r="F59" s="138"/>
-    </row>
-    <row r="60" spans="1:6" ht="24" x14ac:dyDescent="0.2">
-      <c r="B60" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" s="81" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="138"/>
-    </row>
-    <row r="61" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="131"/>
-      <c r="C61" s="132"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="133"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="85"/>
-      <c r="B63" s="86"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B64" s="87" t="s">
+    </row>
+    <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+    </row>
+    <row r="69" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+    </row>
+    <row r="71" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="69"/>
+      <c r="B71" s="70"/>
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+    </row>
+    <row r="72" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>238</v>
+      </c>
+      <c r="C72" s="56" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" s="56" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57" t="s">
+        <v>290</v>
+      </c>
+      <c r="D73" s="68" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A74" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="D74" s="57" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="54" t="s">
+        <v>320</v>
+      </c>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="C78" s="58" t="s">
+        <v>254</v>
+      </c>
+      <c r="D78" s="58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B79" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="57" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B80" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+    </row>
+    <row r="81" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="B81" s="57" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="87" t="s">
+      <c r="C81" s="57" t="s">
         <v>247</v>
       </c>
-      <c r="D64" s="87" t="s">
-        <v>246</v>
-      </c>
-      <c r="E64" s="120" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B65" s="88"/>
-      <c r="C65" s="88" t="s">
-        <v>244</v>
-      </c>
-      <c r="D65" s="88" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="144" x14ac:dyDescent="0.2">
-      <c r="A66" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88" t="s">
-        <v>290</v>
-      </c>
-      <c r="D66" s="88" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B67" s="88"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="88" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="88"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B70" s="88"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-    </row>
-    <row r="71" spans="1:4" s="95" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="121"/>
-      <c r="B71" s="122"/>
-      <c r="C71" s="122"/>
-      <c r="D71" s="122"/>
-    </row>
-    <row r="72" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A72" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B72" s="87" t="s">
-        <v>240</v>
-      </c>
-      <c r="C72" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="D72" s="87" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A73" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B73" s="88"/>
-      <c r="C73" s="88" t="s">
-        <v>292</v>
-      </c>
-      <c r="D73" s="120" t="s">
+      <c r="D81" s="59" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A74" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B74" s="88"/>
-      <c r="C74" s="88" t="s">
-        <v>237</v>
-      </c>
-      <c r="D74" s="88" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B75" s="88"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="88" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="85" t="s">
-        <v>322</v>
-      </c>
-      <c r="B76" s="88"/>
-      <c r="C76" s="88"/>
-      <c r="D76" s="88"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="B78" s="89" t="s">
+    <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B84" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="C78" s="89" t="s">
+      <c r="C84" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" s="60" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="D78" s="89" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="36" x14ac:dyDescent="0.2">
-      <c r="A79" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="B79" s="88" t="s">
-        <v>255</v>
-      </c>
-      <c r="C79" s="88" t="s">
-        <v>254</v>
-      </c>
-      <c r="D79" s="88" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="253.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="B80" s="88" t="s">
-        <v>253</v>
-      </c>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-    </row>
-    <row r="81" spans="1:4" ht="204" x14ac:dyDescent="0.2">
-      <c r="A81" s="85" t="s">
-        <v>252</v>
-      </c>
-      <c r="B81" s="88" t="s">
-        <v>250</v>
-      </c>
-      <c r="C81" s="88" t="s">
-        <v>249</v>
-      </c>
-      <c r="D81" s="90" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A84" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="B84" s="91" t="s">
-        <v>259</v>
-      </c>
-      <c r="C84" s="91" t="s">
+      <c r="B85" s="57"/>
+      <c r="C85" s="59" t="s">
         <v>260</v>
       </c>
-      <c r="D84" s="91" t="s">
+      <c r="D85" s="59" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="84" x14ac:dyDescent="0.2">
-      <c r="A85" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="B85" s="88"/>
-      <c r="C85" s="90" t="s">
+    <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="D85" s="90" t="s">
+      <c r="D86" s="57" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A86" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="B86" s="88"/>
-      <c r="C86" s="88" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="54"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="D86" s="88" t="s">
+      <c r="D87" s="57" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="85"/>
-      <c r="B87" s="88"/>
-      <c r="C87" s="88" t="s">
+    <row r="88" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="D87" s="88" t="s">
+      <c r="D88" s="57" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="B88" s="88"/>
-      <c r="C88" s="88" t="s">
+    <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D88" s="88" t="s">
+      <c r="D89" s="57" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A89" s="85" t="s">
-        <v>258</v>
-      </c>
-      <c r="B89" s="88"/>
-      <c r="C89" s="88" t="s">
+    <row r="91" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A92" s="54" t="s">
         <v>270</v>
       </c>
-      <c r="D89" s="88" t="s">
+      <c r="B92" s="61"/>
+      <c r="C92" s="62" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="85" t="s">
+      <c r="D92" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="B92" s="92"/>
-      <c r="C92" s="93" t="s">
+    </row>
+    <row r="93" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="54"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="64" t="s">
         <v>273</v>
       </c>
-      <c r="D92" s="94" t="s">
+      <c r="D93" s="65" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="72" x14ac:dyDescent="0.2">
-      <c r="A93" s="85"/>
-      <c r="B93" s="95"/>
-      <c r="C93" s="95" t="s">
+    <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="54"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="D93" s="96" t="s">
+    </row>
+    <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A95" s="54"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="64" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A94" s="85"/>
-      <c r="B94" s="95"/>
-      <c r="C94" s="95"/>
-      <c r="D94" s="96" t="s">
+      <c r="D95" s="65" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="24" x14ac:dyDescent="0.2">
-      <c r="A95" s="85"/>
-      <c r="B95" s="95"/>
-      <c r="C95" s="95" t="s">
-        <v>278</v>
-      </c>
-      <c r="D95" s="96" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="85"/>
-      <c r="B96" s="95"/>
-      <c r="C96" s="95"/>
-      <c r="D96" s="96"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="85"/>
-      <c r="B97" s="95"/>
-      <c r="C97" s="95"/>
-      <c r="D97" s="96"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="85"/>
-      <c r="B98" s="95"/>
-      <c r="C98" s="95"/>
-      <c r="D98" s="96"/>
-    </row>
-    <row r="99" spans="1:4" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="85"/>
-      <c r="B99" s="97"/>
-      <c r="C99" s="97"/>
-      <c r="D99" s="98"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="85"/>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="54"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="65"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="54"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="64"/>
+      <c r="D97" s="65"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="54"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="64"/>
+      <c r="D98" s="65"/>
+    </row>
+    <row r="99" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="54"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="67"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7641,7 +8181,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:C4"/>
   <sheetViews>
@@ -7649,16 +8189,16 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="65.83203125" customWidth="1"/>
-    <col min="4" max="4" width="72.1640625" customWidth="1"/>
+    <col min="3" max="3" width="65.85546875" customWidth="1"/>
+    <col min="4" max="4" width="72.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:3" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="3:3" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -7667,7 +8207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G10"/>
   <sheetViews>
@@ -7675,61 +8215,61 @@
       <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="41.1640625" customWidth="1"/>
-    <col min="7" max="7" width="49.1640625" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
+    <col min="7" max="7" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" s="83" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="C3" s="156" t="s">
+    <row r="3" spans="2:7" s="52" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="C3" s="104" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="52" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="52" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="83" t="s">
+      <c r="C4" s="104" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" s="83" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="83" t="s">
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="C4" s="156" t="s">
+      <c r="G4" s="52" t="s">
         <v>227</v>
       </c>
-      <c r="D4" s="156"/>
-      <c r="E4" s="156"/>
-      <c r="F4" s="83" t="s">
+    </row>
+    <row r="6" spans="2:7" s="52" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="B6" s="52" t="s">
         <v>228</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="C6" s="52" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="2:7" s="83" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="B6" s="83" t="s">
+    <row r="9" spans="2:7" s="52" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B9" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="83" t="s">
+      <c r="C9" s="52" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="83" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="B9" s="83" t="s">
+    <row r="10" spans="2:7" s="52" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B10" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C10" s="52" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" s="83" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="B10" s="83" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="83" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -7739,31 +8279,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>280</v>
-      </c>
-      <c r="C3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/System_Design_Architecture.xlsx
+++ b/System_Design_Architecture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="384">
   <si>
     <t>Scalability</t>
   </si>
@@ -1738,6 +1738,9 @@
   </si>
   <si>
     <t>Caching</t>
+  </si>
+  <si>
+    <t>process of defining architecture, layers, modules, components, interfaces and data model to satisfy specific requirement.</t>
   </si>
 </sst>
 </file>
@@ -2633,7 +2636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2905,6 +2908,219 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2923,21 +3139,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2947,259 +3175,67 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4630,8 +4666,8 @@
       <c r="D34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="91"/>
-      <c r="F34" s="92"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="163"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -4644,8 +4680,8 @@
       <c r="D35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="93"/>
-      <c r="F35" s="94"/>
+      <c r="E35" s="164"/>
+      <c r="F35" s="165"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -4658,8 +4694,8 @@
       <c r="D36" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="93"/>
-      <c r="F36" s="94"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="165"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
@@ -4672,8 +4708,8 @@
       <c r="D37" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="93"/>
-      <c r="F37" s="94"/>
+      <c r="E37" s="164"/>
+      <c r="F37" s="165"/>
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
@@ -4686,8 +4722,8 @@
       <c r="D38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="93"/>
-      <c r="F38" s="94"/>
+      <c r="E38" s="164"/>
+      <c r="F38" s="165"/>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
@@ -4700,8 +4736,8 @@
       <c r="D39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="95"/>
-      <c r="F39" s="96"/>
+      <c r="E39" s="166"/>
+      <c r="F39" s="167"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
@@ -4829,1228 +4865,1228 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AA87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="105" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="105" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="105" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="105" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="105" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="105"/>
+    <col min="1" max="1" width="3.28515625" style="91" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="91" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="91" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="91" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="91"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="91" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="108"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="94"/>
     </row>
     <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="105" t="s">
+      <c r="A6" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="B6" s="109" t="s">
+      <c r="B6" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="110" t="s">
+      <c r="C6" s="96" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="111"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="112"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
     </row>
     <row r="7" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="113"/>
-      <c r="C7" s="114" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="100" t="s">
         <v>301</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="111"/>
-      <c r="G7" s="112"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
     </row>
     <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="115"/>
-      <c r="C8" s="116" t="s">
+      <c r="B8" s="101"/>
+      <c r="C8" s="102" t="s">
         <v>104</v>
       </c>
-      <c r="D8" s="117" t="s">
+      <c r="D8" s="103" t="s">
         <v>304</v>
       </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="115"/>
-      <c r="C9" s="116" t="s">
+      <c r="B9" s="101"/>
+      <c r="C9" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="D9" s="118" t="s">
+      <c r="D9" s="104" t="s">
         <v>305</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="119"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="115"/>
-      <c r="C10" s="116" t="s">
+      <c r="B10" s="101"/>
+      <c r="C10" s="102" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="117" t="s">
+      <c r="D10" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="119"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="105"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="115"/>
-      <c r="C11" s="116" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="102" t="s">
         <v>302</v>
       </c>
-      <c r="D11" s="118" t="s">
+      <c r="D11" s="104" t="s">
         <v>306</v>
       </c>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="105"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="120"/>
-      <c r="C12" s="121"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
-      <c r="G12" s="122"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="108"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="108"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="94"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="91" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="109" t="s">
+      <c r="B15" s="95" t="s">
         <v>308</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="97" t="s">
         <v>298</v>
       </c>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="112"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
     </row>
     <row r="16" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="120"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
-      <c r="G16" s="122"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="108"/>
     </row>
     <row r="17" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="123"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="108"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="94"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="110" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="126"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="112"/>
     </row>
     <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="120"/>
-      <c r="C20" s="121"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="121"/>
-      <c r="F20" s="121"/>
-      <c r="G20" s="122"/>
+      <c r="B20" s="106"/>
+      <c r="C20" s="107"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="108"/>
     </row>
     <row r="21" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="108"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
     </row>
     <row r="23" spans="2:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="B23" s="127" t="s">
+      <c r="B23" s="113" t="s">
         <v>380</v>
       </c>
-      <c r="C23" s="128" t="s">
+      <c r="C23" s="114" t="s">
         <v>361</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="98"/>
     </row>
     <row r="24" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="129"/>
-      <c r="C24" s="130" t="s">
+      <c r="B24" s="115"/>
+      <c r="C24" s="116" t="s">
         <v>363</v>
       </c>
-      <c r="D24" s="117" t="s">
+      <c r="D24" s="103" t="s">
         <v>381</v>
       </c>
-      <c r="E24" s="118" t="s">
+      <c r="E24" s="104" t="s">
         <v>366</v>
       </c>
-      <c r="F24" s="118"/>
-      <c r="G24" s="119"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="105"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="129"/>
-      <c r="C25" s="130" t="s">
+      <c r="B25" s="115"/>
+      <c r="C25" s="116" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="104" t="s">
         <v>367</v>
       </c>
-      <c r="E25" s="118" t="s">
+      <c r="E25" s="104" t="s">
         <v>368</v>
       </c>
-      <c r="F25" s="118"/>
-      <c r="G25" s="119"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="105"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="129"/>
-      <c r="C26" s="130" t="s">
+      <c r="B26" s="115"/>
+      <c r="C26" s="116" t="s">
         <v>364</v>
       </c>
-      <c r="D26" s="118" t="s">
+      <c r="D26" s="104" t="s">
         <v>365</v>
       </c>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="119"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="105"/>
     </row>
     <row r="27" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="120"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="121"/>
-      <c r="F27" s="121"/>
-      <c r="G27" s="122"/>
+      <c r="B27" s="106"/>
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="108"/>
     </row>
     <row r="28" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="123"/>
-      <c r="C28" s="123"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="123"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="123"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="109"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="109"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="106"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="108"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="94"/>
     </row>
     <row r="30" spans="2:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="110" t="s">
         <v>369</v>
       </c>
-      <c r="C30" s="131" t="s">
+      <c r="C30" s="117" t="s">
         <v>370</v>
       </c>
-      <c r="D30" s="125" t="s">
+      <c r="D30" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="126"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="112"/>
     </row>
     <row r="31" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="120"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="122"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="107"/>
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="108"/>
     </row>
     <row r="32" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="123"/>
-      <c r="C32" s="123"/>
-      <c r="D32" s="123"/>
-      <c r="E32" s="123"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="123"/>
+      <c r="B32" s="109"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B33" s="106"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="108"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+      <c r="G33" s="94"/>
     </row>
     <row r="34" spans="1:27" ht="51" x14ac:dyDescent="0.25">
-      <c r="B34" s="124" t="s">
+      <c r="B34" s="110" t="s">
         <v>371</v>
       </c>
-      <c r="C34" s="131" t="s">
+      <c r="C34" s="117" t="s">
         <v>372</v>
       </c>
-      <c r="D34" s="125" t="s">
+      <c r="D34" s="111" t="s">
         <v>374</v>
       </c>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="126"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="112"/>
     </row>
     <row r="35" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="120"/>
-      <c r="C35" s="121"/>
-      <c r="D35" s="121"/>
-      <c r="E35" s="121"/>
-      <c r="F35" s="121"/>
-      <c r="G35" s="122"/>
-    </row>
-    <row r="36" spans="1:27" s="132" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
+      <c r="B35" s="106"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="108"/>
+    </row>
+    <row r="36" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="119"/>
+      <c r="C36" s="119"/>
+      <c r="D36" s="119"/>
+      <c r="E36" s="119"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
     </row>
     <row r="37" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="123"/>
-      <c r="C37" s="123"/>
-      <c r="D37" s="123"/>
-      <c r="E37" s="123"/>
-      <c r="F37" s="123"/>
-      <c r="G37" s="123"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="109"/>
+      <c r="D37" s="109"/>
+      <c r="E37" s="109"/>
+      <c r="F37" s="109"/>
+      <c r="G37" s="109"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="108"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="93"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="94"/>
     </row>
     <row r="39" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="124" t="s">
+      <c r="B39" s="110" t="s">
         <v>375</v>
       </c>
-      <c r="C39" s="131" t="s">
+      <c r="C39" s="117" t="s">
         <v>376</v>
       </c>
-      <c r="D39" s="125" t="s">
+      <c r="D39" s="111" t="s">
         <v>377</v>
       </c>
-      <c r="E39" s="125"/>
-      <c r="F39" s="125"/>
-      <c r="G39" s="126"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="112"/>
     </row>
     <row r="40" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="120"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="122"/>
+      <c r="B40" s="106"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="107"/>
+      <c r="E40" s="107"/>
+      <c r="F40" s="107"/>
+      <c r="G40" s="108"/>
     </row>
     <row r="41" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="123"/>
-      <c r="C41" s="123"/>
-      <c r="D41" s="123"/>
-      <c r="E41" s="123"/>
-      <c r="F41" s="123"/>
-      <c r="G41" s="123"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="109"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="109"/>
+      <c r="G41" s="109"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="106"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="108"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="93"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="94"/>
     </row>
     <row r="43" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B43" s="124" t="s">
+      <c r="B43" s="110" t="s">
         <v>378</v>
       </c>
-      <c r="C43" s="131" t="s">
+      <c r="C43" s="117" t="s">
         <v>379</v>
       </c>
-      <c r="D43" s="125"/>
-      <c r="E43" s="125"/>
-      <c r="F43" s="125"/>
-      <c r="G43" s="126"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="112"/>
     </row>
     <row r="44" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="120"/>
-      <c r="C44" s="121"/>
-      <c r="D44" s="121"/>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="122"/>
-    </row>
-    <row r="45" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="133"/>
-      <c r="C45" s="133"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-    </row>
-    <row r="46" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="134"/>
-      <c r="B46" s="135"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="138"/>
-      <c r="I46" s="132"/>
-      <c r="J46" s="132"/>
-      <c r="K46" s="132"/>
-      <c r="L46" s="132"/>
-      <c r="M46" s="132"/>
-      <c r="N46" s="132"/>
-      <c r="O46" s="132"/>
-      <c r="P46" s="132"/>
-      <c r="Q46" s="132"/>
-      <c r="R46" s="132"/>
-      <c r="S46" s="132"/>
-      <c r="T46" s="132"/>
-      <c r="U46" s="132"/>
-      <c r="V46" s="132"/>
-      <c r="W46" s="132"/>
-      <c r="X46" s="132"/>
-      <c r="Y46" s="132"/>
-      <c r="Z46" s="132"/>
-      <c r="AA46" s="132"/>
-    </row>
-    <row r="47" spans="1:27" s="139" customFormat="1" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="134"/>
-      <c r="B47" s="140" t="s">
+      <c r="B44" s="106"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="108"/>
+    </row>
+    <row r="45" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
+      <c r="E45" s="119"/>
+      <c r="F45" s="119"/>
+      <c r="G45" s="119"/>
+    </row>
+    <row r="46" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="120"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="122"/>
+      <c r="D46" s="122"/>
+      <c r="E46" s="122"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="123"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="118"/>
+      <c r="K46" s="118"/>
+      <c r="L46" s="118"/>
+      <c r="M46" s="118"/>
+      <c r="N46" s="118"/>
+      <c r="O46" s="118"/>
+      <c r="P46" s="118"/>
+      <c r="Q46" s="118"/>
+      <c r="R46" s="118"/>
+      <c r="S46" s="118"/>
+      <c r="T46" s="118"/>
+      <c r="U46" s="118"/>
+      <c r="V46" s="118"/>
+      <c r="W46" s="118"/>
+      <c r="X46" s="118"/>
+      <c r="Y46" s="118"/>
+      <c r="Z46" s="118"/>
+      <c r="AA46" s="118"/>
+    </row>
+    <row r="47" spans="1:27" s="125" customFormat="1" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="120"/>
+      <c r="B47" s="126" t="s">
         <v>119</v>
       </c>
-      <c r="C47" s="141" t="s">
+      <c r="C47" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="D47" s="142"/>
-      <c r="E47" s="141"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="143"/>
-      <c r="H47" s="138"/>
-      <c r="I47" s="132"/>
-      <c r="J47" s="132"/>
-      <c r="K47" s="132"/>
-      <c r="L47" s="132"/>
-      <c r="M47" s="132"/>
-      <c r="N47" s="132"/>
-      <c r="O47" s="132"/>
-      <c r="P47" s="132"/>
-      <c r="Q47" s="132"/>
-      <c r="R47" s="132"/>
-      <c r="S47" s="132"/>
-      <c r="T47" s="132"/>
-      <c r="U47" s="132"/>
-      <c r="V47" s="132"/>
-      <c r="W47" s="132"/>
-      <c r="X47" s="132"/>
-      <c r="Y47" s="132"/>
-      <c r="Z47" s="132"/>
-      <c r="AA47" s="132"/>
-    </row>
-    <row r="48" spans="1:27" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="134"/>
-      <c r="B48" s="144"/>
-      <c r="C48" s="145"/>
-      <c r="D48" s="145"/>
-      <c r="E48" s="145"/>
-      <c r="F48" s="145"/>
-      <c r="G48" s="146"/>
-      <c r="H48" s="138"/>
-      <c r="I48" s="132"/>
-      <c r="J48" s="132"/>
-      <c r="K48" s="132"/>
-      <c r="L48" s="132"/>
-      <c r="M48" s="132"/>
-      <c r="N48" s="132"/>
-      <c r="O48" s="132"/>
-      <c r="P48" s="132"/>
-      <c r="Q48" s="132"/>
-      <c r="R48" s="132"/>
-      <c r="S48" s="132"/>
-      <c r="T48" s="132"/>
-      <c r="U48" s="132"/>
-      <c r="V48" s="132"/>
-      <c r="W48" s="132"/>
-      <c r="X48" s="132"/>
-      <c r="Y48" s="132"/>
-      <c r="Z48" s="132"/>
-      <c r="AA48" s="132"/>
-    </row>
-    <row r="49" spans="1:27" s="134" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:27" s="134" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="132"/>
-      <c r="B51" s="147"/>
-      <c r="C51" s="148"/>
-      <c r="D51" s="148"/>
-      <c r="E51" s="148"/>
-      <c r="F51" s="148"/>
-      <c r="G51" s="149"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="132"/>
-      <c r="J51" s="132"/>
-      <c r="K51" s="132"/>
-      <c r="L51" s="132"/>
-      <c r="M51" s="132"/>
-      <c r="N51" s="132"/>
-      <c r="O51" s="132"/>
-      <c r="P51" s="132"/>
-      <c r="Q51" s="132"/>
-      <c r="R51" s="132"/>
-      <c r="S51" s="132"/>
-      <c r="T51" s="132"/>
-      <c r="U51" s="132"/>
-      <c r="V51" s="132"/>
-      <c r="W51" s="132"/>
-      <c r="X51" s="132"/>
-      <c r="Y51" s="132"/>
-      <c r="Z51" s="132"/>
-      <c r="AA51" s="132"/>
-    </row>
-    <row r="52" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="132"/>
-      <c r="B52" s="150" t="s">
+      <c r="D47" s="169"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="169"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="118"/>
+      <c r="J47" s="118"/>
+      <c r="K47" s="118"/>
+      <c r="L47" s="118"/>
+      <c r="M47" s="118"/>
+      <c r="N47" s="118"/>
+      <c r="O47" s="118"/>
+      <c r="P47" s="118"/>
+      <c r="Q47" s="118"/>
+      <c r="R47" s="118"/>
+      <c r="S47" s="118"/>
+      <c r="T47" s="118"/>
+      <c r="U47" s="118"/>
+      <c r="V47" s="118"/>
+      <c r="W47" s="118"/>
+      <c r="X47" s="118"/>
+      <c r="Y47" s="118"/>
+      <c r="Z47" s="118"/>
+      <c r="AA47" s="118"/>
+    </row>
+    <row r="48" spans="1:27" s="125" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="120"/>
+      <c r="B48" s="128"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="130"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="118"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="118"/>
+      <c r="N48" s="118"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="118"/>
+      <c r="Q48" s="118"/>
+      <c r="R48" s="118"/>
+      <c r="S48" s="118"/>
+      <c r="T48" s="118"/>
+      <c r="U48" s="118"/>
+      <c r="V48" s="118"/>
+      <c r="W48" s="118"/>
+      <c r="X48" s="118"/>
+      <c r="Y48" s="118"/>
+      <c r="Z48" s="118"/>
+      <c r="AA48" s="118"/>
+    </row>
+    <row r="49" spans="1:27" s="120" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:27" s="120" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="118"/>
+      <c r="B51" s="131"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="118"/>
+      <c r="K51" s="118"/>
+      <c r="L51" s="118"/>
+      <c r="M51" s="118"/>
+      <c r="N51" s="118"/>
+      <c r="O51" s="118"/>
+      <c r="P51" s="118"/>
+      <c r="Q51" s="118"/>
+      <c r="R51" s="118"/>
+      <c r="S51" s="118"/>
+      <c r="T51" s="118"/>
+      <c r="U51" s="118"/>
+      <c r="V51" s="118"/>
+      <c r="W51" s="118"/>
+      <c r="X51" s="118"/>
+      <c r="Y51" s="118"/>
+      <c r="Z51" s="118"/>
+      <c r="AA51" s="118"/>
+    </row>
+    <row r="52" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="118"/>
+      <c r="B52" s="134" t="s">
         <v>145</v>
       </c>
-      <c r="C52" s="151" t="s">
+      <c r="C52" s="170" t="s">
         <v>151</v>
       </c>
-      <c r="D52" s="151"/>
-      <c r="E52" s="152"/>
-      <c r="F52" s="152"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="138"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
-      <c r="K52" s="132"/>
-      <c r="L52" s="132"/>
-      <c r="M52" s="132"/>
-      <c r="N52" s="132"/>
-      <c r="O52" s="132"/>
-      <c r="P52" s="132"/>
-      <c r="Q52" s="132"/>
-      <c r="R52" s="132"/>
-      <c r="S52" s="132"/>
-      <c r="T52" s="132"/>
-      <c r="U52" s="132"/>
-      <c r="V52" s="132"/>
-      <c r="W52" s="132"/>
-      <c r="X52" s="132"/>
-      <c r="Y52" s="132"/>
-      <c r="Z52" s="132"/>
-      <c r="AA52" s="132"/>
-    </row>
-    <row r="53" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="132"/>
-      <c r="B53" s="150"/>
-      <c r="C53" s="152" t="s">
+      <c r="D52" s="170"/>
+      <c r="E52" s="135"/>
+      <c r="F52" s="135"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="118"/>
+      <c r="K52" s="118"/>
+      <c r="L52" s="118"/>
+      <c r="M52" s="118"/>
+      <c r="N52" s="118"/>
+      <c r="O52" s="118"/>
+      <c r="P52" s="118"/>
+      <c r="Q52" s="118"/>
+      <c r="R52" s="118"/>
+      <c r="S52" s="118"/>
+      <c r="T52" s="118"/>
+      <c r="U52" s="118"/>
+      <c r="V52" s="118"/>
+      <c r="W52" s="118"/>
+      <c r="X52" s="118"/>
+      <c r="Y52" s="118"/>
+      <c r="Z52" s="118"/>
+      <c r="AA52" s="118"/>
+    </row>
+    <row r="53" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="118"/>
+      <c r="B53" s="134"/>
+      <c r="C53" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="D53" s="152" t="s">
+      <c r="D53" s="135" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="152"/>
-      <c r="F53" s="152"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="138"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="132"/>
-      <c r="K53" s="132"/>
-      <c r="L53" s="132"/>
-      <c r="M53" s="132"/>
-      <c r="N53" s="132"/>
-      <c r="O53" s="132"/>
-      <c r="P53" s="132"/>
-      <c r="Q53" s="132"/>
-      <c r="R53" s="132"/>
-      <c r="S53" s="132"/>
-      <c r="T53" s="132"/>
-      <c r="U53" s="132"/>
-      <c r="V53" s="132"/>
-      <c r="W53" s="132"/>
-      <c r="X53" s="132"/>
-      <c r="Y53" s="132"/>
-      <c r="Z53" s="132"/>
-      <c r="AA53" s="132"/>
-    </row>
-    <row r="54" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="132"/>
-      <c r="B54" s="150"/>
-      <c r="C54" s="152" t="s">
+      <c r="E53" s="135"/>
+      <c r="F53" s="135"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="118"/>
+      <c r="L53" s="118"/>
+      <c r="M53" s="118"/>
+      <c r="N53" s="118"/>
+      <c r="O53" s="118"/>
+      <c r="P53" s="118"/>
+      <c r="Q53" s="118"/>
+      <c r="R53" s="118"/>
+      <c r="S53" s="118"/>
+      <c r="T53" s="118"/>
+      <c r="U53" s="118"/>
+      <c r="V53" s="118"/>
+      <c r="W53" s="118"/>
+      <c r="X53" s="118"/>
+      <c r="Y53" s="118"/>
+      <c r="Z53" s="118"/>
+      <c r="AA53" s="118"/>
+    </row>
+    <row r="54" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="118"/>
+      <c r="B54" s="134"/>
+      <c r="C54" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="152" t="s">
+      <c r="D54" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="E54" s="152"/>
-      <c r="F54" s="152"/>
-      <c r="G54" s="153"/>
-      <c r="H54" s="138"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="132"/>
-      <c r="K54" s="132"/>
-      <c r="L54" s="132"/>
-      <c r="M54" s="132"/>
-      <c r="N54" s="132"/>
-      <c r="O54" s="132"/>
-      <c r="P54" s="132"/>
-      <c r="Q54" s="132"/>
-      <c r="R54" s="132"/>
-      <c r="S54" s="132"/>
-      <c r="T54" s="132"/>
-      <c r="U54" s="132"/>
-      <c r="V54" s="132"/>
-      <c r="W54" s="132"/>
-      <c r="X54" s="132"/>
-      <c r="Y54" s="132"/>
-      <c r="Z54" s="132"/>
-      <c r="AA54" s="132"/>
-    </row>
-    <row r="55" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="132"/>
-      <c r="B55" s="150"/>
-      <c r="C55" s="152" t="s">
+      <c r="E54" s="135"/>
+      <c r="F54" s="135"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="118"/>
+      <c r="J54" s="118"/>
+      <c r="K54" s="118"/>
+      <c r="L54" s="118"/>
+      <c r="M54" s="118"/>
+      <c r="N54" s="118"/>
+      <c r="O54" s="118"/>
+      <c r="P54" s="118"/>
+      <c r="Q54" s="118"/>
+      <c r="R54" s="118"/>
+      <c r="S54" s="118"/>
+      <c r="T54" s="118"/>
+      <c r="U54" s="118"/>
+      <c r="V54" s="118"/>
+      <c r="W54" s="118"/>
+      <c r="X54" s="118"/>
+      <c r="Y54" s="118"/>
+      <c r="Z54" s="118"/>
+      <c r="AA54" s="118"/>
+    </row>
+    <row r="55" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="118"/>
+      <c r="B55" s="134"/>
+      <c r="C55" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="D55" s="152" t="s">
+      <c r="D55" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="E55" s="152"/>
-      <c r="F55" s="152"/>
-      <c r="G55" s="153"/>
-      <c r="H55" s="138"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="132"/>
-      <c r="K55" s="132"/>
-      <c r="L55" s="132"/>
-      <c r="M55" s="132"/>
-      <c r="N55" s="132"/>
-      <c r="O55" s="132"/>
-      <c r="P55" s="132"/>
-      <c r="Q55" s="132"/>
-      <c r="R55" s="132"/>
-      <c r="S55" s="132"/>
-      <c r="T55" s="132"/>
-      <c r="U55" s="132"/>
-      <c r="V55" s="132"/>
-      <c r="W55" s="132"/>
-      <c r="X55" s="132"/>
-      <c r="Y55" s="132"/>
-      <c r="Z55" s="132"/>
-      <c r="AA55" s="132"/>
-    </row>
-    <row r="56" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="132"/>
-      <c r="B56" s="154"/>
-      <c r="C56" s="152" t="s">
+      <c r="E55" s="135"/>
+      <c r="F55" s="135"/>
+      <c r="G55" s="136"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="118"/>
+      <c r="L55" s="118"/>
+      <c r="M55" s="118"/>
+      <c r="N55" s="118"/>
+      <c r="O55" s="118"/>
+      <c r="P55" s="118"/>
+      <c r="Q55" s="118"/>
+      <c r="R55" s="118"/>
+      <c r="S55" s="118"/>
+      <c r="T55" s="118"/>
+      <c r="U55" s="118"/>
+      <c r="V55" s="118"/>
+      <c r="W55" s="118"/>
+      <c r="X55" s="118"/>
+      <c r="Y55" s="118"/>
+      <c r="Z55" s="118"/>
+      <c r="AA55" s="118"/>
+    </row>
+    <row r="56" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="118"/>
+      <c r="B56" s="137"/>
+      <c r="C56" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="D56" s="155" t="s">
+      <c r="D56" s="138" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="155"/>
-      <c r="F56" s="155"/>
-      <c r="G56" s="156"/>
-      <c r="H56" s="138"/>
-      <c r="I56" s="132"/>
-      <c r="J56" s="132"/>
-      <c r="K56" s="132"/>
-      <c r="L56" s="132"/>
-      <c r="M56" s="132"/>
-      <c r="N56" s="132"/>
-      <c r="O56" s="132"/>
-      <c r="P56" s="132"/>
-      <c r="Q56" s="132"/>
-      <c r="R56" s="132"/>
-      <c r="S56" s="132"/>
-      <c r="T56" s="132"/>
-      <c r="U56" s="132"/>
-      <c r="V56" s="132"/>
-      <c r="W56" s="132"/>
-      <c r="X56" s="132"/>
-      <c r="Y56" s="132"/>
-      <c r="Z56" s="132"/>
-      <c r="AA56" s="132"/>
-    </row>
-    <row r="57" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="132"/>
-      <c r="B57" s="154"/>
-      <c r="C57" s="155" t="s">
+      <c r="E56" s="138"/>
+      <c r="F56" s="138"/>
+      <c r="G56" s="139"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="118"/>
+      <c r="K56" s="118"/>
+      <c r="L56" s="118"/>
+      <c r="M56" s="118"/>
+      <c r="N56" s="118"/>
+      <c r="O56" s="118"/>
+      <c r="P56" s="118"/>
+      <c r="Q56" s="118"/>
+      <c r="R56" s="118"/>
+      <c r="S56" s="118"/>
+      <c r="T56" s="118"/>
+      <c r="U56" s="118"/>
+      <c r="V56" s="118"/>
+      <c r="W56" s="118"/>
+      <c r="X56" s="118"/>
+      <c r="Y56" s="118"/>
+      <c r="Z56" s="118"/>
+      <c r="AA56" s="118"/>
+    </row>
+    <row r="57" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="118"/>
+      <c r="B57" s="137"/>
+      <c r="C57" s="138" t="s">
         <v>150</v>
       </c>
-      <c r="D57" s="155" t="s">
+      <c r="D57" s="138" t="s">
         <v>156</v>
       </c>
-      <c r="E57" s="155"/>
-      <c r="F57" s="155"/>
-      <c r="G57" s="156"/>
-      <c r="H57" s="138"/>
-      <c r="I57" s="132"/>
-      <c r="J57" s="132"/>
-      <c r="K57" s="132"/>
-      <c r="L57" s="132"/>
-      <c r="M57" s="132"/>
-      <c r="N57" s="132"/>
-      <c r="O57" s="132"/>
-      <c r="P57" s="132"/>
-      <c r="Q57" s="132"/>
-      <c r="R57" s="132"/>
-      <c r="S57" s="132"/>
-      <c r="T57" s="132"/>
-      <c r="U57" s="132"/>
-      <c r="V57" s="132"/>
-      <c r="W57" s="132"/>
-      <c r="X57" s="132"/>
-      <c r="Y57" s="132"/>
-      <c r="Z57" s="132"/>
-      <c r="AA57" s="132"/>
-    </row>
-    <row r="58" spans="1:27" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="132"/>
-      <c r="B58" s="157"/>
-      <c r="C58" s="158"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="158"/>
-      <c r="G58" s="159"/>
-      <c r="H58" s="138"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
-      <c r="K58" s="132"/>
-      <c r="L58" s="132"/>
-      <c r="M58" s="132"/>
-      <c r="N58" s="132"/>
-      <c r="O58" s="132"/>
-      <c r="P58" s="132"/>
-      <c r="Q58" s="132"/>
-      <c r="R58" s="132"/>
-      <c r="S58" s="132"/>
-      <c r="T58" s="132"/>
-      <c r="U58" s="132"/>
-      <c r="V58" s="132"/>
-      <c r="W58" s="132"/>
-      <c r="X58" s="132"/>
-      <c r="Y58" s="132"/>
-      <c r="Z58" s="132"/>
-      <c r="AA58" s="132"/>
-    </row>
-    <row r="59" spans="1:27" s="132" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="132"/>
-      <c r="B61" s="147"/>
-      <c r="C61" s="148"/>
-      <c r="D61" s="148"/>
-      <c r="E61" s="148"/>
-      <c r="F61" s="148"/>
-      <c r="G61" s="149"/>
-      <c r="H61" s="138"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="132"/>
-      <c r="K61" s="132"/>
-      <c r="L61" s="132"/>
-      <c r="M61" s="132"/>
-      <c r="N61" s="132"/>
-      <c r="O61" s="132"/>
-      <c r="P61" s="132"/>
-      <c r="Q61" s="132"/>
-      <c r="R61" s="132"/>
-      <c r="S61" s="132"/>
-      <c r="T61" s="132"/>
-      <c r="U61" s="132"/>
-      <c r="V61" s="132"/>
-      <c r="W61" s="132"/>
-      <c r="X61" s="132"/>
-      <c r="Y61" s="132"/>
-      <c r="Z61" s="132"/>
-      <c r="AA61" s="132"/>
-    </row>
-    <row r="62" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="132"/>
-      <c r="B62" s="150" t="s">
+      <c r="E57" s="138"/>
+      <c r="F57" s="138"/>
+      <c r="G57" s="139"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="118"/>
+      <c r="L57" s="118"/>
+      <c r="M57" s="118"/>
+      <c r="N57" s="118"/>
+      <c r="O57" s="118"/>
+      <c r="P57" s="118"/>
+      <c r="Q57" s="118"/>
+      <c r="R57" s="118"/>
+      <c r="S57" s="118"/>
+      <c r="T57" s="118"/>
+      <c r="U57" s="118"/>
+      <c r="V57" s="118"/>
+      <c r="W57" s="118"/>
+      <c r="X57" s="118"/>
+      <c r="Y57" s="118"/>
+      <c r="Z57" s="118"/>
+      <c r="AA57" s="118"/>
+    </row>
+    <row r="58" spans="1:27" s="125" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="118"/>
+      <c r="B58" s="140"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="141"/>
+      <c r="F58" s="141"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="118"/>
+      <c r="L58" s="118"/>
+      <c r="M58" s="118"/>
+      <c r="N58" s="118"/>
+      <c r="O58" s="118"/>
+      <c r="P58" s="118"/>
+      <c r="Q58" s="118"/>
+      <c r="R58" s="118"/>
+      <c r="S58" s="118"/>
+      <c r="T58" s="118"/>
+      <c r="U58" s="118"/>
+      <c r="V58" s="118"/>
+      <c r="W58" s="118"/>
+      <c r="X58" s="118"/>
+      <c r="Y58" s="118"/>
+      <c r="Z58" s="118"/>
+      <c r="AA58" s="118"/>
+    </row>
+    <row r="59" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="118"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="132"/>
+      <c r="D61" s="132"/>
+      <c r="E61" s="132"/>
+      <c r="F61" s="132"/>
+      <c r="G61" s="133"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="118"/>
+      <c r="J61" s="118"/>
+      <c r="K61" s="118"/>
+      <c r="L61" s="118"/>
+      <c r="M61" s="118"/>
+      <c r="N61" s="118"/>
+      <c r="O61" s="118"/>
+      <c r="P61" s="118"/>
+      <c r="Q61" s="118"/>
+      <c r="R61" s="118"/>
+      <c r="S61" s="118"/>
+      <c r="T61" s="118"/>
+      <c r="U61" s="118"/>
+      <c r="V61" s="118"/>
+      <c r="W61" s="118"/>
+      <c r="X61" s="118"/>
+      <c r="Y61" s="118"/>
+      <c r="Z61" s="118"/>
+      <c r="AA61" s="118"/>
+    </row>
+    <row r="62" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="118"/>
+      <c r="B62" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="C62" s="152"/>
-      <c r="D62" s="152"/>
-      <c r="E62" s="152"/>
-      <c r="F62" s="152"/>
-      <c r="G62" s="153"/>
-      <c r="H62" s="138"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="132"/>
-      <c r="K62" s="132"/>
-      <c r="L62" s="132"/>
-      <c r="M62" s="132"/>
-      <c r="N62" s="132"/>
-      <c r="O62" s="132"/>
-      <c r="P62" s="132"/>
-      <c r="Q62" s="132"/>
-      <c r="R62" s="132"/>
-      <c r="S62" s="132"/>
-      <c r="T62" s="132"/>
-      <c r="U62" s="132"/>
-      <c r="V62" s="132"/>
-      <c r="W62" s="132"/>
-      <c r="X62" s="132"/>
-      <c r="Y62" s="132"/>
-      <c r="Z62" s="132"/>
-      <c r="AA62" s="132"/>
-    </row>
-    <row r="63" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="132"/>
-      <c r="B63" s="150"/>
-      <c r="C63" s="160" t="s">
+      <c r="C62" s="135"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="135"/>
+      <c r="F62" s="135"/>
+      <c r="G62" s="136"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="118"/>
+      <c r="J62" s="118"/>
+      <c r="K62" s="118"/>
+      <c r="L62" s="118"/>
+      <c r="M62" s="118"/>
+      <c r="N62" s="118"/>
+      <c r="O62" s="118"/>
+      <c r="P62" s="118"/>
+      <c r="Q62" s="118"/>
+      <c r="R62" s="118"/>
+      <c r="S62" s="118"/>
+      <c r="T62" s="118"/>
+      <c r="U62" s="118"/>
+      <c r="V62" s="118"/>
+      <c r="W62" s="118"/>
+      <c r="X62" s="118"/>
+      <c r="Y62" s="118"/>
+      <c r="Z62" s="118"/>
+      <c r="AA62" s="118"/>
+    </row>
+    <row r="63" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="118"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="152" t="s">
+      <c r="D63" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="E63" s="152"/>
-      <c r="F63" s="152"/>
-      <c r="G63" s="153"/>
-      <c r="H63" s="138"/>
-      <c r="I63" s="132"/>
-      <c r="J63" s="132"/>
-      <c r="K63" s="132"/>
-      <c r="L63" s="132"/>
-      <c r="M63" s="132"/>
-      <c r="N63" s="132"/>
-      <c r="O63" s="132"/>
-      <c r="P63" s="132"/>
-      <c r="Q63" s="132"/>
-      <c r="R63" s="132"/>
-      <c r="S63" s="132"/>
-      <c r="T63" s="132"/>
-      <c r="U63" s="132"/>
-      <c r="V63" s="132"/>
-      <c r="W63" s="132"/>
-      <c r="X63" s="132"/>
-      <c r="Y63" s="132"/>
-      <c r="Z63" s="132"/>
-      <c r="AA63" s="132"/>
-    </row>
-    <row r="64" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="132"/>
-      <c r="B64" s="150"/>
-      <c r="C64" s="160" t="s">
+      <c r="E63" s="135"/>
+      <c r="F63" s="135"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="118"/>
+      <c r="J63" s="118"/>
+      <c r="K63" s="118"/>
+      <c r="L63" s="118"/>
+      <c r="M63" s="118"/>
+      <c r="N63" s="118"/>
+      <c r="O63" s="118"/>
+      <c r="P63" s="118"/>
+      <c r="Q63" s="118"/>
+      <c r="R63" s="118"/>
+      <c r="S63" s="118"/>
+      <c r="T63" s="118"/>
+      <c r="U63" s="118"/>
+      <c r="V63" s="118"/>
+      <c r="W63" s="118"/>
+      <c r="X63" s="118"/>
+      <c r="Y63" s="118"/>
+      <c r="Z63" s="118"/>
+      <c r="AA63" s="118"/>
+    </row>
+    <row r="64" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="118"/>
+      <c r="B64" s="134"/>
+      <c r="C64" s="143" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="152" t="s">
+      <c r="D64" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="E64" s="152"/>
-      <c r="F64" s="152"/>
-      <c r="G64" s="153"/>
-      <c r="H64" s="138"/>
-      <c r="I64" s="132"/>
-      <c r="J64" s="132"/>
-      <c r="K64" s="132"/>
-      <c r="L64" s="132"/>
-      <c r="M64" s="132"/>
-      <c r="N64" s="132"/>
-      <c r="O64" s="132"/>
-      <c r="P64" s="132"/>
-      <c r="Q64" s="132"/>
-      <c r="R64" s="132"/>
-      <c r="S64" s="132"/>
-      <c r="T64" s="132"/>
-      <c r="U64" s="132"/>
-      <c r="V64" s="132"/>
-      <c r="W64" s="132"/>
-      <c r="X64" s="132"/>
-      <c r="Y64" s="132"/>
-      <c r="Z64" s="132"/>
-      <c r="AA64" s="132"/>
-    </row>
-    <row r="65" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="132"/>
-      <c r="B65" s="150"/>
-      <c r="C65" s="160" t="s">
+      <c r="E64" s="135"/>
+      <c r="F64" s="135"/>
+      <c r="G64" s="136"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="118"/>
+      <c r="J64" s="118"/>
+      <c r="K64" s="118"/>
+      <c r="L64" s="118"/>
+      <c r="M64" s="118"/>
+      <c r="N64" s="118"/>
+      <c r="O64" s="118"/>
+      <c r="P64" s="118"/>
+      <c r="Q64" s="118"/>
+      <c r="R64" s="118"/>
+      <c r="S64" s="118"/>
+      <c r="T64" s="118"/>
+      <c r="U64" s="118"/>
+      <c r="V64" s="118"/>
+      <c r="W64" s="118"/>
+      <c r="X64" s="118"/>
+      <c r="Y64" s="118"/>
+      <c r="Z64" s="118"/>
+      <c r="AA64" s="118"/>
+    </row>
+    <row r="65" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="118"/>
+      <c r="B65" s="134"/>
+      <c r="C65" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="D65" s="152" t="s">
+      <c r="D65" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="E65" s="152"/>
-      <c r="F65" s="152"/>
-      <c r="G65" s="153"/>
-      <c r="H65" s="138"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="132"/>
-      <c r="K65" s="132"/>
-      <c r="L65" s="132"/>
-      <c r="M65" s="132"/>
-      <c r="N65" s="132"/>
-      <c r="O65" s="132"/>
-      <c r="P65" s="132"/>
-      <c r="Q65" s="132"/>
-      <c r="R65" s="132"/>
-      <c r="S65" s="132"/>
-      <c r="T65" s="132"/>
-      <c r="U65" s="132"/>
-      <c r="V65" s="132"/>
-      <c r="W65" s="132"/>
-      <c r="X65" s="132"/>
-      <c r="Y65" s="132"/>
-      <c r="Z65" s="132"/>
-      <c r="AA65" s="132"/>
-    </row>
-    <row r="66" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="132"/>
-      <c r="B66" s="154"/>
-      <c r="C66" s="161" t="s">
+      <c r="E65" s="135"/>
+      <c r="F65" s="135"/>
+      <c r="G65" s="136"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="118"/>
+      <c r="J65" s="118"/>
+      <c r="K65" s="118"/>
+      <c r="L65" s="118"/>
+      <c r="M65" s="118"/>
+      <c r="N65" s="118"/>
+      <c r="O65" s="118"/>
+      <c r="P65" s="118"/>
+      <c r="Q65" s="118"/>
+      <c r="R65" s="118"/>
+      <c r="S65" s="118"/>
+      <c r="T65" s="118"/>
+      <c r="U65" s="118"/>
+      <c r="V65" s="118"/>
+      <c r="W65" s="118"/>
+      <c r="X65" s="118"/>
+      <c r="Y65" s="118"/>
+      <c r="Z65" s="118"/>
+      <c r="AA65" s="118"/>
+    </row>
+    <row r="66" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="118"/>
+      <c r="B66" s="137"/>
+      <c r="C66" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="D66" s="155" t="s">
+      <c r="D66" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="E66" s="155"/>
-      <c r="F66" s="155"/>
-      <c r="G66" s="156"/>
-      <c r="H66" s="138"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
-      <c r="K66" s="132"/>
-      <c r="L66" s="132"/>
-      <c r="M66" s="132"/>
-      <c r="N66" s="132"/>
-      <c r="O66" s="132"/>
-      <c r="P66" s="132"/>
-      <c r="Q66" s="132"/>
-      <c r="R66" s="132"/>
-      <c r="S66" s="132"/>
-      <c r="T66" s="132"/>
-      <c r="U66" s="132"/>
-      <c r="V66" s="132"/>
-      <c r="W66" s="132"/>
-      <c r="X66" s="132"/>
-      <c r="Y66" s="132"/>
-      <c r="Z66" s="132"/>
-      <c r="AA66" s="132"/>
-    </row>
-    <row r="67" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="132"/>
-      <c r="B67" s="154"/>
-      <c r="C67" s="161" t="s">
+      <c r="E66" s="138"/>
+      <c r="F66" s="138"/>
+      <c r="G66" s="139"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="118"/>
+      <c r="J66" s="118"/>
+      <c r="K66" s="118"/>
+      <c r="L66" s="118"/>
+      <c r="M66" s="118"/>
+      <c r="N66" s="118"/>
+      <c r="O66" s="118"/>
+      <c r="P66" s="118"/>
+      <c r="Q66" s="118"/>
+      <c r="R66" s="118"/>
+      <c r="S66" s="118"/>
+      <c r="T66" s="118"/>
+      <c r="U66" s="118"/>
+      <c r="V66" s="118"/>
+      <c r="W66" s="118"/>
+      <c r="X66" s="118"/>
+      <c r="Y66" s="118"/>
+      <c r="Z66" s="118"/>
+      <c r="AA66" s="118"/>
+    </row>
+    <row r="67" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="118"/>
+      <c r="B67" s="137"/>
+      <c r="C67" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="D67" s="155" t="s">
+      <c r="D67" s="138" t="s">
         <v>130</v>
       </c>
-      <c r="E67" s="155"/>
-      <c r="F67" s="155"/>
-      <c r="G67" s="156"/>
-      <c r="H67" s="138"/>
-      <c r="I67" s="132"/>
-      <c r="J67" s="132"/>
-      <c r="K67" s="132"/>
-      <c r="L67" s="132"/>
-      <c r="M67" s="132"/>
-      <c r="N67" s="132"/>
-      <c r="O67" s="132"/>
-      <c r="P67" s="132"/>
-      <c r="Q67" s="132"/>
-      <c r="R67" s="132"/>
-      <c r="S67" s="132"/>
-      <c r="T67" s="132"/>
-      <c r="U67" s="132"/>
-      <c r="V67" s="132"/>
-      <c r="W67" s="132"/>
-      <c r="X67" s="132"/>
-      <c r="Y67" s="132"/>
-      <c r="Z67" s="132"/>
-      <c r="AA67" s="132"/>
-    </row>
-    <row r="68" spans="1:27" s="139" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="132"/>
-      <c r="B68" s="154"/>
-      <c r="C68" s="155"/>
-      <c r="D68" s="155"/>
-      <c r="E68" s="155"/>
-      <c r="F68" s="155"/>
-      <c r="G68" s="156"/>
-      <c r="H68" s="138"/>
-      <c r="I68" s="132"/>
-      <c r="J68" s="132"/>
-      <c r="K68" s="132"/>
-      <c r="L68" s="132"/>
-      <c r="M68" s="132"/>
-      <c r="N68" s="132"/>
-      <c r="O68" s="132"/>
-      <c r="P68" s="132"/>
-      <c r="Q68" s="132"/>
-      <c r="R68" s="132"/>
-      <c r="S68" s="132"/>
-      <c r="T68" s="132"/>
-      <c r="U68" s="132"/>
-      <c r="V68" s="132"/>
-      <c r="W68" s="132"/>
-      <c r="X68" s="132"/>
-      <c r="Y68" s="132"/>
-      <c r="Z68" s="132"/>
-      <c r="AA68" s="132"/>
-    </row>
-    <row r="69" spans="1:27" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="132"/>
-      <c r="B69" s="157"/>
-      <c r="C69" s="158"/>
-      <c r="D69" s="158"/>
-      <c r="E69" s="158"/>
-      <c r="F69" s="158"/>
-      <c r="G69" s="159"/>
-      <c r="H69" s="138"/>
-      <c r="I69" s="132"/>
-      <c r="J69" s="132"/>
-      <c r="K69" s="132"/>
-      <c r="L69" s="132"/>
-      <c r="M69" s="132"/>
-      <c r="N69" s="132"/>
-      <c r="O69" s="132"/>
-      <c r="P69" s="132"/>
-      <c r="Q69" s="132"/>
-      <c r="R69" s="132"/>
-      <c r="S69" s="132"/>
-      <c r="T69" s="132"/>
-      <c r="U69" s="132"/>
-      <c r="V69" s="132"/>
-      <c r="W69" s="132"/>
-      <c r="X69" s="132"/>
-      <c r="Y69" s="132"/>
-      <c r="Z69" s="132"/>
-      <c r="AA69" s="132"/>
-    </row>
-    <row r="70" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:27" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="173"/>
-      <c r="B71" s="174"/>
-      <c r="C71" s="175"/>
-      <c r="D71" s="175"/>
-      <c r="E71" s="175"/>
-      <c r="F71" s="176"/>
-      <c r="G71" s="177"/>
-      <c r="H71" s="178"/>
-    </row>
-    <row r="72" spans="1:27" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="173"/>
-      <c r="B72" s="179"/>
-      <c r="C72" s="180"/>
-      <c r="D72" s="180"/>
-      <c r="E72" s="180"/>
-      <c r="F72" s="181"/>
-      <c r="G72" s="182"/>
-      <c r="H72" s="178"/>
-    </row>
-    <row r="73" spans="1:27" s="172" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="173"/>
-      <c r="B73" s="179" t="s">
+      <c r="E67" s="138"/>
+      <c r="F67" s="138"/>
+      <c r="G67" s="139"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="118"/>
+      <c r="J67" s="118"/>
+      <c r="K67" s="118"/>
+      <c r="L67" s="118"/>
+      <c r="M67" s="118"/>
+      <c r="N67" s="118"/>
+      <c r="O67" s="118"/>
+      <c r="P67" s="118"/>
+      <c r="Q67" s="118"/>
+      <c r="R67" s="118"/>
+      <c r="S67" s="118"/>
+      <c r="T67" s="118"/>
+      <c r="U67" s="118"/>
+      <c r="V67" s="118"/>
+      <c r="W67" s="118"/>
+      <c r="X67" s="118"/>
+      <c r="Y67" s="118"/>
+      <c r="Z67" s="118"/>
+      <c r="AA67" s="118"/>
+    </row>
+    <row r="68" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="118"/>
+      <c r="B68" s="137"/>
+      <c r="C68" s="138"/>
+      <c r="D68" s="138"/>
+      <c r="E68" s="138"/>
+      <c r="F68" s="138"/>
+      <c r="G68" s="139"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="118"/>
+      <c r="J68" s="118"/>
+      <c r="K68" s="118"/>
+      <c r="L68" s="118"/>
+      <c r="M68" s="118"/>
+      <c r="N68" s="118"/>
+      <c r="O68" s="118"/>
+      <c r="P68" s="118"/>
+      <c r="Q68" s="118"/>
+      <c r="R68" s="118"/>
+      <c r="S68" s="118"/>
+      <c r="T68" s="118"/>
+      <c r="U68" s="118"/>
+      <c r="V68" s="118"/>
+      <c r="W68" s="118"/>
+      <c r="X68" s="118"/>
+      <c r="Y68" s="118"/>
+      <c r="Z68" s="118"/>
+      <c r="AA68" s="118"/>
+    </row>
+    <row r="69" spans="1:27" s="125" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="118"/>
+      <c r="B69" s="140"/>
+      <c r="C69" s="141"/>
+      <c r="D69" s="141"/>
+      <c r="E69" s="141"/>
+      <c r="F69" s="141"/>
+      <c r="G69" s="142"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="118"/>
+      <c r="J69" s="118"/>
+      <c r="K69" s="118"/>
+      <c r="L69" s="118"/>
+      <c r="M69" s="118"/>
+      <c r="N69" s="118"/>
+      <c r="O69" s="118"/>
+      <c r="P69" s="118"/>
+      <c r="Q69" s="118"/>
+      <c r="R69" s="118"/>
+      <c r="S69" s="118"/>
+      <c r="T69" s="118"/>
+      <c r="U69" s="118"/>
+      <c r="V69" s="118"/>
+      <c r="W69" s="118"/>
+      <c r="X69" s="118"/>
+      <c r="Y69" s="118"/>
+      <c r="Z69" s="118"/>
+      <c r="AA69" s="118"/>
+    </row>
+    <row r="70" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="146"/>
+      <c r="B71" s="147"/>
+      <c r="C71" s="148"/>
+      <c r="D71" s="148"/>
+      <c r="E71" s="148"/>
+      <c r="F71" s="149"/>
+      <c r="G71" s="150"/>
+      <c r="H71" s="151"/>
+    </row>
+    <row r="72" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="146"/>
+      <c r="B72" s="152"/>
+      <c r="C72" s="153"/>
+      <c r="D72" s="153"/>
+      <c r="E72" s="153"/>
+      <c r="F72" s="154"/>
+      <c r="G72" s="155"/>
+      <c r="H72" s="151"/>
+    </row>
+    <row r="73" spans="1:27" s="145" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="146"/>
+      <c r="B73" s="152" t="s">
         <v>188</v>
       </c>
-      <c r="C73" s="180" t="s">
+      <c r="C73" s="153" t="s">
         <v>187</v>
       </c>
-      <c r="D73" s="180" t="s">
+      <c r="D73" s="153" t="s">
         <v>186</v>
       </c>
-      <c r="E73" s="180"/>
-      <c r="F73" s="181"/>
-      <c r="G73" s="182"/>
-      <c r="H73" s="178"/>
-    </row>
-    <row r="74" spans="1:27" s="172" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="173"/>
-      <c r="B74" s="179"/>
-      <c r="C74" s="180" t="s">
+      <c r="E73" s="153"/>
+      <c r="F73" s="154"/>
+      <c r="G73" s="155"/>
+      <c r="H73" s="151"/>
+    </row>
+    <row r="74" spans="1:27" s="145" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="146"/>
+      <c r="B74" s="152"/>
+      <c r="C74" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="D74" s="180" t="s">
+      <c r="D74" s="153" t="s">
         <v>184</v>
       </c>
-      <c r="E74" s="180"/>
-      <c r="F74" s="181"/>
-      <c r="G74" s="182"/>
-      <c r="H74" s="178"/>
-    </row>
-    <row r="75" spans="1:27" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="173"/>
-      <c r="B75" s="179"/>
-      <c r="C75" s="183" t="s">
+      <c r="E74" s="153"/>
+      <c r="F74" s="154"/>
+      <c r="G74" s="155"/>
+      <c r="H74" s="151"/>
+    </row>
+    <row r="75" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="146"/>
+      <c r="B75" s="152"/>
+      <c r="C75" s="171" t="s">
         <v>183</v>
       </c>
-      <c r="D75" s="183"/>
-      <c r="E75" s="180"/>
-      <c r="F75" s="181"/>
-      <c r="G75" s="182"/>
-      <c r="H75" s="178"/>
-    </row>
-    <row r="76" spans="1:27" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="173"/>
-      <c r="B76" s="179"/>
-      <c r="C76" s="180"/>
-      <c r="D76" s="180"/>
-      <c r="E76" s="180"/>
-      <c r="F76" s="181"/>
-      <c r="G76" s="182"/>
-      <c r="H76" s="178"/>
-    </row>
-    <row r="77" spans="1:27" s="172" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="173"/>
-      <c r="B77" s="184"/>
-      <c r="C77" s="185"/>
-      <c r="D77" s="185"/>
-      <c r="E77" s="185"/>
-      <c r="F77" s="186"/>
-      <c r="G77" s="187"/>
-      <c r="H77" s="178"/>
-    </row>
-    <row r="78" spans="1:27" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="188"/>
-      <c r="C78" s="189"/>
-      <c r="D78" s="189"/>
-      <c r="E78" s="189"/>
-      <c r="F78" s="189"/>
-      <c r="G78" s="189"/>
-    </row>
-    <row r="79" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:27" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="173"/>
-      <c r="B80" s="174"/>
-      <c r="C80" s="175"/>
-      <c r="D80" s="175"/>
-      <c r="E80" s="175"/>
-      <c r="F80" s="176"/>
-      <c r="G80" s="177"/>
-      <c r="H80" s="178"/>
-    </row>
-    <row r="81" spans="1:8" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="173"/>
-      <c r="B81" s="179"/>
-      <c r="C81" s="180"/>
-      <c r="D81" s="180"/>
-      <c r="E81" s="180"/>
-      <c r="F81" s="181"/>
-      <c r="G81" s="182"/>
-      <c r="H81" s="178"/>
-    </row>
-    <row r="82" spans="1:8" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="173"/>
-      <c r="B82" s="179" t="s">
+      <c r="D75" s="171"/>
+      <c r="E75" s="153"/>
+      <c r="F75" s="154"/>
+      <c r="G75" s="155"/>
+      <c r="H75" s="151"/>
+    </row>
+    <row r="76" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="146"/>
+      <c r="B76" s="152"/>
+      <c r="C76" s="153"/>
+      <c r="D76" s="153"/>
+      <c r="E76" s="153"/>
+      <c r="F76" s="154"/>
+      <c r="G76" s="155"/>
+      <c r="H76" s="151"/>
+    </row>
+    <row r="77" spans="1:27" s="145" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="146"/>
+      <c r="B77" s="156"/>
+      <c r="C77" s="157"/>
+      <c r="D77" s="157"/>
+      <c r="E77" s="157"/>
+      <c r="F77" s="158"/>
+      <c r="G77" s="159"/>
+      <c r="H77" s="151"/>
+    </row>
+    <row r="78" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="160"/>
+      <c r="C78" s="161"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="161"/>
+      <c r="F78" s="161"/>
+      <c r="G78" s="161"/>
+    </row>
+    <row r="79" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="146"/>
+      <c r="B80" s="147"/>
+      <c r="C80" s="148"/>
+      <c r="D80" s="148"/>
+      <c r="E80" s="148"/>
+      <c r="F80" s="149"/>
+      <c r="G80" s="150"/>
+      <c r="H80" s="151"/>
+    </row>
+    <row r="81" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="146"/>
+      <c r="B81" s="152"/>
+      <c r="C81" s="153"/>
+      <c r="D81" s="153"/>
+      <c r="E81" s="153"/>
+      <c r="F81" s="154"/>
+      <c r="G81" s="155"/>
+      <c r="H81" s="151"/>
+    </row>
+    <row r="82" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="146"/>
+      <c r="B82" s="152" t="s">
         <v>382</v>
       </c>
-      <c r="C82" s="180"/>
-      <c r="D82" s="180"/>
-      <c r="E82" s="180"/>
-      <c r="F82" s="181"/>
-      <c r="G82" s="182"/>
-      <c r="H82" s="178"/>
-    </row>
-    <row r="83" spans="1:8" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="173"/>
-      <c r="B83" s="179"/>
-      <c r="C83" s="180"/>
-      <c r="D83" s="180"/>
-      <c r="E83" s="180"/>
-      <c r="F83" s="181"/>
-      <c r="G83" s="182"/>
-      <c r="H83" s="178"/>
-    </row>
-    <row r="84" spans="1:8" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="173"/>
-      <c r="B84" s="179"/>
-      <c r="C84" s="183"/>
-      <c r="D84" s="183"/>
-      <c r="E84" s="180"/>
-      <c r="F84" s="181"/>
-      <c r="G84" s="182"/>
-      <c r="H84" s="178"/>
-    </row>
-    <row r="85" spans="1:8" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="173"/>
-      <c r="B85" s="179"/>
-      <c r="C85" s="180"/>
-      <c r="D85" s="180"/>
-      <c r="E85" s="180"/>
-      <c r="F85" s="181"/>
-      <c r="G85" s="182"/>
-      <c r="H85" s="178"/>
-    </row>
-    <row r="86" spans="1:8" s="172" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="173"/>
-      <c r="B86" s="184"/>
-      <c r="C86" s="185"/>
-      <c r="D86" s="185"/>
-      <c r="E86" s="185"/>
-      <c r="F86" s="186"/>
-      <c r="G86" s="187"/>
-      <c r="H86" s="178"/>
-    </row>
-    <row r="87" spans="1:8" s="172" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="188"/>
-      <c r="C87" s="189"/>
-      <c r="D87" s="189"/>
-      <c r="E87" s="189"/>
-      <c r="F87" s="189"/>
-      <c r="G87" s="189"/>
+      <c r="C82" s="153"/>
+      <c r="D82" s="153"/>
+      <c r="E82" s="153"/>
+      <c r="F82" s="154"/>
+      <c r="G82" s="155"/>
+      <c r="H82" s="151"/>
+    </row>
+    <row r="83" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="146"/>
+      <c r="B83" s="152"/>
+      <c r="C83" s="153"/>
+      <c r="D83" s="153"/>
+      <c r="E83" s="153"/>
+      <c r="F83" s="154"/>
+      <c r="G83" s="155"/>
+      <c r="H83" s="151"/>
+    </row>
+    <row r="84" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="146"/>
+      <c r="B84" s="152"/>
+      <c r="C84" s="171"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="153"/>
+      <c r="F84" s="154"/>
+      <c r="G84" s="155"/>
+      <c r="H84" s="151"/>
+    </row>
+    <row r="85" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="146"/>
+      <c r="B85" s="152"/>
+      <c r="C85" s="153"/>
+      <c r="D85" s="153"/>
+      <c r="E85" s="153"/>
+      <c r="F85" s="154"/>
+      <c r="G85" s="155"/>
+      <c r="H85" s="151"/>
+    </row>
+    <row r="86" spans="1:8" s="145" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="146"/>
+      <c r="B86" s="156"/>
+      <c r="C86" s="157"/>
+      <c r="D86" s="157"/>
+      <c r="E86" s="157"/>
+      <c r="F86" s="158"/>
+      <c r="G86" s="159"/>
+      <c r="H86" s="151"/>
+    </row>
+    <row r="87" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="160"/>
+      <c r="C87" s="161"/>
+      <c r="D87" s="161"/>
+      <c r="E87" s="161"/>
+      <c r="F87" s="161"/>
+      <c r="G87" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6148,10 +6184,10 @@
     <row r="8" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="43"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="97" t="s">
+      <c r="C8" s="176" t="s">
         <v>199</v>
       </c>
-      <c r="D8" s="97"/>
+      <c r="D8" s="176"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="33"/>
@@ -6160,10 +6196,10 @@
     <row r="9" spans="1:8" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="43"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="97" t="s">
+      <c r="C9" s="176" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="97"/>
+      <c r="D9" s="176"/>
       <c r="E9" s="35" t="s">
         <v>197</v>
       </c>
@@ -6174,10 +6210,10 @@
     <row r="10" spans="1:8" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="176" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="97"/>
+      <c r="D10" s="176"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="33"/>
@@ -6186,10 +6222,10 @@
     <row r="11" spans="1:8" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="97" t="s">
+      <c r="C11" s="176" t="s">
         <v>195</v>
       </c>
-      <c r="D11" s="97"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="33"/>
@@ -6200,10 +6236,10 @@
       <c r="B12" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="176" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="97"/>
+      <c r="D12" s="176"/>
       <c r="E12" s="35" t="s">
         <v>192</v>
       </c>
@@ -6218,10 +6254,10 @@
       <c r="B13" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="97" t="s">
+      <c r="C13" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="97"/>
+      <c r="D13" s="176"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="33"/>
@@ -6272,12 +6308,12 @@
       <c r="B20" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="177" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="101"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="99"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="173"/>
       <c r="G20" s="33"/>
     </row>
     <row r="21" spans="2:7" s="27" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6288,10 +6324,10 @@
       <c r="D21" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="E21" s="100" t="s">
+      <c r="E21" s="174" t="s">
         <v>205</v>
       </c>
-      <c r="F21" s="101"/>
+      <c r="F21" s="175"/>
       <c r="G21" s="33"/>
     </row>
     <row r="22" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -6304,8 +6340,8 @@
     </row>
     <row r="23" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
+      <c r="C23" s="176"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="35"/>
       <c r="F23" s="34"/>
       <c r="G23" s="33"/>
@@ -6526,780 +6562,790 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AA35"/>
+  <dimension ref="A3:AA36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="35" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="4.5703125" style="87" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="87" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="87" customWidth="1"/>
+    <col min="4" max="4" width="35" style="87" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="87"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:27" ht="135" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="87" t="s">
         <v>357</v>
       </c>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="180" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" s="180"/>
+    </row>
+    <row r="4" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+      <c r="B4" s="87" t="s">
+        <v>357</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C4" s="14" t="s">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="C5" s="87" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="C5" s="87" t="s">
+    <row r="6" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+      <c r="C6" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D6" s="87" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="132"/>
-      <c r="B8" s="162"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="132"/>
-      <c r="J8" s="132"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="132"/>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="132"/>
-      <c r="T8" s="132"/>
-      <c r="U8" s="132"/>
-      <c r="V8" s="132"/>
-      <c r="W8" s="132"/>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="132"/>
-      <c r="Z8" s="132"/>
-      <c r="AA8" s="132"/>
-    </row>
-    <row r="9" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="132"/>
-      <c r="B9" s="165" t="s">
+    <row r="8" spans="1:27" s="181" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="181"/>
+      <c r="B9" s="182"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="183"/>
+      <c r="G9" s="184"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="181"/>
+      <c r="K9" s="181"/>
+      <c r="L9" s="181"/>
+      <c r="M9" s="181"/>
+      <c r="N9" s="181"/>
+      <c r="O9" s="181"/>
+      <c r="P9" s="181"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="181"/>
+      <c r="S9" s="181"/>
+      <c r="T9" s="181"/>
+      <c r="U9" s="181"/>
+      <c r="V9" s="181"/>
+      <c r="W9" s="181"/>
+      <c r="X9" s="181"/>
+      <c r="Y9" s="181"/>
+      <c r="Z9" s="181"/>
+      <c r="AA9" s="181"/>
+    </row>
+    <row r="10" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="181"/>
+      <c r="B10" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="166"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="138"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="132"/>
-      <c r="Q9" s="132"/>
-      <c r="R9" s="132"/>
-      <c r="S9" s="132"/>
-      <c r="T9" s="132"/>
-      <c r="U9" s="132"/>
-      <c r="V9" s="132"/>
-      <c r="W9" s="132"/>
-      <c r="X9" s="132"/>
-      <c r="Y9" s="132"/>
-      <c r="Z9" s="132"/>
-      <c r="AA9" s="132"/>
-    </row>
-    <row r="10" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
-      <c r="B10" s="165"/>
-      <c r="C10" s="166" t="s">
+      <c r="C10" s="188"/>
+      <c r="D10" s="188"/>
+      <c r="E10" s="188"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="185"/>
+      <c r="I10" s="181"/>
+      <c r="J10" s="181"/>
+      <c r="K10" s="181"/>
+      <c r="L10" s="181"/>
+      <c r="M10" s="181"/>
+      <c r="N10" s="181"/>
+      <c r="O10" s="181"/>
+      <c r="P10" s="181"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="181"/>
+      <c r="S10" s="181"/>
+      <c r="T10" s="181"/>
+      <c r="U10" s="181"/>
+      <c r="V10" s="181"/>
+      <c r="W10" s="181"/>
+      <c r="X10" s="181"/>
+      <c r="Y10" s="181"/>
+      <c r="Z10" s="181"/>
+      <c r="AA10" s="181"/>
+    </row>
+    <row r="11" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="181"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="188" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="132"/>
-      <c r="Q10" s="132"/>
-      <c r="R10" s="132"/>
-      <c r="S10" s="132"/>
-      <c r="T10" s="132"/>
-      <c r="U10" s="132"/>
-      <c r="V10" s="132"/>
-      <c r="W10" s="132"/>
-      <c r="X10" s="132"/>
-      <c r="Y10" s="132"/>
-      <c r="Z10" s="132"/>
-      <c r="AA10" s="132"/>
-    </row>
-    <row r="11" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="132"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="166" t="s">
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="185"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
+      <c r="M11" s="181"/>
+      <c r="N11" s="181"/>
+      <c r="O11" s="181"/>
+      <c r="P11" s="181"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="181"/>
+      <c r="S11" s="181"/>
+      <c r="T11" s="181"/>
+      <c r="U11" s="181"/>
+      <c r="V11" s="181"/>
+      <c r="W11" s="181"/>
+      <c r="X11" s="181"/>
+      <c r="Y11" s="181"/>
+      <c r="Z11" s="181"/>
+      <c r="AA11" s="181"/>
+    </row>
+    <row r="12" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="181"/>
+      <c r="B12" s="187"/>
+      <c r="C12" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="132"/>
-      <c r="Q11" s="132"/>
-      <c r="R11" s="132"/>
-      <c r="S11" s="132"/>
-      <c r="T11" s="132"/>
-      <c r="U11" s="132"/>
-      <c r="V11" s="132"/>
-      <c r="W11" s="132"/>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="132"/>
-      <c r="Z11" s="132"/>
-      <c r="AA11" s="132"/>
-    </row>
-    <row r="12" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="132"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="166" t="s">
+      <c r="D12" s="188"/>
+      <c r="E12" s="188"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="185"/>
+      <c r="I12" s="181"/>
+      <c r="J12" s="181"/>
+      <c r="K12" s="181"/>
+      <c r="L12" s="181"/>
+      <c r="M12" s="181"/>
+      <c r="N12" s="181"/>
+      <c r="O12" s="181"/>
+      <c r="P12" s="181"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="181"/>
+      <c r="S12" s="181"/>
+      <c r="T12" s="181"/>
+      <c r="U12" s="181"/>
+      <c r="V12" s="181"/>
+      <c r="W12" s="181"/>
+      <c r="X12" s="181"/>
+      <c r="Y12" s="181"/>
+      <c r="Z12" s="181"/>
+      <c r="AA12" s="181"/>
+    </row>
+    <row r="13" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="181"/>
+      <c r="B13" s="187"/>
+      <c r="C13" s="188" t="s">
         <v>139</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="132"/>
-      <c r="Q12" s="132"/>
-      <c r="R12" s="132"/>
-      <c r="S12" s="132"/>
-      <c r="T12" s="132"/>
-      <c r="U12" s="132"/>
-      <c r="V12" s="132"/>
-      <c r="W12" s="132"/>
-      <c r="X12" s="132"/>
-      <c r="Y12" s="132"/>
-      <c r="Z12" s="132"/>
-      <c r="AA12" s="132"/>
-    </row>
-    <row r="13" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="132"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="166" t="s">
+      <c r="D13" s="188"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="185"/>
+      <c r="I13" s="181"/>
+      <c r="J13" s="181"/>
+      <c r="K13" s="181"/>
+      <c r="L13" s="181"/>
+      <c r="M13" s="181"/>
+      <c r="N13" s="181"/>
+      <c r="O13" s="181"/>
+      <c r="P13" s="181"/>
+      <c r="Q13" s="181"/>
+      <c r="R13" s="181"/>
+      <c r="S13" s="181"/>
+      <c r="T13" s="181"/>
+      <c r="U13" s="181"/>
+      <c r="V13" s="181"/>
+      <c r="W13" s="181"/>
+      <c r="X13" s="181"/>
+      <c r="Y13" s="181"/>
+      <c r="Z13" s="181"/>
+      <c r="AA13" s="181"/>
+    </row>
+    <row r="14" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="181"/>
+      <c r="B14" s="187"/>
+      <c r="C14" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="S13" s="132"/>
-      <c r="T13" s="132"/>
-      <c r="U13" s="132"/>
-      <c r="V13" s="132"/>
-      <c r="W13" s="132"/>
-      <c r="X13" s="132"/>
-      <c r="Y13" s="132"/>
-      <c r="Z13" s="132"/>
-      <c r="AA13" s="132"/>
-    </row>
-    <row r="14" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="132"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="166" t="s">
+      <c r="D14" s="188"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="185"/>
+      <c r="I14" s="181"/>
+      <c r="J14" s="181"/>
+      <c r="K14" s="181"/>
+      <c r="L14" s="181"/>
+      <c r="M14" s="181"/>
+      <c r="N14" s="181"/>
+      <c r="O14" s="181"/>
+      <c r="P14" s="181"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="181"/>
+      <c r="S14" s="181"/>
+      <c r="T14" s="181"/>
+      <c r="U14" s="181"/>
+      <c r="V14" s="181"/>
+      <c r="W14" s="181"/>
+      <c r="X14" s="181"/>
+      <c r="Y14" s="181"/>
+      <c r="Z14" s="181"/>
+      <c r="AA14" s="181"/>
+    </row>
+    <row r="15" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="181"/>
+      <c r="B15" s="187"/>
+      <c r="C15" s="188" t="s">
         <v>137</v>
       </c>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="132"/>
-      <c r="Q14" s="132"/>
-      <c r="R14" s="132"/>
-      <c r="S14" s="132"/>
-      <c r="T14" s="132"/>
-      <c r="U14" s="132"/>
-      <c r="V14" s="132"/>
-      <c r="W14" s="132"/>
-      <c r="X14" s="132"/>
-      <c r="Y14" s="132"/>
-      <c r="Z14" s="132"/>
-      <c r="AA14" s="132"/>
-    </row>
-    <row r="15" spans="1:27" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="132"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="171"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="132"/>
-      <c r="Q15" s="132"/>
-      <c r="R15" s="132"/>
-      <c r="S15" s="132"/>
-      <c r="T15" s="132"/>
-      <c r="U15" s="132"/>
-      <c r="V15" s="132"/>
-      <c r="W15" s="132"/>
-      <c r="X15" s="132"/>
-      <c r="Y15" s="132"/>
-      <c r="Z15" s="132"/>
-      <c r="AA15" s="132"/>
-    </row>
-    <row r="16" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="132"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="164"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="132"/>
-      <c r="Q17" s="132"/>
-      <c r="R17" s="132"/>
-      <c r="S17" s="132"/>
-      <c r="T17" s="132"/>
-      <c r="U17" s="132"/>
-      <c r="V17" s="132"/>
-      <c r="W17" s="132"/>
-      <c r="X17" s="132"/>
-      <c r="Y17" s="132"/>
-      <c r="Z17" s="132"/>
-      <c r="AA17" s="132"/>
-    </row>
-    <row r="18" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="132"/>
-      <c r="B18" s="165" t="s">
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="188"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="185"/>
+      <c r="I15" s="181"/>
+      <c r="J15" s="181"/>
+      <c r="K15" s="181"/>
+      <c r="L15" s="181"/>
+      <c r="M15" s="181"/>
+      <c r="N15" s="181"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="181"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="181"/>
+      <c r="S15" s="181"/>
+      <c r="T15" s="181"/>
+      <c r="U15" s="181"/>
+      <c r="V15" s="181"/>
+      <c r="W15" s="181"/>
+      <c r="X15" s="181"/>
+      <c r="Y15" s="181"/>
+      <c r="Z15" s="181"/>
+      <c r="AA15" s="181"/>
+    </row>
+    <row r="16" spans="1:27" s="186" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="181"/>
+      <c r="B16" s="190"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="185"/>
+      <c r="I16" s="181"/>
+      <c r="J16" s="181"/>
+      <c r="K16" s="181"/>
+      <c r="L16" s="181"/>
+      <c r="M16" s="181"/>
+      <c r="N16" s="181"/>
+      <c r="O16" s="181"/>
+      <c r="P16" s="181"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="181"/>
+      <c r="S16" s="181"/>
+      <c r="T16" s="181"/>
+      <c r="U16" s="181"/>
+      <c r="V16" s="181"/>
+      <c r="W16" s="181"/>
+      <c r="X16" s="181"/>
+      <c r="Y16" s="181"/>
+      <c r="Z16" s="181"/>
+      <c r="AA16" s="181"/>
+    </row>
+    <row r="17" spans="1:27" s="181" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="181"/>
+      <c r="B18" s="182"/>
+      <c r="C18" s="183"/>
+      <c r="D18" s="183"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="183"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="185"/>
+      <c r="I18" s="181"/>
+      <c r="J18" s="181"/>
+      <c r="K18" s="181"/>
+      <c r="L18" s="181"/>
+      <c r="M18" s="181"/>
+      <c r="N18" s="181"/>
+      <c r="O18" s="181"/>
+      <c r="P18" s="181"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="181"/>
+      <c r="S18" s="181"/>
+      <c r="T18" s="181"/>
+      <c r="U18" s="181"/>
+      <c r="V18" s="181"/>
+      <c r="W18" s="181"/>
+      <c r="X18" s="181"/>
+      <c r="Y18" s="181"/>
+      <c r="Z18" s="181"/>
+      <c r="AA18" s="181"/>
+    </row>
+    <row r="19" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="181"/>
+      <c r="B19" s="187" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="132"/>
-      <c r="Q18" s="132"/>
-      <c r="R18" s="132"/>
-      <c r="S18" s="132"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="132"/>
-      <c r="V18" s="132"/>
-      <c r="W18" s="132"/>
-      <c r="X18" s="132"/>
-      <c r="Y18" s="132"/>
-      <c r="Z18" s="132"/>
-      <c r="AA18" s="132"/>
-    </row>
-    <row r="19" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="132"/>
-      <c r="B19" s="165"/>
-      <c r="C19" s="168" t="s">
+      <c r="C19" s="188"/>
+      <c r="D19" s="188"/>
+      <c r="E19" s="188"/>
+      <c r="F19" s="188"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="185"/>
+      <c r="I19" s="181"/>
+      <c r="J19" s="181"/>
+      <c r="K19" s="181"/>
+      <c r="L19" s="181"/>
+      <c r="M19" s="181"/>
+      <c r="N19" s="181"/>
+      <c r="O19" s="181"/>
+      <c r="P19" s="181"/>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="181"/>
+      <c r="S19" s="181"/>
+      <c r="T19" s="181"/>
+      <c r="U19" s="181"/>
+      <c r="V19" s="181"/>
+      <c r="W19" s="181"/>
+      <c r="X19" s="181"/>
+      <c r="Y19" s="181"/>
+      <c r="Z19" s="181"/>
+      <c r="AA19" s="181"/>
+    </row>
+    <row r="20" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="181"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="193" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="168"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="132"/>
-      <c r="Q19" s="132"/>
-      <c r="R19" s="132"/>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
-      <c r="U19" s="132"/>
-      <c r="V19" s="132"/>
-      <c r="W19" s="132"/>
-      <c r="X19" s="132"/>
-      <c r="Y19" s="132"/>
-      <c r="Z19" s="132"/>
-      <c r="AA19" s="132"/>
-    </row>
-    <row r="20" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="132"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="168" t="s">
+      <c r="D20" s="193"/>
+      <c r="E20" s="188"/>
+      <c r="F20" s="188"/>
+      <c r="G20" s="189"/>
+      <c r="H20" s="185"/>
+      <c r="I20" s="181"/>
+      <c r="J20" s="181"/>
+      <c r="K20" s="181"/>
+      <c r="L20" s="181"/>
+      <c r="M20" s="181"/>
+      <c r="N20" s="181"/>
+      <c r="O20" s="181"/>
+      <c r="P20" s="181"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="181"/>
+      <c r="S20" s="181"/>
+      <c r="T20" s="181"/>
+      <c r="U20" s="181"/>
+      <c r="V20" s="181"/>
+      <c r="W20" s="181"/>
+      <c r="X20" s="181"/>
+      <c r="Y20" s="181"/>
+      <c r="Z20" s="181"/>
+      <c r="AA20" s="181"/>
+    </row>
+    <row r="21" spans="1:27" s="186" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="181"/>
+      <c r="B21" s="187"/>
+      <c r="C21" s="193" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="168"/>
-      <c r="E20" s="166" t="s">
+      <c r="D21" s="193"/>
+      <c r="E21" s="188" t="s">
         <v>135</v>
       </c>
-      <c r="F20" s="166"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="132"/>
-      <c r="Q20" s="132"/>
-      <c r="R20" s="132"/>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
-      <c r="U20" s="132"/>
-      <c r="V20" s="132"/>
-      <c r="W20" s="132"/>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="132"/>
-      <c r="Z20" s="132"/>
-      <c r="AA20" s="132"/>
-    </row>
-    <row r="21" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="132"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
-      <c r="Q21" s="132"/>
-      <c r="R21" s="132"/>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
-      <c r="U21" s="132"/>
-      <c r="V21" s="132"/>
-      <c r="W21" s="132"/>
-      <c r="X21" s="132"/>
-      <c r="Y21" s="132"/>
-      <c r="Z21" s="132"/>
-      <c r="AA21" s="132"/>
-    </row>
-    <row r="22" spans="1:27" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="132"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="171"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="132"/>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="132"/>
-    </row>
-    <row r="23" spans="1:27" s="132" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:27" s="132" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="132"/>
-      <c r="B25" s="147"/>
-      <c r="C25" s="148"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="148"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="149"/>
-      <c r="H25" s="138"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="132"/>
-      <c r="Q25" s="132"/>
-      <c r="R25" s="132"/>
-      <c r="S25" s="132"/>
-      <c r="T25" s="132"/>
-      <c r="U25" s="132"/>
-      <c r="V25" s="132"/>
-      <c r="W25" s="132"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="132"/>
-      <c r="Z25" s="132"/>
-      <c r="AA25" s="132"/>
-    </row>
-    <row r="26" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="132"/>
-      <c r="B26" s="150" t="s">
+      <c r="F21" s="188"/>
+      <c r="G21" s="189"/>
+      <c r="H21" s="185"/>
+      <c r="I21" s="181"/>
+      <c r="J21" s="181"/>
+      <c r="K21" s="181"/>
+      <c r="L21" s="181"/>
+      <c r="M21" s="181"/>
+      <c r="N21" s="181"/>
+      <c r="O21" s="181"/>
+      <c r="P21" s="181"/>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="181"/>
+      <c r="S21" s="181"/>
+      <c r="T21" s="181"/>
+      <c r="U21" s="181"/>
+      <c r="V21" s="181"/>
+      <c r="W21" s="181"/>
+      <c r="X21" s="181"/>
+      <c r="Y21" s="181"/>
+      <c r="Z21" s="181"/>
+      <c r="AA21" s="181"/>
+    </row>
+    <row r="22" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="181"/>
+      <c r="B22" s="187"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="189"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="181"/>
+      <c r="K22" s="181"/>
+      <c r="L22" s="181"/>
+      <c r="M22" s="181"/>
+      <c r="N22" s="181"/>
+      <c r="O22" s="181"/>
+      <c r="P22" s="181"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="181"/>
+      <c r="S22" s="181"/>
+      <c r="T22" s="181"/>
+      <c r="U22" s="181"/>
+      <c r="V22" s="181"/>
+      <c r="W22" s="181"/>
+      <c r="X22" s="181"/>
+      <c r="Y22" s="181"/>
+      <c r="Z22" s="181"/>
+      <c r="AA22" s="181"/>
+    </row>
+    <row r="23" spans="1:27" s="186" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="181"/>
+      <c r="B23" s="190"/>
+      <c r="C23" s="191"/>
+      <c r="D23" s="191"/>
+      <c r="E23" s="191"/>
+      <c r="F23" s="191"/>
+      <c r="G23" s="192"/>
+      <c r="H23" s="185"/>
+      <c r="I23" s="181"/>
+      <c r="J23" s="181"/>
+      <c r="K23" s="181"/>
+      <c r="L23" s="181"/>
+      <c r="M23" s="181"/>
+      <c r="N23" s="181"/>
+      <c r="O23" s="181"/>
+      <c r="P23" s="181"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="181"/>
+      <c r="S23" s="181"/>
+      <c r="T23" s="181"/>
+      <c r="U23" s="181"/>
+      <c r="V23" s="181"/>
+      <c r="W23" s="181"/>
+      <c r="X23" s="181"/>
+      <c r="Y23" s="181"/>
+      <c r="Z23" s="181"/>
+      <c r="AA23" s="181"/>
+    </row>
+    <row r="24" spans="1:27" s="181" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:27" s="181" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="181"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181"/>
+      <c r="K26" s="181"/>
+      <c r="L26" s="181"/>
+      <c r="M26" s="181"/>
+      <c r="N26" s="181"/>
+      <c r="O26" s="181"/>
+      <c r="P26" s="181"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="181"/>
+      <c r="S26" s="181"/>
+      <c r="T26" s="181"/>
+      <c r="U26" s="181"/>
+      <c r="V26" s="181"/>
+      <c r="W26" s="181"/>
+      <c r="X26" s="181"/>
+      <c r="Y26" s="181"/>
+      <c r="Z26" s="181"/>
+      <c r="AA26" s="181"/>
+    </row>
+    <row r="27" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="181"/>
+      <c r="B27" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="132"/>
-      <c r="Q26" s="132"/>
-      <c r="R26" s="132"/>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
-      <c r="V26" s="132"/>
-      <c r="W26" s="132"/>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="132"/>
-      <c r="Z26" s="132"/>
-      <c r="AA26" s="132"/>
-    </row>
-    <row r="27" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="132"/>
-      <c r="B27" s="150"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="138"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="132"/>
-      <c r="Q27" s="132"/>
-      <c r="R27" s="132"/>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="132"/>
-      <c r="V27" s="132"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="132"/>
-      <c r="Z27" s="132"/>
-      <c r="AA27" s="132"/>
-    </row>
-    <row r="28" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="132"/>
-      <c r="B28" s="150"/>
-      <c r="C28" s="152" t="s">
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="197"/>
+      <c r="H27" s="185"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181"/>
+      <c r="K27" s="181"/>
+      <c r="L27" s="181"/>
+      <c r="M27" s="181"/>
+      <c r="N27" s="181"/>
+      <c r="O27" s="181"/>
+      <c r="P27" s="181"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="181"/>
+      <c r="S27" s="181"/>
+      <c r="T27" s="181"/>
+      <c r="U27" s="181"/>
+      <c r="V27" s="181"/>
+      <c r="W27" s="181"/>
+      <c r="X27" s="181"/>
+      <c r="Y27" s="181"/>
+      <c r="Z27" s="181"/>
+      <c r="AA27" s="181"/>
+    </row>
+    <row r="28" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="181"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="185"/>
+      <c r="I28" s="181"/>
+      <c r="J28" s="181"/>
+      <c r="K28" s="181"/>
+      <c r="L28" s="181"/>
+      <c r="M28" s="181"/>
+      <c r="N28" s="181"/>
+      <c r="O28" s="181"/>
+      <c r="P28" s="181"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="181"/>
+      <c r="S28" s="181"/>
+      <c r="T28" s="181"/>
+      <c r="U28" s="181"/>
+      <c r="V28" s="181"/>
+      <c r="W28" s="181"/>
+      <c r="X28" s="181"/>
+      <c r="Y28" s="181"/>
+      <c r="Z28" s="181"/>
+      <c r="AA28" s="181"/>
+    </row>
+    <row r="29" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="181"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="114" t="s">
         <v>140</v>
       </c>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="132"/>
-      <c r="Q28" s="132"/>
-      <c r="R28" s="132"/>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
-      <c r="V28" s="132"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="132"/>
-      <c r="Z28" s="132"/>
-      <c r="AA28" s="132"/>
-    </row>
-    <row r="29" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="132"/>
-      <c r="B29" s="150"/>
-      <c r="C29" s="152" t="s">
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="197"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181"/>
+      <c r="K29" s="181"/>
+      <c r="L29" s="181"/>
+      <c r="M29" s="181"/>
+      <c r="N29" s="181"/>
+      <c r="O29" s="181"/>
+      <c r="P29" s="181"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="181"/>
+      <c r="S29" s="181"/>
+      <c r="T29" s="181"/>
+      <c r="U29" s="181"/>
+      <c r="V29" s="181"/>
+      <c r="W29" s="181"/>
+      <c r="X29" s="181"/>
+      <c r="Y29" s="181"/>
+      <c r="Z29" s="181"/>
+      <c r="AA29" s="181"/>
+    </row>
+    <row r="30" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="181"/>
+      <c r="B30" s="113"/>
+      <c r="C30" s="114" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="138"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="132"/>
-      <c r="Q29" s="132"/>
-      <c r="R29" s="132"/>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
-      <c r="U29" s="132"/>
-      <c r="V29" s="132"/>
-      <c r="W29" s="132"/>
-      <c r="X29" s="132"/>
-      <c r="Y29" s="132"/>
-      <c r="Z29" s="132"/>
-      <c r="AA29" s="132"/>
-    </row>
-    <row r="30" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="132"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="152" t="s">
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="197"/>
+      <c r="H30" s="185"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="181"/>
+      <c r="K30" s="181"/>
+      <c r="L30" s="181"/>
+      <c r="M30" s="181"/>
+      <c r="N30" s="181"/>
+      <c r="O30" s="181"/>
+      <c r="P30" s="181"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="181"/>
+      <c r="S30" s="181"/>
+      <c r="T30" s="181"/>
+      <c r="U30" s="181"/>
+      <c r="V30" s="181"/>
+      <c r="W30" s="181"/>
+      <c r="X30" s="181"/>
+      <c r="Y30" s="181"/>
+      <c r="Z30" s="181"/>
+      <c r="AA30" s="181"/>
+    </row>
+    <row r="31" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="181"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="152"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="132"/>
-      <c r="Q30" s="132"/>
-      <c r="R30" s="132"/>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="132"/>
-      <c r="V30" s="132"/>
-      <c r="W30" s="132"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="132"/>
-      <c r="Z30" s="132"/>
-      <c r="AA30" s="132"/>
-    </row>
-    <row r="31" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="132"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="152" t="s">
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="197"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="181"/>
+      <c r="J31" s="181"/>
+      <c r="K31" s="181"/>
+      <c r="L31" s="181"/>
+      <c r="M31" s="181"/>
+      <c r="N31" s="181"/>
+      <c r="O31" s="181"/>
+      <c r="P31" s="181"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="181"/>
+      <c r="S31" s="181"/>
+      <c r="T31" s="181"/>
+      <c r="U31" s="181"/>
+      <c r="V31" s="181"/>
+      <c r="W31" s="181"/>
+      <c r="X31" s="181"/>
+      <c r="Y31" s="181"/>
+      <c r="Z31" s="181"/>
+      <c r="AA31" s="181"/>
+    </row>
+    <row r="32" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="181"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="114" t="s">
         <v>143</v>
       </c>
-      <c r="D31" s="152"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="132"/>
-      <c r="Q31" s="132"/>
-      <c r="R31" s="132"/>
-      <c r="S31" s="132"/>
-      <c r="T31" s="132"/>
-      <c r="U31" s="132"/>
-      <c r="V31" s="132"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="132"/>
-      <c r="Z31" s="132"/>
-      <c r="AA31" s="132"/>
-    </row>
-    <row r="32" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="132"/>
-      <c r="B32" s="150"/>
-      <c r="C32" s="152" t="s">
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="197"/>
+      <c r="H32" s="185"/>
+      <c r="I32" s="181"/>
+      <c r="J32" s="181"/>
+      <c r="K32" s="181"/>
+      <c r="L32" s="181"/>
+      <c r="M32" s="181"/>
+      <c r="N32" s="181"/>
+      <c r="O32" s="181"/>
+      <c r="P32" s="181"/>
+      <c r="Q32" s="181"/>
+      <c r="R32" s="181"/>
+      <c r="S32" s="181"/>
+      <c r="T32" s="181"/>
+      <c r="U32" s="181"/>
+      <c r="V32" s="181"/>
+      <c r="W32" s="181"/>
+      <c r="X32" s="181"/>
+      <c r="Y32" s="181"/>
+      <c r="Z32" s="181"/>
+      <c r="AA32" s="181"/>
+    </row>
+    <row r="33" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="181"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="114" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="152"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="132"/>
-      <c r="Q32" s="132"/>
-      <c r="R32" s="132"/>
-      <c r="S32" s="132"/>
-      <c r="T32" s="132"/>
-      <c r="U32" s="132"/>
-      <c r="V32" s="132"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="132"/>
-      <c r="Y32" s="132"/>
-      <c r="Z32" s="132"/>
-      <c r="AA32" s="132"/>
-    </row>
-    <row r="33" spans="1:27" s="139" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="132"/>
-      <c r="B33" s="150"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="132"/>
-      <c r="Q33" s="132"/>
-      <c r="R33" s="132"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="132"/>
-      <c r="U33" s="132"/>
-      <c r="V33" s="132"/>
-      <c r="W33" s="132"/>
-      <c r="X33" s="132"/>
-      <c r="Y33" s="132"/>
-      <c r="Z33" s="132"/>
-      <c r="AA33" s="132"/>
-    </row>
-    <row r="34" spans="1:27" s="139" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="132"/>
-      <c r="B34" s="157"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="158"/>
-      <c r="F34" s="158"/>
-      <c r="G34" s="159"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="132"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="132"/>
-      <c r="L34" s="132"/>
-      <c r="M34" s="132"/>
-      <c r="N34" s="132"/>
-      <c r="O34" s="132"/>
-      <c r="P34" s="132"/>
-      <c r="Q34" s="132"/>
-      <c r="R34" s="132"/>
-      <c r="S34" s="132"/>
-      <c r="T34" s="132"/>
-      <c r="U34" s="132"/>
-      <c r="V34" s="132"/>
-      <c r="W34" s="132"/>
-      <c r="X34" s="132"/>
-      <c r="Y34" s="132"/>
-      <c r="Z34" s="132"/>
-      <c r="AA34" s="132"/>
-    </row>
-    <row r="35" spans="1:27" s="132" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+      <c r="D33" s="114"/>
+      <c r="E33" s="114"/>
+      <c r="F33" s="114"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="181"/>
+      <c r="J33" s="181"/>
+      <c r="K33" s="181"/>
+      <c r="L33" s="181"/>
+      <c r="M33" s="181"/>
+      <c r="N33" s="181"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="181"/>
+      <c r="S33" s="181"/>
+      <c r="T33" s="181"/>
+      <c r="U33" s="181"/>
+      <c r="V33" s="181"/>
+      <c r="W33" s="181"/>
+      <c r="X33" s="181"/>
+      <c r="Y33" s="181"/>
+      <c r="Z33" s="181"/>
+      <c r="AA33" s="181"/>
+    </row>
+    <row r="34" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="181"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="181"/>
+      <c r="J34" s="181"/>
+      <c r="K34" s="181"/>
+      <c r="L34" s="181"/>
+      <c r="M34" s="181"/>
+      <c r="N34" s="181"/>
+      <c r="O34" s="181"/>
+      <c r="P34" s="181"/>
+      <c r="Q34" s="181"/>
+      <c r="R34" s="181"/>
+      <c r="S34" s="181"/>
+      <c r="T34" s="181"/>
+      <c r="U34" s="181"/>
+      <c r="V34" s="181"/>
+      <c r="W34" s="181"/>
+      <c r="X34" s="181"/>
+      <c r="Y34" s="181"/>
+      <c r="Z34" s="181"/>
+      <c r="AA34" s="181"/>
+    </row>
+    <row r="35" spans="1:27" s="186" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="181"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="181"/>
+      <c r="P35" s="181"/>
+      <c r="Q35" s="181"/>
+      <c r="R35" s="181"/>
+      <c r="S35" s="181"/>
+      <c r="T35" s="181"/>
+      <c r="U35" s="181"/>
+      <c r="V35" s="181"/>
+      <c r="W35" s="181"/>
+      <c r="X35" s="181"/>
+      <c r="Y35" s="181"/>
+      <c r="Z35" s="181"/>
+      <c r="AA35" s="181"/>
+    </row>
+    <row r="36" spans="1:27" s="181" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C19:D19"/>
+  <mergeCells count="4">
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7352,10 +7398,10 @@
       <c r="E3" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="F3" s="103"/>
+      <c r="F3" s="178"/>
     </row>
     <row r="4" spans="2:6" ht="112.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="103"/>
+      <c r="F4" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8223,11 +8269,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" s="52" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="179" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="179"/>
       <c r="F3" s="52" t="s">
         <v>223</v>
       </c>
@@ -8236,11 +8282,11 @@
       <c r="B4" s="52" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="179" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
       <c r="F4" s="52" t="s">
         <v>226</v>
       </c>

--- a/System_Design_Architecture.xlsx
+++ b/System_Design_Architecture.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Princip-Theorm" sheetId="6" r:id="rId3"/>
     <sheet name="Architecture" sheetId="7" r:id="rId4"/>
     <sheet name="System Design" sheetId="16" r:id="rId5"/>
-    <sheet name="Prop-Sols" sheetId="8" r:id="rId6"/>
+    <sheet name="Comcatn" sheetId="8" r:id="rId6"/>
     <sheet name="X x Y" sheetId="9" r:id="rId7"/>
     <sheet name="Big Applications" sheetId="11" r:id="rId8"/>
     <sheet name="Situat - Sols" sheetId="12" r:id="rId9"/>
-    <sheet name="Compare Techs" sheetId="13" r:id="rId10"/>
-    <sheet name="Compare Sprn MVC vs NG" sheetId="14" r:id="rId11"/>
+    <sheet name="Techs" sheetId="13" r:id="rId10"/>
+    <sheet name="Sprn MVC vs NG" sheetId="14" r:id="rId11"/>
     <sheet name="Internet Flow" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="394">
   <si>
     <t>Scalability</t>
   </si>
@@ -401,9 +401,6 @@
   </si>
   <si>
     <t>Boy Scout Principle</t>
-  </si>
-  <si>
-    <t>Req</t>
   </si>
   <si>
     <t>when filter module selects option to filter based on date, most viewed etc</t>
@@ -1742,11 +1739,58 @@
   <si>
     <t>process of defining architecture, layers, modules, components, interfaces and data model to satisfy specific requirement.</t>
   </si>
+  <si>
+    <t>tight couple</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>One/many communicate ( txns ) with one/many</t>
+  </si>
+  <si>
+    <t>Types of communications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Req &lt;-&gt; Res (wait - sync)
+-- Req &lt;-&gt; Res ( callback - async )
+-- Req -&gt; NO Res 
+-- No Req &lt;- Res ( Notification )
+</t>
+  </si>
+  <si>
+    <t>Client / Server communications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Client Req -&gt; … &lt;- Res ( sync or async )
+-- Client Req -&gt; … X Server no act ( solicit )
+-- Server Req -&gt; … &lt;- Res Client ( sync or async )
+-- Server Res -&gt; …. X Client No action ( Notification)
+-- </t>
+  </si>
+  <si>
+    <t>Remote Communication</t>
+  </si>
+  <si>
+    <t>Remote communication Challenges</t>
+  </si>
+  <si>
+    <t>-- Network Protocols ( LAN / WAN ) - tcp/ip, udp
+-- http, ftp etc
+-- SOAP, REST
+-- RMI (Tight Coupling)
+-- JMS (Loose Coupling)</t>
+  </si>
+  <si>
+    <t>-- Privacy/Confidential
+-- Reliable ( protect from data lose )
+-- Authenticity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3121,6 +3165,63 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3169,74 +3270,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3254,6 +3298,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3364,184 +3411,6 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>83821</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2811780</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1312436</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId2">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="81000"/>
-                  </a14:imgEffect>
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-8000" contrast="56000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1661160" y="449581"/>
-          <a:ext cx="2743200" cy="1228615"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>897732</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId4">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="100000"/>
-                  </a14:imgEffect>
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-14000" contrast="56000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8854440" y="1173481"/>
-          <a:ext cx="2743200" cy="821531"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>129541</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2788920</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>1313818</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId6">
-                  <a14:imgEffect>
-                    <a14:sharpenSoften amount="25000"/>
-                  </a14:imgEffect>
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-1000" contrast="15000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="11445240" y="419101"/>
-          <a:ext cx="2743200" cy="1991997"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3682,7 +3551,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3792,6 +3661,184 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2811780</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1312436</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="81000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-8000" contrast="56000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2935605" y="512446"/>
+          <a:ext cx="2743200" cy="57040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>897732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="100000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-14000" contrast="56000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8324850" y="504826"/>
+          <a:ext cx="2743200" cy="69056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2788920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1313818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="25000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-1000" contrast="15000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11123295" y="415291"/>
+          <a:ext cx="2695575" cy="155577"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4088,8 +4135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4104,10 +4151,10 @@
   <sheetData>
     <row r="2" spans="2:5" ht="75" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -4301,16 +4348,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" t="s">
         <v>278</v>
-      </c>
-      <c r="C3" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4341,74 +4388,74 @@
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="87" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E4" s="87" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="87" t="s">
         <v>340</v>
-      </c>
-      <c r="F4" s="87" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.2">
       <c r="C5" s="87" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.2">
       <c r="C6" s="90" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B11" s="87" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F11" s="87" t="s">
+        <v>349</v>
+      </c>
+      <c r="G11" s="87" t="s">
         <v>350</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="H11" s="87" t="s">
         <v>351</v>
-      </c>
-      <c r="H11" s="87" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.2">
       <c r="B13" s="87" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E13" s="90" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="60" x14ac:dyDescent="0.2">
       <c r="E14" s="87" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="G14" s="87" t="s">
         <v>354</v>
       </c>
-      <c r="G14" s="87" t="s">
+      <c r="H14" s="87" t="s">
         <v>355</v>
-      </c>
-      <c r="H14" s="87" t="s">
-        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -4443,31 +4490,31 @@
   <sheetData>
     <row r="4" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="88" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" s="88" t="s">
         <v>326</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>327</v>
-      </c>
       <c r="D4" s="89" t="s">
+        <v>328</v>
+      </c>
+      <c r="E4" s="89" t="s">
         <v>329</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="F4" s="88" t="s">
         <v>330</v>
       </c>
-      <c r="F4" s="88" t="s">
-        <v>331</v>
-      </c>
       <c r="G4" s="89" t="s">
+        <v>333</v>
+      </c>
+      <c r="H4" s="89" t="s">
         <v>334</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="I4" s="89" t="s">
         <v>335</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="J4" s="88" t="s">
         <v>336</v>
-      </c>
-      <c r="J4" s="88" t="s">
-        <v>337</v>
       </c>
       <c r="K4" s="88"/>
       <c r="L4" s="88"/>
@@ -4476,19 +4523,19 @@
     </row>
     <row r="5" spans="2:14" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="87" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="87" t="s">
-        <v>328</v>
-      </c>
       <c r="E5" s="87" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>332</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -4666,8 +4713,8 @@
       <c r="D34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="162"/>
-      <c r="F34" s="163"/>
+      <c r="E34" s="181"/>
+      <c r="F34" s="182"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -4680,8 +4727,8 @@
       <c r="D35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="164"/>
-      <c r="F35" s="165"/>
+      <c r="E35" s="183"/>
+      <c r="F35" s="184"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -4694,8 +4741,8 @@
       <c r="D36" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="164"/>
-      <c r="F36" s="165"/>
+      <c r="E36" s="183"/>
+      <c r="F36" s="184"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
@@ -4708,8 +4755,8 @@
       <c r="D37" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="164"/>
-      <c r="F37" s="165"/>
+      <c r="E37" s="183"/>
+      <c r="F37" s="184"/>
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
@@ -4722,8 +4769,8 @@
       <c r="D38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="164"/>
-      <c r="F38" s="165"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="184"/>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
@@ -4736,8 +4783,8 @@
       <c r="D39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="166"/>
-      <c r="F39" s="167"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="186"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
@@ -4881,10 +4928,10 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="91" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="91" t="s">
         <v>117</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4898,13 +4945,13 @@
     </row>
     <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="91" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B6" s="95" t="s">
+        <v>298</v>
+      </c>
+      <c r="C6" s="96" t="s">
         <v>299</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>300</v>
       </c>
       <c r="D6" s="96"/>
       <c r="E6" s="97"/>
@@ -4914,10 +4961,10 @@
     <row r="7" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B7" s="99"/>
       <c r="C7" s="100" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D7" s="96" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E7" s="97"/>
       <c r="F7" s="97"/>
@@ -4929,7 +4976,7 @@
         <v>104</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E8" s="104"/>
       <c r="F8" s="104"/>
@@ -4941,7 +4988,7 @@
         <v>105</v>
       </c>
       <c r="D9" s="104" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E9" s="104"/>
       <c r="F9" s="104"/>
@@ -4962,10 +5009,10 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="101"/>
       <c r="C11" s="102" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D11" s="104" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E11" s="104"/>
       <c r="F11" s="104"/>
@@ -4990,13 +5037,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="91" t="s">
+        <v>306</v>
+      </c>
+      <c r="B15" s="95" t="s">
         <v>307</v>
       </c>
-      <c r="B15" s="95" t="s">
-        <v>308</v>
-      </c>
       <c r="C15" s="97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D15" s="97"/>
       <c r="E15" s="97"/>
@@ -5056,13 +5103,13 @@
     </row>
     <row r="23" spans="2:7" ht="51" x14ac:dyDescent="0.25">
       <c r="B23" s="113" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C23" s="114" t="s">
+        <v>360</v>
+      </c>
+      <c r="D23" s="97" t="s">
         <v>361</v>
-      </c>
-      <c r="D23" s="97" t="s">
-        <v>362</v>
       </c>
       <c r="E23" s="97"/>
       <c r="F23" s="97"/>
@@ -5071,13 +5118,13 @@
     <row r="24" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="115"/>
       <c r="C24" s="116" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E24" s="104" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F24" s="104"/>
       <c r="G24" s="105"/>
@@ -5088,10 +5135,10 @@
         <v>92</v>
       </c>
       <c r="D25" s="104" t="s">
+        <v>366</v>
+      </c>
+      <c r="E25" s="104" t="s">
         <v>367</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>368</v>
       </c>
       <c r="F25" s="104"/>
       <c r="G25" s="105"/>
@@ -5099,10 +5146,10 @@
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="115"/>
       <c r="C26" s="116" t="s">
+        <v>363</v>
+      </c>
+      <c r="D26" s="104" t="s">
         <v>364</v>
-      </c>
-      <c r="D26" s="104" t="s">
-        <v>365</v>
       </c>
       <c r="E26" s="104"/>
       <c r="F26" s="104"/>
@@ -5134,13 +5181,13 @@
     </row>
     <row r="30" spans="2:7" ht="51" x14ac:dyDescent="0.25">
       <c r="B30" s="110" t="s">
+        <v>368</v>
+      </c>
+      <c r="C30" s="117" t="s">
         <v>369</v>
       </c>
-      <c r="C30" s="117" t="s">
-        <v>370</v>
-      </c>
       <c r="D30" s="111" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E30" s="111"/>
       <c r="F30" s="111"/>
@@ -5172,13 +5219,13 @@
     </row>
     <row r="34" spans="1:27" ht="51" x14ac:dyDescent="0.25">
       <c r="B34" s="110" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" s="117" t="s">
         <v>371</v>
       </c>
-      <c r="C34" s="117" t="s">
-        <v>372</v>
-      </c>
       <c r="D34" s="111" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E34" s="111"/>
       <c r="F34" s="111"/>
@@ -5218,13 +5265,13 @@
     </row>
     <row r="39" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B39" s="110" t="s">
+        <v>374</v>
+      </c>
+      <c r="C39" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="C39" s="117" t="s">
+      <c r="D39" s="111" t="s">
         <v>376</v>
-      </c>
-      <c r="D39" s="111" t="s">
-        <v>377</v>
       </c>
       <c r="E39" s="111"/>
       <c r="F39" s="111"/>
@@ -5256,10 +5303,10 @@
     </row>
     <row r="43" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B43" s="110" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" s="117" t="s">
         <v>378</v>
-      </c>
-      <c r="C43" s="117" t="s">
-        <v>379</v>
       </c>
       <c r="D43" s="111"/>
       <c r="E43" s="111"/>
@@ -5314,14 +5361,14 @@
     <row r="47" spans="1:27" s="125" customFormat="1" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="120"/>
       <c r="B47" s="126" t="s">
-        <v>119</v>
-      </c>
-      <c r="C47" s="168" t="s">
-        <v>122</v>
-      </c>
-      <c r="D47" s="169"/>
-      <c r="E47" s="168"/>
-      <c r="F47" s="169"/>
+        <v>118</v>
+      </c>
+      <c r="C47" s="187" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" s="188"/>
+      <c r="E47" s="187"/>
+      <c r="F47" s="188"/>
       <c r="G47" s="127"/>
       <c r="H47" s="124"/>
       <c r="I47" s="118"/>
@@ -5407,12 +5454,12 @@
     <row r="52" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="118"/>
       <c r="B52" s="134" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="170" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="170"/>
+        <v>144</v>
+      </c>
+      <c r="C52" s="189" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" s="189"/>
       <c r="E52" s="135"/>
       <c r="F52" s="135"/>
       <c r="G52" s="136"/>
@@ -5441,10 +5488,10 @@
       <c r="A53" s="118"/>
       <c r="B53" s="134"/>
       <c r="C53" s="135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D53" s="135" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E53" s="135"/>
       <c r="F53" s="135"/>
@@ -5474,10 +5521,10 @@
       <c r="A54" s="118"/>
       <c r="B54" s="134"/>
       <c r="C54" s="135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D54" s="135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E54" s="135"/>
       <c r="F54" s="135"/>
@@ -5507,10 +5554,10 @@
       <c r="A55" s="118"/>
       <c r="B55" s="134"/>
       <c r="C55" s="135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D55" s="135" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E55" s="135"/>
       <c r="F55" s="135"/>
@@ -5540,10 +5587,10 @@
       <c r="A56" s="118"/>
       <c r="B56" s="137"/>
       <c r="C56" s="135" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D56" s="138" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E56" s="138"/>
       <c r="F56" s="138"/>
@@ -5573,10 +5620,10 @@
       <c r="A57" s="118"/>
       <c r="B57" s="137"/>
       <c r="C57" s="138" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D57" s="138" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E57" s="138"/>
       <c r="F57" s="138"/>
@@ -5665,7 +5712,7 @@
     <row r="62" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="118"/>
       <c r="B62" s="134" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C62" s="135"/>
       <c r="D62" s="135"/>
@@ -5697,10 +5744,10 @@
       <c r="A63" s="118"/>
       <c r="B63" s="134"/>
       <c r="C63" s="143" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D63" s="135" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E63" s="135"/>
       <c r="F63" s="135"/>
@@ -5730,10 +5777,10 @@
       <c r="A64" s="118"/>
       <c r="B64" s="134"/>
       <c r="C64" s="143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D64" s="135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E64" s="135"/>
       <c r="F64" s="135"/>
@@ -5763,10 +5810,10 @@
       <c r="A65" s="118"/>
       <c r="B65" s="134"/>
       <c r="C65" s="143" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D65" s="135" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E65" s="135"/>
       <c r="F65" s="135"/>
@@ -5796,10 +5843,10 @@
       <c r="A66" s="118"/>
       <c r="B66" s="137"/>
       <c r="C66" s="144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D66" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E66" s="138"/>
       <c r="F66" s="138"/>
@@ -5829,10 +5876,10 @@
       <c r="A67" s="118"/>
       <c r="B67" s="137"/>
       <c r="C67" s="144" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D67" s="138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E67" s="138"/>
       <c r="F67" s="138"/>
@@ -5940,13 +5987,13 @@
     <row r="73" spans="1:27" s="145" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="146"/>
       <c r="B73" s="152" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C73" s="153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D73" s="153" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E73" s="153"/>
       <c r="F73" s="154"/>
@@ -5957,10 +6004,10 @@
       <c r="A74" s="146"/>
       <c r="B74" s="152"/>
       <c r="C74" s="153" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D74" s="153" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E74" s="153"/>
       <c r="F74" s="154"/>
@@ -5970,10 +6017,10 @@
     <row r="75" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="146"/>
       <c r="B75" s="152"/>
-      <c r="C75" s="171" t="s">
-        <v>183</v>
-      </c>
-      <c r="D75" s="171"/>
+      <c r="C75" s="190" t="s">
+        <v>182</v>
+      </c>
+      <c r="D75" s="190"/>
       <c r="E75" s="153"/>
       <c r="F75" s="154"/>
       <c r="G75" s="155"/>
@@ -6031,7 +6078,7 @@
     <row r="82" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="146"/>
       <c r="B82" s="152" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C82" s="153"/>
       <c r="D82" s="153"/>
@@ -6053,8 +6100,8 @@
     <row r="84" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="146"/>
       <c r="B84" s="152"/>
-      <c r="C84" s="171"/>
-      <c r="D84" s="171"/>
+      <c r="C84" s="190"/>
+      <c r="D84" s="190"/>
       <c r="E84" s="153"/>
       <c r="F84" s="154"/>
       <c r="G84" s="155"/>
@@ -6135,7 +6182,7 @@
       <c r="A4" s="43"/>
       <c r="B4" s="45"/>
       <c r="C4" s="40" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -6147,10 +6194,10 @@
       <c r="A5" s="43"/>
       <c r="B5" s="46"/>
       <c r="C5" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
@@ -6161,10 +6208,10 @@
       <c r="A6" s="43"/>
       <c r="B6" s="46"/>
       <c r="C6" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
@@ -6184,10 +6231,10 @@
     <row r="8" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="43"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="176" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" s="176"/>
+      <c r="C8" s="195" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="195"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="33"/>
@@ -6196,12 +6243,12 @@
     <row r="9" spans="1:8" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="43"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="176" t="s">
-        <v>198</v>
-      </c>
-      <c r="D9" s="176"/>
+      <c r="C9" s="195" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" s="195"/>
       <c r="E9" s="35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="33"/>
@@ -6210,10 +6257,10 @@
     <row r="10" spans="1:8" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="176" t="s">
-        <v>196</v>
-      </c>
-      <c r="D10" s="176"/>
+      <c r="C10" s="195" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="195"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="33"/>
@@ -6222,10 +6269,10 @@
     <row r="11" spans="1:8" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="176" t="s">
-        <v>195</v>
-      </c>
-      <c r="D11" s="176"/>
+      <c r="C11" s="195" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="195"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="33"/>
@@ -6234,30 +6281,30 @@
     <row r="12" spans="1:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A12" s="43"/>
       <c r="B12" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" s="176" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="176"/>
+      <c r="C12" s="195" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="195"/>
       <c r="E12" s="35" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="43"/>
       <c r="B13" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="176" t="s">
         <v>189</v>
       </c>
-      <c r="D13" s="176"/>
+      <c r="C13" s="195" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="195"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="33"/>
@@ -6306,28 +6353,28 @@
     </row>
     <row r="20" spans="2:7" s="27" customFormat="1" ht="155.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="177" t="s">
         <v>181</v>
       </c>
-      <c r="D20" s="175"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="173"/>
+      <c r="C20" s="196" t="s">
+        <v>180</v>
+      </c>
+      <c r="D20" s="194"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="192"/>
       <c r="G20" s="33"/>
     </row>
     <row r="21" spans="2:7" s="27" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36"/>
       <c r="C21" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E21" s="174" t="s">
-        <v>205</v>
-      </c>
-      <c r="F21" s="175"/>
+        <v>178</v>
+      </c>
+      <c r="E21" s="193" t="s">
+        <v>204</v>
+      </c>
+      <c r="F21" s="194"/>
       <c r="G21" s="33"/>
     </row>
     <row r="22" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -6340,8 +6387,8 @@
     </row>
     <row r="23" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36"/>
-      <c r="C23" s="176"/>
-      <c r="D23" s="176"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="195"/>
       <c r="E23" s="35"/>
       <c r="F23" s="34"/>
       <c r="G23" s="33"/>
@@ -6367,17 +6414,17 @@
     </row>
     <row r="27" spans="2:7" s="27" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" spans="2:7" s="24" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6564,8 +6611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AA36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6579,19 +6626,19 @@
   <sheetData>
     <row r="3" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="87" t="s">
-        <v>357</v>
-      </c>
-      <c r="C3" s="180" t="s">
-        <v>383</v>
-      </c>
-      <c r="D3" s="180"/>
+        <v>356</v>
+      </c>
+      <c r="C3" s="198" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" s="198"/>
     </row>
     <row r="4" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="B4" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>357</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -6601,745 +6648,745 @@
     </row>
     <row r="6" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="C6" s="87" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D6" s="87" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="181" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="181"/>
-      <c r="B9" s="182"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="184"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="181"/>
-      <c r="J9" s="181"/>
-      <c r="K9" s="181"/>
-      <c r="L9" s="181"/>
-      <c r="M9" s="181"/>
-      <c r="N9" s="181"/>
-      <c r="O9" s="181"/>
-      <c r="P9" s="181"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="181"/>
-      <c r="S9" s="181"/>
-      <c r="T9" s="181"/>
-      <c r="U9" s="181"/>
-      <c r="V9" s="181"/>
-      <c r="W9" s="181"/>
-      <c r="X9" s="181"/>
-      <c r="Y9" s="181"/>
-      <c r="Z9" s="181"/>
-      <c r="AA9" s="181"/>
-    </row>
-    <row r="10" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="181"/>
-      <c r="B10" s="187" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="188"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="181"/>
-      <c r="K10" s="181"/>
-      <c r="L10" s="181"/>
-      <c r="M10" s="181"/>
-      <c r="N10" s="181"/>
-      <c r="O10" s="181"/>
-      <c r="P10" s="181"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="181"/>
-      <c r="S10" s="181"/>
-      <c r="T10" s="181"/>
-      <c r="U10" s="181"/>
-      <c r="V10" s="181"/>
-      <c r="W10" s="181"/>
-      <c r="X10" s="181"/>
-      <c r="Y10" s="181"/>
-      <c r="Z10" s="181"/>
-      <c r="AA10" s="181"/>
-    </row>
-    <row r="11" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="181"/>
-      <c r="B11" s="187"/>
-      <c r="C11" s="188" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="162" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="162"/>
+      <c r="B9" s="163"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="162"/>
+      <c r="J9" s="162"/>
+      <c r="K9" s="162"/>
+      <c r="L9" s="162"/>
+      <c r="M9" s="162"/>
+      <c r="N9" s="162"/>
+      <c r="O9" s="162"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="162"/>
+      <c r="S9" s="162"/>
+      <c r="T9" s="162"/>
+      <c r="U9" s="162"/>
+      <c r="V9" s="162"/>
+      <c r="W9" s="162"/>
+      <c r="X9" s="162"/>
+      <c r="Y9" s="162"/>
+      <c r="Z9" s="162"/>
+      <c r="AA9" s="162"/>
+    </row>
+    <row r="10" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="162"/>
+      <c r="B10" s="168" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="162"/>
+      <c r="J10" s="162"/>
+      <c r="K10" s="162"/>
+      <c r="L10" s="162"/>
+      <c r="M10" s="162"/>
+      <c r="N10" s="162"/>
+      <c r="O10" s="162"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="162"/>
+      <c r="S10" s="162"/>
+      <c r="T10" s="162"/>
+      <c r="U10" s="162"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="162"/>
+      <c r="X10" s="162"/>
+      <c r="Y10" s="162"/>
+      <c r="Z10" s="162"/>
+      <c r="AA10" s="162"/>
+    </row>
+    <row r="11" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="162"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="169" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="169"/>
+      <c r="E11" s="169"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
+      <c r="L11" s="162"/>
+      <c r="M11" s="162"/>
+      <c r="N11" s="162"/>
+      <c r="O11" s="162"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="162"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="162"/>
+      <c r="X11" s="162"/>
+      <c r="Y11" s="162"/>
+      <c r="Z11" s="162"/>
+      <c r="AA11" s="162"/>
+    </row>
+    <row r="12" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="162"/>
+      <c r="B12" s="168"/>
+      <c r="C12" s="169" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="169"/>
+      <c r="E12" s="169"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="162"/>
+      <c r="K12" s="162"/>
+      <c r="L12" s="162"/>
+      <c r="M12" s="162"/>
+      <c r="N12" s="162"/>
+      <c r="O12" s="162"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="162"/>
+      <c r="T12" s="162"/>
+      <c r="U12" s="162"/>
+      <c r="V12" s="162"/>
+      <c r="W12" s="162"/>
+      <c r="X12" s="162"/>
+      <c r="Y12" s="162"/>
+      <c r="Z12" s="162"/>
+      <c r="AA12" s="162"/>
+    </row>
+    <row r="13" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="162"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="169" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="185"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="181"/>
-      <c r="M11" s="181"/>
-      <c r="N11" s="181"/>
-      <c r="O11" s="181"/>
-      <c r="P11" s="181"/>
-      <c r="Q11" s="181"/>
-      <c r="R11" s="181"/>
-      <c r="S11" s="181"/>
-      <c r="T11" s="181"/>
-      <c r="U11" s="181"/>
-      <c r="V11" s="181"/>
-      <c r="W11" s="181"/>
-      <c r="X11" s="181"/>
-      <c r="Y11" s="181"/>
-      <c r="Z11" s="181"/>
-      <c r="AA11" s="181"/>
-    </row>
-    <row r="12" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="181"/>
-      <c r="B12" s="187"/>
-      <c r="C12" s="188" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="188"/>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="185"/>
-      <c r="I12" s="181"/>
-      <c r="J12" s="181"/>
-      <c r="K12" s="181"/>
-      <c r="L12" s="181"/>
-      <c r="M12" s="181"/>
-      <c r="N12" s="181"/>
-      <c r="O12" s="181"/>
-      <c r="P12" s="181"/>
-      <c r="Q12" s="181"/>
-      <c r="R12" s="181"/>
-      <c r="S12" s="181"/>
-      <c r="T12" s="181"/>
-      <c r="U12" s="181"/>
-      <c r="V12" s="181"/>
-      <c r="W12" s="181"/>
-      <c r="X12" s="181"/>
-      <c r="Y12" s="181"/>
-      <c r="Z12" s="181"/>
-      <c r="AA12" s="181"/>
-    </row>
-    <row r="13" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
-      <c r="B13" s="187"/>
-      <c r="C13" s="188" t="s">
-        <v>139</v>
-      </c>
-      <c r="D13" s="188"/>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="189"/>
-      <c r="H13" s="185"/>
-      <c r="I13" s="181"/>
-      <c r="J13" s="181"/>
-      <c r="K13" s="181"/>
-      <c r="L13" s="181"/>
-      <c r="M13" s="181"/>
-      <c r="N13" s="181"/>
-      <c r="O13" s="181"/>
-      <c r="P13" s="181"/>
-      <c r="Q13" s="181"/>
-      <c r="R13" s="181"/>
-      <c r="S13" s="181"/>
-      <c r="T13" s="181"/>
-      <c r="U13" s="181"/>
-      <c r="V13" s="181"/>
-      <c r="W13" s="181"/>
-      <c r="X13" s="181"/>
-      <c r="Y13" s="181"/>
-      <c r="Z13" s="181"/>
-      <c r="AA13" s="181"/>
-    </row>
-    <row r="14" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
-      <c r="B14" s="187"/>
-      <c r="C14" s="188" t="s">
+      <c r="D13" s="169"/>
+      <c r="E13" s="169"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="162"/>
+      <c r="M13" s="162"/>
+      <c r="N13" s="162"/>
+      <c r="O13" s="162"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="162"/>
+      <c r="T13" s="162"/>
+      <c r="U13" s="162"/>
+      <c r="V13" s="162"/>
+      <c r="W13" s="162"/>
+      <c r="X13" s="162"/>
+      <c r="Y13" s="162"/>
+      <c r="Z13" s="162"/>
+      <c r="AA13" s="162"/>
+    </row>
+    <row r="14" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="162"/>
+      <c r="B14" s="168"/>
+      <c r="C14" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="188"/>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="185"/>
-      <c r="I14" s="181"/>
-      <c r="J14" s="181"/>
-      <c r="K14" s="181"/>
-      <c r="L14" s="181"/>
-      <c r="M14" s="181"/>
-      <c r="N14" s="181"/>
-      <c r="O14" s="181"/>
-      <c r="P14" s="181"/>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="181"/>
-      <c r="S14" s="181"/>
-      <c r="T14" s="181"/>
-      <c r="U14" s="181"/>
-      <c r="V14" s="181"/>
-      <c r="W14" s="181"/>
-      <c r="X14" s="181"/>
-      <c r="Y14" s="181"/>
-      <c r="Z14" s="181"/>
-      <c r="AA14" s="181"/>
-    </row>
-    <row r="15" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
-      <c r="B15" s="187"/>
-      <c r="C15" s="188" t="s">
-        <v>137</v>
-      </c>
-      <c r="D15" s="188"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="189"/>
-      <c r="H15" s="185"/>
-      <c r="I15" s="181"/>
-      <c r="J15" s="181"/>
-      <c r="K15" s="181"/>
-      <c r="L15" s="181"/>
-      <c r="M15" s="181"/>
-      <c r="N15" s="181"/>
-      <c r="O15" s="181"/>
-      <c r="P15" s="181"/>
-      <c r="Q15" s="181"/>
-      <c r="R15" s="181"/>
-      <c r="S15" s="181"/>
-      <c r="T15" s="181"/>
-      <c r="U15" s="181"/>
-      <c r="V15" s="181"/>
-      <c r="W15" s="181"/>
-      <c r="X15" s="181"/>
-      <c r="Y15" s="181"/>
-      <c r="Z15" s="181"/>
-      <c r="AA15" s="181"/>
-    </row>
-    <row r="16" spans="1:27" s="186" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="181"/>
-      <c r="B16" s="190"/>
-      <c r="C16" s="191"/>
-      <c r="D16" s="191"/>
-      <c r="E16" s="191"/>
-      <c r="F16" s="191"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="185"/>
-      <c r="I16" s="181"/>
-      <c r="J16" s="181"/>
-      <c r="K16" s="181"/>
-      <c r="L16" s="181"/>
-      <c r="M16" s="181"/>
-      <c r="N16" s="181"/>
-      <c r="O16" s="181"/>
-      <c r="P16" s="181"/>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="181"/>
-      <c r="S16" s="181"/>
-      <c r="T16" s="181"/>
-      <c r="U16" s="181"/>
-      <c r="V16" s="181"/>
-      <c r="W16" s="181"/>
-      <c r="X16" s="181"/>
-      <c r="Y16" s="181"/>
-      <c r="Z16" s="181"/>
-      <c r="AA16" s="181"/>
-    </row>
-    <row r="17" spans="1:27" s="181" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
-      <c r="B18" s="182"/>
-      <c r="C18" s="183"/>
-      <c r="D18" s="183"/>
-      <c r="E18" s="183"/>
-      <c r="F18" s="183"/>
-      <c r="G18" s="184"/>
-      <c r="H18" s="185"/>
-      <c r="I18" s="181"/>
-      <c r="J18" s="181"/>
-      <c r="K18" s="181"/>
-      <c r="L18" s="181"/>
-      <c r="M18" s="181"/>
-      <c r="N18" s="181"/>
-      <c r="O18" s="181"/>
-      <c r="P18" s="181"/>
-      <c r="Q18" s="181"/>
-      <c r="R18" s="181"/>
-      <c r="S18" s="181"/>
-      <c r="T18" s="181"/>
-      <c r="U18" s="181"/>
-      <c r="V18" s="181"/>
-      <c r="W18" s="181"/>
-      <c r="X18" s="181"/>
-      <c r="Y18" s="181"/>
-      <c r="Z18" s="181"/>
-      <c r="AA18" s="181"/>
-    </row>
-    <row r="19" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="181"/>
-      <c r="B19" s="187" t="s">
-        <v>123</v>
-      </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="189"/>
-      <c r="H19" s="185"/>
-      <c r="I19" s="181"/>
-      <c r="J19" s="181"/>
-      <c r="K19" s="181"/>
-      <c r="L19" s="181"/>
-      <c r="M19" s="181"/>
-      <c r="N19" s="181"/>
-      <c r="O19" s="181"/>
-      <c r="P19" s="181"/>
-      <c r="Q19" s="181"/>
-      <c r="R19" s="181"/>
-      <c r="S19" s="181"/>
-      <c r="T19" s="181"/>
-      <c r="U19" s="181"/>
-      <c r="V19" s="181"/>
-      <c r="W19" s="181"/>
-      <c r="X19" s="181"/>
-      <c r="Y19" s="181"/>
-      <c r="Z19" s="181"/>
-      <c r="AA19" s="181"/>
-    </row>
-    <row r="20" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="181"/>
-      <c r="B20" s="187"/>
-      <c r="C20" s="193" t="s">
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="170"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="162"/>
+      <c r="K14" s="162"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="162"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="162"/>
+      <c r="T14" s="162"/>
+      <c r="U14" s="162"/>
+      <c r="V14" s="162"/>
+      <c r="W14" s="162"/>
+      <c r="X14" s="162"/>
+      <c r="Y14" s="162"/>
+      <c r="Z14" s="162"/>
+      <c r="AA14" s="162"/>
+    </row>
+    <row r="15" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="162"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="169" t="s">
+        <v>136</v>
+      </c>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="170"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="162"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="162"/>
+      <c r="T15" s="162"/>
+      <c r="U15" s="162"/>
+      <c r="V15" s="162"/>
+      <c r="W15" s="162"/>
+      <c r="X15" s="162"/>
+      <c r="Y15" s="162"/>
+      <c r="Z15" s="162"/>
+      <c r="AA15" s="162"/>
+    </row>
+    <row r="16" spans="1:27" s="167" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="162"/>
+      <c r="B16" s="171"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="172"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="162"/>
+      <c r="M16" s="162"/>
+      <c r="N16" s="162"/>
+      <c r="O16" s="162"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="162"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="162"/>
+      <c r="T16" s="162"/>
+      <c r="U16" s="162"/>
+      <c r="V16" s="162"/>
+      <c r="W16" s="162"/>
+      <c r="X16" s="162"/>
+      <c r="Y16" s="162"/>
+      <c r="Z16" s="162"/>
+      <c r="AA16" s="162"/>
+    </row>
+    <row r="17" spans="1:27" s="162" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="162"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="164"/>
+      <c r="D18" s="164"/>
+      <c r="E18" s="164"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="162"/>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="162"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="162"/>
+      <c r="T18" s="162"/>
+      <c r="U18" s="162"/>
+      <c r="V18" s="162"/>
+      <c r="W18" s="162"/>
+      <c r="X18" s="162"/>
+      <c r="Y18" s="162"/>
+      <c r="Z18" s="162"/>
+      <c r="AA18" s="162"/>
+    </row>
+    <row r="19" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="162"/>
+      <c r="B19" s="168" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="169"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="170"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="162"/>
+      <c r="J19" s="162"/>
+      <c r="K19" s="162"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="162"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="162"/>
+      <c r="T19" s="162"/>
+      <c r="U19" s="162"/>
+      <c r="V19" s="162"/>
+      <c r="W19" s="162"/>
+      <c r="X19" s="162"/>
+      <c r="Y19" s="162"/>
+      <c r="Z19" s="162"/>
+      <c r="AA19" s="162"/>
+    </row>
+    <row r="20" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="162"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="197" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="197"/>
+      <c r="E20" s="169"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="170"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="162"/>
+      <c r="K20" s="162"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="162"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="162"/>
+      <c r="T20" s="162"/>
+      <c r="U20" s="162"/>
+      <c r="V20" s="162"/>
+      <c r="W20" s="162"/>
+      <c r="X20" s="162"/>
+      <c r="Y20" s="162"/>
+      <c r="Z20" s="162"/>
+      <c r="AA20" s="162"/>
+    </row>
+    <row r="21" spans="1:27" s="167" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="162"/>
+      <c r="B21" s="168"/>
+      <c r="C21" s="197" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="197"/>
+      <c r="E21" s="169" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="193"/>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="189"/>
-      <c r="H20" s="185"/>
-      <c r="I20" s="181"/>
-      <c r="J20" s="181"/>
-      <c r="K20" s="181"/>
-      <c r="L20" s="181"/>
-      <c r="M20" s="181"/>
-      <c r="N20" s="181"/>
-      <c r="O20" s="181"/>
-      <c r="P20" s="181"/>
-      <c r="Q20" s="181"/>
-      <c r="R20" s="181"/>
-      <c r="S20" s="181"/>
-      <c r="T20" s="181"/>
-      <c r="U20" s="181"/>
-      <c r="V20" s="181"/>
-      <c r="W20" s="181"/>
-      <c r="X20" s="181"/>
-      <c r="Y20" s="181"/>
-      <c r="Z20" s="181"/>
-      <c r="AA20" s="181"/>
-    </row>
-    <row r="21" spans="1:27" s="186" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="181"/>
-      <c r="B21" s="187"/>
-      <c r="C21" s="193" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="193"/>
-      <c r="E21" s="188" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" s="188"/>
-      <c r="G21" s="189"/>
-      <c r="H21" s="185"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="181"/>
-      <c r="K21" s="181"/>
-      <c r="L21" s="181"/>
-      <c r="M21" s="181"/>
-      <c r="N21" s="181"/>
-      <c r="O21" s="181"/>
-      <c r="P21" s="181"/>
-      <c r="Q21" s="181"/>
-      <c r="R21" s="181"/>
-      <c r="S21" s="181"/>
-      <c r="T21" s="181"/>
-      <c r="U21" s="181"/>
-      <c r="V21" s="181"/>
-      <c r="W21" s="181"/>
-      <c r="X21" s="181"/>
-      <c r="Y21" s="181"/>
-      <c r="Z21" s="181"/>
-      <c r="AA21" s="181"/>
-    </row>
-    <row r="22" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="181"/>
-      <c r="B22" s="187"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="189"/>
-      <c r="H22" s="185"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="181"/>
-      <c r="K22" s="181"/>
-      <c r="L22" s="181"/>
-      <c r="M22" s="181"/>
-      <c r="N22" s="181"/>
-      <c r="O22" s="181"/>
-      <c r="P22" s="181"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="181"/>
-      <c r="S22" s="181"/>
-      <c r="T22" s="181"/>
-      <c r="U22" s="181"/>
-      <c r="V22" s="181"/>
-      <c r="W22" s="181"/>
-      <c r="X22" s="181"/>
-      <c r="Y22" s="181"/>
-      <c r="Z22" s="181"/>
-      <c r="AA22" s="181"/>
-    </row>
-    <row r="23" spans="1:27" s="186" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="181"/>
-      <c r="B23" s="190"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="191"/>
-      <c r="F23" s="191"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="185"/>
-      <c r="I23" s="181"/>
-      <c r="J23" s="181"/>
-      <c r="K23" s="181"/>
-      <c r="L23" s="181"/>
-      <c r="M23" s="181"/>
-      <c r="N23" s="181"/>
-      <c r="O23" s="181"/>
-      <c r="P23" s="181"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="181"/>
-      <c r="S23" s="181"/>
-      <c r="T23" s="181"/>
-      <c r="U23" s="181"/>
-      <c r="V23" s="181"/>
-      <c r="W23" s="181"/>
-      <c r="X23" s="181"/>
-      <c r="Y23" s="181"/>
-      <c r="Z23" s="181"/>
-      <c r="AA23" s="181"/>
-    </row>
-    <row r="24" spans="1:27" s="181" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:27" s="181" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
-      <c r="B26" s="194"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="185"/>
-      <c r="I26" s="181"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="181"/>
-      <c r="L26" s="181"/>
-      <c r="M26" s="181"/>
-      <c r="N26" s="181"/>
-      <c r="O26" s="181"/>
-      <c r="P26" s="181"/>
-      <c r="Q26" s="181"/>
-      <c r="R26" s="181"/>
-      <c r="S26" s="181"/>
-      <c r="T26" s="181"/>
-      <c r="U26" s="181"/>
-      <c r="V26" s="181"/>
-      <c r="W26" s="181"/>
-      <c r="X26" s="181"/>
-      <c r="Y26" s="181"/>
-      <c r="Z26" s="181"/>
-      <c r="AA26" s="181"/>
-    </row>
-    <row r="27" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="181"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="162"/>
+      <c r="K21" s="162"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="162"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="162"/>
+      <c r="T21" s="162"/>
+      <c r="U21" s="162"/>
+      <c r="V21" s="162"/>
+      <c r="W21" s="162"/>
+      <c r="X21" s="162"/>
+      <c r="Y21" s="162"/>
+      <c r="Z21" s="162"/>
+      <c r="AA21" s="162"/>
+    </row>
+    <row r="22" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="162"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="197"/>
+      <c r="D22" s="197"/>
+      <c r="E22" s="169"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="170"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="162"/>
+      <c r="K22" s="162"/>
+      <c r="L22" s="162"/>
+      <c r="M22" s="162"/>
+      <c r="N22" s="162"/>
+      <c r="O22" s="162"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="162"/>
+      <c r="T22" s="162"/>
+      <c r="U22" s="162"/>
+      <c r="V22" s="162"/>
+      <c r="W22" s="162"/>
+      <c r="X22" s="162"/>
+      <c r="Y22" s="162"/>
+      <c r="Z22" s="162"/>
+      <c r="AA22" s="162"/>
+    </row>
+    <row r="23" spans="1:27" s="167" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="162"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="172"/>
+      <c r="D23" s="172"/>
+      <c r="E23" s="172"/>
+      <c r="F23" s="172"/>
+      <c r="G23" s="173"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="162"/>
+      <c r="K23" s="162"/>
+      <c r="L23" s="162"/>
+      <c r="M23" s="162"/>
+      <c r="N23" s="162"/>
+      <c r="O23" s="162"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="162"/>
+      <c r="T23" s="162"/>
+      <c r="U23" s="162"/>
+      <c r="V23" s="162"/>
+      <c r="W23" s="162"/>
+      <c r="X23" s="162"/>
+      <c r="Y23" s="162"/>
+      <c r="Z23" s="162"/>
+      <c r="AA23" s="162"/>
+    </row>
+    <row r="24" spans="1:27" s="162" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:27" s="162" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="162"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="175"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="162"/>
+      <c r="L26" s="162"/>
+      <c r="M26" s="162"/>
+      <c r="N26" s="162"/>
+      <c r="O26" s="162"/>
+      <c r="P26" s="162"/>
+      <c r="Q26" s="162"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="162"/>
+      <c r="T26" s="162"/>
+      <c r="U26" s="162"/>
+      <c r="V26" s="162"/>
+      <c r="W26" s="162"/>
+      <c r="X26" s="162"/>
+      <c r="Y26" s="162"/>
+      <c r="Z26" s="162"/>
+      <c r="AA26" s="162"/>
+    </row>
+    <row r="27" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="162"/>
       <c r="B27" s="113" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C27" s="114"/>
       <c r="D27" s="114"/>
       <c r="E27" s="114"/>
       <c r="F27" s="114"/>
-      <c r="G27" s="197"/>
-      <c r="H27" s="185"/>
-      <c r="I27" s="181"/>
-      <c r="J27" s="181"/>
-      <c r="K27" s="181"/>
-      <c r="L27" s="181"/>
-      <c r="M27" s="181"/>
-      <c r="N27" s="181"/>
-      <c r="O27" s="181"/>
-      <c r="P27" s="181"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="181"/>
-      <c r="S27" s="181"/>
-      <c r="T27" s="181"/>
-      <c r="U27" s="181"/>
-      <c r="V27" s="181"/>
-      <c r="W27" s="181"/>
-      <c r="X27" s="181"/>
-      <c r="Y27" s="181"/>
-      <c r="Z27" s="181"/>
-      <c r="AA27" s="181"/>
-    </row>
-    <row r="28" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="181"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="162"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="162"/>
+      <c r="L27" s="162"/>
+      <c r="M27" s="162"/>
+      <c r="N27" s="162"/>
+      <c r="O27" s="162"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="162"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="162"/>
+      <c r="T27" s="162"/>
+      <c r="U27" s="162"/>
+      <c r="V27" s="162"/>
+      <c r="W27" s="162"/>
+      <c r="X27" s="162"/>
+      <c r="Y27" s="162"/>
+      <c r="Z27" s="162"/>
+      <c r="AA27" s="162"/>
+    </row>
+    <row r="28" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="162"/>
       <c r="B28" s="113"/>
       <c r="C28" s="114"/>
       <c r="D28" s="114"/>
       <c r="E28" s="114"/>
       <c r="F28" s="114"/>
-      <c r="G28" s="197"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="181"/>
-      <c r="L28" s="181"/>
-      <c r="M28" s="181"/>
-      <c r="N28" s="181"/>
-      <c r="O28" s="181"/>
-      <c r="P28" s="181"/>
-      <c r="Q28" s="181"/>
-      <c r="R28" s="181"/>
-      <c r="S28" s="181"/>
-      <c r="T28" s="181"/>
-      <c r="U28" s="181"/>
-      <c r="V28" s="181"/>
-      <c r="W28" s="181"/>
-      <c r="X28" s="181"/>
-      <c r="Y28" s="181"/>
-      <c r="Z28" s="181"/>
-      <c r="AA28" s="181"/>
-    </row>
-    <row r="29" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="181"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="162"/>
+      <c r="M28" s="162"/>
+      <c r="N28" s="162"/>
+      <c r="O28" s="162"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="162"/>
+      <c r="R28" s="162"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="162"/>
+      <c r="U28" s="162"/>
+      <c r="V28" s="162"/>
+      <c r="W28" s="162"/>
+      <c r="X28" s="162"/>
+      <c r="Y28" s="162"/>
+      <c r="Z28" s="162"/>
+      <c r="AA28" s="162"/>
+    </row>
+    <row r="29" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="162"/>
       <c r="B29" s="113"/>
       <c r="C29" s="114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D29" s="114"/>
       <c r="E29" s="114"/>
       <c r="F29" s="114"/>
-      <c r="G29" s="197"/>
-      <c r="H29" s="185"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="181"/>
-      <c r="L29" s="181"/>
-      <c r="M29" s="181"/>
-      <c r="N29" s="181"/>
-      <c r="O29" s="181"/>
-      <c r="P29" s="181"/>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="181"/>
-      <c r="S29" s="181"/>
-      <c r="T29" s="181"/>
-      <c r="U29" s="181"/>
-      <c r="V29" s="181"/>
-      <c r="W29" s="181"/>
-      <c r="X29" s="181"/>
-      <c r="Y29" s="181"/>
-      <c r="Z29" s="181"/>
-      <c r="AA29" s="181"/>
-    </row>
-    <row r="30" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
+      <c r="G29" s="177"/>
+      <c r="H29" s="166"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="162"/>
+      <c r="M29" s="162"/>
+      <c r="N29" s="162"/>
+      <c r="O29" s="162"/>
+      <c r="P29" s="162"/>
+      <c r="Q29" s="162"/>
+      <c r="R29" s="162"/>
+      <c r="S29" s="162"/>
+      <c r="T29" s="162"/>
+      <c r="U29" s="162"/>
+      <c r="V29" s="162"/>
+      <c r="W29" s="162"/>
+      <c r="X29" s="162"/>
+      <c r="Y29" s="162"/>
+      <c r="Z29" s="162"/>
+      <c r="AA29" s="162"/>
+    </row>
+    <row r="30" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="162"/>
       <c r="B30" s="113"/>
       <c r="C30" s="114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D30" s="114"/>
       <c r="E30" s="114"/>
       <c r="F30" s="114"/>
-      <c r="G30" s="197"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="181"/>
-      <c r="M30" s="181"/>
-      <c r="N30" s="181"/>
-      <c r="O30" s="181"/>
-      <c r="P30" s="181"/>
-      <c r="Q30" s="181"/>
-      <c r="R30" s="181"/>
-      <c r="S30" s="181"/>
-      <c r="T30" s="181"/>
-      <c r="U30" s="181"/>
-      <c r="V30" s="181"/>
-      <c r="W30" s="181"/>
-      <c r="X30" s="181"/>
-      <c r="Y30" s="181"/>
-      <c r="Z30" s="181"/>
-      <c r="AA30" s="181"/>
-    </row>
-    <row r="31" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="181"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="162"/>
+      <c r="K30" s="162"/>
+      <c r="L30" s="162"/>
+      <c r="M30" s="162"/>
+      <c r="N30" s="162"/>
+      <c r="O30" s="162"/>
+      <c r="P30" s="162"/>
+      <c r="Q30" s="162"/>
+      <c r="R30" s="162"/>
+      <c r="S30" s="162"/>
+      <c r="T30" s="162"/>
+      <c r="U30" s="162"/>
+      <c r="V30" s="162"/>
+      <c r="W30" s="162"/>
+      <c r="X30" s="162"/>
+      <c r="Y30" s="162"/>
+      <c r="Z30" s="162"/>
+      <c r="AA30" s="162"/>
+    </row>
+    <row r="31" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="162"/>
       <c r="B31" s="113"/>
       <c r="C31" s="114" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D31" s="114"/>
       <c r="E31" s="114"/>
       <c r="F31" s="114"/>
-      <c r="G31" s="197"/>
-      <c r="H31" s="185"/>
-      <c r="I31" s="181"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="181"/>
-      <c r="L31" s="181"/>
-      <c r="M31" s="181"/>
-      <c r="N31" s="181"/>
-      <c r="O31" s="181"/>
-      <c r="P31" s="181"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="181"/>
-      <c r="S31" s="181"/>
-      <c r="T31" s="181"/>
-      <c r="U31" s="181"/>
-      <c r="V31" s="181"/>
-      <c r="W31" s="181"/>
-      <c r="X31" s="181"/>
-      <c r="Y31" s="181"/>
-      <c r="Z31" s="181"/>
-      <c r="AA31" s="181"/>
-    </row>
-    <row r="32" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="181"/>
+      <c r="G31" s="177"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="162"/>
+      <c r="K31" s="162"/>
+      <c r="L31" s="162"/>
+      <c r="M31" s="162"/>
+      <c r="N31" s="162"/>
+      <c r="O31" s="162"/>
+      <c r="P31" s="162"/>
+      <c r="Q31" s="162"/>
+      <c r="R31" s="162"/>
+      <c r="S31" s="162"/>
+      <c r="T31" s="162"/>
+      <c r="U31" s="162"/>
+      <c r="V31" s="162"/>
+      <c r="W31" s="162"/>
+      <c r="X31" s="162"/>
+      <c r="Y31" s="162"/>
+      <c r="Z31" s="162"/>
+      <c r="AA31" s="162"/>
+    </row>
+    <row r="32" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="162"/>
       <c r="B32" s="113"/>
       <c r="C32" s="114" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" s="114"/>
       <c r="E32" s="114"/>
       <c r="F32" s="114"/>
-      <c r="G32" s="197"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="181"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="181"/>
-      <c r="M32" s="181"/>
-      <c r="N32" s="181"/>
-      <c r="O32" s="181"/>
-      <c r="P32" s="181"/>
-      <c r="Q32" s="181"/>
-      <c r="R32" s="181"/>
-      <c r="S32" s="181"/>
-      <c r="T32" s="181"/>
-      <c r="U32" s="181"/>
-      <c r="V32" s="181"/>
-      <c r="W32" s="181"/>
-      <c r="X32" s="181"/>
-      <c r="Y32" s="181"/>
-      <c r="Z32" s="181"/>
-      <c r="AA32" s="181"/>
-    </row>
-    <row r="33" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="181"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="162"/>
+      <c r="J32" s="162"/>
+      <c r="K32" s="162"/>
+      <c r="L32" s="162"/>
+      <c r="M32" s="162"/>
+      <c r="N32" s="162"/>
+      <c r="O32" s="162"/>
+      <c r="P32" s="162"/>
+      <c r="Q32" s="162"/>
+      <c r="R32" s="162"/>
+      <c r="S32" s="162"/>
+      <c r="T32" s="162"/>
+      <c r="U32" s="162"/>
+      <c r="V32" s="162"/>
+      <c r="W32" s="162"/>
+      <c r="X32" s="162"/>
+      <c r="Y32" s="162"/>
+      <c r="Z32" s="162"/>
+      <c r="AA32" s="162"/>
+    </row>
+    <row r="33" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="162"/>
       <c r="B33" s="113"/>
       <c r="C33" s="114" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D33" s="114"/>
       <c r="E33" s="114"/>
       <c r="F33" s="114"/>
-      <c r="G33" s="197"/>
-      <c r="H33" s="185"/>
-      <c r="I33" s="181"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="181"/>
-      <c r="L33" s="181"/>
-      <c r="M33" s="181"/>
-      <c r="N33" s="181"/>
-      <c r="O33" s="181"/>
-      <c r="P33" s="181"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="181"/>
-      <c r="S33" s="181"/>
-      <c r="T33" s="181"/>
-      <c r="U33" s="181"/>
-      <c r="V33" s="181"/>
-      <c r="W33" s="181"/>
-      <c r="X33" s="181"/>
-      <c r="Y33" s="181"/>
-      <c r="Z33" s="181"/>
-      <c r="AA33" s="181"/>
-    </row>
-    <row r="34" spans="1:27" s="186" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="181"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="162"/>
+      <c r="J33" s="162"/>
+      <c r="K33" s="162"/>
+      <c r="L33" s="162"/>
+      <c r="M33" s="162"/>
+      <c r="N33" s="162"/>
+      <c r="O33" s="162"/>
+      <c r="P33" s="162"/>
+      <c r="Q33" s="162"/>
+      <c r="R33" s="162"/>
+      <c r="S33" s="162"/>
+      <c r="T33" s="162"/>
+      <c r="U33" s="162"/>
+      <c r="V33" s="162"/>
+      <c r="W33" s="162"/>
+      <c r="X33" s="162"/>
+      <c r="Y33" s="162"/>
+      <c r="Z33" s="162"/>
+      <c r="AA33" s="162"/>
+    </row>
+    <row r="34" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="162"/>
       <c r="B34" s="113"/>
       <c r="C34" s="114"/>
       <c r="D34" s="114"/>
       <c r="E34" s="114"/>
       <c r="F34" s="114"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="181"/>
-      <c r="J34" s="181"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="181"/>
-      <c r="M34" s="181"/>
-      <c r="N34" s="181"/>
-      <c r="O34" s="181"/>
-      <c r="P34" s="181"/>
-      <c r="Q34" s="181"/>
-      <c r="R34" s="181"/>
-      <c r="S34" s="181"/>
-      <c r="T34" s="181"/>
-      <c r="U34" s="181"/>
-      <c r="V34" s="181"/>
-      <c r="W34" s="181"/>
-      <c r="X34" s="181"/>
-      <c r="Y34" s="181"/>
-      <c r="Z34" s="181"/>
-      <c r="AA34" s="181"/>
-    </row>
-    <row r="35" spans="1:27" s="186" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="181"/>
-      <c r="B35" s="198"/>
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="181"/>
-      <c r="P35" s="181"/>
-      <c r="Q35" s="181"/>
-      <c r="R35" s="181"/>
-      <c r="S35" s="181"/>
-      <c r="T35" s="181"/>
-      <c r="U35" s="181"/>
-      <c r="V35" s="181"/>
-      <c r="W35" s="181"/>
-      <c r="X35" s="181"/>
-      <c r="Y35" s="181"/>
-      <c r="Z35" s="181"/>
-      <c r="AA35" s="181"/>
-    </row>
-    <row r="36" spans="1:27" s="181" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+      <c r="G34" s="177"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="162"/>
+      <c r="L34" s="162"/>
+      <c r="M34" s="162"/>
+      <c r="N34" s="162"/>
+      <c r="O34" s="162"/>
+      <c r="P34" s="162"/>
+      <c r="Q34" s="162"/>
+      <c r="R34" s="162"/>
+      <c r="S34" s="162"/>
+      <c r="T34" s="162"/>
+      <c r="U34" s="162"/>
+      <c r="V34" s="162"/>
+      <c r="W34" s="162"/>
+      <c r="X34" s="162"/>
+      <c r="Y34" s="162"/>
+      <c r="Z34" s="162"/>
+      <c r="AA34" s="162"/>
+    </row>
+    <row r="35" spans="1:27" s="167" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="162"/>
+      <c r="B35" s="178"/>
+      <c r="C35" s="179"/>
+      <c r="D35" s="179"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="179"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="166"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="162"/>
+      <c r="M35" s="162"/>
+      <c r="N35" s="162"/>
+      <c r="O35" s="162"/>
+      <c r="P35" s="162"/>
+      <c r="Q35" s="162"/>
+      <c r="R35" s="162"/>
+      <c r="S35" s="162"/>
+      <c r="T35" s="162"/>
+      <c r="U35" s="162"/>
+      <c r="V35" s="162"/>
+      <c r="W35" s="162"/>
+      <c r="X35" s="162"/>
+      <c r="Y35" s="162"/>
+      <c r="Z35" s="162"/>
+      <c r="AA35" s="162"/>
+    </row>
+    <row r="36" spans="1:27" s="162" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C20:D20"/>
@@ -7354,16 +7401,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F4"/>
+  <dimension ref="B3:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="34.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="38.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="41.85546875" style="2" customWidth="1"/>
@@ -7371,45 +7418,49 @@
     <col min="7" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="12" x14ac:dyDescent="0.2">
-      <c r="B2" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>384</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="178"/>
-    </row>
-    <row r="4" spans="2:6" ht="112.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="178"/>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>393</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F3:F4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7417,7 +7468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -7441,30 +7492,30 @@
     <row r="3" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B3" s="71"/>
       <c r="C3" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E3" s="72"/>
     </row>
     <row r="4" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="71"/>
       <c r="C4" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>322</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>323</v>
       </c>
       <c r="E4" s="72"/>
     </row>
     <row r="5" spans="2:5" ht="24" x14ac:dyDescent="0.2">
       <c r="B5" s="71"/>
       <c r="C5" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E5" s="72"/>
     </row>
@@ -7484,7 +7535,7 @@
     <row r="9" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B9" s="82"/>
       <c r="C9" s="47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D9" s="47" t="s">
         <v>83</v>
@@ -7494,20 +7545,20 @@
     <row r="10" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B10" s="82"/>
       <c r="C10" s="84" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" s="84" t="s">
         <v>310</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>311</v>
       </c>
       <c r="E10" s="83"/>
     </row>
     <row r="11" spans="2:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="82"/>
       <c r="C11" s="84" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="84" t="s">
         <v>312</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>313</v>
       </c>
       <c r="E11" s="83"/>
     </row>
@@ -7527,30 +7578,30 @@
     <row r="16" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B16" s="82"/>
       <c r="C16" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="D16" s="47" t="s">
         <v>314</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>315</v>
       </c>
       <c r="E16" s="83"/>
     </row>
     <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="82"/>
       <c r="C17" s="84" t="s">
+        <v>315</v>
+      </c>
+      <c r="D17" s="84" t="s">
         <v>316</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>317</v>
       </c>
       <c r="E17" s="83"/>
     </row>
     <row r="18" spans="2:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="82"/>
       <c r="C18" s="84" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" s="84" t="s">
         <v>318</v>
-      </c>
-      <c r="D18" s="84" t="s">
-        <v>319</v>
       </c>
       <c r="E18" s="83"/>
     </row>
@@ -7569,37 +7620,37 @@
     <row r="22" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="51"/>
       <c r="C22" s="47" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="71"/>
       <c r="C23" s="49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="71"/>
       <c r="C24" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="72" t="s">
         <v>210</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="71"/>
       <c r="C25" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="72" t="s">
         <v>213</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="12" x14ac:dyDescent="0.2">
@@ -7614,35 +7665,35 @@
     </row>
     <row r="28" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C28" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="C28" s="49" t="s">
-        <v>208</v>
-      </c>
       <c r="D28" s="72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B29" s="74" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="24" x14ac:dyDescent="0.2">
       <c r="B30" s="74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
@@ -7659,26 +7710,26 @@
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="71"/>
       <c r="C34" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D34" s="47" t="s">
         <v>159</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="71"/>
       <c r="C35" s="49" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D35" s="72"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B36" s="71"/>
       <c r="C36" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="72" t="s">
         <v>162</v>
-      </c>
-      <c r="D36" s="72" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -7702,20 +7753,20 @@
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="71"/>
       <c r="C43" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F43" s="72"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="71"/>
       <c r="C44" s="49" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="72"/>
@@ -7723,10 +7774,10 @@
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="85"/>
       <c r="C45" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E45" s="50"/>
       <c r="F45" s="86"/>
@@ -7734,7 +7785,7 @@
     <row r="46" spans="2:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B46" s="85"/>
       <c r="C46" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D46" s="50"/>
       <c r="E46" s="50"/>
@@ -7743,7 +7794,7 @@
     <row r="47" spans="2:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="85"/>
       <c r="C47" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D47" s="50"/>
       <c r="E47" s="50"/>
@@ -7767,22 +7818,22 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="71"/>
       <c r="C51" s="47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F51" s="72"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D52" s="49"/>
       <c r="E52" s="49"/>
@@ -7790,10 +7841,10 @@
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D53" s="49"/>
       <c r="E53" s="49"/>
@@ -7801,10 +7852,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C54" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
@@ -7812,10 +7863,10 @@
     </row>
     <row r="55" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B55" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C55" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
@@ -7823,10 +7874,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C56" s="49" t="s">
         <v>170</v>
-      </c>
-      <c r="C56" s="49" t="s">
-        <v>171</v>
       </c>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
@@ -7834,23 +7885,23 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="71" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C57" s="49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="72"/>
     </row>
     <row r="58" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B58" s="71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
@@ -7858,10 +7909,10 @@
     </row>
     <row r="59" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B59" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="50" t="s">
         <v>165</v>
-      </c>
-      <c r="C59" s="50" t="s">
-        <v>166</v>
       </c>
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
@@ -7869,10 +7920,10 @@
     </row>
     <row r="60" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B60" s="85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
@@ -7891,58 +7942,58 @@
     </row>
     <row r="64" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D64" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E64" s="68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A65" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B65" s="57"/>
       <c r="C65" s="57" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A66" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B66" s="57"/>
       <c r="C66" s="57" t="s">
+        <v>287</v>
+      </c>
+      <c r="D66" s="57" t="s">
         <v>288</v>
-      </c>
-      <c r="D66" s="57" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
       <c r="D67" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B68" s="57"/>
       <c r="C68" s="57"/>
@@ -7950,17 +8001,17 @@
     </row>
     <row r="69" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
       <c r="D69" s="57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B70" s="57"/>
       <c r="C70" s="57"/>
@@ -7974,55 +8025,55 @@
     </row>
     <row r="72" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A72" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D72" s="56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B73" s="57"/>
       <c r="C73" s="57" t="s">
+        <v>289</v>
+      </c>
+      <c r="D73" s="68" t="s">
         <v>290</v>
-      </c>
-      <c r="D73" s="68" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B74" s="57"/>
       <c r="C74" s="57" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B75" s="57"/>
       <c r="C75" s="57"/>
       <c r="D75" s="57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="54" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B76" s="57"/>
       <c r="C76" s="57"/>
@@ -8030,149 +8081,149 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B78" s="58" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C78" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D78" s="58" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C79" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D79" s="57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B80" s="57" t="s">
         <v>250</v>
-      </c>
-      <c r="B80" s="57" t="s">
-        <v>251</v>
       </c>
       <c r="C80" s="57"/>
       <c r="D80" s="57"/>
     </row>
     <row r="81" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A81" s="54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B81" s="57" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C81" s="57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D81" s="59" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="B84" s="60" t="s">
+      <c r="C84" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="C84" s="60" t="s">
+      <c r="D84" s="60" t="s">
         <v>258</v>
-      </c>
-      <c r="D84" s="60" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A85" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B85" s="57"/>
       <c r="C85" s="59" t="s">
+        <v>259</v>
+      </c>
+      <c r="D85" s="59" t="s">
         <v>260</v>
-      </c>
-      <c r="D85" s="59" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A86" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B86" s="57"/>
       <c r="C86" s="57" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="57" t="s">
         <v>262</v>
-      </c>
-      <c r="D86" s="57" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="54"/>
       <c r="B87" s="57"/>
       <c r="C87" s="57" t="s">
+        <v>263</v>
+      </c>
+      <c r="D87" s="57" t="s">
         <v>264</v>
-      </c>
-      <c r="D87" s="57" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B88" s="57"/>
       <c r="C88" s="57" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88" s="57" t="s">
         <v>266</v>
-      </c>
-      <c r="D88" s="57" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A89" s="54" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B89" s="57"/>
       <c r="C89" s="57" t="s">
+        <v>267</v>
+      </c>
+      <c r="D89" s="57" t="s">
         <v>268</v>
-      </c>
-      <c r="D89" s="57" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="54" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B92" s="61"/>
       <c r="C92" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" s="63" t="s">
         <v>271</v>
-      </c>
-      <c r="D92" s="63" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
       <c r="B93" s="64"/>
       <c r="C93" s="64" t="s">
+        <v>272</v>
+      </c>
+      <c r="D93" s="65" t="s">
         <v>273</v>
-      </c>
-      <c r="D93" s="65" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -8180,17 +8231,17 @@
       <c r="B94" s="64"/>
       <c r="C94" s="64"/>
       <c r="D94" s="65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A95" s="54"/>
       <c r="B95" s="64"/>
       <c r="C95" s="64" t="s">
+        <v>275</v>
+      </c>
+      <c r="D95" s="65" t="s">
         <v>276</v>
-      </c>
-      <c r="D95" s="65" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -8244,7 +8295,7 @@
     <row r="3" spans="3:3" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="3:3" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -8255,74 +8306,124 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G10"/>
+  <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
     <col min="6" max="6" width="41.140625" customWidth="1"/>
     <col min="7" max="7" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" s="52" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="C3" s="179" t="s">
+    <row r="3" spans="2:7" s="52" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="C3" s="200" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="52" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="52" t="s">
+    </row>
+    <row r="4" spans="2:7" s="52" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" s="52" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="52" t="s">
+      <c r="C4" s="200" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="179" t="s">
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="52" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="52" t="s">
+      <c r="G4" s="52" t="s">
         <v>226</v>
       </c>
-      <c r="G4" s="52" t="s">
+    </row>
+    <row r="6" spans="2:7" s="52" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="52" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" s="52" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="B6" s="52" t="s">
+      <c r="C6" s="52" t="s">
         <v>228</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="52" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>230</v>
       </c>
-      <c r="C9" s="52" t="s">
+    </row>
+    <row r="10" spans="2:7" s="52" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="52" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" s="52" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="C10" s="52" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="52" t="s">
-        <v>233</v>
-      </c>
+    </row>
+    <row r="11" spans="2:7" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+    </row>
+    <row r="12" spans="2:7" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:7" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="199"/>
+    </row>
+    <row r="15" spans="2:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="199"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/System_Design_Architecture.xlsx
+++ b/System_Design_Architecture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Princip-Theorm" sheetId="6" r:id="rId3"/>
     <sheet name="Architecture" sheetId="7" r:id="rId4"/>
     <sheet name="System Design" sheetId="16" r:id="rId5"/>
-    <sheet name="Comcatn" sheetId="8" r:id="rId6"/>
+    <sheet name="Commn" sheetId="8" r:id="rId6"/>
     <sheet name="X x Y" sheetId="9" r:id="rId7"/>
     <sheet name="Big Applications" sheetId="11" r:id="rId8"/>
     <sheet name="Situat - Sols" sheetId="12" r:id="rId9"/>
@@ -20,7 +20,7 @@
     <sheet name="Sprn MVC vs NG" sheetId="14" r:id="rId11"/>
     <sheet name="Internet Flow" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="409">
   <si>
     <t>Scalability</t>
   </si>
@@ -302,9 +302,6 @@
 --Data
 --Complete
 --Error </t>
-  </si>
-  <si>
-    <t>Programming</t>
   </si>
   <si>
     <t>Functional</t>
@@ -1785,6 +1782,61 @@
     <t>-- Privacy/Confidential
 -- Reliable ( protect from data lose )
 -- Authenticity</t>
+  </si>
+  <si>
+    <t>Node JS</t>
+  </si>
+  <si>
+    <t>Open Shift env</t>
+  </si>
+  <si>
+    <t>Sampe app docker image; Env config packaged together app;</t>
+  </si>
+  <si>
+    <t>NodeJS good at REST services</t>
+  </si>
+  <si>
+    <t>NGINX</t>
+  </si>
+  <si>
+    <t>-- A Web server
+-- Light weight
+-- Load Balancer
+-- High Performance HTTP server
+-- Reverse Proxy
+-- Low resource consumption</t>
+  </si>
+  <si>
+    <t>NodeJS on Cloud Env is high quality offering.
+-- Vertical cluttering automatically happens;
+-- No of worker process are automatically created to available no of CPU.</t>
+  </si>
+  <si>
+    <t>NGINX PLUS</t>
+  </si>
+  <si>
+    <t>Commercial Not a OpenSrc- Enhance clustering, Load Balancer, Monitorying tool etc</t>
+  </si>
+  <si>
+    <t>teamcity</t>
+  </si>
+  <si>
+    <t>SonarQube</t>
+  </si>
+  <si>
+    <t>Deployment Quality analysis</t>
+  </si>
+  <si>
+    <t>UI based build tool</t>
+  </si>
+  <si>
+    <t>Prog</t>
+  </si>
+  <si>
+    <t>Reactive</t>
+  </si>
+  <si>
+    <t>enables to respond to events, often in form of streams. subscribe to event and let event have it’s effect in it’s domain. loosely coupled code can easily be extended with more functionality.</t>
   </si>
 </sst>
 </file>
@@ -2680,7 +2732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3222,6 +3274,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3276,10 +3331,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4151,10 +4206,10 @@
   <sheetData>
     <row r="2" spans="2:5" ht="75" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
@@ -4222,10 +4277,10 @@
         <v>71</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>99</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.2">
@@ -4267,70 +4322,70 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="90" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4340,24 +4395,70 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C3"/>
+  <dimension ref="B3:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="14"/>
+    <col min="2" max="2" width="11.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C3" t="s">
-        <v>278</v>
+    </row>
+    <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="181" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -4388,74 +4489,74 @@
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="87" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D4" s="87" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E4" s="87" t="s">
+        <v>338</v>
+      </c>
+      <c r="F4" s="87" t="s">
         <v>339</v>
-      </c>
-      <c r="F4" s="87" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.2">
       <c r="C5" s="87" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.2">
       <c r="C6" s="90" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B11" s="87" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E11" s="87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F11" s="87" t="s">
+        <v>348</v>
+      </c>
+      <c r="G11" s="87" t="s">
         <v>349</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="H11" s="87" t="s">
         <v>350</v>
-      </c>
-      <c r="H11" s="87" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.2">
       <c r="B13" s="87" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E13" s="90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="60" x14ac:dyDescent="0.2">
       <c r="E14" s="87" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="87" t="s">
         <v>352</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="G14" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="G14" s="87" t="s">
+      <c r="H14" s="87" t="s">
         <v>354</v>
-      </c>
-      <c r="H14" s="87" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4490,31 +4591,31 @@
   <sheetData>
     <row r="4" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="88" t="s">
+        <v>324</v>
+      </c>
+      <c r="C4" s="88" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>326</v>
-      </c>
       <c r="D4" s="89" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="89" t="s">
         <v>328</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="F4" s="88" t="s">
         <v>329</v>
       </c>
-      <c r="F4" s="88" t="s">
-        <v>330</v>
-      </c>
       <c r="G4" s="89" t="s">
+        <v>332</v>
+      </c>
+      <c r="H4" s="89" t="s">
         <v>333</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="I4" s="89" t="s">
         <v>334</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="J4" s="88" t="s">
         <v>335</v>
-      </c>
-      <c r="J4" s="88" t="s">
-        <v>336</v>
       </c>
       <c r="K4" s="88"/>
       <c r="L4" s="88"/>
@@ -4523,19 +4624,19 @@
     </row>
     <row r="5" spans="2:14" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="C5" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="D5" s="87" t="s">
         <v>326</v>
       </c>
-      <c r="D5" s="87" t="s">
-        <v>327</v>
-      </c>
       <c r="E5" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="F5" s="14" t="s">
         <v>331</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4545,16 +4646,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G61"/>
+  <dimension ref="B4:G62"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" style="2" customWidth="1"/>
     <col min="5" max="5" width="63.140625" style="2" customWidth="1"/>
@@ -4622,6 +4723,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
     <row r="18" spans="2:4" ht="12" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -4640,7 +4749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="1" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" s="1" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
@@ -4648,7 +4757,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
@@ -4656,7 +4765,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="1" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" s="1" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>59</v>
       </c>
@@ -4664,7 +4773,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="24" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
@@ -4672,7 +4781,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
@@ -4683,7 +4792,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
@@ -4713,8 +4822,8 @@
       <c r="D34" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="181"/>
-      <c r="F34" s="182"/>
+      <c r="E34" s="182"/>
+      <c r="F34" s="183"/>
       <c r="G34" s="9"/>
     </row>
     <row r="35" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -4727,8 +4836,8 @@
       <c r="D35" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="183"/>
-      <c r="F35" s="184"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="185"/>
       <c r="G35" s="9"/>
     </row>
     <row r="36" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -4741,8 +4850,8 @@
       <c r="D36" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="183"/>
-      <c r="F36" s="184"/>
+      <c r="E36" s="184"/>
+      <c r="F36" s="185"/>
       <c r="G36" s="9"/>
     </row>
     <row r="37" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
@@ -4755,8 +4864,8 @@
       <c r="D37" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="183"/>
-      <c r="F37" s="184"/>
+      <c r="E37" s="184"/>
+      <c r="F37" s="185"/>
       <c r="G37" s="9"/>
     </row>
     <row r="38" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
@@ -4769,8 +4878,8 @@
       <c r="D38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="183"/>
-      <c r="F38" s="184"/>
+      <c r="E38" s="184"/>
+      <c r="F38" s="185"/>
       <c r="G38" s="9"/>
     </row>
     <row r="39" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
@@ -4783,8 +4892,8 @@
       <c r="D39" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="185"/>
-      <c r="F39" s="186"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="187"/>
       <c r="G39" s="9"/>
     </row>
     <row r="40" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
@@ -4849,53 +4958,64 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="D58" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>88</v>
+    <row r="62" spans="2:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -4912,7 +5032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AA87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
@@ -4928,10 +5048,10 @@
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="91" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="91" t="s">
         <v>116</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4945,13 +5065,13 @@
     </row>
     <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A6" s="91" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6" s="95" t="s">
+        <v>297</v>
+      </c>
+      <c r="C6" s="96" t="s">
         <v>298</v>
-      </c>
-      <c r="C6" s="96" t="s">
-        <v>299</v>
       </c>
       <c r="D6" s="96"/>
       <c r="E6" s="97"/>
@@ -4961,10 +5081,10 @@
     <row r="7" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
       <c r="B7" s="99"/>
       <c r="C7" s="100" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D7" s="96" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E7" s="97"/>
       <c r="F7" s="97"/>
@@ -4973,10 +5093,10 @@
     <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B8" s="101"/>
       <c r="C8" s="102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D8" s="103" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E8" s="104"/>
       <c r="F8" s="104"/>
@@ -4985,10 +5105,10 @@
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="101"/>
       <c r="C9" s="102" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D9" s="104" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E9" s="104"/>
       <c r="F9" s="104"/>
@@ -4997,10 +5117,10 @@
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B10" s="101"/>
       <c r="C10" s="102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="103" t="s">
         <v>106</v>
-      </c>
-      <c r="D10" s="103" t="s">
-        <v>107</v>
       </c>
       <c r="E10" s="104"/>
       <c r="F10" s="104"/>
@@ -5009,10 +5129,10 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="101"/>
       <c r="C11" s="102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D11" s="104" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E11" s="104"/>
       <c r="F11" s="104"/>
@@ -5037,13 +5157,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="91" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15" s="95" t="s">
         <v>306</v>
       </c>
-      <c r="B15" s="95" t="s">
-        <v>307</v>
-      </c>
       <c r="C15" s="97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D15" s="97"/>
       <c r="E15" s="97"/>
@@ -5076,7 +5196,7 @@
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="111"/>
       <c r="D19" s="111"/>
@@ -5103,13 +5223,13 @@
     </row>
     <row r="23" spans="2:7" ht="51" x14ac:dyDescent="0.25">
       <c r="B23" s="113" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C23" s="114" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" s="97" t="s">
         <v>360</v>
-      </c>
-      <c r="D23" s="97" t="s">
-        <v>361</v>
       </c>
       <c r="E23" s="97"/>
       <c r="F23" s="97"/>
@@ -5118,13 +5238,13 @@
     <row r="24" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="115"/>
       <c r="C24" s="116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D24" s="103" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E24" s="104" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F24" s="104"/>
       <c r="G24" s="105"/>
@@ -5132,13 +5252,13 @@
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="115"/>
       <c r="C25" s="116" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D25" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="E25" s="104" t="s">
         <v>366</v>
-      </c>
-      <c r="E25" s="104" t="s">
-        <v>367</v>
       </c>
       <c r="F25" s="104"/>
       <c r="G25" s="105"/>
@@ -5146,10 +5266,10 @@
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="115"/>
       <c r="C26" s="116" t="s">
+        <v>362</v>
+      </c>
+      <c r="D26" s="104" t="s">
         <v>363</v>
-      </c>
-      <c r="D26" s="104" t="s">
-        <v>364</v>
       </c>
       <c r="E26" s="104"/>
       <c r="F26" s="104"/>
@@ -5181,13 +5301,13 @@
     </row>
     <row r="30" spans="2:7" ht="51" x14ac:dyDescent="0.25">
       <c r="B30" s="110" t="s">
+        <v>367</v>
+      </c>
+      <c r="C30" s="117" t="s">
         <v>368</v>
       </c>
-      <c r="C30" s="117" t="s">
-        <v>369</v>
-      </c>
       <c r="D30" s="111" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E30" s="111"/>
       <c r="F30" s="111"/>
@@ -5219,13 +5339,13 @@
     </row>
     <row r="34" spans="1:27" ht="51" x14ac:dyDescent="0.25">
       <c r="B34" s="110" t="s">
+        <v>369</v>
+      </c>
+      <c r="C34" s="117" t="s">
         <v>370</v>
       </c>
-      <c r="C34" s="117" t="s">
-        <v>371</v>
-      </c>
       <c r="D34" s="111" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E34" s="111"/>
       <c r="F34" s="111"/>
@@ -5265,13 +5385,13 @@
     </row>
     <row r="39" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B39" s="110" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" s="117" t="s">
         <v>374</v>
       </c>
-      <c r="C39" s="117" t="s">
+      <c r="D39" s="111" t="s">
         <v>375</v>
-      </c>
-      <c r="D39" s="111" t="s">
-        <v>376</v>
       </c>
       <c r="E39" s="111"/>
       <c r="F39" s="111"/>
@@ -5303,10 +5423,10 @@
     </row>
     <row r="43" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B43" s="110" t="s">
+        <v>376</v>
+      </c>
+      <c r="C43" s="117" t="s">
         <v>377</v>
-      </c>
-      <c r="C43" s="117" t="s">
-        <v>378</v>
       </c>
       <c r="D43" s="111"/>
       <c r="E43" s="111"/>
@@ -5361,14 +5481,14 @@
     <row r="47" spans="1:27" s="125" customFormat="1" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="120"/>
       <c r="B47" s="126" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="187" t="s">
-        <v>121</v>
-      </c>
-      <c r="D47" s="188"/>
-      <c r="E47" s="187"/>
-      <c r="F47" s="188"/>
+        <v>117</v>
+      </c>
+      <c r="C47" s="188" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="189"/>
+      <c r="E47" s="188"/>
+      <c r="F47" s="189"/>
       <c r="G47" s="127"/>
       <c r="H47" s="124"/>
       <c r="I47" s="118"/>
@@ -5454,12 +5574,12 @@
     <row r="52" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="118"/>
       <c r="B52" s="134" t="s">
-        <v>144</v>
-      </c>
-      <c r="C52" s="189" t="s">
-        <v>150</v>
-      </c>
-      <c r="D52" s="189"/>
+        <v>143</v>
+      </c>
+      <c r="C52" s="190" t="s">
+        <v>149</v>
+      </c>
+      <c r="D52" s="190"/>
       <c r="E52" s="135"/>
       <c r="F52" s="135"/>
       <c r="G52" s="136"/>
@@ -5488,10 +5608,10 @@
       <c r="A53" s="118"/>
       <c r="B53" s="134"/>
       <c r="C53" s="135" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D53" s="135" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E53" s="135"/>
       <c r="F53" s="135"/>
@@ -5521,10 +5641,10 @@
       <c r="A54" s="118"/>
       <c r="B54" s="134"/>
       <c r="C54" s="135" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" s="135" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E54" s="135"/>
       <c r="F54" s="135"/>
@@ -5554,10 +5674,10 @@
       <c r="A55" s="118"/>
       <c r="B55" s="134"/>
       <c r="C55" s="135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D55" s="135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E55" s="135"/>
       <c r="F55" s="135"/>
@@ -5587,10 +5707,10 @@
       <c r="A56" s="118"/>
       <c r="B56" s="137"/>
       <c r="C56" s="135" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D56" s="138" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E56" s="138"/>
       <c r="F56" s="138"/>
@@ -5620,10 +5740,10 @@
       <c r="A57" s="118"/>
       <c r="B57" s="137"/>
       <c r="C57" s="138" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D57" s="138" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E57" s="138"/>
       <c r="F57" s="138"/>
@@ -5712,7 +5832,7 @@
     <row r="62" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="118"/>
       <c r="B62" s="134" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C62" s="135"/>
       <c r="D62" s="135"/>
@@ -5744,10 +5864,10 @@
       <c r="A63" s="118"/>
       <c r="B63" s="134"/>
       <c r="C63" s="143" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D63" s="135" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E63" s="135"/>
       <c r="F63" s="135"/>
@@ -5777,10 +5897,10 @@
       <c r="A64" s="118"/>
       <c r="B64" s="134"/>
       <c r="C64" s="143" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D64" s="135" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E64" s="135"/>
       <c r="F64" s="135"/>
@@ -5810,10 +5930,10 @@
       <c r="A65" s="118"/>
       <c r="B65" s="134"/>
       <c r="C65" s="143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D65" s="135" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E65" s="135"/>
       <c r="F65" s="135"/>
@@ -5843,10 +5963,10 @@
       <c r="A66" s="118"/>
       <c r="B66" s="137"/>
       <c r="C66" s="144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D66" s="138" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E66" s="138"/>
       <c r="F66" s="138"/>
@@ -5876,10 +5996,10 @@
       <c r="A67" s="118"/>
       <c r="B67" s="137"/>
       <c r="C67" s="144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D67" s="138" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E67" s="138"/>
       <c r="F67" s="138"/>
@@ -5987,13 +6107,13 @@
     <row r="73" spans="1:27" s="145" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A73" s="146"/>
       <c r="B73" s="152" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C73" s="153" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D73" s="153" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E73" s="153"/>
       <c r="F73" s="154"/>
@@ -6004,10 +6124,10 @@
       <c r="A74" s="146"/>
       <c r="B74" s="152"/>
       <c r="C74" s="153" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D74" s="153" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E74" s="153"/>
       <c r="F74" s="154"/>
@@ -6017,10 +6137,10 @@
     <row r="75" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="146"/>
       <c r="B75" s="152"/>
-      <c r="C75" s="190" t="s">
-        <v>182</v>
-      </c>
-      <c r="D75" s="190"/>
+      <c r="C75" s="191" t="s">
+        <v>181</v>
+      </c>
+      <c r="D75" s="191"/>
       <c r="E75" s="153"/>
       <c r="F75" s="154"/>
       <c r="G75" s="155"/>
@@ -6078,7 +6198,7 @@
     <row r="82" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="146"/>
       <c r="B82" s="152" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C82" s="153"/>
       <c r="D82" s="153"/>
@@ -6100,8 +6220,8 @@
     <row r="84" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="146"/>
       <c r="B84" s="152"/>
-      <c r="C84" s="190"/>
-      <c r="D84" s="190"/>
+      <c r="C84" s="191"/>
+      <c r="D84" s="191"/>
       <c r="E84" s="153"/>
       <c r="F84" s="154"/>
       <c r="G84" s="155"/>
@@ -6152,7 +6272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H191"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12:D12"/>
     </sheetView>
   </sheetViews>
@@ -6182,7 +6302,7 @@
       <c r="A4" s="43"/>
       <c r="B4" s="45"/>
       <c r="C4" s="40" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
@@ -6194,10 +6314,10 @@
       <c r="A5" s="43"/>
       <c r="B5" s="46"/>
       <c r="C5" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
@@ -6208,10 +6328,10 @@
       <c r="A6" s="43"/>
       <c r="B6" s="46"/>
       <c r="C6" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E6" s="35"/>
       <c r="F6" s="35"/>
@@ -6231,10 +6351,10 @@
     <row r="8" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="43"/>
       <c r="B8" s="36"/>
-      <c r="C8" s="195" t="s">
-        <v>198</v>
-      </c>
-      <c r="D8" s="195"/>
+      <c r="C8" s="196" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" s="196"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35"/>
       <c r="G8" s="33"/>
@@ -6243,12 +6363,12 @@
     <row r="9" spans="1:8" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="43"/>
       <c r="B9" s="36"/>
-      <c r="C9" s="195" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="195"/>
+      <c r="C9" s="196" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="196"/>
       <c r="E9" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="33"/>
@@ -6257,10 +6377,10 @@
     <row r="10" spans="1:8" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43"/>
       <c r="B10" s="36"/>
-      <c r="C10" s="195" t="s">
-        <v>195</v>
-      </c>
-      <c r="D10" s="195"/>
+      <c r="C10" s="196" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="196"/>
       <c r="E10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="33"/>
@@ -6269,10 +6389,10 @@
     <row r="11" spans="1:8" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43"/>
       <c r="B11" s="36"/>
-      <c r="C11" s="195" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="195"/>
+      <c r="C11" s="196" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="196"/>
       <c r="E11" s="35"/>
       <c r="F11" s="35"/>
       <c r="G11" s="33"/>
@@ -6281,30 +6401,30 @@
     <row r="12" spans="1:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.2">
       <c r="A12" s="43"/>
       <c r="B12" s="36" t="s">
-        <v>193</v>
-      </c>
-      <c r="C12" s="195" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="195"/>
+      <c r="C12" s="196" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="196"/>
       <c r="E12" s="35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="43"/>
       <c r="B13" s="36" t="s">
-        <v>189</v>
-      </c>
-      <c r="C13" s="195" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="195"/>
+      <c r="C13" s="196" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="196"/>
       <c r="E13" s="35"/>
       <c r="F13" s="35"/>
       <c r="G13" s="33"/>
@@ -6353,28 +6473,28 @@
     </row>
     <row r="20" spans="2:7" s="27" customFormat="1" ht="155.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="196" t="s">
         <v>180</v>
       </c>
-      <c r="D20" s="194"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="192"/>
+      <c r="C20" s="197" t="s">
+        <v>179</v>
+      </c>
+      <c r="D20" s="195"/>
+      <c r="E20" s="192"/>
+      <c r="F20" s="193"/>
       <c r="G20" s="33"/>
     </row>
     <row r="21" spans="2:7" s="27" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="36"/>
       <c r="C21" s="37" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="E21" s="193" t="s">
-        <v>204</v>
-      </c>
-      <c r="F21" s="194"/>
+        <v>177</v>
+      </c>
+      <c r="E21" s="194" t="s">
+        <v>203</v>
+      </c>
+      <c r="F21" s="195"/>
       <c r="G21" s="33"/>
     </row>
     <row r="22" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -6387,8 +6507,8 @@
     </row>
     <row r="23" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="36"/>
-      <c r="C23" s="195"/>
-      <c r="D23" s="195"/>
+      <c r="C23" s="196"/>
+      <c r="D23" s="196"/>
       <c r="E23" s="35"/>
       <c r="F23" s="34"/>
       <c r="G23" s="33"/>
@@ -6414,17 +6534,17 @@
     </row>
     <row r="27" spans="2:7" s="27" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="2:7" s="24" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -6612,7 +6732,7 @@
   <dimension ref="A3:AA36"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6626,19 +6746,19 @@
   <sheetData>
     <row r="3" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="87" t="s">
-        <v>356</v>
-      </c>
-      <c r="C3" s="198" t="s">
-        <v>382</v>
-      </c>
-      <c r="D3" s="198"/>
+        <v>355</v>
+      </c>
+      <c r="C3" s="199" t="s">
+        <v>381</v>
+      </c>
+      <c r="D3" s="199"/>
     </row>
     <row r="4" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="B4" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>356</v>
-      </c>
-      <c r="C4" s="87" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -6648,10 +6768,10 @@
     </row>
     <row r="6" spans="1:27" ht="75" x14ac:dyDescent="0.25">
       <c r="C6" s="87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D6" s="87" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:27" s="162" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -6687,7 +6807,7 @@
     <row r="10" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A10" s="162"/>
       <c r="B10" s="168" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="169"/>
       <c r="D10" s="169"/>
@@ -6719,7 +6839,7 @@
       <c r="A11" s="162"/>
       <c r="B11" s="168"/>
       <c r="C11" s="169" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D11" s="169"/>
       <c r="E11" s="169"/>
@@ -6781,7 +6901,7 @@
       <c r="A13" s="162"/>
       <c r="B13" s="168"/>
       <c r="C13" s="169" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D13" s="169"/>
       <c r="E13" s="169"/>
@@ -6843,7 +6963,7 @@
       <c r="A15" s="162"/>
       <c r="B15" s="168"/>
       <c r="C15" s="169" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D15" s="169"/>
       <c r="E15" s="169"/>
@@ -6932,7 +7052,7 @@
     <row r="19" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="162"/>
       <c r="B19" s="168" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="169"/>
       <c r="D19" s="169"/>
@@ -6963,10 +7083,10 @@
     <row r="20" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="162"/>
       <c r="B20" s="168"/>
-      <c r="C20" s="197" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="197"/>
+      <c r="C20" s="198" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="198"/>
       <c r="E20" s="169"/>
       <c r="F20" s="169"/>
       <c r="G20" s="170"/>
@@ -6994,12 +7114,12 @@
     <row r="21" spans="1:27" s="167" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A21" s="162"/>
       <c r="B21" s="168"/>
-      <c r="C21" s="197" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="197"/>
+      <c r="C21" s="198" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="198"/>
       <c r="E21" s="169" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F21" s="169"/>
       <c r="G21" s="170"/>
@@ -7027,8 +7147,8 @@
     <row r="22" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="162"/>
       <c r="B22" s="168"/>
-      <c r="C22" s="197"/>
-      <c r="D22" s="197"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="198"/>
       <c r="E22" s="169"/>
       <c r="F22" s="169"/>
       <c r="G22" s="170"/>
@@ -7116,7 +7236,7 @@
     <row r="27" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="162"/>
       <c r="B27" s="113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="114"/>
       <c r="D27" s="114"/>
@@ -7177,7 +7297,7 @@
       <c r="A29" s="162"/>
       <c r="B29" s="113"/>
       <c r="C29" s="114" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D29" s="114"/>
       <c r="E29" s="114"/>
@@ -7208,7 +7328,7 @@
       <c r="A30" s="162"/>
       <c r="B30" s="113"/>
       <c r="C30" s="114" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D30" s="114"/>
       <c r="E30" s="114"/>
@@ -7239,7 +7359,7 @@
       <c r="A31" s="162"/>
       <c r="B31" s="113"/>
       <c r="C31" s="114" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D31" s="114"/>
       <c r="E31" s="114"/>
@@ -7270,7 +7390,7 @@
       <c r="A32" s="162"/>
       <c r="B32" s="113"/>
       <c r="C32" s="114" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D32" s="114"/>
       <c r="E32" s="114"/>
@@ -7301,7 +7421,7 @@
       <c r="A33" s="162"/>
       <c r="B33" s="113"/>
       <c r="C33" s="114" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="114"/>
       <c r="E33" s="114"/>
@@ -7403,7 +7523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -7420,42 +7540,42 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>386</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>388</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -7468,8 +7588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -7492,30 +7612,30 @@
     <row r="3" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B3" s="71"/>
       <c r="C3" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E3" s="72"/>
     </row>
     <row r="4" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="71"/>
       <c r="C4" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="49" t="s">
         <v>321</v>
-      </c>
-      <c r="D4" s="49" t="s">
-        <v>322</v>
       </c>
       <c r="E4" s="72"/>
     </row>
     <row r="5" spans="2:5" ht="24" x14ac:dyDescent="0.2">
       <c r="B5" s="71"/>
       <c r="C5" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E5" s="72"/>
     </row>
@@ -7535,30 +7655,30 @@
     <row r="9" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B9" s="82"/>
       <c r="C9" s="47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E9" s="83"/>
     </row>
     <row r="10" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B10" s="82"/>
       <c r="C10" s="84" t="s">
+        <v>308</v>
+      </c>
+      <c r="D10" s="84" t="s">
         <v>309</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>310</v>
       </c>
       <c r="E10" s="83"/>
     </row>
     <row r="11" spans="2:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="82"/>
       <c r="C11" s="84" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" s="84" t="s">
         <v>311</v>
-      </c>
-      <c r="D11" s="84" t="s">
-        <v>312</v>
       </c>
       <c r="E11" s="83"/>
     </row>
@@ -7578,30 +7698,30 @@
     <row r="16" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B16" s="82"/>
       <c r="C16" s="47" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="47" t="s">
         <v>313</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>314</v>
       </c>
       <c r="E16" s="83"/>
     </row>
     <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="82"/>
       <c r="C17" s="84" t="s">
+        <v>314</v>
+      </c>
+      <c r="D17" s="84" t="s">
         <v>315</v>
-      </c>
-      <c r="D17" s="84" t="s">
-        <v>316</v>
       </c>
       <c r="E17" s="83"/>
     </row>
     <row r="18" spans="2:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="82"/>
       <c r="C18" s="84" t="s">
+        <v>316</v>
+      </c>
+      <c r="D18" s="84" t="s">
         <v>317</v>
-      </c>
-      <c r="D18" s="84" t="s">
-        <v>318</v>
       </c>
       <c r="E18" s="83"/>
     </row>
@@ -7620,37 +7740,37 @@
     <row r="22" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B22" s="51"/>
       <c r="C22" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B23" s="71"/>
       <c r="C23" s="49" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D23" s="72" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="71"/>
       <c r="C24" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="72" t="s">
         <v>209</v>
-      </c>
-      <c r="D24" s="72" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B25" s="71"/>
       <c r="C25" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D25" s="72" t="s">
         <v>212</v>
-      </c>
-      <c r="D25" s="72" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="12" x14ac:dyDescent="0.2">
@@ -7665,43 +7785,43 @@
     </row>
     <row r="28" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B28" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="C28" s="49" t="s">
-        <v>207</v>
-      </c>
       <c r="D28" s="72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="B29" s="74" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C29" s="73" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D29" s="75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="24" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B30" s="74" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="73" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D30" s="75" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="79"/>
       <c r="C31" s="80"/>
       <c r="D31" s="81"/>
     </row>
-    <row r="32" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B33" s="76"/>
       <c r="C33" s="77"/>
@@ -7710,26 +7830,26 @@
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B34" s="71"/>
       <c r="C34" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="47" t="s">
         <v>158</v>
-      </c>
-      <c r="D34" s="47" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B35" s="71"/>
       <c r="C35" s="49" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D35" s="72"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B36" s="71"/>
       <c r="C36" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D36" s="72" t="s">
         <v>161</v>
-      </c>
-      <c r="D36" s="72" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
@@ -7753,20 +7873,20 @@
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B43" s="71"/>
       <c r="C43" s="47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D43" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F43" s="72"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B44" s="71"/>
       <c r="C44" s="49" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="72"/>
@@ -7774,10 +7894,10 @@
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B45" s="85"/>
       <c r="C45" s="50" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E45" s="50"/>
       <c r="F45" s="86"/>
@@ -7785,7 +7905,7 @@
     <row r="46" spans="2:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B46" s="85"/>
       <c r="C46" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D46" s="50"/>
       <c r="E46" s="50"/>
@@ -7794,7 +7914,7 @@
     <row r="47" spans="2:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="85"/>
       <c r="C47" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D47" s="50"/>
       <c r="E47" s="50"/>
@@ -7818,22 +7938,22 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="71"/>
       <c r="C51" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D51" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E51" s="47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F51" s="72"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D52" s="49"/>
       <c r="E52" s="49"/>
@@ -7841,10 +7961,10 @@
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="B53" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C53" s="49" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D53" s="49"/>
       <c r="E53" s="49"/>
@@ -7852,10 +7972,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C54" s="49" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D54" s="49"/>
       <c r="E54" s="49"/>
@@ -7863,10 +7983,10 @@
     </row>
     <row r="55" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B55" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C55" s="49" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="49"/>
       <c r="E55" s="49"/>
@@ -7874,10 +7994,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B56" s="71" t="s">
+        <v>168</v>
+      </c>
+      <c r="C56" s="49" t="s">
         <v>169</v>
-      </c>
-      <c r="C56" s="49" t="s">
-        <v>170</v>
       </c>
       <c r="D56" s="49"/>
       <c r="E56" s="49"/>
@@ -7885,23 +8005,23 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B57" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C57" s="49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57" s="49" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="72"/>
     </row>
     <row r="58" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B58" s="71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C58" s="49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="49"/>
       <c r="E58" s="49"/>
@@ -7909,10 +8029,10 @@
     </row>
     <row r="59" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B59" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C59" s="50" t="s">
         <v>164</v>
-      </c>
-      <c r="C59" s="50" t="s">
-        <v>165</v>
       </c>
       <c r="D59" s="50"/>
       <c r="E59" s="50"/>
@@ -7920,10 +8040,10 @@
     </row>
     <row r="60" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B60" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D60" s="50"/>
       <c r="E60" s="50"/>
@@ -7942,58 +8062,58 @@
     </row>
     <row r="64" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A64" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B64" s="56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="56" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D64" s="56" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E64" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A65" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B65" s="57"/>
       <c r="C65" s="57" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D65" s="57" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A66" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B66" s="57"/>
       <c r="C66" s="57" t="s">
+        <v>286</v>
+      </c>
+      <c r="D66" s="57" t="s">
         <v>287</v>
-      </c>
-      <c r="D66" s="57" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A67" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B67" s="57"/>
       <c r="C67" s="57"/>
       <c r="D67" s="57" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B68" s="57"/>
       <c r="C68" s="57"/>
@@ -8001,17 +8121,17 @@
     </row>
     <row r="69" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B69" s="57"/>
       <c r="C69" s="57"/>
       <c r="D69" s="57" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B70" s="57"/>
       <c r="C70" s="57"/>
@@ -8025,55 +8145,55 @@
     </row>
     <row r="72" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A72" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B72" s="56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C72" s="56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D72" s="56" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A73" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B73" s="57"/>
       <c r="C73" s="57" t="s">
+        <v>288</v>
+      </c>
+      <c r="D73" s="68" t="s">
         <v>289</v>
-      </c>
-      <c r="D73" s="68" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B74" s="57"/>
       <c r="C74" s="57" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D74" s="57" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A75" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B75" s="57"/>
       <c r="C75" s="57"/>
       <c r="D75" s="57" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A76" s="54" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B76" s="57"/>
       <c r="C76" s="57"/>
@@ -8081,149 +8201,149 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B78" s="58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C78" s="58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D78" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A79" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C79" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D79" s="57" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B80" s="57" t="s">
         <v>249</v>
-      </c>
-      <c r="B80" s="57" t="s">
-        <v>250</v>
       </c>
       <c r="C80" s="57"/>
       <c r="D80" s="57"/>
     </row>
     <row r="81" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A81" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B81" s="57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C81" s="57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D81" s="59" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A84" s="54" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="B84" s="60" t="s">
+      <c r="C84" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="C84" s="60" t="s">
+      <c r="D84" s="60" t="s">
         <v>257</v>
-      </c>
-      <c r="D84" s="60" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A85" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B85" s="57"/>
       <c r="C85" s="59" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="59" t="s">
         <v>259</v>
-      </c>
-      <c r="D85" s="59" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A86" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B86" s="57"/>
       <c r="C86" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="D86" s="57" t="s">
         <v>261</v>
-      </c>
-      <c r="D86" s="57" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="54"/>
       <c r="B87" s="57"/>
       <c r="C87" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87" s="57" t="s">
         <v>263</v>
-      </c>
-      <c r="D87" s="57" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B88" s="57"/>
       <c r="C88" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="D88" s="57" t="s">
         <v>265</v>
-      </c>
-      <c r="D88" s="57" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A89" s="54" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B89" s="57"/>
       <c r="C89" s="57" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89" s="57" t="s">
         <v>267</v>
-      </c>
-      <c r="D89" s="57" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A92" s="54" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B92" s="61"/>
       <c r="C92" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" s="63" t="s">
         <v>270</v>
-      </c>
-      <c r="D92" s="63" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A93" s="54"/>
       <c r="B93" s="64"/>
       <c r="C93" s="64" t="s">
+        <v>271</v>
+      </c>
+      <c r="D93" s="65" t="s">
         <v>272</v>
-      </c>
-      <c r="D93" s="65" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
@@ -8231,17 +8351,17 @@
       <c r="B94" s="64"/>
       <c r="C94" s="64"/>
       <c r="D94" s="65" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A95" s="54"/>
       <c r="B95" s="64"/>
       <c r="C95" s="64" t="s">
+        <v>274</v>
+      </c>
+      <c r="D95" s="65" t="s">
         <v>275</v>
-      </c>
-      <c r="D95" s="65" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -8295,7 +8415,7 @@
     <row r="3" spans="3:3" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="3:3" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -8308,8 +8428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8323,52 +8443,52 @@
   <sheetData>
     <row r="3" spans="2:7" s="52" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="C3" s="200" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D3" s="200"/>
       <c r="E3" s="200"/>
       <c r="F3" s="52" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="2:7" s="52" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="200" t="s">
         <v>223</v>
-      </c>
-      <c r="C4" s="200" t="s">
-        <v>224</v>
       </c>
       <c r="D4" s="200"/>
       <c r="E4" s="200"/>
       <c r="F4" s="52" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="52" t="s">
         <v>225</v>
-      </c>
-      <c r="G4" s="52" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="6" spans="2:7" s="52" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
       <c r="B6" s="52" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="52" t="s">
         <v>227</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="9" spans="2:7" s="52" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" s="52" t="s">
         <v>229</v>
-      </c>
-      <c r="C9" s="52" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="10" spans="2:7" s="52" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="52" t="s">
         <v>231</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="2:7" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
@@ -8377,45 +8497,45 @@
     <row r="12" spans="2:7" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="199"/>
+        <v>114</v>
+      </c>
+      <c r="G14" s="201"/>
     </row>
     <row r="15" spans="2:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="199"/>
+      <c r="G15" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/System_Design_Architecture.xlsx
+++ b/System_Design_Architecture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="Architecture" sheetId="7" r:id="rId4"/>
     <sheet name="System Design" sheetId="16" r:id="rId5"/>
     <sheet name="Commn" sheetId="8" r:id="rId6"/>
-    <sheet name="X x Y" sheetId="9" r:id="rId7"/>
+    <sheet name="Compare" sheetId="9" r:id="rId7"/>
     <sheet name="Big Applications" sheetId="11" r:id="rId8"/>
     <sheet name="Situat - Sols" sheetId="12" r:id="rId9"/>
     <sheet name="Techs" sheetId="13" r:id="rId10"/>
     <sheet name="Sprn MVC vs NG" sheetId="14" r:id="rId11"/>
     <sheet name="Internet Flow" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="457">
   <si>
     <t>Scalability</t>
   </si>
@@ -1838,12 +1838,229 @@
   <si>
     <t>enables to respond to events, often in form of streams. subscribe to event and let event have it’s effect in it’s domain. loosely coupled code can easily be extended with more functionality.</t>
   </si>
+  <si>
+    <t>Cassandra</t>
+  </si>
+  <si>
+    <t>Geode</t>
+  </si>
+  <si>
+    <t>Ignite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Queryable stream cache.</t>
+  </si>
+  <si>
+    <t>Storm</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>Beam</t>
+  </si>
+  <si>
+    <t>RabbitMQ</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>Message Broker System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broker-centric. Focused around delivery guarantees between producer and consumer;
+-- transient preferred over durable messages. </t>
+  </si>
+  <si>
+    <t>Producer-centric; 
+Partitioning; durable msg brokers with cursors;
+batch consumer that may be offline;
+Low Latency</t>
+  </si>
+  <si>
+    <t>Designed / Aimed For:
+-- high throughput
+-- fast performance
+-- scalability 
+-- high availability.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Read Replication; Create a Master DB and Followers DB; Master handles requests;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Costs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Lack of Consistency;
+-- No Replication, gives Consistency;</t>
+    </r>
+  </si>
+  <si>
+    <t>Sharding</t>
+  </si>
+  <si>
+    <t>set of storage (Buckets), each one identified with unique key/name; And each one consists of another set of small storages identified on unique name;</t>
+  </si>
+  <si>
+    <t>DB reading is become very slow, what are possiblities and fixes?</t>
+  </si>
+  <si>
+    <t>-- check the query runs on index
+-- many joins kills performance - normalize by having view or materialized view</t>
+  </si>
+  <si>
+    <t>One DB server got a situation to support huge reads than write. Ie.. Requires to scale readability.</t>
+  </si>
+  <si>
+    <t>End of all actions taken to build scalable Distributed RDBMS - is results NoSql model.</t>
+  </si>
+  <si>
+    <t>Consistent Hashing</t>
+  </si>
+  <si>
+    <t>-- Casandra
+-- few independent computer identifed by unique id;
+-- key (alpha num) pass through hash function and get hashed value;
+-- hashed value takes a storage between couple of nodes.</t>
+  </si>
+  <si>
+    <t>-- Distributed Storage
+-- Distributed Computation
+-- Distributed Messaging</t>
+  </si>
+  <si>
+    <t>Distributed Storage</t>
+  </si>
+  <si>
+    <t>-- NoSql</t>
+  </si>
+  <si>
+    <t>Distributed Computation</t>
+  </si>
+  <si>
+    <t>Hadoop</t>
+  </si>
+  <si>
+    <t>Spark</t>
+  </si>
+  <si>
+    <t>-- MapReduce
+-- HDFS (Distributed File System)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : very complicated; programming model complex;</t>
+    </r>
+  </si>
+  <si>
+    <t>-- Scatter/Gather (like Map Reduce )
+-- Transfrom/Action</t>
+  </si>
+  <si>
+    <t>Pros: wins over hadoop, because programatic way gives an object to act on.</t>
+  </si>
+  <si>
+    <t>Distributed Messaging</t>
+  </si>
+  <si>
+    <t>-- its not only messaging; through Streaming capability Kafka also on Computation</t>
+  </si>
+  <si>
+    <t>Distributed System</t>
+  </si>
+  <si>
+    <t>Lambda Architecture</t>
+  </si>
+  <si>
+    <t>-- multiple system communicate via distributed messaging (kafka); Streaming</t>
+  </si>
+  <si>
+    <t>Architectural Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monolithic 
+--- Layered Arch Pattern/N-tier Pattern
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Servicebase:
+-- Microservice 
+-- </t>
+  </si>
+  <si>
+    <t>High level
+-- Monolithic
+-- Service-based
+-- Event-Driven</t>
+  </si>
+  <si>
+    <t>Event-Driven
+-- Distributed architecture</t>
+  </si>
+  <si>
+    <t>Plug-in
+-- MicroKernel Arch pattern</t>
+  </si>
+  <si>
+    <t>Service oriented</t>
+  </si>
+  <si>
+    <t>-- Editor tools, OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Space-based
+-- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Elastic scalable architectural
+-- Distributed caching (In-memory data grid)
+-- </t>
+  </si>
+  <si>
+    <t>-- Messaging</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1948,6 +2165,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1975,7 +2201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="76">
     <border>
       <left/>
       <right/>
@@ -2727,12 +2953,275 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2777,9 +3266,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2815,9 +3301,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2887,455 +3370,590 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3367,13 +3985,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>91441</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657109</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3401,6 +4019,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1722120</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>714861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7200900" y="10734675"/>
+          <a:ext cx="1645920" cy="648186"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3410,13 +4066,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>1348740</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>1958340</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3462,10 +4118,353 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1876425</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>953562</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029200" y="8839200"/>
+          <a:ext cx="1828800" cy="896412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>763905</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1476999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="49000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-14000" contrast="62000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257550" y="5495925"/>
+          <a:ext cx="640080" cy="1438899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2125980</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1453515</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="100000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast contrast="45000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9934575" y="5486400"/>
+          <a:ext cx="2011680" cy="1424940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1510665</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1478031</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="49000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast contrast="37000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181600" y="5505450"/>
+          <a:ext cx="1463040" cy="1430406"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2162174</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1492882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId10">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="53000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast contrast="39000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14011274" y="6105527"/>
+          <a:ext cx="2085975" cy="1435730"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2059305</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1488724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId12">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="84000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16659225" y="6115049"/>
+          <a:ext cx="2011680" cy="1422050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>105832</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1934632</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>1488062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6297082" y="14509749"/>
+          <a:ext cx="1828800" cy="1403396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3606,7 +4605,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3723,19 +4722,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2811780</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1312436</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3782,13 +4781,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>897732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3835,13 +4834,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2788920</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>1313818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4190,8 +5189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4320,7 +5319,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>88</v>
       </c>
@@ -4331,7 +5330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>88</v>
       </c>
@@ -4342,7 +5341,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>88</v>
       </c>
@@ -4353,7 +5352,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
@@ -4375,7 +5374,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="90" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>100</v>
       </c>
@@ -4395,70 +5394,133 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D12"/>
+  <dimension ref="A3:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="14"/>
-    <col min="2" max="2" width="11.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="14" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="14"/>
+    <col min="1" max="1" width="8.85546875" style="178"/>
+    <col min="2" max="2" width="11.85546875" style="178" customWidth="1"/>
+    <col min="3" max="3" width="83" style="178" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="178" customWidth="1"/>
+    <col min="5" max="5" width="68.5703125" style="178" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="178"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="178" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="178" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="178" t="s">
         <v>393</v>
       </c>
-      <c r="C6" s="181" t="s">
+      <c r="C6" s="178" t="s">
         <v>399</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="178" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="B7" s="178" t="s">
         <v>397</v>
       </c>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="87" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="178" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="178" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="178" t="s">
         <v>402</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="178" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="178" t="s">
         <v>403</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="178" t="s">
         <v>404</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="178" t="s">
+        <v>414</v>
+      </c>
+      <c r="B14" s="178" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="178" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="178" t="s">
+        <v>411</v>
+      </c>
+      <c r="C16" s="178" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="178" t="s">
+        <v>414</v>
+      </c>
+      <c r="B17" s="178" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="178" t="s">
+        <v>414</v>
+      </c>
+      <c r="B18" s="178" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="178" t="s">
+        <v>416</v>
+      </c>
+      <c r="C19" s="178" t="s">
+        <v>418</v>
+      </c>
+      <c r="D19" s="178" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B20" s="178" t="s">
+        <v>417</v>
+      </c>
+      <c r="C20" s="178" t="s">
+        <v>418</v>
+      </c>
+      <c r="D20" s="178" t="s">
+        <v>420</v>
+      </c>
+      <c r="E20" s="178" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -4476,86 +5538,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="87"/>
-    <col min="2" max="2" width="14.85546875" style="87" customWidth="1"/>
-    <col min="3" max="3" width="36" style="87" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="87" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="87" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="87" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="87" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="87" customWidth="1"/>
-    <col min="9" max="16384" width="10.85546875" style="87"/>
+    <col min="1" max="1" width="10.85546875" style="84"/>
+    <col min="2" max="2" width="14.85546875" style="84" customWidth="1"/>
+    <col min="3" max="3" width="36" style="84" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="84" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="84" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="84" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="84" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="84" customWidth="1"/>
+    <col min="9" max="16384" width="10.85546875" style="84"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="84" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="84" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="84" t="s">
         <v>338</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="84" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="84" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="C6" s="90" t="s">
+      <c r="C6" s="87" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B11" s="87" t="s">
+      <c r="B11" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="84" t="s">
         <v>344</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="84" t="s">
         <v>346</v>
       </c>
-      <c r="F11" s="87" t="s">
+      <c r="F11" s="84" t="s">
         <v>348</v>
       </c>
-      <c r="G11" s="87" t="s">
+      <c r="G11" s="84" t="s">
         <v>349</v>
       </c>
-      <c r="H11" s="87" t="s">
+      <c r="H11" s="84" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="84" t="s">
         <v>342</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="84" t="s">
         <v>345</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="87" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="84" t="s">
         <v>351</v>
       </c>
-      <c r="F14" s="87" t="s">
+      <c r="F14" s="84" t="s">
         <v>352</v>
       </c>
-      <c r="G14" s="87" t="s">
+      <c r="G14" s="84" t="s">
         <v>353</v>
       </c>
-      <c r="H14" s="87" t="s">
+      <c r="H14" s="84" t="s">
         <v>354</v>
       </c>
     </row>
@@ -4590,37 +5652,37 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="85" t="s">
         <v>324</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="85" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="86" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="86" t="s">
         <v>328</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="85" t="s">
         <v>329</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="86" t="s">
         <v>333</v>
       </c>
-      <c r="I4" s="89" t="s">
+      <c r="I4" s="86" t="s">
         <v>334</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="85" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="88"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
     </row>
     <row r="5" spans="2:14" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
@@ -4629,10 +5691,10 @@
       <c r="C5" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="84" t="s">
         <v>326</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="84" t="s">
         <v>330</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -4646,10 +5708,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G62"/>
+  <dimension ref="B4:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -4803,224 +5865,232 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="6"/>
-    </row>
-    <row r="34" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
+    <row r="32" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="C39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="182"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="9"/>
-    </row>
-    <row r="35" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="7" t="s">
+      <c r="E51" s="209"/>
+      <c r="F51" s="210"/>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="184"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="9"/>
-    </row>
-    <row r="36" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B36" s="7" t="s">
+      <c r="E52" s="211"/>
+      <c r="F52" s="212"/>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="184"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="9"/>
-    </row>
-    <row r="37" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
+      <c r="E53" s="211"/>
+      <c r="F53" s="212"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C54" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="184"/>
-      <c r="F37" s="185"/>
-      <c r="G37" s="9"/>
-    </row>
-    <row r="38" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B38" s="7" t="s">
+      <c r="E54" s="211"/>
+      <c r="F54" s="212"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C55" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="184"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="9"/>
-    </row>
-    <row r="39" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
+      <c r="E55" s="211"/>
+      <c r="F55" s="212"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D56" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="186"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="9"/>
-    </row>
-    <row r="40" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
-    </row>
-    <row r="44" spans="2:7" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C53" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C54" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="C55" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>408</v>
-      </c>
+      <c r="E56" s="213"/>
+      <c r="F56" s="214"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E34:F39"/>
+    <mergeCell ref="E51:F56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5038,1222 +6108,1222 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="91" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="91" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="91" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="91" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="91"/>
+    <col min="1" max="1" width="3.28515625" style="88" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="88" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="88" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="88" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="88"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="88" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="92"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="94"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="91"/>
     </row>
     <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="91" t="s">
+      <c r="A6" s="88" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="98"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="95"/>
     </row>
     <row r="7" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="99"/>
-      <c r="C7" s="100" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="97" t="s">
         <v>299</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="98"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="95"/>
     </row>
     <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="101"/>
-      <c r="C8" s="102" t="s">
+      <c r="B8" s="98"/>
+      <c r="C8" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="100" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="101"/>
-      <c r="C9" s="102" t="s">
+      <c r="B9" s="98"/>
+      <c r="C9" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="104" t="s">
+      <c r="D9" s="101" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="105"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="102"/>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="101"/>
-      <c r="C10" s="102" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="103" t="s">
+      <c r="D10" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="105"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="102"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="101"/>
-      <c r="C11" s="102" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="99" t="s">
         <v>300</v>
       </c>
-      <c r="D11" s="104" t="s">
+      <c r="D11" s="101" t="s">
         <v>304</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="105"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="102"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="106"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="108"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="105"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
-      <c r="G14" s="94"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="91" t="s">
+      <c r="A15" s="88" t="s">
         <v>305</v>
       </c>
-      <c r="B15" s="95" t="s">
+      <c r="B15" s="92" t="s">
         <v>306</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C15" s="94" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="95"/>
     </row>
     <row r="16" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="106"/>
-      <c r="C16" s="107"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="107"/>
-      <c r="G16" s="108"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="104"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="105"/>
     </row>
     <row r="17" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="92"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="94"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="111"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="109"/>
     </row>
     <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="106"/>
-      <c r="C20" s="107"/>
-      <c r="D20" s="107"/>
-      <c r="E20" s="107"/>
-      <c r="F20" s="107"/>
-      <c r="G20" s="108"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="105"/>
     </row>
     <row r="21" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
     </row>
     <row r="23" spans="2:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="B23" s="113" t="s">
+      <c r="B23" s="110" t="s">
         <v>378</v>
       </c>
-      <c r="C23" s="114" t="s">
+      <c r="C23" s="111" t="s">
         <v>359</v>
       </c>
-      <c r="D23" s="97" t="s">
+      <c r="D23" s="94" t="s">
         <v>360</v>
       </c>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="98"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="95"/>
     </row>
     <row r="24" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="115"/>
-      <c r="C24" s="116" t="s">
+      <c r="B24" s="112"/>
+      <c r="C24" s="113" t="s">
         <v>361</v>
       </c>
-      <c r="D24" s="103" t="s">
+      <c r="D24" s="100" t="s">
         <v>379</v>
       </c>
-      <c r="E24" s="104" t="s">
+      <c r="E24" s="101" t="s">
         <v>364</v>
       </c>
-      <c r="F24" s="104"/>
-      <c r="G24" s="105"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="102"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="115"/>
-      <c r="C25" s="116" t="s">
+      <c r="B25" s="112"/>
+      <c r="C25" s="113" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="104" t="s">
+      <c r="D25" s="101" t="s">
         <v>365</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="101" t="s">
         <v>366</v>
       </c>
-      <c r="F25" s="104"/>
-      <c r="G25" s="105"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="102"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="115"/>
-      <c r="C26" s="116" t="s">
+      <c r="B26" s="112"/>
+      <c r="C26" s="113" t="s">
         <v>362</v>
       </c>
-      <c r="D26" s="104" t="s">
+      <c r="D26" s="101" t="s">
         <v>363</v>
       </c>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="105"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="102"/>
     </row>
     <row r="27" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="108"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="104"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="105"/>
     </row>
     <row r="28" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="109"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="109"/>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
-      <c r="G28" s="109"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="106"/>
+      <c r="D28" s="106"/>
+      <c r="E28" s="106"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="106"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="94"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
     </row>
     <row r="30" spans="2:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="B30" s="110" t="s">
+      <c r="B30" s="107" t="s">
         <v>367</v>
       </c>
-      <c r="C30" s="117" t="s">
+      <c r="C30" s="114" t="s">
         <v>368</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="108" t="s">
         <v>371</v>
       </c>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="112"/>
+      <c r="E30" s="108"/>
+      <c r="F30" s="108"/>
+      <c r="G30" s="109"/>
     </row>
     <row r="31" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="106"/>
-      <c r="C31" s="107"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="108"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="104"/>
+      <c r="D31" s="104"/>
+      <c r="E31" s="104"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="105"/>
     </row>
     <row r="32" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="109"/>
-      <c r="C32" s="109"/>
-      <c r="D32" s="109"/>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="109"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B33" s="92"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="94"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91"/>
     </row>
     <row r="34" spans="1:27" ht="51" x14ac:dyDescent="0.25">
-      <c r="B34" s="110" t="s">
+      <c r="B34" s="107" t="s">
         <v>369</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="114" t="s">
         <v>370</v>
       </c>
-      <c r="D34" s="111" t="s">
+      <c r="D34" s="108" t="s">
         <v>372</v>
       </c>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="112"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="109"/>
     </row>
     <row r="35" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="106"/>
-      <c r="C35" s="107"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="108"/>
-    </row>
-    <row r="36" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="119"/>
-      <c r="C36" s="119"/>
-      <c r="D36" s="119"/>
-      <c r="E36" s="119"/>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="104"/>
+      <c r="G35" s="105"/>
+    </row>
+    <row r="36" spans="1:27" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="116"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="116"/>
+      <c r="F36" s="116"/>
+      <c r="G36" s="116"/>
     </row>
     <row r="37" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="109"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="106"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="106"/>
+      <c r="F37" s="106"/>
+      <c r="G37" s="106"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B38" s="92"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="94"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="91"/>
     </row>
     <row r="39" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="110" t="s">
+      <c r="B39" s="107" t="s">
         <v>373</v>
       </c>
-      <c r="C39" s="117" t="s">
+      <c r="C39" s="114" t="s">
         <v>374</v>
       </c>
-      <c r="D39" s="111" t="s">
+      <c r="D39" s="108" t="s">
         <v>375</v>
       </c>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="112"/>
+      <c r="E39" s="108"/>
+      <c r="F39" s="108"/>
+      <c r="G39" s="109"/>
     </row>
     <row r="40" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="106"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="108"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104"/>
+      <c r="G40" s="105"/>
     </row>
     <row r="41" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
+      <c r="B41" s="106"/>
+      <c r="C41" s="106"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="92"/>
-      <c r="C42" s="93"/>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="94"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="90"/>
+      <c r="F42" s="90"/>
+      <c r="G42" s="91"/>
     </row>
     <row r="43" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="107" t="s">
         <v>376</v>
       </c>
-      <c r="C43" s="117" t="s">
+      <c r="C43" s="114" t="s">
         <v>377</v>
       </c>
-      <c r="D43" s="111"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="112"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="108"/>
+      <c r="F43" s="108"/>
+      <c r="G43" s="109"/>
     </row>
     <row r="44" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="106"/>
-      <c r="C44" s="107"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="108"/>
-    </row>
-    <row r="45" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="119"/>
-      <c r="F45" s="119"/>
-      <c r="G45" s="119"/>
-    </row>
-    <row r="46" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="120"/>
-      <c r="B46" s="121"/>
-      <c r="C46" s="122"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="122"/>
-      <c r="F46" s="122"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="118"/>
-      <c r="K46" s="118"/>
-      <c r="L46" s="118"/>
-      <c r="M46" s="118"/>
-      <c r="N46" s="118"/>
-      <c r="O46" s="118"/>
-      <c r="P46" s="118"/>
-      <c r="Q46" s="118"/>
-      <c r="R46" s="118"/>
-      <c r="S46" s="118"/>
-      <c r="T46" s="118"/>
-      <c r="U46" s="118"/>
-      <c r="V46" s="118"/>
-      <c r="W46" s="118"/>
-      <c r="X46" s="118"/>
-      <c r="Y46" s="118"/>
-      <c r="Z46" s="118"/>
-      <c r="AA46" s="118"/>
-    </row>
-    <row r="47" spans="1:27" s="125" customFormat="1" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="120"/>
-      <c r="B47" s="126" t="s">
+      <c r="B44" s="103"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="105"/>
+    </row>
+    <row r="45" spans="1:27" s="115" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="116"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="116"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="116"/>
+      <c r="G45" s="116"/>
+    </row>
+    <row r="46" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="117"/>
+      <c r="B46" s="118"/>
+      <c r="C46" s="119"/>
+      <c r="D46" s="119"/>
+      <c r="E46" s="119"/>
+      <c r="F46" s="119"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="121"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="115"/>
+      <c r="K46" s="115"/>
+      <c r="L46" s="115"/>
+      <c r="M46" s="115"/>
+      <c r="N46" s="115"/>
+      <c r="O46" s="115"/>
+      <c r="P46" s="115"/>
+      <c r="Q46" s="115"/>
+      <c r="R46" s="115"/>
+      <c r="S46" s="115"/>
+      <c r="T46" s="115"/>
+      <c r="U46" s="115"/>
+      <c r="V46" s="115"/>
+      <c r="W46" s="115"/>
+      <c r="X46" s="115"/>
+      <c r="Y46" s="115"/>
+      <c r="Z46" s="115"/>
+      <c r="AA46" s="115"/>
+    </row>
+    <row r="47" spans="1:27" s="122" customFormat="1" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="117"/>
+      <c r="B47" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="188" t="s">
+      <c r="C47" s="215" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="189"/>
-      <c r="E47" s="188"/>
-      <c r="F47" s="189"/>
-      <c r="G47" s="127"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="118"/>
-      <c r="K47" s="118"/>
-      <c r="L47" s="118"/>
-      <c r="M47" s="118"/>
-      <c r="N47" s="118"/>
-      <c r="O47" s="118"/>
-      <c r="P47" s="118"/>
-      <c r="Q47" s="118"/>
-      <c r="R47" s="118"/>
-      <c r="S47" s="118"/>
-      <c r="T47" s="118"/>
-      <c r="U47" s="118"/>
-      <c r="V47" s="118"/>
-      <c r="W47" s="118"/>
-      <c r="X47" s="118"/>
-      <c r="Y47" s="118"/>
-      <c r="Z47" s="118"/>
-      <c r="AA47" s="118"/>
-    </row>
-    <row r="48" spans="1:27" s="125" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="120"/>
-      <c r="B48" s="128"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="129"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="130"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="118"/>
-      <c r="J48" s="118"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="118"/>
-      <c r="O48" s="118"/>
-      <c r="P48" s="118"/>
-      <c r="Q48" s="118"/>
-      <c r="R48" s="118"/>
-      <c r="S48" s="118"/>
-      <c r="T48" s="118"/>
-      <c r="U48" s="118"/>
-      <c r="V48" s="118"/>
-      <c r="W48" s="118"/>
-      <c r="X48" s="118"/>
-      <c r="Y48" s="118"/>
-      <c r="Z48" s="118"/>
-      <c r="AA48" s="118"/>
-    </row>
-    <row r="49" spans="1:27" s="120" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:27" s="120" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="118"/>
-      <c r="B51" s="131"/>
-      <c r="C51" s="132"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="132"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="118"/>
-      <c r="K51" s="118"/>
-      <c r="L51" s="118"/>
-      <c r="M51" s="118"/>
-      <c r="N51" s="118"/>
-      <c r="O51" s="118"/>
-      <c r="P51" s="118"/>
-      <c r="Q51" s="118"/>
-      <c r="R51" s="118"/>
-      <c r="S51" s="118"/>
-      <c r="T51" s="118"/>
-      <c r="U51" s="118"/>
-      <c r="V51" s="118"/>
-      <c r="W51" s="118"/>
-      <c r="X51" s="118"/>
-      <c r="Y51" s="118"/>
-      <c r="Z51" s="118"/>
-      <c r="AA51" s="118"/>
-    </row>
-    <row r="52" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="118"/>
-      <c r="B52" s="134" t="s">
+      <c r="D47" s="216"/>
+      <c r="E47" s="215"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="115"/>
+      <c r="K47" s="115"/>
+      <c r="L47" s="115"/>
+      <c r="M47" s="115"/>
+      <c r="N47" s="115"/>
+      <c r="O47" s="115"/>
+      <c r="P47" s="115"/>
+      <c r="Q47" s="115"/>
+      <c r="R47" s="115"/>
+      <c r="S47" s="115"/>
+      <c r="T47" s="115"/>
+      <c r="U47" s="115"/>
+      <c r="V47" s="115"/>
+      <c r="W47" s="115"/>
+      <c r="X47" s="115"/>
+      <c r="Y47" s="115"/>
+      <c r="Z47" s="115"/>
+      <c r="AA47" s="115"/>
+    </row>
+    <row r="48" spans="1:27" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="117"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="126"/>
+      <c r="D48" s="126"/>
+      <c r="E48" s="126"/>
+      <c r="F48" s="126"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="121"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="115"/>
+      <c r="K48" s="115"/>
+      <c r="L48" s="115"/>
+      <c r="M48" s="115"/>
+      <c r="N48" s="115"/>
+      <c r="O48" s="115"/>
+      <c r="P48" s="115"/>
+      <c r="Q48" s="115"/>
+      <c r="R48" s="115"/>
+      <c r="S48" s="115"/>
+      <c r="T48" s="115"/>
+      <c r="U48" s="115"/>
+      <c r="V48" s="115"/>
+      <c r="W48" s="115"/>
+      <c r="X48" s="115"/>
+      <c r="Y48" s="115"/>
+      <c r="Z48" s="115"/>
+      <c r="AA48" s="115"/>
+    </row>
+    <row r="49" spans="1:27" s="117" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:27" s="117" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="115"/>
+      <c r="B51" s="128"/>
+      <c r="C51" s="129"/>
+      <c r="D51" s="129"/>
+      <c r="E51" s="129"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="130"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="115"/>
+      <c r="K51" s="115"/>
+      <c r="L51" s="115"/>
+      <c r="M51" s="115"/>
+      <c r="N51" s="115"/>
+      <c r="O51" s="115"/>
+      <c r="P51" s="115"/>
+      <c r="Q51" s="115"/>
+      <c r="R51" s="115"/>
+      <c r="S51" s="115"/>
+      <c r="T51" s="115"/>
+      <c r="U51" s="115"/>
+      <c r="V51" s="115"/>
+      <c r="W51" s="115"/>
+      <c r="X51" s="115"/>
+      <c r="Y51" s="115"/>
+      <c r="Z51" s="115"/>
+      <c r="AA51" s="115"/>
+    </row>
+    <row r="52" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="115"/>
+      <c r="B52" s="131" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="190" t="s">
+      <c r="C52" s="217" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="190"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="135"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="118"/>
-      <c r="J52" s="118"/>
-      <c r="K52" s="118"/>
-      <c r="L52" s="118"/>
-      <c r="M52" s="118"/>
-      <c r="N52" s="118"/>
-      <c r="O52" s="118"/>
-      <c r="P52" s="118"/>
-      <c r="Q52" s="118"/>
-      <c r="R52" s="118"/>
-      <c r="S52" s="118"/>
-      <c r="T52" s="118"/>
-      <c r="U52" s="118"/>
-      <c r="V52" s="118"/>
-      <c r="W52" s="118"/>
-      <c r="X52" s="118"/>
-      <c r="Y52" s="118"/>
-      <c r="Z52" s="118"/>
-      <c r="AA52" s="118"/>
-    </row>
-    <row r="53" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="118"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="135" t="s">
+      <c r="D52" s="217"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="121"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="115"/>
+      <c r="K52" s="115"/>
+      <c r="L52" s="115"/>
+      <c r="M52" s="115"/>
+      <c r="N52" s="115"/>
+      <c r="O52" s="115"/>
+      <c r="P52" s="115"/>
+      <c r="Q52" s="115"/>
+      <c r="R52" s="115"/>
+      <c r="S52" s="115"/>
+      <c r="T52" s="115"/>
+      <c r="U52" s="115"/>
+      <c r="V52" s="115"/>
+      <c r="W52" s="115"/>
+      <c r="X52" s="115"/>
+      <c r="Y52" s="115"/>
+      <c r="Z52" s="115"/>
+      <c r="AA52" s="115"/>
+    </row>
+    <row r="53" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="115"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="135" t="s">
+      <c r="D53" s="132" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="135"/>
-      <c r="F53" s="135"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="118"/>
-      <c r="J53" s="118"/>
-      <c r="K53" s="118"/>
-      <c r="L53" s="118"/>
-      <c r="M53" s="118"/>
-      <c r="N53" s="118"/>
-      <c r="O53" s="118"/>
-      <c r="P53" s="118"/>
-      <c r="Q53" s="118"/>
-      <c r="R53" s="118"/>
-      <c r="S53" s="118"/>
-      <c r="T53" s="118"/>
-      <c r="U53" s="118"/>
-      <c r="V53" s="118"/>
-      <c r="W53" s="118"/>
-      <c r="X53" s="118"/>
-      <c r="Y53" s="118"/>
-      <c r="Z53" s="118"/>
-      <c r="AA53" s="118"/>
-    </row>
-    <row r="54" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="118"/>
-      <c r="B54" s="134"/>
-      <c r="C54" s="135" t="s">
+      <c r="E53" s="132"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="121"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="115"/>
+      <c r="K53" s="115"/>
+      <c r="L53" s="115"/>
+      <c r="M53" s="115"/>
+      <c r="N53" s="115"/>
+      <c r="O53" s="115"/>
+      <c r="P53" s="115"/>
+      <c r="Q53" s="115"/>
+      <c r="R53" s="115"/>
+      <c r="S53" s="115"/>
+      <c r="T53" s="115"/>
+      <c r="U53" s="115"/>
+      <c r="V53" s="115"/>
+      <c r="W53" s="115"/>
+      <c r="X53" s="115"/>
+      <c r="Y53" s="115"/>
+      <c r="Z53" s="115"/>
+      <c r="AA53" s="115"/>
+    </row>
+    <row r="54" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="115"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="132" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="135" t="s">
+      <c r="D54" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="E54" s="135"/>
-      <c r="F54" s="135"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="118"/>
-      <c r="J54" s="118"/>
-      <c r="K54" s="118"/>
-      <c r="L54" s="118"/>
-      <c r="M54" s="118"/>
-      <c r="N54" s="118"/>
-      <c r="O54" s="118"/>
-      <c r="P54" s="118"/>
-      <c r="Q54" s="118"/>
-      <c r="R54" s="118"/>
-      <c r="S54" s="118"/>
-      <c r="T54" s="118"/>
-      <c r="U54" s="118"/>
-      <c r="V54" s="118"/>
-      <c r="W54" s="118"/>
-      <c r="X54" s="118"/>
-      <c r="Y54" s="118"/>
-      <c r="Z54" s="118"/>
-      <c r="AA54" s="118"/>
-    </row>
-    <row r="55" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="118"/>
-      <c r="B55" s="134"/>
-      <c r="C55" s="135" t="s">
+      <c r="E54" s="132"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="121"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="115"/>
+      <c r="K54" s="115"/>
+      <c r="L54" s="115"/>
+      <c r="M54" s="115"/>
+      <c r="N54" s="115"/>
+      <c r="O54" s="115"/>
+      <c r="P54" s="115"/>
+      <c r="Q54" s="115"/>
+      <c r="R54" s="115"/>
+      <c r="S54" s="115"/>
+      <c r="T54" s="115"/>
+      <c r="U54" s="115"/>
+      <c r="V54" s="115"/>
+      <c r="W54" s="115"/>
+      <c r="X54" s="115"/>
+      <c r="Y54" s="115"/>
+      <c r="Z54" s="115"/>
+      <c r="AA54" s="115"/>
+    </row>
+    <row r="55" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="115"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="132" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="135" t="s">
+      <c r="D55" s="132" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="135"/>
-      <c r="F55" s="135"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="118"/>
-      <c r="J55" s="118"/>
-      <c r="K55" s="118"/>
-      <c r="L55" s="118"/>
-      <c r="M55" s="118"/>
-      <c r="N55" s="118"/>
-      <c r="O55" s="118"/>
-      <c r="P55" s="118"/>
-      <c r="Q55" s="118"/>
-      <c r="R55" s="118"/>
-      <c r="S55" s="118"/>
-      <c r="T55" s="118"/>
-      <c r="U55" s="118"/>
-      <c r="V55" s="118"/>
-      <c r="W55" s="118"/>
-      <c r="X55" s="118"/>
-      <c r="Y55" s="118"/>
-      <c r="Z55" s="118"/>
-      <c r="AA55" s="118"/>
-    </row>
-    <row r="56" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="118"/>
-      <c r="B56" s="137"/>
-      <c r="C56" s="135" t="s">
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="121"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="115"/>
+      <c r="K55" s="115"/>
+      <c r="L55" s="115"/>
+      <c r="M55" s="115"/>
+      <c r="N55" s="115"/>
+      <c r="O55" s="115"/>
+      <c r="P55" s="115"/>
+      <c r="Q55" s="115"/>
+      <c r="R55" s="115"/>
+      <c r="S55" s="115"/>
+      <c r="T55" s="115"/>
+      <c r="U55" s="115"/>
+      <c r="V55" s="115"/>
+      <c r="W55" s="115"/>
+      <c r="X55" s="115"/>
+      <c r="Y55" s="115"/>
+      <c r="Z55" s="115"/>
+      <c r="AA55" s="115"/>
+    </row>
+    <row r="56" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="115"/>
+      <c r="B56" s="134"/>
+      <c r="C56" s="132" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="138" t="s">
+      <c r="D56" s="135" t="s">
         <v>153</v>
       </c>
-      <c r="E56" s="138"/>
-      <c r="F56" s="138"/>
-      <c r="G56" s="139"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="118"/>
-      <c r="K56" s="118"/>
-      <c r="L56" s="118"/>
-      <c r="M56" s="118"/>
-      <c r="N56" s="118"/>
-      <c r="O56" s="118"/>
-      <c r="P56" s="118"/>
-      <c r="Q56" s="118"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="118"/>
-      <c r="T56" s="118"/>
-      <c r="U56" s="118"/>
-      <c r="V56" s="118"/>
-      <c r="W56" s="118"/>
-      <c r="X56" s="118"/>
-      <c r="Y56" s="118"/>
-      <c r="Z56" s="118"/>
-      <c r="AA56" s="118"/>
-    </row>
-    <row r="57" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="118"/>
-      <c r="B57" s="137"/>
-      <c r="C57" s="138" t="s">
+      <c r="E56" s="135"/>
+      <c r="F56" s="135"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="121"/>
+      <c r="I56" s="115"/>
+      <c r="J56" s="115"/>
+      <c r="K56" s="115"/>
+      <c r="L56" s="115"/>
+      <c r="M56" s="115"/>
+      <c r="N56" s="115"/>
+      <c r="O56" s="115"/>
+      <c r="P56" s="115"/>
+      <c r="Q56" s="115"/>
+      <c r="R56" s="115"/>
+      <c r="S56" s="115"/>
+      <c r="T56" s="115"/>
+      <c r="U56" s="115"/>
+      <c r="V56" s="115"/>
+      <c r="W56" s="115"/>
+      <c r="X56" s="115"/>
+      <c r="Y56" s="115"/>
+      <c r="Z56" s="115"/>
+      <c r="AA56" s="115"/>
+    </row>
+    <row r="57" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="115"/>
+      <c r="B57" s="134"/>
+      <c r="C57" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="138" t="s">
+      <c r="D57" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="E57" s="138"/>
-      <c r="F57" s="138"/>
-      <c r="G57" s="139"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="118"/>
-      <c r="K57" s="118"/>
-      <c r="L57" s="118"/>
-      <c r="M57" s="118"/>
-      <c r="N57" s="118"/>
-      <c r="O57" s="118"/>
-      <c r="P57" s="118"/>
-      <c r="Q57" s="118"/>
-      <c r="R57" s="118"/>
-      <c r="S57" s="118"/>
-      <c r="T57" s="118"/>
-      <c r="U57" s="118"/>
-      <c r="V57" s="118"/>
-      <c r="W57" s="118"/>
-      <c r="X57" s="118"/>
-      <c r="Y57" s="118"/>
-      <c r="Z57" s="118"/>
-      <c r="AA57" s="118"/>
-    </row>
-    <row r="58" spans="1:27" s="125" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="118"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="141"/>
-      <c r="G58" s="142"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="118"/>
-      <c r="L58" s="118"/>
-      <c r="M58" s="118"/>
-      <c r="N58" s="118"/>
-      <c r="O58" s="118"/>
-      <c r="P58" s="118"/>
-      <c r="Q58" s="118"/>
-      <c r="R58" s="118"/>
-      <c r="S58" s="118"/>
-      <c r="T58" s="118"/>
-      <c r="U58" s="118"/>
-      <c r="V58" s="118"/>
-      <c r="W58" s="118"/>
-      <c r="X58" s="118"/>
-      <c r="Y58" s="118"/>
-      <c r="Z58" s="118"/>
-      <c r="AA58" s="118"/>
-    </row>
-    <row r="59" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="118"/>
-      <c r="B61" s="131"/>
-      <c r="C61" s="132"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="132"/>
-      <c r="G61" s="133"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="118"/>
-      <c r="J61" s="118"/>
-      <c r="K61" s="118"/>
-      <c r="L61" s="118"/>
-      <c r="M61" s="118"/>
-      <c r="N61" s="118"/>
-      <c r="O61" s="118"/>
-      <c r="P61" s="118"/>
-      <c r="Q61" s="118"/>
-      <c r="R61" s="118"/>
-      <c r="S61" s="118"/>
-      <c r="T61" s="118"/>
-      <c r="U61" s="118"/>
-      <c r="V61" s="118"/>
-      <c r="W61" s="118"/>
-      <c r="X61" s="118"/>
-      <c r="Y61" s="118"/>
-      <c r="Z61" s="118"/>
-      <c r="AA61" s="118"/>
-    </row>
-    <row r="62" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="118"/>
-      <c r="B62" s="134" t="s">
+      <c r="E57" s="135"/>
+      <c r="F57" s="135"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="121"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="115"/>
+      <c r="K57" s="115"/>
+      <c r="L57" s="115"/>
+      <c r="M57" s="115"/>
+      <c r="N57" s="115"/>
+      <c r="O57" s="115"/>
+      <c r="P57" s="115"/>
+      <c r="Q57" s="115"/>
+      <c r="R57" s="115"/>
+      <c r="S57" s="115"/>
+      <c r="T57" s="115"/>
+      <c r="U57" s="115"/>
+      <c r="V57" s="115"/>
+      <c r="W57" s="115"/>
+      <c r="X57" s="115"/>
+      <c r="Y57" s="115"/>
+      <c r="Z57" s="115"/>
+      <c r="AA57" s="115"/>
+    </row>
+    <row r="58" spans="1:27" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="115"/>
+      <c r="B58" s="137"/>
+      <c r="C58" s="138"/>
+      <c r="D58" s="138"/>
+      <c r="E58" s="138"/>
+      <c r="F58" s="138"/>
+      <c r="G58" s="139"/>
+      <c r="H58" s="121"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="115"/>
+      <c r="K58" s="115"/>
+      <c r="L58" s="115"/>
+      <c r="M58" s="115"/>
+      <c r="N58" s="115"/>
+      <c r="O58" s="115"/>
+      <c r="P58" s="115"/>
+      <c r="Q58" s="115"/>
+      <c r="R58" s="115"/>
+      <c r="S58" s="115"/>
+      <c r="T58" s="115"/>
+      <c r="U58" s="115"/>
+      <c r="V58" s="115"/>
+      <c r="W58" s="115"/>
+      <c r="X58" s="115"/>
+      <c r="Y58" s="115"/>
+      <c r="Z58" s="115"/>
+      <c r="AA58" s="115"/>
+    </row>
+    <row r="59" spans="1:27" s="115" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:27" s="115" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="115"/>
+      <c r="B61" s="128"/>
+      <c r="C61" s="129"/>
+      <c r="D61" s="129"/>
+      <c r="E61" s="129"/>
+      <c r="F61" s="129"/>
+      <c r="G61" s="130"/>
+      <c r="H61" s="121"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="115"/>
+      <c r="K61" s="115"/>
+      <c r="L61" s="115"/>
+      <c r="M61" s="115"/>
+      <c r="N61" s="115"/>
+      <c r="O61" s="115"/>
+      <c r="P61" s="115"/>
+      <c r="Q61" s="115"/>
+      <c r="R61" s="115"/>
+      <c r="S61" s="115"/>
+      <c r="T61" s="115"/>
+      <c r="U61" s="115"/>
+      <c r="V61" s="115"/>
+      <c r="W61" s="115"/>
+      <c r="X61" s="115"/>
+      <c r="Y61" s="115"/>
+      <c r="Z61" s="115"/>
+      <c r="AA61" s="115"/>
+    </row>
+    <row r="62" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="115"/>
+      <c r="B62" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="135"/>
-      <c r="D62" s="135"/>
-      <c r="E62" s="135"/>
-      <c r="F62" s="135"/>
-      <c r="G62" s="136"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="118"/>
-      <c r="J62" s="118"/>
-      <c r="K62" s="118"/>
-      <c r="L62" s="118"/>
-      <c r="M62" s="118"/>
-      <c r="N62" s="118"/>
-      <c r="O62" s="118"/>
-      <c r="P62" s="118"/>
-      <c r="Q62" s="118"/>
-      <c r="R62" s="118"/>
-      <c r="S62" s="118"/>
-      <c r="T62" s="118"/>
-      <c r="U62" s="118"/>
-      <c r="V62" s="118"/>
-      <c r="W62" s="118"/>
-      <c r="X62" s="118"/>
-      <c r="Y62" s="118"/>
-      <c r="Z62" s="118"/>
-      <c r="AA62" s="118"/>
-    </row>
-    <row r="63" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="118"/>
-      <c r="B63" s="134"/>
-      <c r="C63" s="143" t="s">
+      <c r="C62" s="132"/>
+      <c r="D62" s="132"/>
+      <c r="E62" s="132"/>
+      <c r="F62" s="132"/>
+      <c r="G62" s="133"/>
+      <c r="H62" s="121"/>
+      <c r="I62" s="115"/>
+      <c r="J62" s="115"/>
+      <c r="K62" s="115"/>
+      <c r="L62" s="115"/>
+      <c r="M62" s="115"/>
+      <c r="N62" s="115"/>
+      <c r="O62" s="115"/>
+      <c r="P62" s="115"/>
+      <c r="Q62" s="115"/>
+      <c r="R62" s="115"/>
+      <c r="S62" s="115"/>
+      <c r="T62" s="115"/>
+      <c r="U62" s="115"/>
+      <c r="V62" s="115"/>
+      <c r="W62" s="115"/>
+      <c r="X62" s="115"/>
+      <c r="Y62" s="115"/>
+      <c r="Z62" s="115"/>
+      <c r="AA62" s="115"/>
+    </row>
+    <row r="63" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="115"/>
+      <c r="B63" s="131"/>
+      <c r="C63" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="D63" s="135" t="s">
+      <c r="D63" s="132" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="135"/>
-      <c r="F63" s="135"/>
-      <c r="G63" s="136"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="118"/>
-      <c r="J63" s="118"/>
-      <c r="K63" s="118"/>
-      <c r="L63" s="118"/>
-      <c r="M63" s="118"/>
-      <c r="N63" s="118"/>
-      <c r="O63" s="118"/>
-      <c r="P63" s="118"/>
-      <c r="Q63" s="118"/>
-      <c r="R63" s="118"/>
-      <c r="S63" s="118"/>
-      <c r="T63" s="118"/>
-      <c r="U63" s="118"/>
-      <c r="V63" s="118"/>
-      <c r="W63" s="118"/>
-      <c r="X63" s="118"/>
-      <c r="Y63" s="118"/>
-      <c r="Z63" s="118"/>
-      <c r="AA63" s="118"/>
-    </row>
-    <row r="64" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="118"/>
-      <c r="B64" s="134"/>
-      <c r="C64" s="143" t="s">
+      <c r="E63" s="132"/>
+      <c r="F63" s="132"/>
+      <c r="G63" s="133"/>
+      <c r="H63" s="121"/>
+      <c r="I63" s="115"/>
+      <c r="J63" s="115"/>
+      <c r="K63" s="115"/>
+      <c r="L63" s="115"/>
+      <c r="M63" s="115"/>
+      <c r="N63" s="115"/>
+      <c r="O63" s="115"/>
+      <c r="P63" s="115"/>
+      <c r="Q63" s="115"/>
+      <c r="R63" s="115"/>
+      <c r="S63" s="115"/>
+      <c r="T63" s="115"/>
+      <c r="U63" s="115"/>
+      <c r="V63" s="115"/>
+      <c r="W63" s="115"/>
+      <c r="X63" s="115"/>
+      <c r="Y63" s="115"/>
+      <c r="Z63" s="115"/>
+      <c r="AA63" s="115"/>
+    </row>
+    <row r="64" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="115"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="140" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="135" t="s">
+      <c r="D64" s="132" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="135"/>
-      <c r="F64" s="135"/>
-      <c r="G64" s="136"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="118"/>
-      <c r="J64" s="118"/>
-      <c r="K64" s="118"/>
-      <c r="L64" s="118"/>
-      <c r="M64" s="118"/>
-      <c r="N64" s="118"/>
-      <c r="O64" s="118"/>
-      <c r="P64" s="118"/>
-      <c r="Q64" s="118"/>
-      <c r="R64" s="118"/>
-      <c r="S64" s="118"/>
-      <c r="T64" s="118"/>
-      <c r="U64" s="118"/>
-      <c r="V64" s="118"/>
-      <c r="W64" s="118"/>
-      <c r="X64" s="118"/>
-      <c r="Y64" s="118"/>
-      <c r="Z64" s="118"/>
-      <c r="AA64" s="118"/>
-    </row>
-    <row r="65" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="118"/>
-      <c r="B65" s="134"/>
-      <c r="C65" s="143" t="s">
+      <c r="E64" s="132"/>
+      <c r="F64" s="132"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="121"/>
+      <c r="I64" s="115"/>
+      <c r="J64" s="115"/>
+      <c r="K64" s="115"/>
+      <c r="L64" s="115"/>
+      <c r="M64" s="115"/>
+      <c r="N64" s="115"/>
+      <c r="O64" s="115"/>
+      <c r="P64" s="115"/>
+      <c r="Q64" s="115"/>
+      <c r="R64" s="115"/>
+      <c r="S64" s="115"/>
+      <c r="T64" s="115"/>
+      <c r="U64" s="115"/>
+      <c r="V64" s="115"/>
+      <c r="W64" s="115"/>
+      <c r="X64" s="115"/>
+      <c r="Y64" s="115"/>
+      <c r="Z64" s="115"/>
+      <c r="AA64" s="115"/>
+    </row>
+    <row r="65" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="115"/>
+      <c r="B65" s="131"/>
+      <c r="C65" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="135" t="s">
+      <c r="D65" s="132" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="135"/>
-      <c r="F65" s="135"/>
-      <c r="G65" s="136"/>
-      <c r="H65" s="124"/>
-      <c r="I65" s="118"/>
-      <c r="J65" s="118"/>
-      <c r="K65" s="118"/>
-      <c r="L65" s="118"/>
-      <c r="M65" s="118"/>
-      <c r="N65" s="118"/>
-      <c r="O65" s="118"/>
-      <c r="P65" s="118"/>
-      <c r="Q65" s="118"/>
-      <c r="R65" s="118"/>
-      <c r="S65" s="118"/>
-      <c r="T65" s="118"/>
-      <c r="U65" s="118"/>
-      <c r="V65" s="118"/>
-      <c r="W65" s="118"/>
-      <c r="X65" s="118"/>
-      <c r="Y65" s="118"/>
-      <c r="Z65" s="118"/>
-      <c r="AA65" s="118"/>
-    </row>
-    <row r="66" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="118"/>
-      <c r="B66" s="137"/>
-      <c r="C66" s="144" t="s">
+      <c r="E65" s="132"/>
+      <c r="F65" s="132"/>
+      <c r="G65" s="133"/>
+      <c r="H65" s="121"/>
+      <c r="I65" s="115"/>
+      <c r="J65" s="115"/>
+      <c r="K65" s="115"/>
+      <c r="L65" s="115"/>
+      <c r="M65" s="115"/>
+      <c r="N65" s="115"/>
+      <c r="O65" s="115"/>
+      <c r="P65" s="115"/>
+      <c r="Q65" s="115"/>
+      <c r="R65" s="115"/>
+      <c r="S65" s="115"/>
+      <c r="T65" s="115"/>
+      <c r="U65" s="115"/>
+      <c r="V65" s="115"/>
+      <c r="W65" s="115"/>
+      <c r="X65" s="115"/>
+      <c r="Y65" s="115"/>
+      <c r="Z65" s="115"/>
+      <c r="AA65" s="115"/>
+    </row>
+    <row r="66" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="115"/>
+      <c r="B66" s="134"/>
+      <c r="C66" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="D66" s="138" t="s">
+      <c r="D66" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="138"/>
-      <c r="F66" s="138"/>
-      <c r="G66" s="139"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="118"/>
-      <c r="J66" s="118"/>
-      <c r="K66" s="118"/>
-      <c r="L66" s="118"/>
-      <c r="M66" s="118"/>
-      <c r="N66" s="118"/>
-      <c r="O66" s="118"/>
-      <c r="P66" s="118"/>
-      <c r="Q66" s="118"/>
-      <c r="R66" s="118"/>
-      <c r="S66" s="118"/>
-      <c r="T66" s="118"/>
-      <c r="U66" s="118"/>
-      <c r="V66" s="118"/>
-      <c r="W66" s="118"/>
-      <c r="X66" s="118"/>
-      <c r="Y66" s="118"/>
-      <c r="Z66" s="118"/>
-      <c r="AA66" s="118"/>
-    </row>
-    <row r="67" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="118"/>
-      <c r="B67" s="137"/>
-      <c r="C67" s="144" t="s">
+      <c r="E66" s="135"/>
+      <c r="F66" s="135"/>
+      <c r="G66" s="136"/>
+      <c r="H66" s="121"/>
+      <c r="I66" s="115"/>
+      <c r="J66" s="115"/>
+      <c r="K66" s="115"/>
+      <c r="L66" s="115"/>
+      <c r="M66" s="115"/>
+      <c r="N66" s="115"/>
+      <c r="O66" s="115"/>
+      <c r="P66" s="115"/>
+      <c r="Q66" s="115"/>
+      <c r="R66" s="115"/>
+      <c r="S66" s="115"/>
+      <c r="T66" s="115"/>
+      <c r="U66" s="115"/>
+      <c r="V66" s="115"/>
+      <c r="W66" s="115"/>
+      <c r="X66" s="115"/>
+      <c r="Y66" s="115"/>
+      <c r="Z66" s="115"/>
+      <c r="AA66" s="115"/>
+    </row>
+    <row r="67" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="115"/>
+      <c r="B67" s="134"/>
+      <c r="C67" s="141" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="138" t="s">
+      <c r="D67" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="138"/>
-      <c r="F67" s="138"/>
-      <c r="G67" s="139"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="118"/>
-      <c r="J67" s="118"/>
-      <c r="K67" s="118"/>
-      <c r="L67" s="118"/>
-      <c r="M67" s="118"/>
-      <c r="N67" s="118"/>
-      <c r="O67" s="118"/>
-      <c r="P67" s="118"/>
-      <c r="Q67" s="118"/>
-      <c r="R67" s="118"/>
-      <c r="S67" s="118"/>
-      <c r="T67" s="118"/>
-      <c r="U67" s="118"/>
-      <c r="V67" s="118"/>
-      <c r="W67" s="118"/>
-      <c r="X67" s="118"/>
-      <c r="Y67" s="118"/>
-      <c r="Z67" s="118"/>
-      <c r="AA67" s="118"/>
-    </row>
-    <row r="68" spans="1:27" s="125" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="118"/>
-      <c r="B68" s="137"/>
-      <c r="C68" s="138"/>
-      <c r="D68" s="138"/>
-      <c r="E68" s="138"/>
-      <c r="F68" s="138"/>
-      <c r="G68" s="139"/>
-      <c r="H68" s="124"/>
-      <c r="I68" s="118"/>
-      <c r="J68" s="118"/>
-      <c r="K68" s="118"/>
-      <c r="L68" s="118"/>
-      <c r="M68" s="118"/>
-      <c r="N68" s="118"/>
-      <c r="O68" s="118"/>
-      <c r="P68" s="118"/>
-      <c r="Q68" s="118"/>
-      <c r="R68" s="118"/>
-      <c r="S68" s="118"/>
-      <c r="T68" s="118"/>
-      <c r="U68" s="118"/>
-      <c r="V68" s="118"/>
-      <c r="W68" s="118"/>
-      <c r="X68" s="118"/>
-      <c r="Y68" s="118"/>
-      <c r="Z68" s="118"/>
-      <c r="AA68" s="118"/>
-    </row>
-    <row r="69" spans="1:27" s="125" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="118"/>
-      <c r="B69" s="140"/>
-      <c r="C69" s="141"/>
-      <c r="D69" s="141"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="142"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="118"/>
-      <c r="J69" s="118"/>
-      <c r="K69" s="118"/>
-      <c r="L69" s="118"/>
-      <c r="M69" s="118"/>
-      <c r="N69" s="118"/>
-      <c r="O69" s="118"/>
-      <c r="P69" s="118"/>
-      <c r="Q69" s="118"/>
-      <c r="R69" s="118"/>
-      <c r="S69" s="118"/>
-      <c r="T69" s="118"/>
-      <c r="U69" s="118"/>
-      <c r="V69" s="118"/>
-      <c r="W69" s="118"/>
-      <c r="X69" s="118"/>
-      <c r="Y69" s="118"/>
-      <c r="Z69" s="118"/>
-      <c r="AA69" s="118"/>
-    </row>
-    <row r="70" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="146"/>
-      <c r="B71" s="147"/>
-      <c r="C71" s="148"/>
-      <c r="D71" s="148"/>
-      <c r="E71" s="148"/>
-      <c r="F71" s="149"/>
-      <c r="G71" s="150"/>
-      <c r="H71" s="151"/>
-    </row>
-    <row r="72" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="146"/>
-      <c r="B72" s="152"/>
-      <c r="C72" s="153"/>
-      <c r="D72" s="153"/>
-      <c r="E72" s="153"/>
-      <c r="F72" s="154"/>
-      <c r="G72" s="155"/>
-      <c r="H72" s="151"/>
-    </row>
-    <row r="73" spans="1:27" s="145" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="146"/>
-      <c r="B73" s="152" t="s">
+      <c r="E67" s="135"/>
+      <c r="F67" s="135"/>
+      <c r="G67" s="136"/>
+      <c r="H67" s="121"/>
+      <c r="I67" s="115"/>
+      <c r="J67" s="115"/>
+      <c r="K67" s="115"/>
+      <c r="L67" s="115"/>
+      <c r="M67" s="115"/>
+      <c r="N67" s="115"/>
+      <c r="O67" s="115"/>
+      <c r="P67" s="115"/>
+      <c r="Q67" s="115"/>
+      <c r="R67" s="115"/>
+      <c r="S67" s="115"/>
+      <c r="T67" s="115"/>
+      <c r="U67" s="115"/>
+      <c r="V67" s="115"/>
+      <c r="W67" s="115"/>
+      <c r="X67" s="115"/>
+      <c r="Y67" s="115"/>
+      <c r="Z67" s="115"/>
+      <c r="AA67" s="115"/>
+    </row>
+    <row r="68" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="115"/>
+      <c r="B68" s="134"/>
+      <c r="C68" s="135"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="135"/>
+      <c r="F68" s="135"/>
+      <c r="G68" s="136"/>
+      <c r="H68" s="121"/>
+      <c r="I68" s="115"/>
+      <c r="J68" s="115"/>
+      <c r="K68" s="115"/>
+      <c r="L68" s="115"/>
+      <c r="M68" s="115"/>
+      <c r="N68" s="115"/>
+      <c r="O68" s="115"/>
+      <c r="P68" s="115"/>
+      <c r="Q68" s="115"/>
+      <c r="R68" s="115"/>
+      <c r="S68" s="115"/>
+      <c r="T68" s="115"/>
+      <c r="U68" s="115"/>
+      <c r="V68" s="115"/>
+      <c r="W68" s="115"/>
+      <c r="X68" s="115"/>
+      <c r="Y68" s="115"/>
+      <c r="Z68" s="115"/>
+      <c r="AA68" s="115"/>
+    </row>
+    <row r="69" spans="1:27" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="115"/>
+      <c r="B69" s="137"/>
+      <c r="C69" s="138"/>
+      <c r="D69" s="138"/>
+      <c r="E69" s="138"/>
+      <c r="F69" s="138"/>
+      <c r="G69" s="139"/>
+      <c r="H69" s="121"/>
+      <c r="I69" s="115"/>
+      <c r="J69" s="115"/>
+      <c r="K69" s="115"/>
+      <c r="L69" s="115"/>
+      <c r="M69" s="115"/>
+      <c r="N69" s="115"/>
+      <c r="O69" s="115"/>
+      <c r="P69" s="115"/>
+      <c r="Q69" s="115"/>
+      <c r="R69" s="115"/>
+      <c r="S69" s="115"/>
+      <c r="T69" s="115"/>
+      <c r="U69" s="115"/>
+      <c r="V69" s="115"/>
+      <c r="W69" s="115"/>
+      <c r="X69" s="115"/>
+      <c r="Y69" s="115"/>
+      <c r="Z69" s="115"/>
+      <c r="AA69" s="115"/>
+    </row>
+    <row r="70" spans="1:27" s="115" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="143"/>
+      <c r="B71" s="144"/>
+      <c r="C71" s="145"/>
+      <c r="D71" s="145"/>
+      <c r="E71" s="145"/>
+      <c r="F71" s="146"/>
+      <c r="G71" s="147"/>
+      <c r="H71" s="148"/>
+    </row>
+    <row r="72" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="143"/>
+      <c r="B72" s="149"/>
+      <c r="C72" s="150"/>
+      <c r="D72" s="150"/>
+      <c r="E72" s="150"/>
+      <c r="F72" s="151"/>
+      <c r="G72" s="152"/>
+      <c r="H72" s="148"/>
+    </row>
+    <row r="73" spans="1:27" s="142" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="143"/>
+      <c r="B73" s="149" t="s">
         <v>186</v>
       </c>
-      <c r="C73" s="153" t="s">
+      <c r="C73" s="150" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="153" t="s">
+      <c r="D73" s="150" t="s">
         <v>184</v>
       </c>
-      <c r="E73" s="153"/>
-      <c r="F73" s="154"/>
-      <c r="G73" s="155"/>
-      <c r="H73" s="151"/>
-    </row>
-    <row r="74" spans="1:27" s="145" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="146"/>
-      <c r="B74" s="152"/>
-      <c r="C74" s="153" t="s">
+      <c r="E73" s="150"/>
+      <c r="F73" s="151"/>
+      <c r="G73" s="152"/>
+      <c r="H73" s="148"/>
+    </row>
+    <row r="74" spans="1:27" s="142" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="143"/>
+      <c r="B74" s="149"/>
+      <c r="C74" s="150" t="s">
         <v>183</v>
       </c>
-      <c r="D74" s="153" t="s">
+      <c r="D74" s="150" t="s">
         <v>182</v>
       </c>
-      <c r="E74" s="153"/>
-      <c r="F74" s="154"/>
-      <c r="G74" s="155"/>
-      <c r="H74" s="151"/>
-    </row>
-    <row r="75" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="146"/>
-      <c r="B75" s="152"/>
-      <c r="C75" s="191" t="s">
+      <c r="E74" s="150"/>
+      <c r="F74" s="151"/>
+      <c r="G74" s="152"/>
+      <c r="H74" s="148"/>
+    </row>
+    <row r="75" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="143"/>
+      <c r="B75" s="149"/>
+      <c r="C75" s="218" t="s">
         <v>181</v>
       </c>
-      <c r="D75" s="191"/>
-      <c r="E75" s="153"/>
-      <c r="F75" s="154"/>
-      <c r="G75" s="155"/>
-      <c r="H75" s="151"/>
-    </row>
-    <row r="76" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="146"/>
-      <c r="B76" s="152"/>
-      <c r="C76" s="153"/>
-      <c r="D76" s="153"/>
-      <c r="E76" s="153"/>
-      <c r="F76" s="154"/>
-      <c r="G76" s="155"/>
-      <c r="H76" s="151"/>
-    </row>
-    <row r="77" spans="1:27" s="145" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="146"/>
-      <c r="B77" s="156"/>
-      <c r="C77" s="157"/>
-      <c r="D77" s="157"/>
-      <c r="E77" s="157"/>
-      <c r="F77" s="158"/>
-      <c r="G77" s="159"/>
-      <c r="H77" s="151"/>
-    </row>
-    <row r="78" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="160"/>
-      <c r="C78" s="161"/>
-      <c r="D78" s="161"/>
-      <c r="E78" s="161"/>
-      <c r="F78" s="161"/>
-      <c r="G78" s="161"/>
-    </row>
-    <row r="79" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:27" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="146"/>
-      <c r="B80" s="147"/>
-      <c r="C80" s="148"/>
-      <c r="D80" s="148"/>
-      <c r="E80" s="148"/>
-      <c r="F80" s="149"/>
-      <c r="G80" s="150"/>
-      <c r="H80" s="151"/>
-    </row>
-    <row r="81" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="146"/>
-      <c r="B81" s="152"/>
-      <c r="C81" s="153"/>
-      <c r="D81" s="153"/>
-      <c r="E81" s="153"/>
-      <c r="F81" s="154"/>
-      <c r="G81" s="155"/>
-      <c r="H81" s="151"/>
-    </row>
-    <row r="82" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="146"/>
-      <c r="B82" s="152" t="s">
+      <c r="D75" s="218"/>
+      <c r="E75" s="150"/>
+      <c r="F75" s="151"/>
+      <c r="G75" s="152"/>
+      <c r="H75" s="148"/>
+    </row>
+    <row r="76" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="143"/>
+      <c r="B76" s="149"/>
+      <c r="C76" s="150"/>
+      <c r="D76" s="150"/>
+      <c r="E76" s="150"/>
+      <c r="F76" s="151"/>
+      <c r="G76" s="152"/>
+      <c r="H76" s="148"/>
+    </row>
+    <row r="77" spans="1:27" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="143"/>
+      <c r="B77" s="153"/>
+      <c r="C77" s="154"/>
+      <c r="D77" s="154"/>
+      <c r="E77" s="154"/>
+      <c r="F77" s="155"/>
+      <c r="G77" s="156"/>
+      <c r="H77" s="148"/>
+    </row>
+    <row r="78" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="157"/>
+      <c r="C78" s="158"/>
+      <c r="D78" s="158"/>
+      <c r="E78" s="158"/>
+      <c r="F78" s="158"/>
+      <c r="G78" s="158"/>
+    </row>
+    <row r="79" spans="1:27" s="115" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="143"/>
+      <c r="B80" s="144"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="145"/>
+      <c r="E80" s="145"/>
+      <c r="F80" s="146"/>
+      <c r="G80" s="147"/>
+      <c r="H80" s="148"/>
+    </row>
+    <row r="81" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="143"/>
+      <c r="B81" s="149"/>
+      <c r="C81" s="150"/>
+      <c r="D81" s="150"/>
+      <c r="E81" s="150"/>
+      <c r="F81" s="151"/>
+      <c r="G81" s="152"/>
+      <c r="H81" s="148"/>
+    </row>
+    <row r="82" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="143"/>
+      <c r="B82" s="149" t="s">
         <v>380</v>
       </c>
-      <c r="C82" s="153"/>
-      <c r="D82" s="153"/>
-      <c r="E82" s="153"/>
-      <c r="F82" s="154"/>
-      <c r="G82" s="155"/>
-      <c r="H82" s="151"/>
-    </row>
-    <row r="83" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="146"/>
-      <c r="B83" s="152"/>
-      <c r="C83" s="153"/>
-      <c r="D83" s="153"/>
-      <c r="E83" s="153"/>
-      <c r="F83" s="154"/>
-      <c r="G83" s="155"/>
-      <c r="H83" s="151"/>
-    </row>
-    <row r="84" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="146"/>
-      <c r="B84" s="152"/>
-      <c r="C84" s="191"/>
-      <c r="D84" s="191"/>
-      <c r="E84" s="153"/>
-      <c r="F84" s="154"/>
-      <c r="G84" s="155"/>
-      <c r="H84" s="151"/>
-    </row>
-    <row r="85" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="146"/>
-      <c r="B85" s="152"/>
-      <c r="C85" s="153"/>
-      <c r="D85" s="153"/>
-      <c r="E85" s="153"/>
-      <c r="F85" s="154"/>
-      <c r="G85" s="155"/>
-      <c r="H85" s="151"/>
-    </row>
-    <row r="86" spans="1:8" s="145" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="146"/>
-      <c r="B86" s="156"/>
-      <c r="C86" s="157"/>
-      <c r="D86" s="157"/>
-      <c r="E86" s="157"/>
-      <c r="F86" s="158"/>
-      <c r="G86" s="159"/>
-      <c r="H86" s="151"/>
-    </row>
-    <row r="87" spans="1:8" s="145" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="160"/>
-      <c r="C87" s="161"/>
-      <c r="D87" s="161"/>
-      <c r="E87" s="161"/>
-      <c r="F87" s="161"/>
-      <c r="G87" s="161"/>
+      <c r="C82" s="150"/>
+      <c r="D82" s="150"/>
+      <c r="E82" s="150"/>
+      <c r="F82" s="151"/>
+      <c r="G82" s="152"/>
+      <c r="H82" s="148"/>
+    </row>
+    <row r="83" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="143"/>
+      <c r="B83" s="149"/>
+      <c r="C83" s="150"/>
+      <c r="D83" s="150"/>
+      <c r="E83" s="150"/>
+      <c r="F83" s="151"/>
+      <c r="G83" s="152"/>
+      <c r="H83" s="148"/>
+    </row>
+    <row r="84" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="143"/>
+      <c r="B84" s="149"/>
+      <c r="C84" s="218"/>
+      <c r="D84" s="218"/>
+      <c r="E84" s="150"/>
+      <c r="F84" s="151"/>
+      <c r="G84" s="152"/>
+      <c r="H84" s="148"/>
+    </row>
+    <row r="85" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="143"/>
+      <c r="B85" s="149"/>
+      <c r="C85" s="150"/>
+      <c r="D85" s="150"/>
+      <c r="E85" s="150"/>
+      <c r="F85" s="151"/>
+      <c r="G85" s="152"/>
+      <c r="H85" s="148"/>
+    </row>
+    <row r="86" spans="1:8" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="143"/>
+      <c r="B86" s="153"/>
+      <c r="C86" s="154"/>
+      <c r="D86" s="154"/>
+      <c r="E86" s="154"/>
+      <c r="F86" s="155"/>
+      <c r="G86" s="156"/>
+      <c r="H86" s="148"/>
+    </row>
+    <row r="87" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="157"/>
+      <c r="C87" s="158"/>
+      <c r="D87" s="158"/>
+      <c r="E87" s="158"/>
+      <c r="F87" s="158"/>
+      <c r="G87" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6270,451 +7340,626 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H191"/>
+  <dimension ref="A2:K204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:D12"/>
+    <sheetView topLeftCell="D11" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="17" customWidth="1"/>
-    <col min="7" max="7" width="61.7109375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="24"/>
-    <col min="9" max="16384" width="8.85546875" style="17"/>
+    <col min="1" max="1" width="4.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="30" style="16" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="39.42578125" style="16" customWidth="1"/>
+    <col min="7" max="7" width="61.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="48.85546875" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="24" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" s="27" customFormat="1" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-    </row>
-    <row r="4" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="43"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="40" t="s">
+    <row r="2" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" s="26" customFormat="1" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+    </row>
+    <row r="4" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A4" s="41"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="42"/>
-    </row>
-    <row r="5" spans="1:8" s="27" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="35" t="s">
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="40"/>
+    </row>
+    <row r="5" spans="1:8" s="26" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A5" s="41"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="33" t="s">
         <v>200</v>
       </c>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="1:8" s="27" customFormat="1" ht="36" x14ac:dyDescent="0.2">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="35" t="s">
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="40"/>
+    </row>
+    <row r="6" spans="1:8" s="26" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A6" s="41"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="33" t="s">
         <v>199</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="42"/>
-    </row>
-    <row r="7" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="42"/>
-    </row>
-    <row r="8" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A8" s="43"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="196" t="s">
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="41"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="40"/>
+    </row>
+    <row r="8" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="41"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="223" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="196"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="42"/>
-    </row>
-    <row r="9" spans="1:8" s="27" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A9" s="43"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="196" t="s">
+      <c r="D8" s="223"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="40"/>
+    </row>
+    <row r="9" spans="1:8" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A9" s="41"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="223" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="196"/>
-      <c r="E9" s="35" t="s">
+      <c r="D9" s="223"/>
+      <c r="E9" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="42"/>
-    </row>
-    <row r="10" spans="1:8" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="196" t="s">
+      <c r="F9" s="33"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="40"/>
+    </row>
+    <row r="10" spans="1:8" s="26" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="41"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="223" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="196"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="42"/>
-    </row>
-    <row r="11" spans="1:8" s="27" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="196" t="s">
+      <c r="D10" s="223"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="40"/>
+    </row>
+    <row r="11" spans="1:8" s="26" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="223" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="196"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="42"/>
-    </row>
-    <row r="12" spans="1:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.2">
-      <c r="A12" s="43"/>
-      <c r="B12" s="36" t="s">
+      <c r="D11" s="223"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="40"/>
+    </row>
+    <row r="12" spans="1:8" s="26" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="A12" s="41"/>
+      <c r="B12" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="196" t="s">
+      <c r="C12" s="223" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="196"/>
-      <c r="E12" s="35" t="s">
+      <c r="D12" s="223"/>
+      <c r="E12" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="33" t="s">
+      <c r="F12" s="33"/>
+      <c r="G12" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="H12" s="42"/>
-    </row>
-    <row r="13" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="36" t="s">
+      <c r="H12" s="40"/>
+    </row>
+    <row r="13" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A13" s="41"/>
+      <c r="B13" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="196" t="s">
+      <c r="C13" s="223" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="196"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="42"/>
-    </row>
-    <row r="14" spans="1:8" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="43"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="42"/>
+      <c r="D13" s="223"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="40"/>
+    </row>
+    <row r="14" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A14" s="41"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="40"/>
     </row>
     <row r="15" spans="1:8" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="26"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="18" spans="2:7" s="27" customFormat="1" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-    </row>
-    <row r="19" spans="2:7" s="27" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="B19" s="41"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="2:7" s="27" customFormat="1" ht="155.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="36" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="25"/>
+    </row>
+    <row r="16" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="237"/>
+      <c r="C17" s="200"/>
+      <c r="D17" s="200"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="200"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="238"/>
+      <c r="C18" s="239"/>
+      <c r="D18" s="239"/>
+      <c r="E18" s="239"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="239"/>
+      <c r="H18" s="239"/>
+      <c r="I18" s="239"/>
+      <c r="J18" s="239"/>
+      <c r="K18" s="36"/>
+    </row>
+    <row r="19" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="C19" s="240" t="s">
+        <v>449</v>
+      </c>
+      <c r="D19" s="241" t="s">
+        <v>447</v>
+      </c>
+      <c r="E19" s="242" t="s">
+        <v>451</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="240"/>
+      <c r="D20" s="241"/>
+      <c r="E20" s="243" t="s">
+        <v>453</v>
+      </c>
+      <c r="F20" s="244" t="s">
+        <v>456</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="244" t="s">
+        <v>455</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="1:11" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="237"/>
+      <c r="C24" s="200"/>
+      <c r="D24" s="200"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="200"/>
+    </row>
+    <row r="25" spans="1:11" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B25" s="39"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="36"/>
+    </row>
+    <row r="26" spans="1:11" s="26" customFormat="1" ht="155.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C20" s="197" t="s">
+      <c r="C26" s="224" t="s">
         <v>179</v>
       </c>
-      <c r="D20" s="195"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="2:7" s="27" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="36"/>
-      <c r="C21" s="37" t="s">
+      <c r="D26" s="222"/>
+      <c r="E26" s="219"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="31"/>
+    </row>
+    <row r="27" spans="1:11" s="26" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="34"/>
+      <c r="C27" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D27" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E21" s="194" t="s">
+      <c r="E27" s="221" t="s">
         <v>203</v>
       </c>
-      <c r="F21" s="195"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="36"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="33"/>
-    </row>
-    <row r="23" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
-      <c r="C23" s="196"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="33"/>
-    </row>
-    <row r="24" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="36"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="33"/>
-    </row>
-    <row r="25" spans="2:7" s="27" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="32"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" spans="2:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-    </row>
-    <row r="27" spans="2:7" s="27" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
+      <c r="F27" s="222"/>
+      <c r="G27" s="31"/>
+    </row>
+    <row r="28" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="34"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="31"/>
+    </row>
+    <row r="29" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="34"/>
+      <c r="C29" s="223"/>
+      <c r="D29" s="223"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="31"/>
+    </row>
+    <row r="30" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="34"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="31"/>
+    </row>
+    <row r="31" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="199"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+    </row>
+    <row r="33" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="41"/>
+      <c r="B33" s="201"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="202"/>
+      <c r="E33" s="202"/>
+      <c r="F33" s="202"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="40"/>
+    </row>
+    <row r="34" spans="1:8" s="26" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="41"/>
+      <c r="B34" s="204" t="s">
+        <v>444</v>
+      </c>
+      <c r="E34" s="41"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="40"/>
+    </row>
+    <row r="35" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="41"/>
+      <c r="B35" s="204"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="40"/>
+    </row>
+    <row r="36" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="41"/>
+      <c r="B36" s="204"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="41"/>
+      <c r="B37" s="204"/>
+      <c r="G37" s="205"/>
+      <c r="H37" s="40"/>
+    </row>
+    <row r="38" spans="1:8" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="41"/>
+      <c r="B38" s="206"/>
+      <c r="C38" s="207"/>
+      <c r="D38" s="207"/>
+      <c r="E38" s="207"/>
+      <c r="F38" s="207"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="40"/>
+    </row>
+    <row r="39" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="198"/>
+      <c r="C39" s="200"/>
+      <c r="D39" s="200"/>
+      <c r="E39" s="200"/>
+      <c r="F39" s="200"/>
+      <c r="G39" s="200"/>
+    </row>
+    <row r="40" spans="1:8" s="26" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="2:7" s="24" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
+    <row r="41" spans="1:8" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="24" t="s">
+    <row r="42" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:7" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="24" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
@@ -6723,799 +7968,1040 @@
     <mergeCell ref="C13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AA36"/>
+  <dimension ref="A3:AA55"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="87" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="87" customWidth="1"/>
-    <col min="4" max="4" width="35" style="87" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="87"/>
+    <col min="1" max="1" width="4.5703125" style="84" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="84" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="84" customWidth="1"/>
+    <col min="4" max="4" width="35" style="84" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="84" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="84"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="199" t="s">
+      <c r="C3" s="231" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="199"/>
+      <c r="D3" s="231"/>
     </row>
     <row r="4" spans="1:27" ht="135" x14ac:dyDescent="0.25">
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="84" t="s">
         <v>355</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="84" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="84" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="84" t="s">
         <v>358</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="84" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="162" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="162"/>
-      <c r="B9" s="163"/>
-      <c r="C9" s="164"/>
-      <c r="D9" s="164"/>
-      <c r="E9" s="164"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="166"/>
-      <c r="I9" s="162"/>
-      <c r="J9" s="162"/>
-      <c r="K9" s="162"/>
-      <c r="L9" s="162"/>
-      <c r="M9" s="162"/>
-      <c r="N9" s="162"/>
-      <c r="O9" s="162"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="162"/>
-      <c r="S9" s="162"/>
-      <c r="T9" s="162"/>
-      <c r="U9" s="162"/>
-      <c r="V9" s="162"/>
-      <c r="W9" s="162"/>
-      <c r="X9" s="162"/>
-      <c r="Y9" s="162"/>
-      <c r="Z9" s="162"/>
-      <c r="AA9" s="162"/>
-    </row>
-    <row r="10" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="162"/>
-      <c r="B10" s="168" t="s">
+    <row r="8" spans="1:27" s="159" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="159"/>
+      <c r="B9" s="160"/>
+      <c r="C9" s="161"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="159"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="159"/>
+      <c r="L9" s="159"/>
+      <c r="M9" s="159"/>
+      <c r="N9" s="159"/>
+      <c r="O9" s="159"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="159"/>
+      <c r="T9" s="159"/>
+      <c r="U9" s="159"/>
+      <c r="V9" s="159"/>
+      <c r="W9" s="159"/>
+      <c r="X9" s="159"/>
+      <c r="Y9" s="159"/>
+      <c r="Z9" s="159"/>
+      <c r="AA9" s="159"/>
+    </row>
+    <row r="10" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="159"/>
+      <c r="B10" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="169"/>
-      <c r="D10" s="169"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="169"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="166"/>
-      <c r="I10" s="162"/>
-      <c r="J10" s="162"/>
-      <c r="K10" s="162"/>
-      <c r="L10" s="162"/>
-      <c r="M10" s="162"/>
-      <c r="N10" s="162"/>
-      <c r="O10" s="162"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="162"/>
-      <c r="S10" s="162"/>
-      <c r="T10" s="162"/>
-      <c r="U10" s="162"/>
-      <c r="V10" s="162"/>
-      <c r="W10" s="162"/>
-      <c r="X10" s="162"/>
-      <c r="Y10" s="162"/>
-      <c r="Z10" s="162"/>
-      <c r="AA10" s="162"/>
-    </row>
-    <row r="11" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="162"/>
-      <c r="B11" s="168"/>
-      <c r="C11" s="169" t="s">
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="167"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="159"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="159"/>
+      <c r="L10" s="159"/>
+      <c r="M10" s="159"/>
+      <c r="N10" s="159"/>
+      <c r="O10" s="159"/>
+      <c r="P10" s="159"/>
+      <c r="Q10" s="159"/>
+      <c r="R10" s="159"/>
+      <c r="S10" s="159"/>
+      <c r="T10" s="159"/>
+      <c r="U10" s="159"/>
+      <c r="V10" s="159"/>
+      <c r="W10" s="159"/>
+      <c r="X10" s="159"/>
+      <c r="Y10" s="159"/>
+      <c r="Z10" s="159"/>
+      <c r="AA10" s="159"/>
+    </row>
+    <row r="11" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="159"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="166" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="169"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="169"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-      <c r="L11" s="162"/>
-      <c r="M11" s="162"/>
-      <c r="N11" s="162"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="162"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="162"/>
-      <c r="X11" s="162"/>
-      <c r="Y11" s="162"/>
-      <c r="Z11" s="162"/>
-      <c r="AA11" s="162"/>
-    </row>
-    <row r="12" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="162"/>
-      <c r="B12" s="168"/>
-      <c r="C12" s="169" t="s">
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="167"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="159"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="159"/>
+      <c r="L11" s="159"/>
+      <c r="M11" s="159"/>
+      <c r="N11" s="159"/>
+      <c r="O11" s="159"/>
+      <c r="P11" s="159"/>
+      <c r="Q11" s="159"/>
+      <c r="R11" s="159"/>
+      <c r="S11" s="159"/>
+      <c r="T11" s="159"/>
+      <c r="U11" s="159"/>
+      <c r="V11" s="159"/>
+      <c r="W11" s="159"/>
+      <c r="X11" s="159"/>
+      <c r="Y11" s="159"/>
+      <c r="Z11" s="159"/>
+      <c r="AA11" s="159"/>
+    </row>
+    <row r="12" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="159"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="169"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="169"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="162"/>
-      <c r="K12" s="162"/>
-      <c r="L12" s="162"/>
-      <c r="M12" s="162"/>
-      <c r="N12" s="162"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="162"/>
-      <c r="S12" s="162"/>
-      <c r="T12" s="162"/>
-      <c r="U12" s="162"/>
-      <c r="V12" s="162"/>
-      <c r="W12" s="162"/>
-      <c r="X12" s="162"/>
-      <c r="Y12" s="162"/>
-      <c r="Z12" s="162"/>
-      <c r="AA12" s="162"/>
-    </row>
-    <row r="13" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="162"/>
-      <c r="B13" s="168"/>
-      <c r="C13" s="169" t="s">
+      <c r="D12" s="166"/>
+      <c r="E12" s="166"/>
+      <c r="F12" s="166"/>
+      <c r="G12" s="167"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="159"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="159"/>
+      <c r="P12" s="159"/>
+      <c r="Q12" s="159"/>
+      <c r="R12" s="159"/>
+      <c r="S12" s="159"/>
+      <c r="T12" s="159"/>
+      <c r="U12" s="159"/>
+      <c r="V12" s="159"/>
+      <c r="W12" s="159"/>
+      <c r="X12" s="159"/>
+      <c r="Y12" s="159"/>
+      <c r="Z12" s="159"/>
+      <c r="AA12" s="159"/>
+    </row>
+    <row r="13" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="159"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="166" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="169"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="169"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="162"/>
-      <c r="M13" s="162"/>
-      <c r="N13" s="162"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="162"/>
-      <c r="S13" s="162"/>
-      <c r="T13" s="162"/>
-      <c r="U13" s="162"/>
-      <c r="V13" s="162"/>
-      <c r="W13" s="162"/>
-      <c r="X13" s="162"/>
-      <c r="Y13" s="162"/>
-      <c r="Z13" s="162"/>
-      <c r="AA13" s="162"/>
-    </row>
-    <row r="14" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="162"/>
-      <c r="B14" s="168"/>
-      <c r="C14" s="169" t="s">
+      <c r="D13" s="166"/>
+      <c r="E13" s="166"/>
+      <c r="F13" s="166"/>
+      <c r="G13" s="167"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="159"/>
+      <c r="P13" s="159"/>
+      <c r="Q13" s="159"/>
+      <c r="R13" s="159"/>
+      <c r="S13" s="159"/>
+      <c r="T13" s="159"/>
+      <c r="U13" s="159"/>
+      <c r="V13" s="159"/>
+      <c r="W13" s="159"/>
+      <c r="X13" s="159"/>
+      <c r="Y13" s="159"/>
+      <c r="Z13" s="159"/>
+      <c r="AA13" s="159"/>
+    </row>
+    <row r="14" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="159"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="169"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="169"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="162"/>
-      <c r="J14" s="162"/>
-      <c r="K14" s="162"/>
-      <c r="L14" s="162"/>
-      <c r="M14" s="162"/>
-      <c r="N14" s="162"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="162"/>
-      <c r="S14" s="162"/>
-      <c r="T14" s="162"/>
-      <c r="U14" s="162"/>
-      <c r="V14" s="162"/>
-      <c r="W14" s="162"/>
-      <c r="X14" s="162"/>
-      <c r="Y14" s="162"/>
-      <c r="Z14" s="162"/>
-      <c r="AA14" s="162"/>
-    </row>
-    <row r="15" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="162"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169" t="s">
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="159"/>
+      <c r="M14" s="159"/>
+      <c r="N14" s="159"/>
+      <c r="O14" s="159"/>
+      <c r="P14" s="159"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="159"/>
+      <c r="S14" s="159"/>
+      <c r="T14" s="159"/>
+      <c r="U14" s="159"/>
+      <c r="V14" s="159"/>
+      <c r="W14" s="159"/>
+      <c r="X14" s="159"/>
+      <c r="Y14" s="159"/>
+      <c r="Z14" s="159"/>
+      <c r="AA14" s="159"/>
+    </row>
+    <row r="15" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="159"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="166" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="162"/>
-      <c r="M15" s="162"/>
-      <c r="N15" s="162"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="162"/>
-      <c r="S15" s="162"/>
-      <c r="T15" s="162"/>
-      <c r="U15" s="162"/>
-      <c r="V15" s="162"/>
-      <c r="W15" s="162"/>
-      <c r="X15" s="162"/>
-      <c r="Y15" s="162"/>
-      <c r="Z15" s="162"/>
-      <c r="AA15" s="162"/>
-    </row>
-    <row r="16" spans="1:27" s="167" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="162"/>
-      <c r="B16" s="171"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="173"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="162"/>
-      <c r="M16" s="162"/>
-      <c r="N16" s="162"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="162"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="162"/>
-      <c r="U16" s="162"/>
-      <c r="V16" s="162"/>
-      <c r="W16" s="162"/>
-      <c r="X16" s="162"/>
-      <c r="Y16" s="162"/>
-      <c r="Z16" s="162"/>
-      <c r="AA16" s="162"/>
-    </row>
-    <row r="17" spans="1:27" s="162" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="162"/>
-      <c r="B18" s="163"/>
-      <c r="C18" s="164"/>
-      <c r="D18" s="164"/>
-      <c r="E18" s="164"/>
-      <c r="F18" s="164"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="162"/>
-      <c r="M18" s="162"/>
-      <c r="N18" s="162"/>
-      <c r="O18" s="162"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="162"/>
-      <c r="S18" s="162"/>
-      <c r="T18" s="162"/>
-      <c r="U18" s="162"/>
-      <c r="V18" s="162"/>
-      <c r="W18" s="162"/>
-      <c r="X18" s="162"/>
-      <c r="Y18" s="162"/>
-      <c r="Z18" s="162"/>
-      <c r="AA18" s="162"/>
-    </row>
-    <row r="19" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="162"/>
-      <c r="B19" s="168" t="s">
+      <c r="D15" s="166"/>
+      <c r="E15" s="166"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="159"/>
+      <c r="M15" s="159"/>
+      <c r="N15" s="159"/>
+      <c r="O15" s="159"/>
+      <c r="P15" s="159"/>
+      <c r="Q15" s="159"/>
+      <c r="R15" s="159"/>
+      <c r="S15" s="159"/>
+      <c r="T15" s="159"/>
+      <c r="U15" s="159"/>
+      <c r="V15" s="159"/>
+      <c r="W15" s="159"/>
+      <c r="X15" s="159"/>
+      <c r="Y15" s="159"/>
+      <c r="Z15" s="159"/>
+      <c r="AA15" s="159"/>
+    </row>
+    <row r="16" spans="1:27" s="164" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="159"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="170"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="159"/>
+      <c r="M16" s="159"/>
+      <c r="N16" s="159"/>
+      <c r="O16" s="159"/>
+      <c r="P16" s="159"/>
+      <c r="Q16" s="159"/>
+      <c r="R16" s="159"/>
+      <c r="S16" s="159"/>
+      <c r="T16" s="159"/>
+      <c r="U16" s="159"/>
+      <c r="V16" s="159"/>
+      <c r="W16" s="159"/>
+      <c r="X16" s="159"/>
+      <c r="Y16" s="159"/>
+      <c r="Z16" s="159"/>
+      <c r="AA16" s="159"/>
+    </row>
+    <row r="17" spans="1:27" s="159" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="159"/>
+      <c r="B18" s="160"/>
+      <c r="C18" s="161"/>
+      <c r="D18" s="161"/>
+      <c r="E18" s="161"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="159"/>
+      <c r="M18" s="159"/>
+      <c r="N18" s="159"/>
+      <c r="O18" s="159"/>
+      <c r="P18" s="159"/>
+      <c r="Q18" s="159"/>
+      <c r="R18" s="159"/>
+      <c r="S18" s="159"/>
+      <c r="T18" s="159"/>
+      <c r="U18" s="159"/>
+      <c r="V18" s="159"/>
+      <c r="W18" s="159"/>
+      <c r="X18" s="159"/>
+      <c r="Y18" s="159"/>
+      <c r="Z18" s="159"/>
+      <c r="AA18" s="159"/>
+    </row>
+    <row r="19" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="159"/>
+      <c r="B19" s="165" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="162"/>
-      <c r="M19" s="162"/>
-      <c r="N19" s="162"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="162"/>
-      <c r="S19" s="162"/>
-      <c r="T19" s="162"/>
-      <c r="U19" s="162"/>
-      <c r="V19" s="162"/>
-      <c r="W19" s="162"/>
-      <c r="X19" s="162"/>
-      <c r="Y19" s="162"/>
-      <c r="Z19" s="162"/>
-      <c r="AA19" s="162"/>
-    </row>
-    <row r="20" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="162"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="198" t="s">
+      <c r="C19" s="166"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="159"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="159"/>
+      <c r="L19" s="159"/>
+      <c r="M19" s="159"/>
+      <c r="N19" s="159"/>
+      <c r="O19" s="159"/>
+      <c r="P19" s="159"/>
+      <c r="Q19" s="159"/>
+      <c r="R19" s="159"/>
+      <c r="S19" s="159"/>
+      <c r="T19" s="159"/>
+      <c r="U19" s="159"/>
+      <c r="V19" s="159"/>
+      <c r="W19" s="159"/>
+      <c r="X19" s="159"/>
+      <c r="Y19" s="159"/>
+      <c r="Z19" s="159"/>
+      <c r="AA19" s="159"/>
+    </row>
+    <row r="20" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="159"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="230" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="198"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="162"/>
-      <c r="K20" s="162"/>
-      <c r="L20" s="162"/>
-      <c r="M20" s="162"/>
-      <c r="N20" s="162"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="162"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="162"/>
-      <c r="U20" s="162"/>
-      <c r="V20" s="162"/>
-      <c r="W20" s="162"/>
-      <c r="X20" s="162"/>
-      <c r="Y20" s="162"/>
-      <c r="Z20" s="162"/>
-      <c r="AA20" s="162"/>
-    </row>
-    <row r="21" spans="1:27" s="167" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="162"/>
-      <c r="B21" s="168"/>
-      <c r="C21" s="198" t="s">
+      <c r="D20" s="230"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="163"/>
+      <c r="I20" s="159"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="159"/>
+      <c r="L20" s="159"/>
+      <c r="M20" s="159"/>
+      <c r="N20" s="159"/>
+      <c r="O20" s="159"/>
+      <c r="P20" s="159"/>
+      <c r="Q20" s="159"/>
+      <c r="R20" s="159"/>
+      <c r="S20" s="159"/>
+      <c r="T20" s="159"/>
+      <c r="U20" s="159"/>
+      <c r="V20" s="159"/>
+      <c r="W20" s="159"/>
+      <c r="X20" s="159"/>
+      <c r="Y20" s="159"/>
+      <c r="Z20" s="159"/>
+      <c r="AA20" s="159"/>
+    </row>
+    <row r="21" spans="1:27" s="164" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="159"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="230" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="198"/>
-      <c r="E21" s="169" t="s">
+      <c r="D21" s="230"/>
+      <c r="E21" s="166" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="169"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="162"/>
-      <c r="K21" s="162"/>
-      <c r="L21" s="162"/>
-      <c r="M21" s="162"/>
-      <c r="N21" s="162"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="162"/>
-      <c r="S21" s="162"/>
-      <c r="T21" s="162"/>
-      <c r="U21" s="162"/>
-      <c r="V21" s="162"/>
-      <c r="W21" s="162"/>
-      <c r="X21" s="162"/>
-      <c r="Y21" s="162"/>
-      <c r="Z21" s="162"/>
-      <c r="AA21" s="162"/>
-    </row>
-    <row r="22" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="162"/>
-      <c r="B22" s="168"/>
-      <c r="C22" s="198"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="169"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="162"/>
-      <c r="J22" s="162"/>
-      <c r="K22" s="162"/>
-      <c r="L22" s="162"/>
-      <c r="M22" s="162"/>
-      <c r="N22" s="162"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="162"/>
-      <c r="S22" s="162"/>
-      <c r="T22" s="162"/>
-      <c r="U22" s="162"/>
-      <c r="V22" s="162"/>
-      <c r="W22" s="162"/>
-      <c r="X22" s="162"/>
-      <c r="Y22" s="162"/>
-      <c r="Z22" s="162"/>
-      <c r="AA22" s="162"/>
-    </row>
-    <row r="23" spans="1:27" s="167" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="162"/>
-      <c r="B23" s="171"/>
-      <c r="C23" s="172"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="173"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="162"/>
-      <c r="J23" s="162"/>
-      <c r="K23" s="162"/>
-      <c r="L23" s="162"/>
-      <c r="M23" s="162"/>
-      <c r="N23" s="162"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="162"/>
-      <c r="S23" s="162"/>
-      <c r="T23" s="162"/>
-      <c r="U23" s="162"/>
-      <c r="V23" s="162"/>
-      <c r="W23" s="162"/>
-      <c r="X23" s="162"/>
-      <c r="Y23" s="162"/>
-      <c r="Z23" s="162"/>
-      <c r="AA23" s="162"/>
-    </row>
-    <row r="24" spans="1:27" s="162" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:27" s="162" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="162"/>
-      <c r="B26" s="174"/>
-      <c r="C26" s="175"/>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="176"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="162"/>
-      <c r="L26" s="162"/>
-      <c r="M26" s="162"/>
-      <c r="N26" s="162"/>
-      <c r="O26" s="162"/>
-      <c r="P26" s="162"/>
-      <c r="Q26" s="162"/>
-      <c r="R26" s="162"/>
-      <c r="S26" s="162"/>
-      <c r="T26" s="162"/>
-      <c r="U26" s="162"/>
-      <c r="V26" s="162"/>
-      <c r="W26" s="162"/>
-      <c r="X26" s="162"/>
-      <c r="Y26" s="162"/>
-      <c r="Z26" s="162"/>
-      <c r="AA26" s="162"/>
-    </row>
-    <row r="27" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="162"/>
-      <c r="B27" s="113" t="s">
+      <c r="F21" s="166"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="163"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="159"/>
+      <c r="L21" s="159"/>
+      <c r="M21" s="159"/>
+      <c r="N21" s="159"/>
+      <c r="O21" s="159"/>
+      <c r="P21" s="159"/>
+      <c r="Q21" s="159"/>
+      <c r="R21" s="159"/>
+      <c r="S21" s="159"/>
+      <c r="T21" s="159"/>
+      <c r="U21" s="159"/>
+      <c r="V21" s="159"/>
+      <c r="W21" s="159"/>
+      <c r="X21" s="159"/>
+      <c r="Y21" s="159"/>
+      <c r="Z21" s="159"/>
+      <c r="AA21" s="159"/>
+    </row>
+    <row r="22" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="159"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="230"/>
+      <c r="D22" s="230"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="163"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="159"/>
+      <c r="L22" s="159"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="159"/>
+      <c r="O22" s="159"/>
+      <c r="P22" s="159"/>
+      <c r="Q22" s="159"/>
+      <c r="R22" s="159"/>
+      <c r="S22" s="159"/>
+      <c r="T22" s="159"/>
+      <c r="U22" s="159"/>
+      <c r="V22" s="159"/>
+      <c r="W22" s="159"/>
+      <c r="X22" s="159"/>
+      <c r="Y22" s="159"/>
+      <c r="Z22" s="159"/>
+      <c r="AA22" s="159"/>
+    </row>
+    <row r="23" spans="1:27" s="164" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="159"/>
+      <c r="B23" s="168"/>
+      <c r="C23" s="169"/>
+      <c r="D23" s="169"/>
+      <c r="E23" s="169"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="170"/>
+      <c r="H23" s="163"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
+      <c r="L23" s="159"/>
+      <c r="M23" s="159"/>
+      <c r="N23" s="159"/>
+      <c r="O23" s="159"/>
+      <c r="P23" s="159"/>
+      <c r="Q23" s="159"/>
+      <c r="R23" s="159"/>
+      <c r="S23" s="159"/>
+      <c r="T23" s="159"/>
+      <c r="U23" s="159"/>
+      <c r="V23" s="159"/>
+      <c r="W23" s="159"/>
+      <c r="X23" s="159"/>
+      <c r="Y23" s="159"/>
+      <c r="Z23" s="159"/>
+      <c r="AA23" s="159"/>
+    </row>
+    <row r="24" spans="1:27" s="159" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:27" s="159" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="159"/>
+      <c r="B26" s="171"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="173"/>
+      <c r="H26" s="163"/>
+      <c r="I26" s="159"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="159"/>
+      <c r="L26" s="159"/>
+      <c r="M26" s="159"/>
+      <c r="N26" s="159"/>
+      <c r="O26" s="159"/>
+      <c r="P26" s="159"/>
+      <c r="Q26" s="159"/>
+      <c r="R26" s="159"/>
+      <c r="S26" s="159"/>
+      <c r="T26" s="159"/>
+      <c r="U26" s="159"/>
+      <c r="V26" s="159"/>
+      <c r="W26" s="159"/>
+      <c r="X26" s="159"/>
+      <c r="Y26" s="159"/>
+      <c r="Z26" s="159"/>
+      <c r="AA26" s="159"/>
+    </row>
+    <row r="27" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="159"/>
+      <c r="B27" s="110" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="177"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="162"/>
-      <c r="J27" s="162"/>
-      <c r="K27" s="162"/>
-      <c r="L27" s="162"/>
-      <c r="M27" s="162"/>
-      <c r="N27" s="162"/>
-      <c r="O27" s="162"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="162"/>
-      <c r="R27" s="162"/>
-      <c r="S27" s="162"/>
-      <c r="T27" s="162"/>
-      <c r="U27" s="162"/>
-      <c r="V27" s="162"/>
-      <c r="W27" s="162"/>
-      <c r="X27" s="162"/>
-      <c r="Y27" s="162"/>
-      <c r="Z27" s="162"/>
-      <c r="AA27" s="162"/>
-    </row>
-    <row r="28" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="162"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="166"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="162"/>
-      <c r="K28" s="162"/>
-      <c r="L28" s="162"/>
-      <c r="M28" s="162"/>
-      <c r="N28" s="162"/>
-      <c r="O28" s="162"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="162"/>
-      <c r="S28" s="162"/>
-      <c r="T28" s="162"/>
-      <c r="U28" s="162"/>
-      <c r="V28" s="162"/>
-      <c r="W28" s="162"/>
-      <c r="X28" s="162"/>
-      <c r="Y28" s="162"/>
-      <c r="Z28" s="162"/>
-      <c r="AA28" s="162"/>
-    </row>
-    <row r="29" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="162"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="114" t="s">
+      <c r="C27" s="111"/>
+      <c r="D27" s="111"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="163"/>
+      <c r="I27" s="159"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="159"/>
+      <c r="M27" s="159"/>
+      <c r="N27" s="159"/>
+      <c r="O27" s="159"/>
+      <c r="P27" s="159"/>
+      <c r="Q27" s="159"/>
+      <c r="R27" s="159"/>
+      <c r="S27" s="159"/>
+      <c r="T27" s="159"/>
+      <c r="U27" s="159"/>
+      <c r="V27" s="159"/>
+      <c r="W27" s="159"/>
+      <c r="X27" s="159"/>
+      <c r="Y27" s="159"/>
+      <c r="Z27" s="159"/>
+      <c r="AA27" s="159"/>
+    </row>
+    <row r="28" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="159"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="174"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="159"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="159"/>
+      <c r="L28" s="159"/>
+      <c r="M28" s="159"/>
+      <c r="N28" s="159"/>
+      <c r="O28" s="159"/>
+      <c r="P28" s="159"/>
+      <c r="Q28" s="159"/>
+      <c r="R28" s="159"/>
+      <c r="S28" s="159"/>
+      <c r="T28" s="159"/>
+      <c r="U28" s="159"/>
+      <c r="V28" s="159"/>
+      <c r="W28" s="159"/>
+      <c r="X28" s="159"/>
+      <c r="Y28" s="159"/>
+      <c r="Z28" s="159"/>
+      <c r="AA28" s="159"/>
+    </row>
+    <row r="29" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="159"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="162"/>
-      <c r="L29" s="162"/>
-      <c r="M29" s="162"/>
-      <c r="N29" s="162"/>
-      <c r="O29" s="162"/>
-      <c r="P29" s="162"/>
-      <c r="Q29" s="162"/>
-      <c r="R29" s="162"/>
-      <c r="S29" s="162"/>
-      <c r="T29" s="162"/>
-      <c r="U29" s="162"/>
-      <c r="V29" s="162"/>
-      <c r="W29" s="162"/>
-      <c r="X29" s="162"/>
-      <c r="Y29" s="162"/>
-      <c r="Z29" s="162"/>
-      <c r="AA29" s="162"/>
-    </row>
-    <row r="30" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="162"/>
-      <c r="B30" s="113"/>
-      <c r="C30" s="114" t="s">
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="174"/>
+      <c r="H29" s="163"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="159"/>
+      <c r="L29" s="159"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="159"/>
+      <c r="O29" s="159"/>
+      <c r="P29" s="159"/>
+      <c r="Q29" s="159"/>
+      <c r="R29" s="159"/>
+      <c r="S29" s="159"/>
+      <c r="T29" s="159"/>
+      <c r="U29" s="159"/>
+      <c r="V29" s="159"/>
+      <c r="W29" s="159"/>
+      <c r="X29" s="159"/>
+      <c r="Y29" s="159"/>
+      <c r="Z29" s="159"/>
+      <c r="AA29" s="159"/>
+    </row>
+    <row r="30" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="159"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="162"/>
-      <c r="J30" s="162"/>
-      <c r="K30" s="162"/>
-      <c r="L30" s="162"/>
-      <c r="M30" s="162"/>
-      <c r="N30" s="162"/>
-      <c r="O30" s="162"/>
-      <c r="P30" s="162"/>
-      <c r="Q30" s="162"/>
-      <c r="R30" s="162"/>
-      <c r="S30" s="162"/>
-      <c r="T30" s="162"/>
-      <c r="U30" s="162"/>
-      <c r="V30" s="162"/>
-      <c r="W30" s="162"/>
-      <c r="X30" s="162"/>
-      <c r="Y30" s="162"/>
-      <c r="Z30" s="162"/>
-      <c r="AA30" s="162"/>
-    </row>
-    <row r="31" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="162"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="114" t="s">
+      <c r="D30" s="111"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="174"/>
+      <c r="H30" s="163"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="159"/>
+      <c r="L30" s="159"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="159"/>
+      <c r="O30" s="159"/>
+      <c r="P30" s="159"/>
+      <c r="Q30" s="159"/>
+      <c r="R30" s="159"/>
+      <c r="S30" s="159"/>
+      <c r="T30" s="159"/>
+      <c r="U30" s="159"/>
+      <c r="V30" s="159"/>
+      <c r="W30" s="159"/>
+      <c r="X30" s="159"/>
+      <c r="Y30" s="159"/>
+      <c r="Z30" s="159"/>
+      <c r="AA30" s="159"/>
+    </row>
+    <row r="31" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="159"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="162"/>
-      <c r="J31" s="162"/>
-      <c r="K31" s="162"/>
-      <c r="L31" s="162"/>
-      <c r="M31" s="162"/>
-      <c r="N31" s="162"/>
-      <c r="O31" s="162"/>
-      <c r="P31" s="162"/>
-      <c r="Q31" s="162"/>
-      <c r="R31" s="162"/>
-      <c r="S31" s="162"/>
-      <c r="T31" s="162"/>
-      <c r="U31" s="162"/>
-      <c r="V31" s="162"/>
-      <c r="W31" s="162"/>
-      <c r="X31" s="162"/>
-      <c r="Y31" s="162"/>
-      <c r="Z31" s="162"/>
-      <c r="AA31" s="162"/>
-    </row>
-    <row r="32" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="162"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="114" t="s">
+      <c r="D31" s="111"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="174"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="159"/>
+      <c r="L31" s="159"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="159"/>
+      <c r="O31" s="159"/>
+      <c r="P31" s="159"/>
+      <c r="Q31" s="159"/>
+      <c r="R31" s="159"/>
+      <c r="S31" s="159"/>
+      <c r="T31" s="159"/>
+      <c r="U31" s="159"/>
+      <c r="V31" s="159"/>
+      <c r="W31" s="159"/>
+      <c r="X31" s="159"/>
+      <c r="Y31" s="159"/>
+      <c r="Z31" s="159"/>
+      <c r="AA31" s="159"/>
+    </row>
+    <row r="32" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="159"/>
+      <c r="B32" s="110"/>
+      <c r="C32" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="177"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="162"/>
-      <c r="J32" s="162"/>
-      <c r="K32" s="162"/>
-      <c r="L32" s="162"/>
-      <c r="M32" s="162"/>
-      <c r="N32" s="162"/>
-      <c r="O32" s="162"/>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="162"/>
-      <c r="R32" s="162"/>
-      <c r="S32" s="162"/>
-      <c r="T32" s="162"/>
-      <c r="U32" s="162"/>
-      <c r="V32" s="162"/>
-      <c r="W32" s="162"/>
-      <c r="X32" s="162"/>
-      <c r="Y32" s="162"/>
-      <c r="Z32" s="162"/>
-      <c r="AA32" s="162"/>
-    </row>
-    <row r="33" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="162"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="114" t="s">
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="163"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="159"/>
+      <c r="L32" s="159"/>
+      <c r="M32" s="159"/>
+      <c r="N32" s="159"/>
+      <c r="O32" s="159"/>
+      <c r="P32" s="159"/>
+      <c r="Q32" s="159"/>
+      <c r="R32" s="159"/>
+      <c r="S32" s="159"/>
+      <c r="T32" s="159"/>
+      <c r="U32" s="159"/>
+      <c r="V32" s="159"/>
+      <c r="W32" s="159"/>
+      <c r="X32" s="159"/>
+      <c r="Y32" s="159"/>
+      <c r="Z32" s="159"/>
+      <c r="AA32" s="159"/>
+    </row>
+    <row r="33" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="159"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="114"/>
-      <c r="E33" s="114"/>
-      <c r="F33" s="114"/>
-      <c r="G33" s="177"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="162"/>
-      <c r="J33" s="162"/>
-      <c r="K33" s="162"/>
-      <c r="L33" s="162"/>
-      <c r="M33" s="162"/>
-      <c r="N33" s="162"/>
-      <c r="O33" s="162"/>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="162"/>
-      <c r="R33" s="162"/>
-      <c r="S33" s="162"/>
-      <c r="T33" s="162"/>
-      <c r="U33" s="162"/>
-      <c r="V33" s="162"/>
-      <c r="W33" s="162"/>
-      <c r="X33" s="162"/>
-      <c r="Y33" s="162"/>
-      <c r="Z33" s="162"/>
-      <c r="AA33" s="162"/>
-    </row>
-    <row r="34" spans="1:27" s="167" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="162"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="162"/>
-      <c r="L34" s="162"/>
-      <c r="M34" s="162"/>
-      <c r="N34" s="162"/>
-      <c r="O34" s="162"/>
-      <c r="P34" s="162"/>
-      <c r="Q34" s="162"/>
-      <c r="R34" s="162"/>
-      <c r="S34" s="162"/>
-      <c r="T34" s="162"/>
-      <c r="U34" s="162"/>
-      <c r="V34" s="162"/>
-      <c r="W34" s="162"/>
-      <c r="X34" s="162"/>
-      <c r="Y34" s="162"/>
-      <c r="Z34" s="162"/>
-      <c r="AA34" s="162"/>
-    </row>
-    <row r="35" spans="1:27" s="167" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="162"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="166"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="162"/>
-      <c r="K35" s="162"/>
-      <c r="L35" s="162"/>
-      <c r="M35" s="162"/>
-      <c r="N35" s="162"/>
-      <c r="O35" s="162"/>
-      <c r="P35" s="162"/>
-      <c r="Q35" s="162"/>
-      <c r="R35" s="162"/>
-      <c r="S35" s="162"/>
-      <c r="T35" s="162"/>
-      <c r="U35" s="162"/>
-      <c r="V35" s="162"/>
-      <c r="W35" s="162"/>
-      <c r="X35" s="162"/>
-      <c r="Y35" s="162"/>
-      <c r="Z35" s="162"/>
-      <c r="AA35" s="162"/>
-    </row>
-    <row r="36" spans="1:27" s="162" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="163"/>
+      <c r="I33" s="159"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="159"/>
+      <c r="L33" s="159"/>
+      <c r="M33" s="159"/>
+      <c r="N33" s="159"/>
+      <c r="O33" s="159"/>
+      <c r="P33" s="159"/>
+      <c r="Q33" s="159"/>
+      <c r="R33" s="159"/>
+      <c r="S33" s="159"/>
+      <c r="T33" s="159"/>
+      <c r="U33" s="159"/>
+      <c r="V33" s="159"/>
+      <c r="W33" s="159"/>
+      <c r="X33" s="159"/>
+      <c r="Y33" s="159"/>
+      <c r="Z33" s="159"/>
+      <c r="AA33" s="159"/>
+    </row>
+    <row r="34" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="159"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="174"/>
+      <c r="H34" s="163"/>
+      <c r="I34" s="159"/>
+      <c r="J34" s="159"/>
+      <c r="K34" s="159"/>
+      <c r="L34" s="159"/>
+      <c r="M34" s="159"/>
+      <c r="N34" s="159"/>
+      <c r="O34" s="159"/>
+      <c r="P34" s="159"/>
+      <c r="Q34" s="159"/>
+      <c r="R34" s="159"/>
+      <c r="S34" s="159"/>
+      <c r="T34" s="159"/>
+      <c r="U34" s="159"/>
+      <c r="V34" s="159"/>
+      <c r="W34" s="159"/>
+      <c r="X34" s="159"/>
+      <c r="Y34" s="159"/>
+      <c r="Z34" s="159"/>
+      <c r="AA34" s="159"/>
+    </row>
+    <row r="35" spans="1:27" s="164" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="159"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="163"/>
+      <c r="I35" s="159"/>
+      <c r="J35" s="159"/>
+      <c r="K35" s="159"/>
+      <c r="L35" s="159"/>
+      <c r="M35" s="159"/>
+      <c r="N35" s="159"/>
+      <c r="O35" s="159"/>
+      <c r="P35" s="159"/>
+      <c r="Q35" s="159"/>
+      <c r="R35" s="159"/>
+      <c r="S35" s="159"/>
+      <c r="T35" s="159"/>
+      <c r="U35" s="159"/>
+      <c r="V35" s="159"/>
+      <c r="W35" s="159"/>
+      <c r="X35" s="159"/>
+      <c r="Y35" s="159"/>
+      <c r="Z35" s="159"/>
+      <c r="AA35" s="159"/>
+    </row>
+    <row r="36" spans="1:27" s="159" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:27" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="159"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+    </row>
+    <row r="38" spans="1:27" s="179" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="159"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="172"/>
+      <c r="D38" s="172"/>
+      <c r="E38" s="172"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="173"/>
+      <c r="H38" s="163"/>
+    </row>
+    <row r="39" spans="1:27" s="179" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="159"/>
+      <c r="B39" s="110" t="s">
+        <v>443</v>
+      </c>
+      <c r="C39" s="225" t="s">
+        <v>431</v>
+      </c>
+      <c r="D39" s="226"/>
+      <c r="E39" s="111"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="174"/>
+      <c r="H39" s="163"/>
+    </row>
+    <row r="40" spans="1:27" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="159"/>
+      <c r="B40" s="175"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="176"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="163"/>
+    </row>
+    <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="159"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A42" s="159"/>
+      <c r="B42" s="171" t="s">
+        <v>432</v>
+      </c>
+      <c r="C42" s="194" t="s">
+        <v>433</v>
+      </c>
+      <c r="D42" s="172"/>
+      <c r="E42" s="172"/>
+      <c r="F42" s="172"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="163"/>
+    </row>
+    <row r="43" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="159"/>
+      <c r="B43" s="110" t="s">
+        <v>429</v>
+      </c>
+      <c r="C43" s="225" t="s">
+        <v>430</v>
+      </c>
+      <c r="D43" s="226"/>
+      <c r="E43" s="111"/>
+      <c r="F43" s="111"/>
+      <c r="G43" s="174"/>
+      <c r="H43" s="163"/>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" s="159"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="174"/>
+      <c r="H44" s="163"/>
+    </row>
+    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="159"/>
+      <c r="B45" s="175"/>
+      <c r="C45" s="176"/>
+      <c r="D45" s="176"/>
+      <c r="E45" s="176"/>
+      <c r="F45" s="176"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="163"/>
+    </row>
+    <row r="46" spans="1:27" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="159"/>
+      <c r="B46" s="159"/>
+      <c r="C46" s="159"/>
+      <c r="D46" s="159"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="159"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="159"/>
+    </row>
+    <row r="47" spans="1:27" s="179" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="159"/>
+      <c r="B47" s="227" t="s">
+        <v>434</v>
+      </c>
+      <c r="C47" s="228"/>
+      <c r="D47" s="172"/>
+      <c r="E47" s="172"/>
+      <c r="F47" s="172"/>
+      <c r="G47" s="173"/>
+      <c r="H47" s="163"/>
+    </row>
+    <row r="48" spans="1:27" s="179" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="159"/>
+      <c r="B48" s="110" t="s">
+        <v>435</v>
+      </c>
+      <c r="C48" s="225" t="s">
+        <v>437</v>
+      </c>
+      <c r="D48" s="226"/>
+      <c r="E48" s="229" t="s">
+        <v>438</v>
+      </c>
+      <c r="F48" s="226"/>
+      <c r="G48" s="174"/>
+      <c r="H48" s="163"/>
+    </row>
+    <row r="49" spans="1:8" s="179" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="159"/>
+      <c r="B49" s="110" t="s">
+        <v>436</v>
+      </c>
+      <c r="C49" s="225" t="s">
+        <v>439</v>
+      </c>
+      <c r="D49" s="226"/>
+      <c r="E49" s="229" t="s">
+        <v>440</v>
+      </c>
+      <c r="F49" s="226"/>
+      <c r="G49" s="174"/>
+      <c r="H49" s="163"/>
+    </row>
+    <row r="50" spans="1:8" s="179" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="159"/>
+      <c r="B50" s="112" t="s">
+        <v>417</v>
+      </c>
+      <c r="C50" s="225" t="s">
+        <v>442</v>
+      </c>
+      <c r="D50" s="226"/>
+      <c r="E50" s="196"/>
+      <c r="F50" s="195"/>
+      <c r="G50" s="197"/>
+      <c r="H50" s="163"/>
+    </row>
+    <row r="51" spans="1:8" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="159"/>
+      <c r="B51" s="175"/>
+      <c r="C51" s="176"/>
+      <c r="D51" s="176"/>
+      <c r="E51" s="176"/>
+      <c r="F51" s="176"/>
+      <c r="G51" s="177"/>
+      <c r="H51" s="163"/>
+    </row>
+    <row r="52" spans="1:8" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="159"/>
+      <c r="B52" s="159"/>
+      <c r="C52" s="159"/>
+      <c r="D52" s="159"/>
+      <c r="E52" s="159"/>
+      <c r="F52" s="159"/>
+      <c r="G52" s="159"/>
+      <c r="H52" s="159"/>
+    </row>
+    <row r="53" spans="1:8" s="179" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="159"/>
+      <c r="B53" s="227" t="s">
+        <v>441</v>
+      </c>
+      <c r="C53" s="228"/>
+      <c r="D53" s="172"/>
+      <c r="E53" s="172"/>
+      <c r="F53" s="172"/>
+      <c r="G53" s="173"/>
+      <c r="H53" s="163"/>
+    </row>
+    <row r="54" spans="1:8" s="179" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="159"/>
+      <c r="B54" s="110" t="s">
+        <v>417</v>
+      </c>
+      <c r="C54" s="225" t="s">
+        <v>445</v>
+      </c>
+      <c r="D54" s="226"/>
+      <c r="E54" s="229"/>
+      <c r="F54" s="226"/>
+      <c r="G54" s="174"/>
+      <c r="H54" s="163"/>
+    </row>
+    <row r="55" spans="1:8" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="159"/>
+      <c r="B55" s="175"/>
+      <c r="C55" s="176"/>
+      <c r="D55" s="176"/>
+      <c r="E55" s="176"/>
+      <c r="F55" s="176"/>
+      <c r="G55" s="177"/>
+      <c r="H55" s="163"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="15">
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C48:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7588,808 +9074,808 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="68" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" style="68" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="68" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="68"/>
+    <col min="1" max="1" width="3.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="65" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="65" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="65" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B2" s="76"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
     </row>
     <row r="3" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B3" s="71"/>
-      <c r="C3" s="47" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="72"/>
+      <c r="E3" s="69"/>
     </row>
     <row r="4" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B4" s="71"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="49" t="s">
+      <c r="D4" s="47" t="s">
         <v>321</v>
       </c>
-      <c r="E4" s="72"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B5" s="71"/>
-      <c r="C5" s="49" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="49" t="s">
+      <c r="D5" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="E5" s="72"/>
+      <c r="E5" s="69"/>
     </row>
     <row r="6" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="79"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="81"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
     </row>
     <row r="7" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="8" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B8" s="76"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="75"/>
     </row>
     <row r="9" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B9" s="82"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="83"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B10" s="82"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="84" t="s">
+      <c r="D10" s="81" t="s">
         <v>309</v>
       </c>
-      <c r="E10" s="83"/>
+      <c r="E10" s="80"/>
     </row>
     <row r="11" spans="2:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="82"/>
-      <c r="C11" s="84" t="s">
+      <c r="B11" s="79"/>
+      <c r="C11" s="81" t="s">
         <v>310</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="81" t="s">
         <v>311</v>
       </c>
-      <c r="E11" s="83"/>
+      <c r="E11" s="80"/>
     </row>
     <row r="12" spans="2:5" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="78"/>
     </row>
     <row r="14" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
     </row>
     <row r="16" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B16" s="82"/>
-      <c r="C16" s="47" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="45" t="s">
         <v>313</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="80"/>
     </row>
     <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="82"/>
-      <c r="C17" s="84" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="81" t="s">
         <v>314</v>
       </c>
-      <c r="D17" s="84" t="s">
+      <c r="D17" s="81" t="s">
         <v>315</v>
       </c>
-      <c r="E17" s="83"/>
+      <c r="E17" s="80"/>
     </row>
     <row r="18" spans="2:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="82"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="81" t="s">
         <v>316</v>
       </c>
-      <c r="D18" s="84" t="s">
+      <c r="D18" s="81" t="s">
         <v>317</v>
       </c>
-      <c r="E18" s="83"/>
+      <c r="E18" s="80"/>
     </row>
     <row r="19" spans="2:5" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="78"/>
     </row>
     <row r="20" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B21" s="76"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
+      <c r="B21" s="73"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="75"/>
     </row>
     <row r="22" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B22" s="51"/>
-      <c r="C22" s="47" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="48" t="s">
+      <c r="D22" s="46" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B23" s="71"/>
-      <c r="C23" s="49" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="47" t="s">
         <v>207</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="69" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B24" s="71"/>
-      <c r="C24" s="49" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="D24" s="72" t="s">
+      <c r="D24" s="69" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="25" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B25" s="71"/>
-      <c r="C25" s="49" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="D25" s="72" t="s">
+      <c r="D25" s="69" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="26" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B26" s="71"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="72"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="69"/>
     </row>
     <row r="27" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B27" s="71"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="72"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="69"/>
     </row>
     <row r="28" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="49" t="s">
+      <c r="C28" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="D28" s="72" t="s">
+      <c r="D28" s="69" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="29" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="73" t="s">
+      <c r="C29" s="70" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="72" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="30" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="71" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="D30" s="75" t="s">
+      <c r="D30" s="72" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="31" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="81"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="78"/>
     </row>
     <row r="32" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
+      <c r="B33" s="73"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="75"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="71"/>
-      <c r="C34" s="47" t="s">
+      <c r="B34" s="68"/>
+      <c r="C34" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="45" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="71"/>
-      <c r="C35" s="49" t="s">
+      <c r="B35" s="68"/>
+      <c r="C35" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="D35" s="72"/>
+      <c r="D35" s="69"/>
     </row>
     <row r="36" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="71"/>
-      <c r="C36" s="49" t="s">
+      <c r="B36" s="68"/>
+      <c r="C36" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="69" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="71"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="72"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="69"/>
     </row>
     <row r="38" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="81"/>
+      <c r="B38" s="76"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="78"/>
     </row>
     <row r="41" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="76"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="78"/>
+      <c r="B42" s="73"/>
+      <c r="C42" s="74"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="71"/>
-      <c r="C43" s="47" t="s">
+      <c r="B43" s="68"/>
+      <c r="C43" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="F43" s="72"/>
+      <c r="F43" s="69"/>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="71"/>
-      <c r="C44" s="49" t="s">
+      <c r="B44" s="68"/>
+      <c r="C44" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="D44" s="47" t="s">
         <v>279</v>
       </c>
-      <c r="E44" s="49"/>
-      <c r="F44" s="72"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="69"/>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="85"/>
-      <c r="C45" s="50" t="s">
+      <c r="B45" s="82"/>
+      <c r="C45" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="48" t="s">
         <v>281</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="86"/>
+      <c r="E45" s="48"/>
+      <c r="F45" s="83"/>
     </row>
     <row r="46" spans="2:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="85"/>
-      <c r="C46" s="50" t="s">
+      <c r="B46" s="82"/>
+      <c r="C46" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="86"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="83"/>
     </row>
     <row r="47" spans="2:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="85"/>
-      <c r="C47" s="53" t="s">
+      <c r="B47" s="82"/>
+      <c r="C47" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="86"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="83"/>
     </row>
     <row r="48" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="79"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="81"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="78"/>
     </row>
     <row r="49" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="76"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="78"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="74"/>
+      <c r="F50" s="75"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="71"/>
-      <c r="C51" s="47" t="s">
+      <c r="B51" s="68"/>
+      <c r="C51" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="47" t="s">
+      <c r="E51" s="45" t="s">
         <v>278</v>
       </c>
-      <c r="F51" s="72"/>
+      <c r="F51" s="69"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="72"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="69"/>
     </row>
     <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" s="71" t="s">
+      <c r="B53" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C53" s="49" t="s">
+      <c r="C53" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="72"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="69"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="49" t="s">
+      <c r="C54" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="72"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="69"/>
     </row>
     <row r="55" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="71" t="s">
+      <c r="B55" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="49" t="s">
+      <c r="C55" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="49"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="72"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="69"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="71" t="s">
+      <c r="B56" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="49" t="s">
+      <c r="C56" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="72"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="69"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="71" t="s">
+      <c r="B57" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D57" s="49" t="s">
+      <c r="D57" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="49"/>
-      <c r="F57" s="72"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="69"/>
     </row>
     <row r="58" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="49" t="s">
+      <c r="C58" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="72"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="69"/>
     </row>
     <row r="59" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B59" s="85" t="s">
+      <c r="B59" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="C59" s="50" t="s">
+      <c r="C59" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="50"/>
-      <c r="F59" s="86"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="83"/>
     </row>
     <row r="60" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="85" t="s">
+      <c r="B60" s="82" t="s">
         <v>163</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="86"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="83"/>
     </row>
     <row r="61" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="79"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="81"/>
+      <c r="B61" s="76"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="78"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="55"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="52"/>
     </row>
     <row r="64" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="54" t="s">
+      <c r="A64" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="D64" s="56" t="s">
+      <c r="D64" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="E64" s="68" t="s">
+      <c r="E64" s="65" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="54" t="s">
+      <c r="A65" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57" t="s">
+      <c r="B65" s="54"/>
+      <c r="C65" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="D65" s="57" t="s">
+      <c r="D65" s="54" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="s">
+      <c r="A66" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57" t="s">
+      <c r="B66" s="54"/>
+      <c r="C66" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="D66" s="57" t="s">
+      <c r="D66" s="54" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="54" t="s">
+      <c r="A67" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57" t="s">
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="54" t="s">
+      <c r="A68" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
     </row>
     <row r="69" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57" t="s">
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="54" t="s">
+      <c r="A70" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-    </row>
-    <row r="71" spans="1:4" s="64" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="69"/>
-      <c r="B71" s="70"/>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+    </row>
+    <row r="71" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="66"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
     </row>
     <row r="72" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="54" t="s">
+      <c r="A72" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B72" s="56" t="s">
+      <c r="B72" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="C72" s="56" t="s">
+      <c r="C72" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="56" t="s">
+      <c r="D72" s="53" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="54" t="s">
+      <c r="A73" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57" t="s">
+      <c r="B73" s="54"/>
+      <c r="C73" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="D73" s="68" t="s">
+      <c r="D73" s="65" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="54" t="s">
+      <c r="A74" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57" t="s">
+      <c r="B74" s="54"/>
+      <c r="C74" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="54" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="54" t="s">
+      <c r="A75" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57" t="s">
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="51" t="s">
         <v>318</v>
       </c>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="54"/>
+      <c r="D76" s="54"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="54" t="s">
+      <c r="A78" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="B78" s="58" t="s">
+      <c r="B78" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="C78" s="58" t="s">
+      <c r="C78" s="55" t="s">
         <v>252</v>
       </c>
-      <c r="D78" s="58" t="s">
+      <c r="D78" s="55" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="54" t="s">
+      <c r="A79" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="B79" s="57" t="s">
+      <c r="B79" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="C79" s="57" t="s">
+      <c r="C79" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="D79" s="57" t="s">
+      <c r="D79" s="54" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="54" t="s">
+      <c r="A80" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="B80" s="57" t="s">
+      <c r="B80" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
     </row>
     <row r="81" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="54" t="s">
+      <c r="A81" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="B81" s="57" t="s">
+      <c r="B81" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="C81" s="57" t="s">
+      <c r="C81" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="D81" s="59" t="s">
+      <c r="D81" s="56" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="54" t="s">
+      <c r="A84" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="B84" s="60" t="s">
+      <c r="B84" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="C84" s="60" t="s">
+      <c r="C84" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="60" t="s">
+      <c r="D84" s="57" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="54" t="s">
+      <c r="A85" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="B85" s="57"/>
-      <c r="C85" s="59" t="s">
+      <c r="B85" s="54"/>
+      <c r="C85" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="59" t="s">
+      <c r="D85" s="56" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="54" t="s">
+      <c r="A86" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="B86" s="57"/>
-      <c r="C86" s="57" t="s">
+      <c r="B86" s="54"/>
+      <c r="C86" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="D86" s="57" t="s">
+      <c r="D86" s="54" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="54"/>
-      <c r="B87" s="57"/>
-      <c r="C87" s="57" t="s">
+      <c r="A87" s="51"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="D87" s="57" t="s">
+      <c r="D87" s="54" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="54" t="s">
+      <c r="A88" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="B88" s="57"/>
-      <c r="C88" s="57" t="s">
+      <c r="B88" s="54"/>
+      <c r="C88" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="D88" s="57" t="s">
+      <c r="D88" s="54" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="54" t="s">
+      <c r="A89" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57" t="s">
+      <c r="B89" s="54"/>
+      <c r="C89" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="D89" s="57" t="s">
+      <c r="D89" s="54" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="54" t="s">
+      <c r="A92" s="51" t="s">
         <v>268</v>
       </c>
-      <c r="B92" s="61"/>
-      <c r="C92" s="62" t="s">
+      <c r="B92" s="58"/>
+      <c r="C92" s="59" t="s">
         <v>269</v>
       </c>
-      <c r="D92" s="63" t="s">
+      <c r="D92" s="60" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="54"/>
-      <c r="B93" s="64"/>
-      <c r="C93" s="64" t="s">
+      <c r="A93" s="51"/>
+      <c r="B93" s="61"/>
+      <c r="C93" s="61" t="s">
         <v>271</v>
       </c>
-      <c r="D93" s="65" t="s">
+      <c r="D93" s="62" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="54"/>
-      <c r="B94" s="64"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="65" t="s">
+      <c r="A94" s="51"/>
+      <c r="B94" s="61"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="62" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="54"/>
-      <c r="B95" s="64"/>
-      <c r="C95" s="64" t="s">
+      <c r="A95" s="51"/>
+      <c r="B95" s="61"/>
+      <c r="C95" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="D95" s="65" t="s">
+      <c r="D95" s="62" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="54"/>
-      <c r="B96" s="64"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="65"/>
+      <c r="A96" s="51"/>
+      <c r="B96" s="61"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="62"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="54"/>
-      <c r="B97" s="64"/>
-      <c r="C97" s="64"/>
-      <c r="D97" s="65"/>
+      <c r="A97" s="51"/>
+      <c r="B97" s="61"/>
+      <c r="C97" s="61"/>
+      <c r="D97" s="62"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="54"/>
-      <c r="B98" s="64"/>
-      <c r="C98" s="64"/>
-      <c r="D98" s="65"/>
+      <c r="A98" s="51"/>
+      <c r="B98" s="61"/>
+      <c r="C98" s="61"/>
+      <c r="D98" s="62"/>
     </row>
     <row r="99" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="54"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="67"/>
+      <c r="A99" s="51"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="64"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="54"/>
+      <c r="A100" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8403,7 +9889,7 @@
   <dimension ref="C3:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8426,124 +9912,197 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G15"/>
+  <dimension ref="A2:H20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" customWidth="1"/>
-    <col min="7" max="7" width="49.140625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="179" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="179"/>
+    <col min="3" max="3" width="36.42578125" style="179" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" style="179" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="179" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" style="179" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" style="179" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="179"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" s="52" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="C3" s="200" t="s">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="187"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
+      <c r="E3" s="188"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="188"/>
+      <c r="H3" s="189"/>
+    </row>
+    <row r="4" spans="1:8" s="180" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="182"/>
+      <c r="C4" s="235" t="s">
         <v>220</v>
       </c>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="52" t="s">
+      <c r="D4" s="235"/>
+      <c r="E4" s="235" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" s="52" customFormat="1" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
+      <c r="F4" s="235"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="183"/>
+    </row>
+    <row r="5" spans="1:8" s="180" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="182" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="200" t="s">
+      <c r="C5" s="234" t="s">
         <v>223</v>
       </c>
-      <c r="D4" s="200"/>
-      <c r="E4" s="200"/>
-      <c r="F4" s="52" t="s">
+      <c r="D5" s="234"/>
+      <c r="E5" s="234" t="s">
         <v>224</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="F5" s="234"/>
+      <c r="G5" s="70" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="6" spans="2:7" s="52" customFormat="1" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="H5" s="183"/>
+    </row>
+    <row r="6" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="190"/>
+      <c r="C6" s="233" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="233"/>
+      <c r="E6" s="233" t="s">
+        <v>422</v>
+      </c>
+      <c r="F6" s="233"/>
+      <c r="G6" s="184" t="s">
+        <v>428</v>
+      </c>
+      <c r="H6" s="191"/>
+    </row>
+    <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="179" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="190"/>
+      <c r="C7" s="233" t="s">
+        <v>425</v>
+      </c>
+      <c r="D7" s="233"/>
+      <c r="E7" s="236" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" s="233"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="191"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="190"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="184"/>
+      <c r="E8" s="184"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="191"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="192"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="185"/>
+      <c r="F9" s="185"/>
+      <c r="G9" s="185"/>
+      <c r="H9" s="193"/>
+    </row>
+    <row r="11" spans="1:8" s="180" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="180" t="s">
         <v>226</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C11" s="180" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="52" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="B9" s="52" t="s">
+    <row r="14" spans="1:8" s="180" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="180" t="s">
         <v>228</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C14" s="180" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="52" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
+    <row r="15" spans="1:8" s="180" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="180" t="s">
         <v>230</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C15" s="180" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" spans="2:7" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:7" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
+    <row r="16" spans="1:8" s="181" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="186"/>
+    </row>
+    <row r="17" spans="2:7" s="181" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:7" s="181" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B18" s="181" t="s">
         <v>382</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D18" s="181" t="s">
         <v>112</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E18" s="181" t="s">
         <v>110</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F18" s="181" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="2:7" s="2" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
+    <row r="19" spans="2:7" s="181" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="181" t="s">
         <v>382</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C19" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D19" s="181" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E19" s="181" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F19" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="201"/>
-    </row>
-    <row r="15" spans="2:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
+      <c r="G19" s="232"/>
+    </row>
+    <row r="20" spans="2:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="181" t="s">
         <v>382</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="201"/>
+      <c r="C20" s="181"/>
+      <c r="D20" s="181"/>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181"/>
+      <c r="G20" s="232"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G14:G15"/>
+  <mergeCells count="9">
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/System_Design_Architecture.xlsx
+++ b/System_Design_Architecture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="475">
   <si>
     <t>Scalability</t>
   </si>
@@ -2054,6 +2054,111 @@
   </si>
   <si>
     <t>-- Messaging</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Bank collects transactions data and store it. Scheduler runs and process the data at some time as a batch job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batch job is widely accepted solutions to huge transactions;
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pros:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Correctness; Scalable; No data loss, can restart if requires;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Cons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Latency is big drawback</t>
+    </r>
+  </si>
+  <si>
+    <t>Streaming Process</t>
+  </si>
+  <si>
+    <t>Batch Process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Live; Overcome Latency issue of Batch process;
+</t>
+  </si>
+  <si>
+    <t>Processes data live immediately as it arrives;  
+incremental processing;
+scalability
+fault tolerance.</t>
+  </si>
+  <si>
+    <t>-- Fraud; pattern matching; Monitoring
+-- Analytics
+-- Event-Driven</t>
+  </si>
+  <si>
+    <t>Processes offline, adds Latency</t>
+  </si>
+  <si>
+    <t>Live; Immediately as it arrives</t>
+  </si>
+  <si>
+    <t>Bounded / Un-Bounded</t>
+  </si>
+  <si>
+    <t>Latency / Live</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infinite; Continuous data; Un-Bounded;
+</t>
+  </si>
+  <si>
+    <t>Finite; Forces data to be isolated; if data crosses border then lost its correctness; 
+Ex: Analysis on browser usage; misses the usage of user's longer hours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Website usage; Temperature; Current user count; </t>
+  </si>
+  <si>
+    <t>-- Bank Transactions;</t>
+  </si>
+  <si>
+    <t>Realtime Applications</t>
   </si>
 </sst>
 </file>
@@ -2201,7 +2306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="76">
+  <borders count="87">
     <border>
       <left/>
       <right/>
@@ -3216,12 +3321,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3373,9 +3621,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3418,9 +3663,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3460,500 +3702,572 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4470,13 +4784,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3147060</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>2240280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4538,13 +4852,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3246120</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>3550920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4728,13 +5042,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2811780</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1312436</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4781,13 +5095,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>897732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4834,13 +5148,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2788920</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>1313818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5189,8 +5503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5260,7 +5574,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>71</v>
       </c>
@@ -5271,7 +5585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="2:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
@@ -5282,7 +5596,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
@@ -5290,7 +5604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
@@ -5298,7 +5612,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
@@ -5306,7 +5620,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
@@ -5396,130 +5710,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="178"/>
-    <col min="2" max="2" width="11.85546875" style="178" customWidth="1"/>
-    <col min="3" max="3" width="83" style="178" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" style="178" customWidth="1"/>
-    <col min="5" max="5" width="68.5703125" style="178" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="178"/>
+    <col min="1" max="1" width="8.85546875" style="174"/>
+    <col min="2" max="2" width="11.85546875" style="174" customWidth="1"/>
+    <col min="3" max="3" width="83" style="174" customWidth="1"/>
+    <col min="4" max="4" width="55.7109375" style="174" customWidth="1"/>
+    <col min="5" max="5" width="68.5703125" style="174" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="174"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="178" t="s">
+      <c r="B3" s="174" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="178" t="s">
+      <c r="C3" s="174" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="178" t="s">
+      <c r="B6" s="174" t="s">
         <v>393</v>
       </c>
-      <c r="C6" s="178" t="s">
+      <c r="C6" s="174" t="s">
         <v>399</v>
       </c>
-      <c r="D6" s="178" t="s">
+      <c r="D6" s="174" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="174" t="s">
         <v>397</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="83" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="178" t="s">
+      <c r="B8" s="174" t="s">
         <v>400</v>
       </c>
-      <c r="C8" s="178" t="s">
+      <c r="C8" s="174" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="178" t="s">
+      <c r="B11" s="174" t="s">
         <v>402</v>
       </c>
-      <c r="C11" s="178" t="s">
+      <c r="C11" s="174" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="178" t="s">
+      <c r="B12" s="174" t="s">
         <v>403</v>
       </c>
-      <c r="C12" s="178" t="s">
+      <c r="C12" s="174" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="178" t="s">
+      <c r="A14" s="174" t="s">
         <v>414</v>
       </c>
-      <c r="B14" s="178" t="s">
+      <c r="B14" s="174" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="178" t="s">
+      <c r="B15" s="174" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="178" t="s">
+      <c r="B16" s="174" t="s">
         <v>411</v>
       </c>
-      <c r="C16" s="178" t="s">
+      <c r="C16" s="174" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="178" t="s">
+      <c r="A17" s="174" t="s">
         <v>414</v>
       </c>
-      <c r="B17" s="178" t="s">
+      <c r="B17" s="174" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="178" t="s">
+      <c r="A18" s="174" t="s">
         <v>414</v>
       </c>
-      <c r="B18" s="178" t="s">
+      <c r="B18" s="174" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="178" t="s">
+      <c r="B19" s="174" t="s">
         <v>416</v>
       </c>
-      <c r="C19" s="178" t="s">
+      <c r="C19" s="174" t="s">
         <v>418</v>
       </c>
-      <c r="D19" s="178" t="s">
+      <c r="D19" s="174" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B20" s="178" t="s">
+      <c r="B20" s="174" t="s">
         <v>417</v>
       </c>
-      <c r="C20" s="178" t="s">
+      <c r="C20" s="174" t="s">
         <v>418</v>
       </c>
-      <c r="D20" s="178" t="s">
+      <c r="D20" s="174" t="s">
         <v>420</v>
       </c>
-      <c r="E20" s="178" t="s">
+      <c r="E20" s="174" t="s">
         <v>421</v>
       </c>
     </row>
@@ -5538,86 +5852,86 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="84"/>
-    <col min="2" max="2" width="14.85546875" style="84" customWidth="1"/>
-    <col min="3" max="3" width="36" style="84" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="84" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="84" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="84" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="84" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="84" customWidth="1"/>
-    <col min="9" max="16384" width="10.85546875" style="84"/>
+    <col min="1" max="1" width="10.85546875" style="80"/>
+    <col min="2" max="2" width="14.85546875" style="80" customWidth="1"/>
+    <col min="3" max="3" width="36" style="80" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="80" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" style="80" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="80" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" style="80" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" style="80" customWidth="1"/>
+    <col min="9" max="16384" width="10.85546875" style="80"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>325</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="80" t="s">
         <v>336</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="D4" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="80" t="s">
         <v>338</v>
       </c>
-      <c r="F4" s="84" t="s">
+      <c r="F4" s="80" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="80" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="C6" s="87" t="s">
+      <c r="C6" s="83" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="B11" s="84" t="s">
+      <c r="B11" s="80" t="s">
         <v>341</v>
       </c>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="80" t="s">
         <v>344</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="80" t="s">
         <v>346</v>
       </c>
-      <c r="F11" s="84" t="s">
+      <c r="F11" s="80" t="s">
         <v>348</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="H11" s="84" t="s">
+      <c r="H11" s="80" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="80" t="s">
         <v>342</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="83" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="60" x14ac:dyDescent="0.2">
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="80" t="s">
         <v>351</v>
       </c>
-      <c r="F14" s="84" t="s">
+      <c r="F14" s="80" t="s">
         <v>352</v>
       </c>
-      <c r="G14" s="84" t="s">
+      <c r="G14" s="80" t="s">
         <v>353</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="80" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5652,37 +5966,37 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="81" t="s">
         <v>324</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="81" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="82" t="s">
         <v>327</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="82" t="s">
         <v>328</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="81" t="s">
         <v>329</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="82" t="s">
         <v>332</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="82" t="s">
         <v>333</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="82" t="s">
         <v>334</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="81" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
     </row>
     <row r="5" spans="2:14" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
@@ -5691,10 +6005,10 @@
       <c r="C5" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="80" t="s">
         <v>326</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="80" t="s">
         <v>330</v>
       </c>
       <c r="F5" s="14" t="s">
@@ -5710,8 +6024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:G57"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -5793,17 +6107,17 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" ht="12" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="60" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:5" ht="60" x14ac:dyDescent="0.2">
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
@@ -5811,7 +6125,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="1" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" s="1" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
@@ -5819,7 +6133,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
@@ -5827,7 +6141,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="1" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" s="1" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="1" t="s">
         <v>59</v>
       </c>
@@ -5835,7 +6149,18 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
@@ -5843,7 +6168,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
@@ -5854,7 +6179,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
@@ -5865,7 +6190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
@@ -6006,8 +6331,8 @@
       <c r="D51" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E51" s="209"/>
-      <c r="F51" s="210"/>
+      <c r="E51" s="229"/>
+      <c r="F51" s="230"/>
       <c r="G51" s="9"/>
     </row>
     <row r="52" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -6020,8 +6345,8 @@
       <c r="D52" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="211"/>
-      <c r="F52" s="212"/>
+      <c r="E52" s="231"/>
+      <c r="F52" s="232"/>
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -6034,8 +6359,8 @@
       <c r="D53" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="211"/>
-      <c r="F53" s="212"/>
+      <c r="E53" s="231"/>
+      <c r="F53" s="232"/>
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
@@ -6048,8 +6373,8 @@
       <c r="D54" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E54" s="211"/>
-      <c r="F54" s="212"/>
+      <c r="E54" s="231"/>
+      <c r="F54" s="232"/>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
@@ -6062,8 +6387,8 @@
       <c r="D55" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="211"/>
-      <c r="F55" s="212"/>
+      <c r="E55" s="231"/>
+      <c r="F55" s="232"/>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
@@ -6076,8 +6401,8 @@
       <c r="D56" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="213"/>
-      <c r="F56" s="214"/>
+      <c r="E56" s="233"/>
+      <c r="F56" s="234"/>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
@@ -6108,1222 +6433,1222 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="88" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="88" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="88" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="88" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="88"/>
+    <col min="1" max="1" width="3.28515625" style="84" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="84" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" style="84" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="84" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="84" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="84"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="84" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="91"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="87"/>
     </row>
     <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="88" t="s">
         <v>297</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="89" t="s">
         <v>298</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="91"/>
     </row>
     <row r="7" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="96"/>
-      <c r="C7" s="97" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="93" t="s">
         <v>299</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="89" t="s">
         <v>301</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="95"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="91"/>
     </row>
     <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="98"/>
-      <c r="C8" s="99" t="s">
+      <c r="B8" s="94"/>
+      <c r="C8" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="D8" s="100" t="s">
+      <c r="D8" s="96" t="s">
         <v>302</v>
       </c>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="98"/>
-      <c r="C9" s="99" t="s">
+      <c r="B9" s="94"/>
+      <c r="C9" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="D9" s="101" t="s">
+      <c r="D9" s="97" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="102"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="98"/>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B10" s="98"/>
-      <c r="C10" s="99" t="s">
+      <c r="B10" s="94"/>
+      <c r="C10" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="102"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="98"/>
-      <c r="C11" s="99" t="s">
+      <c r="B11" s="94"/>
+      <c r="C11" s="95" t="s">
         <v>300</v>
       </c>
-      <c r="D11" s="101" t="s">
+      <c r="D11" s="97" t="s">
         <v>304</v>
       </c>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="102"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="98"/>
     </row>
     <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="103"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="105"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="101"/>
     </row>
     <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="88" t="s">
+      <c r="A15" s="84" t="s">
         <v>305</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="88" t="s">
         <v>306</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="C15" s="90" t="s">
         <v>296</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
     </row>
     <row r="16" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="103"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="105"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="101"/>
     </row>
     <row r="17" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="106"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="107" t="s">
+      <c r="B19" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="109"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="105"/>
     </row>
     <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="103"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="104"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="105"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="101"/>
     </row>
     <row r="21" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="87"/>
     </row>
     <row r="23" spans="2:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="106" t="s">
         <v>378</v>
       </c>
-      <c r="C23" s="111" t="s">
+      <c r="C23" s="107" t="s">
         <v>359</v>
       </c>
-      <c r="D23" s="94" t="s">
+      <c r="D23" s="90" t="s">
         <v>360</v>
       </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="95"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
     </row>
     <row r="24" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="112"/>
-      <c r="C24" s="113" t="s">
+      <c r="B24" s="108"/>
+      <c r="C24" s="109" t="s">
         <v>361</v>
       </c>
-      <c r="D24" s="100" t="s">
+      <c r="D24" s="96" t="s">
         <v>379</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="97" t="s">
         <v>364</v>
       </c>
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="112"/>
-      <c r="C25" s="113" t="s">
+      <c r="B25" s="108"/>
+      <c r="C25" s="109" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="97" t="s">
         <v>365</v>
       </c>
-      <c r="E25" s="101" t="s">
+      <c r="E25" s="97" t="s">
         <v>366</v>
       </c>
-      <c r="F25" s="101"/>
-      <c r="G25" s="102"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="98"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="112"/>
-      <c r="C26" s="113" t="s">
+      <c r="B26" s="108"/>
+      <c r="C26" s="109" t="s">
         <v>362</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="97" t="s">
         <v>363</v>
       </c>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="102"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="98"/>
     </row>
     <row r="27" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="103"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="105"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="101"/>
     </row>
     <row r="28" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="106"/>
-      <c r="C28" s="106"/>
-      <c r="D28" s="106"/>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="106"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="102"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="87"/>
     </row>
     <row r="30" spans="2:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="103" t="s">
         <v>367</v>
       </c>
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="110" t="s">
         <v>368</v>
       </c>
-      <c r="D30" s="108" t="s">
+      <c r="D30" s="104" t="s">
         <v>371</v>
       </c>
-      <c r="E30" s="108"/>
-      <c r="F30" s="108"/>
-      <c r="G30" s="109"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="105"/>
     </row>
     <row r="31" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="103"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="105"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="101"/>
     </row>
     <row r="32" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="86"/>
+      <c r="E33" s="86"/>
+      <c r="F33" s="86"/>
+      <c r="G33" s="87"/>
     </row>
     <row r="34" spans="1:27" ht="51" x14ac:dyDescent="0.25">
-      <c r="B34" s="107" t="s">
+      <c r="B34" s="103" t="s">
         <v>369</v>
       </c>
-      <c r="C34" s="114" t="s">
+      <c r="C34" s="110" t="s">
         <v>370</v>
       </c>
-      <c r="D34" s="108" t="s">
+      <c r="D34" s="104" t="s">
         <v>372</v>
       </c>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="109"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="105"/>
     </row>
     <row r="35" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="103"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="105"/>
-    </row>
-    <row r="36" spans="1:27" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="116"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="101"/>
+    </row>
+    <row r="36" spans="1:27" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="112"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
     </row>
     <row r="37" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="91"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="86"/>
+      <c r="E38" s="86"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="87"/>
     </row>
     <row r="39" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="107" t="s">
+      <c r="B39" s="103" t="s">
         <v>373</v>
       </c>
-      <c r="C39" s="114" t="s">
+      <c r="C39" s="110" t="s">
         <v>374</v>
       </c>
-      <c r="D39" s="108" t="s">
+      <c r="D39" s="104" t="s">
         <v>375</v>
       </c>
-      <c r="E39" s="108"/>
-      <c r="F39" s="108"/>
-      <c r="G39" s="109"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104"/>
+      <c r="G39" s="105"/>
     </row>
     <row r="40" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="103"/>
-      <c r="C40" s="104"/>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104"/>
-      <c r="G40" s="105"/>
+      <c r="B40" s="99"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="101"/>
     </row>
     <row r="41" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="102"/>
+      <c r="E41" s="102"/>
+      <c r="F41" s="102"/>
+      <c r="G41" s="102"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B42" s="89"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="91"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
+      <c r="E42" s="86"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="87"/>
     </row>
     <row r="43" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B43" s="107" t="s">
+      <c r="B43" s="103" t="s">
         <v>376</v>
       </c>
-      <c r="C43" s="114" t="s">
+      <c r="C43" s="110" t="s">
         <v>377</v>
       </c>
-      <c r="D43" s="108"/>
-      <c r="E43" s="108"/>
-      <c r="F43" s="108"/>
-      <c r="G43" s="109"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="105"/>
     </row>
     <row r="44" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="103"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="105"/>
-    </row>
-    <row r="45" spans="1:27" s="115" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="116"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="116"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="116"/>
-      <c r="G45" s="116"/>
-    </row>
-    <row r="46" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="117"/>
-      <c r="B46" s="118"/>
-      <c r="C46" s="119"/>
-      <c r="D46" s="119"/>
-      <c r="E46" s="119"/>
-      <c r="F46" s="119"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="121"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="115"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="115"/>
-      <c r="N46" s="115"/>
-      <c r="O46" s="115"/>
-      <c r="P46" s="115"/>
-      <c r="Q46" s="115"/>
-      <c r="R46" s="115"/>
-      <c r="S46" s="115"/>
-      <c r="T46" s="115"/>
-      <c r="U46" s="115"/>
-      <c r="V46" s="115"/>
-      <c r="W46" s="115"/>
-      <c r="X46" s="115"/>
-      <c r="Y46" s="115"/>
-      <c r="Z46" s="115"/>
-      <c r="AA46" s="115"/>
-    </row>
-    <row r="47" spans="1:27" s="122" customFormat="1" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="117"/>
-      <c r="B47" s="123" t="s">
+      <c r="B44" s="99"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="101"/>
+    </row>
+    <row r="45" spans="1:27" s="111" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="112"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+    </row>
+    <row r="46" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="113"/>
+      <c r="B46" s="114"/>
+      <c r="C46" s="115"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="111"/>
+      <c r="P46" s="111"/>
+      <c r="Q46" s="111"/>
+      <c r="R46" s="111"/>
+      <c r="S46" s="111"/>
+      <c r="T46" s="111"/>
+      <c r="U46" s="111"/>
+      <c r="V46" s="111"/>
+      <c r="W46" s="111"/>
+      <c r="X46" s="111"/>
+      <c r="Y46" s="111"/>
+      <c r="Z46" s="111"/>
+      <c r="AA46" s="111"/>
+    </row>
+    <row r="47" spans="1:27" s="118" customFormat="1" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="113"/>
+      <c r="B47" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="215" t="s">
+      <c r="C47" s="235" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="216"/>
-      <c r="E47" s="215"/>
-      <c r="F47" s="216"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="121"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="115"/>
-      <c r="O47" s="115"/>
-      <c r="P47" s="115"/>
-      <c r="Q47" s="115"/>
-      <c r="R47" s="115"/>
-      <c r="S47" s="115"/>
-      <c r="T47" s="115"/>
-      <c r="U47" s="115"/>
-      <c r="V47" s="115"/>
-      <c r="W47" s="115"/>
-      <c r="X47" s="115"/>
-      <c r="Y47" s="115"/>
-      <c r="Z47" s="115"/>
-      <c r="AA47" s="115"/>
-    </row>
-    <row r="48" spans="1:27" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="117"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="126"/>
-      <c r="D48" s="126"/>
-      <c r="E48" s="126"/>
-      <c r="F48" s="126"/>
-      <c r="G48" s="127"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="115"/>
-      <c r="J48" s="115"/>
-      <c r="K48" s="115"/>
-      <c r="L48" s="115"/>
-      <c r="M48" s="115"/>
-      <c r="N48" s="115"/>
-      <c r="O48" s="115"/>
-      <c r="P48" s="115"/>
-      <c r="Q48" s="115"/>
-      <c r="R48" s="115"/>
-      <c r="S48" s="115"/>
-      <c r="T48" s="115"/>
-      <c r="U48" s="115"/>
-      <c r="V48" s="115"/>
-      <c r="W48" s="115"/>
-      <c r="X48" s="115"/>
-      <c r="Y48" s="115"/>
-      <c r="Z48" s="115"/>
-      <c r="AA48" s="115"/>
-    </row>
-    <row r="49" spans="1:27" s="117" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:27" s="117" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="115"/>
-      <c r="B51" s="128"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
-      <c r="E51" s="129"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="130"/>
-      <c r="H51" s="121"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="115"/>
-      <c r="K51" s="115"/>
-      <c r="L51" s="115"/>
-      <c r="M51" s="115"/>
-      <c r="N51" s="115"/>
-      <c r="O51" s="115"/>
-      <c r="P51" s="115"/>
-      <c r="Q51" s="115"/>
-      <c r="R51" s="115"/>
-      <c r="S51" s="115"/>
-      <c r="T51" s="115"/>
-      <c r="U51" s="115"/>
-      <c r="V51" s="115"/>
-      <c r="W51" s="115"/>
-      <c r="X51" s="115"/>
-      <c r="Y51" s="115"/>
-      <c r="Z51" s="115"/>
-      <c r="AA51" s="115"/>
-    </row>
-    <row r="52" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="115"/>
-      <c r="B52" s="131" t="s">
+      <c r="D47" s="236"/>
+      <c r="E47" s="235"/>
+      <c r="F47" s="236"/>
+      <c r="G47" s="120"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="111"/>
+      <c r="P47" s="111"/>
+      <c r="Q47" s="111"/>
+      <c r="R47" s="111"/>
+      <c r="S47" s="111"/>
+      <c r="T47" s="111"/>
+      <c r="U47" s="111"/>
+      <c r="V47" s="111"/>
+      <c r="W47" s="111"/>
+      <c r="X47" s="111"/>
+      <c r="Y47" s="111"/>
+      <c r="Z47" s="111"/>
+      <c r="AA47" s="111"/>
+    </row>
+    <row r="48" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="113"/>
+      <c r="B48" s="121"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="111"/>
+      <c r="M48" s="111"/>
+      <c r="N48" s="111"/>
+      <c r="O48" s="111"/>
+      <c r="P48" s="111"/>
+      <c r="Q48" s="111"/>
+      <c r="R48" s="111"/>
+      <c r="S48" s="111"/>
+      <c r="T48" s="111"/>
+      <c r="U48" s="111"/>
+      <c r="V48" s="111"/>
+      <c r="W48" s="111"/>
+      <c r="X48" s="111"/>
+      <c r="Y48" s="111"/>
+      <c r="Z48" s="111"/>
+      <c r="AA48" s="111"/>
+    </row>
+    <row r="49" spans="1:27" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:27" s="113" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="111"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="126"/>
+      <c r="H51" s="117"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="111"/>
+      <c r="P51" s="111"/>
+      <c r="Q51" s="111"/>
+      <c r="R51" s="111"/>
+      <c r="S51" s="111"/>
+      <c r="T51" s="111"/>
+      <c r="U51" s="111"/>
+      <c r="V51" s="111"/>
+      <c r="W51" s="111"/>
+      <c r="X51" s="111"/>
+      <c r="Y51" s="111"/>
+      <c r="Z51" s="111"/>
+      <c r="AA51" s="111"/>
+    </row>
+    <row r="52" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="111"/>
+      <c r="B52" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="217" t="s">
+      <c r="C52" s="237" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="217"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="121"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="115"/>
-      <c r="L52" s="115"/>
-      <c r="M52" s="115"/>
-      <c r="N52" s="115"/>
-      <c r="O52" s="115"/>
-      <c r="P52" s="115"/>
-      <c r="Q52" s="115"/>
-      <c r="R52" s="115"/>
-      <c r="S52" s="115"/>
-      <c r="T52" s="115"/>
-      <c r="U52" s="115"/>
-      <c r="V52" s="115"/>
-      <c r="W52" s="115"/>
-      <c r="X52" s="115"/>
-      <c r="Y52" s="115"/>
-      <c r="Z52" s="115"/>
-      <c r="AA52" s="115"/>
-    </row>
-    <row r="53" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="115"/>
-      <c r="B53" s="131"/>
-      <c r="C53" s="132" t="s">
+      <c r="D52" s="237"/>
+      <c r="E52" s="128"/>
+      <c r="F52" s="128"/>
+      <c r="G52" s="129"/>
+      <c r="H52" s="117"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="111"/>
+      <c r="P52" s="111"/>
+      <c r="Q52" s="111"/>
+      <c r="R52" s="111"/>
+      <c r="S52" s="111"/>
+      <c r="T52" s="111"/>
+      <c r="U52" s="111"/>
+      <c r="V52" s="111"/>
+      <c r="W52" s="111"/>
+      <c r="X52" s="111"/>
+      <c r="Y52" s="111"/>
+      <c r="Z52" s="111"/>
+      <c r="AA52" s="111"/>
+    </row>
+    <row r="53" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="111"/>
+      <c r="B53" s="127"/>
+      <c r="C53" s="128" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="132" t="s">
+      <c r="D53" s="128" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="132"/>
-      <c r="F53" s="132"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="121"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="115"/>
-      <c r="L53" s="115"/>
-      <c r="M53" s="115"/>
-      <c r="N53" s="115"/>
-      <c r="O53" s="115"/>
-      <c r="P53" s="115"/>
-      <c r="Q53" s="115"/>
-      <c r="R53" s="115"/>
-      <c r="S53" s="115"/>
-      <c r="T53" s="115"/>
-      <c r="U53" s="115"/>
-      <c r="V53" s="115"/>
-      <c r="W53" s="115"/>
-      <c r="X53" s="115"/>
-      <c r="Y53" s="115"/>
-      <c r="Z53" s="115"/>
-      <c r="AA53" s="115"/>
-    </row>
-    <row r="54" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="115"/>
-      <c r="B54" s="131"/>
-      <c r="C54" s="132" t="s">
+      <c r="E53" s="128"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="129"/>
+      <c r="H53" s="117"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="111"/>
+      <c r="K53" s="111"/>
+      <c r="L53" s="111"/>
+      <c r="M53" s="111"/>
+      <c r="N53" s="111"/>
+      <c r="O53" s="111"/>
+      <c r="P53" s="111"/>
+      <c r="Q53" s="111"/>
+      <c r="R53" s="111"/>
+      <c r="S53" s="111"/>
+      <c r="T53" s="111"/>
+      <c r="U53" s="111"/>
+      <c r="V53" s="111"/>
+      <c r="W53" s="111"/>
+      <c r="X53" s="111"/>
+      <c r="Y53" s="111"/>
+      <c r="Z53" s="111"/>
+      <c r="AA53" s="111"/>
+    </row>
+    <row r="54" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="111"/>
+      <c r="B54" s="127"/>
+      <c r="C54" s="128" t="s">
         <v>145</v>
       </c>
-      <c r="D54" s="132" t="s">
+      <c r="D54" s="128" t="s">
         <v>151</v>
       </c>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="121"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="115"/>
-      <c r="L54" s="115"/>
-      <c r="M54" s="115"/>
-      <c r="N54" s="115"/>
-      <c r="O54" s="115"/>
-      <c r="P54" s="115"/>
-      <c r="Q54" s="115"/>
-      <c r="R54" s="115"/>
-      <c r="S54" s="115"/>
-      <c r="T54" s="115"/>
-      <c r="U54" s="115"/>
-      <c r="V54" s="115"/>
-      <c r="W54" s="115"/>
-      <c r="X54" s="115"/>
-      <c r="Y54" s="115"/>
-      <c r="Z54" s="115"/>
-      <c r="AA54" s="115"/>
-    </row>
-    <row r="55" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="115"/>
-      <c r="B55" s="131"/>
-      <c r="C55" s="132" t="s">
+      <c r="E54" s="128"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="111"/>
+      <c r="N54" s="111"/>
+      <c r="O54" s="111"/>
+      <c r="P54" s="111"/>
+      <c r="Q54" s="111"/>
+      <c r="R54" s="111"/>
+      <c r="S54" s="111"/>
+      <c r="T54" s="111"/>
+      <c r="U54" s="111"/>
+      <c r="V54" s="111"/>
+      <c r="W54" s="111"/>
+      <c r="X54" s="111"/>
+      <c r="Y54" s="111"/>
+      <c r="Z54" s="111"/>
+      <c r="AA54" s="111"/>
+    </row>
+    <row r="55" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="111"/>
+      <c r="B55" s="127"/>
+      <c r="C55" s="128" t="s">
         <v>146</v>
       </c>
-      <c r="D55" s="132" t="s">
+      <c r="D55" s="128" t="s">
         <v>152</v>
       </c>
-      <c r="E55" s="132"/>
-      <c r="F55" s="132"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="121"/>
-      <c r="I55" s="115"/>
-      <c r="J55" s="115"/>
-      <c r="K55" s="115"/>
-      <c r="L55" s="115"/>
-      <c r="M55" s="115"/>
-      <c r="N55" s="115"/>
-      <c r="O55" s="115"/>
-      <c r="P55" s="115"/>
-      <c r="Q55" s="115"/>
-      <c r="R55" s="115"/>
-      <c r="S55" s="115"/>
-      <c r="T55" s="115"/>
-      <c r="U55" s="115"/>
-      <c r="V55" s="115"/>
-      <c r="W55" s="115"/>
-      <c r="X55" s="115"/>
-      <c r="Y55" s="115"/>
-      <c r="Z55" s="115"/>
-      <c r="AA55" s="115"/>
-    </row>
-    <row r="56" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="115"/>
-      <c r="B56" s="134"/>
-      <c r="C56" s="132" t="s">
+      <c r="E55" s="128"/>
+      <c r="F55" s="128"/>
+      <c r="G55" s="129"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="111"/>
+      <c r="J55" s="111"/>
+      <c r="K55" s="111"/>
+      <c r="L55" s="111"/>
+      <c r="M55" s="111"/>
+      <c r="N55" s="111"/>
+      <c r="O55" s="111"/>
+      <c r="P55" s="111"/>
+      <c r="Q55" s="111"/>
+      <c r="R55" s="111"/>
+      <c r="S55" s="111"/>
+      <c r="T55" s="111"/>
+      <c r="U55" s="111"/>
+      <c r="V55" s="111"/>
+      <c r="W55" s="111"/>
+      <c r="X55" s="111"/>
+      <c r="Y55" s="111"/>
+      <c r="Z55" s="111"/>
+      <c r="AA55" s="111"/>
+    </row>
+    <row r="56" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="111"/>
+      <c r="B56" s="130"/>
+      <c r="C56" s="128" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="135" t="s">
+      <c r="D56" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="E56" s="135"/>
-      <c r="F56" s="135"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="121"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="115"/>
-      <c r="K56" s="115"/>
-      <c r="L56" s="115"/>
-      <c r="M56" s="115"/>
-      <c r="N56" s="115"/>
-      <c r="O56" s="115"/>
-      <c r="P56" s="115"/>
-      <c r="Q56" s="115"/>
-      <c r="R56" s="115"/>
-      <c r="S56" s="115"/>
-      <c r="T56" s="115"/>
-      <c r="U56" s="115"/>
-      <c r="V56" s="115"/>
-      <c r="W56" s="115"/>
-      <c r="X56" s="115"/>
-      <c r="Y56" s="115"/>
-      <c r="Z56" s="115"/>
-      <c r="AA56" s="115"/>
-    </row>
-    <row r="57" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="115"/>
-      <c r="B57" s="134"/>
-      <c r="C57" s="135" t="s">
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="132"/>
+      <c r="H56" s="117"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="111"/>
+      <c r="K56" s="111"/>
+      <c r="L56" s="111"/>
+      <c r="M56" s="111"/>
+      <c r="N56" s="111"/>
+      <c r="O56" s="111"/>
+      <c r="P56" s="111"/>
+      <c r="Q56" s="111"/>
+      <c r="R56" s="111"/>
+      <c r="S56" s="111"/>
+      <c r="T56" s="111"/>
+      <c r="U56" s="111"/>
+      <c r="V56" s="111"/>
+      <c r="W56" s="111"/>
+      <c r="X56" s="111"/>
+      <c r="Y56" s="111"/>
+      <c r="Z56" s="111"/>
+      <c r="AA56" s="111"/>
+    </row>
+    <row r="57" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="111"/>
+      <c r="B57" s="130"/>
+      <c r="C57" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="D57" s="135" t="s">
+      <c r="D57" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="E57" s="135"/>
-      <c r="F57" s="135"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="121"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="115"/>
-      <c r="K57" s="115"/>
-      <c r="L57" s="115"/>
-      <c r="M57" s="115"/>
-      <c r="N57" s="115"/>
-      <c r="O57" s="115"/>
-      <c r="P57" s="115"/>
-      <c r="Q57" s="115"/>
-      <c r="R57" s="115"/>
-      <c r="S57" s="115"/>
-      <c r="T57" s="115"/>
-      <c r="U57" s="115"/>
-      <c r="V57" s="115"/>
-      <c r="W57" s="115"/>
-      <c r="X57" s="115"/>
-      <c r="Y57" s="115"/>
-      <c r="Z57" s="115"/>
-      <c r="AA57" s="115"/>
-    </row>
-    <row r="58" spans="1:27" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="115"/>
-      <c r="B58" s="137"/>
-      <c r="C58" s="138"/>
-      <c r="D58" s="138"/>
-      <c r="E58" s="138"/>
-      <c r="F58" s="138"/>
-      <c r="G58" s="139"/>
-      <c r="H58" s="121"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="115"/>
-      <c r="K58" s="115"/>
-      <c r="L58" s="115"/>
-      <c r="M58" s="115"/>
-      <c r="N58" s="115"/>
-      <c r="O58" s="115"/>
-      <c r="P58" s="115"/>
-      <c r="Q58" s="115"/>
-      <c r="R58" s="115"/>
-      <c r="S58" s="115"/>
-      <c r="T58" s="115"/>
-      <c r="U58" s="115"/>
-      <c r="V58" s="115"/>
-      <c r="W58" s="115"/>
-      <c r="X58" s="115"/>
-      <c r="Y58" s="115"/>
-      <c r="Z58" s="115"/>
-      <c r="AA58" s="115"/>
-    </row>
-    <row r="59" spans="1:27" s="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:27" s="115" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="115"/>
-      <c r="B61" s="128"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="129"/>
-      <c r="G61" s="130"/>
-      <c r="H61" s="121"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="115"/>
-      <c r="K61" s="115"/>
-      <c r="L61" s="115"/>
-      <c r="M61" s="115"/>
-      <c r="N61" s="115"/>
-      <c r="O61" s="115"/>
-      <c r="P61" s="115"/>
-      <c r="Q61" s="115"/>
-      <c r="R61" s="115"/>
-      <c r="S61" s="115"/>
-      <c r="T61" s="115"/>
-      <c r="U61" s="115"/>
-      <c r="V61" s="115"/>
-      <c r="W61" s="115"/>
-      <c r="X61" s="115"/>
-      <c r="Y61" s="115"/>
-      <c r="Z61" s="115"/>
-      <c r="AA61" s="115"/>
-    </row>
-    <row r="62" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="115"/>
-      <c r="B62" s="131" t="s">
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="132"/>
+      <c r="H57" s="117"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="111"/>
+      <c r="M57" s="111"/>
+      <c r="N57" s="111"/>
+      <c r="O57" s="111"/>
+      <c r="P57" s="111"/>
+      <c r="Q57" s="111"/>
+      <c r="R57" s="111"/>
+      <c r="S57" s="111"/>
+      <c r="T57" s="111"/>
+      <c r="U57" s="111"/>
+      <c r="V57" s="111"/>
+      <c r="W57" s="111"/>
+      <c r="X57" s="111"/>
+      <c r="Y57" s="111"/>
+      <c r="Z57" s="111"/>
+      <c r="AA57" s="111"/>
+    </row>
+    <row r="58" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="111"/>
+      <c r="B58" s="133"/>
+      <c r="C58" s="134"/>
+      <c r="D58" s="134"/>
+      <c r="E58" s="134"/>
+      <c r="F58" s="134"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="117"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="111"/>
+      <c r="N58" s="111"/>
+      <c r="O58" s="111"/>
+      <c r="P58" s="111"/>
+      <c r="Q58" s="111"/>
+      <c r="R58" s="111"/>
+      <c r="S58" s="111"/>
+      <c r="T58" s="111"/>
+      <c r="U58" s="111"/>
+      <c r="V58" s="111"/>
+      <c r="W58" s="111"/>
+      <c r="X58" s="111"/>
+      <c r="Y58" s="111"/>
+      <c r="Z58" s="111"/>
+      <c r="AA58" s="111"/>
+    </row>
+    <row r="59" spans="1:27" s="111" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:27" s="111" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="111"/>
+      <c r="B61" s="124"/>
+      <c r="C61" s="125"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="111"/>
+      <c r="L61" s="111"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="111"/>
+      <c r="S61" s="111"/>
+      <c r="T61" s="111"/>
+      <c r="U61" s="111"/>
+      <c r="V61" s="111"/>
+      <c r="W61" s="111"/>
+      <c r="X61" s="111"/>
+      <c r="Y61" s="111"/>
+      <c r="Z61" s="111"/>
+      <c r="AA61" s="111"/>
+    </row>
+    <row r="62" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="111"/>
+      <c r="B62" s="127" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="132"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="133"/>
-      <c r="H62" s="121"/>
-      <c r="I62" s="115"/>
-      <c r="J62" s="115"/>
-      <c r="K62" s="115"/>
-      <c r="L62" s="115"/>
-      <c r="M62" s="115"/>
-      <c r="N62" s="115"/>
-      <c r="O62" s="115"/>
-      <c r="P62" s="115"/>
-      <c r="Q62" s="115"/>
-      <c r="R62" s="115"/>
-      <c r="S62" s="115"/>
-      <c r="T62" s="115"/>
-      <c r="U62" s="115"/>
-      <c r="V62" s="115"/>
-      <c r="W62" s="115"/>
-      <c r="X62" s="115"/>
-      <c r="Y62" s="115"/>
-      <c r="Z62" s="115"/>
-      <c r="AA62" s="115"/>
-    </row>
-    <row r="63" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="115"/>
-      <c r="B63" s="131"/>
-      <c r="C63" s="140" t="s">
+      <c r="C62" s="128"/>
+      <c r="D62" s="128"/>
+      <c r="E62" s="128"/>
+      <c r="F62" s="128"/>
+      <c r="G62" s="129"/>
+      <c r="H62" s="117"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="111"/>
+      <c r="K62" s="111"/>
+      <c r="L62" s="111"/>
+      <c r="M62" s="111"/>
+      <c r="N62" s="111"/>
+      <c r="O62" s="111"/>
+      <c r="P62" s="111"/>
+      <c r="Q62" s="111"/>
+      <c r="R62" s="111"/>
+      <c r="S62" s="111"/>
+      <c r="T62" s="111"/>
+      <c r="U62" s="111"/>
+      <c r="V62" s="111"/>
+      <c r="W62" s="111"/>
+      <c r="X62" s="111"/>
+      <c r="Y62" s="111"/>
+      <c r="Z62" s="111"/>
+      <c r="AA62" s="111"/>
+    </row>
+    <row r="63" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="111"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="136" t="s">
         <v>122</v>
       </c>
-      <c r="D63" s="132" t="s">
+      <c r="D63" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="132"/>
-      <c r="F63" s="132"/>
-      <c r="G63" s="133"/>
-      <c r="H63" s="121"/>
-      <c r="I63" s="115"/>
-      <c r="J63" s="115"/>
-      <c r="K63" s="115"/>
-      <c r="L63" s="115"/>
-      <c r="M63" s="115"/>
-      <c r="N63" s="115"/>
-      <c r="O63" s="115"/>
-      <c r="P63" s="115"/>
-      <c r="Q63" s="115"/>
-      <c r="R63" s="115"/>
-      <c r="S63" s="115"/>
-      <c r="T63" s="115"/>
-      <c r="U63" s="115"/>
-      <c r="V63" s="115"/>
-      <c r="W63" s="115"/>
-      <c r="X63" s="115"/>
-      <c r="Y63" s="115"/>
-      <c r="Z63" s="115"/>
-      <c r="AA63" s="115"/>
-    </row>
-    <row r="64" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="115"/>
-      <c r="B64" s="131"/>
-      <c r="C64" s="140" t="s">
+      <c r="E63" s="128"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="129"/>
+      <c r="H63" s="117"/>
+      <c r="I63" s="111"/>
+      <c r="J63" s="111"/>
+      <c r="K63" s="111"/>
+      <c r="L63" s="111"/>
+      <c r="M63" s="111"/>
+      <c r="N63" s="111"/>
+      <c r="O63" s="111"/>
+      <c r="P63" s="111"/>
+      <c r="Q63" s="111"/>
+      <c r="R63" s="111"/>
+      <c r="S63" s="111"/>
+      <c r="T63" s="111"/>
+      <c r="U63" s="111"/>
+      <c r="V63" s="111"/>
+      <c r="W63" s="111"/>
+      <c r="X63" s="111"/>
+      <c r="Y63" s="111"/>
+      <c r="Z63" s="111"/>
+      <c r="AA63" s="111"/>
+    </row>
+    <row r="64" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="111"/>
+      <c r="B64" s="127"/>
+      <c r="C64" s="136" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="132" t="s">
+      <c r="D64" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="132"/>
-      <c r="F64" s="132"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="121"/>
-      <c r="I64" s="115"/>
-      <c r="J64" s="115"/>
-      <c r="K64" s="115"/>
-      <c r="L64" s="115"/>
-      <c r="M64" s="115"/>
-      <c r="N64" s="115"/>
-      <c r="O64" s="115"/>
-      <c r="P64" s="115"/>
-      <c r="Q64" s="115"/>
-      <c r="R64" s="115"/>
-      <c r="S64" s="115"/>
-      <c r="T64" s="115"/>
-      <c r="U64" s="115"/>
-      <c r="V64" s="115"/>
-      <c r="W64" s="115"/>
-      <c r="X64" s="115"/>
-      <c r="Y64" s="115"/>
-      <c r="Z64" s="115"/>
-      <c r="AA64" s="115"/>
-    </row>
-    <row r="65" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="115"/>
-      <c r="B65" s="131"/>
-      <c r="C65" s="140" t="s">
+      <c r="E64" s="128"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="129"/>
+      <c r="H64" s="117"/>
+      <c r="I64" s="111"/>
+      <c r="J64" s="111"/>
+      <c r="K64" s="111"/>
+      <c r="L64" s="111"/>
+      <c r="M64" s="111"/>
+      <c r="N64" s="111"/>
+      <c r="O64" s="111"/>
+      <c r="P64" s="111"/>
+      <c r="Q64" s="111"/>
+      <c r="R64" s="111"/>
+      <c r="S64" s="111"/>
+      <c r="T64" s="111"/>
+      <c r="U64" s="111"/>
+      <c r="V64" s="111"/>
+      <c r="W64" s="111"/>
+      <c r="X64" s="111"/>
+      <c r="Y64" s="111"/>
+      <c r="Z64" s="111"/>
+      <c r="AA64" s="111"/>
+    </row>
+    <row r="65" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="111"/>
+      <c r="B65" s="127"/>
+      <c r="C65" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="132" t="s">
+      <c r="D65" s="128" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="132"/>
-      <c r="F65" s="132"/>
-      <c r="G65" s="133"/>
-      <c r="H65" s="121"/>
-      <c r="I65" s="115"/>
-      <c r="J65" s="115"/>
-      <c r="K65" s="115"/>
-      <c r="L65" s="115"/>
-      <c r="M65" s="115"/>
-      <c r="N65" s="115"/>
-      <c r="O65" s="115"/>
-      <c r="P65" s="115"/>
-      <c r="Q65" s="115"/>
-      <c r="R65" s="115"/>
-      <c r="S65" s="115"/>
-      <c r="T65" s="115"/>
-      <c r="U65" s="115"/>
-      <c r="V65" s="115"/>
-      <c r="W65" s="115"/>
-      <c r="X65" s="115"/>
-      <c r="Y65" s="115"/>
-      <c r="Z65" s="115"/>
-      <c r="AA65" s="115"/>
-    </row>
-    <row r="66" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="115"/>
-      <c r="B66" s="134"/>
-      <c r="C66" s="141" t="s">
+      <c r="E65" s="128"/>
+      <c r="F65" s="128"/>
+      <c r="G65" s="129"/>
+      <c r="H65" s="117"/>
+      <c r="I65" s="111"/>
+      <c r="J65" s="111"/>
+      <c r="K65" s="111"/>
+      <c r="L65" s="111"/>
+      <c r="M65" s="111"/>
+      <c r="N65" s="111"/>
+      <c r="O65" s="111"/>
+      <c r="P65" s="111"/>
+      <c r="Q65" s="111"/>
+      <c r="R65" s="111"/>
+      <c r="S65" s="111"/>
+      <c r="T65" s="111"/>
+      <c r="U65" s="111"/>
+      <c r="V65" s="111"/>
+      <c r="W65" s="111"/>
+      <c r="X65" s="111"/>
+      <c r="Y65" s="111"/>
+      <c r="Z65" s="111"/>
+      <c r="AA65" s="111"/>
+    </row>
+    <row r="66" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="111"/>
+      <c r="B66" s="130"/>
+      <c r="C66" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="D66" s="135" t="s">
+      <c r="D66" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="E66" s="135"/>
-      <c r="F66" s="135"/>
-      <c r="G66" s="136"/>
-      <c r="H66" s="121"/>
-      <c r="I66" s="115"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="115"/>
-      <c r="L66" s="115"/>
-      <c r="M66" s="115"/>
-      <c r="N66" s="115"/>
-      <c r="O66" s="115"/>
-      <c r="P66" s="115"/>
-      <c r="Q66" s="115"/>
-      <c r="R66" s="115"/>
-      <c r="S66" s="115"/>
-      <c r="T66" s="115"/>
-      <c r="U66" s="115"/>
-      <c r="V66" s="115"/>
-      <c r="W66" s="115"/>
-      <c r="X66" s="115"/>
-      <c r="Y66" s="115"/>
-      <c r="Z66" s="115"/>
-      <c r="AA66" s="115"/>
-    </row>
-    <row r="67" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="115"/>
-      <c r="B67" s="134"/>
-      <c r="C67" s="141" t="s">
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="132"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="111"/>
+      <c r="J66" s="111"/>
+      <c r="K66" s="111"/>
+      <c r="L66" s="111"/>
+      <c r="M66" s="111"/>
+      <c r="N66" s="111"/>
+      <c r="O66" s="111"/>
+      <c r="P66" s="111"/>
+      <c r="Q66" s="111"/>
+      <c r="R66" s="111"/>
+      <c r="S66" s="111"/>
+      <c r="T66" s="111"/>
+      <c r="U66" s="111"/>
+      <c r="V66" s="111"/>
+      <c r="W66" s="111"/>
+      <c r="X66" s="111"/>
+      <c r="Y66" s="111"/>
+      <c r="Z66" s="111"/>
+      <c r="AA66" s="111"/>
+    </row>
+    <row r="67" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="111"/>
+      <c r="B67" s="130"/>
+      <c r="C67" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="D67" s="135" t="s">
+      <c r="D67" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="E67" s="135"/>
-      <c r="F67" s="135"/>
-      <c r="G67" s="136"/>
-      <c r="H67" s="121"/>
-      <c r="I67" s="115"/>
-      <c r="J67" s="115"/>
-      <c r="K67" s="115"/>
-      <c r="L67" s="115"/>
-      <c r="M67" s="115"/>
-      <c r="N67" s="115"/>
-      <c r="O67" s="115"/>
-      <c r="P67" s="115"/>
-      <c r="Q67" s="115"/>
-      <c r="R67" s="115"/>
-      <c r="S67" s="115"/>
-      <c r="T67" s="115"/>
-      <c r="U67" s="115"/>
-      <c r="V67" s="115"/>
-      <c r="W67" s="115"/>
-      <c r="X67" s="115"/>
-      <c r="Y67" s="115"/>
-      <c r="Z67" s="115"/>
-      <c r="AA67" s="115"/>
-    </row>
-    <row r="68" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="115"/>
-      <c r="B68" s="134"/>
-      <c r="C68" s="135"/>
-      <c r="D68" s="135"/>
-      <c r="E68" s="135"/>
-      <c r="F68" s="135"/>
-      <c r="G68" s="136"/>
-      <c r="H68" s="121"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="115"/>
-      <c r="K68" s="115"/>
-      <c r="L68" s="115"/>
-      <c r="M68" s="115"/>
-      <c r="N68" s="115"/>
-      <c r="O68" s="115"/>
-      <c r="P68" s="115"/>
-      <c r="Q68" s="115"/>
-      <c r="R68" s="115"/>
-      <c r="S68" s="115"/>
-      <c r="T68" s="115"/>
-      <c r="U68" s="115"/>
-      <c r="V68" s="115"/>
-      <c r="W68" s="115"/>
-      <c r="X68" s="115"/>
-      <c r="Y68" s="115"/>
-      <c r="Z68" s="115"/>
-      <c r="AA68" s="115"/>
-    </row>
-    <row r="69" spans="1:27" s="122" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="115"/>
-      <c r="B69" s="137"/>
-      <c r="C69" s="138"/>
-      <c r="D69" s="138"/>
-      <c r="E69" s="138"/>
-      <c r="F69" s="138"/>
-      <c r="G69" s="139"/>
-      <c r="H69" s="121"/>
-      <c r="I69" s="115"/>
-      <c r="J69" s="115"/>
-      <c r="K69" s="115"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="115"/>
-      <c r="N69" s="115"/>
-      <c r="O69" s="115"/>
-      <c r="P69" s="115"/>
-      <c r="Q69" s="115"/>
-      <c r="R69" s="115"/>
-      <c r="S69" s="115"/>
-      <c r="T69" s="115"/>
-      <c r="U69" s="115"/>
-      <c r="V69" s="115"/>
-      <c r="W69" s="115"/>
-      <c r="X69" s="115"/>
-      <c r="Y69" s="115"/>
-      <c r="Z69" s="115"/>
-      <c r="AA69" s="115"/>
-    </row>
-    <row r="70" spans="1:27" s="115" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="143"/>
-      <c r="B71" s="144"/>
-      <c r="C71" s="145"/>
-      <c r="D71" s="145"/>
-      <c r="E71" s="145"/>
-      <c r="F71" s="146"/>
-      <c r="G71" s="147"/>
-      <c r="H71" s="148"/>
-    </row>
-    <row r="72" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="143"/>
-      <c r="B72" s="149"/>
-      <c r="C72" s="150"/>
-      <c r="D72" s="150"/>
-      <c r="E72" s="150"/>
-      <c r="F72" s="151"/>
-      <c r="G72" s="152"/>
-      <c r="H72" s="148"/>
-    </row>
-    <row r="73" spans="1:27" s="142" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="143"/>
-      <c r="B73" s="149" t="s">
+      <c r="E67" s="131"/>
+      <c r="F67" s="131"/>
+      <c r="G67" s="132"/>
+      <c r="H67" s="117"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="111"/>
+      <c r="K67" s="111"/>
+      <c r="L67" s="111"/>
+      <c r="M67" s="111"/>
+      <c r="N67" s="111"/>
+      <c r="O67" s="111"/>
+      <c r="P67" s="111"/>
+      <c r="Q67" s="111"/>
+      <c r="R67" s="111"/>
+      <c r="S67" s="111"/>
+      <c r="T67" s="111"/>
+      <c r="U67" s="111"/>
+      <c r="V67" s="111"/>
+      <c r="W67" s="111"/>
+      <c r="X67" s="111"/>
+      <c r="Y67" s="111"/>
+      <c r="Z67" s="111"/>
+      <c r="AA67" s="111"/>
+    </row>
+    <row r="68" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="111"/>
+      <c r="B68" s="130"/>
+      <c r="C68" s="131"/>
+      <c r="D68" s="131"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="132"/>
+      <c r="H68" s="117"/>
+      <c r="I68" s="111"/>
+      <c r="J68" s="111"/>
+      <c r="K68" s="111"/>
+      <c r="L68" s="111"/>
+      <c r="M68" s="111"/>
+      <c r="N68" s="111"/>
+      <c r="O68" s="111"/>
+      <c r="P68" s="111"/>
+      <c r="Q68" s="111"/>
+      <c r="R68" s="111"/>
+      <c r="S68" s="111"/>
+      <c r="T68" s="111"/>
+      <c r="U68" s="111"/>
+      <c r="V68" s="111"/>
+      <c r="W68" s="111"/>
+      <c r="X68" s="111"/>
+      <c r="Y68" s="111"/>
+      <c r="Z68" s="111"/>
+      <c r="AA68" s="111"/>
+    </row>
+    <row r="69" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="111"/>
+      <c r="B69" s="133"/>
+      <c r="C69" s="134"/>
+      <c r="D69" s="134"/>
+      <c r="E69" s="134"/>
+      <c r="F69" s="134"/>
+      <c r="G69" s="135"/>
+      <c r="H69" s="117"/>
+      <c r="I69" s="111"/>
+      <c r="J69" s="111"/>
+      <c r="K69" s="111"/>
+      <c r="L69" s="111"/>
+      <c r="M69" s="111"/>
+      <c r="N69" s="111"/>
+      <c r="O69" s="111"/>
+      <c r="P69" s="111"/>
+      <c r="Q69" s="111"/>
+      <c r="R69" s="111"/>
+      <c r="S69" s="111"/>
+      <c r="T69" s="111"/>
+      <c r="U69" s="111"/>
+      <c r="V69" s="111"/>
+      <c r="W69" s="111"/>
+      <c r="X69" s="111"/>
+      <c r="Y69" s="111"/>
+      <c r="Z69" s="111"/>
+      <c r="AA69" s="111"/>
+    </row>
+    <row r="70" spans="1:27" s="111" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="139"/>
+      <c r="B71" s="140"/>
+      <c r="C71" s="141"/>
+      <c r="D71" s="141"/>
+      <c r="E71" s="141"/>
+      <c r="F71" s="142"/>
+      <c r="G71" s="143"/>
+      <c r="H71" s="144"/>
+    </row>
+    <row r="72" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="139"/>
+      <c r="B72" s="145"/>
+      <c r="C72" s="146"/>
+      <c r="D72" s="146"/>
+      <c r="E72" s="146"/>
+      <c r="F72" s="147"/>
+      <c r="G72" s="148"/>
+      <c r="H72" s="144"/>
+    </row>
+    <row r="73" spans="1:27" s="138" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="139"/>
+      <c r="B73" s="145" t="s">
         <v>186</v>
       </c>
-      <c r="C73" s="150" t="s">
+      <c r="C73" s="146" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="150" t="s">
+      <c r="D73" s="146" t="s">
         <v>184</v>
       </c>
-      <c r="E73" s="150"/>
-      <c r="F73" s="151"/>
-      <c r="G73" s="152"/>
-      <c r="H73" s="148"/>
-    </row>
-    <row r="74" spans="1:27" s="142" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A74" s="143"/>
-      <c r="B74" s="149"/>
-      <c r="C74" s="150" t="s">
+      <c r="E73" s="146"/>
+      <c r="F73" s="147"/>
+      <c r="G73" s="148"/>
+      <c r="H73" s="144"/>
+    </row>
+    <row r="74" spans="1:27" s="138" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A74" s="139"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="146" t="s">
         <v>183</v>
       </c>
-      <c r="D74" s="150" t="s">
+      <c r="D74" s="146" t="s">
         <v>182</v>
       </c>
-      <c r="E74" s="150"/>
-      <c r="F74" s="151"/>
-      <c r="G74" s="152"/>
-      <c r="H74" s="148"/>
-    </row>
-    <row r="75" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="143"/>
-      <c r="B75" s="149"/>
-      <c r="C75" s="218" t="s">
+      <c r="E74" s="146"/>
+      <c r="F74" s="147"/>
+      <c r="G74" s="148"/>
+      <c r="H74" s="144"/>
+    </row>
+    <row r="75" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="139"/>
+      <c r="B75" s="145"/>
+      <c r="C75" s="238" t="s">
         <v>181</v>
       </c>
-      <c r="D75" s="218"/>
-      <c r="E75" s="150"/>
-      <c r="F75" s="151"/>
-      <c r="G75" s="152"/>
-      <c r="H75" s="148"/>
-    </row>
-    <row r="76" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="143"/>
-      <c r="B76" s="149"/>
-      <c r="C76" s="150"/>
-      <c r="D76" s="150"/>
-      <c r="E76" s="150"/>
-      <c r="F76" s="151"/>
-      <c r="G76" s="152"/>
-      <c r="H76" s="148"/>
-    </row>
-    <row r="77" spans="1:27" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="143"/>
-      <c r="B77" s="153"/>
-      <c r="C77" s="154"/>
-      <c r="D77" s="154"/>
-      <c r="E77" s="154"/>
-      <c r="F77" s="155"/>
-      <c r="G77" s="156"/>
-      <c r="H77" s="148"/>
-    </row>
-    <row r="78" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="157"/>
-      <c r="C78" s="158"/>
-      <c r="D78" s="158"/>
-      <c r="E78" s="158"/>
-      <c r="F78" s="158"/>
-      <c r="G78" s="158"/>
-    </row>
-    <row r="79" spans="1:27" s="115" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:27" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="143"/>
-      <c r="B80" s="144"/>
-      <c r="C80" s="145"/>
-      <c r="D80" s="145"/>
-      <c r="E80" s="145"/>
-      <c r="F80" s="146"/>
-      <c r="G80" s="147"/>
-      <c r="H80" s="148"/>
-    </row>
-    <row r="81" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="143"/>
-      <c r="B81" s="149"/>
-      <c r="C81" s="150"/>
-      <c r="D81" s="150"/>
-      <c r="E81" s="150"/>
-      <c r="F81" s="151"/>
-      <c r="G81" s="152"/>
-      <c r="H81" s="148"/>
-    </row>
-    <row r="82" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="143"/>
-      <c r="B82" s="149" t="s">
+      <c r="D75" s="238"/>
+      <c r="E75" s="146"/>
+      <c r="F75" s="147"/>
+      <c r="G75" s="148"/>
+      <c r="H75" s="144"/>
+    </row>
+    <row r="76" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="139"/>
+      <c r="B76" s="145"/>
+      <c r="C76" s="146"/>
+      <c r="D76" s="146"/>
+      <c r="E76" s="146"/>
+      <c r="F76" s="147"/>
+      <c r="G76" s="148"/>
+      <c r="H76" s="144"/>
+    </row>
+    <row r="77" spans="1:27" s="138" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="139"/>
+      <c r="B77" s="149"/>
+      <c r="C77" s="150"/>
+      <c r="D77" s="150"/>
+      <c r="E77" s="150"/>
+      <c r="F77" s="151"/>
+      <c r="G77" s="152"/>
+      <c r="H77" s="144"/>
+    </row>
+    <row r="78" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="153"/>
+      <c r="C78" s="154"/>
+      <c r="D78" s="154"/>
+      <c r="E78" s="154"/>
+      <c r="F78" s="154"/>
+      <c r="G78" s="154"/>
+    </row>
+    <row r="79" spans="1:27" s="111" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="139"/>
+      <c r="B80" s="140"/>
+      <c r="C80" s="141"/>
+      <c r="D80" s="141"/>
+      <c r="E80" s="141"/>
+      <c r="F80" s="142"/>
+      <c r="G80" s="143"/>
+      <c r="H80" s="144"/>
+    </row>
+    <row r="81" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="139"/>
+      <c r="B81" s="145"/>
+      <c r="C81" s="146"/>
+      <c r="D81" s="146"/>
+      <c r="E81" s="146"/>
+      <c r="F81" s="147"/>
+      <c r="G81" s="148"/>
+      <c r="H81" s="144"/>
+    </row>
+    <row r="82" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="139"/>
+      <c r="B82" s="145" t="s">
         <v>380</v>
       </c>
-      <c r="C82" s="150"/>
-      <c r="D82" s="150"/>
-      <c r="E82" s="150"/>
-      <c r="F82" s="151"/>
-      <c r="G82" s="152"/>
-      <c r="H82" s="148"/>
-    </row>
-    <row r="83" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="143"/>
-      <c r="B83" s="149"/>
-      <c r="C83" s="150"/>
-      <c r="D83" s="150"/>
-      <c r="E83" s="150"/>
-      <c r="F83" s="151"/>
-      <c r="G83" s="152"/>
-      <c r="H83" s="148"/>
-    </row>
-    <row r="84" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="143"/>
-      <c r="B84" s="149"/>
-      <c r="C84" s="218"/>
-      <c r="D84" s="218"/>
-      <c r="E84" s="150"/>
-      <c r="F84" s="151"/>
-      <c r="G84" s="152"/>
-      <c r="H84" s="148"/>
-    </row>
-    <row r="85" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="143"/>
-      <c r="B85" s="149"/>
-      <c r="C85" s="150"/>
-      <c r="D85" s="150"/>
-      <c r="E85" s="150"/>
-      <c r="F85" s="151"/>
-      <c r="G85" s="152"/>
-      <c r="H85" s="148"/>
-    </row>
-    <row r="86" spans="1:8" s="142" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="143"/>
-      <c r="B86" s="153"/>
-      <c r="C86" s="154"/>
-      <c r="D86" s="154"/>
-      <c r="E86" s="154"/>
-      <c r="F86" s="155"/>
-      <c r="G86" s="156"/>
-      <c r="H86" s="148"/>
-    </row>
-    <row r="87" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="157"/>
-      <c r="C87" s="158"/>
-      <c r="D87" s="158"/>
-      <c r="E87" s="158"/>
-      <c r="F87" s="158"/>
-      <c r="G87" s="158"/>
+      <c r="C82" s="146"/>
+      <c r="D82" s="146"/>
+      <c r="E82" s="146"/>
+      <c r="F82" s="147"/>
+      <c r="G82" s="148"/>
+      <c r="H82" s="144"/>
+    </row>
+    <row r="83" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="139"/>
+      <c r="B83" s="145"/>
+      <c r="C83" s="146"/>
+      <c r="D83" s="146"/>
+      <c r="E83" s="146"/>
+      <c r="F83" s="147"/>
+      <c r="G83" s="148"/>
+      <c r="H83" s="144"/>
+    </row>
+    <row r="84" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="139"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="238"/>
+      <c r="D84" s="238"/>
+      <c r="E84" s="146"/>
+      <c r="F84" s="147"/>
+      <c r="G84" s="148"/>
+      <c r="H84" s="144"/>
+    </row>
+    <row r="85" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="139"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="146"/>
+      <c r="D85" s="146"/>
+      <c r="E85" s="146"/>
+      <c r="F85" s="147"/>
+      <c r="G85" s="148"/>
+      <c r="H85" s="144"/>
+    </row>
+    <row r="86" spans="1:8" s="138" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="139"/>
+      <c r="B86" s="149"/>
+      <c r="C86" s="150"/>
+      <c r="D86" s="150"/>
+      <c r="E86" s="150"/>
+      <c r="F86" s="151"/>
+      <c r="G86" s="152"/>
+      <c r="H86" s="144"/>
+    </row>
+    <row r="87" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="153"/>
+      <c r="C87" s="154"/>
+      <c r="D87" s="154"/>
+      <c r="E87" s="154"/>
+      <c r="F87" s="154"/>
+      <c r="G87" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -7422,10 +7747,10 @@
     <row r="8" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="223" t="s">
+      <c r="C8" s="243" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="223"/>
+      <c r="D8" s="243"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="31"/>
@@ -7434,10 +7759,10 @@
     <row r="9" spans="1:8" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="223" t="s">
+      <c r="C9" s="243" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="223"/>
+      <c r="D9" s="243"/>
       <c r="E9" s="33" t="s">
         <v>195</v>
       </c>
@@ -7448,10 +7773,10 @@
     <row r="10" spans="1:8" s="26" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="223" t="s">
+      <c r="C10" s="243" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="223"/>
+      <c r="D10" s="243"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="31"/>
@@ -7460,10 +7785,10 @@
     <row r="11" spans="1:8" s="26" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="223" t="s">
+      <c r="C11" s="243" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="223"/>
+      <c r="D11" s="243"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="31"/>
@@ -7474,10 +7799,10 @@
       <c r="B12" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="223" t="s">
+      <c r="C12" s="243" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="223"/>
+      <c r="D12" s="243"/>
       <c r="E12" s="33" t="s">
         <v>190</v>
       </c>
@@ -7492,10 +7817,10 @@
       <c r="B13" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="223" t="s">
+      <c r="C13" s="243" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="223"/>
+      <c r="D13" s="243"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="31"/>
@@ -7532,24 +7857,24 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="237"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
-      <c r="G17" s="200"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="238"/>
-      <c r="C18" s="239"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="239"/>
-      <c r="F18" s="239"/>
-      <c r="G18" s="239"/>
-      <c r="H18" s="239"/>
-      <c r="I18" s="239"/>
-      <c r="J18" s="239"/>
+      <c r="B18" s="207"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="208"/>
       <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -7557,13 +7882,13 @@
       <c r="B19" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="C19" s="240" t="s">
+      <c r="C19" s="209" t="s">
         <v>449</v>
       </c>
-      <c r="D19" s="241" t="s">
+      <c r="D19" s="210" t="s">
         <v>447</v>
       </c>
-      <c r="E19" s="242" t="s">
+      <c r="E19" s="211" t="s">
         <v>451</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -7584,17 +7909,17 @@
     <row r="20" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="240"/>
-      <c r="D20" s="241"/>
-      <c r="E20" s="243" t="s">
+      <c r="C20" s="209"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="212" t="s">
         <v>453</v>
       </c>
-      <c r="F20" s="244" t="s">
+      <c r="F20" s="213" t="s">
         <v>456</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="244" t="s">
+      <c r="I20" s="213" t="s">
         <v>455</v>
       </c>
       <c r="J20" s="8"/>
@@ -7640,14 +7965,14 @@
       <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="237"/>
-      <c r="C24" s="200"/>
-      <c r="D24" s="200"/>
-      <c r="E24" s="200"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="200"/>
-    </row>
-    <row r="25" spans="1:11" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="B24" s="206"/>
+      <c r="C24" s="196"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="196"/>
+      <c r="F24" s="196"/>
+      <c r="G24" s="196"/>
+    </row>
+    <row r="25" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="39"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -7655,16 +7980,16 @@
       <c r="F25" s="37"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:11" s="26" customFormat="1" ht="155.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="26" customFormat="1" ht="155.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="224" t="s">
+      <c r="C26" s="244" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="222"/>
-      <c r="E26" s="219"/>
-      <c r="F26" s="220"/>
+      <c r="D26" s="242"/>
+      <c r="E26" s="239"/>
+      <c r="F26" s="240"/>
       <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:11" s="26" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -7675,10 +8000,10 @@
       <c r="D27" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="221" t="s">
+      <c r="E27" s="241" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="222"/>
+      <c r="F27" s="242"/>
       <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -7691,8 +8016,8 @@
     </row>
     <row r="29" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="34"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="223"/>
+      <c r="C29" s="243"/>
+      <c r="D29" s="243"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
       <c r="G29" s="31"/>
@@ -7714,7 +8039,7 @@
       <c r="G31" s="27"/>
     </row>
     <row r="32" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="199"/>
+      <c r="B32" s="195"/>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
       <c r="E32" s="42"/>
@@ -7723,59 +8048,59 @@
     </row>
     <row r="33" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="41"/>
-      <c r="B33" s="201"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="202"/>
-      <c r="E33" s="202"/>
-      <c r="F33" s="202"/>
-      <c r="G33" s="203"/>
+      <c r="B33" s="197"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="199"/>
       <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" s="26" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
-      <c r="B34" s="204" t="s">
+      <c r="B34" s="200" t="s">
         <v>444</v>
       </c>
       <c r="E34" s="41"/>
       <c r="F34" s="40"/>
-      <c r="G34" s="205"/>
+      <c r="G34" s="201"/>
       <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
-      <c r="B35" s="204"/>
-      <c r="G35" s="205"/>
+      <c r="B35" s="200"/>
+      <c r="G35" s="201"/>
       <c r="H35" s="40"/>
     </row>
     <row r="36" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
-      <c r="B36" s="204"/>
-      <c r="G36" s="205"/>
+      <c r="B36" s="200"/>
+      <c r="G36" s="201"/>
       <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
-      <c r="B37" s="204"/>
-      <c r="G37" s="205"/>
+      <c r="B37" s="200"/>
+      <c r="G37" s="201"/>
       <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41"/>
-      <c r="B38" s="206"/>
-      <c r="C38" s="207"/>
-      <c r="D38" s="207"/>
-      <c r="E38" s="207"/>
-      <c r="F38" s="207"/>
-      <c r="G38" s="208"/>
+      <c r="B38" s="202"/>
+      <c r="C38" s="203"/>
+      <c r="D38" s="203"/>
+      <c r="E38" s="203"/>
+      <c r="F38" s="203"/>
+      <c r="G38" s="204"/>
       <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="198"/>
-      <c r="C39" s="200"/>
-      <c r="D39" s="200"/>
-      <c r="E39" s="200"/>
-      <c r="F39" s="200"/>
-      <c r="G39" s="200"/>
+      <c r="B39" s="194"/>
+      <c r="C39" s="196"/>
+      <c r="D39" s="196"/>
+      <c r="E39" s="196"/>
+      <c r="F39" s="196"/>
+      <c r="G39" s="196"/>
     </row>
     <row r="40" spans="1:8" s="26" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
@@ -7983,1003 +8308,1003 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="84" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="84" customWidth="1"/>
-    <col min="4" max="4" width="35" style="84" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="84" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="84" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="84"/>
+    <col min="1" max="1" width="4.5703125" style="80" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="80" customWidth="1"/>
+    <col min="4" max="4" width="35" style="80" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" style="80" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="80" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="80"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="80" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="231" t="s">
+      <c r="C3" s="251" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="231"/>
+      <c r="D3" s="251"/>
     </row>
     <row r="4" spans="1:27" ht="135" x14ac:dyDescent="0.25">
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>355</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="80" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="C6" s="84" t="s">
+      <c r="C6" s="80" t="s">
         <v>358</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="80" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="159" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="159"/>
-      <c r="B9" s="160"/>
-      <c r="C9" s="161"/>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="163"/>
-      <c r="I9" s="159"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="159"/>
-      <c r="L9" s="159"/>
-      <c r="M9" s="159"/>
-      <c r="N9" s="159"/>
-      <c r="O9" s="159"/>
-      <c r="P9" s="159"/>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="159"/>
-      <c r="T9" s="159"/>
-      <c r="U9" s="159"/>
-      <c r="V9" s="159"/>
-      <c r="W9" s="159"/>
-      <c r="X9" s="159"/>
-      <c r="Y9" s="159"/>
-      <c r="Z9" s="159"/>
-      <c r="AA9" s="159"/>
-    </row>
-    <row r="10" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="159"/>
-      <c r="B10" s="165" t="s">
+    <row r="8" spans="1:27" s="155" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="155"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="157"/>
+      <c r="D9" s="157"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="158"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="155"/>
+      <c r="L9" s="155"/>
+      <c r="M9" s="155"/>
+      <c r="N9" s="155"/>
+      <c r="O9" s="155"/>
+      <c r="P9" s="155"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="155"/>
+      <c r="AA9" s="155"/>
+    </row>
+    <row r="10" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="155"/>
+      <c r="B10" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="159"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="159"/>
-      <c r="L10" s="159"/>
-      <c r="M10" s="159"/>
-      <c r="N10" s="159"/>
-      <c r="O10" s="159"/>
-      <c r="P10" s="159"/>
-      <c r="Q10" s="159"/>
-      <c r="R10" s="159"/>
-      <c r="S10" s="159"/>
-      <c r="T10" s="159"/>
-      <c r="U10" s="159"/>
-      <c r="V10" s="159"/>
-      <c r="W10" s="159"/>
-      <c r="X10" s="159"/>
-      <c r="Y10" s="159"/>
-      <c r="Z10" s="159"/>
-      <c r="AA10" s="159"/>
-    </row>
-    <row r="11" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="159"/>
-      <c r="B11" s="165"/>
-      <c r="C11" s="166" t="s">
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="155"/>
+      <c r="AA10" s="155"/>
+    </row>
+    <row r="11" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="155"/>
+      <c r="B11" s="161"/>
+      <c r="C11" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="159"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="159"/>
-      <c r="L11" s="159"/>
-      <c r="M11" s="159"/>
-      <c r="N11" s="159"/>
-      <c r="O11" s="159"/>
-      <c r="P11" s="159"/>
-      <c r="Q11" s="159"/>
-      <c r="R11" s="159"/>
-      <c r="S11" s="159"/>
-      <c r="T11" s="159"/>
-      <c r="U11" s="159"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="159"/>
-      <c r="X11" s="159"/>
-      <c r="Y11" s="159"/>
-      <c r="Z11" s="159"/>
-      <c r="AA11" s="159"/>
-    </row>
-    <row r="12" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="159"/>
-      <c r="B12" s="165"/>
-      <c r="C12" s="166" t="s">
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="155"/>
+      <c r="K11" s="155"/>
+      <c r="L11" s="155"/>
+      <c r="M11" s="155"/>
+      <c r="N11" s="155"/>
+      <c r="O11" s="155"/>
+      <c r="P11" s="155"/>
+      <c r="Q11" s="155"/>
+      <c r="R11" s="155"/>
+      <c r="S11" s="155"/>
+      <c r="T11" s="155"/>
+      <c r="U11" s="155"/>
+      <c r="V11" s="155"/>
+      <c r="W11" s="155"/>
+      <c r="X11" s="155"/>
+      <c r="Y11" s="155"/>
+      <c r="Z11" s="155"/>
+      <c r="AA11" s="155"/>
+    </row>
+    <row r="12" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="155"/>
+      <c r="B12" s="161"/>
+      <c r="C12" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="159"/>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="159"/>
-      <c r="P12" s="159"/>
-      <c r="Q12" s="159"/>
-      <c r="R12" s="159"/>
-      <c r="S12" s="159"/>
-      <c r="T12" s="159"/>
-      <c r="U12" s="159"/>
-      <c r="V12" s="159"/>
-      <c r="W12" s="159"/>
-      <c r="X12" s="159"/>
-      <c r="Y12" s="159"/>
-      <c r="Z12" s="159"/>
-      <c r="AA12" s="159"/>
-    </row>
-    <row r="13" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="159"/>
-      <c r="B13" s="165"/>
-      <c r="C13" s="166" t="s">
+      <c r="D12" s="162"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="155"/>
+      <c r="K12" s="155"/>
+      <c r="L12" s="155"/>
+      <c r="M12" s="155"/>
+      <c r="N12" s="155"/>
+      <c r="O12" s="155"/>
+      <c r="P12" s="155"/>
+      <c r="Q12" s="155"/>
+      <c r="R12" s="155"/>
+      <c r="S12" s="155"/>
+      <c r="T12" s="155"/>
+      <c r="U12" s="155"/>
+      <c r="V12" s="155"/>
+      <c r="W12" s="155"/>
+      <c r="X12" s="155"/>
+      <c r="Y12" s="155"/>
+      <c r="Z12" s="155"/>
+      <c r="AA12" s="155"/>
+    </row>
+    <row r="13" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="155"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="166"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="159"/>
-      <c r="L13" s="159"/>
-      <c r="M13" s="159"/>
-      <c r="N13" s="159"/>
-      <c r="O13" s="159"/>
-      <c r="P13" s="159"/>
-      <c r="Q13" s="159"/>
-      <c r="R13" s="159"/>
-      <c r="S13" s="159"/>
-      <c r="T13" s="159"/>
-      <c r="U13" s="159"/>
-      <c r="V13" s="159"/>
-      <c r="W13" s="159"/>
-      <c r="X13" s="159"/>
-      <c r="Y13" s="159"/>
-      <c r="Z13" s="159"/>
-      <c r="AA13" s="159"/>
-    </row>
-    <row r="14" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="159"/>
-      <c r="B14" s="165"/>
-      <c r="C14" s="166" t="s">
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="155"/>
+      <c r="M13" s="155"/>
+      <c r="N13" s="155"/>
+      <c r="O13" s="155"/>
+      <c r="P13" s="155"/>
+      <c r="Q13" s="155"/>
+      <c r="R13" s="155"/>
+      <c r="S13" s="155"/>
+      <c r="T13" s="155"/>
+      <c r="U13" s="155"/>
+      <c r="V13" s="155"/>
+      <c r="W13" s="155"/>
+      <c r="X13" s="155"/>
+      <c r="Y13" s="155"/>
+      <c r="Z13" s="155"/>
+      <c r="AA13" s="155"/>
+    </row>
+    <row r="14" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="155"/>
+      <c r="B14" s="161"/>
+      <c r="C14" s="162" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="159"/>
-      <c r="M14" s="159"/>
-      <c r="N14" s="159"/>
-      <c r="O14" s="159"/>
-      <c r="P14" s="159"/>
-      <c r="Q14" s="159"/>
-      <c r="R14" s="159"/>
-      <c r="S14" s="159"/>
-      <c r="T14" s="159"/>
-      <c r="U14" s="159"/>
-      <c r="V14" s="159"/>
-      <c r="W14" s="159"/>
-      <c r="X14" s="159"/>
-      <c r="Y14" s="159"/>
-      <c r="Z14" s="159"/>
-      <c r="AA14" s="159"/>
-    </row>
-    <row r="15" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="159"/>
-      <c r="B15" s="165"/>
-      <c r="C15" s="166" t="s">
+      <c r="D14" s="162"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="155"/>
+      <c r="K14" s="155"/>
+      <c r="L14" s="155"/>
+      <c r="M14" s="155"/>
+      <c r="N14" s="155"/>
+      <c r="O14" s="155"/>
+      <c r="P14" s="155"/>
+      <c r="Q14" s="155"/>
+      <c r="R14" s="155"/>
+      <c r="S14" s="155"/>
+      <c r="T14" s="155"/>
+      <c r="U14" s="155"/>
+      <c r="V14" s="155"/>
+      <c r="W14" s="155"/>
+      <c r="X14" s="155"/>
+      <c r="Y14" s="155"/>
+      <c r="Z14" s="155"/>
+      <c r="AA14" s="155"/>
+    </row>
+    <row r="15" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="155"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="162" t="s">
         <v>135</v>
       </c>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="159"/>
-      <c r="M15" s="159"/>
-      <c r="N15" s="159"/>
-      <c r="O15" s="159"/>
-      <c r="P15" s="159"/>
-      <c r="Q15" s="159"/>
-      <c r="R15" s="159"/>
-      <c r="S15" s="159"/>
-      <c r="T15" s="159"/>
-      <c r="U15" s="159"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="159"/>
-      <c r="X15" s="159"/>
-      <c r="Y15" s="159"/>
-      <c r="Z15" s="159"/>
-      <c r="AA15" s="159"/>
-    </row>
-    <row r="16" spans="1:27" s="164" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="159"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="159"/>
-      <c r="M16" s="159"/>
-      <c r="N16" s="159"/>
-      <c r="O16" s="159"/>
-      <c r="P16" s="159"/>
-      <c r="Q16" s="159"/>
-      <c r="R16" s="159"/>
-      <c r="S16" s="159"/>
-      <c r="T16" s="159"/>
-      <c r="U16" s="159"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="159"/>
-      <c r="X16" s="159"/>
-      <c r="Y16" s="159"/>
-      <c r="Z16" s="159"/>
-      <c r="AA16" s="159"/>
-    </row>
-    <row r="17" spans="1:27" s="159" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="159"/>
-      <c r="B18" s="160"/>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="159"/>
-      <c r="M18" s="159"/>
-      <c r="N18" s="159"/>
-      <c r="O18" s="159"/>
-      <c r="P18" s="159"/>
-      <c r="Q18" s="159"/>
-      <c r="R18" s="159"/>
-      <c r="S18" s="159"/>
-      <c r="T18" s="159"/>
-      <c r="U18" s="159"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="159"/>
-      <c r="X18" s="159"/>
-      <c r="Y18" s="159"/>
-      <c r="Z18" s="159"/>
-      <c r="AA18" s="159"/>
-    </row>
-    <row r="19" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="159"/>
-      <c r="B19" s="165" t="s">
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="155"/>
+      <c r="K15" s="155"/>
+      <c r="L15" s="155"/>
+      <c r="M15" s="155"/>
+      <c r="N15" s="155"/>
+      <c r="O15" s="155"/>
+      <c r="P15" s="155"/>
+      <c r="Q15" s="155"/>
+      <c r="R15" s="155"/>
+      <c r="S15" s="155"/>
+      <c r="T15" s="155"/>
+      <c r="U15" s="155"/>
+      <c r="V15" s="155"/>
+      <c r="W15" s="155"/>
+      <c r="X15" s="155"/>
+      <c r="Y15" s="155"/>
+      <c r="Z15" s="155"/>
+      <c r="AA15" s="155"/>
+    </row>
+    <row r="16" spans="1:27" s="160" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="155"/>
+      <c r="B16" s="164"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="165"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="155"/>
+      <c r="K16" s="155"/>
+      <c r="L16" s="155"/>
+      <c r="M16" s="155"/>
+      <c r="N16" s="155"/>
+      <c r="O16" s="155"/>
+      <c r="P16" s="155"/>
+      <c r="Q16" s="155"/>
+      <c r="R16" s="155"/>
+      <c r="S16" s="155"/>
+      <c r="T16" s="155"/>
+      <c r="U16" s="155"/>
+      <c r="V16" s="155"/>
+      <c r="W16" s="155"/>
+      <c r="X16" s="155"/>
+      <c r="Y16" s="155"/>
+      <c r="Z16" s="155"/>
+      <c r="AA16" s="155"/>
+    </row>
+    <row r="17" spans="1:27" s="155" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="155"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="157"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="158"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="155"/>
+      <c r="K18" s="155"/>
+      <c r="L18" s="155"/>
+      <c r="M18" s="155"/>
+      <c r="N18" s="155"/>
+      <c r="O18" s="155"/>
+      <c r="P18" s="155"/>
+      <c r="Q18" s="155"/>
+      <c r="R18" s="155"/>
+      <c r="S18" s="155"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="155"/>
+      <c r="V18" s="155"/>
+      <c r="W18" s="155"/>
+      <c r="X18" s="155"/>
+      <c r="Y18" s="155"/>
+      <c r="Z18" s="155"/>
+      <c r="AA18" s="155"/>
+    </row>
+    <row r="19" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="155"/>
+      <c r="B19" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="159"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="159"/>
-      <c r="L19" s="159"/>
-      <c r="M19" s="159"/>
-      <c r="N19" s="159"/>
-      <c r="O19" s="159"/>
-      <c r="P19" s="159"/>
-      <c r="Q19" s="159"/>
-      <c r="R19" s="159"/>
-      <c r="S19" s="159"/>
-      <c r="T19" s="159"/>
-      <c r="U19" s="159"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="159"/>
-      <c r="X19" s="159"/>
-      <c r="Y19" s="159"/>
-      <c r="Z19" s="159"/>
-      <c r="AA19" s="159"/>
-    </row>
-    <row r="20" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="159"/>
-      <c r="B20" s="165"/>
-      <c r="C20" s="230" t="s">
+      <c r="C19" s="162"/>
+      <c r="D19" s="162"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="162"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="155"/>
+      <c r="K19" s="155"/>
+      <c r="L19" s="155"/>
+      <c r="M19" s="155"/>
+      <c r="N19" s="155"/>
+      <c r="O19" s="155"/>
+      <c r="P19" s="155"/>
+      <c r="Q19" s="155"/>
+      <c r="R19" s="155"/>
+      <c r="S19" s="155"/>
+      <c r="T19" s="155"/>
+      <c r="U19" s="155"/>
+      <c r="V19" s="155"/>
+      <c r="W19" s="155"/>
+      <c r="X19" s="155"/>
+      <c r="Y19" s="155"/>
+      <c r="Z19" s="155"/>
+      <c r="AA19" s="155"/>
+    </row>
+    <row r="20" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="155"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="250" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="230"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="159"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="159"/>
-      <c r="L20" s="159"/>
-      <c r="M20" s="159"/>
-      <c r="N20" s="159"/>
-      <c r="O20" s="159"/>
-      <c r="P20" s="159"/>
-      <c r="Q20" s="159"/>
-      <c r="R20" s="159"/>
-      <c r="S20" s="159"/>
-      <c r="T20" s="159"/>
-      <c r="U20" s="159"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="159"/>
-      <c r="X20" s="159"/>
-      <c r="Y20" s="159"/>
-      <c r="Z20" s="159"/>
-      <c r="AA20" s="159"/>
-    </row>
-    <row r="21" spans="1:27" s="164" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="159"/>
-      <c r="B21" s="165"/>
-      <c r="C21" s="230" t="s">
+      <c r="D20" s="250"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="162"/>
+      <c r="G20" s="163"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="155"/>
+      <c r="K20" s="155"/>
+      <c r="L20" s="155"/>
+      <c r="M20" s="155"/>
+      <c r="N20" s="155"/>
+      <c r="O20" s="155"/>
+      <c r="P20" s="155"/>
+      <c r="Q20" s="155"/>
+      <c r="R20" s="155"/>
+      <c r="S20" s="155"/>
+      <c r="T20" s="155"/>
+      <c r="U20" s="155"/>
+      <c r="V20" s="155"/>
+      <c r="W20" s="155"/>
+      <c r="X20" s="155"/>
+      <c r="Y20" s="155"/>
+      <c r="Z20" s="155"/>
+      <c r="AA20" s="155"/>
+    </row>
+    <row r="21" spans="1:27" s="160" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="155"/>
+      <c r="B21" s="161"/>
+      <c r="C21" s="250" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="230"/>
-      <c r="E21" s="166" t="s">
+      <c r="D21" s="250"/>
+      <c r="E21" s="162" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="166"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="159"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="159"/>
-      <c r="L21" s="159"/>
-      <c r="M21" s="159"/>
-      <c r="N21" s="159"/>
-      <c r="O21" s="159"/>
-      <c r="P21" s="159"/>
-      <c r="Q21" s="159"/>
-      <c r="R21" s="159"/>
-      <c r="S21" s="159"/>
-      <c r="T21" s="159"/>
-      <c r="U21" s="159"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="159"/>
-      <c r="X21" s="159"/>
-      <c r="Y21" s="159"/>
-      <c r="Z21" s="159"/>
-      <c r="AA21" s="159"/>
-    </row>
-    <row r="22" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="159"/>
-      <c r="B22" s="165"/>
-      <c r="C22" s="230"/>
-      <c r="D22" s="230"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="159"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="159"/>
-      <c r="L22" s="159"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="159"/>
-      <c r="O22" s="159"/>
-      <c r="P22" s="159"/>
-      <c r="Q22" s="159"/>
-      <c r="R22" s="159"/>
-      <c r="S22" s="159"/>
-      <c r="T22" s="159"/>
-      <c r="U22" s="159"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="159"/>
-      <c r="X22" s="159"/>
-      <c r="Y22" s="159"/>
-      <c r="Z22" s="159"/>
-      <c r="AA22" s="159"/>
-    </row>
-    <row r="23" spans="1:27" s="164" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="159"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="169"/>
-      <c r="D23" s="169"/>
-      <c r="E23" s="169"/>
-      <c r="F23" s="169"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="159"/>
-      <c r="L23" s="159"/>
-      <c r="M23" s="159"/>
-      <c r="N23" s="159"/>
-      <c r="O23" s="159"/>
-      <c r="P23" s="159"/>
-      <c r="Q23" s="159"/>
-      <c r="R23" s="159"/>
-      <c r="S23" s="159"/>
-      <c r="T23" s="159"/>
-      <c r="U23" s="159"/>
-      <c r="V23" s="159"/>
-      <c r="W23" s="159"/>
-      <c r="X23" s="159"/>
-      <c r="Y23" s="159"/>
-      <c r="Z23" s="159"/>
-      <c r="AA23" s="159"/>
-    </row>
-    <row r="24" spans="1:27" s="159" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:27" s="159" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="159"/>
-      <c r="B26" s="171"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="173"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="159"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="159"/>
-      <c r="L26" s="159"/>
-      <c r="M26" s="159"/>
-      <c r="N26" s="159"/>
-      <c r="O26" s="159"/>
-      <c r="P26" s="159"/>
-      <c r="Q26" s="159"/>
-      <c r="R26" s="159"/>
-      <c r="S26" s="159"/>
-      <c r="T26" s="159"/>
-      <c r="U26" s="159"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="159"/>
-      <c r="X26" s="159"/>
-      <c r="Y26" s="159"/>
-      <c r="Z26" s="159"/>
-      <c r="AA26" s="159"/>
-    </row>
-    <row r="27" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="159"/>
-      <c r="B27" s="110" t="s">
+      <c r="F21" s="162"/>
+      <c r="G21" s="163"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="155"/>
+      <c r="K21" s="155"/>
+      <c r="L21" s="155"/>
+      <c r="M21" s="155"/>
+      <c r="N21" s="155"/>
+      <c r="O21" s="155"/>
+      <c r="P21" s="155"/>
+      <c r="Q21" s="155"/>
+      <c r="R21" s="155"/>
+      <c r="S21" s="155"/>
+      <c r="T21" s="155"/>
+      <c r="U21" s="155"/>
+      <c r="V21" s="155"/>
+      <c r="W21" s="155"/>
+      <c r="X21" s="155"/>
+      <c r="Y21" s="155"/>
+      <c r="Z21" s="155"/>
+      <c r="AA21" s="155"/>
+    </row>
+    <row r="22" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="155"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="250"/>
+      <c r="D22" s="250"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="155"/>
+      <c r="K22" s="155"/>
+      <c r="L22" s="155"/>
+      <c r="M22" s="155"/>
+      <c r="N22" s="155"/>
+      <c r="O22" s="155"/>
+      <c r="P22" s="155"/>
+      <c r="Q22" s="155"/>
+      <c r="R22" s="155"/>
+      <c r="S22" s="155"/>
+      <c r="T22" s="155"/>
+      <c r="U22" s="155"/>
+      <c r="V22" s="155"/>
+      <c r="W22" s="155"/>
+      <c r="X22" s="155"/>
+      <c r="Y22" s="155"/>
+      <c r="Z22" s="155"/>
+      <c r="AA22" s="155"/>
+    </row>
+    <row r="23" spans="1:27" s="160" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="155"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="155"/>
+      <c r="K23" s="155"/>
+      <c r="L23" s="155"/>
+      <c r="M23" s="155"/>
+      <c r="N23" s="155"/>
+      <c r="O23" s="155"/>
+      <c r="P23" s="155"/>
+      <c r="Q23" s="155"/>
+      <c r="R23" s="155"/>
+      <c r="S23" s="155"/>
+      <c r="T23" s="155"/>
+      <c r="U23" s="155"/>
+      <c r="V23" s="155"/>
+      <c r="W23" s="155"/>
+      <c r="X23" s="155"/>
+      <c r="Y23" s="155"/>
+      <c r="Z23" s="155"/>
+      <c r="AA23" s="155"/>
+    </row>
+    <row r="24" spans="1:27" s="155" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:27" s="155" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="155"/>
+      <c r="B26" s="167"/>
+      <c r="C26" s="168"/>
+      <c r="D26" s="168"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="168"/>
+      <c r="G26" s="169"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="155"/>
+      <c r="K26" s="155"/>
+      <c r="L26" s="155"/>
+      <c r="M26" s="155"/>
+      <c r="N26" s="155"/>
+      <c r="O26" s="155"/>
+      <c r="P26" s="155"/>
+      <c r="Q26" s="155"/>
+      <c r="R26" s="155"/>
+      <c r="S26" s="155"/>
+      <c r="T26" s="155"/>
+      <c r="U26" s="155"/>
+      <c r="V26" s="155"/>
+      <c r="W26" s="155"/>
+      <c r="X26" s="155"/>
+      <c r="Y26" s="155"/>
+      <c r="Z26" s="155"/>
+      <c r="AA26" s="155"/>
+    </row>
+    <row r="27" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="155"/>
+      <c r="B27" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="C27" s="111"/>
-      <c r="D27" s="111"/>
-      <c r="E27" s="111"/>
-      <c r="F27" s="111"/>
-      <c r="G27" s="174"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="159"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="159"/>
-      <c r="L27" s="159"/>
-      <c r="M27" s="159"/>
-      <c r="N27" s="159"/>
-      <c r="O27" s="159"/>
-      <c r="P27" s="159"/>
-      <c r="Q27" s="159"/>
-      <c r="R27" s="159"/>
-      <c r="S27" s="159"/>
-      <c r="T27" s="159"/>
-      <c r="U27" s="159"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="159"/>
-      <c r="X27" s="159"/>
-      <c r="Y27" s="159"/>
-      <c r="Z27" s="159"/>
-      <c r="AA27" s="159"/>
-    </row>
-    <row r="28" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="159"/>
-      <c r="B28" s="110"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="174"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="159"/>
-      <c r="L28" s="159"/>
-      <c r="M28" s="159"/>
-      <c r="N28" s="159"/>
-      <c r="O28" s="159"/>
-      <c r="P28" s="159"/>
-      <c r="Q28" s="159"/>
-      <c r="R28" s="159"/>
-      <c r="S28" s="159"/>
-      <c r="T28" s="159"/>
-      <c r="U28" s="159"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="159"/>
-      <c r="X28" s="159"/>
-      <c r="Y28" s="159"/>
-      <c r="Z28" s="159"/>
-      <c r="AA28" s="159"/>
-    </row>
-    <row r="29" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="159"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="111" t="s">
+      <c r="C27" s="107"/>
+      <c r="D27" s="107"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="170"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="155"/>
+      <c r="K27" s="155"/>
+      <c r="L27" s="155"/>
+      <c r="M27" s="155"/>
+      <c r="N27" s="155"/>
+      <c r="O27" s="155"/>
+      <c r="P27" s="155"/>
+      <c r="Q27" s="155"/>
+      <c r="R27" s="155"/>
+      <c r="S27" s="155"/>
+      <c r="T27" s="155"/>
+      <c r="U27" s="155"/>
+      <c r="V27" s="155"/>
+      <c r="W27" s="155"/>
+      <c r="X27" s="155"/>
+      <c r="Y27" s="155"/>
+      <c r="Z27" s="155"/>
+      <c r="AA27" s="155"/>
+    </row>
+    <row r="28" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="155"/>
+      <c r="B28" s="106"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="107"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="107"/>
+      <c r="G28" s="170"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="155"/>
+      <c r="K28" s="155"/>
+      <c r="L28" s="155"/>
+      <c r="M28" s="155"/>
+      <c r="N28" s="155"/>
+      <c r="O28" s="155"/>
+      <c r="P28" s="155"/>
+      <c r="Q28" s="155"/>
+      <c r="R28" s="155"/>
+      <c r="S28" s="155"/>
+      <c r="T28" s="155"/>
+      <c r="U28" s="155"/>
+      <c r="V28" s="155"/>
+      <c r="W28" s="155"/>
+      <c r="X28" s="155"/>
+      <c r="Y28" s="155"/>
+      <c r="Z28" s="155"/>
+      <c r="AA28" s="155"/>
+    </row>
+    <row r="29" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="155"/>
+      <c r="B29" s="106"/>
+      <c r="C29" s="107" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="174"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="159"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="159"/>
-      <c r="L29" s="159"/>
-      <c r="M29" s="159"/>
-      <c r="N29" s="159"/>
-      <c r="O29" s="159"/>
-      <c r="P29" s="159"/>
-      <c r="Q29" s="159"/>
-      <c r="R29" s="159"/>
-      <c r="S29" s="159"/>
-      <c r="T29" s="159"/>
-      <c r="U29" s="159"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="159"/>
-      <c r="X29" s="159"/>
-      <c r="Y29" s="159"/>
-      <c r="Z29" s="159"/>
-      <c r="AA29" s="159"/>
-    </row>
-    <row r="30" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="159"/>
-      <c r="B30" s="110"/>
-      <c r="C30" s="111" t="s">
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="170"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="155"/>
+      <c r="K29" s="155"/>
+      <c r="L29" s="155"/>
+      <c r="M29" s="155"/>
+      <c r="N29" s="155"/>
+      <c r="O29" s="155"/>
+      <c r="P29" s="155"/>
+      <c r="Q29" s="155"/>
+      <c r="R29" s="155"/>
+      <c r="S29" s="155"/>
+      <c r="T29" s="155"/>
+      <c r="U29" s="155"/>
+      <c r="V29" s="155"/>
+      <c r="W29" s="155"/>
+      <c r="X29" s="155"/>
+      <c r="Y29" s="155"/>
+      <c r="Z29" s="155"/>
+      <c r="AA29" s="155"/>
+    </row>
+    <row r="30" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="155"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="107" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="174"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="159"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="159"/>
-      <c r="L30" s="159"/>
-      <c r="M30" s="159"/>
-      <c r="N30" s="159"/>
-      <c r="O30" s="159"/>
-      <c r="P30" s="159"/>
-      <c r="Q30" s="159"/>
-      <c r="R30" s="159"/>
-      <c r="S30" s="159"/>
-      <c r="T30" s="159"/>
-      <c r="U30" s="159"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="159"/>
-      <c r="X30" s="159"/>
-      <c r="Y30" s="159"/>
-      <c r="Z30" s="159"/>
-      <c r="AA30" s="159"/>
-    </row>
-    <row r="31" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="159"/>
-      <c r="B31" s="110"/>
-      <c r="C31" s="111" t="s">
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="170"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="155"/>
+      <c r="K30" s="155"/>
+      <c r="L30" s="155"/>
+      <c r="M30" s="155"/>
+      <c r="N30" s="155"/>
+      <c r="O30" s="155"/>
+      <c r="P30" s="155"/>
+      <c r="Q30" s="155"/>
+      <c r="R30" s="155"/>
+      <c r="S30" s="155"/>
+      <c r="T30" s="155"/>
+      <c r="U30" s="155"/>
+      <c r="V30" s="155"/>
+      <c r="W30" s="155"/>
+      <c r="X30" s="155"/>
+      <c r="Y30" s="155"/>
+      <c r="Z30" s="155"/>
+      <c r="AA30" s="155"/>
+    </row>
+    <row r="31" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="155"/>
+      <c r="B31" s="106"/>
+      <c r="C31" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="D31" s="111"/>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="159"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="159"/>
-      <c r="L31" s="159"/>
-      <c r="M31" s="159"/>
-      <c r="N31" s="159"/>
-      <c r="O31" s="159"/>
-      <c r="P31" s="159"/>
-      <c r="Q31" s="159"/>
-      <c r="R31" s="159"/>
-      <c r="S31" s="159"/>
-      <c r="T31" s="159"/>
-      <c r="U31" s="159"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="159"/>
-      <c r="X31" s="159"/>
-      <c r="Y31" s="159"/>
-      <c r="Z31" s="159"/>
-      <c r="AA31" s="159"/>
-    </row>
-    <row r="32" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="159"/>
-      <c r="B32" s="110"/>
-      <c r="C32" s="111" t="s">
+      <c r="D31" s="107"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="107"/>
+      <c r="G31" s="170"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="155"/>
+      <c r="K31" s="155"/>
+      <c r="L31" s="155"/>
+      <c r="M31" s="155"/>
+      <c r="N31" s="155"/>
+      <c r="O31" s="155"/>
+      <c r="P31" s="155"/>
+      <c r="Q31" s="155"/>
+      <c r="R31" s="155"/>
+      <c r="S31" s="155"/>
+      <c r="T31" s="155"/>
+      <c r="U31" s="155"/>
+      <c r="V31" s="155"/>
+      <c r="W31" s="155"/>
+      <c r="X31" s="155"/>
+      <c r="Y31" s="155"/>
+      <c r="Z31" s="155"/>
+      <c r="AA31" s="155"/>
+    </row>
+    <row r="32" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="155"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="107" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="174"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="159"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="159"/>
-      <c r="L32" s="159"/>
-      <c r="M32" s="159"/>
-      <c r="N32" s="159"/>
-      <c r="O32" s="159"/>
-      <c r="P32" s="159"/>
-      <c r="Q32" s="159"/>
-      <c r="R32" s="159"/>
-      <c r="S32" s="159"/>
-      <c r="T32" s="159"/>
-      <c r="U32" s="159"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="159"/>
-      <c r="X32" s="159"/>
-      <c r="Y32" s="159"/>
-      <c r="Z32" s="159"/>
-      <c r="AA32" s="159"/>
-    </row>
-    <row r="33" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="159"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="111" t="s">
+      <c r="D32" s="107"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="170"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="155"/>
+      <c r="K32" s="155"/>
+      <c r="L32" s="155"/>
+      <c r="M32" s="155"/>
+      <c r="N32" s="155"/>
+      <c r="O32" s="155"/>
+      <c r="P32" s="155"/>
+      <c r="Q32" s="155"/>
+      <c r="R32" s="155"/>
+      <c r="S32" s="155"/>
+      <c r="T32" s="155"/>
+      <c r="U32" s="155"/>
+      <c r="V32" s="155"/>
+      <c r="W32" s="155"/>
+      <c r="X32" s="155"/>
+      <c r="Y32" s="155"/>
+      <c r="Z32" s="155"/>
+      <c r="AA32" s="155"/>
+    </row>
+    <row r="33" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="155"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="107" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="174"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="159"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="159"/>
-      <c r="L33" s="159"/>
-      <c r="M33" s="159"/>
-      <c r="N33" s="159"/>
-      <c r="O33" s="159"/>
-      <c r="P33" s="159"/>
-      <c r="Q33" s="159"/>
-      <c r="R33" s="159"/>
-      <c r="S33" s="159"/>
-      <c r="T33" s="159"/>
-      <c r="U33" s="159"/>
-      <c r="V33" s="159"/>
-      <c r="W33" s="159"/>
-      <c r="X33" s="159"/>
-      <c r="Y33" s="159"/>
-      <c r="Z33" s="159"/>
-      <c r="AA33" s="159"/>
-    </row>
-    <row r="34" spans="1:27" s="164" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="159"/>
-      <c r="B34" s="110"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="174"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="159"/>
-      <c r="J34" s="159"/>
-      <c r="K34" s="159"/>
-      <c r="L34" s="159"/>
-      <c r="M34" s="159"/>
-      <c r="N34" s="159"/>
-      <c r="O34" s="159"/>
-      <c r="P34" s="159"/>
-      <c r="Q34" s="159"/>
-      <c r="R34" s="159"/>
-      <c r="S34" s="159"/>
-      <c r="T34" s="159"/>
-      <c r="U34" s="159"/>
-      <c r="V34" s="159"/>
-      <c r="W34" s="159"/>
-      <c r="X34" s="159"/>
-      <c r="Y34" s="159"/>
-      <c r="Z34" s="159"/>
-      <c r="AA34" s="159"/>
-    </row>
-    <row r="35" spans="1:27" s="164" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="159"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="176"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="177"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="159"/>
-      <c r="J35" s="159"/>
-      <c r="K35" s="159"/>
-      <c r="L35" s="159"/>
-      <c r="M35" s="159"/>
-      <c r="N35" s="159"/>
-      <c r="O35" s="159"/>
-      <c r="P35" s="159"/>
-      <c r="Q35" s="159"/>
-      <c r="R35" s="159"/>
-      <c r="S35" s="159"/>
-      <c r="T35" s="159"/>
-      <c r="U35" s="159"/>
-      <c r="V35" s="159"/>
-      <c r="W35" s="159"/>
-      <c r="X35" s="159"/>
-      <c r="Y35" s="159"/>
-      <c r="Z35" s="159"/>
-      <c r="AA35" s="159"/>
-    </row>
-    <row r="36" spans="1:27" s="159" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:27" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="159"/>
-      <c r="B37" s="159"/>
-      <c r="C37" s="159"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="159"/>
-    </row>
-    <row r="38" spans="1:27" s="179" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="159"/>
-      <c r="B38" s="171"/>
-      <c r="C38" s="172"/>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="163"/>
-    </row>
-    <row r="39" spans="1:27" s="179" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="159"/>
-      <c r="B39" s="110" t="s">
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="170"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="155"/>
+      <c r="K33" s="155"/>
+      <c r="L33" s="155"/>
+      <c r="M33" s="155"/>
+      <c r="N33" s="155"/>
+      <c r="O33" s="155"/>
+      <c r="P33" s="155"/>
+      <c r="Q33" s="155"/>
+      <c r="R33" s="155"/>
+      <c r="S33" s="155"/>
+      <c r="T33" s="155"/>
+      <c r="U33" s="155"/>
+      <c r="V33" s="155"/>
+      <c r="W33" s="155"/>
+      <c r="X33" s="155"/>
+      <c r="Y33" s="155"/>
+      <c r="Z33" s="155"/>
+      <c r="AA33" s="155"/>
+    </row>
+    <row r="34" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="155"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="170"/>
+      <c r="H34" s="159"/>
+      <c r="I34" s="155"/>
+      <c r="J34" s="155"/>
+      <c r="K34" s="155"/>
+      <c r="L34" s="155"/>
+      <c r="M34" s="155"/>
+      <c r="N34" s="155"/>
+      <c r="O34" s="155"/>
+      <c r="P34" s="155"/>
+      <c r="Q34" s="155"/>
+      <c r="R34" s="155"/>
+      <c r="S34" s="155"/>
+      <c r="T34" s="155"/>
+      <c r="U34" s="155"/>
+      <c r="V34" s="155"/>
+      <c r="W34" s="155"/>
+      <c r="X34" s="155"/>
+      <c r="Y34" s="155"/>
+      <c r="Z34" s="155"/>
+      <c r="AA34" s="155"/>
+    </row>
+    <row r="35" spans="1:27" s="160" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="155"/>
+      <c r="B35" s="171"/>
+      <c r="C35" s="172"/>
+      <c r="D35" s="172"/>
+      <c r="E35" s="172"/>
+      <c r="F35" s="172"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="159"/>
+      <c r="I35" s="155"/>
+      <c r="J35" s="155"/>
+      <c r="K35" s="155"/>
+      <c r="L35" s="155"/>
+      <c r="M35" s="155"/>
+      <c r="N35" s="155"/>
+      <c r="O35" s="155"/>
+      <c r="P35" s="155"/>
+      <c r="Q35" s="155"/>
+      <c r="R35" s="155"/>
+      <c r="S35" s="155"/>
+      <c r="T35" s="155"/>
+      <c r="U35" s="155"/>
+      <c r="V35" s="155"/>
+      <c r="W35" s="155"/>
+      <c r="X35" s="155"/>
+      <c r="Y35" s="155"/>
+      <c r="Z35" s="155"/>
+      <c r="AA35" s="155"/>
+    </row>
+    <row r="36" spans="1:27" s="155" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:27" s="175" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="155"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="155"/>
+      <c r="D37" s="155"/>
+      <c r="E37" s="155"/>
+      <c r="F37" s="155"/>
+      <c r="G37" s="155"/>
+      <c r="H37" s="155"/>
+    </row>
+    <row r="38" spans="1:27" s="175" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="155"/>
+      <c r="B38" s="167"/>
+      <c r="C38" s="168"/>
+      <c r="D38" s="168"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="159"/>
+    </row>
+    <row r="39" spans="1:27" s="175" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="155"/>
+      <c r="B39" s="106" t="s">
         <v>443</v>
       </c>
-      <c r="C39" s="225" t="s">
+      <c r="C39" s="247" t="s">
         <v>431</v>
       </c>
-      <c r="D39" s="226"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="111"/>
-      <c r="G39" s="174"/>
-      <c r="H39" s="163"/>
-    </row>
-    <row r="40" spans="1:27" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="159"/>
-      <c r="B40" s="175"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
-      <c r="G40" s="177"/>
-      <c r="H40" s="163"/>
+      <c r="D39" s="248"/>
+      <c r="E39" s="107"/>
+      <c r="F39" s="107"/>
+      <c r="G39" s="170"/>
+      <c r="H39" s="159"/>
+    </row>
+    <row r="40" spans="1:27" s="175" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="155"/>
+      <c r="B40" s="171"/>
+      <c r="C40" s="172"/>
+      <c r="D40" s="172"/>
+      <c r="E40" s="172"/>
+      <c r="F40" s="172"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="159"/>
     </row>
     <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="159"/>
-      <c r="B41" s="159"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A42" s="159"/>
-      <c r="B42" s="171" t="s">
+      <c r="A42" s="155"/>
+      <c r="B42" s="167" t="s">
         <v>432</v>
       </c>
-      <c r="C42" s="194" t="s">
+      <c r="C42" s="190" t="s">
         <v>433</v>
       </c>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="173"/>
-      <c r="H42" s="163"/>
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="169"/>
+      <c r="H42" s="159"/>
     </row>
     <row r="43" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="159"/>
-      <c r="B43" s="110" t="s">
+      <c r="A43" s="155"/>
+      <c r="B43" s="106" t="s">
         <v>429</v>
       </c>
-      <c r="C43" s="225" t="s">
+      <c r="C43" s="247" t="s">
         <v>430</v>
       </c>
-      <c r="D43" s="226"/>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
-      <c r="G43" s="174"/>
-      <c r="H43" s="163"/>
+      <c r="D43" s="248"/>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="170"/>
+      <c r="H43" s="159"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A44" s="159"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="174"/>
-      <c r="H44" s="163"/>
+      <c r="A44" s="155"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="107"/>
+      <c r="D44" s="107"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="107"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="159"/>
     </row>
     <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="159"/>
-      <c r="B45" s="175"/>
-      <c r="C45" s="176"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="176"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="177"/>
-      <c r="H45" s="163"/>
-    </row>
-    <row r="46" spans="1:27" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="159"/>
-      <c r="B46" s="159"/>
-      <c r="C46" s="159"/>
-      <c r="D46" s="159"/>
-      <c r="E46" s="159"/>
-      <c r="F46" s="159"/>
-      <c r="G46" s="159"/>
-      <c r="H46" s="159"/>
-    </row>
-    <row r="47" spans="1:27" s="179" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="159"/>
-      <c r="B47" s="227" t="s">
+      <c r="A45" s="155"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="172"/>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172"/>
+      <c r="F45" s="172"/>
+      <c r="G45" s="173"/>
+      <c r="H45" s="159"/>
+    </row>
+    <row r="46" spans="1:27" s="175" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="155"/>
+      <c r="B46" s="155"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="155"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+    </row>
+    <row r="47" spans="1:27" s="175" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="155"/>
+      <c r="B47" s="245" t="s">
         <v>434</v>
       </c>
-      <c r="C47" s="228"/>
-      <c r="D47" s="172"/>
-      <c r="E47" s="172"/>
-      <c r="F47" s="172"/>
-      <c r="G47" s="173"/>
-      <c r="H47" s="163"/>
-    </row>
-    <row r="48" spans="1:27" s="179" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="159"/>
-      <c r="B48" s="110" t="s">
+      <c r="C47" s="246"/>
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="169"/>
+      <c r="H47" s="159"/>
+    </row>
+    <row r="48" spans="1:27" s="175" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="155"/>
+      <c r="B48" s="106" t="s">
         <v>435</v>
       </c>
-      <c r="C48" s="225" t="s">
+      <c r="C48" s="247" t="s">
         <v>437</v>
       </c>
-      <c r="D48" s="226"/>
-      <c r="E48" s="229" t="s">
+      <c r="D48" s="248"/>
+      <c r="E48" s="249" t="s">
         <v>438</v>
       </c>
-      <c r="F48" s="226"/>
-      <c r="G48" s="174"/>
-      <c r="H48" s="163"/>
-    </row>
-    <row r="49" spans="1:8" s="179" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="159"/>
-      <c r="B49" s="110" t="s">
+      <c r="F48" s="248"/>
+      <c r="G48" s="170"/>
+      <c r="H48" s="159"/>
+    </row>
+    <row r="49" spans="1:8" s="175" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="155"/>
+      <c r="B49" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="C49" s="225" t="s">
+      <c r="C49" s="247" t="s">
         <v>439</v>
       </c>
-      <c r="D49" s="226"/>
-      <c r="E49" s="229" t="s">
+      <c r="D49" s="248"/>
+      <c r="E49" s="249" t="s">
         <v>440</v>
       </c>
-      <c r="F49" s="226"/>
-      <c r="G49" s="174"/>
-      <c r="H49" s="163"/>
-    </row>
-    <row r="50" spans="1:8" s="179" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="159"/>
-      <c r="B50" s="112" t="s">
+      <c r="F49" s="248"/>
+      <c r="G49" s="170"/>
+      <c r="H49" s="159"/>
+    </row>
+    <row r="50" spans="1:8" s="175" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="155"/>
+      <c r="B50" s="108" t="s">
         <v>417</v>
       </c>
-      <c r="C50" s="225" t="s">
+      <c r="C50" s="247" t="s">
         <v>442</v>
       </c>
-      <c r="D50" s="226"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="195"/>
-      <c r="G50" s="197"/>
-      <c r="H50" s="163"/>
-    </row>
-    <row r="51" spans="1:8" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="159"/>
-      <c r="B51" s="175"/>
-      <c r="C51" s="176"/>
-      <c r="D51" s="176"/>
-      <c r="E51" s="176"/>
-      <c r="F51" s="176"/>
-      <c r="G51" s="177"/>
-      <c r="H51" s="163"/>
-    </row>
-    <row r="52" spans="1:8" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="159"/>
-      <c r="B52" s="159"/>
-      <c r="C52" s="159"/>
-      <c r="D52" s="159"/>
-      <c r="E52" s="159"/>
-      <c r="F52" s="159"/>
-      <c r="G52" s="159"/>
-      <c r="H52" s="159"/>
-    </row>
-    <row r="53" spans="1:8" s="179" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="159"/>
-      <c r="B53" s="227" t="s">
+      <c r="D50" s="248"/>
+      <c r="E50" s="192"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="193"/>
+      <c r="H50" s="159"/>
+    </row>
+    <row r="51" spans="1:8" s="175" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="155"/>
+      <c r="B51" s="171"/>
+      <c r="C51" s="172"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="172"/>
+      <c r="F51" s="172"/>
+      <c r="G51" s="173"/>
+      <c r="H51" s="159"/>
+    </row>
+    <row r="52" spans="1:8" s="175" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="155"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+    </row>
+    <row r="53" spans="1:8" s="175" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="155"/>
+      <c r="B53" s="245" t="s">
         <v>441</v>
       </c>
-      <c r="C53" s="228"/>
-      <c r="D53" s="172"/>
-      <c r="E53" s="172"/>
-      <c r="F53" s="172"/>
-      <c r="G53" s="173"/>
-      <c r="H53" s="163"/>
-    </row>
-    <row r="54" spans="1:8" s="179" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="159"/>
-      <c r="B54" s="110" t="s">
+      <c r="C53" s="246"/>
+      <c r="D53" s="168"/>
+      <c r="E53" s="168"/>
+      <c r="F53" s="168"/>
+      <c r="G53" s="169"/>
+      <c r="H53" s="159"/>
+    </row>
+    <row r="54" spans="1:8" s="175" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="155"/>
+      <c r="B54" s="106" t="s">
         <v>417</v>
       </c>
-      <c r="C54" s="225" t="s">
+      <c r="C54" s="247" t="s">
         <v>445</v>
       </c>
-      <c r="D54" s="226"/>
-      <c r="E54" s="229"/>
-      <c r="F54" s="226"/>
-      <c r="G54" s="174"/>
-      <c r="H54" s="163"/>
-    </row>
-    <row r="55" spans="1:8" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="159"/>
-      <c r="B55" s="175"/>
-      <c r="C55" s="176"/>
-      <c r="D55" s="176"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="176"/>
-      <c r="G55" s="177"/>
-      <c r="H55" s="163"/>
+      <c r="D54" s="248"/>
+      <c r="E54" s="249"/>
+      <c r="F54" s="248"/>
+      <c r="G54" s="170"/>
+      <c r="H54" s="159"/>
+    </row>
+    <row r="55" spans="1:8" s="175" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="155"/>
+      <c r="B55" s="171"/>
+      <c r="C55" s="172"/>
+      <c r="D55" s="172"/>
+      <c r="E55" s="172"/>
+      <c r="F55" s="172"/>
+      <c r="G55" s="173"/>
+      <c r="H55" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -8989,15 +9314,15 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="C48:D48"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="C48:D48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9072,810 +9397,1807 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="65" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="65" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" style="65" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="65" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="65"/>
+    <col min="1" max="1" width="3.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.85546875" style="64" customWidth="1"/>
+    <col min="4" max="4" width="60.7109375" style="64" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="223" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B2" s="73"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="75"/>
-    </row>
-    <row r="3" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B3" s="68"/>
+    <row r="1" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="221"/>
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="218"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="F2" s="223"/>
+      <c r="G2" s="223"/>
+      <c r="H2" s="223"/>
+      <c r="I2" s="223"/>
+      <c r="J2" s="223"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="218"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="69"/>
-    </row>
-    <row r="4" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B4" s="68"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="218"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="47" t="s">
         <v>320</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="E4" s="69"/>
-    </row>
-    <row r="5" spans="2:5" ht="24" x14ac:dyDescent="0.2">
-      <c r="B5" s="68"/>
+      <c r="F4" s="223"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="223"/>
+    </row>
+    <row r="5" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="218"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="E5" s="69"/>
-    </row>
-    <row r="6" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="78"/>
-    </row>
-    <row r="7" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B8" s="73"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="75"/>
-    </row>
-    <row r="9" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B9" s="79"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="223"/>
+      <c r="H5" s="223"/>
+      <c r="I5" s="223"/>
+      <c r="J5" s="223"/>
+    </row>
+    <row r="6" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="218"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="76"/>
+      <c r="F6" s="223"/>
+      <c r="G6" s="223"/>
+      <c r="H6" s="223"/>
+      <c r="I6" s="223"/>
+      <c r="J6" s="223"/>
+    </row>
+    <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="221"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="F7" s="223"/>
+      <c r="G7" s="223"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="223"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="218"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="73"/>
+      <c r="F8" s="223"/>
+      <c r="G8" s="223"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="218"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E9" s="80"/>
-    </row>
-    <row r="10" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B10" s="79"/>
-      <c r="C10" s="81" t="s">
+      <c r="F9" s="223"/>
+      <c r="G9" s="223"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="223"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="218"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="224" t="s">
         <v>309</v>
       </c>
-      <c r="E10" s="80"/>
-    </row>
-    <row r="11" spans="2:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="79"/>
-      <c r="C11" s="81" t="s">
+      <c r="F10" s="223"/>
+      <c r="G10" s="223"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="223"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="218"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="224" t="s">
         <v>311</v>
       </c>
-      <c r="E11" s="80"/>
-    </row>
-    <row r="12" spans="2:5" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="78"/>
-    </row>
-    <row r="14" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B15" s="73"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-    </row>
-    <row r="16" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B16" s="79"/>
-      <c r="C16" s="45" t="s">
+      <c r="F11" s="223"/>
+      <c r="G11" s="223"/>
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="223"/>
+    </row>
+    <row r="12" spans="1:10" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="218"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="F12" s="223"/>
+      <c r="G12" s="223"/>
+      <c r="H12" s="223"/>
+      <c r="I12" s="223"/>
+      <c r="J12" s="223"/>
+    </row>
+    <row r="13" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="221"/>
+      <c r="B13" s="221"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="221"/>
+      <c r="F13" s="223"/>
+      <c r="G13" s="223"/>
+      <c r="H13" s="223"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="218"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="225"/>
+      <c r="F14" s="223"/>
+      <c r="G14" s="223"/>
+      <c r="H14" s="223"/>
+      <c r="I14" s="223"/>
+      <c r="J14" s="223"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="218"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D15" s="226" t="s">
         <v>313</v>
       </c>
-      <c r="E16" s="80"/>
-    </row>
-    <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="79"/>
-      <c r="C17" s="81" t="s">
+      <c r="F15" s="223"/>
+      <c r="G15" s="223"/>
+      <c r="H15" s="223"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+    </row>
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="218"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D17" s="81" t="s">
+      <c r="D16" s="227" t="s">
         <v>315</v>
       </c>
-      <c r="E17" s="80"/>
-    </row>
-    <row r="18" spans="2:5" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="79"/>
-      <c r="C18" s="81" t="s">
+      <c r="F16" s="223"/>
+      <c r="G16" s="223"/>
+      <c r="H16" s="223"/>
+      <c r="I16" s="223"/>
+      <c r="J16" s="223"/>
+    </row>
+    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="218"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="D18" s="81" t="s">
+      <c r="D17" s="227" t="s">
         <v>317</v>
       </c>
-      <c r="E18" s="80"/>
-    </row>
-    <row r="19" spans="2:5" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="76"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
-    </row>
-    <row r="20" spans="2:5" ht="12.95" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B21" s="73"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="75"/>
-    </row>
-    <row r="22" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B22" s="49"/>
-      <c r="C22" s="45" t="s">
+      <c r="F17" s="223"/>
+      <c r="G17" s="223"/>
+      <c r="H17" s="223"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+    </row>
+    <row r="18" spans="1:10" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="218"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="228"/>
+      <c r="F18" s="223"/>
+      <c r="G18" s="223"/>
+      <c r="H18" s="223"/>
+      <c r="I18" s="223"/>
+      <c r="J18" s="223"/>
+    </row>
+    <row r="19" spans="1:10" s="214" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="221"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="223"/>
+      <c r="G19" s="223"/>
+      <c r="H19" s="223"/>
+      <c r="I19" s="223"/>
+      <c r="J19" s="223"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="218"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="72"/>
+      <c r="D20" s="73"/>
+      <c r="F20" s="223"/>
+      <c r="G20" s="223"/>
+      <c r="H20" s="223"/>
+      <c r="I20" s="223"/>
+      <c r="J20" s="223"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="218"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D21" s="46" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B23" s="68"/>
+      <c r="F21" s="223"/>
+      <c r="G21" s="223"/>
+      <c r="H21" s="223"/>
+      <c r="I21" s="223"/>
+      <c r="J21" s="223"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="218"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="47" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="F22" s="223"/>
+      <c r="G22" s="223"/>
+      <c r="H22" s="223"/>
+      <c r="I22" s="223"/>
+      <c r="J22" s="223"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="218"/>
+      <c r="B23" s="66"/>
       <c r="C23" s="47" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="69" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B24" s="68"/>
+        <v>208</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="F23" s="223"/>
+      <c r="G23" s="223"/>
+      <c r="H23" s="223"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="223"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="218"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="69" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B25" s="68"/>
-      <c r="C25" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D24" s="67" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B26" s="68"/>
+      <c r="F24" s="223"/>
+      <c r="G24" s="223"/>
+      <c r="H24" s="223"/>
+      <c r="I24" s="223"/>
+      <c r="J24" s="223"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="218"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="67"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="223"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="218"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="47"/>
-      <c r="D26" s="69"/>
-    </row>
-    <row r="27" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B27" s="68"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="69"/>
-    </row>
-    <row r="28" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B28" s="68" t="s">
+      <c r="D26" s="67"/>
+      <c r="F26" s="223"/>
+      <c r="G26" s="223"/>
+      <c r="H26" s="223"/>
+      <c r="I26" s="223"/>
+      <c r="J26" s="223"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="218"/>
+      <c r="B27" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="C28" s="47" t="s">
+      <c r="C27" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D27" s="67" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="12" x14ac:dyDescent="0.2">
-      <c r="B29" s="71" t="s">
+      <c r="F27" s="223"/>
+      <c r="G27" s="223"/>
+      <c r="H27" s="223"/>
+      <c r="I27" s="223"/>
+      <c r="J27" s="223"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="218"/>
+      <c r="B28" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="70" t="s">
+      <c r="C28" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D28" s="70" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B30" s="71" t="s">
+      <c r="F28" s="223"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="223"/>
+      <c r="I28" s="223"/>
+      <c r="J28" s="223"/>
+    </row>
+    <row r="29" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="218"/>
+      <c r="B29" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="70" t="s">
+      <c r="C29" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="D30" s="72" t="s">
+      <c r="D29" s="70" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="76"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="78"/>
-    </row>
-    <row r="32" spans="2:5" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="73"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="75"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="68"/>
-      <c r="C34" s="45" t="s">
+      <c r="F29" s="223"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="223"/>
+    </row>
+    <row r="30" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="218"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="223"/>
+    </row>
+    <row r="31" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="218"/>
+      <c r="B32" s="71"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="259"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="223"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="223"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="218"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="45" t="s">
+      <c r="D33" s="46" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="68"/>
+      <c r="E33" s="259"/>
+      <c r="F33" s="223"/>
+      <c r="G33" s="223"/>
+      <c r="H33" s="223"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="223"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="218"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="67"/>
+      <c r="E34" s="259"/>
+      <c r="F34" s="223"/>
+      <c r="G34" s="223"/>
+      <c r="H34" s="223"/>
+      <c r="I34" s="223"/>
+      <c r="J34" s="223"/>
+    </row>
+    <row r="35" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="218"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="69"/>
-    </row>
-    <row r="36" spans="2:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B36" s="68"/>
-      <c r="C36" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D35" s="67" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="68"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="69"/>
-    </row>
-    <row r="38" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="76"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="78"/>
-    </row>
-    <row r="41" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="73"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="75"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="68"/>
-      <c r="C43" s="45" t="s">
+      <c r="E35" s="259"/>
+      <c r="F35" s="223"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="223"/>
+      <c r="I35" s="223"/>
+      <c r="J35" s="223"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="218"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="223"/>
+      <c r="G36" s="223"/>
+      <c r="H36" s="223"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="223"/>
+    </row>
+    <row r="37" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="218"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="259"/>
+      <c r="F37" s="223"/>
+      <c r="G37" s="223"/>
+      <c r="H37" s="223"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="223"/>
+    </row>
+    <row r="38" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:10" s="214" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="218"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="259"/>
+      <c r="F39" s="223"/>
+      <c r="G39" s="223"/>
+      <c r="H39" s="223"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="223"/>
+    </row>
+    <row r="40" spans="1:10" s="214" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="218"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="45" t="s">
+        <v>462</v>
+      </c>
+      <c r="D40" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="E40" s="259"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="223"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="223"/>
+      <c r="J40" s="223"/>
+    </row>
+    <row r="41" spans="1:10" s="214" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="218"/>
+      <c r="B41" s="66" t="s">
+        <v>469</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>466</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>467</v>
+      </c>
+      <c r="E41" s="259"/>
+      <c r="F41" s="223"/>
+      <c r="G41" s="223"/>
+      <c r="H41" s="223"/>
+      <c r="I41" s="223"/>
+      <c r="J41" s="223"/>
+    </row>
+    <row r="42" spans="1:10" s="214" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="218"/>
+      <c r="B42" s="66" t="s">
+        <v>468</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>471</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>470</v>
+      </c>
+      <c r="E42" s="259"/>
+      <c r="F42" s="223"/>
+      <c r="G42" s="223"/>
+      <c r="H42" s="223"/>
+      <c r="I42" s="223"/>
+      <c r="J42" s="223"/>
+    </row>
+    <row r="43" spans="1:10" s="214" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="218"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="259"/>
+      <c r="F43" s="223"/>
+      <c r="G43" s="223"/>
+      <c r="H43" s="223"/>
+      <c r="I43" s="223"/>
+      <c r="J43" s="223"/>
+    </row>
+    <row r="44" spans="1:10" s="214" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="218"/>
+      <c r="B44" s="79" t="s">
+        <v>474</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>473</v>
+      </c>
+      <c r="D44" s="266" t="s">
+        <v>472</v>
+      </c>
+      <c r="E44" s="259"/>
+      <c r="F44" s="223"/>
+      <c r="G44" s="223"/>
+      <c r="H44" s="223"/>
+      <c r="I44" s="223"/>
+      <c r="J44" s="223"/>
+    </row>
+    <row r="45" spans="1:10" s="214" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="218"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="75"/>
+      <c r="D45" s="76"/>
+      <c r="E45" s="259"/>
+      <c r="F45" s="223"/>
+      <c r="G45" s="223"/>
+      <c r="H45" s="223"/>
+      <c r="I45" s="223"/>
+      <c r="J45" s="223"/>
+    </row>
+    <row r="46" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="218"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="72"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="259"/>
+      <c r="F47" s="223"/>
+      <c r="G47" s="223"/>
+      <c r="H47" s="223"/>
+      <c r="I47" s="223"/>
+      <c r="J47" s="223"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="218"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="D43" s="45" t="s">
+      <c r="D48" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="F43" s="69"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="68"/>
-      <c r="C44" s="47" t="s">
+      <c r="E48" s="259"/>
+      <c r="F48" s="223"/>
+      <c r="G48" s="223"/>
+      <c r="H48" s="223"/>
+      <c r="I48" s="223"/>
+      <c r="J48" s="223"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="218"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="47" t="s">
         <v>283</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D49" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="69"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="82"/>
-      <c r="C45" s="48" t="s">
+      <c r="E49" s="259"/>
+      <c r="F49" s="223"/>
+      <c r="G49" s="223"/>
+      <c r="H49" s="223"/>
+      <c r="I49" s="223"/>
+      <c r="J49" s="223"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="218"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D50" s="260" t="s">
         <v>281</v>
       </c>
-      <c r="E45" s="48"/>
-      <c r="F45" s="83"/>
-    </row>
-    <row r="46" spans="2:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B46" s="82"/>
-      <c r="C46" s="48" t="s">
+      <c r="E50" s="259"/>
+      <c r="F50" s="223"/>
+      <c r="G50" s="223"/>
+      <c r="H50" s="223"/>
+      <c r="I50" s="223"/>
+      <c r="J50" s="223"/>
+    </row>
+    <row r="51" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A51" s="218"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D46" s="48"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="83"/>
-    </row>
-    <row r="47" spans="2:6" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="82"/>
-      <c r="C47" s="50" t="s">
+      <c r="D51" s="260"/>
+      <c r="E51" s="259"/>
+      <c r="F51" s="223"/>
+      <c r="G51" s="223"/>
+      <c r="H51" s="223"/>
+      <c r="I51" s="223"/>
+      <c r="J51" s="223"/>
+    </row>
+    <row r="52" spans="1:10" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="218"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="261" t="s">
         <v>285</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="83"/>
-    </row>
-    <row r="48" spans="2:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="76"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="78"/>
-    </row>
-    <row r="49" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="73"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="74"/>
-      <c r="F50" s="75"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="68"/>
-      <c r="C51" s="45" t="s">
+      <c r="D52" s="76"/>
+      <c r="E52" s="259"/>
+      <c r="F52" s="223"/>
+      <c r="G52" s="223"/>
+      <c r="H52" s="223"/>
+      <c r="I52" s="223"/>
+      <c r="J52" s="223"/>
+    </row>
+    <row r="53" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="262"/>
+      <c r="C53" s="262"/>
+      <c r="D53" s="262"/>
+      <c r="E53" s="262"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="218"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="72"/>
+      <c r="E54" s="263"/>
+      <c r="F54" s="259"/>
+      <c r="G54" s="223"/>
+      <c r="H54" s="223"/>
+      <c r="I54" s="223"/>
+      <c r="J54" s="223"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="218"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="D51" s="45" t="s">
+      <c r="D55" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="E51" s="45" t="s">
+      <c r="E55" s="264" t="s">
         <v>278</v>
       </c>
-      <c r="F51" s="69"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="68" t="s">
+      <c r="F55" s="259"/>
+      <c r="G55" s="223"/>
+      <c r="H55" s="223"/>
+      <c r="I55" s="223"/>
+      <c r="J55" s="223"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="218"/>
+      <c r="B56" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="47" t="s">
+      <c r="C56" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="69"/>
-    </row>
-    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B53" s="68" t="s">
+      <c r="D56" s="47"/>
+      <c r="E56" s="264"/>
+      <c r="F56" s="259"/>
+      <c r="G56" s="223"/>
+      <c r="H56" s="223"/>
+      <c r="I56" s="223"/>
+      <c r="J56" s="223"/>
+    </row>
+    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="218"/>
+      <c r="B57" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C53" s="47" t="s">
+      <c r="C57" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="69"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="68" t="s">
+      <c r="D57" s="47"/>
+      <c r="E57" s="264"/>
+      <c r="F57" s="259"/>
+      <c r="G57" s="223"/>
+      <c r="H57" s="223"/>
+      <c r="I57" s="223"/>
+      <c r="J57" s="223"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="218"/>
+      <c r="B58" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C58" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="69"/>
-    </row>
-    <row r="55" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B55" s="68" t="s">
+      <c r="D58" s="47"/>
+      <c r="E58" s="264"/>
+      <c r="F58" s="259"/>
+      <c r="G58" s="223"/>
+      <c r="H58" s="223"/>
+      <c r="I58" s="223"/>
+      <c r="J58" s="223"/>
+    </row>
+    <row r="59" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="218"/>
+      <c r="B59" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C59" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="69"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="68" t="s">
+      <c r="D59" s="47"/>
+      <c r="E59" s="264"/>
+      <c r="F59" s="259"/>
+      <c r="G59" s="223"/>
+      <c r="H59" s="223"/>
+      <c r="I59" s="223"/>
+      <c r="J59" s="223"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="218"/>
+      <c r="B60" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C60" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="69"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="68" t="s">
+      <c r="D60" s="47"/>
+      <c r="E60" s="264"/>
+      <c r="F60" s="259"/>
+      <c r="G60" s="223"/>
+      <c r="H60" s="223"/>
+      <c r="I60" s="223"/>
+      <c r="J60" s="223"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="218"/>
+      <c r="B61" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C57" s="47" t="s">
+      <c r="C61" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D61" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="E57" s="47"/>
-      <c r="F57" s="69"/>
-    </row>
-    <row r="58" spans="1:6" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="68" t="s">
+      <c r="E61" s="264"/>
+      <c r="F61" s="259"/>
+      <c r="G61" s="223"/>
+      <c r="H61" s="223"/>
+      <c r="I61" s="223"/>
+      <c r="J61" s="223"/>
+    </row>
+    <row r="62" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="218"/>
+      <c r="B62" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="47" t="s">
+      <c r="C62" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="69"/>
-    </row>
-    <row r="59" spans="1:6" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B59" s="82" t="s">
+      <c r="D62" s="47"/>
+      <c r="E62" s="264"/>
+      <c r="F62" s="259"/>
+      <c r="G62" s="223"/>
+      <c r="H62" s="223"/>
+      <c r="I62" s="223"/>
+      <c r="J62" s="223"/>
+    </row>
+    <row r="63" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A63" s="218"/>
+      <c r="B63" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C63" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D59" s="48"/>
-      <c r="E59" s="48"/>
-      <c r="F59" s="83"/>
-    </row>
-    <row r="60" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B60" s="82" t="s">
+      <c r="D63" s="48"/>
+      <c r="E63" s="264"/>
+      <c r="F63" s="259"/>
+      <c r="G63" s="223"/>
+      <c r="H63" s="223"/>
+      <c r="I63" s="223"/>
+      <c r="J63" s="223"/>
+    </row>
+    <row r="64" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="218"/>
+      <c r="B64" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C64" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="D60" s="48"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="83"/>
-    </row>
-    <row r="61" spans="1:6" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="76"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="78"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="52"/>
-    </row>
-    <row r="64" spans="1:6" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="51" t="s">
+      <c r="D64" s="48"/>
+      <c r="E64" s="264"/>
+      <c r="F64" s="259"/>
+      <c r="G64" s="223"/>
+      <c r="H64" s="223"/>
+      <c r="I64" s="223"/>
+      <c r="J64" s="223"/>
+    </row>
+    <row r="65" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="218"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="265"/>
+      <c r="F65" s="259"/>
+      <c r="G65" s="223"/>
+      <c r="H65" s="223"/>
+      <c r="I65" s="223"/>
+      <c r="J65" s="223"/>
+    </row>
+    <row r="66" spans="1:10" s="221" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="219"/>
+      <c r="B67" s="51"/>
+      <c r="F67" s="223"/>
+      <c r="G67" s="223"/>
+      <c r="H67" s="223"/>
+      <c r="I67" s="223"/>
+      <c r="J67" s="223"/>
+    </row>
+    <row r="68" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="219" t="s">
         <v>318</v>
       </c>
-      <c r="B64" s="53" t="s">
+      <c r="B68" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="53" t="s">
+      <c r="C68" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="D64" s="53" t="s">
+      <c r="D68" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="E64" s="65" t="s">
+      <c r="E68" s="223" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="51" t="s">
+      <c r="F68" s="223"/>
+      <c r="G68" s="223"/>
+      <c r="H68" s="223"/>
+      <c r="I68" s="223"/>
+      <c r="J68" s="223"/>
+    </row>
+    <row r="69" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="219" t="s">
         <v>318</v>
       </c>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54" t="s">
+      <c r="B69" s="53"/>
+      <c r="C69" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="D69" s="53" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="51" t="s">
+      <c r="F69" s="223"/>
+      <c r="G69" s="223"/>
+      <c r="H69" s="223"/>
+      <c r="I69" s="223"/>
+      <c r="J69" s="223"/>
+    </row>
+    <row r="70" spans="1:10" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="219" t="s">
         <v>318</v>
       </c>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54" t="s">
+      <c r="B70" s="53"/>
+      <c r="C70" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="D66" s="54" t="s">
+      <c r="D70" s="53" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="51" t="s">
+      <c r="F70" s="223"/>
+      <c r="G70" s="223"/>
+      <c r="H70" s="223"/>
+      <c r="I70" s="223"/>
+      <c r="J70" s="223"/>
+    </row>
+    <row r="71" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A71" s="219" t="s">
         <v>318</v>
       </c>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54" t="s">
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="51" t="s">
+      <c r="F71" s="223"/>
+      <c r="G71" s="223"/>
+      <c r="H71" s="223"/>
+      <c r="I71" s="223"/>
+      <c r="J71" s="223"/>
+    </row>
+    <row r="72" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="219" t="s">
         <v>318</v>
       </c>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-    </row>
-    <row r="69" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="51" t="s">
+      <c r="B72" s="53"/>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53"/>
+      <c r="F72" s="223"/>
+      <c r="G72" s="223"/>
+      <c r="H72" s="223"/>
+      <c r="I72" s="223"/>
+      <c r="J72" s="223"/>
+    </row>
+    <row r="73" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="219" t="s">
         <v>318</v>
       </c>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54" t="s">
+      <c r="B73" s="53"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="53" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="51" t="s">
+      <c r="F73" s="223"/>
+      <c r="G73" s="223"/>
+      <c r="H73" s="223"/>
+      <c r="I73" s="223"/>
+      <c r="J73" s="223"/>
+    </row>
+    <row r="74" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="219" t="s">
         <v>318</v>
       </c>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-    </row>
-    <row r="71" spans="1:4" s="61" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="66"/>
-      <c r="B71" s="67"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-    </row>
-    <row r="72" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="51" t="s">
+      <c r="B74" s="53"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="F74" s="223"/>
+      <c r="G74" s="223"/>
+      <c r="H74" s="223"/>
+      <c r="I74" s="223"/>
+      <c r="J74" s="223"/>
+    </row>
+    <row r="75" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="219"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="223"/>
+      <c r="F75" s="223"/>
+      <c r="G75" s="223"/>
+      <c r="H75" s="223"/>
+      <c r="I75" s="223"/>
+      <c r="J75" s="223"/>
+    </row>
+    <row r="76" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="219" t="s">
         <v>318</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B76" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C76" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="D72" s="53" t="s">
+      <c r="D76" s="52" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="51" t="s">
+      <c r="F76" s="223"/>
+      <c r="G76" s="223"/>
+      <c r="H76" s="223"/>
+      <c r="I76" s="223"/>
+      <c r="J76" s="223"/>
+    </row>
+    <row r="77" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="219" t="s">
         <v>318</v>
       </c>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54" t="s">
+      <c r="B77" s="53"/>
+      <c r="C77" s="53" t="s">
         <v>288</v>
       </c>
-      <c r="D73" s="65" t="s">
+      <c r="D77" s="64" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="51" t="s">
+      <c r="F77" s="223"/>
+      <c r="G77" s="223"/>
+      <c r="H77" s="223"/>
+      <c r="I77" s="223"/>
+      <c r="J77" s="223"/>
+    </row>
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="219" t="s">
         <v>318</v>
       </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54" t="s">
+      <c r="B78" s="53"/>
+      <c r="C78" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="D74" s="54" t="s">
+      <c r="D78" s="53" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="51" t="s">
+      <c r="F78" s="223"/>
+      <c r="G78" s="223"/>
+      <c r="H78" s="223"/>
+      <c r="I78" s="223"/>
+      <c r="J78" s="223"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="219" t="s">
         <v>318</v>
       </c>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54" t="s">
+      <c r="B79" s="53"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="51" t="s">
+      <c r="F79" s="223"/>
+      <c r="G79" s="223"/>
+      <c r="H79" s="223"/>
+      <c r="I79" s="223"/>
+      <c r="J79" s="223"/>
+    </row>
+    <row r="80" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="219" t="s">
         <v>318</v>
       </c>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="51" t="s">
+      <c r="B80" s="53"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="F80" s="223"/>
+      <c r="G80" s="223"/>
+      <c r="H80" s="223"/>
+      <c r="I80" s="223"/>
+      <c r="J80" s="223"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="218"/>
+      <c r="F81" s="223"/>
+      <c r="G81" s="223"/>
+      <c r="H81" s="223"/>
+      <c r="I81" s="223"/>
+      <c r="J81" s="223"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="219" t="s">
         <v>248</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B82" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C78" s="55" t="s">
+      <c r="C82" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="D78" s="55" t="s">
+      <c r="D82" s="54" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="51" t="s">
+      <c r="F82" s="223"/>
+      <c r="G82" s="223"/>
+      <c r="H82" s="223"/>
+      <c r="I82" s="223"/>
+      <c r="J82" s="223"/>
+    </row>
+    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="219" t="s">
         <v>248</v>
       </c>
-      <c r="B79" s="54" t="s">
+      <c r="B83" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="C79" s="54" t="s">
+      <c r="C83" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="D79" s="54" t="s">
+      <c r="D83" s="53" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="51" t="s">
+      <c r="F83" s="223"/>
+      <c r="G83" s="223"/>
+      <c r="H83" s="223"/>
+      <c r="I83" s="223"/>
+      <c r="J83" s="223"/>
+    </row>
+    <row r="84" spans="1:10" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="219" t="s">
         <v>248</v>
       </c>
-      <c r="B80" s="54" t="s">
+      <c r="B84" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="C80" s="54"/>
-      <c r="D80" s="54"/>
-    </row>
-    <row r="81" spans="1:4" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="51" t="s">
+      <c r="C84" s="53"/>
+      <c r="D84" s="53"/>
+      <c r="F84" s="223"/>
+      <c r="G84" s="223"/>
+      <c r="H84" s="223"/>
+      <c r="I84" s="223"/>
+      <c r="J84" s="223"/>
+    </row>
+    <row r="85" spans="1:10" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="219" t="s">
         <v>248</v>
       </c>
-      <c r="B81" s="54" t="s">
+      <c r="B85" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="C81" s="54" t="s">
+      <c r="C85" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="D81" s="56" t="s">
+      <c r="D85" s="55" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="51" t="s">
+      <c r="F85" s="223"/>
+      <c r="G85" s="223"/>
+      <c r="H85" s="223"/>
+      <c r="I85" s="223"/>
+      <c r="J85" s="223"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="218"/>
+      <c r="F86" s="223"/>
+      <c r="G86" s="223"/>
+      <c r="H86" s="223"/>
+      <c r="I86" s="223"/>
+      <c r="J86" s="223"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="218"/>
+      <c r="F87" s="223"/>
+      <c r="G87" s="223"/>
+      <c r="H87" s="223"/>
+      <c r="I87" s="223"/>
+      <c r="J87" s="223"/>
+    </row>
+    <row r="88" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="219" t="s">
         <v>254</v>
       </c>
-      <c r="B84" s="57" t="s">
+      <c r="B88" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="C84" s="57" t="s">
+      <c r="C88" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="D84" s="57" t="s">
+      <c r="D88" s="56" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="51" t="s">
+      <c r="F88" s="223"/>
+      <c r="G88" s="223"/>
+      <c r="H88" s="223"/>
+      <c r="I88" s="223"/>
+      <c r="J88" s="223"/>
+    </row>
+    <row r="89" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="219" t="s">
         <v>254</v>
       </c>
-      <c r="B85" s="54"/>
-      <c r="C85" s="56" t="s">
+      <c r="B89" s="53"/>
+      <c r="C89" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="D85" s="56" t="s">
+      <c r="D89" s="55" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="51" t="s">
+      <c r="F89" s="223"/>
+      <c r="G89" s="223"/>
+      <c r="H89" s="223"/>
+      <c r="I89" s="223"/>
+      <c r="J89" s="223"/>
+    </row>
+    <row r="90" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A90" s="219" t="s">
         <v>254</v>
       </c>
-      <c r="B86" s="54"/>
-      <c r="C86" s="54" t="s">
+      <c r="B90" s="53"/>
+      <c r="C90" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="D86" s="54" t="s">
+      <c r="D90" s="53" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="54"/>
-      <c r="C87" s="54" t="s">
+      <c r="F90" s="223"/>
+      <c r="G90" s="223"/>
+      <c r="H90" s="223"/>
+      <c r="I90" s="223"/>
+      <c r="J90" s="223"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="219"/>
+      <c r="B91" s="53"/>
+      <c r="C91" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="D87" s="54" t="s">
+      <c r="D91" s="53" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="51" t="s">
+      <c r="F91" s="223"/>
+      <c r="G91" s="223"/>
+      <c r="H91" s="223"/>
+      <c r="I91" s="223"/>
+      <c r="J91" s="223"/>
+    </row>
+    <row r="92" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="219" t="s">
         <v>254</v>
       </c>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54" t="s">
+      <c r="B92" s="53"/>
+      <c r="C92" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="D88" s="54" t="s">
+      <c r="D92" s="53" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="51" t="s">
+      <c r="F92" s="223"/>
+      <c r="G92" s="223"/>
+      <c r="H92" s="223"/>
+      <c r="I92" s="223"/>
+      <c r="J92" s="223"/>
+    </row>
+    <row r="93" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A93" s="219" t="s">
         <v>254</v>
       </c>
-      <c r="B89" s="54"/>
-      <c r="C89" s="54" t="s">
+      <c r="B93" s="53"/>
+      <c r="C93" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="D89" s="54" t="s">
+      <c r="D93" s="53" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="92" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="51" t="s">
+      <c r="F93" s="223"/>
+      <c r="G93" s="223"/>
+      <c r="H93" s="223"/>
+      <c r="I93" s="223"/>
+      <c r="J93" s="223"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="218"/>
+      <c r="F94" s="223"/>
+      <c r="G94" s="223"/>
+      <c r="H94" s="223"/>
+      <c r="I94" s="223"/>
+      <c r="J94" s="223"/>
+    </row>
+    <row r="95" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="218"/>
+      <c r="F95" s="223"/>
+      <c r="G95" s="223"/>
+      <c r="H95" s="223"/>
+      <c r="I95" s="223"/>
+      <c r="J95" s="223"/>
+    </row>
+    <row r="96" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="219" t="s">
         <v>268</v>
       </c>
-      <c r="B92" s="58"/>
-      <c r="C92" s="59" t="s">
+      <c r="B96" s="57"/>
+      <c r="C96" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="D92" s="60" t="s">
+      <c r="D96" s="59" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="51"/>
-      <c r="B93" s="61"/>
-      <c r="C93" s="61" t="s">
+      <c r="F96" s="223"/>
+      <c r="G96" s="223"/>
+      <c r="H96" s="223"/>
+      <c r="I96" s="223"/>
+      <c r="J96" s="223"/>
+    </row>
+    <row r="97" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="219"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="D93" s="62" t="s">
+      <c r="D97" s="61" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="51"/>
-      <c r="B94" s="61"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="62" t="s">
+      <c r="F97" s="223"/>
+      <c r="G97" s="223"/>
+      <c r="H97" s="223"/>
+      <c r="I97" s="223"/>
+      <c r="J97" s="223"/>
+    </row>
+    <row r="98" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A98" s="219"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="61" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="61"/>
-      <c r="C95" s="61" t="s">
+      <c r="F98" s="223"/>
+      <c r="G98" s="223"/>
+      <c r="H98" s="223"/>
+      <c r="I98" s="223"/>
+      <c r="J98" s="223"/>
+    </row>
+    <row r="99" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="219"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D95" s="62" t="s">
+      <c r="D99" s="61" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="61"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="62"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="61"/>
-      <c r="C97" s="61"/>
-      <c r="D97" s="62"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="51"/>
-      <c r="B98" s="61"/>
-      <c r="C98" s="61"/>
-      <c r="D98" s="62"/>
-    </row>
-    <row r="99" spans="1:4" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="51"/>
-      <c r="B99" s="63"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="64"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="51"/>
+      <c r="F99" s="223"/>
+      <c r="G99" s="223"/>
+      <c r="H99" s="223"/>
+      <c r="I99" s="223"/>
+      <c r="J99" s="223"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="219"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
+      <c r="D100" s="61"/>
+      <c r="F100" s="223"/>
+      <c r="G100" s="223"/>
+      <c r="H100" s="223"/>
+      <c r="I100" s="223"/>
+      <c r="J100" s="223"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="219"/>
+      <c r="B101" s="60"/>
+      <c r="C101" s="60"/>
+      <c r="D101" s="61"/>
+      <c r="F101" s="223"/>
+      <c r="G101" s="223"/>
+      <c r="H101" s="223"/>
+      <c r="I101" s="223"/>
+      <c r="J101" s="223"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="219"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
+      <c r="D102" s="61"/>
+      <c r="F102" s="223"/>
+      <c r="G102" s="223"/>
+      <c r="H102" s="223"/>
+      <c r="I102" s="223"/>
+      <c r="J102" s="223"/>
+    </row>
+    <row r="103" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="219"/>
+      <c r="B103" s="62"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="63"/>
+      <c r="F103" s="223"/>
+      <c r="G103" s="223"/>
+      <c r="H103" s="223"/>
+      <c r="I103" s="223"/>
+      <c r="J103" s="223"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="219"/>
+      <c r="F104" s="223"/>
+      <c r="G104" s="223"/>
+      <c r="H104" s="223"/>
+      <c r="I104" s="223"/>
+      <c r="J104" s="223"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="218"/>
+      <c r="F105" s="223"/>
+      <c r="G105" s="223"/>
+      <c r="H105" s="223"/>
+      <c r="I105" s="223"/>
+      <c r="J105" s="223"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="218"/>
+      <c r="F106" s="223"/>
+      <c r="G106" s="223"/>
+      <c r="H106" s="223"/>
+      <c r="I106" s="223"/>
+      <c r="J106" s="223"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="218"/>
+      <c r="F107" s="223"/>
+      <c r="G107" s="223"/>
+      <c r="H107" s="223"/>
+      <c r="I107" s="223"/>
+      <c r="J107" s="223"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="218"/>
+      <c r="F108" s="223"/>
+      <c r="G108" s="223"/>
+      <c r="H108" s="223"/>
+      <c r="I108" s="223"/>
+      <c r="J108" s="223"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="218"/>
+      <c r="F109" s="223"/>
+      <c r="G109" s="223"/>
+      <c r="H109" s="223"/>
+      <c r="I109" s="223"/>
+      <c r="J109" s="223"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="218"/>
+      <c r="F110" s="223"/>
+      <c r="G110" s="223"/>
+      <c r="H110" s="223"/>
+      <c r="I110" s="223"/>
+      <c r="J110" s="223"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="218"/>
+      <c r="F111" s="223"/>
+      <c r="G111" s="223"/>
+      <c r="H111" s="223"/>
+      <c r="I111" s="223"/>
+      <c r="J111" s="223"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="218"/>
+      <c r="F112" s="223"/>
+      <c r="G112" s="223"/>
+      <c r="H112" s="223"/>
+      <c r="I112" s="223"/>
+      <c r="J112" s="223"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="218"/>
+      <c r="F113" s="223"/>
+      <c r="G113" s="223"/>
+      <c r="H113" s="223"/>
+      <c r="I113" s="223"/>
+      <c r="J113" s="223"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="218"/>
+      <c r="F114" s="223"/>
+      <c r="G114" s="223"/>
+      <c r="H114" s="223"/>
+      <c r="I114" s="223"/>
+      <c r="J114" s="223"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="218"/>
+      <c r="F115" s="223"/>
+      <c r="G115" s="223"/>
+      <c r="H115" s="223"/>
+      <c r="I115" s="223"/>
+      <c r="J115" s="223"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="218"/>
+      <c r="F116" s="223"/>
+      <c r="G116" s="223"/>
+      <c r="H116" s="223"/>
+      <c r="I116" s="223"/>
+      <c r="J116" s="223"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="218"/>
+      <c r="F117" s="223"/>
+      <c r="G117" s="223"/>
+      <c r="H117" s="223"/>
+      <c r="I117" s="223"/>
+      <c r="J117" s="223"/>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="218"/>
+      <c r="F118" s="223"/>
+      <c r="G118" s="223"/>
+      <c r="H118" s="223"/>
+      <c r="I118" s="223"/>
+      <c r="J118" s="223"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="218"/>
+      <c r="F119" s="223"/>
+      <c r="G119" s="223"/>
+      <c r="H119" s="223"/>
+      <c r="I119" s="223"/>
+      <c r="J119" s="223"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="218"/>
+      <c r="F120" s="223"/>
+      <c r="G120" s="223"/>
+      <c r="H120" s="223"/>
+      <c r="I120" s="223"/>
+      <c r="J120" s="223"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="218"/>
+      <c r="F121" s="223"/>
+      <c r="G121" s="223"/>
+      <c r="H121" s="223"/>
+      <c r="I121" s="223"/>
+      <c r="J121" s="223"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="218"/>
+      <c r="F122" s="223"/>
+      <c r="G122" s="223"/>
+      <c r="H122" s="223"/>
+      <c r="I122" s="223"/>
+      <c r="J122" s="223"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="218"/>
+      <c r="F123" s="223"/>
+      <c r="G123" s="223"/>
+      <c r="H123" s="223"/>
+      <c r="I123" s="223"/>
+      <c r="J123" s="223"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="218"/>
+      <c r="F124" s="223"/>
+      <c r="G124" s="223"/>
+      <c r="H124" s="223"/>
+      <c r="I124" s="223"/>
+      <c r="J124" s="223"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="220"/>
+      <c r="F125" s="223"/>
+      <c r="G125" s="223"/>
+      <c r="H125" s="223"/>
+      <c r="I125" s="223"/>
+      <c r="J125" s="223"/>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F126" s="223"/>
+      <c r="G126" s="223"/>
+      <c r="H126" s="223"/>
+      <c r="I126" s="223"/>
+      <c r="J126" s="223"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F127" s="223"/>
+      <c r="G127" s="223"/>
+      <c r="H127" s="223"/>
+      <c r="I127" s="223"/>
+      <c r="J127" s="223"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F128" s="223"/>
+      <c r="G128" s="223"/>
+      <c r="H128" s="223"/>
+      <c r="I128" s="223"/>
+      <c r="J128" s="223"/>
+    </row>
+    <row r="129" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F129" s="223"/>
+      <c r="G129" s="223"/>
+      <c r="H129" s="223"/>
+      <c r="I129" s="223"/>
+      <c r="J129" s="223"/>
+    </row>
+    <row r="130" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F130" s="223"/>
+      <c r="G130" s="223"/>
+      <c r="H130" s="223"/>
+      <c r="I130" s="223"/>
+      <c r="J130" s="223"/>
+    </row>
+    <row r="131" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F131" s="223"/>
+      <c r="G131" s="223"/>
+      <c r="H131" s="223"/>
+      <c r="I131" s="223"/>
+      <c r="J131" s="223"/>
+    </row>
+    <row r="132" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F132" s="223"/>
+      <c r="G132" s="223"/>
+      <c r="H132" s="223"/>
+      <c r="I132" s="223"/>
+      <c r="J132" s="223"/>
+    </row>
+    <row r="133" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F133" s="223"/>
+      <c r="G133" s="223"/>
+      <c r="H133" s="223"/>
+      <c r="I133" s="223"/>
+      <c r="J133" s="223"/>
+    </row>
+    <row r="134" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F134" s="223"/>
+      <c r="G134" s="223"/>
+      <c r="H134" s="223"/>
+      <c r="I134" s="223"/>
+      <c r="J134" s="223"/>
+    </row>
+    <row r="135" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F135" s="223"/>
+      <c r="G135" s="223"/>
+      <c r="H135" s="223"/>
+      <c r="I135" s="223"/>
+      <c r="J135" s="223"/>
+    </row>
+    <row r="136" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F136" s="223"/>
+      <c r="G136" s="223"/>
+      <c r="H136" s="223"/>
+      <c r="I136" s="223"/>
+      <c r="J136" s="223"/>
+    </row>
+    <row r="137" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F137" s="223"/>
+      <c r="G137" s="223"/>
+      <c r="H137" s="223"/>
+      <c r="I137" s="223"/>
+      <c r="J137" s="223"/>
+    </row>
+    <row r="138" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F138" s="223"/>
+      <c r="G138" s="223"/>
+      <c r="H138" s="223"/>
+      <c r="I138" s="223"/>
+      <c r="J138" s="223"/>
+    </row>
+    <row r="139" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F139" s="223"/>
+      <c r="G139" s="223"/>
+      <c r="H139" s="223"/>
+      <c r="I139" s="223"/>
+      <c r="J139" s="223"/>
+    </row>
+    <row r="140" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F140" s="223"/>
+      <c r="G140" s="223"/>
+      <c r="H140" s="223"/>
+      <c r="I140" s="223"/>
+      <c r="J140" s="223"/>
+    </row>
+    <row r="141" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F141" s="223"/>
+      <c r="G141" s="223"/>
+      <c r="H141" s="223"/>
+      <c r="I141" s="223"/>
+      <c r="J141" s="223"/>
+    </row>
+    <row r="142" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F142" s="223"/>
+      <c r="G142" s="223"/>
+      <c r="H142" s="223"/>
+      <c r="I142" s="223"/>
+      <c r="J142" s="223"/>
+    </row>
+    <row r="143" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F143" s="223"/>
+      <c r="G143" s="223"/>
+      <c r="H143" s="223"/>
+      <c r="I143" s="223"/>
+      <c r="J143" s="223"/>
+    </row>
+    <row r="144" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F144" s="223"/>
+      <c r="G144" s="223"/>
+      <c r="H144" s="223"/>
+      <c r="I144" s="223"/>
+      <c r="J144" s="223"/>
+    </row>
+    <row r="145" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F145" s="223"/>
+      <c r="G145" s="223"/>
+      <c r="H145" s="223"/>
+      <c r="I145" s="223"/>
+      <c r="J145" s="223"/>
+    </row>
+    <row r="146" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F146" s="223"/>
+      <c r="G146" s="223"/>
+      <c r="H146" s="223"/>
+      <c r="I146" s="223"/>
+      <c r="J146" s="223"/>
+    </row>
+    <row r="147" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F147" s="223"/>
+      <c r="G147" s="223"/>
+      <c r="H147" s="223"/>
+      <c r="I147" s="223"/>
+      <c r="J147" s="223"/>
+    </row>
+    <row r="148" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F148" s="223"/>
+      <c r="G148" s="223"/>
+      <c r="H148" s="223"/>
+      <c r="I148" s="223"/>
+      <c r="J148" s="223"/>
+    </row>
+    <row r="149" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F149" s="223"/>
+      <c r="G149" s="223"/>
+      <c r="H149" s="223"/>
+      <c r="I149" s="223"/>
+      <c r="J149" s="223"/>
+    </row>
+    <row r="150" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F150" s="223"/>
+      <c r="G150" s="223"/>
+      <c r="H150" s="223"/>
+      <c r="I150" s="223"/>
+      <c r="J150" s="223"/>
+    </row>
+    <row r="151" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F151" s="223"/>
+      <c r="G151" s="223"/>
+      <c r="H151" s="223"/>
+      <c r="I151" s="223"/>
+      <c r="J151" s="223"/>
+    </row>
+    <row r="152" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F152" s="223"/>
+      <c r="G152" s="223"/>
+      <c r="H152" s="223"/>
+      <c r="I152" s="223"/>
+      <c r="J152" s="223"/>
+    </row>
+    <row r="153" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F153" s="223"/>
+      <c r="G153" s="223"/>
+      <c r="H153" s="223"/>
+      <c r="I153" s="223"/>
+      <c r="J153" s="223"/>
+    </row>
+    <row r="154" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F154" s="223"/>
+      <c r="G154" s="223"/>
+      <c r="H154" s="223"/>
+      <c r="I154" s="223"/>
+      <c r="J154" s="223"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9912,186 +11234,217 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H20"/>
+  <dimension ref="A2:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="179" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="179"/>
-    <col min="3" max="3" width="36.42578125" style="179" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="179" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="179" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" style="179" customWidth="1"/>
-    <col min="7" max="7" width="64.42578125" style="179" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="179"/>
+    <col min="1" max="1" width="3.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="175" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" style="175" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="175" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" style="175" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" style="175" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="175"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="187"/>
-      <c r="C3" s="188"/>
-      <c r="D3" s="188"/>
-      <c r="E3" s="188"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="188"/>
-      <c r="H3" s="189"/>
-    </row>
-    <row r="4" spans="1:8" s="180" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="182"/>
-      <c r="C4" s="235" t="s">
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="185"/>
+    </row>
+    <row r="4" spans="1:8" s="176" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="178"/>
+      <c r="C4" s="255" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="235"/>
-      <c r="E4" s="235" t="s">
+      <c r="D4" s="255"/>
+      <c r="E4" s="255" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="235"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="183"/>
-    </row>
-    <row r="5" spans="1:8" s="180" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="182" t="s">
+      <c r="F4" s="255"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="179"/>
+    </row>
+    <row r="5" spans="1:8" s="176" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="178" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="234" t="s">
+      <c r="C5" s="254" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="234"/>
-      <c r="E5" s="234" t="s">
+      <c r="D5" s="254"/>
+      <c r="E5" s="254" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="234"/>
-      <c r="G5" s="70" t="s">
+      <c r="F5" s="254"/>
+      <c r="G5" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="H5" s="183"/>
+      <c r="H5" s="179"/>
     </row>
     <row r="6" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="190"/>
-      <c r="C6" s="233" t="s">
+      <c r="B6" s="186"/>
+      <c r="C6" s="253" t="s">
         <v>427</v>
       </c>
-      <c r="D6" s="233"/>
-      <c r="E6" s="233" t="s">
+      <c r="D6" s="253"/>
+      <c r="E6" s="253" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="233"/>
-      <c r="G6" s="184" t="s">
+      <c r="F6" s="253"/>
+      <c r="G6" s="180" t="s">
         <v>428</v>
       </c>
-      <c r="H6" s="191"/>
+      <c r="H6" s="187"/>
     </row>
     <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="179" t="s">
+      <c r="A7" s="175" t="s">
         <v>339</v>
       </c>
-      <c r="B7" s="190"/>
-      <c r="C7" s="233" t="s">
+      <c r="B7" s="186" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="253" t="s">
         <v>425</v>
       </c>
-      <c r="D7" s="233"/>
-      <c r="E7" s="236" t="s">
+      <c r="D7" s="253"/>
+      <c r="E7" s="256" t="s">
         <v>426</v>
       </c>
-      <c r="F7" s="233"/>
-      <c r="G7" s="184"/>
-      <c r="H7" s="191"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="190"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="184"/>
-      <c r="E8" s="184"/>
-      <c r="F8" s="184"/>
-      <c r="G8" s="184"/>
-      <c r="H8" s="191"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="192"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="193"/>
-    </row>
-    <row r="11" spans="1:8" s="180" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="180" t="s">
+      <c r="F7" s="253"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="187"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="186" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" s="257" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="258"/>
+      <c r="E8" s="257" t="s">
+        <v>459</v>
+      </c>
+      <c r="F8" s="258"/>
+      <c r="G8" s="180" t="s">
+        <v>460</v>
+      </c>
+      <c r="H8" s="187"/>
+    </row>
+    <row r="9" spans="1:8" s="205" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="215" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="257" t="s">
+        <v>463</v>
+      </c>
+      <c r="D9" s="258"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="258"/>
+      <c r="G9" s="216"/>
+      <c r="H9" s="217"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="188"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="189"/>
+    </row>
+    <row r="12" spans="1:8" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="176" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="180" t="s">
+      <c r="C12" s="176" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="180" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="180" t="s">
+    <row r="15" spans="1:8" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="176" t="s">
         <v>228</v>
       </c>
-      <c r="C14" s="180" t="s">
+      <c r="C15" s="176" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="180" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="180" t="s">
+    <row r="16" spans="1:8" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="176" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="180" t="s">
+      <c r="C16" s="176" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="181" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="186"/>
-    </row>
-    <row r="17" spans="2:7" s="181" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:7" s="181" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B18" s="181" t="s">
+    <row r="17" spans="2:7" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="182"/>
+    </row>
+    <row r="18" spans="2:7" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:7" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="177" t="s">
         <v>382</v>
       </c>
-      <c r="D18" s="181" t="s">
+      <c r="D19" s="177" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="181" t="s">
+      <c r="E19" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="F18" s="181" t="s">
+      <c r="F19" s="177" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="2:7" s="181" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="181" t="s">
+    <row r="20" spans="2:7" s="177" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="177" t="s">
         <v>382</v>
       </c>
-      <c r="C19" s="181" t="s">
+      <c r="C20" s="177" t="s">
         <v>108</v>
       </c>
-      <c r="D19" s="181" t="s">
+      <c r="D20" s="177" t="s">
         <v>109</v>
       </c>
-      <c r="E19" s="181" t="s">
+      <c r="E20" s="177" t="s">
         <v>111</v>
       </c>
-      <c r="F19" s="181" t="s">
+      <c r="F20" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="G19" s="232"/>
-    </row>
-    <row r="20" spans="2:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="181" t="s">
+      <c r="G20" s="252"/>
+    </row>
+    <row r="21" spans="2:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="177" t="s">
         <v>382</v>
       </c>
-      <c r="C20" s="181"/>
-      <c r="D20" s="181"/>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181"/>
-      <c r="G20" s="232"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="252"/>
+    </row>
+    <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="175" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="175" t="s">
+        <v>458</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="G19:G20"/>
+  <mergeCells count="13">
+    <mergeCell ref="G20:G21"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
@@ -10100,6 +11453,10 @@
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/System_Design_Architecture.xlsx
+++ b/System_Design_Architecture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Princip-Theorm" sheetId="6" r:id="rId3"/>
     <sheet name="Architecture" sheetId="7" r:id="rId4"/>
     <sheet name="System Design" sheetId="16" r:id="rId5"/>
-    <sheet name="Commn" sheetId="8" r:id="rId6"/>
-    <sheet name="Compare" sheetId="9" r:id="rId7"/>
+    <sheet name="Compare" sheetId="9" r:id="rId6"/>
+    <sheet name="Best Pract" sheetId="17" r:id="rId7"/>
     <sheet name="Big Applications" sheetId="11" r:id="rId8"/>
     <sheet name="Situat - Sols" sheetId="12" r:id="rId9"/>
     <sheet name="Techs" sheetId="13" r:id="rId10"/>
     <sheet name="Sprn MVC vs NG" sheetId="14" r:id="rId11"/>
     <sheet name="Internet Flow" sheetId="15" r:id="rId12"/>
+    <sheet name="Commn" sheetId="8" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="498">
   <si>
     <t>Scalability</t>
   </si>
@@ -2159,6 +2160,80 @@
   </si>
   <si>
     <t>Realtime Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In coming stream of data goes to two path; 
+-- Batch Layer ( delayed only append no update)
+-- Speed Layer ( Realtime )
+</t>
+  </si>
+  <si>
+    <t>Data - Design Decisions</t>
+  </si>
+  <si>
+    <t>-- Separation of concerns between READING and WRITING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Historical point-in-time queries ( never loose, keep appending the data) </t>
+  </si>
+  <si>
+    <t>-- WRITE once, READ from many views (MaterialView)</t>
+  </si>
+  <si>
+    <t>RDBMS - Design Decision</t>
+  </si>
+  <si>
+    <t>Cons:
+-- Scalability is big drawback of RDBMS.
+-- Until application requires ACID compliance, then NO GO for RDBMS</t>
+  </si>
+  <si>
+    <t>Atomicity Consistency Isolation Durability</t>
+  </si>
+  <si>
+    <t>Usually Financial domain requires ACID compliance</t>
+  </si>
+  <si>
+    <t>Casandra</t>
+  </si>
+  <si>
+    <t>Mongo</t>
+  </si>
+  <si>
+    <t>Hashed key</t>
+  </si>
+  <si>
+    <t>Common Key</t>
+  </si>
+  <si>
+    <t>RDBMS</t>
+  </si>
+  <si>
+    <t>NO-SQL</t>
+  </si>
+  <si>
+    <t>ACID (Atomicity, Consistency, Isolation, Durability ) compliance</t>
+  </si>
+  <si>
+    <t>No ACID compliance</t>
+  </si>
+  <si>
+    <t>Sharding way scalable; But Big Data situation fails</t>
+  </si>
+  <si>
+    <t>Highliy Scalable</t>
+  </si>
+  <si>
+    <t>Data management; Querying; Transaction etc features comes with it</t>
+  </si>
+  <si>
+    <t>Far less features than RDBMS</t>
+  </si>
+  <si>
+    <t>Available on CAP theory</t>
+  </si>
+  <si>
+    <t>Consistent in CAP theory</t>
   </si>
 </sst>
 </file>
@@ -2306,7 +2381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="87">
+  <borders count="88">
     <border>
       <left/>
       <right/>
@@ -3464,12 +3539,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="267">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4155,6 +4243,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4185,6 +4303,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4245,29 +4375,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4299,13 +4408,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>91441</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657109</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4435,15 +4544,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1876425</xdr:colOff>
+      <xdr:colOff>2000249</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>953562</xdr:rowOff>
+      <xdr:rowOff>1014256</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4460,8 +4569,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5029200" y="8839200"/>
-          <a:ext cx="1828800" cy="896412"/>
+          <a:off x="5181599" y="11963399"/>
+          <a:ext cx="1952625" cy="957107"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4732,6 +4841,59 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2603402</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>2819400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId14">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="29000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-9000" contrast="53000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7267575" y="11944350"/>
+          <a:ext cx="5156102" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4784,13 +4946,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3147060</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>2240280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4852,13 +5014,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3246120</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>3550920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5025,6 +5187,59 @@
         <a:xfrm>
           <a:off x="6426200" y="2971801"/>
           <a:ext cx="3657600" cy="1315142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4783455</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2545243</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId6">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="47000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast contrast="9000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5600700" y="5457825"/>
+          <a:ext cx="4754880" cy="2497618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5503,7 +5718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -5710,8 +5925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5775,7 +5990,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="174" t="s">
         <v>414</v>
       </c>
@@ -6020,12 +6235,77 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G57"/>
+  <dimension ref="B4:G58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -6201,7 +6481,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>64</v>
       </c>
@@ -6212,7 +6492,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
@@ -6223,7 +6503,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C37" s="2" t="s">
         <v>75</v>
       </c>
@@ -6231,12 +6511,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>65</v>
       </c>
@@ -6244,7 +6524,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
         <v>406</v>
       </c>
@@ -6252,7 +6532,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
         <v>406</v>
       </c>
@@ -6263,7 +6543,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
         <v>406</v>
       </c>
@@ -6274,7 +6554,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
         <v>406</v>
       </c>
@@ -6285,7 +6565,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
         <v>406</v>
       </c>
@@ -6293,7 +6573,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
         <v>406</v>
       </c>
@@ -6304,7 +6584,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
         <v>423</v>
       </c>
@@ -6312,41 +6592,38 @@
         <v>424</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="6"/>
-    </row>
-    <row r="51" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B51" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E51" s="229"/>
-      <c r="F51" s="230"/>
-      <c r="G51" s="9"/>
-    </row>
-    <row r="52" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="231"/>
-      <c r="F52" s="232"/>
+        <v>43</v>
+      </c>
+      <c r="E52" s="239"/>
+      <c r="F52" s="240"/>
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -6354,27 +6631,27 @@
         <v>41</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E53" s="231"/>
-      <c r="F53" s="232"/>
+        <v>45</v>
+      </c>
+      <c r="E53" s="241"/>
+      <c r="F53" s="242"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B54" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E54" s="231"/>
-      <c r="F54" s="232"/>
+        <v>51</v>
+      </c>
+      <c r="E54" s="241"/>
+      <c r="F54" s="242"/>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
@@ -6382,40 +6659,54 @@
         <v>41</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="231"/>
-      <c r="F55" s="232"/>
+        <v>52</v>
+      </c>
+      <c r="E55" s="241"/>
+      <c r="F55" s="242"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
       <c r="B56" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="241"/>
+      <c r="F56" s="242"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="233"/>
-      <c r="F56" s="234"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="10"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
+      <c r="E57" s="243"/>
+      <c r="F57" s="244"/>
+      <c r="G57" s="9"/>
+    </row>
+    <row r="58" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E51:F56"/>
+    <mergeCell ref="E52:F57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6427,7 +6718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AA87"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
@@ -6878,12 +7169,12 @@
       <c r="B47" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="235" t="s">
+      <c r="C47" s="245" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="236"/>
-      <c r="E47" s="235"/>
-      <c r="F47" s="236"/>
+      <c r="D47" s="246"/>
+      <c r="E47" s="245"/>
+      <c r="F47" s="246"/>
       <c r="G47" s="120"/>
       <c r="H47" s="117"/>
       <c r="I47" s="111"/>
@@ -6971,10 +7262,10 @@
       <c r="B52" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="237" t="s">
+      <c r="C52" s="247" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="237"/>
+      <c r="D52" s="247"/>
       <c r="E52" s="128"/>
       <c r="F52" s="128"/>
       <c r="G52" s="129"/>
@@ -7532,10 +7823,10 @@
     <row r="75" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="139"/>
       <c r="B75" s="145"/>
-      <c r="C75" s="238" t="s">
+      <c r="C75" s="248" t="s">
         <v>181</v>
       </c>
-      <c r="D75" s="238"/>
+      <c r="D75" s="248"/>
       <c r="E75" s="146"/>
       <c r="F75" s="147"/>
       <c r="G75" s="148"/>
@@ -7615,8 +7906,8 @@
     <row r="84" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="139"/>
       <c r="B84" s="145"/>
-      <c r="C84" s="238"/>
-      <c r="D84" s="238"/>
+      <c r="C84" s="248"/>
+      <c r="D84" s="248"/>
       <c r="E84" s="146"/>
       <c r="F84" s="147"/>
       <c r="G84" s="148"/>
@@ -7667,8 +7958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K204"/>
   <sheetViews>
-    <sheetView topLeftCell="D11" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -7747,10 +8038,10 @@
     <row r="8" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="243" t="s">
+      <c r="C8" s="257" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="243"/>
+      <c r="D8" s="257"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="31"/>
@@ -7759,10 +8050,10 @@
     <row r="9" spans="1:8" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="243" t="s">
+      <c r="C9" s="257" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="243"/>
+      <c r="D9" s="257"/>
       <c r="E9" s="33" t="s">
         <v>195</v>
       </c>
@@ -7773,10 +8064,10 @@
     <row r="10" spans="1:8" s="26" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="243" t="s">
+      <c r="C10" s="257" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="243"/>
+      <c r="D10" s="257"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="31"/>
@@ -7785,10 +8076,10 @@
     <row r="11" spans="1:8" s="26" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="243" t="s">
+      <c r="C11" s="257" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="243"/>
+      <c r="D11" s="257"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="31"/>
@@ -7799,10 +8090,10 @@
       <c r="B12" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="243" t="s">
+      <c r="C12" s="257" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="243"/>
+      <c r="D12" s="257"/>
       <c r="E12" s="33" t="s">
         <v>190</v>
       </c>
@@ -7817,10 +8108,10 @@
       <c r="B13" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="243" t="s">
+      <c r="C13" s="257" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="243"/>
+      <c r="D13" s="257"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="31"/>
@@ -7984,12 +8275,12 @@
       <c r="B26" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="244" t="s">
+      <c r="C26" s="258" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="242"/>
-      <c r="E26" s="239"/>
-      <c r="F26" s="240"/>
+      <c r="D26" s="256"/>
+      <c r="E26" s="253"/>
+      <c r="F26" s="254"/>
       <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:11" s="26" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8000,10 +8291,10 @@
       <c r="D27" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="241" t="s">
+      <c r="E27" s="255" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="242"/>
+      <c r="F27" s="256"/>
       <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -8016,8 +8307,8 @@
     </row>
     <row r="29" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="34"/>
-      <c r="C29" s="243"/>
-      <c r="D29" s="243"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="257"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
       <c r="G29" s="31"/>
@@ -8056,14 +8347,18 @@
       <c r="G33" s="199"/>
       <c r="H33" s="40"/>
     </row>
-    <row r="34" spans="1:8" s="26" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="26" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="200" t="s">
         <v>444</v>
       </c>
+      <c r="C34" s="251" t="s">
+        <v>475</v>
+      </c>
+      <c r="D34" s="252"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="201"/>
+      <c r="F34" s="249"/>
+      <c r="G34" s="250"/>
       <c r="H34" s="40"/>
     </row>
     <row r="35" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -8280,17 +8575,19 @@
     <row r="203" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="204" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C26:D26"/>
+  <mergeCells count="12">
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8302,7 +8599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AA55"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
@@ -8321,10 +8618,10 @@
       <c r="B3" s="80" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="251" t="s">
+      <c r="C3" s="265" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="251"/>
+      <c r="D3" s="265"/>
     </row>
     <row r="4" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="B4" s="80" t="s">
@@ -8656,10 +8953,10 @@
     <row r="20" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="155"/>
       <c r="B20" s="161"/>
-      <c r="C20" s="250" t="s">
+      <c r="C20" s="264" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="250"/>
+      <c r="D20" s="264"/>
       <c r="E20" s="162"/>
       <c r="F20" s="162"/>
       <c r="G20" s="163"/>
@@ -8687,10 +8984,10 @@
     <row r="21" spans="1:27" s="160" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A21" s="155"/>
       <c r="B21" s="161"/>
-      <c r="C21" s="250" t="s">
+      <c r="C21" s="264" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="250"/>
+      <c r="D21" s="264"/>
       <c r="E21" s="162" t="s">
         <v>133</v>
       </c>
@@ -8720,8 +9017,8 @@
     <row r="22" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="155"/>
       <c r="B22" s="161"/>
-      <c r="C22" s="250"/>
-      <c r="D22" s="250"/>
+      <c r="C22" s="264"/>
+      <c r="D22" s="264"/>
       <c r="E22" s="162"/>
       <c r="F22" s="162"/>
       <c r="G22" s="163"/>
@@ -9105,10 +9402,10 @@
       <c r="B39" s="106" t="s">
         <v>443</v>
       </c>
-      <c r="C39" s="247" t="s">
+      <c r="C39" s="261" t="s">
         <v>431</v>
       </c>
-      <c r="D39" s="248"/>
+      <c r="D39" s="262"/>
       <c r="E39" s="107"/>
       <c r="F39" s="107"/>
       <c r="G39" s="170"/>
@@ -9153,10 +9450,10 @@
       <c r="B43" s="106" t="s">
         <v>429</v>
       </c>
-      <c r="C43" s="247" t="s">
+      <c r="C43" s="261" t="s">
         <v>430</v>
       </c>
-      <c r="D43" s="248"/>
+      <c r="D43" s="262"/>
       <c r="E43" s="107"/>
       <c r="F43" s="107"/>
       <c r="G43" s="170"/>
@@ -9194,10 +9491,10 @@
     </row>
     <row r="47" spans="1:27" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="155"/>
-      <c r="B47" s="245" t="s">
+      <c r="B47" s="259" t="s">
         <v>434</v>
       </c>
-      <c r="C47" s="246"/>
+      <c r="C47" s="260"/>
       <c r="D47" s="168"/>
       <c r="E47" s="168"/>
       <c r="F47" s="168"/>
@@ -9209,14 +9506,14 @@
       <c r="B48" s="106" t="s">
         <v>435</v>
       </c>
-      <c r="C48" s="247" t="s">
+      <c r="C48" s="261" t="s">
         <v>437</v>
       </c>
-      <c r="D48" s="248"/>
-      <c r="E48" s="249" t="s">
+      <c r="D48" s="262"/>
+      <c r="E48" s="263" t="s">
         <v>438</v>
       </c>
-      <c r="F48" s="248"/>
+      <c r="F48" s="262"/>
       <c r="G48" s="170"/>
       <c r="H48" s="159"/>
     </row>
@@ -9225,14 +9522,14 @@
       <c r="B49" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="C49" s="247" t="s">
+      <c r="C49" s="261" t="s">
         <v>439</v>
       </c>
-      <c r="D49" s="248"/>
-      <c r="E49" s="249" t="s">
+      <c r="D49" s="262"/>
+      <c r="E49" s="263" t="s">
         <v>440</v>
       </c>
-      <c r="F49" s="248"/>
+      <c r="F49" s="262"/>
       <c r="G49" s="170"/>
       <c r="H49" s="159"/>
     </row>
@@ -9241,10 +9538,10 @@
       <c r="B50" s="108" t="s">
         <v>417</v>
       </c>
-      <c r="C50" s="247" t="s">
+      <c r="C50" s="261" t="s">
         <v>442</v>
       </c>
-      <c r="D50" s="248"/>
+      <c r="D50" s="262"/>
       <c r="E50" s="192"/>
       <c r="F50" s="191"/>
       <c r="G50" s="193"/>
@@ -9272,10 +9569,10 @@
     </row>
     <row r="53" spans="1:8" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="155"/>
-      <c r="B53" s="245" t="s">
+      <c r="B53" s="259" t="s">
         <v>441</v>
       </c>
-      <c r="C53" s="246"/>
+      <c r="C53" s="260"/>
       <c r="D53" s="168"/>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
@@ -9287,12 +9584,12 @@
       <c r="B54" s="106" t="s">
         <v>417</v>
       </c>
-      <c r="C54" s="247" t="s">
+      <c r="C54" s="261" t="s">
         <v>445</v>
       </c>
-      <c r="D54" s="248"/>
-      <c r="E54" s="249"/>
-      <c r="F54" s="248"/>
+      <c r="D54" s="262"/>
+      <c r="E54" s="263"/>
+      <c r="F54" s="262"/>
       <c r="G54" s="170"/>
       <c r="H54" s="159"/>
     </row>
@@ -9332,75 +9629,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C11"/>
+  <dimension ref="A1:J168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>392</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J154"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -9820,7 +10052,7 @@
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
       <c r="D32" s="73"/>
-      <c r="E32" s="259"/>
+      <c r="E32" s="229"/>
       <c r="F32" s="223"/>
       <c r="G32" s="223"/>
       <c r="H32" s="223"/>
@@ -9836,7 +10068,7 @@
       <c r="D33" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="259"/>
+      <c r="E33" s="229"/>
       <c r="F33" s="223"/>
       <c r="G33" s="223"/>
       <c r="H33" s="223"/>
@@ -9850,7 +10082,7 @@
         <v>159</v>
       </c>
       <c r="D34" s="67"/>
-      <c r="E34" s="259"/>
+      <c r="E34" s="229"/>
       <c r="F34" s="223"/>
       <c r="G34" s="223"/>
       <c r="H34" s="223"/>
@@ -9866,7 +10098,7 @@
       <c r="D35" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="259"/>
+      <c r="E35" s="229"/>
       <c r="F35" s="223"/>
       <c r="G35" s="223"/>
       <c r="H35" s="223"/>
@@ -9878,7 +10110,7 @@
       <c r="B36" s="66"/>
       <c r="C36" s="47"/>
       <c r="D36" s="67"/>
-      <c r="E36" s="259"/>
+      <c r="E36" s="229"/>
       <c r="F36" s="223"/>
       <c r="G36" s="223"/>
       <c r="H36" s="223"/>
@@ -9890,7 +10122,7 @@
       <c r="B37" s="74"/>
       <c r="C37" s="75"/>
       <c r="D37" s="76"/>
-      <c r="E37" s="259"/>
+      <c r="E37" s="229"/>
       <c r="F37" s="223"/>
       <c r="G37" s="223"/>
       <c r="H37" s="223"/>
@@ -9903,7 +10135,7 @@
       <c r="B39" s="71"/>
       <c r="C39" s="72"/>
       <c r="D39" s="73"/>
-      <c r="E39" s="259"/>
+      <c r="E39" s="229"/>
       <c r="F39" s="223"/>
       <c r="G39" s="223"/>
       <c r="H39" s="223"/>
@@ -9919,7 +10151,7 @@
       <c r="D40" s="46" t="s">
         <v>461</v>
       </c>
-      <c r="E40" s="259"/>
+      <c r="E40" s="229"/>
       <c r="F40" s="223"/>
       <c r="G40" s="223"/>
       <c r="H40" s="223"/>
@@ -9937,7 +10169,7 @@
       <c r="D41" s="67" t="s">
         <v>467</v>
       </c>
-      <c r="E41" s="259"/>
+      <c r="E41" s="229"/>
       <c r="F41" s="223"/>
       <c r="G41" s="223"/>
       <c r="H41" s="223"/>
@@ -9955,7 +10187,7 @@
       <c r="D42" s="67" t="s">
         <v>470</v>
       </c>
-      <c r="E42" s="259"/>
+      <c r="E42" s="229"/>
       <c r="F42" s="223"/>
       <c r="G42" s="223"/>
       <c r="H42" s="223"/>
@@ -9967,7 +10199,7 @@
       <c r="B43" s="66"/>
       <c r="C43" s="47"/>
       <c r="D43" s="67"/>
-      <c r="E43" s="259"/>
+      <c r="E43" s="229"/>
       <c r="F43" s="223"/>
       <c r="G43" s="223"/>
       <c r="H43" s="223"/>
@@ -9982,10 +10214,10 @@
       <c r="C44" s="50" t="s">
         <v>473</v>
       </c>
-      <c r="D44" s="266" t="s">
+      <c r="D44" s="236" t="s">
         <v>472</v>
       </c>
-      <c r="E44" s="259"/>
+      <c r="E44" s="229"/>
       <c r="F44" s="223"/>
       <c r="G44" s="223"/>
       <c r="H44" s="223"/>
@@ -9997,7 +10229,7 @@
       <c r="B45" s="74"/>
       <c r="C45" s="75"/>
       <c r="D45" s="76"/>
-      <c r="E45" s="259"/>
+      <c r="E45" s="229"/>
       <c r="F45" s="223"/>
       <c r="G45" s="223"/>
       <c r="H45" s="223"/>
@@ -10010,7 +10242,7 @@
       <c r="B47" s="71"/>
       <c r="C47" s="72"/>
       <c r="D47" s="73"/>
-      <c r="E47" s="259"/>
+      <c r="E47" s="229"/>
       <c r="F47" s="223"/>
       <c r="G47" s="223"/>
       <c r="H47" s="223"/>
@@ -10026,7 +10258,7 @@
       <c r="D48" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="E48" s="259"/>
+      <c r="E48" s="229"/>
       <c r="F48" s="223"/>
       <c r="G48" s="223"/>
       <c r="H48" s="223"/>
@@ -10042,7 +10274,7 @@
       <c r="D49" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="E49" s="259"/>
+      <c r="E49" s="229"/>
       <c r="F49" s="223"/>
       <c r="G49" s="223"/>
       <c r="H49" s="223"/>
@@ -10055,10 +10287,10 @@
       <c r="C50" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="D50" s="260" t="s">
+      <c r="D50" s="230" t="s">
         <v>281</v>
       </c>
-      <c r="E50" s="259"/>
+      <c r="E50" s="229"/>
       <c r="F50" s="223"/>
       <c r="G50" s="223"/>
       <c r="H50" s="223"/>
@@ -10071,8 +10303,8 @@
       <c r="C51" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D51" s="260"/>
-      <c r="E51" s="259"/>
+      <c r="D51" s="230"/>
+      <c r="E51" s="229"/>
       <c r="F51" s="223"/>
       <c r="G51" s="223"/>
       <c r="H51" s="223"/>
@@ -10082,11 +10314,11 @@
     <row r="52" spans="1:10" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="218"/>
       <c r="B52" s="74"/>
-      <c r="C52" s="261" t="s">
+      <c r="C52" s="231" t="s">
         <v>285</v>
       </c>
       <c r="D52" s="76"/>
-      <c r="E52" s="259"/>
+      <c r="E52" s="229"/>
       <c r="F52" s="223"/>
       <c r="G52" s="223"/>
       <c r="H52" s="223"/>
@@ -10094,434 +10326,398 @@
       <c r="J52" s="223"/>
     </row>
     <row r="53" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="262"/>
-      <c r="C53" s="262"/>
-      <c r="D53" s="262"/>
-      <c r="E53" s="262"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" s="232"/>
+      <c r="C53" s="232"/>
+      <c r="D53" s="232"/>
+      <c r="E53" s="232"/>
+    </row>
+    <row r="54" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="218"/>
       <c r="B54" s="71"/>
       <c r="C54" s="72"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="263"/>
-      <c r="F54" s="259"/>
+      <c r="D54" s="73"/>
+      <c r="E54" s="229"/>
+      <c r="F54" s="223"/>
       <c r="G54" s="223"/>
       <c r="H54" s="223"/>
       <c r="I54" s="223"/>
       <c r="J54" s="223"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="218"/>
       <c r="B55" s="66"/>
       <c r="C55" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="264" t="s">
-        <v>278</v>
-      </c>
-      <c r="F55" s="259"/>
+        <v>484</v>
+      </c>
+      <c r="D55" s="46" t="s">
+        <v>485</v>
+      </c>
+      <c r="E55" s="229"/>
+      <c r="F55" s="223"/>
       <c r="G55" s="223"/>
       <c r="H55" s="223"/>
       <c r="I55" s="223"/>
       <c r="J55" s="223"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="218"/>
-      <c r="B56" s="66" t="s">
-        <v>168</v>
-      </c>
+      <c r="B56" s="66"/>
       <c r="C56" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="264"/>
-      <c r="F56" s="259"/>
+        <v>486</v>
+      </c>
+      <c r="D56" s="67" t="s">
+        <v>487</v>
+      </c>
+      <c r="E56" s="229"/>
+      <c r="F56" s="223"/>
       <c r="G56" s="223"/>
       <c r="H56" s="223"/>
       <c r="I56" s="223"/>
       <c r="J56" s="223"/>
     </row>
-    <row r="57" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="218"/>
-      <c r="B57" s="66" t="s">
-        <v>168</v>
-      </c>
+      <c r="B57" s="66"/>
       <c r="C57" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D57" s="47"/>
-      <c r="E57" s="264"/>
-      <c r="F57" s="259"/>
+        <v>496</v>
+      </c>
+      <c r="D57" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="E57" s="229"/>
+      <c r="F57" s="223"/>
       <c r="G57" s="223"/>
       <c r="H57" s="223"/>
       <c r="I57" s="223"/>
       <c r="J57" s="223"/>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="238" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="218"/>
-      <c r="B58" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="264"/>
-      <c r="F58" s="259"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="229"/>
+      <c r="F58" s="223"/>
       <c r="G58" s="223"/>
       <c r="H58" s="223"/>
       <c r="I58" s="223"/>
       <c r="J58" s="223"/>
     </row>
-    <row r="59" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="218"/>
-      <c r="B59" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="264"/>
-      <c r="F59" s="259"/>
-      <c r="G59" s="223"/>
-      <c r="H59" s="223"/>
-      <c r="I59" s="223"/>
-      <c r="J59" s="223"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="218"/>
-      <c r="B60" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D60" s="47"/>
-      <c r="E60" s="264"/>
-      <c r="F60" s="259"/>
+      <c r="B60" s="71"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="229"/>
+      <c r="F60" s="223"/>
       <c r="G60" s="223"/>
       <c r="H60" s="223"/>
       <c r="I60" s="223"/>
       <c r="J60" s="223"/>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="218"/>
-      <c r="B61" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="D61" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E61" s="264"/>
-      <c r="F61" s="259"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="E61" s="229"/>
+      <c r="F61" s="223"/>
       <c r="G61" s="223"/>
       <c r="H61" s="223"/>
       <c r="I61" s="223"/>
       <c r="J61" s="223"/>
     </row>
-    <row r="62" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="238" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="218"/>
-      <c r="B62" s="66" t="s">
-        <v>163</v>
-      </c>
+      <c r="B62" s="66"/>
       <c r="C62" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="D62" s="47"/>
-      <c r="E62" s="264"/>
-      <c r="F62" s="259"/>
+        <v>490</v>
+      </c>
+      <c r="D62" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="E62" s="229"/>
+      <c r="F62" s="223"/>
       <c r="G62" s="223"/>
       <c r="H62" s="223"/>
       <c r="I62" s="223"/>
       <c r="J62" s="223"/>
     </row>
-    <row r="63" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="238" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="218"/>
-      <c r="B63" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="48"/>
-      <c r="E63" s="264"/>
-      <c r="F63" s="259"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="E63" s="229"/>
+      <c r="F63" s="223"/>
       <c r="G63" s="223"/>
       <c r="H63" s="223"/>
       <c r="I63" s="223"/>
       <c r="J63" s="223"/>
     </row>
-    <row r="64" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="238" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="218"/>
-      <c r="B64" s="79" t="s">
-        <v>163</v>
-      </c>
+      <c r="B64" s="79"/>
       <c r="C64" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" s="48"/>
-      <c r="E64" s="264"/>
-      <c r="F64" s="259"/>
+        <v>494</v>
+      </c>
+      <c r="D64" s="230" t="s">
+        <v>495</v>
+      </c>
+      <c r="E64" s="229"/>
+      <c r="F64" s="223"/>
       <c r="G64" s="223"/>
       <c r="H64" s="223"/>
       <c r="I64" s="223"/>
       <c r="J64" s="223"/>
     </row>
-    <row r="65" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="218"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="265"/>
-      <c r="F65" s="259"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="230"/>
+      <c r="E65" s="229"/>
+      <c r="F65" s="223"/>
       <c r="G65" s="223"/>
       <c r="H65" s="223"/>
       <c r="I65" s="223"/>
       <c r="J65" s="223"/>
     </row>
-    <row r="66" spans="1:10" s="221" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="219"/>
-      <c r="B67" s="51"/>
-      <c r="F67" s="223"/>
-      <c r="G67" s="223"/>
-      <c r="H67" s="223"/>
-      <c r="I67" s="223"/>
-      <c r="J67" s="223"/>
-    </row>
-    <row r="68" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B68" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C68" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="D68" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="E68" s="223" t="s">
-        <v>241</v>
-      </c>
-      <c r="F68" s="223"/>
+    <row r="66" spans="1:10" s="238" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="218"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="229"/>
+      <c r="F66" s="223"/>
+      <c r="G66" s="223"/>
+      <c r="H66" s="223"/>
+      <c r="I66" s="223"/>
+      <c r="J66" s="223"/>
+    </row>
+    <row r="67" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="218"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="233"/>
+      <c r="F68" s="229"/>
       <c r="G68" s="223"/>
       <c r="H68" s="223"/>
       <c r="I68" s="223"/>
       <c r="J68" s="223"/>
     </row>
-    <row r="69" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B69" s="53"/>
-      <c r="C69" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="D69" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="F69" s="223"/>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="218"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E69" s="234" t="s">
+        <v>278</v>
+      </c>
+      <c r="F69" s="229"/>
       <c r="G69" s="223"/>
       <c r="H69" s="223"/>
       <c r="I69" s="223"/>
       <c r="J69" s="223"/>
     </row>
-    <row r="70" spans="1:10" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="D70" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="F70" s="223"/>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="218"/>
+      <c r="B70" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70" s="47"/>
+      <c r="E70" s="234"/>
+      <c r="F70" s="229"/>
       <c r="G70" s="223"/>
       <c r="H70" s="223"/>
       <c r="I70" s="223"/>
       <c r="J70" s="223"/>
     </row>
-    <row r="71" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B71" s="53"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="F71" s="223"/>
+    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="218"/>
+      <c r="B71" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="47"/>
+      <c r="E71" s="234"/>
+      <c r="F71" s="229"/>
       <c r="G71" s="223"/>
       <c r="H71" s="223"/>
       <c r="I71" s="223"/>
       <c r="J71" s="223"/>
     </row>
-    <row r="72" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="F72" s="223"/>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="218"/>
+      <c r="B72" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="47"/>
+      <c r="E72" s="234"/>
+      <c r="F72" s="229"/>
       <c r="G72" s="223"/>
       <c r="H72" s="223"/>
       <c r="I72" s="223"/>
       <c r="J72" s="223"/>
     </row>
-    <row r="73" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B73" s="53"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="F73" s="223"/>
+    <row r="73" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="218"/>
+      <c r="B73" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C73" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="47"/>
+      <c r="E73" s="234"/>
+      <c r="F73" s="229"/>
       <c r="G73" s="223"/>
       <c r="H73" s="223"/>
       <c r="I73" s="223"/>
       <c r="J73" s="223"/>
     </row>
-    <row r="74" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B74" s="53"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="53"/>
-      <c r="F74" s="223"/>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="218"/>
+      <c r="B74" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" s="47"/>
+      <c r="E74" s="234"/>
+      <c r="F74" s="229"/>
       <c r="G74" s="223"/>
       <c r="H74" s="223"/>
       <c r="I74" s="223"/>
       <c r="J74" s="223"/>
     </row>
-    <row r="75" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="219"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="223"/>
-      <c r="F75" s="223"/>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="218"/>
+      <c r="B75" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D75" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E75" s="234"/>
+      <c r="F75" s="229"/>
       <c r="G75" s="223"/>
       <c r="H75" s="223"/>
       <c r="I75" s="223"/>
       <c r="J75" s="223"/>
     </row>
     <row r="76" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B76" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="C76" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="D76" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="F76" s="223"/>
+      <c r="A76" s="218"/>
+      <c r="B76" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="47"/>
+      <c r="E76" s="234"/>
+      <c r="F76" s="229"/>
       <c r="G76" s="223"/>
       <c r="H76" s="223"/>
       <c r="I76" s="223"/>
       <c r="J76" s="223"/>
     </row>
-    <row r="77" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B77" s="53"/>
-      <c r="C77" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="D77" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="F77" s="223"/>
+    <row r="77" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A77" s="218"/>
+      <c r="B77" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" s="48"/>
+      <c r="E77" s="234"/>
+      <c r="F77" s="229"/>
       <c r="G77" s="223"/>
       <c r="H77" s="223"/>
       <c r="I77" s="223"/>
       <c r="J77" s="223"/>
     </row>
-    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B78" s="53"/>
-      <c r="C78" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="D78" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="F78" s="223"/>
+    <row r="78" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="218"/>
+      <c r="B78" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="48"/>
+      <c r="E78" s="234"/>
+      <c r="F78" s="229"/>
       <c r="G78" s="223"/>
       <c r="H78" s="223"/>
       <c r="I78" s="223"/>
       <c r="J78" s="223"/>
     </row>
-    <row r="79" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B79" s="53"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="F79" s="223"/>
+    <row r="79" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="218"/>
+      <c r="B79" s="74"/>
+      <c r="C79" s="75"/>
+      <c r="D79" s="75"/>
+      <c r="E79" s="235"/>
+      <c r="F79" s="229"/>
       <c r="G79" s="223"/>
       <c r="H79" s="223"/>
       <c r="I79" s="223"/>
       <c r="J79" s="223"/>
     </row>
-    <row r="80" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B80" s="53"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="53"/>
-      <c r="F80" s="223"/>
-      <c r="G80" s="223"/>
-      <c r="H80" s="223"/>
-      <c r="I80" s="223"/>
-      <c r="J80" s="223"/>
-    </row>
+    <row r="80" spans="1:10" s="221" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="218"/>
+      <c r="A81" s="219"/>
+      <c r="B81" s="51"/>
       <c r="F81" s="223"/>
       <c r="G81" s="223"/>
       <c r="H81" s="223"/>
       <c r="I81" s="223"/>
       <c r="J81" s="223"/>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A82" s="219" t="s">
-        <v>248</v>
-      </c>
-      <c r="B82" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="C82" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="D82" s="54" t="s">
-        <v>247</v>
+        <v>318</v>
+      </c>
+      <c r="B82" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="D82" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="223" t="s">
+        <v>241</v>
       </c>
       <c r="F82" s="223"/>
       <c r="G82" s="223"/>
@@ -10529,18 +10725,16 @@
       <c r="I82" s="223"/>
       <c r="J82" s="223"/>
     </row>
-    <row r="83" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A83" s="219" t="s">
-        <v>248</v>
-      </c>
-      <c r="B83" s="53" t="s">
-        <v>251</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B83" s="53"/>
       <c r="C83" s="53" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="D83" s="53" t="s">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="F83" s="223"/>
       <c r="G83" s="223"/>
@@ -10548,33 +10742,31 @@
       <c r="I83" s="223"/>
       <c r="J83" s="223"/>
     </row>
-    <row r="84" spans="1:10" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A84" s="219" t="s">
-        <v>248</v>
-      </c>
-      <c r="B84" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="C84" s="53"/>
-      <c r="D84" s="53"/>
+        <v>318</v>
+      </c>
+      <c r="B84" s="53"/>
+      <c r="C84" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>287</v>
+      </c>
       <c r="F84" s="223"/>
       <c r="G84" s="223"/>
       <c r="H84" s="223"/>
       <c r="I84" s="223"/>
       <c r="J84" s="223"/>
     </row>
-    <row r="85" spans="1:10" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A85" s="219" t="s">
-        <v>248</v>
-      </c>
-      <c r="B85" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="C85" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="D85" s="55" t="s">
-        <v>291</v>
+        <v>318</v>
+      </c>
+      <c r="B85" s="53"/>
+      <c r="C85" s="53"/>
+      <c r="D85" s="53" t="s">
+        <v>238</v>
       </c>
       <c r="F85" s="223"/>
       <c r="G85" s="223"/>
@@ -10582,68 +10774,71 @@
       <c r="I85" s="223"/>
       <c r="J85" s="223"/>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="218"/>
+    <row r="86" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="219" t="s">
+        <v>318</v>
+      </c>
+      <c r="B86" s="53"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="53"/>
       <c r="F86" s="223"/>
       <c r="G86" s="223"/>
       <c r="H86" s="223"/>
       <c r="I86" s="223"/>
       <c r="J86" s="223"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="218"/>
+    <row r="87" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="219" t="s">
+        <v>318</v>
+      </c>
+      <c r="B87" s="53"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="53" t="s">
+        <v>237</v>
+      </c>
       <c r="F87" s="223"/>
       <c r="G87" s="223"/>
       <c r="H87" s="223"/>
       <c r="I87" s="223"/>
       <c r="J87" s="223"/>
     </row>
-    <row r="88" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="219" t="s">
-        <v>254</v>
-      </c>
-      <c r="B88" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="C88" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="D88" s="56" t="s">
-        <v>257</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B88" s="53"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
       <c r="F88" s="223"/>
       <c r="G88" s="223"/>
       <c r="H88" s="223"/>
       <c r="I88" s="223"/>
       <c r="J88" s="223"/>
     </row>
-    <row r="89" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="219" t="s">
-        <v>254</v>
-      </c>
-      <c r="B89" s="53"/>
-      <c r="C89" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="D89" s="55" t="s">
-        <v>259</v>
-      </c>
+    <row r="89" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="219"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="223"/>
       <c r="F89" s="223"/>
       <c r="G89" s="223"/>
       <c r="H89" s="223"/>
       <c r="I89" s="223"/>
       <c r="J89" s="223"/>
     </row>
-    <row r="90" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A90" s="219" t="s">
-        <v>254</v>
-      </c>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="D90" s="53" t="s">
-        <v>261</v>
+        <v>318</v>
+      </c>
+      <c r="B90" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="D90" s="52" t="s">
+        <v>234</v>
       </c>
       <c r="F90" s="223"/>
       <c r="G90" s="223"/>
@@ -10651,14 +10846,16 @@
       <c r="I90" s="223"/>
       <c r="J90" s="223"/>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="219"/>
+    <row r="91" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="219" t="s">
+        <v>318</v>
+      </c>
       <c r="B91" s="53"/>
       <c r="C91" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="D91" s="53" t="s">
-        <v>263</v>
+        <v>288</v>
+      </c>
+      <c r="D91" s="64" t="s">
+        <v>289</v>
       </c>
       <c r="F91" s="223"/>
       <c r="G91" s="223"/>
@@ -10666,16 +10863,16 @@
       <c r="I91" s="223"/>
       <c r="J91" s="223"/>
     </row>
-    <row r="92" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="219" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="B92" s="53"/>
       <c r="C92" s="53" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="D92" s="53" t="s">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="F92" s="223"/>
       <c r="G92" s="223"/>
@@ -10685,14 +10882,12 @@
     </row>
     <row r="93" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A93" s="219" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="B93" s="53"/>
-      <c r="C93" s="53" t="s">
-        <v>266</v>
-      </c>
+      <c r="C93" s="53"/>
       <c r="D93" s="53" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="F93" s="223"/>
       <c r="G93" s="223"/>
@@ -10700,15 +10895,20 @@
       <c r="I93" s="223"/>
       <c r="J93" s="223"/>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="218"/>
+    <row r="94" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="219" t="s">
+        <v>318</v>
+      </c>
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
       <c r="F94" s="223"/>
       <c r="G94" s="223"/>
       <c r="H94" s="223"/>
       <c r="I94" s="223"/>
       <c r="J94" s="223"/>
     </row>
-    <row r="95" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="218"/>
       <c r="F95" s="223"/>
       <c r="G95" s="223"/>
@@ -10716,16 +10916,18 @@
       <c r="I95" s="223"/>
       <c r="J95" s="223"/>
     </row>
-    <row r="96" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="219" t="s">
-        <v>268</v>
-      </c>
-      <c r="B96" s="57"/>
-      <c r="C96" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="D96" s="59" t="s">
-        <v>270</v>
+        <v>248</v>
+      </c>
+      <c r="B96" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C96" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D96" s="54" t="s">
+        <v>247</v>
       </c>
       <c r="F96" s="223"/>
       <c r="G96" s="223"/>
@@ -10733,14 +10935,18 @@
       <c r="I96" s="223"/>
       <c r="J96" s="223"/>
     </row>
-    <row r="97" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="219"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="D97" s="61" t="s">
-        <v>272</v>
+    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="B97" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C97" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D97" s="53" t="s">
+        <v>290</v>
       </c>
       <c r="F97" s="223"/>
       <c r="G97" s="223"/>
@@ -10748,27 +10954,33 @@
       <c r="I97" s="223"/>
       <c r="J97" s="223"/>
     </row>
-    <row r="98" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="219"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="61" t="s">
-        <v>273</v>
-      </c>
+    <row r="98" spans="1:10" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="B98" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" s="53"/>
+      <c r="D98" s="53"/>
       <c r="F98" s="223"/>
       <c r="G98" s="223"/>
       <c r="H98" s="223"/>
       <c r="I98" s="223"/>
       <c r="J98" s="223"/>
     </row>
-    <row r="99" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="219"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D99" s="61" t="s">
-        <v>275</v>
+    <row r="99" spans="1:10" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A99" s="219" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="D99" s="55" t="s">
+        <v>291</v>
       </c>
       <c r="F99" s="223"/>
       <c r="G99" s="223"/>
@@ -10777,10 +10989,7 @@
       <c r="J99" s="223"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="219"/>
-      <c r="B100" s="60"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="61"/>
+      <c r="A100" s="218"/>
       <c r="F100" s="223"/>
       <c r="G100" s="223"/>
       <c r="H100" s="223"/>
@@ -10788,40 +10997,60 @@
       <c r="J100" s="223"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="219"/>
-      <c r="B101" s="60"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="61"/>
+      <c r="A101" s="218"/>
       <c r="F101" s="223"/>
       <c r="G101" s="223"/>
       <c r="H101" s="223"/>
       <c r="I101" s="223"/>
       <c r="J101" s="223"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="219"/>
-      <c r="B102" s="60"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="61"/>
+    <row r="102" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A102" s="219" t="s">
+        <v>254</v>
+      </c>
+      <c r="B102" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C102" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="D102" s="56" t="s">
+        <v>257</v>
+      </c>
       <c r="F102" s="223"/>
       <c r="G102" s="223"/>
       <c r="H102" s="223"/>
       <c r="I102" s="223"/>
       <c r="J102" s="223"/>
     </row>
-    <row r="103" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="219"/>
-      <c r="B103" s="62"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="63"/>
+    <row r="103" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="219" t="s">
+        <v>254</v>
+      </c>
+      <c r="B103" s="53"/>
+      <c r="C103" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D103" s="55" t="s">
+        <v>259</v>
+      </c>
       <c r="F103" s="223"/>
       <c r="G103" s="223"/>
       <c r="H103" s="223"/>
       <c r="I103" s="223"/>
       <c r="J103" s="223"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="219"/>
+    <row r="104" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A104" s="219" t="s">
+        <v>254</v>
+      </c>
+      <c r="B104" s="53"/>
+      <c r="C104" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="D104" s="53" t="s">
+        <v>261</v>
+      </c>
       <c r="F104" s="223"/>
       <c r="G104" s="223"/>
       <c r="H104" s="223"/>
@@ -10829,23 +11058,48 @@
       <c r="J104" s="223"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="218"/>
+      <c r="A105" s="219"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="D105" s="53" t="s">
+        <v>263</v>
+      </c>
       <c r="F105" s="223"/>
       <c r="G105" s="223"/>
       <c r="H105" s="223"/>
       <c r="I105" s="223"/>
       <c r="J105" s="223"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="218"/>
+    <row r="106" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="219" t="s">
+        <v>254</v>
+      </c>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="D106" s="53" t="s">
+        <v>265</v>
+      </c>
       <c r="F106" s="223"/>
       <c r="G106" s="223"/>
       <c r="H106" s="223"/>
       <c r="I106" s="223"/>
       <c r="J106" s="223"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="218"/>
+    <row r="107" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A107" s="219" t="s">
+        <v>254</v>
+      </c>
+      <c r="B107" s="53"/>
+      <c r="C107" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="D107" s="53" t="s">
+        <v>267</v>
+      </c>
       <c r="F107" s="223"/>
       <c r="G107" s="223"/>
       <c r="H107" s="223"/>
@@ -10860,7 +11114,7 @@
       <c r="I108" s="223"/>
       <c r="J108" s="223"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="218"/>
       <c r="F109" s="223"/>
       <c r="G109" s="223"/>
@@ -10868,32 +11122,60 @@
       <c r="I109" s="223"/>
       <c r="J109" s="223"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="218"/>
+    <row r="110" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="219" t="s">
+        <v>268</v>
+      </c>
+      <c r="B110" s="57"/>
+      <c r="C110" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D110" s="59" t="s">
+        <v>270</v>
+      </c>
       <c r="F110" s="223"/>
       <c r="G110" s="223"/>
       <c r="H110" s="223"/>
       <c r="I110" s="223"/>
       <c r="J110" s="223"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="218"/>
+    <row r="111" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="219"/>
+      <c r="B111" s="60"/>
+      <c r="C111" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="D111" s="61" t="s">
+        <v>272</v>
+      </c>
       <c r="F111" s="223"/>
       <c r="G111" s="223"/>
       <c r="H111" s="223"/>
       <c r="I111" s="223"/>
       <c r="J111" s="223"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="218"/>
+    <row r="112" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A112" s="219"/>
+      <c r="B112" s="60"/>
+      <c r="C112" s="60"/>
+      <c r="D112" s="61" t="s">
+        <v>273</v>
+      </c>
       <c r="F112" s="223"/>
       <c r="G112" s="223"/>
       <c r="H112" s="223"/>
       <c r="I112" s="223"/>
       <c r="J112" s="223"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="218"/>
+    <row r="113" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="219"/>
+      <c r="B113" s="60"/>
+      <c r="C113" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="D113" s="61" t="s">
+        <v>275</v>
+      </c>
       <c r="F113" s="223"/>
       <c r="G113" s="223"/>
       <c r="H113" s="223"/>
@@ -10901,7 +11183,10 @@
       <c r="J113" s="223"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="218"/>
+      <c r="A114" s="219"/>
+      <c r="B114" s="60"/>
+      <c r="C114" s="60"/>
+      <c r="D114" s="61"/>
       <c r="F114" s="223"/>
       <c r="G114" s="223"/>
       <c r="H114" s="223"/>
@@ -10909,7 +11194,10 @@
       <c r="J114" s="223"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="218"/>
+      <c r="A115" s="219"/>
+      <c r="B115" s="60"/>
+      <c r="C115" s="60"/>
+      <c r="D115" s="61"/>
       <c r="F115" s="223"/>
       <c r="G115" s="223"/>
       <c r="H115" s="223"/>
@@ -10917,15 +11205,21 @@
       <c r="J115" s="223"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="218"/>
+      <c r="A116" s="219"/>
+      <c r="B116" s="60"/>
+      <c r="C116" s="60"/>
+      <c r="D116" s="61"/>
       <c r="F116" s="223"/>
       <c r="G116" s="223"/>
       <c r="H116" s="223"/>
       <c r="I116" s="223"/>
       <c r="J116" s="223"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="218"/>
+    <row r="117" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="219"/>
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="63"/>
       <c r="F117" s="223"/>
       <c r="G117" s="223"/>
       <c r="H117" s="223"/>
@@ -10933,7 +11227,7 @@
       <c r="J117" s="223"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="218"/>
+      <c r="A118" s="219"/>
       <c r="F118" s="223"/>
       <c r="G118" s="223"/>
       <c r="H118" s="223"/>
@@ -10989,7 +11283,7 @@
       <c r="J124" s="223"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="220"/>
+      <c r="A125" s="218"/>
       <c r="F125" s="223"/>
       <c r="G125" s="223"/>
       <c r="H125" s="223"/>
@@ -10997,6 +11291,7 @@
       <c r="J125" s="223"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="218"/>
       <c r="F126" s="223"/>
       <c r="G126" s="223"/>
       <c r="H126" s="223"/>
@@ -11004,6 +11299,7 @@
       <c r="J126" s="223"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="218"/>
       <c r="F127" s="223"/>
       <c r="G127" s="223"/>
       <c r="H127" s="223"/>
@@ -11011,118 +11307,130 @@
       <c r="J127" s="223"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="218"/>
       <c r="F128" s="223"/>
       <c r="G128" s="223"/>
       <c r="H128" s="223"/>
       <c r="I128" s="223"/>
       <c r="J128" s="223"/>
     </row>
-    <row r="129" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="218"/>
       <c r="F129" s="223"/>
       <c r="G129" s="223"/>
       <c r="H129" s="223"/>
       <c r="I129" s="223"/>
       <c r="J129" s="223"/>
     </row>
-    <row r="130" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="218"/>
       <c r="F130" s="223"/>
       <c r="G130" s="223"/>
       <c r="H130" s="223"/>
       <c r="I130" s="223"/>
       <c r="J130" s="223"/>
     </row>
-    <row r="131" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="218"/>
       <c r="F131" s="223"/>
       <c r="G131" s="223"/>
       <c r="H131" s="223"/>
       <c r="I131" s="223"/>
       <c r="J131" s="223"/>
     </row>
-    <row r="132" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="218"/>
       <c r="F132" s="223"/>
       <c r="G132" s="223"/>
       <c r="H132" s="223"/>
       <c r="I132" s="223"/>
       <c r="J132" s="223"/>
     </row>
-    <row r="133" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="218"/>
       <c r="F133" s="223"/>
       <c r="G133" s="223"/>
       <c r="H133" s="223"/>
       <c r="I133" s="223"/>
       <c r="J133" s="223"/>
     </row>
-    <row r="134" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="218"/>
       <c r="F134" s="223"/>
       <c r="G134" s="223"/>
       <c r="H134" s="223"/>
       <c r="I134" s="223"/>
       <c r="J134" s="223"/>
     </row>
-    <row r="135" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="218"/>
       <c r="F135" s="223"/>
       <c r="G135" s="223"/>
       <c r="H135" s="223"/>
       <c r="I135" s="223"/>
       <c r="J135" s="223"/>
     </row>
-    <row r="136" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="218"/>
       <c r="F136" s="223"/>
       <c r="G136" s="223"/>
       <c r="H136" s="223"/>
       <c r="I136" s="223"/>
       <c r="J136" s="223"/>
     </row>
-    <row r="137" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="218"/>
       <c r="F137" s="223"/>
       <c r="G137" s="223"/>
       <c r="H137" s="223"/>
       <c r="I137" s="223"/>
       <c r="J137" s="223"/>
     </row>
-    <row r="138" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="218"/>
       <c r="F138" s="223"/>
       <c r="G138" s="223"/>
       <c r="H138" s="223"/>
       <c r="I138" s="223"/>
       <c r="J138" s="223"/>
     </row>
-    <row r="139" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="220"/>
       <c r="F139" s="223"/>
       <c r="G139" s="223"/>
       <c r="H139" s="223"/>
       <c r="I139" s="223"/>
       <c r="J139" s="223"/>
     </row>
-    <row r="140" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F140" s="223"/>
       <c r="G140" s="223"/>
       <c r="H140" s="223"/>
       <c r="I140" s="223"/>
       <c r="J140" s="223"/>
     </row>
-    <row r="141" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F141" s="223"/>
       <c r="G141" s="223"/>
       <c r="H141" s="223"/>
       <c r="I141" s="223"/>
       <c r="J141" s="223"/>
     </row>
-    <row r="142" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F142" s="223"/>
       <c r="G142" s="223"/>
       <c r="H142" s="223"/>
       <c r="I142" s="223"/>
       <c r="J142" s="223"/>
     </row>
-    <row r="143" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F143" s="223"/>
       <c r="G143" s="223"/>
       <c r="H143" s="223"/>
       <c r="I143" s="223"/>
       <c r="J143" s="223"/>
     </row>
-    <row r="144" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F144" s="223"/>
       <c r="G144" s="223"/>
       <c r="H144" s="223"/>
@@ -11198,6 +11506,104 @@
       <c r="H154" s="223"/>
       <c r="I154" s="223"/>
       <c r="J154" s="223"/>
+    </row>
+    <row r="155" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F155" s="223"/>
+      <c r="G155" s="223"/>
+      <c r="H155" s="223"/>
+      <c r="I155" s="223"/>
+      <c r="J155" s="223"/>
+    </row>
+    <row r="156" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F156" s="223"/>
+      <c r="G156" s="223"/>
+      <c r="H156" s="223"/>
+      <c r="I156" s="223"/>
+      <c r="J156" s="223"/>
+    </row>
+    <row r="157" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F157" s="223"/>
+      <c r="G157" s="223"/>
+      <c r="H157" s="223"/>
+      <c r="I157" s="223"/>
+      <c r="J157" s="223"/>
+    </row>
+    <row r="158" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F158" s="223"/>
+      <c r="G158" s="223"/>
+      <c r="H158" s="223"/>
+      <c r="I158" s="223"/>
+      <c r="J158" s="223"/>
+    </row>
+    <row r="159" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F159" s="223"/>
+      <c r="G159" s="223"/>
+      <c r="H159" s="223"/>
+      <c r="I159" s="223"/>
+      <c r="J159" s="223"/>
+    </row>
+    <row r="160" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F160" s="223"/>
+      <c r="G160" s="223"/>
+      <c r="H160" s="223"/>
+      <c r="I160" s="223"/>
+      <c r="J160" s="223"/>
+    </row>
+    <row r="161" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F161" s="223"/>
+      <c r="G161" s="223"/>
+      <c r="H161" s="223"/>
+      <c r="I161" s="223"/>
+      <c r="J161" s="223"/>
+    </row>
+    <row r="162" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F162" s="223"/>
+      <c r="G162" s="223"/>
+      <c r="H162" s="223"/>
+      <c r="I162" s="223"/>
+      <c r="J162" s="223"/>
+    </row>
+    <row r="163" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F163" s="223"/>
+      <c r="G163" s="223"/>
+      <c r="H163" s="223"/>
+      <c r="I163" s="223"/>
+      <c r="J163" s="223"/>
+    </row>
+    <row r="164" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F164" s="223"/>
+      <c r="G164" s="223"/>
+      <c r="H164" s="223"/>
+      <c r="I164" s="223"/>
+      <c r="J164" s="223"/>
+    </row>
+    <row r="165" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F165" s="223"/>
+      <c r="G165" s="223"/>
+      <c r="H165" s="223"/>
+      <c r="I165" s="223"/>
+      <c r="J165" s="223"/>
+    </row>
+    <row r="166" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F166" s="223"/>
+      <c r="G166" s="223"/>
+      <c r="H166" s="223"/>
+      <c r="I166" s="223"/>
+      <c r="J166" s="223"/>
+    </row>
+    <row r="167" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F167" s="223"/>
+      <c r="G167" s="223"/>
+      <c r="H167" s="223"/>
+      <c r="I167" s="223"/>
+      <c r="J167" s="223"/>
+    </row>
+    <row r="168" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F168" s="223"/>
+      <c r="G168" s="223"/>
+      <c r="H168" s="223"/>
+      <c r="I168" s="223"/>
+      <c r="J168" s="223"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11206,25 +11612,84 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="237"/>
+    <col min="2" max="2" width="21.85546875" style="237" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" style="237" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="237" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="237"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="237" t="s">
+        <v>476</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="237" t="s">
+        <v>476</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="237" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="237" t="s">
+        <v>480</v>
+      </c>
+      <c r="C9" s="237" t="s">
+        <v>481</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:C4"/>
+  <dimension ref="C3:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="65.85546875" customWidth="1"/>
     <col min="4" max="4" width="72.140625" customWidth="1"/>
+    <col min="5" max="5" width="83.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="3:3" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:5" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="3:5" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>176</v>
       </c>
+    </row>
+    <row r="5" spans="3:5" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="273"/>
+      <c r="E5" s="273"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11264,14 +11729,14 @@
     </row>
     <row r="4" spans="1:8" s="176" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="B4" s="178"/>
-      <c r="C4" s="255" t="s">
+      <c r="C4" s="269" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="255"/>
-      <c r="E4" s="255" t="s">
+      <c r="D4" s="269"/>
+      <c r="E4" s="269" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="255"/>
+      <c r="F4" s="269"/>
       <c r="G4" s="68"/>
       <c r="H4" s="179"/>
     </row>
@@ -11279,14 +11744,14 @@
       <c r="B5" s="178" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="254" t="s">
+      <c r="C5" s="268" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="254"/>
-      <c r="E5" s="254" t="s">
+      <c r="D5" s="268"/>
+      <c r="E5" s="268" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="254"/>
+      <c r="F5" s="268"/>
       <c r="G5" s="68" t="s">
         <v>225</v>
       </c>
@@ -11294,14 +11759,14 @@
     </row>
     <row r="6" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="186"/>
-      <c r="C6" s="253" t="s">
+      <c r="C6" s="267" t="s">
         <v>427</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253" t="s">
+      <c r="D6" s="267"/>
+      <c r="E6" s="267" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="253"/>
+      <c r="F6" s="267"/>
       <c r="G6" s="180" t="s">
         <v>428</v>
       </c>
@@ -11314,14 +11779,14 @@
       <c r="B7" s="186" t="s">
         <v>339</v>
       </c>
-      <c r="C7" s="253" t="s">
+      <c r="C7" s="267" t="s">
         <v>425</v>
       </c>
-      <c r="D7" s="253"/>
-      <c r="E7" s="256" t="s">
+      <c r="D7" s="267"/>
+      <c r="E7" s="270" t="s">
         <v>426</v>
       </c>
-      <c r="F7" s="253"/>
+      <c r="F7" s="267"/>
       <c r="G7" s="180"/>
       <c r="H7" s="187"/>
     </row>
@@ -11329,14 +11794,14 @@
       <c r="B8" s="186" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="257" t="s">
+      <c r="C8" s="271" t="s">
         <v>458</v>
       </c>
-      <c r="D8" s="258"/>
-      <c r="E8" s="257" t="s">
+      <c r="D8" s="272"/>
+      <c r="E8" s="271" t="s">
         <v>459</v>
       </c>
-      <c r="F8" s="258"/>
+      <c r="F8" s="272"/>
       <c r="G8" s="180" t="s">
         <v>460</v>
       </c>
@@ -11346,12 +11811,12 @@
       <c r="B9" s="215" t="s">
         <v>461</v>
       </c>
-      <c r="C9" s="257" t="s">
+      <c r="C9" s="271" t="s">
         <v>463</v>
       </c>
-      <c r="D9" s="258"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="258"/>
+      <c r="D9" s="272"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="272"/>
       <c r="G9" s="216"/>
       <c r="H9" s="217"/>
     </row>
@@ -11422,7 +11887,7 @@
       <c r="F20" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="252"/>
+      <c r="G20" s="266"/>
     </row>
     <row r="21" spans="2:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="177" t="s">
@@ -11432,7 +11897,7 @@
       <c r="D21" s="177"/>
       <c r="E21" s="177"/>
       <c r="F21" s="177"/>
-      <c r="G21" s="252"/>
+      <c r="G21" s="266"/>
     </row>
     <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="175" t="s">

--- a/System_Design_Architecture.xlsx
+++ b/System_Design_Architecture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="835" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="896" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,16 @@
     <sheet name="Princip-Theorm" sheetId="6" r:id="rId3"/>
     <sheet name="Architecture" sheetId="7" r:id="rId4"/>
     <sheet name="System Design" sheetId="16" r:id="rId5"/>
-    <sheet name="Compare" sheetId="9" r:id="rId6"/>
-    <sheet name="Best Pract" sheetId="17" r:id="rId7"/>
-    <sheet name="Big Applications" sheetId="11" r:id="rId8"/>
-    <sheet name="Situat - Sols" sheetId="12" r:id="rId9"/>
-    <sheet name="Techs" sheetId="13" r:id="rId10"/>
-    <sheet name="Sprn MVC vs NG" sheetId="14" r:id="rId11"/>
-    <sheet name="Internet Flow" sheetId="15" r:id="rId12"/>
-    <sheet name="Commn" sheetId="8" r:id="rId13"/>
+    <sheet name="Cassandra" sheetId="18" r:id="rId6"/>
+    <sheet name="MongoDB" sheetId="19" r:id="rId7"/>
+    <sheet name="Compare" sheetId="9" r:id="rId8"/>
+    <sheet name="Best Pract" sheetId="17" r:id="rId9"/>
+    <sheet name="Big Applications" sheetId="11" r:id="rId10"/>
+    <sheet name="Situat - Sols" sheetId="12" r:id="rId11"/>
+    <sheet name="Techs" sheetId="13" r:id="rId12"/>
+    <sheet name="Sprn MVC vs NG" sheetId="14" r:id="rId13"/>
+    <sheet name="Internet Flow" sheetId="15" r:id="rId14"/>
+    <sheet name="Commn" sheetId="8" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="534">
   <si>
     <t>Scalability</t>
   </si>
@@ -2235,12 +2237,407 @@
   <si>
     <t>Consistent in CAP theory</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">built-for-scale; capable of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>petabytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of information and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thousands of concurrent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> users/operations per second.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>-- No cross Cluster replication possible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Consists own data and replication of data from other node.
+-- Authorized user connects to Node under any data center, to access interested data
+</t>
+  </si>
+  <si>
+    <t>CQL / cqlsh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Similar to SQL, instructions to Casandra server issue in CQL
+-- Create keyspaces and tables, insert and query tables
+</t>
+  </si>
+  <si>
+    <t>Keyspaces</t>
+  </si>
+  <si>
+    <t>replication factor</t>
+  </si>
+  <si>
+    <t>-- replication factor is determine Consistency;  reading and writing impacts replication factor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CREATE KEYSPACE products WITH replication = {'class': 'NetworkTopologyStrategy', 'MyDC': '2'};
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Name (Key) with Parameters, stored @ Cluster level
+-- stores attributes such as replication factor
+-- it can contain multiple "Column Families";  a column family can contain any columns or dynamic columns
+-- </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">built-for-scale; capable of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>petabytes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> of information and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>thousands of concurrent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> users/operations per second.
+-- automatic data distribution across all nodes
+-- linear scalability : increase capablity by # of nodes addition.
+-- Tunable Consistency : adjust consistency required specific for a application</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : a single machine that runs Cassandra.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Data Center</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : logical group of nodes into data centers, to serve faster different geographical area.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cluster</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : collection of nodes / Data Center</t>
+    </r>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- NoSql
+-- Scalable
+-- High Performance
+-- Document Model
+-- </t>
+  </si>
+  <si>
+    <t>Each Entry is a document (Binary JSON)</t>
+  </si>
+  <si>
+    <t>-- Commit log architecture; No seeks required
+-- Extensive caching for fast reads</t>
+  </si>
+  <si>
+    <t>Linear scalable (improves based on nodes)</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>-- Semi Structured; Predefined structure or define at insertion</t>
+  </si>
+  <si>
+    <t>-- rich indexing for data
+-- in-place update</t>
+  </si>
+  <si>
+    <t>auto-sharded; sent to appropriate nodes</t>
+  </si>
+  <si>
+    <t>Document Model (Binary JSON)
+-- schema-less structure
+-- completely UnStrcutred
+-- Support Atomic operations for consistency
+-- Insertion object can be linked to a Doc to avoid redundant storage</t>
+  </si>
+  <si>
+    <t>-- schema-less structure
+-- completely UnStrcutred
+-- Support Atomic operations for consistency
+-- Insertion object can be linked to a Doc to avoid redundant storage</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Adv</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Batch Layer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : Stores raw data as its arrives; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Batch Process</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : Computes data, which consume Batch View.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Batch View</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : Enriched batch processed data; more complex rules applied;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Speed Layer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : Computes data for Real-time view
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Realtime view</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : Enriched realtime data; access to the latest possible data;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>Query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> : retrieve data from both views (realtime and batch)</t>
+    </r>
+  </si>
+  <si>
+    <t>-- capable of replay / rerun on same data produce based on rules / queries</t>
+  </si>
+  <si>
+    <t>Dis-Adv</t>
+  </si>
+  <si>
+    <t>Maintain two layers are difficult.</t>
+  </si>
+  <si>
+    <t>Kappa Architecture</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Only Streaming/Realtime data processing
+-- Not a replacement of Lamda Architecture; </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2354,6 +2751,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -2381,7 +2799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="88">
+  <borders count="97">
     <border>
       <left/>
       <right/>
@@ -3306,42 +3724,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="medium">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="1"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3361,21 +3749,6 @@
       </left>
       <right style="thin">
         <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="1"/>
       </right>
       <top style="thin">
         <color theme="0"/>
@@ -3540,9 +3913,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color theme="1"/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
       </right>
       <top style="thin">
         <color theme="0"/>
@@ -3552,12 +3927,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4153,7 +4704,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4162,15 +4713,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4186,7 +4728,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="72" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4201,69 +4743,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="76" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="73" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="77" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="74" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="79" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4273,6 +4815,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4303,80 +4863,149 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4550,9 +5179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2000249</xdr:colOff>
+      <xdr:colOff>2301768</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>1014256</xdr:rowOff>
+      <xdr:rowOff>1162050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4569,8 +5198,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5181599" y="11963399"/>
-          <a:ext cx="1952625" cy="957107"/>
+          <a:off x="5181599" y="13306424"/>
+          <a:ext cx="2254144" cy="1104901"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4894,6 +5523,178 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3035573</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>990600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId16">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="58000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast contrast="68000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5210176" y="7439025"/>
+          <a:ext cx="2959372" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2245995</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2419842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10" descr="https://www.talend.com/wp-content/uploads/image002.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId18">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="20000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8220075" y="16202025"/>
+          <a:ext cx="4846320" cy="2324592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3305175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>1428750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11" descr="https://www.talend.com/wp-content/uploads/image004.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8401050" y="19907250"/>
+          <a:ext cx="5724525" cy="1323975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4944,15 +5745,140 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1712455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="31000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast contrast="32000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7896225" y="2076450"/>
+          <a:ext cx="3238500" cy="1674355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>257174</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3131820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1291549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId4">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="56000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-15000" contrast="50000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7934325" y="4810124"/>
+          <a:ext cx="3017520" cy="1034375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3147060</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>2240280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5014,13 +5940,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3246120</xdr:colOff>
-      <xdr:row>97</xdr:row>
+      <xdr:row>103</xdr:row>
       <xdr:rowOff>3550920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5081,7 +6007,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5251,7 +6177,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5923,10 +6849,273 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="65.85546875" customWidth="1"/>
+    <col min="4" max="4" width="72.140625" customWidth="1"/>
+    <col min="5" max="5" width="83.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:5" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="3:5" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="236"/>
+      <c r="E5" s="236"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" style="175" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" style="175" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" style="175" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" style="175" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" style="175" customWidth="1"/>
+    <col min="7" max="7" width="64.42578125" style="175" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="175"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="183"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="185"/>
+    </row>
+    <row r="4" spans="1:8" s="176" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="178"/>
+      <c r="C4" s="274" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="274"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="179"/>
+    </row>
+    <row r="5" spans="1:8" s="176" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="178" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="273" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="273"/>
+      <c r="E5" s="273" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="273"/>
+      <c r="G5" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="179"/>
+    </row>
+    <row r="6" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="186"/>
+      <c r="C6" s="272" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272" t="s">
+        <v>422</v>
+      </c>
+      <c r="F6" s="272"/>
+      <c r="G6" s="180" t="s">
+        <v>428</v>
+      </c>
+      <c r="H6" s="187"/>
+    </row>
+    <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="175" t="s">
+        <v>339</v>
+      </c>
+      <c r="B7" s="186" t="s">
+        <v>339</v>
+      </c>
+      <c r="C7" s="272" t="s">
+        <v>425</v>
+      </c>
+      <c r="D7" s="272"/>
+      <c r="E7" s="275" t="s">
+        <v>426</v>
+      </c>
+      <c r="F7" s="272"/>
+      <c r="G7" s="180"/>
+      <c r="H7" s="187"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="186" t="s">
+        <v>462</v>
+      </c>
+      <c r="C8" s="276" t="s">
+        <v>458</v>
+      </c>
+      <c r="D8" s="277"/>
+      <c r="E8" s="276" t="s">
+        <v>459</v>
+      </c>
+      <c r="F8" s="277"/>
+      <c r="G8" s="180" t="s">
+        <v>460</v>
+      </c>
+      <c r="H8" s="187"/>
+    </row>
+    <row r="9" spans="1:8" s="202" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="212" t="s">
+        <v>461</v>
+      </c>
+      <c r="C9" s="276" t="s">
+        <v>463</v>
+      </c>
+      <c r="D9" s="277"/>
+      <c r="E9" s="276"/>
+      <c r="F9" s="277"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="214"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="188"/>
+      <c r="C10" s="181"/>
+      <c r="D10" s="181"/>
+      <c r="E10" s="181"/>
+      <c r="F10" s="181"/>
+      <c r="G10" s="181"/>
+      <c r="H10" s="189"/>
+    </row>
+    <row r="12" spans="1:8" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="176" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="176" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B15" s="176" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="176" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="176" t="s">
+        <v>230</v>
+      </c>
+      <c r="C16" s="176" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="182"/>
+    </row>
+    <row r="18" spans="2:7" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:7" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="177" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="177" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="177" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="177" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="177" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="177" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="177" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="177" t="s">
+        <v>114</v>
+      </c>
+      <c r="G20" s="271"/>
+    </row>
+    <row r="21" spans="2:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="177" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="271"/>
+    </row>
+    <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="175" t="s">
+        <v>457</v>
+      </c>
+      <c r="C23" s="175" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5997,6 +7186,9 @@
       <c r="B14" s="174" t="s">
         <v>409</v>
       </c>
+      <c r="C14" s="174" t="s">
+        <v>498</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="174" t="s">
@@ -6057,7 +7249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H14"/>
   <sheetViews>
@@ -6155,7 +7347,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:N5"/>
   <sheetViews>
@@ -6235,7 +7427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C11"/>
   <sheetViews>
@@ -6622,8 +7814,8 @@
       <c r="D52" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="239"/>
-      <c r="F52" s="240"/>
+      <c r="E52" s="242"/>
+      <c r="F52" s="243"/>
       <c r="G52" s="9"/>
     </row>
     <row r="53" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -6636,8 +7828,8 @@
       <c r="D53" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="241"/>
-      <c r="F53" s="242"/>
+      <c r="E53" s="244"/>
+      <c r="F53" s="245"/>
       <c r="G53" s="9"/>
     </row>
     <row r="54" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
@@ -6650,8 +7842,8 @@
       <c r="D54" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="241"/>
-      <c r="F54" s="242"/>
+      <c r="E54" s="244"/>
+      <c r="F54" s="245"/>
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
@@ -6664,8 +7856,8 @@
       <c r="D55" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="241"/>
-      <c r="F55" s="242"/>
+      <c r="E55" s="244"/>
+      <c r="F55" s="245"/>
       <c r="G55" s="9"/>
     </row>
     <row r="56" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
@@ -6678,8 +7870,8 @@
       <c r="D56" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="241"/>
-      <c r="F56" s="242"/>
+      <c r="E56" s="244"/>
+      <c r="F56" s="245"/>
       <c r="G56" s="9"/>
     </row>
     <row r="57" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
@@ -6692,8 +7884,8 @@
       <c r="D57" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="243"/>
-      <c r="F57" s="244"/>
+      <c r="E57" s="246"/>
+      <c r="F57" s="247"/>
       <c r="G57" s="9"/>
     </row>
     <row r="58" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
@@ -6716,10 +7908,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFC00000"/>
+  </sheetPr>
   <dimension ref="A3:AA87"/>
   <sheetViews>
     <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7169,12 +8364,12 @@
       <c r="B47" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="245" t="s">
+      <c r="C47" s="248" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="246"/>
-      <c r="E47" s="245"/>
-      <c r="F47" s="246"/>
+      <c r="D47" s="249"/>
+      <c r="E47" s="248"/>
+      <c r="F47" s="249"/>
       <c r="G47" s="120"/>
       <c r="H47" s="117"/>
       <c r="I47" s="111"/>
@@ -7262,10 +8457,10 @@
       <c r="B52" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="247" t="s">
+      <c r="C52" s="250" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="247"/>
+      <c r="D52" s="250"/>
       <c r="E52" s="128"/>
       <c r="F52" s="128"/>
       <c r="G52" s="129"/>
@@ -7823,10 +9018,10 @@
     <row r="75" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="139"/>
       <c r="B75" s="145"/>
-      <c r="C75" s="248" t="s">
+      <c r="C75" s="251" t="s">
         <v>181</v>
       </c>
-      <c r="D75" s="248"/>
+      <c r="D75" s="251"/>
       <c r="E75" s="146"/>
       <c r="F75" s="147"/>
       <c r="G75" s="148"/>
@@ -7906,8 +9101,8 @@
     <row r="84" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="139"/>
       <c r="B84" s="145"/>
-      <c r="C84" s="248"/>
-      <c r="D84" s="248"/>
+      <c r="C84" s="251"/>
+      <c r="D84" s="251"/>
       <c r="E84" s="146"/>
       <c r="F84" s="147"/>
       <c r="G84" s="148"/>
@@ -7956,10 +9151,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K204"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A2:K211"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -7968,10 +9166,10 @@
     <col min="2" max="2" width="21.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.140625" style="16" customWidth="1"/>
     <col min="4" max="4" width="30" style="16" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="45.85546875" style="16" customWidth="1"/>
     <col min="6" max="6" width="39.42578125" style="16" customWidth="1"/>
     <col min="7" max="7" width="61.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="40.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="75.7109375" style="23" customWidth="1"/>
     <col min="9" max="9" width="48.85546875" style="16" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="16"/>
   </cols>
@@ -8038,10 +9236,10 @@
     <row r="8" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="257" t="s">
+      <c r="C8" s="252" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="257"/>
+      <c r="D8" s="252"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="31"/>
@@ -8050,10 +9248,10 @@
     <row r="9" spans="1:8" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="257" t="s">
+      <c r="C9" s="252" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="257"/>
+      <c r="D9" s="252"/>
       <c r="E9" s="33" t="s">
         <v>195</v>
       </c>
@@ -8064,10 +9262,10 @@
     <row r="10" spans="1:8" s="26" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="257" t="s">
+      <c r="C10" s="252" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="257"/>
+      <c r="D10" s="252"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="31"/>
@@ -8076,10 +9274,10 @@
     <row r="11" spans="1:8" s="26" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="257" t="s">
+      <c r="C11" s="252" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="257"/>
+      <c r="D11" s="252"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="31"/>
@@ -8090,10 +9288,10 @@
       <c r="B12" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="257" t="s">
+      <c r="C12" s="252" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="257"/>
+      <c r="D12" s="252"/>
       <c r="E12" s="33" t="s">
         <v>190</v>
       </c>
@@ -8108,10 +9306,10 @@
       <c r="B13" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="257" t="s">
+      <c r="C13" s="252" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="257"/>
+      <c r="D13" s="252"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="31"/>
@@ -8148,7 +9346,7 @@
       <c r="H16" s="25"/>
     </row>
     <row r="17" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="206"/>
+      <c r="B17" s="203"/>
       <c r="C17" s="196"/>
       <c r="D17" s="196"/>
       <c r="E17" s="196"/>
@@ -8157,15 +9355,15 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
-      <c r="B18" s="207"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
-      <c r="J18" s="208"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="205"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="205"/>
+      <c r="J18" s="205"/>
       <c r="K18" s="36"/>
     </row>
     <row r="19" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -8173,13 +9371,13 @@
       <c r="B19" s="17" t="s">
         <v>446</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="206" t="s">
         <v>449</v>
       </c>
-      <c r="D19" s="210" t="s">
+      <c r="D19" s="207" t="s">
         <v>447</v>
       </c>
-      <c r="E19" s="211" t="s">
+      <c r="E19" s="208" t="s">
         <v>451</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -8200,17 +9398,17 @@
     <row r="20" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="17"/>
-      <c r="C20" s="209"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="212" t="s">
+      <c r="C20" s="206"/>
+      <c r="D20" s="207"/>
+      <c r="E20" s="209" t="s">
         <v>453</v>
       </c>
-      <c r="F20" s="213" t="s">
+      <c r="F20" s="210" t="s">
         <v>456</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="213" t="s">
+      <c r="I20" s="210" t="s">
         <v>455</v>
       </c>
       <c r="J20" s="8"/>
@@ -8229,12 +9427,14 @@
       <c r="J21" s="8"/>
       <c r="K21" s="31"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
+      <c r="E22" s="8" t="s">
+        <v>525</v>
+      </c>
       <c r="F22" s="18"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -8256,7 +9456,7 @@
       <c r="K23" s="22"/>
     </row>
     <row r="24" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="206"/>
+      <c r="B24" s="203"/>
       <c r="C24" s="196"/>
       <c r="D24" s="196"/>
       <c r="E24" s="196"/>
@@ -8275,12 +9475,12 @@
       <c r="B26" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="258" t="s">
+      <c r="C26" s="259" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="256"/>
-      <c r="E26" s="253"/>
-      <c r="F26" s="254"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="255"/>
+      <c r="F26" s="256"/>
       <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:11" s="26" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -8291,10 +9491,10 @@
       <c r="D27" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="255" t="s">
+      <c r="E27" s="257" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="256"/>
+      <c r="F27" s="258"/>
       <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -8307,8 +9507,8 @@
     </row>
     <row r="29" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="34"/>
-      <c r="C29" s="257"/>
-      <c r="D29" s="257"/>
+      <c r="C29" s="252"/>
+      <c r="D29" s="252"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
       <c r="G29" s="31"/>
@@ -8344,96 +9544,185 @@
       <c r="D33" s="198"/>
       <c r="E33" s="198"/>
       <c r="F33" s="198"/>
-      <c r="G33" s="199"/>
-      <c r="H33" s="40"/>
+      <c r="G33" s="278"/>
+      <c r="H33" s="279"/>
     </row>
     <row r="34" spans="1:8" s="26" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
-      <c r="B34" s="200" t="s">
+      <c r="B34" s="199" t="s">
         <v>444</v>
       </c>
-      <c r="C34" s="251" t="s">
+      <c r="C34" s="253" t="s">
         <v>475</v>
       </c>
-      <c r="D34" s="252"/>
+      <c r="D34" s="254"/>
       <c r="E34" s="41"/>
-      <c r="F34" s="249"/>
-      <c r="G34" s="250"/>
-      <c r="H34" s="40"/>
-    </row>
-    <row r="35" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="1:8" s="26" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
-      <c r="B35" s="200"/>
-      <c r="G35" s="201"/>
-      <c r="H35" s="40"/>
-    </row>
-    <row r="36" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="199"/>
+      <c r="C35" s="253" t="s">
+        <v>527</v>
+      </c>
+      <c r="D35" s="254"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="279"/>
+    </row>
+    <row r="36" spans="1:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
-      <c r="B36" s="200"/>
-      <c r="G36" s="201"/>
+      <c r="B36" s="199" t="s">
+        <v>526</v>
+      </c>
+      <c r="C36" s="259" t="s">
+        <v>528</v>
+      </c>
+      <c r="D36" s="281"/>
+      <c r="E36" s="32"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="40"/>
     </row>
-    <row r="37" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
-      <c r="B37" s="200"/>
-      <c r="G37" s="201"/>
-      <c r="H37" s="40"/>
+      <c r="B37" s="199" t="s">
+        <v>529</v>
+      </c>
+      <c r="C37" s="257" t="s">
+        <v>530</v>
+      </c>
+      <c r="D37" s="258"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="279"/>
     </row>
     <row r="38" spans="1:8" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41"/>
-      <c r="B38" s="202"/>
-      <c r="C38" s="203"/>
-      <c r="D38" s="203"/>
-      <c r="E38" s="203"/>
-      <c r="F38" s="203"/>
-      <c r="G38" s="204"/>
+      <c r="B38" s="200"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="280"/>
       <c r="H38" s="40"/>
     </row>
-    <row r="39" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="194"/>
-      <c r="C39" s="196"/>
-      <c r="D39" s="196"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="196"/>
-      <c r="G39" s="196"/>
-    </row>
-    <row r="40" spans="1:8" s="26" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B40" s="2" t="s">
+      <c r="C39" s="282"/>
+      <c r="D39" s="282"/>
+      <c r="E39" s="282"/>
+      <c r="F39" s="282"/>
+      <c r="G39" s="282"/>
+    </row>
+    <row r="40" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="41"/>
+      <c r="B40" s="283"/>
+      <c r="C40" s="284"/>
+      <c r="D40" s="284"/>
+      <c r="E40" s="284"/>
+      <c r="F40" s="284"/>
+      <c r="G40" s="285"/>
+      <c r="H40" s="40"/>
+    </row>
+    <row r="41" spans="1:8" s="297" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="240"/>
+      <c r="B41" s="298" t="s">
+        <v>531</v>
+      </c>
+      <c r="C41" s="294" t="s">
+        <v>533</v>
+      </c>
+      <c r="D41" s="293"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="292"/>
+      <c r="G41" s="296"/>
+      <c r="H41" s="241"/>
+    </row>
+    <row r="42" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="41"/>
+      <c r="B42" s="286"/>
+      <c r="C42" s="287"/>
+      <c r="D42" s="287"/>
+      <c r="E42" s="287"/>
+      <c r="F42" s="287"/>
+      <c r="G42" s="288"/>
+      <c r="H42" s="40"/>
+    </row>
+    <row r="43" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="286" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="295"/>
+      <c r="D43" s="299"/>
+      <c r="E43" s="287"/>
+      <c r="F43" s="287"/>
+      <c r="G43" s="288"/>
+      <c r="H43" s="40"/>
+    </row>
+    <row r="44" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="286" t="s">
+        <v>532</v>
+      </c>
+      <c r="C44" s="295"/>
+      <c r="D44" s="299"/>
+      <c r="E44" s="287"/>
+      <c r="F44" s="287"/>
+      <c r="G44" s="288"/>
+      <c r="H44" s="40"/>
+    </row>
+    <row r="45" spans="1:8" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="41"/>
+      <c r="B45" s="289"/>
+      <c r="C45" s="290"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="290"/>
+      <c r="F45" s="290"/>
+      <c r="G45" s="291"/>
+      <c r="H45" s="40"/>
+    </row>
+    <row r="46" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="194"/>
+      <c r="C46" s="196"/>
+      <c r="D46" s="196"/>
+      <c r="E46" s="196"/>
+      <c r="F46" s="196"/>
+      <c r="G46" s="196"/>
+    </row>
+    <row r="47" spans="1:8" s="26" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
+    <row r="48" spans="1:8" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="23" t="s">
+    <row r="49" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="23" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="65" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="66" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="67" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -8574,20 +9863,33 @@
     <row r="202" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="203" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="204" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8597,9 +9899,12 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A3:AA55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
@@ -8618,10 +9923,10 @@
       <c r="B3" s="80" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="265" t="s">
+      <c r="C3" s="261" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="265"/>
+      <c r="D3" s="261"/>
     </row>
     <row r="4" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="B4" s="80" t="s">
@@ -8953,10 +10258,10 @@
     <row r="20" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="155"/>
       <c r="B20" s="161"/>
-      <c r="C20" s="264" t="s">
+      <c r="C20" s="260" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="264"/>
+      <c r="D20" s="260"/>
       <c r="E20" s="162"/>
       <c r="F20" s="162"/>
       <c r="G20" s="163"/>
@@ -8981,13 +10286,13 @@
       <c r="Z20" s="155"/>
       <c r="AA20" s="155"/>
     </row>
-    <row r="21" spans="1:27" s="160" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="160" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="155"/>
       <c r="B21" s="161"/>
-      <c r="C21" s="264" t="s">
+      <c r="C21" s="260" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="264"/>
+      <c r="D21" s="260"/>
       <c r="E21" s="162" t="s">
         <v>133</v>
       </c>
@@ -9017,8 +10322,8 @@
     <row r="22" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="155"/>
       <c r="B22" s="161"/>
-      <c r="C22" s="264"/>
-      <c r="D22" s="264"/>
+      <c r="C22" s="260"/>
+      <c r="D22" s="260"/>
       <c r="E22" s="162"/>
       <c r="F22" s="162"/>
       <c r="G22" s="163"/>
@@ -9402,10 +10707,10 @@
       <c r="B39" s="106" t="s">
         <v>443</v>
       </c>
-      <c r="C39" s="261" t="s">
+      <c r="C39" s="262" t="s">
         <v>431</v>
       </c>
-      <c r="D39" s="262"/>
+      <c r="D39" s="263"/>
       <c r="E39" s="107"/>
       <c r="F39" s="107"/>
       <c r="G39" s="170"/>
@@ -9450,10 +10755,10 @@
       <c r="B43" s="106" t="s">
         <v>429</v>
       </c>
-      <c r="C43" s="261" t="s">
+      <c r="C43" s="262" t="s">
         <v>430</v>
       </c>
-      <c r="D43" s="262"/>
+      <c r="D43" s="263"/>
       <c r="E43" s="107"/>
       <c r="F43" s="107"/>
       <c r="G43" s="170"/>
@@ -9491,10 +10796,10 @@
     </row>
     <row r="47" spans="1:27" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="155"/>
-      <c r="B47" s="259" t="s">
+      <c r="B47" s="264" t="s">
         <v>434</v>
       </c>
-      <c r="C47" s="260"/>
+      <c r="C47" s="265"/>
       <c r="D47" s="168"/>
       <c r="E47" s="168"/>
       <c r="F47" s="168"/>
@@ -9506,14 +10811,14 @@
       <c r="B48" s="106" t="s">
         <v>435</v>
       </c>
-      <c r="C48" s="261" t="s">
+      <c r="C48" s="262" t="s">
         <v>437</v>
       </c>
-      <c r="D48" s="262"/>
-      <c r="E48" s="263" t="s">
+      <c r="D48" s="263"/>
+      <c r="E48" s="266" t="s">
         <v>438</v>
       </c>
-      <c r="F48" s="262"/>
+      <c r="F48" s="263"/>
       <c r="G48" s="170"/>
       <c r="H48" s="159"/>
     </row>
@@ -9522,14 +10827,14 @@
       <c r="B49" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="C49" s="261" t="s">
+      <c r="C49" s="262" t="s">
         <v>439</v>
       </c>
-      <c r="D49" s="262"/>
-      <c r="E49" s="263" t="s">
+      <c r="D49" s="263"/>
+      <c r="E49" s="266" t="s">
         <v>440</v>
       </c>
-      <c r="F49" s="262"/>
+      <c r="F49" s="263"/>
       <c r="G49" s="170"/>
       <c r="H49" s="159"/>
     </row>
@@ -9538,10 +10843,10 @@
       <c r="B50" s="108" t="s">
         <v>417</v>
       </c>
-      <c r="C50" s="261" t="s">
+      <c r="C50" s="262" t="s">
         <v>442</v>
       </c>
-      <c r="D50" s="262"/>
+      <c r="D50" s="263"/>
       <c r="E50" s="192"/>
       <c r="F50" s="191"/>
       <c r="G50" s="193"/>
@@ -9569,10 +10874,10 @@
     </row>
     <row r="53" spans="1:8" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="155"/>
-      <c r="B53" s="259" t="s">
+      <c r="B53" s="264" t="s">
         <v>441</v>
       </c>
-      <c r="C53" s="260"/>
+      <c r="C53" s="265"/>
       <c r="D53" s="168"/>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
@@ -9584,12 +10889,12 @@
       <c r="B54" s="106" t="s">
         <v>417</v>
       </c>
-      <c r="C54" s="261" t="s">
+      <c r="C54" s="262" t="s">
         <v>445</v>
       </c>
-      <c r="D54" s="262"/>
-      <c r="E54" s="263"/>
-      <c r="F54" s="262"/>
+      <c r="D54" s="263"/>
+      <c r="E54" s="266"/>
+      <c r="F54" s="263"/>
       <c r="G54" s="170"/>
       <c r="H54" s="159"/>
     </row>
@@ -9605,12 +10910,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="E54:F54"/>
@@ -9620,6 +10919,12 @@
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9629,10 +10934,156 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J168"/>
+  <sheetPr>
+    <tabColor theme="9" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.28515625" style="238" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" style="238" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="238" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" style="238" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" style="238" customWidth="1"/>
+    <col min="6" max="6" width="57.85546875" style="238" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="238"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="237" t="s">
+        <v>409</v>
+      </c>
+      <c r="C2" s="271" t="s">
+        <v>511</v>
+      </c>
+      <c r="D2" s="271"/>
+    </row>
+    <row r="3" spans="2:6" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="271" t="s">
+        <v>512</v>
+      </c>
+      <c r="D3" s="271"/>
+      <c r="E3" s="237" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="238" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" s="268" t="s">
+        <v>503</v>
+      </c>
+      <c r="D4" s="269"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="238" t="s">
+        <v>501</v>
+      </c>
+      <c r="C5" s="268" t="s">
+        <v>502</v>
+      </c>
+      <c r="D5" s="269"/>
+    </row>
+    <row r="7" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="238" t="s">
+        <v>504</v>
+      </c>
+      <c r="C7" s="268" t="s">
+        <v>505</v>
+      </c>
+      <c r="D7" s="270"/>
+    </row>
+    <row r="8" spans="2:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="238" t="s">
+        <v>506</v>
+      </c>
+      <c r="C8" s="268" t="s">
+        <v>510</v>
+      </c>
+      <c r="D8" s="268"/>
+      <c r="E8" s="267" t="s">
+        <v>509</v>
+      </c>
+      <c r="F8" s="267"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="238" t="s">
+        <v>507</v>
+      </c>
+      <c r="C9" s="269" t="s">
+        <v>508</v>
+      </c>
+      <c r="D9" s="270"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="B3:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="13.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="49.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>514</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:J174"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -9641,34 +11092,34 @@
     <col min="2" max="2" width="23" style="64" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.85546875" style="64" customWidth="1"/>
     <col min="4" max="4" width="60.7109375" style="64" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="223" customWidth="1"/>
+    <col min="5" max="5" width="26.7109375" style="220" customWidth="1"/>
     <col min="6" max="16384" width="8.85546875" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="221"/>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
+      <c r="A1" s="218"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="218"/>
+      <c r="A2" s="215"/>
       <c r="B2" s="71"/>
       <c r="C2" s="72"/>
       <c r="D2" s="73"/>
-      <c r="F2" s="223"/>
-      <c r="G2" s="223"/>
-      <c r="H2" s="223"/>
-      <c r="I2" s="223"/>
-      <c r="J2" s="223"/>
+      <c r="F2" s="220"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="218"/>
+      <c r="A3" s="215"/>
       <c r="B3" s="66"/>
       <c r="C3" s="45" t="s">
         <v>135</v>
@@ -9676,14 +11127,14 @@
       <c r="D3" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="F3" s="223"/>
-      <c r="G3" s="223"/>
-      <c r="H3" s="223"/>
-      <c r="I3" s="223"/>
-      <c r="J3" s="223"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="220"/>
+      <c r="H3" s="220"/>
+      <c r="I3" s="220"/>
+      <c r="J3" s="220"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="218"/>
+      <c r="A4" s="215"/>
       <c r="B4" s="66"/>
       <c r="C4" s="47" t="s">
         <v>320</v>
@@ -9691,14 +11142,14 @@
       <c r="D4" s="67" t="s">
         <v>321</v>
       </c>
-      <c r="F4" s="223"/>
-      <c r="G4" s="223"/>
-      <c r="H4" s="223"/>
-      <c r="I4" s="223"/>
-      <c r="J4" s="223"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
     </row>
     <row r="5" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="218"/>
+      <c r="A5" s="215"/>
       <c r="B5" s="66"/>
       <c r="C5" s="47" t="s">
         <v>323</v>
@@ -9706,47 +11157,47 @@
       <c r="D5" s="67" t="s">
         <v>322</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
+      <c r="F5" s="220"/>
+      <c r="G5" s="220"/>
+      <c r="H5" s="220"/>
+      <c r="I5" s="220"/>
+      <c r="J5" s="220"/>
     </row>
     <row r="6" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="218"/>
+      <c r="A6" s="215"/>
       <c r="B6" s="74"/>
       <c r="C6" s="75"/>
       <c r="D6" s="76"/>
-      <c r="F6" s="223"/>
-      <c r="G6" s="223"/>
-      <c r="H6" s="223"/>
-      <c r="I6" s="223"/>
-      <c r="J6" s="223"/>
+      <c r="F6" s="220"/>
+      <c r="G6" s="220"/>
+      <c r="H6" s="220"/>
+      <c r="I6" s="220"/>
+      <c r="J6" s="220"/>
     </row>
     <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="221"/>
-      <c r="B7" s="221"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="F7" s="223"/>
-      <c r="G7" s="223"/>
-      <c r="H7" s="223"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223"/>
+      <c r="A7" s="218"/>
+      <c r="B7" s="218"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="218"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="218"/>
+      <c r="A8" s="215"/>
       <c r="B8" s="71"/>
       <c r="C8" s="72"/>
       <c r="D8" s="73"/>
-      <c r="F8" s="223"/>
-      <c r="G8" s="223"/>
-      <c r="H8" s="223"/>
-      <c r="I8" s="223"/>
-      <c r="J8" s="223"/>
+      <c r="F8" s="220"/>
+      <c r="G8" s="220"/>
+      <c r="H8" s="220"/>
+      <c r="I8" s="220"/>
+      <c r="J8" s="220"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="218"/>
+      <c r="A9" s="215"/>
       <c r="B9" s="77"/>
       <c r="C9" s="45" t="s">
         <v>307</v>
@@ -9754,156 +11205,156 @@
       <c r="D9" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="F9" s="223"/>
-      <c r="G9" s="223"/>
-      <c r="H9" s="223"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="223"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="218"/>
+      <c r="A10" s="215"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78" t="s">
         <v>308</v>
       </c>
-      <c r="D10" s="224" t="s">
+      <c r="D10" s="221" t="s">
         <v>309</v>
       </c>
-      <c r="F10" s="223"/>
-      <c r="G10" s="223"/>
-      <c r="H10" s="223"/>
-      <c r="I10" s="223"/>
-      <c r="J10" s="223"/>
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="220"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="220"/>
     </row>
     <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="218"/>
+      <c r="A11" s="215"/>
       <c r="B11" s="77"/>
       <c r="C11" s="78" t="s">
         <v>310</v>
       </c>
-      <c r="D11" s="224" t="s">
+      <c r="D11" s="221" t="s">
         <v>311</v>
       </c>
-      <c r="F11" s="223"/>
-      <c r="G11" s="223"/>
-      <c r="H11" s="223"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="223"/>
+      <c r="F11" s="220"/>
+      <c r="G11" s="220"/>
+      <c r="H11" s="220"/>
+      <c r="I11" s="220"/>
+      <c r="J11" s="220"/>
     </row>
     <row r="12" spans="1:10" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="218"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="74"/>
       <c r="C12" s="75"/>
       <c r="D12" s="76"/>
-      <c r="F12" s="223"/>
-      <c r="G12" s="223"/>
-      <c r="H12" s="223"/>
-      <c r="I12" s="223"/>
-      <c r="J12" s="223"/>
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="220"/>
     </row>
     <row r="13" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="221"/>
-      <c r="B13" s="221"/>
-      <c r="C13" s="221"/>
-      <c r="D13" s="221"/>
-      <c r="F13" s="223"/>
-      <c r="G13" s="223"/>
-      <c r="H13" s="223"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
+      <c r="A13" s="218"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="218"/>
+      <c r="D13" s="218"/>
+      <c r="F13" s="220"/>
+      <c r="G13" s="220"/>
+      <c r="H13" s="220"/>
+      <c r="I13" s="220"/>
+      <c r="J13" s="220"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="218"/>
+      <c r="A14" s="215"/>
       <c r="B14" s="71"/>
       <c r="C14" s="72"/>
-      <c r="D14" s="225"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="223"/>
+      <c r="D14" s="222"/>
+      <c r="F14" s="220"/>
+      <c r="G14" s="220"/>
+      <c r="H14" s="220"/>
+      <c r="I14" s="220"/>
+      <c r="J14" s="220"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="218"/>
+      <c r="A15" s="215"/>
       <c r="B15" s="77"/>
       <c r="C15" s="45" t="s">
         <v>312</v>
       </c>
-      <c r="D15" s="226" t="s">
+      <c r="D15" s="223" t="s">
         <v>313</v>
       </c>
-      <c r="F15" s="223"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
+      <c r="F15" s="220"/>
+      <c r="G15" s="220"/>
+      <c r="H15" s="220"/>
+      <c r="I15" s="220"/>
+      <c r="J15" s="220"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="218"/>
+      <c r="A16" s="215"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78" t="s">
         <v>314</v>
       </c>
-      <c r="D16" s="227" t="s">
+      <c r="D16" s="224" t="s">
         <v>315</v>
       </c>
-      <c r="F16" s="223"/>
-      <c r="G16" s="223"/>
-      <c r="H16" s="223"/>
-      <c r="I16" s="223"/>
-      <c r="J16" s="223"/>
+      <c r="F16" s="220"/>
+      <c r="G16" s="220"/>
+      <c r="H16" s="220"/>
+      <c r="I16" s="220"/>
+      <c r="J16" s="220"/>
     </row>
     <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="218"/>
+      <c r="A17" s="215"/>
       <c r="B17" s="77"/>
       <c r="C17" s="78" t="s">
         <v>316</v>
       </c>
-      <c r="D17" s="227" t="s">
+      <c r="D17" s="224" t="s">
         <v>317</v>
       </c>
-      <c r="F17" s="223"/>
-      <c r="G17" s="223"/>
-      <c r="H17" s="223"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
+      <c r="F17" s="220"/>
+      <c r="G17" s="220"/>
+      <c r="H17" s="220"/>
+      <c r="I17" s="220"/>
+      <c r="J17" s="220"/>
     </row>
     <row r="18" spans="1:10" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="218"/>
+      <c r="A18" s="215"/>
       <c r="B18" s="74"/>
       <c r="C18" s="75"/>
-      <c r="D18" s="228"/>
-      <c r="F18" s="223"/>
-      <c r="G18" s="223"/>
-      <c r="H18" s="223"/>
-      <c r="I18" s="223"/>
-      <c r="J18" s="223"/>
-    </row>
-    <row r="19" spans="1:10" s="214" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="221"/>
-      <c r="B19" s="221"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="223"/>
-      <c r="G19" s="223"/>
-      <c r="H19" s="223"/>
-      <c r="I19" s="223"/>
-      <c r="J19" s="223"/>
+      <c r="D18" s="225"/>
+      <c r="F18" s="220"/>
+      <c r="G18" s="220"/>
+      <c r="H18" s="220"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
+    </row>
+    <row r="19" spans="1:10" s="211" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="218"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="220"/>
+      <c r="F19" s="220"/>
+      <c r="G19" s="220"/>
+      <c r="H19" s="220"/>
+      <c r="I19" s="220"/>
+      <c r="J19" s="220"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="218"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="71"/>
       <c r="C20" s="72"/>
       <c r="D20" s="73"/>
-      <c r="F20" s="223"/>
-      <c r="G20" s="223"/>
-      <c r="H20" s="223"/>
-      <c r="I20" s="223"/>
-      <c r="J20" s="223"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="220"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="218"/>
+      <c r="A21" s="215"/>
       <c r="B21" s="49"/>
       <c r="C21" s="45" t="s">
         <v>126</v>
@@ -9911,14 +11362,14 @@
       <c r="D21" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="F21" s="223"/>
-      <c r="G21" s="223"/>
-      <c r="H21" s="223"/>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
+      <c r="F21" s="220"/>
+      <c r="G21" s="220"/>
+      <c r="H21" s="220"/>
+      <c r="I21" s="220"/>
+      <c r="J21" s="220"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="218"/>
+      <c r="A22" s="215"/>
       <c r="B22" s="66"/>
       <c r="C22" s="47" t="s">
         <v>207</v>
@@ -9926,14 +11377,14 @@
       <c r="D22" s="67" t="s">
         <v>210</v>
       </c>
-      <c r="F22" s="223"/>
-      <c r="G22" s="223"/>
-      <c r="H22" s="223"/>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
+      <c r="F22" s="220"/>
+      <c r="G22" s="220"/>
+      <c r="H22" s="220"/>
+      <c r="I22" s="220"/>
+      <c r="J22" s="220"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="218"/>
+      <c r="A23" s="215"/>
       <c r="B23" s="66"/>
       <c r="C23" s="47" t="s">
         <v>208</v>
@@ -9941,14 +11392,14 @@
       <c r="D23" s="67" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="223"/>
-      <c r="G23" s="223"/>
-      <c r="H23" s="223"/>
-      <c r="I23" s="223"/>
-      <c r="J23" s="223"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
+      <c r="H23" s="220"/>
+      <c r="I23" s="220"/>
+      <c r="J23" s="220"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="218"/>
+      <c r="A24" s="215"/>
       <c r="B24" s="66"/>
       <c r="C24" s="47" t="s">
         <v>211</v>
@@ -9956,36 +11407,36 @@
       <c r="D24" s="67" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
+      <c r="F24" s="220"/>
+      <c r="G24" s="220"/>
+      <c r="H24" s="220"/>
+      <c r="I24" s="220"/>
+      <c r="J24" s="220"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="218"/>
+      <c r="A25" s="215"/>
       <c r="B25" s="66"/>
       <c r="C25" s="47"/>
       <c r="D25" s="67"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="223"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="223"/>
+      <c r="F25" s="220"/>
+      <c r="G25" s="220"/>
+      <c r="H25" s="220"/>
+      <c r="I25" s="220"/>
+      <c r="J25" s="220"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="218"/>
+      <c r="A26" s="215"/>
       <c r="B26" s="66"/>
       <c r="C26" s="47"/>
       <c r="D26" s="67"/>
-      <c r="F26" s="223"/>
-      <c r="G26" s="223"/>
-      <c r="H26" s="223"/>
-      <c r="I26" s="223"/>
-      <c r="J26" s="223"/>
+      <c r="F26" s="220"/>
+      <c r="G26" s="220"/>
+      <c r="H26" s="220"/>
+      <c r="I26" s="220"/>
+      <c r="J26" s="220"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="218"/>
+      <c r="A27" s="215"/>
       <c r="B27" s="66" t="s">
         <v>205</v>
       </c>
@@ -9995,14 +11446,14 @@
       <c r="D27" s="67" t="s">
         <v>213</v>
       </c>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="223"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="220"/>
+      <c r="H27" s="220"/>
+      <c r="I27" s="220"/>
+      <c r="J27" s="220"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="218"/>
+      <c r="A28" s="215"/>
       <c r="B28" s="69" t="s">
         <v>219</v>
       </c>
@@ -10012,14 +11463,14 @@
       <c r="D28" s="70" t="s">
         <v>217</v>
       </c>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="220"/>
     </row>
     <row r="29" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="218"/>
+      <c r="A29" s="215"/>
       <c r="B29" s="69" t="s">
         <v>216</v>
       </c>
@@ -10029,38 +11480,38 @@
       <c r="D29" s="70" t="s">
         <v>214</v>
       </c>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="223"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="223"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="220"/>
     </row>
     <row r="30" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="218"/>
+      <c r="A30" s="215"/>
       <c r="B30" s="74"/>
       <c r="C30" s="75"/>
       <c r="D30" s="76"/>
-      <c r="F30" s="223"/>
-      <c r="G30" s="223"/>
-      <c r="H30" s="223"/>
-      <c r="I30" s="223"/>
-      <c r="J30" s="223"/>
-    </row>
-    <row r="31" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="220"/>
+    </row>
+    <row r="31" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="218"/>
+      <c r="A32" s="215"/>
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
       <c r="D32" s="73"/>
-      <c r="E32" s="229"/>
-      <c r="F32" s="223"/>
-      <c r="G32" s="223"/>
-      <c r="H32" s="223"/>
-      <c r="I32" s="223"/>
-      <c r="J32" s="223"/>
+      <c r="E32" s="226"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="220"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="220"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="218"/>
+      <c r="A33" s="215"/>
       <c r="B33" s="66"/>
       <c r="C33" s="45" t="s">
         <v>157</v>
@@ -10068,29 +11519,29 @@
       <c r="D33" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="E33" s="229"/>
-      <c r="F33" s="223"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="223"/>
+      <c r="E33" s="226"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="220"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="218"/>
+      <c r="A34" s="215"/>
       <c r="B34" s="66"/>
       <c r="C34" s="47" t="s">
         <v>159</v>
       </c>
       <c r="D34" s="67"/>
-      <c r="E34" s="229"/>
-      <c r="F34" s="223"/>
-      <c r="G34" s="223"/>
-      <c r="H34" s="223"/>
-      <c r="I34" s="223"/>
-      <c r="J34" s="223"/>
+      <c r="E34" s="226"/>
+      <c r="F34" s="220"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="220"/>
+      <c r="J34" s="220"/>
     </row>
     <row r="35" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="218"/>
+      <c r="A35" s="215"/>
       <c r="B35" s="66"/>
       <c r="C35" s="47" t="s">
         <v>160</v>
@@ -10098,52 +11549,52 @@
       <c r="D35" s="67" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="229"/>
-      <c r="F35" s="223"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="223"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="220"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="220"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="218"/>
+      <c r="A36" s="215"/>
       <c r="B36" s="66"/>
       <c r="C36" s="47"/>
       <c r="D36" s="67"/>
-      <c r="E36" s="229"/>
-      <c r="F36" s="223"/>
-      <c r="G36" s="223"/>
-      <c r="H36" s="223"/>
-      <c r="I36" s="223"/>
-      <c r="J36" s="223"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="220"/>
+      <c r="G36" s="220"/>
+      <c r="H36" s="220"/>
+      <c r="I36" s="220"/>
+      <c r="J36" s="220"/>
     </row>
     <row r="37" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="218"/>
+      <c r="A37" s="215"/>
       <c r="B37" s="74"/>
       <c r="C37" s="75"/>
       <c r="D37" s="76"/>
-      <c r="E37" s="229"/>
-      <c r="F37" s="223"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="223"/>
-    </row>
-    <row r="38" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:10" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="218"/>
+      <c r="E37" s="226"/>
+      <c r="F37" s="220"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="220"/>
+    </row>
+    <row r="38" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="215"/>
       <c r="B39" s="71"/>
       <c r="C39" s="72"/>
       <c r="D39" s="73"/>
-      <c r="E39" s="229"/>
-      <c r="F39" s="223"/>
-      <c r="G39" s="223"/>
-      <c r="H39" s="223"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="223"/>
-    </row>
-    <row r="40" spans="1:10" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="218"/>
+      <c r="E39" s="226"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="220"/>
+      <c r="H39" s="220"/>
+      <c r="I39" s="220"/>
+      <c r="J39" s="220"/>
+    </row>
+    <row r="40" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="215"/>
       <c r="B40" s="66"/>
       <c r="C40" s="45" t="s">
         <v>462</v>
@@ -10151,15 +11602,15 @@
       <c r="D40" s="46" t="s">
         <v>461</v>
       </c>
-      <c r="E40" s="229"/>
-      <c r="F40" s="223"/>
-      <c r="G40" s="223"/>
-      <c r="H40" s="223"/>
-      <c r="I40" s="223"/>
-      <c r="J40" s="223"/>
-    </row>
-    <row r="41" spans="1:10" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="218"/>
+      <c r="E40" s="226"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="220"/>
+      <c r="H40" s="220"/>
+      <c r="I40" s="220"/>
+      <c r="J40" s="220"/>
+    </row>
+    <row r="41" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="215"/>
       <c r="B41" s="66" t="s">
         <v>469</v>
       </c>
@@ -10169,15 +11620,15 @@
       <c r="D41" s="67" t="s">
         <v>467</v>
       </c>
-      <c r="E41" s="229"/>
-      <c r="F41" s="223"/>
-      <c r="G41" s="223"/>
-      <c r="H41" s="223"/>
-      <c r="I41" s="223"/>
-      <c r="J41" s="223"/>
-    </row>
-    <row r="42" spans="1:10" s="214" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="218"/>
+      <c r="E41" s="226"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="220"/>
+      <c r="H41" s="220"/>
+      <c r="I41" s="220"/>
+      <c r="J41" s="220"/>
+    </row>
+    <row r="42" spans="1:10" s="211" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="215"/>
       <c r="B42" s="66" t="s">
         <v>468</v>
       </c>
@@ -10187,70 +11638,70 @@
       <c r="D42" s="67" t="s">
         <v>470</v>
       </c>
-      <c r="E42" s="229"/>
-      <c r="F42" s="223"/>
-      <c r="G42" s="223"/>
-      <c r="H42" s="223"/>
-      <c r="I42" s="223"/>
-      <c r="J42" s="223"/>
-    </row>
-    <row r="43" spans="1:10" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="218"/>
+      <c r="E42" s="226"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="220"/>
+      <c r="J42" s="220"/>
+    </row>
+    <row r="43" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="215"/>
       <c r="B43" s="66"/>
       <c r="C43" s="47"/>
       <c r="D43" s="67"/>
-      <c r="E43" s="229"/>
-      <c r="F43" s="223"/>
-      <c r="G43" s="223"/>
-      <c r="H43" s="223"/>
-      <c r="I43" s="223"/>
-      <c r="J43" s="223"/>
-    </row>
-    <row r="44" spans="1:10" s="214" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="218"/>
+      <c r="E43" s="226"/>
+      <c r="F43" s="220"/>
+      <c r="G43" s="220"/>
+      <c r="H43" s="220"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="220"/>
+    </row>
+    <row r="44" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="215"/>
       <c r="B44" s="79" t="s">
         <v>474</v>
       </c>
       <c r="C44" s="50" t="s">
         <v>473</v>
       </c>
-      <c r="D44" s="236" t="s">
+      <c r="D44" s="233" t="s">
         <v>472</v>
       </c>
-      <c r="E44" s="229"/>
-      <c r="F44" s="223"/>
-      <c r="G44" s="223"/>
-      <c r="H44" s="223"/>
-      <c r="I44" s="223"/>
-      <c r="J44" s="223"/>
-    </row>
-    <row r="45" spans="1:10" s="214" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="218"/>
+      <c r="E44" s="226"/>
+      <c r="F44" s="220"/>
+      <c r="G44" s="220"/>
+      <c r="H44" s="220"/>
+      <c r="I44" s="220"/>
+      <c r="J44" s="220"/>
+    </row>
+    <row r="45" spans="1:10" s="211" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="215"/>
       <c r="B45" s="74"/>
       <c r="C45" s="75"/>
       <c r="D45" s="76"/>
-      <c r="E45" s="229"/>
-      <c r="F45" s="223"/>
-      <c r="G45" s="223"/>
-      <c r="H45" s="223"/>
-      <c r="I45" s="223"/>
-      <c r="J45" s="223"/>
-    </row>
-    <row r="46" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="E45" s="226"/>
+      <c r="F45" s="220"/>
+      <c r="G45" s="220"/>
+      <c r="H45" s="220"/>
+      <c r="I45" s="220"/>
+      <c r="J45" s="220"/>
+    </row>
+    <row r="46" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="218"/>
+      <c r="A47" s="215"/>
       <c r="B47" s="71"/>
       <c r="C47" s="72"/>
       <c r="D47" s="73"/>
-      <c r="E47" s="229"/>
-      <c r="F47" s="223"/>
-      <c r="G47" s="223"/>
-      <c r="H47" s="223"/>
-      <c r="I47" s="223"/>
-      <c r="J47" s="223"/>
+      <c r="E47" s="226"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="220"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="220"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="218"/>
+      <c r="A48" s="215"/>
       <c r="B48" s="66"/>
       <c r="C48" s="45" t="s">
         <v>280</v>
@@ -10258,15 +11709,15 @@
       <c r="D48" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="E48" s="229"/>
-      <c r="F48" s="223"/>
-      <c r="G48" s="223"/>
-      <c r="H48" s="223"/>
-      <c r="I48" s="223"/>
-      <c r="J48" s="223"/>
+      <c r="E48" s="226"/>
+      <c r="F48" s="220"/>
+      <c r="G48" s="220"/>
+      <c r="H48" s="220"/>
+      <c r="I48" s="220"/>
+      <c r="J48" s="220"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="218"/>
+      <c r="A49" s="215"/>
       <c r="B49" s="66"/>
       <c r="C49" s="47" t="s">
         <v>283</v>
@@ -10274,77 +11725,77 @@
       <c r="D49" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="E49" s="229"/>
-      <c r="F49" s="223"/>
-      <c r="G49" s="223"/>
-      <c r="H49" s="223"/>
-      <c r="I49" s="223"/>
-      <c r="J49" s="223"/>
+      <c r="E49" s="226"/>
+      <c r="F49" s="220"/>
+      <c r="G49" s="220"/>
+      <c r="H49" s="220"/>
+      <c r="I49" s="220"/>
+      <c r="J49" s="220"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="218"/>
+      <c r="A50" s="215"/>
       <c r="B50" s="79"/>
       <c r="C50" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="D50" s="230" t="s">
+      <c r="D50" s="227" t="s">
         <v>281</v>
       </c>
-      <c r="E50" s="229"/>
-      <c r="F50" s="223"/>
-      <c r="G50" s="223"/>
-      <c r="H50" s="223"/>
-      <c r="I50" s="223"/>
-      <c r="J50" s="223"/>
+      <c r="E50" s="226"/>
+      <c r="F50" s="220"/>
+      <c r="G50" s="220"/>
+      <c r="H50" s="220"/>
+      <c r="I50" s="220"/>
+      <c r="J50" s="220"/>
     </row>
     <row r="51" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="218"/>
+      <c r="A51" s="215"/>
       <c r="B51" s="79"/>
       <c r="C51" s="48" t="s">
         <v>282</v>
       </c>
-      <c r="D51" s="230"/>
-      <c r="E51" s="229"/>
-      <c r="F51" s="223"/>
-      <c r="G51" s="223"/>
-      <c r="H51" s="223"/>
-      <c r="I51" s="223"/>
-      <c r="J51" s="223"/>
+      <c r="D51" s="227"/>
+      <c r="E51" s="226"/>
+      <c r="F51" s="220"/>
+      <c r="G51" s="220"/>
+      <c r="H51" s="220"/>
+      <c r="I51" s="220"/>
+      <c r="J51" s="220"/>
     </row>
     <row r="52" spans="1:10" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="218"/>
+      <c r="A52" s="215"/>
       <c r="B52" s="74"/>
-      <c r="C52" s="231" t="s">
+      <c r="C52" s="228" t="s">
         <v>285</v>
       </c>
       <c r="D52" s="76"/>
-      <c r="E52" s="229"/>
-      <c r="F52" s="223"/>
-      <c r="G52" s="223"/>
-      <c r="H52" s="223"/>
-      <c r="I52" s="223"/>
-      <c r="J52" s="223"/>
-    </row>
-    <row r="53" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="232"/>
-      <c r="C53" s="232"/>
-      <c r="D53" s="232"/>
-      <c r="E53" s="232"/>
-    </row>
-    <row r="54" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="218"/>
+      <c r="E52" s="226"/>
+      <c r="F52" s="220"/>
+      <c r="G52" s="220"/>
+      <c r="H52" s="220"/>
+      <c r="I52" s="220"/>
+      <c r="J52" s="220"/>
+    </row>
+    <row r="53" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="229"/>
+      <c r="C53" s="229"/>
+      <c r="D53" s="229"/>
+      <c r="E53" s="229"/>
+    </row>
+    <row r="54" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="215"/>
       <c r="B54" s="71"/>
       <c r="C54" s="72"/>
       <c r="D54" s="73"/>
-      <c r="E54" s="229"/>
-      <c r="F54" s="223"/>
-      <c r="G54" s="223"/>
-      <c r="H54" s="223"/>
-      <c r="I54" s="223"/>
-      <c r="J54" s="223"/>
-    </row>
-    <row r="55" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="218"/>
+      <c r="E54" s="226"/>
+      <c r="F54" s="220"/>
+      <c r="G54" s="220"/>
+      <c r="H54" s="220"/>
+      <c r="I54" s="220"/>
+      <c r="J54" s="220"/>
+    </row>
+    <row r="55" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="215"/>
       <c r="B55" s="66"/>
       <c r="C55" s="45" t="s">
         <v>484</v>
@@ -10352,15 +11803,15 @@
       <c r="D55" s="46" t="s">
         <v>485</v>
       </c>
-      <c r="E55" s="229"/>
-      <c r="F55" s="223"/>
-      <c r="G55" s="223"/>
-      <c r="H55" s="223"/>
-      <c r="I55" s="223"/>
-      <c r="J55" s="223"/>
-    </row>
-    <row r="56" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="218"/>
+      <c r="E55" s="226"/>
+      <c r="F55" s="220"/>
+      <c r="G55" s="220"/>
+      <c r="H55" s="220"/>
+      <c r="I55" s="220"/>
+      <c r="J55" s="220"/>
+    </row>
+    <row r="56" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="215"/>
       <c r="B56" s="66"/>
       <c r="C56" s="47" t="s">
         <v>486</v>
@@ -10368,15 +11819,15 @@
       <c r="D56" s="67" t="s">
         <v>487</v>
       </c>
-      <c r="E56" s="229"/>
-      <c r="F56" s="223"/>
-      <c r="G56" s="223"/>
-      <c r="H56" s="223"/>
-      <c r="I56" s="223"/>
-      <c r="J56" s="223"/>
-    </row>
-    <row r="57" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="218"/>
+      <c r="E56" s="226"/>
+      <c r="F56" s="220"/>
+      <c r="G56" s="220"/>
+      <c r="H56" s="220"/>
+      <c r="I56" s="220"/>
+      <c r="J56" s="220"/>
+    </row>
+    <row r="57" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="215"/>
       <c r="B57" s="66"/>
       <c r="C57" s="47" t="s">
         <v>496</v>
@@ -10384,1226 +11835,1320 @@
       <c r="D57" s="67" t="s">
         <v>497</v>
       </c>
-      <c r="E57" s="229"/>
-      <c r="F57" s="223"/>
-      <c r="G57" s="223"/>
-      <c r="H57" s="223"/>
-      <c r="I57" s="223"/>
-      <c r="J57" s="223"/>
-    </row>
-    <row r="58" spans="1:10" s="238" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="218"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="229"/>
-      <c r="F58" s="223"/>
-      <c r="G58" s="223"/>
-      <c r="H58" s="223"/>
-      <c r="I58" s="223"/>
-      <c r="J58" s="223"/>
-    </row>
-    <row r="59" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="218"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="73"/>
-      <c r="E60" s="229"/>
-      <c r="F60" s="223"/>
-      <c r="G60" s="223"/>
-      <c r="H60" s="223"/>
-      <c r="I60" s="223"/>
-      <c r="J60" s="223"/>
-    </row>
-    <row r="61" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="218"/>
-      <c r="B61" s="66"/>
-      <c r="C61" s="45" t="s">
+      <c r="E57" s="226"/>
+      <c r="F57" s="220"/>
+      <c r="G57" s="220"/>
+      <c r="H57" s="220"/>
+      <c r="I57" s="220"/>
+      <c r="J57" s="220"/>
+    </row>
+    <row r="58" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="215"/>
+      <c r="B58" s="79"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="227" t="s">
+        <v>515</v>
+      </c>
+      <c r="E58" s="226"/>
+      <c r="F58" s="220"/>
+      <c r="G58" s="220"/>
+      <c r="H58" s="220"/>
+      <c r="I58" s="220"/>
+      <c r="J58" s="220"/>
+    </row>
+    <row r="59" spans="1:10" s="237" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="215"/>
+      <c r="B59" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="D59" s="233" t="s">
+        <v>520</v>
+      </c>
+      <c r="E59" s="226"/>
+      <c r="F59" s="220"/>
+      <c r="G59" s="220"/>
+      <c r="H59" s="220"/>
+      <c r="I59" s="220"/>
+      <c r="J59" s="220"/>
+    </row>
+    <row r="60" spans="1:10" s="237" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="215"/>
+      <c r="B60" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="D60" s="227" t="s">
+        <v>521</v>
+      </c>
+      <c r="E60" s="226"/>
+      <c r="F60" s="220"/>
+      <c r="G60" s="220"/>
+      <c r="H60" s="220"/>
+      <c r="I60" s="220"/>
+      <c r="J60" s="220"/>
+    </row>
+    <row r="61" spans="1:10" s="237" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="215"/>
+      <c r="B61" s="79" t="s">
+        <v>518</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="D61" s="227" t="s">
+        <v>522</v>
+      </c>
+      <c r="E61" s="226"/>
+      <c r="F61" s="220"/>
+      <c r="G61" s="220"/>
+      <c r="H61" s="220"/>
+      <c r="I61" s="220"/>
+      <c r="J61" s="220"/>
+    </row>
+    <row r="62" spans="1:10" s="239" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="215"/>
+      <c r="B62" s="79"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="227"/>
+      <c r="E62" s="226"/>
+      <c r="F62" s="220"/>
+      <c r="G62" s="220"/>
+      <c r="H62" s="220"/>
+      <c r="I62" s="220"/>
+      <c r="J62" s="220"/>
+    </row>
+    <row r="63" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="215"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="233" t="s">
+        <v>524</v>
+      </c>
+      <c r="E63" s="226"/>
+      <c r="F63" s="220"/>
+      <c r="G63" s="220"/>
+      <c r="H63" s="220"/>
+      <c r="I63" s="220"/>
+      <c r="J63" s="220"/>
+    </row>
+    <row r="64" spans="1:10" s="235" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="215"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="226"/>
+      <c r="F64" s="220"/>
+      <c r="G64" s="220"/>
+      <c r="H64" s="220"/>
+      <c r="I64" s="220"/>
+      <c r="J64" s="220"/>
+    </row>
+    <row r="65" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="215"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="73"/>
+      <c r="E66" s="226"/>
+      <c r="F66" s="220"/>
+      <c r="G66" s="220"/>
+      <c r="H66" s="220"/>
+      <c r="I66" s="220"/>
+      <c r="J66" s="220"/>
+    </row>
+    <row r="67" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="215"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="45" t="s">
         <v>488</v>
       </c>
-      <c r="D61" s="46" t="s">
+      <c r="D67" s="46" t="s">
         <v>489</v>
       </c>
-      <c r="E61" s="229"/>
-      <c r="F61" s="223"/>
-      <c r="G61" s="223"/>
-      <c r="H61" s="223"/>
-      <c r="I61" s="223"/>
-      <c r="J61" s="223"/>
-    </row>
-    <row r="62" spans="1:10" s="238" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="218"/>
-      <c r="B62" s="66"/>
-      <c r="C62" s="47" t="s">
+      <c r="E67" s="226"/>
+      <c r="F67" s="220"/>
+      <c r="G67" s="220"/>
+      <c r="H67" s="220"/>
+      <c r="I67" s="220"/>
+      <c r="J67" s="220"/>
+    </row>
+    <row r="68" spans="1:10" s="235" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="215"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="47" t="s">
         <v>490</v>
       </c>
-      <c r="D62" s="67" t="s">
+      <c r="D68" s="67" t="s">
         <v>491</v>
       </c>
-      <c r="E62" s="229"/>
-      <c r="F62" s="223"/>
-      <c r="G62" s="223"/>
-      <c r="H62" s="223"/>
-      <c r="I62" s="223"/>
-      <c r="J62" s="223"/>
-    </row>
-    <row r="63" spans="1:10" s="238" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="218"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="47" t="s">
+      <c r="E68" s="226"/>
+      <c r="F68" s="220"/>
+      <c r="G68" s="220"/>
+      <c r="H68" s="220"/>
+      <c r="I68" s="220"/>
+      <c r="J68" s="220"/>
+    </row>
+    <row r="69" spans="1:10" s="235" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="215"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="47" t="s">
         <v>492</v>
       </c>
-      <c r="D63" s="67" t="s">
+      <c r="D69" s="67" t="s">
         <v>493</v>
       </c>
-      <c r="E63" s="229"/>
-      <c r="F63" s="223"/>
-      <c r="G63" s="223"/>
-      <c r="H63" s="223"/>
-      <c r="I63" s="223"/>
-      <c r="J63" s="223"/>
-    </row>
-    <row r="64" spans="1:10" s="238" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="218"/>
-      <c r="B64" s="79"/>
-      <c r="C64" s="48" t="s">
+      <c r="E69" s="226"/>
+      <c r="F69" s="220"/>
+      <c r="G69" s="220"/>
+      <c r="H69" s="220"/>
+      <c r="I69" s="220"/>
+      <c r="J69" s="220"/>
+    </row>
+    <row r="70" spans="1:10" s="235" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="215"/>
+      <c r="B70" s="79"/>
+      <c r="C70" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="D64" s="230" t="s">
+      <c r="D70" s="227" t="s">
         <v>495</v>
       </c>
-      <c r="E64" s="229"/>
-      <c r="F64" s="223"/>
-      <c r="G64" s="223"/>
-      <c r="H64" s="223"/>
-      <c r="I64" s="223"/>
-      <c r="J64" s="223"/>
-    </row>
-    <row r="65" spans="1:10" s="238" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="218"/>
-      <c r="B65" s="79"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="230"/>
-      <c r="E65" s="229"/>
-      <c r="F65" s="223"/>
-      <c r="G65" s="223"/>
-      <c r="H65" s="223"/>
-      <c r="I65" s="223"/>
-      <c r="J65" s="223"/>
-    </row>
-    <row r="66" spans="1:10" s="238" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="218"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="75"/>
-      <c r="D66" s="76"/>
-      <c r="E66" s="229"/>
-      <c r="F66" s="223"/>
-      <c r="G66" s="223"/>
-      <c r="H66" s="223"/>
-      <c r="I66" s="223"/>
-      <c r="J66" s="223"/>
-    </row>
-    <row r="67" spans="1:10" s="221" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="218"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="233"/>
-      <c r="F68" s="229"/>
-      <c r="G68" s="223"/>
-      <c r="H68" s="223"/>
-      <c r="I68" s="223"/>
-      <c r="J68" s="223"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="218"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="45" t="s">
+      <c r="E70" s="226"/>
+      <c r="F70" s="220"/>
+      <c r="G70" s="220"/>
+      <c r="H70" s="220"/>
+      <c r="I70" s="220"/>
+      <c r="J70" s="220"/>
+    </row>
+    <row r="71" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="215"/>
+      <c r="B71" s="79"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="227"/>
+      <c r="E71" s="226"/>
+      <c r="F71" s="220"/>
+      <c r="G71" s="220"/>
+      <c r="H71" s="220"/>
+      <c r="I71" s="220"/>
+      <c r="J71" s="220"/>
+    </row>
+    <row r="72" spans="1:10" s="235" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="215"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="76"/>
+      <c r="E72" s="226"/>
+      <c r="F72" s="220"/>
+      <c r="G72" s="220"/>
+      <c r="H72" s="220"/>
+      <c r="I72" s="220"/>
+      <c r="J72" s="220"/>
+    </row>
+    <row r="73" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="215"/>
+      <c r="B74" s="71"/>
+      <c r="C74" s="72"/>
+      <c r="D74" s="72"/>
+      <c r="E74" s="230"/>
+      <c r="F74" s="226"/>
+      <c r="G74" s="220"/>
+      <c r="H74" s="220"/>
+      <c r="I74" s="220"/>
+      <c r="J74" s="220"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="215"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="45" t="s">
         <v>175</v>
       </c>
-      <c r="D69" s="45" t="s">
+      <c r="D75" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="E69" s="234" t="s">
+      <c r="E75" s="231" t="s">
         <v>278</v>
       </c>
-      <c r="F69" s="229"/>
-      <c r="G69" s="223"/>
-      <c r="H69" s="223"/>
-      <c r="I69" s="223"/>
-      <c r="J69" s="223"/>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="218"/>
-      <c r="B70" s="66" t="s">
+      <c r="F75" s="226"/>
+      <c r="G75" s="220"/>
+      <c r="H75" s="220"/>
+      <c r="I75" s="220"/>
+      <c r="J75" s="220"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="215"/>
+      <c r="B76" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C70" s="47" t="s">
+      <c r="C76" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="234"/>
-      <c r="F70" s="229"/>
-      <c r="G70" s="223"/>
-      <c r="H70" s="223"/>
-      <c r="I70" s="223"/>
-      <c r="J70" s="223"/>
-    </row>
-    <row r="71" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A71" s="218"/>
-      <c r="B71" s="66" t="s">
+      <c r="D76" s="47"/>
+      <c r="E76" s="231"/>
+      <c r="F76" s="226"/>
+      <c r="G76" s="220"/>
+      <c r="H76" s="220"/>
+      <c r="I76" s="220"/>
+      <c r="J76" s="220"/>
+    </row>
+    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="215"/>
+      <c r="B77" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C77" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="234"/>
-      <c r="F71" s="229"/>
-      <c r="G71" s="223"/>
-      <c r="H71" s="223"/>
-      <c r="I71" s="223"/>
-      <c r="J71" s="223"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="218"/>
-      <c r="B72" s="66" t="s">
+      <c r="D77" s="47"/>
+      <c r="E77" s="231"/>
+      <c r="F77" s="226"/>
+      <c r="G77" s="220"/>
+      <c r="H77" s="220"/>
+      <c r="I77" s="220"/>
+      <c r="J77" s="220"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="215"/>
+      <c r="B78" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="47" t="s">
+      <c r="C78" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="D72" s="47"/>
-      <c r="E72" s="234"/>
-      <c r="F72" s="229"/>
-      <c r="G72" s="223"/>
-      <c r="H72" s="223"/>
-      <c r="I72" s="223"/>
-      <c r="J72" s="223"/>
-    </row>
-    <row r="73" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="218"/>
-      <c r="B73" s="66" t="s">
+      <c r="D78" s="47"/>
+      <c r="E78" s="231"/>
+      <c r="F78" s="226"/>
+      <c r="G78" s="220"/>
+      <c r="H78" s="220"/>
+      <c r="I78" s="220"/>
+      <c r="J78" s="220"/>
+    </row>
+    <row r="79" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="215"/>
+      <c r="B79" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C79" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="234"/>
-      <c r="F73" s="229"/>
-      <c r="G73" s="223"/>
-      <c r="H73" s="223"/>
-      <c r="I73" s="223"/>
-      <c r="J73" s="223"/>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="218"/>
-      <c r="B74" s="66" t="s">
+      <c r="D79" s="47"/>
+      <c r="E79" s="231"/>
+      <c r="F79" s="226"/>
+      <c r="G79" s="220"/>
+      <c r="H79" s="220"/>
+      <c r="I79" s="220"/>
+      <c r="J79" s="220"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="215"/>
+      <c r="B80" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C80" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="D74" s="47"/>
-      <c r="E74" s="234"/>
-      <c r="F74" s="229"/>
-      <c r="G74" s="223"/>
-      <c r="H74" s="223"/>
-      <c r="I74" s="223"/>
-      <c r="J74" s="223"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="218"/>
-      <c r="B75" s="66" t="s">
+      <c r="D80" s="47"/>
+      <c r="E80" s="231"/>
+      <c r="F80" s="226"/>
+      <c r="G80" s="220"/>
+      <c r="H80" s="220"/>
+      <c r="I80" s="220"/>
+      <c r="J80" s="220"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="215"/>
+      <c r="B81" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C81" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="D75" s="47" t="s">
+      <c r="D81" s="47" t="s">
         <v>166</v>
       </c>
-      <c r="E75" s="234"/>
-      <c r="F75" s="229"/>
-      <c r="G75" s="223"/>
-      <c r="H75" s="223"/>
-      <c r="I75" s="223"/>
-      <c r="J75" s="223"/>
-    </row>
-    <row r="76" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="218"/>
-      <c r="B76" s="66" t="s">
+      <c r="E81" s="231"/>
+      <c r="F81" s="226"/>
+      <c r="G81" s="220"/>
+      <c r="H81" s="220"/>
+      <c r="I81" s="220"/>
+      <c r="J81" s="220"/>
+    </row>
+    <row r="82" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="215"/>
+      <c r="B82" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C82" s="47" t="s">
         <v>165</v>
       </c>
-      <c r="D76" s="47"/>
-      <c r="E76" s="234"/>
-      <c r="F76" s="229"/>
-      <c r="G76" s="223"/>
-      <c r="H76" s="223"/>
-      <c r="I76" s="223"/>
-      <c r="J76" s="223"/>
-    </row>
-    <row r="77" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A77" s="218"/>
-      <c r="B77" s="79" t="s">
+      <c r="D82" s="47"/>
+      <c r="E82" s="231"/>
+      <c r="F82" s="226"/>
+      <c r="G82" s="220"/>
+      <c r="H82" s="220"/>
+      <c r="I82" s="220"/>
+      <c r="J82" s="220"/>
+    </row>
+    <row r="83" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="215"/>
+      <c r="B83" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="C77" s="48" t="s">
+      <c r="C83" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="D77" s="48"/>
-      <c r="E77" s="234"/>
-      <c r="F77" s="229"/>
-      <c r="G77" s="223"/>
-      <c r="H77" s="223"/>
-      <c r="I77" s="223"/>
-      <c r="J77" s="223"/>
-    </row>
-    <row r="78" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="218"/>
-      <c r="B78" s="79" t="s">
+      <c r="D83" s="48"/>
+      <c r="E83" s="231"/>
+      <c r="F83" s="226"/>
+      <c r="G83" s="220"/>
+      <c r="H83" s="220"/>
+      <c r="I83" s="220"/>
+      <c r="J83" s="220"/>
+    </row>
+    <row r="84" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="215"/>
+      <c r="B84" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="C78" s="48" t="s">
+      <c r="C84" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="D78" s="48"/>
-      <c r="E78" s="234"/>
-      <c r="F78" s="229"/>
-      <c r="G78" s="223"/>
-      <c r="H78" s="223"/>
-      <c r="I78" s="223"/>
-      <c r="J78" s="223"/>
-    </row>
-    <row r="79" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="218"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="75"/>
-      <c r="D79" s="75"/>
-      <c r="E79" s="235"/>
-      <c r="F79" s="229"/>
-      <c r="G79" s="223"/>
-      <c r="H79" s="223"/>
-      <c r="I79" s="223"/>
-      <c r="J79" s="223"/>
-    </row>
-    <row r="80" spans="1:10" s="221" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="219"/>
-      <c r="B81" s="51"/>
-      <c r="F81" s="223"/>
-      <c r="G81" s="223"/>
-      <c r="H81" s="223"/>
-      <c r="I81" s="223"/>
-      <c r="J81" s="223"/>
-    </row>
-    <row r="82" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="219" t="s">
+      <c r="D84" s="48"/>
+      <c r="E84" s="231"/>
+      <c r="F84" s="226"/>
+      <c r="G84" s="220"/>
+      <c r="H84" s="220"/>
+      <c r="I84" s="220"/>
+      <c r="J84" s="220"/>
+    </row>
+    <row r="85" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="215"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="75"/>
+      <c r="D85" s="75"/>
+      <c r="E85" s="232"/>
+      <c r="F85" s="226"/>
+      <c r="G85" s="220"/>
+      <c r="H85" s="220"/>
+      <c r="I85" s="220"/>
+      <c r="J85" s="220"/>
+    </row>
+    <row r="86" spans="1:10" s="218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="216"/>
+      <c r="B87" s="51"/>
+      <c r="F87" s="220"/>
+      <c r="G87" s="220"/>
+      <c r="H87" s="220"/>
+      <c r="I87" s="220"/>
+      <c r="J87" s="220"/>
+    </row>
+    <row r="88" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="216" t="s">
         <v>318</v>
       </c>
-      <c r="B82" s="52" t="s">
+      <c r="B88" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="C82" s="52" t="s">
+      <c r="C88" s="52" t="s">
         <v>243</v>
       </c>
-      <c r="D82" s="52" t="s">
+      <c r="D88" s="52" t="s">
         <v>242</v>
       </c>
-      <c r="E82" s="223" t="s">
+      <c r="E88" s="220" t="s">
         <v>241</v>
       </c>
-      <c r="F82" s="223"/>
-      <c r="G82" s="223"/>
-      <c r="H82" s="223"/>
-      <c r="I82" s="223"/>
-      <c r="J82" s="223"/>
-    </row>
-    <row r="83" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="219" t="s">
+      <c r="F88" s="220"/>
+      <c r="G88" s="220"/>
+      <c r="H88" s="220"/>
+      <c r="I88" s="220"/>
+      <c r="J88" s="220"/>
+    </row>
+    <row r="89" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A89" s="216" t="s">
         <v>318</v>
       </c>
-      <c r="B83" s="53"/>
-      <c r="C83" s="53" t="s">
+      <c r="B89" s="53"/>
+      <c r="C89" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="D83" s="53" t="s">
+      <c r="D89" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="F83" s="223"/>
-      <c r="G83" s="223"/>
-      <c r="H83" s="223"/>
-      <c r="I83" s="223"/>
-      <c r="J83" s="223"/>
-    </row>
-    <row r="84" spans="1:10" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="219" t="s">
+      <c r="F89" s="220"/>
+      <c r="G89" s="220"/>
+      <c r="H89" s="220"/>
+      <c r="I89" s="220"/>
+      <c r="J89" s="220"/>
+    </row>
+    <row r="90" spans="1:10" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="216" t="s">
         <v>318</v>
       </c>
-      <c r="B84" s="53"/>
-      <c r="C84" s="53" t="s">
+      <c r="B90" s="53"/>
+      <c r="C90" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="D84" s="53" t="s">
+      <c r="D90" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="F84" s="223"/>
-      <c r="G84" s="223"/>
-      <c r="H84" s="223"/>
-      <c r="I84" s="223"/>
-      <c r="J84" s="223"/>
-    </row>
-    <row r="85" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="219" t="s">
+      <c r="F90" s="220"/>
+      <c r="G90" s="220"/>
+      <c r="H90" s="220"/>
+      <c r="I90" s="220"/>
+      <c r="J90" s="220"/>
+    </row>
+    <row r="91" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A91" s="216" t="s">
         <v>318</v>
       </c>
-      <c r="B85" s="53"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="53" t="s">
+      <c r="B91" s="53"/>
+      <c r="C91" s="53"/>
+      <c r="D91" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="F85" s="223"/>
-      <c r="G85" s="223"/>
-      <c r="H85" s="223"/>
-      <c r="I85" s="223"/>
-      <c r="J85" s="223"/>
-    </row>
-    <row r="86" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="219" t="s">
+      <c r="F91" s="220"/>
+      <c r="G91" s="220"/>
+      <c r="H91" s="220"/>
+      <c r="I91" s="220"/>
+      <c r="J91" s="220"/>
+    </row>
+    <row r="92" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="216" t="s">
         <v>318</v>
       </c>
-      <c r="B86" s="53"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="53"/>
-      <c r="F86" s="223"/>
-      <c r="G86" s="223"/>
-      <c r="H86" s="223"/>
-      <c r="I86" s="223"/>
-      <c r="J86" s="223"/>
-    </row>
-    <row r="87" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B87" s="53"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="F87" s="223"/>
-      <c r="G87" s="223"/>
-      <c r="H87" s="223"/>
-      <c r="I87" s="223"/>
-      <c r="J87" s="223"/>
-    </row>
-    <row r="88" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B88" s="53"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="53"/>
-      <c r="F88" s="223"/>
-      <c r="G88" s="223"/>
-      <c r="H88" s="223"/>
-      <c r="I88" s="223"/>
-      <c r="J88" s="223"/>
-    </row>
-    <row r="89" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="219"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="223"/>
-      <c r="F89" s="223"/>
-      <c r="G89" s="223"/>
-      <c r="H89" s="223"/>
-      <c r="I89" s="223"/>
-      <c r="J89" s="223"/>
-    </row>
-    <row r="90" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B90" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="C90" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="D90" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="F90" s="223"/>
-      <c r="G90" s="223"/>
-      <c r="H90" s="223"/>
-      <c r="I90" s="223"/>
-      <c r="J90" s="223"/>
-    </row>
-    <row r="91" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="219" t="s">
-        <v>318</v>
-      </c>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="D91" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="F91" s="223"/>
-      <c r="G91" s="223"/>
-      <c r="H91" s="223"/>
-      <c r="I91" s="223"/>
-      <c r="J91" s="223"/>
-    </row>
-    <row r="92" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A92" s="219" t="s">
-        <v>318</v>
-      </c>
       <c r="B92" s="53"/>
-      <c r="C92" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="D92" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="F92" s="223"/>
-      <c r="G92" s="223"/>
-      <c r="H92" s="223"/>
-      <c r="I92" s="223"/>
-      <c r="J92" s="223"/>
-    </row>
-    <row r="93" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="219" t="s">
+      <c r="C92" s="53"/>
+      <c r="D92" s="53"/>
+      <c r="F92" s="220"/>
+      <c r="G92" s="220"/>
+      <c r="H92" s="220"/>
+      <c r="I92" s="220"/>
+      <c r="J92" s="220"/>
+    </row>
+    <row r="93" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="216" t="s">
         <v>318</v>
       </c>
       <c r="B93" s="53"/>
       <c r="C93" s="53"/>
       <c r="D93" s="53" t="s">
-        <v>292</v>
-      </c>
-      <c r="F93" s="223"/>
-      <c r="G93" s="223"/>
-      <c r="H93" s="223"/>
-      <c r="I93" s="223"/>
-      <c r="J93" s="223"/>
-    </row>
-    <row r="94" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="219" t="s">
+        <v>237</v>
+      </c>
+      <c r="F93" s="220"/>
+      <c r="G93" s="220"/>
+      <c r="H93" s="220"/>
+      <c r="I93" s="220"/>
+      <c r="J93" s="220"/>
+    </row>
+    <row r="94" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="216" t="s">
         <v>318</v>
       </c>
       <c r="B94" s="53"/>
       <c r="C94" s="53"/>
       <c r="D94" s="53"/>
-      <c r="F94" s="223"/>
-      <c r="G94" s="223"/>
-      <c r="H94" s="223"/>
-      <c r="I94" s="223"/>
-      <c r="J94" s="223"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="218"/>
-      <c r="F95" s="223"/>
-      <c r="G95" s="223"/>
-      <c r="H95" s="223"/>
-      <c r="I95" s="223"/>
-      <c r="J95" s="223"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="219" t="s">
+      <c r="F94" s="220"/>
+      <c r="G94" s="220"/>
+      <c r="H94" s="220"/>
+      <c r="I94" s="220"/>
+      <c r="J94" s="220"/>
+    </row>
+    <row r="95" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="216"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="220"/>
+      <c r="F95" s="220"/>
+      <c r="G95" s="220"/>
+      <c r="H95" s="220"/>
+      <c r="I95" s="220"/>
+      <c r="J95" s="220"/>
+    </row>
+    <row r="96" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="216" t="s">
+        <v>318</v>
+      </c>
+      <c r="B96" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C96" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="D96" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="F96" s="220"/>
+      <c r="G96" s="220"/>
+      <c r="H96" s="220"/>
+      <c r="I96" s="220"/>
+      <c r="J96" s="220"/>
+    </row>
+    <row r="97" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="216" t="s">
+        <v>318</v>
+      </c>
+      <c r="B97" s="53"/>
+      <c r="C97" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="D97" s="64" t="s">
+        <v>289</v>
+      </c>
+      <c r="F97" s="220"/>
+      <c r="G97" s="220"/>
+      <c r="H97" s="220"/>
+      <c r="I97" s="220"/>
+      <c r="J97" s="220"/>
+    </row>
+    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="216" t="s">
+        <v>318</v>
+      </c>
+      <c r="B98" s="53"/>
+      <c r="C98" s="53" t="s">
+        <v>233</v>
+      </c>
+      <c r="D98" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="F98" s="220"/>
+      <c r="G98" s="220"/>
+      <c r="H98" s="220"/>
+      <c r="I98" s="220"/>
+      <c r="J98" s="220"/>
+    </row>
+    <row r="99" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A99" s="216" t="s">
+        <v>318</v>
+      </c>
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="F99" s="220"/>
+      <c r="G99" s="220"/>
+      <c r="H99" s="220"/>
+      <c r="I99" s="220"/>
+      <c r="J99" s="220"/>
+    </row>
+    <row r="100" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A100" s="216" t="s">
+        <v>318</v>
+      </c>
+      <c r="B100" s="53"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="F100" s="220"/>
+      <c r="G100" s="220"/>
+      <c r="H100" s="220"/>
+      <c r="I100" s="220"/>
+      <c r="J100" s="220"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="215"/>
+      <c r="F101" s="220"/>
+      <c r="G101" s="220"/>
+      <c r="H101" s="220"/>
+      <c r="I101" s="220"/>
+      <c r="J101" s="220"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="216" t="s">
         <v>248</v>
       </c>
-      <c r="B96" s="54" t="s">
+      <c r="B102" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="C96" s="54" t="s">
+      <c r="C102" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="D96" s="54" t="s">
+      <c r="D102" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="F96" s="223"/>
-      <c r="G96" s="223"/>
-      <c r="H96" s="223"/>
-      <c r="I96" s="223"/>
-      <c r="J96" s="223"/>
-    </row>
-    <row r="97" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="219" t="s">
+      <c r="F102" s="220"/>
+      <c r="G102" s="220"/>
+      <c r="H102" s="220"/>
+      <c r="I102" s="220"/>
+      <c r="J102" s="220"/>
+    </row>
+    <row r="103" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A103" s="216" t="s">
         <v>248</v>
       </c>
-      <c r="B97" s="53" t="s">
+      <c r="B103" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C103" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="D97" s="53" t="s">
+      <c r="D103" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="F97" s="223"/>
-      <c r="G97" s="223"/>
-      <c r="H97" s="223"/>
-      <c r="I97" s="223"/>
-      <c r="J97" s="223"/>
-    </row>
-    <row r="98" spans="1:10" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="219" t="s">
+      <c r="F103" s="220"/>
+      <c r="G103" s="220"/>
+      <c r="H103" s="220"/>
+      <c r="I103" s="220"/>
+      <c r="J103" s="220"/>
+    </row>
+    <row r="104" spans="1:10" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="216" t="s">
         <v>248</v>
       </c>
-      <c r="B98" s="53" t="s">
+      <c r="B104" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="C98" s="53"/>
-      <c r="D98" s="53"/>
-      <c r="F98" s="223"/>
-      <c r="G98" s="223"/>
-      <c r="H98" s="223"/>
-      <c r="I98" s="223"/>
-      <c r="J98" s="223"/>
-    </row>
-    <row r="99" spans="1:10" ht="236.25" x14ac:dyDescent="0.25">
-      <c r="A99" s="219" t="s">
+      <c r="C104" s="53"/>
+      <c r="D104" s="53"/>
+      <c r="F104" s="220"/>
+      <c r="G104" s="220"/>
+      <c r="H104" s="220"/>
+      <c r="I104" s="220"/>
+      <c r="J104" s="220"/>
+    </row>
+    <row r="105" spans="1:10" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A105" s="216" t="s">
         <v>248</v>
       </c>
-      <c r="B99" s="53" t="s">
+      <c r="B105" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="C99" s="53" t="s">
+      <c r="C105" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="D99" s="55" t="s">
+      <c r="D105" s="55" t="s">
         <v>291</v>
       </c>
-      <c r="F99" s="223"/>
-      <c r="G99" s="223"/>
-      <c r="H99" s="223"/>
-      <c r="I99" s="223"/>
-      <c r="J99" s="223"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="218"/>
-      <c r="F100" s="223"/>
-      <c r="G100" s="223"/>
-      <c r="H100" s="223"/>
-      <c r="I100" s="223"/>
-      <c r="J100" s="223"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="218"/>
-      <c r="F101" s="223"/>
-      <c r="G101" s="223"/>
-      <c r="H101" s="223"/>
-      <c r="I101" s="223"/>
-      <c r="J101" s="223"/>
-    </row>
-    <row r="102" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="219" t="s">
+      <c r="F105" s="220"/>
+      <c r="G105" s="220"/>
+      <c r="H105" s="220"/>
+      <c r="I105" s="220"/>
+      <c r="J105" s="220"/>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="215"/>
+      <c r="F106" s="220"/>
+      <c r="G106" s="220"/>
+      <c r="H106" s="220"/>
+      <c r="I106" s="220"/>
+      <c r="J106" s="220"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="215"/>
+      <c r="F107" s="220"/>
+      <c r="G107" s="220"/>
+      <c r="H107" s="220"/>
+      <c r="I107" s="220"/>
+      <c r="J107" s="220"/>
+    </row>
+    <row r="108" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A108" s="216" t="s">
         <v>254</v>
       </c>
-      <c r="B102" s="56" t="s">
+      <c r="B108" s="56" t="s">
         <v>255</v>
       </c>
-      <c r="C102" s="56" t="s">
+      <c r="C108" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="D102" s="56" t="s">
+      <c r="D108" s="56" t="s">
         <v>257</v>
       </c>
-      <c r="F102" s="223"/>
-      <c r="G102" s="223"/>
-      <c r="H102" s="223"/>
-      <c r="I102" s="223"/>
-      <c r="J102" s="223"/>
-    </row>
-    <row r="103" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="219" t="s">
+      <c r="F108" s="220"/>
+      <c r="G108" s="220"/>
+      <c r="H108" s="220"/>
+      <c r="I108" s="220"/>
+      <c r="J108" s="220"/>
+    </row>
+    <row r="109" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="216" t="s">
         <v>254</v>
       </c>
-      <c r="B103" s="53"/>
-      <c r="C103" s="55" t="s">
+      <c r="B109" s="53"/>
+      <c r="C109" s="55" t="s">
         <v>258</v>
       </c>
-      <c r="D103" s="55" t="s">
+      <c r="D109" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="F103" s="223"/>
-      <c r="G103" s="223"/>
-      <c r="H103" s="223"/>
-      <c r="I103" s="223"/>
-      <c r="J103" s="223"/>
-    </row>
-    <row r="104" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="219" t="s">
+      <c r="F109" s="220"/>
+      <c r="G109" s="220"/>
+      <c r="H109" s="220"/>
+      <c r="I109" s="220"/>
+      <c r="J109" s="220"/>
+    </row>
+    <row r="110" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A110" s="216" t="s">
         <v>254</v>
       </c>
-      <c r="B104" s="53"/>
-      <c r="C104" s="53" t="s">
+      <c r="B110" s="53"/>
+      <c r="C110" s="53" t="s">
         <v>260</v>
       </c>
-      <c r="D104" s="53" t="s">
+      <c r="D110" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="F104" s="223"/>
-      <c r="G104" s="223"/>
-      <c r="H104" s="223"/>
-      <c r="I104" s="223"/>
-      <c r="J104" s="223"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="219"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="53" t="s">
+      <c r="F110" s="220"/>
+      <c r="G110" s="220"/>
+      <c r="H110" s="220"/>
+      <c r="I110" s="220"/>
+      <c r="J110" s="220"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="216"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53" t="s">
         <v>262</v>
       </c>
-      <c r="D105" s="53" t="s">
+      <c r="D111" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="F105" s="223"/>
-      <c r="G105" s="223"/>
-      <c r="H105" s="223"/>
-      <c r="I105" s="223"/>
-      <c r="J105" s="223"/>
-    </row>
-    <row r="106" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="219" t="s">
+      <c r="F111" s="220"/>
+      <c r="G111" s="220"/>
+      <c r="H111" s="220"/>
+      <c r="I111" s="220"/>
+      <c r="J111" s="220"/>
+    </row>
+    <row r="112" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="216" t="s">
         <v>254</v>
       </c>
-      <c r="B106" s="53"/>
-      <c r="C106" s="53" t="s">
+      <c r="B112" s="53"/>
+      <c r="C112" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="D106" s="53" t="s">
+      <c r="D112" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="F106" s="223"/>
-      <c r="G106" s="223"/>
-      <c r="H106" s="223"/>
-      <c r="I106" s="223"/>
-      <c r="J106" s="223"/>
-    </row>
-    <row r="107" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A107" s="219" t="s">
+      <c r="F112" s="220"/>
+      <c r="G112" s="220"/>
+      <c r="H112" s="220"/>
+      <c r="I112" s="220"/>
+      <c r="J112" s="220"/>
+    </row>
+    <row r="113" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A113" s="216" t="s">
         <v>254</v>
       </c>
-      <c r="B107" s="53"/>
-      <c r="C107" s="53" t="s">
+      <c r="B113" s="53"/>
+      <c r="C113" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="D107" s="53" t="s">
+      <c r="D113" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="F107" s="223"/>
-      <c r="G107" s="223"/>
-      <c r="H107" s="223"/>
-      <c r="I107" s="223"/>
-      <c r="J107" s="223"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="218"/>
-      <c r="F108" s="223"/>
-      <c r="G108" s="223"/>
-      <c r="H108" s="223"/>
-      <c r="I108" s="223"/>
-      <c r="J108" s="223"/>
-    </row>
-    <row r="109" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="218"/>
-      <c r="F109" s="223"/>
-      <c r="G109" s="223"/>
-      <c r="H109" s="223"/>
-      <c r="I109" s="223"/>
-      <c r="J109" s="223"/>
-    </row>
-    <row r="110" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="219" t="s">
+      <c r="F113" s="220"/>
+      <c r="G113" s="220"/>
+      <c r="H113" s="220"/>
+      <c r="I113" s="220"/>
+      <c r="J113" s="220"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="215"/>
+      <c r="F114" s="220"/>
+      <c r="G114" s="220"/>
+      <c r="H114" s="220"/>
+      <c r="I114" s="220"/>
+      <c r="J114" s="220"/>
+    </row>
+    <row r="115" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="215"/>
+      <c r="F115" s="220"/>
+      <c r="G115" s="220"/>
+      <c r="H115" s="220"/>
+      <c r="I115" s="220"/>
+      <c r="J115" s="220"/>
+    </row>
+    <row r="116" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A116" s="216" t="s">
         <v>268</v>
       </c>
-      <c r="B110" s="57"/>
-      <c r="C110" s="58" t="s">
+      <c r="B116" s="57"/>
+      <c r="C116" s="58" t="s">
         <v>269</v>
       </c>
-      <c r="D110" s="59" t="s">
+      <c r="D116" s="59" t="s">
         <v>270</v>
       </c>
-      <c r="F110" s="223"/>
-      <c r="G110" s="223"/>
-      <c r="H110" s="223"/>
-      <c r="I110" s="223"/>
-      <c r="J110" s="223"/>
-    </row>
-    <row r="111" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="219"/>
-      <c r="B111" s="60"/>
-      <c r="C111" s="60" t="s">
+      <c r="F116" s="220"/>
+      <c r="G116" s="220"/>
+      <c r="H116" s="220"/>
+      <c r="I116" s="220"/>
+      <c r="J116" s="220"/>
+    </row>
+    <row r="117" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="216"/>
+      <c r="B117" s="60"/>
+      <c r="C117" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="D111" s="61" t="s">
+      <c r="D117" s="61" t="s">
         <v>272</v>
       </c>
-      <c r="F111" s="223"/>
-      <c r="G111" s="223"/>
-      <c r="H111" s="223"/>
-      <c r="I111" s="223"/>
-      <c r="J111" s="223"/>
-    </row>
-    <row r="112" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="219"/>
-      <c r="B112" s="60"/>
-      <c r="C112" s="60"/>
-      <c r="D112" s="61" t="s">
+      <c r="F117" s="220"/>
+      <c r="G117" s="220"/>
+      <c r="H117" s="220"/>
+      <c r="I117" s="220"/>
+      <c r="J117" s="220"/>
+    </row>
+    <row r="118" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A118" s="216"/>
+      <c r="B118" s="60"/>
+      <c r="C118" s="60"/>
+      <c r="D118" s="61" t="s">
         <v>273</v>
       </c>
-      <c r="F112" s="223"/>
-      <c r="G112" s="223"/>
-      <c r="H112" s="223"/>
-      <c r="I112" s="223"/>
-      <c r="J112" s="223"/>
-    </row>
-    <row r="113" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="219"/>
-      <c r="B113" s="60"/>
-      <c r="C113" s="60" t="s">
+      <c r="F118" s="220"/>
+      <c r="G118" s="220"/>
+      <c r="H118" s="220"/>
+      <c r="I118" s="220"/>
+      <c r="J118" s="220"/>
+    </row>
+    <row r="119" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A119" s="216"/>
+      <c r="B119" s="60"/>
+      <c r="C119" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="D113" s="61" t="s">
+      <c r="D119" s="61" t="s">
         <v>275</v>
       </c>
-      <c r="F113" s="223"/>
-      <c r="G113" s="223"/>
-      <c r="H113" s="223"/>
-      <c r="I113" s="223"/>
-      <c r="J113" s="223"/>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="219"/>
-      <c r="B114" s="60"/>
-      <c r="C114" s="60"/>
-      <c r="D114" s="61"/>
-      <c r="F114" s="223"/>
-      <c r="G114" s="223"/>
-      <c r="H114" s="223"/>
-      <c r="I114" s="223"/>
-      <c r="J114" s="223"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="219"/>
-      <c r="B115" s="60"/>
-      <c r="C115" s="60"/>
-      <c r="D115" s="61"/>
-      <c r="F115" s="223"/>
-      <c r="G115" s="223"/>
-      <c r="H115" s="223"/>
-      <c r="I115" s="223"/>
-      <c r="J115" s="223"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="219"/>
-      <c r="B116" s="60"/>
-      <c r="C116" s="60"/>
-      <c r="D116" s="61"/>
-      <c r="F116" s="223"/>
-      <c r="G116" s="223"/>
-      <c r="H116" s="223"/>
-      <c r="I116" s="223"/>
-      <c r="J116" s="223"/>
-    </row>
-    <row r="117" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="219"/>
-      <c r="B117" s="62"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="63"/>
-      <c r="F117" s="223"/>
-      <c r="G117" s="223"/>
-      <c r="H117" s="223"/>
-      <c r="I117" s="223"/>
-      <c r="J117" s="223"/>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="219"/>
-      <c r="F118" s="223"/>
-      <c r="G118" s="223"/>
-      <c r="H118" s="223"/>
-      <c r="I118" s="223"/>
-      <c r="J118" s="223"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="218"/>
-      <c r="F119" s="223"/>
-      <c r="G119" s="223"/>
-      <c r="H119" s="223"/>
-      <c r="I119" s="223"/>
-      <c r="J119" s="223"/>
+      <c r="F119" s="220"/>
+      <c r="G119" s="220"/>
+      <c r="H119" s="220"/>
+      <c r="I119" s="220"/>
+      <c r="J119" s="220"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="218"/>
-      <c r="F120" s="223"/>
-      <c r="G120" s="223"/>
-      <c r="H120" s="223"/>
-      <c r="I120" s="223"/>
-      <c r="J120" s="223"/>
+      <c r="A120" s="216"/>
+      <c r="B120" s="60"/>
+      <c r="C120" s="60"/>
+      <c r="D120" s="61"/>
+      <c r="F120" s="220"/>
+      <c r="G120" s="220"/>
+      <c r="H120" s="220"/>
+      <c r="I120" s="220"/>
+      <c r="J120" s="220"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="218"/>
-      <c r="F121" s="223"/>
-      <c r="G121" s="223"/>
-      <c r="H121" s="223"/>
-      <c r="I121" s="223"/>
-      <c r="J121" s="223"/>
+      <c r="A121" s="216"/>
+      <c r="B121" s="60"/>
+      <c r="C121" s="60"/>
+      <c r="D121" s="61"/>
+      <c r="F121" s="220"/>
+      <c r="G121" s="220"/>
+      <c r="H121" s="220"/>
+      <c r="I121" s="220"/>
+      <c r="J121" s="220"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="218"/>
-      <c r="F122" s="223"/>
-      <c r="G122" s="223"/>
-      <c r="H122" s="223"/>
-      <c r="I122" s="223"/>
-      <c r="J122" s="223"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="218"/>
-      <c r="F123" s="223"/>
-      <c r="G123" s="223"/>
-      <c r="H123" s="223"/>
-      <c r="I123" s="223"/>
-      <c r="J123" s="223"/>
+      <c r="A122" s="216"/>
+      <c r="B122" s="60"/>
+      <c r="C122" s="60"/>
+      <c r="D122" s="61"/>
+      <c r="F122" s="220"/>
+      <c r="G122" s="220"/>
+      <c r="H122" s="220"/>
+      <c r="I122" s="220"/>
+      <c r="J122" s="220"/>
+    </row>
+    <row r="123" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="216"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="62"/>
+      <c r="D123" s="63"/>
+      <c r="F123" s="220"/>
+      <c r="G123" s="220"/>
+      <c r="H123" s="220"/>
+      <c r="I123" s="220"/>
+      <c r="J123" s="220"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="218"/>
-      <c r="F124" s="223"/>
-      <c r="G124" s="223"/>
-      <c r="H124" s="223"/>
-      <c r="I124" s="223"/>
-      <c r="J124" s="223"/>
+      <c r="A124" s="216"/>
+      <c r="F124" s="220"/>
+      <c r="G124" s="220"/>
+      <c r="H124" s="220"/>
+      <c r="I124" s="220"/>
+      <c r="J124" s="220"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="218"/>
-      <c r="F125" s="223"/>
-      <c r="G125" s="223"/>
-      <c r="H125" s="223"/>
-      <c r="I125" s="223"/>
-      <c r="J125" s="223"/>
+      <c r="A125" s="215"/>
+      <c r="F125" s="220"/>
+      <c r="G125" s="220"/>
+      <c r="H125" s="220"/>
+      <c r="I125" s="220"/>
+      <c r="J125" s="220"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" s="218"/>
-      <c r="F126" s="223"/>
-      <c r="G126" s="223"/>
-      <c r="H126" s="223"/>
-      <c r="I126" s="223"/>
-      <c r="J126" s="223"/>
+      <c r="A126" s="215"/>
+      <c r="F126" s="220"/>
+      <c r="G126" s="220"/>
+      <c r="H126" s="220"/>
+      <c r="I126" s="220"/>
+      <c r="J126" s="220"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="218"/>
-      <c r="F127" s="223"/>
-      <c r="G127" s="223"/>
-      <c r="H127" s="223"/>
-      <c r="I127" s="223"/>
-      <c r="J127" s="223"/>
+      <c r="A127" s="215"/>
+      <c r="F127" s="220"/>
+      <c r="G127" s="220"/>
+      <c r="H127" s="220"/>
+      <c r="I127" s="220"/>
+      <c r="J127" s="220"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="218"/>
-      <c r="F128" s="223"/>
-      <c r="G128" s="223"/>
-      <c r="H128" s="223"/>
-      <c r="I128" s="223"/>
-      <c r="J128" s="223"/>
+      <c r="A128" s="215"/>
+      <c r="F128" s="220"/>
+      <c r="G128" s="220"/>
+      <c r="H128" s="220"/>
+      <c r="I128" s="220"/>
+      <c r="J128" s="220"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="218"/>
-      <c r="F129" s="223"/>
-      <c r="G129" s="223"/>
-      <c r="H129" s="223"/>
-      <c r="I129" s="223"/>
-      <c r="J129" s="223"/>
+      <c r="A129" s="215"/>
+      <c r="F129" s="220"/>
+      <c r="G129" s="220"/>
+      <c r="H129" s="220"/>
+      <c r="I129" s="220"/>
+      <c r="J129" s="220"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="218"/>
-      <c r="F130" s="223"/>
-      <c r="G130" s="223"/>
-      <c r="H130" s="223"/>
-      <c r="I130" s="223"/>
-      <c r="J130" s="223"/>
+      <c r="A130" s="215"/>
+      <c r="F130" s="220"/>
+      <c r="G130" s="220"/>
+      <c r="H130" s="220"/>
+      <c r="I130" s="220"/>
+      <c r="J130" s="220"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="218"/>
-      <c r="F131" s="223"/>
-      <c r="G131" s="223"/>
-      <c r="H131" s="223"/>
-      <c r="I131" s="223"/>
-      <c r="J131" s="223"/>
+      <c r="A131" s="215"/>
+      <c r="F131" s="220"/>
+      <c r="G131" s="220"/>
+      <c r="H131" s="220"/>
+      <c r="I131" s="220"/>
+      <c r="J131" s="220"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="218"/>
-      <c r="F132" s="223"/>
-      <c r="G132" s="223"/>
-      <c r="H132" s="223"/>
-      <c r="I132" s="223"/>
-      <c r="J132" s="223"/>
+      <c r="A132" s="215"/>
+      <c r="F132" s="220"/>
+      <c r="G132" s="220"/>
+      <c r="H132" s="220"/>
+      <c r="I132" s="220"/>
+      <c r="J132" s="220"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="218"/>
-      <c r="F133" s="223"/>
-      <c r="G133" s="223"/>
-      <c r="H133" s="223"/>
-      <c r="I133" s="223"/>
-      <c r="J133" s="223"/>
+      <c r="A133" s="215"/>
+      <c r="F133" s="220"/>
+      <c r="G133" s="220"/>
+      <c r="H133" s="220"/>
+      <c r="I133" s="220"/>
+      <c r="J133" s="220"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="218"/>
-      <c r="F134" s="223"/>
-      <c r="G134" s="223"/>
-      <c r="H134" s="223"/>
-      <c r="I134" s="223"/>
-      <c r="J134" s="223"/>
+      <c r="A134" s="215"/>
+      <c r="F134" s="220"/>
+      <c r="G134" s="220"/>
+      <c r="H134" s="220"/>
+      <c r="I134" s="220"/>
+      <c r="J134" s="220"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="218"/>
-      <c r="F135" s="223"/>
-      <c r="G135" s="223"/>
-      <c r="H135" s="223"/>
-      <c r="I135" s="223"/>
-      <c r="J135" s="223"/>
+      <c r="A135" s="215"/>
+      <c r="F135" s="220"/>
+      <c r="G135" s="220"/>
+      <c r="H135" s="220"/>
+      <c r="I135" s="220"/>
+      <c r="J135" s="220"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="218"/>
-      <c r="F136" s="223"/>
-      <c r="G136" s="223"/>
-      <c r="H136" s="223"/>
-      <c r="I136" s="223"/>
-      <c r="J136" s="223"/>
+      <c r="A136" s="215"/>
+      <c r="F136" s="220"/>
+      <c r="G136" s="220"/>
+      <c r="H136" s="220"/>
+      <c r="I136" s="220"/>
+      <c r="J136" s="220"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="218"/>
-      <c r="F137" s="223"/>
-      <c r="G137" s="223"/>
-      <c r="H137" s="223"/>
-      <c r="I137" s="223"/>
-      <c r="J137" s="223"/>
+      <c r="A137" s="215"/>
+      <c r="F137" s="220"/>
+      <c r="G137" s="220"/>
+      <c r="H137" s="220"/>
+      <c r="I137" s="220"/>
+      <c r="J137" s="220"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="218"/>
-      <c r="F138" s="223"/>
-      <c r="G138" s="223"/>
-      <c r="H138" s="223"/>
-      <c r="I138" s="223"/>
-      <c r="J138" s="223"/>
+      <c r="A138" s="215"/>
+      <c r="F138" s="220"/>
+      <c r="G138" s="220"/>
+      <c r="H138" s="220"/>
+      <c r="I138" s="220"/>
+      <c r="J138" s="220"/>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A139" s="220"/>
-      <c r="F139" s="223"/>
-      <c r="G139" s="223"/>
-      <c r="H139" s="223"/>
-      <c r="I139" s="223"/>
-      <c r="J139" s="223"/>
+      <c r="A139" s="215"/>
+      <c r="F139" s="220"/>
+      <c r="G139" s="220"/>
+      <c r="H139" s="220"/>
+      <c r="I139" s="220"/>
+      <c r="J139" s="220"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F140" s="223"/>
-      <c r="G140" s="223"/>
-      <c r="H140" s="223"/>
-      <c r="I140" s="223"/>
-      <c r="J140" s="223"/>
+      <c r="A140" s="215"/>
+      <c r="F140" s="220"/>
+      <c r="G140" s="220"/>
+      <c r="H140" s="220"/>
+      <c r="I140" s="220"/>
+      <c r="J140" s="220"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F141" s="223"/>
-      <c r="G141" s="223"/>
-      <c r="H141" s="223"/>
-      <c r="I141" s="223"/>
-      <c r="J141" s="223"/>
+      <c r="A141" s="215"/>
+      <c r="F141" s="220"/>
+      <c r="G141" s="220"/>
+      <c r="H141" s="220"/>
+      <c r="I141" s="220"/>
+      <c r="J141" s="220"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F142" s="223"/>
-      <c r="G142" s="223"/>
-      <c r="H142" s="223"/>
-      <c r="I142" s="223"/>
-      <c r="J142" s="223"/>
+      <c r="A142" s="215"/>
+      <c r="F142" s="220"/>
+      <c r="G142" s="220"/>
+      <c r="H142" s="220"/>
+      <c r="I142" s="220"/>
+      <c r="J142" s="220"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F143" s="223"/>
-      <c r="G143" s="223"/>
-      <c r="H143" s="223"/>
-      <c r="I143" s="223"/>
-      <c r="J143" s="223"/>
+      <c r="A143" s="215"/>
+      <c r="F143" s="220"/>
+      <c r="G143" s="220"/>
+      <c r="H143" s="220"/>
+      <c r="I143" s="220"/>
+      <c r="J143" s="220"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F144" s="223"/>
-      <c r="G144" s="223"/>
-      <c r="H144" s="223"/>
-      <c r="I144" s="223"/>
-      <c r="J144" s="223"/>
-    </row>
-    <row r="145" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F145" s="223"/>
-      <c r="G145" s="223"/>
-      <c r="H145" s="223"/>
-      <c r="I145" s="223"/>
-      <c r="J145" s="223"/>
-    </row>
-    <row r="146" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F146" s="223"/>
-      <c r="G146" s="223"/>
-      <c r="H146" s="223"/>
-      <c r="I146" s="223"/>
-      <c r="J146" s="223"/>
-    </row>
-    <row r="147" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F147" s="223"/>
-      <c r="G147" s="223"/>
-      <c r="H147" s="223"/>
-      <c r="I147" s="223"/>
-      <c r="J147" s="223"/>
-    </row>
-    <row r="148" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F148" s="223"/>
-      <c r="G148" s="223"/>
-      <c r="H148" s="223"/>
-      <c r="I148" s="223"/>
-      <c r="J148" s="223"/>
-    </row>
-    <row r="149" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F149" s="223"/>
-      <c r="G149" s="223"/>
-      <c r="H149" s="223"/>
-      <c r="I149" s="223"/>
-      <c r="J149" s="223"/>
-    </row>
-    <row r="150" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F150" s="223"/>
-      <c r="G150" s="223"/>
-      <c r="H150" s="223"/>
-      <c r="I150" s="223"/>
-      <c r="J150" s="223"/>
-    </row>
-    <row r="151" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F151" s="223"/>
-      <c r="G151" s="223"/>
-      <c r="H151" s="223"/>
-      <c r="I151" s="223"/>
-      <c r="J151" s="223"/>
-    </row>
-    <row r="152" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F152" s="223"/>
-      <c r="G152" s="223"/>
-      <c r="H152" s="223"/>
-      <c r="I152" s="223"/>
-      <c r="J152" s="223"/>
-    </row>
-    <row r="153" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F153" s="223"/>
-      <c r="G153" s="223"/>
-      <c r="H153" s="223"/>
-      <c r="I153" s="223"/>
-      <c r="J153" s="223"/>
-    </row>
-    <row r="154" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F154" s="223"/>
-      <c r="G154" s="223"/>
-      <c r="H154" s="223"/>
-      <c r="I154" s="223"/>
-      <c r="J154" s="223"/>
-    </row>
-    <row r="155" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F155" s="223"/>
-      <c r="G155" s="223"/>
-      <c r="H155" s="223"/>
-      <c r="I155" s="223"/>
-      <c r="J155" s="223"/>
-    </row>
-    <row r="156" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F156" s="223"/>
-      <c r="G156" s="223"/>
-      <c r="H156" s="223"/>
-      <c r="I156" s="223"/>
-      <c r="J156" s="223"/>
-    </row>
-    <row r="157" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F157" s="223"/>
-      <c r="G157" s="223"/>
-      <c r="H157" s="223"/>
-      <c r="I157" s="223"/>
-      <c r="J157" s="223"/>
-    </row>
-    <row r="158" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F158" s="223"/>
-      <c r="G158" s="223"/>
-      <c r="H158" s="223"/>
-      <c r="I158" s="223"/>
-      <c r="J158" s="223"/>
-    </row>
-    <row r="159" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F159" s="223"/>
-      <c r="G159" s="223"/>
-      <c r="H159" s="223"/>
-      <c r="I159" s="223"/>
-      <c r="J159" s="223"/>
-    </row>
-    <row r="160" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F160" s="223"/>
-      <c r="G160" s="223"/>
-      <c r="H160" s="223"/>
-      <c r="I160" s="223"/>
-      <c r="J160" s="223"/>
+      <c r="A144" s="215"/>
+      <c r="F144" s="220"/>
+      <c r="G144" s="220"/>
+      <c r="H144" s="220"/>
+      <c r="I144" s="220"/>
+      <c r="J144" s="220"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="217"/>
+      <c r="F145" s="220"/>
+      <c r="G145" s="220"/>
+      <c r="H145" s="220"/>
+      <c r="I145" s="220"/>
+      <c r="J145" s="220"/>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F146" s="220"/>
+      <c r="G146" s="220"/>
+      <c r="H146" s="220"/>
+      <c r="I146" s="220"/>
+      <c r="J146" s="220"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F147" s="220"/>
+      <c r="G147" s="220"/>
+      <c r="H147" s="220"/>
+      <c r="I147" s="220"/>
+      <c r="J147" s="220"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F148" s="220"/>
+      <c r="G148" s="220"/>
+      <c r="H148" s="220"/>
+      <c r="I148" s="220"/>
+      <c r="J148" s="220"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F149" s="220"/>
+      <c r="G149" s="220"/>
+      <c r="H149" s="220"/>
+      <c r="I149" s="220"/>
+      <c r="J149" s="220"/>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F150" s="220"/>
+      <c r="G150" s="220"/>
+      <c r="H150" s="220"/>
+      <c r="I150" s="220"/>
+      <c r="J150" s="220"/>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F151" s="220"/>
+      <c r="G151" s="220"/>
+      <c r="H151" s="220"/>
+      <c r="I151" s="220"/>
+      <c r="J151" s="220"/>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F152" s="220"/>
+      <c r="G152" s="220"/>
+      <c r="H152" s="220"/>
+      <c r="I152" s="220"/>
+      <c r="J152" s="220"/>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F153" s="220"/>
+      <c r="G153" s="220"/>
+      <c r="H153" s="220"/>
+      <c r="I153" s="220"/>
+      <c r="J153" s="220"/>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F154" s="220"/>
+      <c r="G154" s="220"/>
+      <c r="H154" s="220"/>
+      <c r="I154" s="220"/>
+      <c r="J154" s="220"/>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F155" s="220"/>
+      <c r="G155" s="220"/>
+      <c r="H155" s="220"/>
+      <c r="I155" s="220"/>
+      <c r="J155" s="220"/>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F156" s="220"/>
+      <c r="G156" s="220"/>
+      <c r="H156" s="220"/>
+      <c r="I156" s="220"/>
+      <c r="J156" s="220"/>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F157" s="220"/>
+      <c r="G157" s="220"/>
+      <c r="H157" s="220"/>
+      <c r="I157" s="220"/>
+      <c r="J157" s="220"/>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F158" s="220"/>
+      <c r="G158" s="220"/>
+      <c r="H158" s="220"/>
+      <c r="I158" s="220"/>
+      <c r="J158" s="220"/>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F159" s="220"/>
+      <c r="G159" s="220"/>
+      <c r="H159" s="220"/>
+      <c r="I159" s="220"/>
+      <c r="J159" s="220"/>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F160" s="220"/>
+      <c r="G160" s="220"/>
+      <c r="H160" s="220"/>
+      <c r="I160" s="220"/>
+      <c r="J160" s="220"/>
     </row>
     <row r="161" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F161" s="223"/>
-      <c r="G161" s="223"/>
-      <c r="H161" s="223"/>
-      <c r="I161" s="223"/>
-      <c r="J161" s="223"/>
+      <c r="F161" s="220"/>
+      <c r="G161" s="220"/>
+      <c r="H161" s="220"/>
+      <c r="I161" s="220"/>
+      <c r="J161" s="220"/>
     </row>
     <row r="162" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F162" s="223"/>
-      <c r="G162" s="223"/>
-      <c r="H162" s="223"/>
-      <c r="I162" s="223"/>
-      <c r="J162" s="223"/>
+      <c r="F162" s="220"/>
+      <c r="G162" s="220"/>
+      <c r="H162" s="220"/>
+      <c r="I162" s="220"/>
+      <c r="J162" s="220"/>
     </row>
     <row r="163" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F163" s="223"/>
-      <c r="G163" s="223"/>
-      <c r="H163" s="223"/>
-      <c r="I163" s="223"/>
-      <c r="J163" s="223"/>
+      <c r="F163" s="220"/>
+      <c r="G163" s="220"/>
+      <c r="H163" s="220"/>
+      <c r="I163" s="220"/>
+      <c r="J163" s="220"/>
     </row>
     <row r="164" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F164" s="223"/>
-      <c r="G164" s="223"/>
-      <c r="H164" s="223"/>
-      <c r="I164" s="223"/>
-      <c r="J164" s="223"/>
+      <c r="F164" s="220"/>
+      <c r="G164" s="220"/>
+      <c r="H164" s="220"/>
+      <c r="I164" s="220"/>
+      <c r="J164" s="220"/>
     </row>
     <row r="165" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F165" s="223"/>
-      <c r="G165" s="223"/>
-      <c r="H165" s="223"/>
-      <c r="I165" s="223"/>
-      <c r="J165" s="223"/>
+      <c r="F165" s="220"/>
+      <c r="G165" s="220"/>
+      <c r="H165" s="220"/>
+      <c r="I165" s="220"/>
+      <c r="J165" s="220"/>
     </row>
     <row r="166" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F166" s="223"/>
-      <c r="G166" s="223"/>
-      <c r="H166" s="223"/>
-      <c r="I166" s="223"/>
-      <c r="J166" s="223"/>
+      <c r="F166" s="220"/>
+      <c r="G166" s="220"/>
+      <c r="H166" s="220"/>
+      <c r="I166" s="220"/>
+      <c r="J166" s="220"/>
     </row>
     <row r="167" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F167" s="223"/>
-      <c r="G167" s="223"/>
-      <c r="H167" s="223"/>
-      <c r="I167" s="223"/>
-      <c r="J167" s="223"/>
+      <c r="F167" s="220"/>
+      <c r="G167" s="220"/>
+      <c r="H167" s="220"/>
+      <c r="I167" s="220"/>
+      <c r="J167" s="220"/>
     </row>
     <row r="168" spans="6:10" x14ac:dyDescent="0.25">
-      <c r="F168" s="223"/>
-      <c r="G168" s="223"/>
-      <c r="H168" s="223"/>
-      <c r="I168" s="223"/>
-      <c r="J168" s="223"/>
+      <c r="F168" s="220"/>
+      <c r="G168" s="220"/>
+      <c r="H168" s="220"/>
+      <c r="I168" s="220"/>
+      <c r="J168" s="220"/>
+    </row>
+    <row r="169" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F169" s="220"/>
+      <c r="G169" s="220"/>
+      <c r="H169" s="220"/>
+      <c r="I169" s="220"/>
+      <c r="J169" s="220"/>
+    </row>
+    <row r="170" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F170" s="220"/>
+      <c r="G170" s="220"/>
+      <c r="H170" s="220"/>
+      <c r="I170" s="220"/>
+      <c r="J170" s="220"/>
+    </row>
+    <row r="171" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F171" s="220"/>
+      <c r="G171" s="220"/>
+      <c r="H171" s="220"/>
+      <c r="I171" s="220"/>
+      <c r="J171" s="220"/>
+    </row>
+    <row r="172" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F172" s="220"/>
+      <c r="G172" s="220"/>
+      <c r="H172" s="220"/>
+      <c r="I172" s="220"/>
+      <c r="J172" s="220"/>
+    </row>
+    <row r="173" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F173" s="220"/>
+      <c r="G173" s="220"/>
+      <c r="H173" s="220"/>
+      <c r="I173" s="220"/>
+      <c r="J173" s="220"/>
+    </row>
+    <row r="174" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F174" s="220"/>
+      <c r="G174" s="220"/>
+      <c r="H174" s="220"/>
+      <c r="I174" s="220"/>
+      <c r="J174" s="220"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11612,7 +13157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C9"/>
   <sheetViews>
@@ -11622,15 +13167,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="237"/>
-    <col min="2" max="2" width="21.85546875" style="237" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" style="237" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="237" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="237"/>
+    <col min="1" max="1" width="9.140625" style="234"/>
+    <col min="2" max="2" width="21.85546875" style="234" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" style="234" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="234" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="234"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="237" t="s">
+      <c r="B3" s="234" t="s">
         <v>476</v>
       </c>
       <c r="C3" s="83" t="s">
@@ -11638,7 +13183,7 @@
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="237" t="s">
+      <c r="B4" s="234" t="s">
         <v>476</v>
       </c>
       <c r="C4" s="83" t="s">
@@ -11646,7 +13191,7 @@
       </c>
     </row>
     <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="234" t="s">
         <v>476</v>
       </c>
       <c r="C5" s="83" t="s">
@@ -11654,277 +13199,14 @@
       </c>
     </row>
     <row r="9" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="237" t="s">
+      <c r="B9" s="234" t="s">
         <v>480</v>
       </c>
-      <c r="C9" s="237" t="s">
+      <c r="C9" s="234" t="s">
         <v>481</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E5"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="65.85546875" customWidth="1"/>
-    <col min="4" max="4" width="72.140625" customWidth="1"/>
-    <col min="5" max="5" width="83.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:5" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="3:5" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="273"/>
-      <c r="E5" s="273"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.42578125" style="175" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="175" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="175" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="175" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="175" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" style="175" customWidth="1"/>
-    <col min="7" max="7" width="64.42578125" style="175" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="175"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="183"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="185"/>
-    </row>
-    <row r="4" spans="1:8" s="176" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="178"/>
-      <c r="C4" s="269" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269" t="s">
-        <v>221</v>
-      </c>
-      <c r="F4" s="269"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="179"/>
-    </row>
-    <row r="5" spans="1:8" s="176" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="178" t="s">
-        <v>222</v>
-      </c>
-      <c r="C5" s="268" t="s">
-        <v>223</v>
-      </c>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268" t="s">
-        <v>224</v>
-      </c>
-      <c r="F5" s="268"/>
-      <c r="G5" s="68" t="s">
-        <v>225</v>
-      </c>
-      <c r="H5" s="179"/>
-    </row>
-    <row r="6" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="186"/>
-      <c r="C6" s="267" t="s">
-        <v>427</v>
-      </c>
-      <c r="D6" s="267"/>
-      <c r="E6" s="267" t="s">
-        <v>422</v>
-      </c>
-      <c r="F6" s="267"/>
-      <c r="G6" s="180" t="s">
-        <v>428</v>
-      </c>
-      <c r="H6" s="187"/>
-    </row>
-    <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="175" t="s">
-        <v>339</v>
-      </c>
-      <c r="B7" s="186" t="s">
-        <v>339</v>
-      </c>
-      <c r="C7" s="267" t="s">
-        <v>425</v>
-      </c>
-      <c r="D7" s="267"/>
-      <c r="E7" s="270" t="s">
-        <v>426</v>
-      </c>
-      <c r="F7" s="267"/>
-      <c r="G7" s="180"/>
-      <c r="H7" s="187"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="186" t="s">
-        <v>462</v>
-      </c>
-      <c r="C8" s="271" t="s">
-        <v>458</v>
-      </c>
-      <c r="D8" s="272"/>
-      <c r="E8" s="271" t="s">
-        <v>459</v>
-      </c>
-      <c r="F8" s="272"/>
-      <c r="G8" s="180" t="s">
-        <v>460</v>
-      </c>
-      <c r="H8" s="187"/>
-    </row>
-    <row r="9" spans="1:8" s="205" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="215" t="s">
-        <v>461</v>
-      </c>
-      <c r="C9" s="271" t="s">
-        <v>463</v>
-      </c>
-      <c r="D9" s="272"/>
-      <c r="E9" s="271"/>
-      <c r="F9" s="272"/>
-      <c r="G9" s="216"/>
-      <c r="H9" s="217"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="188"/>
-      <c r="C10" s="181"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
-      <c r="H10" s="189"/>
-    </row>
-    <row r="12" spans="1:8" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="176" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="176" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="176" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="176" t="s">
-        <v>230</v>
-      </c>
-      <c r="C16" s="176" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="182"/>
-    </row>
-    <row r="18" spans="2:7" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:7" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="177" t="s">
-        <v>382</v>
-      </c>
-      <c r="D19" s="177" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="177" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="177" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="177" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="177" t="s">
-        <v>382</v>
-      </c>
-      <c r="C20" s="177" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="177" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="177" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="177" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="266"/>
-    </row>
-    <row r="21" spans="2:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="177" t="s">
-        <v>382</v>
-      </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="266"/>
-    </row>
-    <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="175" t="s">
-        <v>457</v>
-      </c>
-      <c r="C23" s="175" t="s">
-        <v>458</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/System_Design_Architecture.xlsx
+++ b/System_Design_Architecture.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="896" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="896" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="560">
   <si>
     <t>Scalability</t>
   </si>
@@ -2631,6 +2631,147 @@
   <si>
     <t xml:space="preserve">-- Only Streaming/Realtime data processing
 -- Not a replacement of Lamda Architecture; </t>
+  </si>
+  <si>
+    <t>JMX</t>
+  </si>
+  <si>
+    <t>Java Messaging Service (MOM - Messaging Oriented Middleware)</t>
+  </si>
+  <si>
+    <t>MOM techs</t>
+  </si>
+  <si>
+    <t>Message Oriented Middleware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- JMS
+-- </t>
+  </si>
+  <si>
+    <t>Java Management Extension</t>
+  </si>
+  <si>
+    <t>A tool for Managing and Monitoring applications;
+-- System Objects;
+-- Service Oriented networks</t>
+  </si>
+  <si>
+    <t>Communicate applications by send and receive messages</t>
+  </si>
+  <si>
+    <t>EAI</t>
+  </si>
+  <si>
+    <t>Enterprise App Integration</t>
+  </si>
+  <si>
+    <t>EIP</t>
+  </si>
+  <si>
+    <t>Enterprise Integration Pattern</t>
+  </si>
+  <si>
+    <t>-- RMI
+-- SOA ( SOAP, REST )
+-- MOM (JMS, ESB )</t>
+  </si>
+  <si>
+    <t>-- ESB - Comes with 
+1) Registry 
+2) Business Activity Monitoring
+3) Routing (GUI to link etc)</t>
+  </si>
+  <si>
+    <t>Apache Camel</t>
+  </si>
+  <si>
+    <t>ESB</t>
+  </si>
+  <si>
+    <t>EIP tools</t>
+  </si>
+  <si>
+    <t>lightweight integration framework</t>
+  </si>
+  <si>
+    <t>Both Apache Camel and ESB provides almost all features</t>
+  </si>
+  <si>
+    <t>Open source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a software architecture model </t>
+  </si>
+  <si>
+    <t>Open source ESBs
+-- Jboss ;Apache ServiceMix; MuleESB; OpenESB; 
+-- Spring Integration</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enterprise Service Bus
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-- Software Architecture model </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:-
+----- communication between applications;
+----- Loosely coupled
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-- functionalities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :-
+----- Monitoring
+----- Routing
+----- Complext message exchange
+----- Integrate any different application
+----- Integrate with any PROTOCOLs</t>
+    </r>
+  </si>
+  <si>
+    <t>EIP - Choose</t>
+  </si>
+  <si>
+    <t>No Framework
+--  reading a file or sending a JMS message, it is probably much easier and faster to use some well known libraries such as Apache Commons IO or Spring JmsTemplate.</t>
+  </si>
+  <si>
+    <t>Enterprise Integration Pattern
+-- Use libraries / simple Framework
+-- Use Framework
+-- Use Tools</t>
   </si>
 </sst>
 </file>
@@ -2799,7 +2940,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="97">
+  <borders count="98">
     <border>
       <left/>
       <right/>
@@ -4103,12 +4244,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="300">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4833,6 +4987,54 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -4866,6 +5068,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4887,6 +5095,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4923,6 +5146,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4940,72 +5169,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5037,13 +5200,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>91441</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>657109</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5872,13 +6035,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3147060</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>2240280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5940,13 +6103,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3246120</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>3550920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6008,6 +6171,64 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>809626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3512820</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1911183</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="64000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="29000" contrast="52000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="3286126"/>
+          <a:ext cx="3474720" cy="1101557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6177,19 +6398,19 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>83821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>2811780</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1312436</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6236,13 +6457,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>2781300</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>897732</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6289,13 +6510,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>129541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>2788920</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>1313818</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6642,17 +6863,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E35"/>
+  <dimension ref="B2:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="68.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.28515625" style="1" customWidth="1"/>
     <col min="6" max="16384" width="8.85546875" style="1"/>
@@ -6837,9 +7058,31 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -6880,10 +7123,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6910,14 +7153,14 @@
     </row>
     <row r="4" spans="1:8" s="176" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
       <c r="B4" s="178"/>
-      <c r="C4" s="274" t="s">
+      <c r="C4" s="299" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="274"/>
-      <c r="E4" s="274" t="s">
+      <c r="D4" s="299"/>
+      <c r="E4" s="299" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="274"/>
+      <c r="F4" s="299"/>
       <c r="G4" s="68"/>
       <c r="H4" s="179"/>
     </row>
@@ -6925,14 +7168,14 @@
       <c r="B5" s="178" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="273" t="s">
+      <c r="C5" s="298" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="273"/>
-      <c r="E5" s="273" t="s">
+      <c r="D5" s="298"/>
+      <c r="E5" s="298" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="273"/>
+      <c r="F5" s="298"/>
       <c r="G5" s="68" t="s">
         <v>225</v>
       </c>
@@ -6940,14 +7183,14 @@
     </row>
     <row r="6" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="186"/>
-      <c r="C6" s="272" t="s">
+      <c r="C6" s="297" t="s">
         <v>427</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272" t="s">
+      <c r="D6" s="297"/>
+      <c r="E6" s="297" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="272"/>
+      <c r="F6" s="297"/>
       <c r="G6" s="180" t="s">
         <v>428</v>
       </c>
@@ -6960,14 +7203,14 @@
       <c r="B7" s="186" t="s">
         <v>339</v>
       </c>
-      <c r="C7" s="272" t="s">
+      <c r="C7" s="297" t="s">
         <v>425</v>
       </c>
-      <c r="D7" s="272"/>
-      <c r="E7" s="275" t="s">
+      <c r="D7" s="297"/>
+      <c r="E7" s="300" t="s">
         <v>426</v>
       </c>
-      <c r="F7" s="272"/>
+      <c r="F7" s="297"/>
       <c r="G7" s="180"/>
       <c r="H7" s="187"/>
     </row>
@@ -6975,14 +7218,14 @@
       <c r="B8" s="186" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="276" t="s">
+      <c r="C8" s="301" t="s">
         <v>458</v>
       </c>
-      <c r="D8" s="277"/>
-      <c r="E8" s="276" t="s">
+      <c r="D8" s="302"/>
+      <c r="E8" s="301" t="s">
         <v>459</v>
       </c>
-      <c r="F8" s="277"/>
+      <c r="F8" s="302"/>
       <c r="G8" s="180" t="s">
         <v>460</v>
       </c>
@@ -6992,12 +7235,12 @@
       <c r="B9" s="212" t="s">
         <v>461</v>
       </c>
-      <c r="C9" s="276" t="s">
+      <c r="C9" s="301" t="s">
         <v>463</v>
       </c>
-      <c r="D9" s="277"/>
-      <c r="E9" s="276"/>
-      <c r="F9" s="277"/>
+      <c r="D9" s="302"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="302"/>
       <c r="G9" s="213"/>
       <c r="H9" s="214"/>
     </row>
@@ -7010,87 +7253,87 @@
       <c r="G10" s="181"/>
       <c r="H10" s="189"/>
     </row>
-    <row r="12" spans="1:8" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="176" t="s">
+    <row r="12" spans="1:8" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="177" t="s">
+        <v>382</v>
+      </c>
+      <c r="D13" s="177" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="177" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="177" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="177" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="177" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="177" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="177" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="177" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="177" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="294"/>
+    </row>
+    <row r="15" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="177" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="177"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="294"/>
+    </row>
+    <row r="17" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="B17" s="175" t="s">
+        <v>457</v>
+      </c>
+      <c r="C17" s="175" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B19" s="176" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="176" t="s">
+      <c r="C19" s="176" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="176" t="s">
+    <row r="22" spans="2:3" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="176" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="176" t="s">
+      <c r="C22" s="176" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="176" t="s">
+    <row r="23" spans="2:3" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B23" s="176" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="176" t="s">
+      <c r="C23" s="176" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="17" spans="2:7" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="182"/>
-    </row>
-    <row r="18" spans="2:7" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:7" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="177" t="s">
-        <v>382</v>
-      </c>
-      <c r="D19" s="177" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="177" t="s">
-        <v>110</v>
-      </c>
-      <c r="F19" s="177" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="177" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="177" t="s">
-        <v>382</v>
-      </c>
-      <c r="C20" s="177" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="177" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="177" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="177" t="s">
-        <v>114</v>
-      </c>
-      <c r="G20" s="271"/>
-    </row>
-    <row r="21" spans="2:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="177" t="s">
-        <v>382</v>
-      </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="271"/>
-    </row>
-    <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B23" s="175" t="s">
-        <v>457</v>
-      </c>
-      <c r="C23" s="175" t="s">
-        <v>458</v>
-      </c>
+    <row r="24" spans="2:3" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
@@ -7112,10 +7355,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E20"/>
+  <dimension ref="A3:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:C14"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7242,6 +7485,17 @@
       </c>
       <c r="E20" s="174" t="s">
         <v>421</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="174" t="s">
+        <v>536</v>
+      </c>
+      <c r="C21" s="174" t="s">
+        <v>537</v>
+      </c>
+      <c r="D21" s="83" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -7494,10 +7748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:G58"/>
+  <dimension ref="B4:G64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -7795,110 +8049,118 @@
         <v>483</v>
       </c>
     </row>
-    <row r="50" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="6"/>
-    </row>
-    <row r="52" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B52" s="7" t="s">
+    <row r="49" spans="2:7" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="C49" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="242"/>
-      <c r="F52" s="243"/>
-      <c r="G52" s="9"/>
-    </row>
-    <row r="53" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="7" t="s">
+      <c r="E58" s="258"/>
+      <c r="F58" s="259"/>
+      <c r="G58" s="9"/>
+    </row>
+    <row r="59" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C59" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="244"/>
-      <c r="F53" s="245"/>
-      <c r="G53" s="9"/>
-    </row>
-    <row r="54" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+      <c r="E59" s="260"/>
+      <c r="F59" s="261"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E54" s="244"/>
-      <c r="F54" s="245"/>
-      <c r="G54" s="9"/>
-    </row>
-    <row r="55" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
+      <c r="E60" s="260"/>
+      <c r="F60" s="261"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C61" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="244"/>
-      <c r="F55" s="245"/>
-      <c r="G55" s="9"/>
-    </row>
-    <row r="56" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
+      <c r="E61" s="260"/>
+      <c r="F61" s="261"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C62" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="244"/>
-      <c r="F56" s="245"/>
-      <c r="G56" s="9"/>
-    </row>
-    <row r="57" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B57" s="7" t="s">
+      <c r="E62" s="260"/>
+      <c r="F62" s="261"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C63" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E57" s="246"/>
-      <c r="F57" s="247"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="10"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
+      <c r="E63" s="262"/>
+      <c r="F63" s="263"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E52:F57"/>
+    <mergeCell ref="E58:F63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8364,12 +8626,12 @@
       <c r="B47" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="248" t="s">
+      <c r="C47" s="264" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="249"/>
-      <c r="E47" s="248"/>
-      <c r="F47" s="249"/>
+      <c r="D47" s="265"/>
+      <c r="E47" s="264"/>
+      <c r="F47" s="265"/>
       <c r="G47" s="120"/>
       <c r="H47" s="117"/>
       <c r="I47" s="111"/>
@@ -8457,10 +8719,10 @@
       <c r="B52" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="250" t="s">
+      <c r="C52" s="266" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="250"/>
+      <c r="D52" s="266"/>
       <c r="E52" s="128"/>
       <c r="F52" s="128"/>
       <c r="G52" s="129"/>
@@ -9018,10 +9280,10 @@
     <row r="75" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="139"/>
       <c r="B75" s="145"/>
-      <c r="C75" s="251" t="s">
+      <c r="C75" s="267" t="s">
         <v>181</v>
       </c>
-      <c r="D75" s="251"/>
+      <c r="D75" s="267"/>
       <c r="E75" s="146"/>
       <c r="F75" s="147"/>
       <c r="G75" s="148"/>
@@ -9101,8 +9363,8 @@
     <row r="84" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="139"/>
       <c r="B84" s="145"/>
-      <c r="C84" s="251"/>
-      <c r="D84" s="251"/>
+      <c r="C84" s="267"/>
+      <c r="D84" s="267"/>
       <c r="E84" s="146"/>
       <c r="F84" s="147"/>
       <c r="G84" s="148"/>
@@ -9156,7 +9418,7 @@
   </sheetPr>
   <dimension ref="A2:K211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
@@ -9236,10 +9498,10 @@
     <row r="8" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="252" t="s">
+      <c r="C8" s="268" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="252"/>
+      <c r="D8" s="268"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="31"/>
@@ -9248,10 +9510,10 @@
     <row r="9" spans="1:8" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="252" t="s">
+      <c r="C9" s="268" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="252"/>
+      <c r="D9" s="268"/>
       <c r="E9" s="33" t="s">
         <v>195</v>
       </c>
@@ -9262,10 +9524,10 @@
     <row r="10" spans="1:8" s="26" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="252" t="s">
+      <c r="C10" s="268" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="252"/>
+      <c r="D10" s="268"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="31"/>
@@ -9274,10 +9536,10 @@
     <row r="11" spans="1:8" s="26" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="252" t="s">
+      <c r="C11" s="268" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="252"/>
+      <c r="D11" s="268"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="31"/>
@@ -9288,10 +9550,10 @@
       <c r="B12" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="252" t="s">
+      <c r="C12" s="268" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="252"/>
+      <c r="D12" s="268"/>
       <c r="E12" s="33" t="s">
         <v>190</v>
       </c>
@@ -9306,10 +9568,10 @@
       <c r="B13" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="252" t="s">
+      <c r="C13" s="268" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="252"/>
+      <c r="D13" s="268"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="31"/>
@@ -9475,12 +9737,12 @@
       <c r="B26" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="259" t="s">
+      <c r="C26" s="277" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="258"/>
-      <c r="E26" s="255"/>
-      <c r="F26" s="256"/>
+      <c r="D26" s="276"/>
+      <c r="E26" s="273"/>
+      <c r="F26" s="274"/>
       <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:11" s="26" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -9491,10 +9753,10 @@
       <c r="D27" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="257" t="s">
+      <c r="E27" s="275" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="258"/>
+      <c r="F27" s="276"/>
       <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -9507,8 +9769,8 @@
     </row>
     <row r="29" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="34"/>
-      <c r="C29" s="252"/>
-      <c r="D29" s="252"/>
+      <c r="C29" s="268"/>
+      <c r="D29" s="268"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
       <c r="G29" s="31"/>
@@ -9544,18 +9806,18 @@
       <c r="D33" s="198"/>
       <c r="E33" s="198"/>
       <c r="F33" s="198"/>
-      <c r="G33" s="278"/>
-      <c r="H33" s="279"/>
+      <c r="G33" s="243"/>
+      <c r="H33" s="244"/>
     </row>
     <row r="34" spans="1:8" s="26" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="199" t="s">
         <v>444</v>
       </c>
-      <c r="C34" s="253" t="s">
+      <c r="C34" s="271" t="s">
         <v>475</v>
       </c>
-      <c r="D34" s="254"/>
+      <c r="D34" s="272"/>
       <c r="E34" s="41"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -9564,23 +9826,23 @@
     <row r="35" spans="1:8" s="26" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="41"/>
       <c r="B35" s="199"/>
-      <c r="C35" s="253" t="s">
+      <c r="C35" s="271" t="s">
         <v>527</v>
       </c>
-      <c r="D35" s="254"/>
+      <c r="D35" s="272"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
-      <c r="H35" s="279"/>
+      <c r="H35" s="244"/>
     </row>
     <row r="36" spans="1:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41"/>
       <c r="B36" s="199" t="s">
         <v>526</v>
       </c>
-      <c r="C36" s="259" t="s">
+      <c r="C36" s="277" t="s">
         <v>528</v>
       </c>
-      <c r="D36" s="281"/>
+      <c r="D36" s="280"/>
       <c r="E36" s="32"/>
       <c r="G36" s="32"/>
       <c r="H36" s="40"/>
@@ -9590,14 +9852,14 @@
       <c r="B37" s="199" t="s">
         <v>529</v>
       </c>
-      <c r="C37" s="257" t="s">
+      <c r="C37" s="275" t="s">
         <v>530</v>
       </c>
-      <c r="D37" s="258"/>
+      <c r="D37" s="276"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
-      <c r="H37" s="279"/>
+      <c r="H37" s="244"/>
     </row>
     <row r="38" spans="1:8" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="41"/>
@@ -9606,83 +9868,83 @@
       <c r="D38" s="201"/>
       <c r="E38" s="201"/>
       <c r="F38" s="201"/>
-      <c r="G38" s="280"/>
+      <c r="G38" s="245"/>
       <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="194"/>
-      <c r="C39" s="282"/>
-      <c r="D39" s="282"/>
-      <c r="E39" s="282"/>
-      <c r="F39" s="282"/>
-      <c r="G39" s="282"/>
+      <c r="C39" s="246"/>
+      <c r="D39" s="246"/>
+      <c r="E39" s="246"/>
+      <c r="F39" s="246"/>
+      <c r="G39" s="246"/>
     </row>
     <row r="40" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
-      <c r="B40" s="283"/>
-      <c r="C40" s="284"/>
-      <c r="D40" s="284"/>
-      <c r="E40" s="284"/>
-      <c r="F40" s="284"/>
-      <c r="G40" s="285"/>
+      <c r="B40" s="247"/>
+      <c r="C40" s="248"/>
+      <c r="D40" s="248"/>
+      <c r="E40" s="248"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="249"/>
       <c r="H40" s="40"/>
     </row>
-    <row r="41" spans="1:8" s="297" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="256" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="240"/>
-      <c r="B41" s="298" t="s">
+      <c r="B41" s="257" t="s">
         <v>531</v>
       </c>
-      <c r="C41" s="294" t="s">
+      <c r="C41" s="281" t="s">
         <v>533</v>
       </c>
-      <c r="D41" s="293"/>
+      <c r="D41" s="282"/>
       <c r="E41" s="14"/>
-      <c r="F41" s="292"/>
-      <c r="G41" s="296"/>
+      <c r="F41" s="269"/>
+      <c r="G41" s="270"/>
       <c r="H41" s="241"/>
     </row>
     <row r="42" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
-      <c r="B42" s="286"/>
-      <c r="C42" s="287"/>
-      <c r="D42" s="287"/>
-      <c r="E42" s="287"/>
-      <c r="F42" s="287"/>
-      <c r="G42" s="288"/>
+      <c r="B42" s="250"/>
+      <c r="C42" s="251"/>
+      <c r="D42" s="251"/>
+      <c r="E42" s="251"/>
+      <c r="F42" s="251"/>
+      <c r="G42" s="252"/>
       <c r="H42" s="40"/>
     </row>
     <row r="43" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="41"/>
-      <c r="B43" s="286" t="s">
+      <c r="B43" s="250" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="295"/>
-      <c r="D43" s="299"/>
-      <c r="E43" s="287"/>
-      <c r="F43" s="287"/>
-      <c r="G43" s="288"/>
+      <c r="C43" s="278"/>
+      <c r="D43" s="279"/>
+      <c r="E43" s="251"/>
+      <c r="F43" s="251"/>
+      <c r="G43" s="252"/>
       <c r="H43" s="40"/>
     </row>
     <row r="44" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
-      <c r="B44" s="286" t="s">
+      <c r="B44" s="250" t="s">
         <v>532</v>
       </c>
-      <c r="C44" s="295"/>
-      <c r="D44" s="299"/>
-      <c r="E44" s="287"/>
-      <c r="F44" s="287"/>
-      <c r="G44" s="288"/>
+      <c r="C44" s="278"/>
+      <c r="D44" s="279"/>
+      <c r="E44" s="251"/>
+      <c r="F44" s="251"/>
+      <c r="G44" s="252"/>
       <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:8" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="41"/>
-      <c r="B45" s="289"/>
-      <c r="C45" s="290"/>
-      <c r="D45" s="290"/>
-      <c r="E45" s="290"/>
-      <c r="F45" s="290"/>
-      <c r="G45" s="291"/>
+      <c r="B45" s="253"/>
+      <c r="C45" s="254"/>
+      <c r="D45" s="254"/>
+      <c r="E45" s="254"/>
+      <c r="F45" s="254"/>
+      <c r="G45" s="255"/>
       <c r="H45" s="40"/>
     </row>
     <row r="46" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
@@ -9923,10 +10185,10 @@
       <c r="B3" s="80" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="261" t="s">
+      <c r="C3" s="284" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="261"/>
+      <c r="D3" s="284"/>
     </row>
     <row r="4" spans="1:27" ht="135" x14ac:dyDescent="0.25">
       <c r="B4" s="80" t="s">
@@ -10258,10 +10520,10 @@
     <row r="20" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="155"/>
       <c r="B20" s="161"/>
-      <c r="C20" s="260" t="s">
+      <c r="C20" s="283" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="260"/>
+      <c r="D20" s="283"/>
       <c r="E20" s="162"/>
       <c r="F20" s="162"/>
       <c r="G20" s="163"/>
@@ -10289,10 +10551,10 @@
     <row r="21" spans="1:27" s="160" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="155"/>
       <c r="B21" s="161"/>
-      <c r="C21" s="260" t="s">
+      <c r="C21" s="283" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="260"/>
+      <c r="D21" s="283"/>
       <c r="E21" s="162" t="s">
         <v>133</v>
       </c>
@@ -10322,8 +10584,8 @@
     <row r="22" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="155"/>
       <c r="B22" s="161"/>
-      <c r="C22" s="260"/>
-      <c r="D22" s="260"/>
+      <c r="C22" s="283"/>
+      <c r="D22" s="283"/>
       <c r="E22" s="162"/>
       <c r="F22" s="162"/>
       <c r="G22" s="163"/>
@@ -10707,10 +10969,10 @@
       <c r="B39" s="106" t="s">
         <v>443</v>
       </c>
-      <c r="C39" s="262" t="s">
+      <c r="C39" s="285" t="s">
         <v>431</v>
       </c>
-      <c r="D39" s="263"/>
+      <c r="D39" s="286"/>
       <c r="E39" s="107"/>
       <c r="F39" s="107"/>
       <c r="G39" s="170"/>
@@ -10755,10 +11017,10 @@
       <c r="B43" s="106" t="s">
         <v>429</v>
       </c>
-      <c r="C43" s="262" t="s">
+      <c r="C43" s="285" t="s">
         <v>430</v>
       </c>
-      <c r="D43" s="263"/>
+      <c r="D43" s="286"/>
       <c r="E43" s="107"/>
       <c r="F43" s="107"/>
       <c r="G43" s="170"/>
@@ -10796,10 +11058,10 @@
     </row>
     <row r="47" spans="1:27" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="155"/>
-      <c r="B47" s="264" t="s">
+      <c r="B47" s="287" t="s">
         <v>434</v>
       </c>
-      <c r="C47" s="265"/>
+      <c r="C47" s="288"/>
       <c r="D47" s="168"/>
       <c r="E47" s="168"/>
       <c r="F47" s="168"/>
@@ -10811,14 +11073,14 @@
       <c r="B48" s="106" t="s">
         <v>435</v>
       </c>
-      <c r="C48" s="262" t="s">
+      <c r="C48" s="285" t="s">
         <v>437</v>
       </c>
-      <c r="D48" s="263"/>
-      <c r="E48" s="266" t="s">
+      <c r="D48" s="286"/>
+      <c r="E48" s="289" t="s">
         <v>438</v>
       </c>
-      <c r="F48" s="263"/>
+      <c r="F48" s="286"/>
       <c r="G48" s="170"/>
       <c r="H48" s="159"/>
     </row>
@@ -10827,14 +11089,14 @@
       <c r="B49" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="C49" s="262" t="s">
+      <c r="C49" s="285" t="s">
         <v>439</v>
       </c>
-      <c r="D49" s="263"/>
-      <c r="E49" s="266" t="s">
+      <c r="D49" s="286"/>
+      <c r="E49" s="289" t="s">
         <v>440</v>
       </c>
-      <c r="F49" s="263"/>
+      <c r="F49" s="286"/>
       <c r="G49" s="170"/>
       <c r="H49" s="159"/>
     </row>
@@ -10843,10 +11105,10 @@
       <c r="B50" s="108" t="s">
         <v>417</v>
       </c>
-      <c r="C50" s="262" t="s">
+      <c r="C50" s="285" t="s">
         <v>442</v>
       </c>
-      <c r="D50" s="263"/>
+      <c r="D50" s="286"/>
       <c r="E50" s="192"/>
       <c r="F50" s="191"/>
       <c r="G50" s="193"/>
@@ -10874,10 +11136,10 @@
     </row>
     <row r="53" spans="1:8" s="175" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="155"/>
-      <c r="B53" s="264" t="s">
+      <c r="B53" s="287" t="s">
         <v>441</v>
       </c>
-      <c r="C53" s="265"/>
+      <c r="C53" s="288"/>
       <c r="D53" s="168"/>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
@@ -10889,12 +11151,12 @@
       <c r="B54" s="106" t="s">
         <v>417</v>
       </c>
-      <c r="C54" s="262" t="s">
+      <c r="C54" s="285" t="s">
         <v>445</v>
       </c>
-      <c r="D54" s="263"/>
-      <c r="E54" s="266"/>
-      <c r="F54" s="263"/>
+      <c r="D54" s="286"/>
+      <c r="E54" s="289"/>
+      <c r="F54" s="286"/>
       <c r="G54" s="170"/>
       <c r="H54" s="159"/>
     </row>
@@ -10958,16 +11220,16 @@
       <c r="B2" s="237" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="271" t="s">
+      <c r="C2" s="294" t="s">
         <v>511</v>
       </c>
-      <c r="D2" s="271"/>
+      <c r="D2" s="294"/>
     </row>
     <row r="3" spans="2:6" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="271" t="s">
+      <c r="C3" s="294" t="s">
         <v>512</v>
       </c>
-      <c r="D3" s="271"/>
+      <c r="D3" s="294"/>
       <c r="E3" s="237" t="s">
         <v>499</v>
       </c>
@@ -10976,50 +11238,50 @@
       <c r="B4" s="238" t="s">
         <v>500</v>
       </c>
-      <c r="C4" s="268" t="s">
+      <c r="C4" s="291" t="s">
         <v>503</v>
       </c>
-      <c r="D4" s="269"/>
+      <c r="D4" s="292"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="238" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="268" t="s">
+      <c r="C5" s="291" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="269"/>
+      <c r="D5" s="292"/>
     </row>
     <row r="7" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="238" t="s">
         <v>504</v>
       </c>
-      <c r="C7" s="268" t="s">
+      <c r="C7" s="291" t="s">
         <v>505</v>
       </c>
-      <c r="D7" s="270"/>
+      <c r="D7" s="293"/>
     </row>
     <row r="8" spans="2:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="238" t="s">
         <v>506</v>
       </c>
-      <c r="C8" s="268" t="s">
+      <c r="C8" s="291" t="s">
         <v>510</v>
       </c>
-      <c r="D8" s="268"/>
-      <c r="E8" s="267" t="s">
+      <c r="D8" s="291"/>
+      <c r="E8" s="290" t="s">
         <v>509</v>
       </c>
-      <c r="F8" s="267"/>
+      <c r="F8" s="290"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="238" t="s">
         <v>507</v>
       </c>
-      <c r="C9" s="269" t="s">
+      <c r="C9" s="292" t="s">
         <v>508</v>
       </c>
-      <c r="D9" s="270"/>
+      <c r="D9" s="293"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11080,10 +11342,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J174"/>
+  <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
@@ -11688,7 +11950,7 @@
       <c r="J45" s="220"/>
     </row>
     <row r="46" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="215"/>
       <c r="B47" s="71"/>
       <c r="C47" s="72"/>
@@ -11700,14 +11962,14 @@
       <c r="I47" s="220"/>
       <c r="J47" s="220"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="215"/>
       <c r="B48" s="66"/>
       <c r="C48" s="45" t="s">
-        <v>280</v>
+        <v>237</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>278</v>
+        <v>534</v>
       </c>
       <c r="E48" s="226"/>
       <c r="F48" s="220"/>
@@ -11716,14 +11978,14 @@
       <c r="I48" s="220"/>
       <c r="J48" s="220"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="242" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A49" s="215"/>
       <c r="B49" s="66"/>
       <c r="C49" s="47" t="s">
-        <v>283</v>
+        <v>535</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>279</v>
+        <v>539</v>
       </c>
       <c r="E49" s="226"/>
       <c r="F49" s="220"/>
@@ -11732,14 +11994,14 @@
       <c r="I49" s="220"/>
       <c r="J49" s="220"/>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="242" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="215"/>
       <c r="B50" s="79"/>
       <c r="C50" s="48" t="s">
-        <v>284</v>
+        <v>541</v>
       </c>
       <c r="D50" s="227" t="s">
-        <v>281</v>
+        <v>540</v>
       </c>
       <c r="E50" s="226"/>
       <c r="F50" s="220"/>
@@ -11748,13 +12010,11 @@
       <c r="I50" s="220"/>
       <c r="J50" s="220"/>
     </row>
-    <row r="51" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="242" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="215"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="D51" s="227"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="228"/>
+      <c r="D51" s="76"/>
       <c r="E51" s="226"/>
       <c r="F51" s="220"/>
       <c r="G51" s="220"/>
@@ -11762,31 +12022,33 @@
       <c r="I51" s="220"/>
       <c r="J51" s="220"/>
     </row>
-    <row r="52" spans="1:10" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="215"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="228" t="s">
-        <v>285</v>
-      </c>
-      <c r="D52" s="76"/>
-      <c r="E52" s="226"/>
-      <c r="F52" s="220"/>
-      <c r="G52" s="220"/>
-      <c r="H52" s="220"/>
-      <c r="I52" s="220"/>
-      <c r="J52" s="220"/>
-    </row>
-    <row r="53" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="229"/>
-      <c r="C53" s="229"/>
-      <c r="D53" s="229"/>
-      <c r="E53" s="229"/>
-    </row>
-    <row r="54" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="229"/>
+      <c r="C52" s="229"/>
+      <c r="D52" s="229"/>
+      <c r="E52" s="229"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="215"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="73"/>
+      <c r="E53" s="226"/>
+      <c r="F53" s="220"/>
+      <c r="G53" s="220"/>
+      <c r="H53" s="220"/>
+      <c r="I53" s="220"/>
+      <c r="J53" s="220"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="215"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="73"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>278</v>
+      </c>
       <c r="E54" s="226"/>
       <c r="F54" s="220"/>
       <c r="G54" s="220"/>
@@ -11794,14 +12056,14 @@
       <c r="I54" s="220"/>
       <c r="J54" s="220"/>
     </row>
-    <row r="55" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="215"/>
       <c r="B55" s="66"/>
-      <c r="C55" s="45" t="s">
-        <v>484</v>
-      </c>
-      <c r="D55" s="46" t="s">
-        <v>485</v>
+      <c r="C55" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="D55" s="67" t="s">
+        <v>279</v>
       </c>
       <c r="E55" s="226"/>
       <c r="F55" s="220"/>
@@ -11810,14 +12072,14 @@
       <c r="I55" s="220"/>
       <c r="J55" s="220"/>
     </row>
-    <row r="56" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="215"/>
-      <c r="B56" s="66"/>
-      <c r="C56" s="47" t="s">
-        <v>486</v>
-      </c>
-      <c r="D56" s="67" t="s">
-        <v>487</v>
+      <c r="B56" s="79"/>
+      <c r="C56" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="D56" s="227" t="s">
+        <v>281</v>
       </c>
       <c r="E56" s="226"/>
       <c r="F56" s="220"/>
@@ -11826,15 +12088,13 @@
       <c r="I56" s="220"/>
       <c r="J56" s="220"/>
     </row>
-    <row r="57" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A57" s="215"/>
-      <c r="B57" s="66"/>
-      <c r="C57" s="47" t="s">
-        <v>496</v>
-      </c>
-      <c r="D57" s="67" t="s">
-        <v>497</v>
-      </c>
+      <c r="B57" s="79"/>
+      <c r="C57" s="48" t="s">
+        <v>282</v>
+      </c>
+      <c r="D57" s="227"/>
       <c r="E57" s="226"/>
       <c r="F57" s="220"/>
       <c r="G57" s="220"/>
@@ -11842,13 +12102,13 @@
       <c r="I57" s="220"/>
       <c r="J57" s="220"/>
     </row>
-    <row r="58" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="215"/>
-      <c r="B58" s="79"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="227" t="s">
-        <v>515</v>
-      </c>
+      <c r="B58" s="74"/>
+      <c r="C58" s="228" t="s">
+        <v>285</v>
+      </c>
+      <c r="D58" s="76"/>
       <c r="E58" s="226"/>
       <c r="F58" s="220"/>
       <c r="G58" s="220"/>
@@ -11856,35 +12116,17 @@
       <c r="I58" s="220"/>
       <c r="J58" s="220"/>
     </row>
-    <row r="59" spans="1:10" s="237" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="215"/>
-      <c r="B59" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="D59" s="233" t="s">
-        <v>520</v>
-      </c>
-      <c r="E59" s="226"/>
-      <c r="F59" s="220"/>
-      <c r="G59" s="220"/>
-      <c r="H59" s="220"/>
-      <c r="I59" s="220"/>
-      <c r="J59" s="220"/>
-    </row>
-    <row r="60" spans="1:10" s="237" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="229"/>
+      <c r="C59" s="229"/>
+      <c r="D59" s="229"/>
+      <c r="E59" s="229"/>
+    </row>
+    <row r="60" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="215"/>
-      <c r="B60" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="C60" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="D60" s="227" t="s">
-        <v>521</v>
-      </c>
+      <c r="B60" s="71"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="73"/>
       <c r="E60" s="226"/>
       <c r="F60" s="220"/>
       <c r="G60" s="220"/>
@@ -11892,16 +12134,14 @@
       <c r="I60" s="220"/>
       <c r="J60" s="220"/>
     </row>
-    <row r="61" spans="1:10" s="237" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="215"/>
-      <c r="B61" s="79" t="s">
-        <v>518</v>
-      </c>
-      <c r="C61" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="D61" s="227" t="s">
-        <v>522</v>
+      <c r="B61" s="66"/>
+      <c r="C61" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="D61" s="46" t="s">
+        <v>485</v>
       </c>
       <c r="E61" s="226"/>
       <c r="F61" s="220"/>
@@ -11910,11 +12150,15 @@
       <c r="I61" s="220"/>
       <c r="J61" s="220"/>
     </row>
-    <row r="62" spans="1:10" s="239" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="215"/>
-      <c r="B62" s="79"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="227"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="D62" s="67" t="s">
+        <v>487</v>
+      </c>
       <c r="E62" s="226"/>
       <c r="F62" s="220"/>
       <c r="G62" s="220"/>
@@ -11922,12 +12166,14 @@
       <c r="I62" s="220"/>
       <c r="J62" s="220"/>
     </row>
-    <row r="63" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="215"/>
-      <c r="B63" s="79"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="233" t="s">
-        <v>524</v>
+      <c r="B63" s="66"/>
+      <c r="C63" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="D63" s="67" t="s">
+        <v>497</v>
       </c>
       <c r="E63" s="226"/>
       <c r="F63" s="220"/>
@@ -11936,11 +12182,13 @@
       <c r="I63" s="220"/>
       <c r="J63" s="220"/>
     </row>
-    <row r="64" spans="1:10" s="235" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="215"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="75"/>
-      <c r="D64" s="76"/>
+      <c r="B64" s="79"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="227" t="s">
+        <v>515</v>
+      </c>
       <c r="E64" s="226"/>
       <c r="F64" s="220"/>
       <c r="G64" s="220"/>
@@ -11948,12 +12196,35 @@
       <c r="I64" s="220"/>
       <c r="J64" s="220"/>
     </row>
-    <row r="65" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="237" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="215"/>
+      <c r="B65" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="D65" s="233" t="s">
+        <v>520</v>
+      </c>
+      <c r="E65" s="226"/>
+      <c r="F65" s="220"/>
+      <c r="G65" s="220"/>
+      <c r="H65" s="220"/>
+      <c r="I65" s="220"/>
+      <c r="J65" s="220"/>
+    </row>
+    <row r="66" spans="1:10" s="237" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="215"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="72"/>
-      <c r="D66" s="73"/>
+      <c r="B66" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="D66" s="227" t="s">
+        <v>521</v>
+      </c>
       <c r="E66" s="226"/>
       <c r="F66" s="220"/>
       <c r="G66" s="220"/>
@@ -11961,14 +12232,16 @@
       <c r="I66" s="220"/>
       <c r="J66" s="220"/>
     </row>
-    <row r="67" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="237" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A67" s="215"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="45" t="s">
-        <v>488</v>
-      </c>
-      <c r="D67" s="46" t="s">
-        <v>489</v>
+      <c r="B67" s="79" t="s">
+        <v>518</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="D67" s="227" t="s">
+        <v>522</v>
       </c>
       <c r="E67" s="226"/>
       <c r="F67" s="220"/>
@@ -11977,15 +12250,11 @@
       <c r="I67" s="220"/>
       <c r="J67" s="220"/>
     </row>
-    <row r="68" spans="1:10" s="235" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="239" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="215"/>
-      <c r="B68" s="66"/>
-      <c r="C68" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="D68" s="67" t="s">
-        <v>491</v>
-      </c>
+      <c r="B68" s="79"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="227"/>
       <c r="E68" s="226"/>
       <c r="F68" s="220"/>
       <c r="G68" s="220"/>
@@ -11993,14 +12262,12 @@
       <c r="I68" s="220"/>
       <c r="J68" s="220"/>
     </row>
-    <row r="69" spans="1:10" s="235" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="215"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="D69" s="67" t="s">
-        <v>493</v>
+      <c r="B69" s="79"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="233" t="s">
+        <v>524</v>
       </c>
       <c r="E69" s="226"/>
       <c r="F69" s="220"/>
@@ -12009,15 +12276,11 @@
       <c r="I69" s="220"/>
       <c r="J69" s="220"/>
     </row>
-    <row r="70" spans="1:10" s="235" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="235" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="215"/>
-      <c r="B70" s="79"/>
-      <c r="C70" s="48" t="s">
-        <v>494</v>
-      </c>
-      <c r="D70" s="227" t="s">
-        <v>495</v>
-      </c>
+      <c r="B70" s="74"/>
+      <c r="C70" s="75"/>
+      <c r="D70" s="76"/>
       <c r="E70" s="226"/>
       <c r="F70" s="220"/>
       <c r="G70" s="220"/>
@@ -12025,23 +12288,12 @@
       <c r="I70" s="220"/>
       <c r="J70" s="220"/>
     </row>
-    <row r="71" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="215"/>
-      <c r="B71" s="79"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="227"/>
-      <c r="E71" s="226"/>
-      <c r="F71" s="220"/>
-      <c r="G71" s="220"/>
-      <c r="H71" s="220"/>
-      <c r="I71" s="220"/>
-      <c r="J71" s="220"/>
-    </row>
-    <row r="72" spans="1:10" s="235" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="215"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="76"/>
+      <c r="B72" s="71"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="73"/>
       <c r="E72" s="226"/>
       <c r="F72" s="220"/>
       <c r="G72" s="220"/>
@@ -12049,391 +12301,364 @@
       <c r="I72" s="220"/>
       <c r="J72" s="220"/>
     </row>
-    <row r="73" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="215"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="45" t="s">
+        <v>488</v>
+      </c>
+      <c r="D73" s="46" t="s">
+        <v>489</v>
+      </c>
+      <c r="E73" s="226"/>
+      <c r="F73" s="220"/>
+      <c r="G73" s="220"/>
+      <c r="H73" s="220"/>
+      <c r="I73" s="220"/>
+      <c r="J73" s="220"/>
+    </row>
+    <row r="74" spans="1:10" s="235" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="215"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="72"/>
-      <c r="D74" s="72"/>
-      <c r="E74" s="230"/>
-      <c r="F74" s="226"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="47" t="s">
+        <v>490</v>
+      </c>
+      <c r="D74" s="67" t="s">
+        <v>491</v>
+      </c>
+      <c r="E74" s="226"/>
+      <c r="F74" s="220"/>
       <c r="G74" s="220"/>
       <c r="H74" s="220"/>
       <c r="I74" s="220"/>
       <c r="J74" s="220"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="235" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="215"/>
       <c r="B75" s="66"/>
-      <c r="C75" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="D75" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E75" s="231" t="s">
-        <v>278</v>
-      </c>
-      <c r="F75" s="226"/>
+      <c r="C75" s="47" t="s">
+        <v>492</v>
+      </c>
+      <c r="D75" s="67" t="s">
+        <v>493</v>
+      </c>
+      <c r="E75" s="226"/>
+      <c r="F75" s="220"/>
       <c r="G75" s="220"/>
       <c r="H75" s="220"/>
       <c r="I75" s="220"/>
       <c r="J75" s="220"/>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="235" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="215"/>
-      <c r="B76" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C76" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D76" s="47"/>
-      <c r="E76" s="231"/>
-      <c r="F76" s="226"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="48" t="s">
+        <v>494</v>
+      </c>
+      <c r="D76" s="227" t="s">
+        <v>495</v>
+      </c>
+      <c r="E76" s="226"/>
+      <c r="F76" s="220"/>
       <c r="G76" s="220"/>
       <c r="H76" s="220"/>
       <c r="I76" s="220"/>
       <c r="J76" s="220"/>
     </row>
-    <row r="77" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="215"/>
-      <c r="B77" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C77" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D77" s="47"/>
-      <c r="E77" s="231"/>
-      <c r="F77" s="226"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="227"/>
+      <c r="E77" s="226"/>
+      <c r="F77" s="220"/>
       <c r="G77" s="220"/>
       <c r="H77" s="220"/>
       <c r="I77" s="220"/>
       <c r="J77" s="220"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" s="235" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="215"/>
-      <c r="B78" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="D78" s="47"/>
-      <c r="E78" s="231"/>
-      <c r="F78" s="226"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="75"/>
+      <c r="D78" s="76"/>
+      <c r="E78" s="226"/>
+      <c r="F78" s="220"/>
       <c r="G78" s="220"/>
       <c r="H78" s="220"/>
       <c r="I78" s="220"/>
       <c r="J78" s="220"/>
     </row>
-    <row r="79" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="215"/>
-      <c r="B79" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D79" s="47"/>
-      <c r="E79" s="231"/>
-      <c r="F79" s="226"/>
-      <c r="G79" s="220"/>
-      <c r="H79" s="220"/>
-      <c r="I79" s="220"/>
-      <c r="J79" s="220"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="215"/>
-      <c r="B80" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C80" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D80" s="47"/>
-      <c r="E80" s="231"/>
-      <c r="F80" s="226"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="72"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="226"/>
+      <c r="F80" s="220"/>
       <c r="G80" s="220"/>
       <c r="H80" s="220"/>
       <c r="I80" s="220"/>
       <c r="J80" s="220"/>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="215"/>
       <c r="B81" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C81" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="D81" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E81" s="231"/>
-      <c r="F81" s="226"/>
+        <v>550</v>
+      </c>
+      <c r="C81" s="45" t="s">
+        <v>548</v>
+      </c>
+      <c r="D81" s="46" t="s">
+        <v>549</v>
+      </c>
+      <c r="E81" s="226"/>
+      <c r="F81" s="220"/>
       <c r="G81" s="220"/>
       <c r="H81" s="220"/>
       <c r="I81" s="220"/>
       <c r="J81" s="220"/>
     </row>
-    <row r="82" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="215"/>
-      <c r="B82" s="66" t="s">
-        <v>163</v>
+      <c r="B82" s="295" t="s">
+        <v>552</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="D82" s="47"/>
-      <c r="E82" s="231"/>
-      <c r="F82" s="226"/>
+        <v>551</v>
+      </c>
+      <c r="D82" s="67" t="s">
+        <v>554</v>
+      </c>
+      <c r="E82" s="226"/>
+      <c r="F82" s="220"/>
       <c r="G82" s="220"/>
       <c r="H82" s="220"/>
       <c r="I82" s="220"/>
       <c r="J82" s="220"/>
     </row>
-    <row r="83" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="242" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="215"/>
-      <c r="B83" s="79" t="s">
-        <v>163</v>
-      </c>
+      <c r="B83" s="296"/>
       <c r="C83" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D83" s="48"/>
-      <c r="E83" s="231"/>
-      <c r="F83" s="226"/>
+        <v>553</v>
+      </c>
+      <c r="D83" s="227" t="s">
+        <v>555</v>
+      </c>
+      <c r="E83" s="226"/>
+      <c r="F83" s="220"/>
       <c r="G83" s="220"/>
       <c r="H83" s="220"/>
       <c r="I83" s="220"/>
       <c r="J83" s="220"/>
     </row>
-    <row r="84" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="242" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="215"/>
-      <c r="B84" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="C84" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D84" s="48"/>
-      <c r="E84" s="231"/>
-      <c r="F84" s="226"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="228"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="226"/>
+      <c r="F84" s="220"/>
       <c r="G84" s="220"/>
       <c r="H84" s="220"/>
       <c r="I84" s="220"/>
       <c r="J84" s="220"/>
     </row>
-    <row r="85" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="215"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="75"/>
-      <c r="E85" s="232"/>
-      <c r="F85" s="226"/>
-      <c r="G85" s="220"/>
-      <c r="H85" s="220"/>
-      <c r="I85" s="220"/>
-      <c r="J85" s="220"/>
-    </row>
-    <row r="86" spans="1:10" s="218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="215"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="72"/>
+      <c r="E86" s="230"/>
+      <c r="F86" s="226"/>
+      <c r="G86" s="220"/>
+      <c r="H86" s="220"/>
+      <c r="I86" s="220"/>
+      <c r="J86" s="220"/>
+    </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="216"/>
-      <c r="B87" s="51"/>
-      <c r="F87" s="220"/>
+      <c r="A87" s="215"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E87" s="231" t="s">
+        <v>278</v>
+      </c>
+      <c r="F87" s="226"/>
       <c r="G87" s="220"/>
       <c r="H87" s="220"/>
       <c r="I87" s="220"/>
       <c r="J87" s="220"/>
     </row>
-    <row r="88" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B88" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C88" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="D88" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="E88" s="220" t="s">
-        <v>241</v>
-      </c>
-      <c r="F88" s="220"/>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="215"/>
+      <c r="B88" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D88" s="47"/>
+      <c r="E88" s="231"/>
+      <c r="F88" s="226"/>
       <c r="G88" s="220"/>
       <c r="H88" s="220"/>
       <c r="I88" s="220"/>
       <c r="J88" s="220"/>
     </row>
-    <row r="89" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B89" s="53"/>
-      <c r="C89" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="D89" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="F89" s="220"/>
+    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="215"/>
+      <c r="B89" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D89" s="47"/>
+      <c r="E89" s="231"/>
+      <c r="F89" s="226"/>
       <c r="G89" s="220"/>
       <c r="H89" s="220"/>
       <c r="I89" s="220"/>
       <c r="J89" s="220"/>
     </row>
-    <row r="90" spans="1:10" ht="168.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B90" s="53"/>
-      <c r="C90" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="D90" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="F90" s="220"/>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="215"/>
+      <c r="B90" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C90" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D90" s="47"/>
+      <c r="E90" s="231"/>
+      <c r="F90" s="226"/>
       <c r="G90" s="220"/>
       <c r="H90" s="220"/>
       <c r="I90" s="220"/>
       <c r="J90" s="220"/>
     </row>
     <row r="91" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="F91" s="220"/>
+      <c r="A91" s="215"/>
+      <c r="B91" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D91" s="47"/>
+      <c r="E91" s="231"/>
+      <c r="F91" s="226"/>
       <c r="G91" s="220"/>
       <c r="H91" s="220"/>
       <c r="I91" s="220"/>
       <c r="J91" s="220"/>
     </row>
-    <row r="92" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B92" s="53"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="53"/>
-      <c r="F92" s="220"/>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="215"/>
+      <c r="B92" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="D92" s="47"/>
+      <c r="E92" s="231"/>
+      <c r="F92" s="226"/>
       <c r="G92" s="220"/>
       <c r="H92" s="220"/>
       <c r="I92" s="220"/>
       <c r="J92" s="220"/>
     </row>
-    <row r="93" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B93" s="53"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="F93" s="220"/>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="215"/>
+      <c r="B93" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C93" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="D93" s="47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E93" s="231"/>
+      <c r="F93" s="226"/>
       <c r="G93" s="220"/>
       <c r="H93" s="220"/>
       <c r="I93" s="220"/>
       <c r="J93" s="220"/>
     </row>
-    <row r="94" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="F94" s="220"/>
+    <row r="94" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="215"/>
+      <c r="B94" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>165</v>
+      </c>
+      <c r="D94" s="47"/>
+      <c r="E94" s="231"/>
+      <c r="F94" s="226"/>
       <c r="G94" s="220"/>
       <c r="H94" s="220"/>
       <c r="I94" s="220"/>
       <c r="J94" s="220"/>
     </row>
-    <row r="95" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="216"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="220"/>
-      <c r="F95" s="220"/>
+    <row r="95" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A95" s="215"/>
+      <c r="B95" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D95" s="48"/>
+      <c r="E95" s="231"/>
+      <c r="F95" s="226"/>
       <c r="G95" s="220"/>
       <c r="H95" s="220"/>
       <c r="I95" s="220"/>
       <c r="J95" s="220"/>
     </row>
-    <row r="96" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B96" s="52" t="s">
-        <v>236</v>
-      </c>
-      <c r="C96" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="D96" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="F96" s="220"/>
+    <row r="96" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A96" s="215"/>
+      <c r="B96" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D96" s="48"/>
+      <c r="E96" s="231"/>
+      <c r="F96" s="226"/>
       <c r="G96" s="220"/>
       <c r="H96" s="220"/>
       <c r="I96" s="220"/>
       <c r="J96" s="220"/>
     </row>
-    <row r="97" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B97" s="53"/>
-      <c r="C97" s="53" t="s">
-        <v>288</v>
-      </c>
-      <c r="D97" s="64" t="s">
-        <v>289</v>
-      </c>
-      <c r="F97" s="220"/>
+    <row r="97" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="215"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="232"/>
+      <c r="F97" s="226"/>
       <c r="G97" s="220"/>
       <c r="H97" s="220"/>
       <c r="I97" s="220"/>
       <c r="J97" s="220"/>
     </row>
-    <row r="98" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B98" s="53"/>
-      <c r="C98" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="D98" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="F98" s="220"/>
-      <c r="G98" s="220"/>
-      <c r="H98" s="220"/>
-      <c r="I98" s="220"/>
-      <c r="J98" s="220"/>
-    </row>
-    <row r="99" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53" t="s">
-        <v>292</v>
-      </c>
+    <row r="98" spans="1:10" s="218" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="216"/>
+      <c r="B99" s="51"/>
       <c r="F99" s="220"/>
       <c r="G99" s="220"/>
       <c r="H99" s="220"/>
@@ -12444,35 +12669,51 @@
       <c r="A100" s="216" t="s">
         <v>318</v>
       </c>
-      <c r="B100" s="53"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="53"/>
+      <c r="B100" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="C100" s="52" t="s">
+        <v>243</v>
+      </c>
+      <c r="D100" s="52" t="s">
+        <v>242</v>
+      </c>
+      <c r="E100" s="220" t="s">
+        <v>241</v>
+      </c>
       <c r="F100" s="220"/>
       <c r="G100" s="220"/>
       <c r="H100" s="220"/>
       <c r="I100" s="220"/>
       <c r="J100" s="220"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="215"/>
+    <row r="101" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A101" s="216" t="s">
+        <v>318</v>
+      </c>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D101" s="53" t="s">
+        <v>239</v>
+      </c>
       <c r="F101" s="220"/>
       <c r="G101" s="220"/>
       <c r="H101" s="220"/>
       <c r="I101" s="220"/>
       <c r="J101" s="220"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="168.75" x14ac:dyDescent="0.25">
       <c r="A102" s="216" t="s">
-        <v>248</v>
-      </c>
-      <c r="B102" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="C102" s="54" t="s">
-        <v>252</v>
-      </c>
-      <c r="D102" s="54" t="s">
-        <v>247</v>
+        <v>318</v>
+      </c>
+      <c r="B102" s="53"/>
+      <c r="C102" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="D102" s="53" t="s">
+        <v>287</v>
       </c>
       <c r="F102" s="220"/>
       <c r="G102" s="220"/>
@@ -12480,18 +12721,14 @@
       <c r="I102" s="220"/>
       <c r="J102" s="220"/>
     </row>
-    <row r="103" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A103" s="216" t="s">
-        <v>248</v>
-      </c>
-      <c r="B103" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="C103" s="53" t="s">
-        <v>250</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B103" s="53"/>
+      <c r="C103" s="53"/>
       <c r="D103" s="53" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="F103" s="220"/>
       <c r="G103" s="220"/>
@@ -12499,13 +12736,11 @@
       <c r="I103" s="220"/>
       <c r="J103" s="220"/>
     </row>
-    <row r="104" spans="1:10" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="216" t="s">
-        <v>248</v>
-      </c>
-      <c r="B104" s="53" t="s">
-        <v>249</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="B104" s="53"/>
       <c r="C104" s="53"/>
       <c r="D104" s="53"/>
       <c r="F104" s="220"/>
@@ -12514,18 +12749,14 @@
       <c r="I104" s="220"/>
       <c r="J104" s="220"/>
     </row>
-    <row r="105" spans="1:10" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="216" t="s">
-        <v>248</v>
-      </c>
-      <c r="B105" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="C105" s="53" t="s">
-        <v>245</v>
-      </c>
-      <c r="D105" s="55" t="s">
-        <v>291</v>
+        <v>318</v>
+      </c>
+      <c r="B105" s="53"/>
+      <c r="C105" s="53"/>
+      <c r="D105" s="53" t="s">
+        <v>237</v>
       </c>
       <c r="F105" s="220"/>
       <c r="G105" s="220"/>
@@ -12533,34 +12764,43 @@
       <c r="I105" s="220"/>
       <c r="J105" s="220"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="215"/>
+    <row r="106" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="216" t="s">
+        <v>318</v>
+      </c>
+      <c r="B106" s="53"/>
+      <c r="C106" s="53"/>
+      <c r="D106" s="53"/>
       <c r="F106" s="220"/>
       <c r="G106" s="220"/>
       <c r="H106" s="220"/>
       <c r="I106" s="220"/>
       <c r="J106" s="220"/>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="215"/>
+    <row r="107" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="216"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="220"/>
       <c r="F107" s="220"/>
       <c r="G107" s="220"/>
       <c r="H107" s="220"/>
       <c r="I107" s="220"/>
       <c r="J107" s="220"/>
     </row>
-    <row r="108" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A108" s="216" t="s">
-        <v>254</v>
-      </c>
-      <c r="B108" s="56" t="s">
-        <v>255</v>
-      </c>
-      <c r="C108" s="56" t="s">
-        <v>256</v>
-      </c>
-      <c r="D108" s="56" t="s">
-        <v>257</v>
+        <v>318</v>
+      </c>
+      <c r="B108" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="C108" s="52" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" s="52" t="s">
+        <v>234</v>
       </c>
       <c r="F108" s="220"/>
       <c r="G108" s="220"/>
@@ -12568,16 +12808,16 @@
       <c r="I108" s="220"/>
       <c r="J108" s="220"/>
     </row>
-    <row r="109" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A109" s="216" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="B109" s="53"/>
-      <c r="C109" s="55" t="s">
-        <v>258</v>
-      </c>
-      <c r="D109" s="55" t="s">
-        <v>259</v>
+      <c r="C109" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="D109" s="64" t="s">
+        <v>289</v>
       </c>
       <c r="F109" s="220"/>
       <c r="G109" s="220"/>
@@ -12585,16 +12825,16 @@
       <c r="I109" s="220"/>
       <c r="J109" s="220"/>
     </row>
-    <row r="110" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="216" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="B110" s="53"/>
       <c r="C110" s="53" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="D110" s="53" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="F110" s="220"/>
       <c r="G110" s="220"/>
@@ -12602,14 +12842,14 @@
       <c r="I110" s="220"/>
       <c r="J110" s="220"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="216"/>
+    <row r="111" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="216" t="s">
+        <v>318</v>
+      </c>
       <c r="B111" s="53"/>
-      <c r="C111" s="53" t="s">
-        <v>262</v>
-      </c>
+      <c r="C111" s="53"/>
       <c r="D111" s="53" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="F111" s="220"/>
       <c r="G111" s="220"/>
@@ -12617,34 +12857,21 @@
       <c r="I111" s="220"/>
       <c r="J111" s="220"/>
     </row>
-    <row r="112" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A112" s="216" t="s">
-        <v>254</v>
+        <v>318</v>
       </c>
       <c r="B112" s="53"/>
-      <c r="C112" s="53" t="s">
-        <v>264</v>
-      </c>
-      <c r="D112" s="53" t="s">
-        <v>265</v>
-      </c>
+      <c r="C112" s="53"/>
+      <c r="D112" s="53"/>
       <c r="F112" s="220"/>
       <c r="G112" s="220"/>
       <c r="H112" s="220"/>
       <c r="I112" s="220"/>
       <c r="J112" s="220"/>
     </row>
-    <row r="113" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="216" t="s">
-        <v>254</v>
-      </c>
-      <c r="B113" s="53"/>
-      <c r="C113" s="53" t="s">
-        <v>266</v>
-      </c>
-      <c r="D113" s="53" t="s">
-        <v>267</v>
-      </c>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="215"/>
       <c r="F113" s="220"/>
       <c r="G113" s="220"/>
       <c r="H113" s="220"/>
@@ -12652,46 +12879,70 @@
       <c r="J113" s="220"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="215"/>
+      <c r="A114" s="216" t="s">
+        <v>248</v>
+      </c>
+      <c r="B114" s="54" t="s">
+        <v>253</v>
+      </c>
+      <c r="C114" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="D114" s="54" t="s">
+        <v>247</v>
+      </c>
       <c r="F114" s="220"/>
       <c r="G114" s="220"/>
       <c r="H114" s="220"/>
       <c r="I114" s="220"/>
       <c r="J114" s="220"/>
     </row>
-    <row r="115" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="215"/>
+    <row r="115" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A115" s="216" t="s">
+        <v>248</v>
+      </c>
+      <c r="B115" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D115" s="53" t="s">
+        <v>290</v>
+      </c>
       <c r="F115" s="220"/>
       <c r="G115" s="220"/>
       <c r="H115" s="220"/>
       <c r="I115" s="220"/>
       <c r="J115" s="220"/>
     </row>
-    <row r="116" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="216" t="s">
-        <v>268</v>
-      </c>
-      <c r="B116" s="57"/>
-      <c r="C116" s="58" t="s">
-        <v>269</v>
-      </c>
-      <c r="D116" s="59" t="s">
-        <v>270</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="B116" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" s="53"/>
+      <c r="D116" s="53"/>
       <c r="F116" s="220"/>
       <c r="G116" s="220"/>
       <c r="H116" s="220"/>
       <c r="I116" s="220"/>
       <c r="J116" s="220"/>
     </row>
-    <row r="117" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A117" s="216"/>
-      <c r="B117" s="60"/>
-      <c r="C117" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="D117" s="61" t="s">
-        <v>272</v>
+    <row r="117" spans="1:10" ht="236.25" x14ac:dyDescent="0.25">
+      <c r="A117" s="216" t="s">
+        <v>248</v>
+      </c>
+      <c r="B117" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="C117" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="D117" s="55" t="s">
+        <v>291</v>
       </c>
       <c r="F117" s="220"/>
       <c r="G117" s="220"/>
@@ -12699,88 +12950,118 @@
       <c r="I117" s="220"/>
       <c r="J117" s="220"/>
     </row>
-    <row r="118" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="216"/>
-      <c r="B118" s="60"/>
-      <c r="C118" s="60"/>
-      <c r="D118" s="61" t="s">
-        <v>273</v>
-      </c>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="215"/>
       <c r="F118" s="220"/>
       <c r="G118" s="220"/>
       <c r="H118" s="220"/>
       <c r="I118" s="220"/>
       <c r="J118" s="220"/>
     </row>
-    <row r="119" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="216"/>
-      <c r="B119" s="60"/>
-      <c r="C119" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="D119" s="61" t="s">
-        <v>275</v>
-      </c>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="215"/>
       <c r="F119" s="220"/>
       <c r="G119" s="220"/>
       <c r="H119" s="220"/>
       <c r="I119" s="220"/>
       <c r="J119" s="220"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="216"/>
-      <c r="B120" s="60"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="61"/>
+    <row r="120" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A120" s="216" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" s="56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" s="56" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" s="56" t="s">
+        <v>257</v>
+      </c>
       <c r="F120" s="220"/>
       <c r="G120" s="220"/>
       <c r="H120" s="220"/>
       <c r="I120" s="220"/>
       <c r="J120" s="220"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="216"/>
-      <c r="B121" s="60"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="61"/>
+    <row r="121" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A121" s="216" t="s">
+        <v>254</v>
+      </c>
+      <c r="B121" s="53"/>
+      <c r="C121" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D121" s="55" t="s">
+        <v>259</v>
+      </c>
       <c r="F121" s="220"/>
       <c r="G121" s="220"/>
       <c r="H121" s="220"/>
       <c r="I121" s="220"/>
       <c r="J121" s="220"/>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="216"/>
-      <c r="B122" s="60"/>
-      <c r="C122" s="60"/>
-      <c r="D122" s="61"/>
+    <row r="122" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A122" s="216" t="s">
+        <v>254</v>
+      </c>
+      <c r="B122" s="53"/>
+      <c r="C122" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="D122" s="53" t="s">
+        <v>261</v>
+      </c>
       <c r="F122" s="220"/>
       <c r="G122" s="220"/>
       <c r="H122" s="220"/>
       <c r="I122" s="220"/>
       <c r="J122" s="220"/>
     </row>
-    <row r="123" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="216"/>
-      <c r="B123" s="62"/>
-      <c r="C123" s="62"/>
-      <c r="D123" s="63"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="D123" s="53" t="s">
+        <v>263</v>
+      </c>
       <c r="F123" s="220"/>
       <c r="G123" s="220"/>
       <c r="H123" s="220"/>
       <c r="I123" s="220"/>
       <c r="J123" s="220"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="216"/>
+    <row r="124" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="216" t="s">
+        <v>254</v>
+      </c>
+      <c r="B124" s="53"/>
+      <c r="C124" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="D124" s="53" t="s">
+        <v>265</v>
+      </c>
       <c r="F124" s="220"/>
       <c r="G124" s="220"/>
       <c r="H124" s="220"/>
       <c r="I124" s="220"/>
       <c r="J124" s="220"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="215"/>
+    <row r="125" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A125" s="216" t="s">
+        <v>254</v>
+      </c>
+      <c r="B125" s="53"/>
+      <c r="C125" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="D125" s="53" t="s">
+        <v>267</v>
+      </c>
       <c r="F125" s="220"/>
       <c r="G125" s="220"/>
       <c r="H125" s="220"/>
@@ -12795,7 +13076,7 @@
       <c r="I126" s="220"/>
       <c r="J126" s="220"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="215"/>
       <c r="F127" s="220"/>
       <c r="G127" s="220"/>
@@ -12803,32 +13084,60 @@
       <c r="I127" s="220"/>
       <c r="J127" s="220"/>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="215"/>
+    <row r="128" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A128" s="216" t="s">
+        <v>268</v>
+      </c>
+      <c r="B128" s="57"/>
+      <c r="C128" s="58" t="s">
+        <v>269</v>
+      </c>
+      <c r="D128" s="59" t="s">
+        <v>270</v>
+      </c>
       <c r="F128" s="220"/>
       <c r="G128" s="220"/>
       <c r="H128" s="220"/>
       <c r="I128" s="220"/>
       <c r="J128" s="220"/>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" s="215"/>
+    <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="216"/>
+      <c r="B129" s="60"/>
+      <c r="C129" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="D129" s="61" t="s">
+        <v>272</v>
+      </c>
       <c r="F129" s="220"/>
       <c r="G129" s="220"/>
       <c r="H129" s="220"/>
       <c r="I129" s="220"/>
       <c r="J129" s="220"/>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="215"/>
+    <row r="130" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A130" s="216"/>
+      <c r="B130" s="60"/>
+      <c r="C130" s="60"/>
+      <c r="D130" s="61" t="s">
+        <v>273</v>
+      </c>
       <c r="F130" s="220"/>
       <c r="G130" s="220"/>
       <c r="H130" s="220"/>
       <c r="I130" s="220"/>
       <c r="J130" s="220"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="215"/>
+    <row r="131" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A131" s="216"/>
+      <c r="B131" s="60"/>
+      <c r="C131" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="D131" s="61" t="s">
+        <v>275</v>
+      </c>
       <c r="F131" s="220"/>
       <c r="G131" s="220"/>
       <c r="H131" s="220"/>
@@ -12836,7 +13145,10 @@
       <c r="J131" s="220"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="215"/>
+      <c r="A132" s="216"/>
+      <c r="B132" s="60"/>
+      <c r="C132" s="60"/>
+      <c r="D132" s="61"/>
       <c r="F132" s="220"/>
       <c r="G132" s="220"/>
       <c r="H132" s="220"/>
@@ -12844,7 +13156,10 @@
       <c r="J132" s="220"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="215"/>
+      <c r="A133" s="216"/>
+      <c r="B133" s="60"/>
+      <c r="C133" s="60"/>
+      <c r="D133" s="61"/>
       <c r="F133" s="220"/>
       <c r="G133" s="220"/>
       <c r="H133" s="220"/>
@@ -12852,15 +13167,21 @@
       <c r="J133" s="220"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="215"/>
+      <c r="A134" s="216"/>
+      <c r="B134" s="60"/>
+      <c r="C134" s="60"/>
+      <c r="D134" s="61"/>
       <c r="F134" s="220"/>
       <c r="G134" s="220"/>
       <c r="H134" s="220"/>
       <c r="I134" s="220"/>
       <c r="J134" s="220"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="215"/>
+    <row r="135" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="216"/>
+      <c r="B135" s="62"/>
+      <c r="C135" s="62"/>
+      <c r="D135" s="63"/>
       <c r="F135" s="220"/>
       <c r="G135" s="220"/>
       <c r="H135" s="220"/>
@@ -12868,7 +13189,7 @@
       <c r="J135" s="220"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="215"/>
+      <c r="A136" s="216"/>
       <c r="F136" s="220"/>
       <c r="G136" s="220"/>
       <c r="H136" s="220"/>
@@ -12940,7 +13261,7 @@
       <c r="J144" s="220"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="217"/>
+      <c r="A145" s="215"/>
       <c r="F145" s="220"/>
       <c r="G145" s="220"/>
       <c r="H145" s="220"/>
@@ -12948,6 +13269,7 @@
       <c r="J145" s="220"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="215"/>
       <c r="F146" s="220"/>
       <c r="G146" s="220"/>
       <c r="H146" s="220"/>
@@ -12955,6 +13277,7 @@
       <c r="J146" s="220"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="215"/>
       <c r="F147" s="220"/>
       <c r="G147" s="220"/>
       <c r="H147" s="220"/>
@@ -12962,6 +13285,7 @@
       <c r="J147" s="220"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="215"/>
       <c r="F148" s="220"/>
       <c r="G148" s="220"/>
       <c r="H148" s="220"/>
@@ -12969,6 +13293,7 @@
       <c r="J148" s="220"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="215"/>
       <c r="F149" s="220"/>
       <c r="G149" s="220"/>
       <c r="H149" s="220"/>
@@ -12976,6 +13301,7 @@
       <c r="J149" s="220"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="215"/>
       <c r="F150" s="220"/>
       <c r="G150" s="220"/>
       <c r="H150" s="220"/>
@@ -12983,6 +13309,7 @@
       <c r="J150" s="220"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="215"/>
       <c r="F151" s="220"/>
       <c r="G151" s="220"/>
       <c r="H151" s="220"/>
@@ -12990,6 +13317,7 @@
       <c r="J151" s="220"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="215"/>
       <c r="F152" s="220"/>
       <c r="G152" s="220"/>
       <c r="H152" s="220"/>
@@ -12997,6 +13325,7 @@
       <c r="J152" s="220"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="215"/>
       <c r="F153" s="220"/>
       <c r="G153" s="220"/>
       <c r="H153" s="220"/>
@@ -13004,6 +13333,7 @@
       <c r="J153" s="220"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="215"/>
       <c r="F154" s="220"/>
       <c r="G154" s="220"/>
       <c r="H154" s="220"/>
@@ -13011,6 +13341,7 @@
       <c r="J154" s="220"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="215"/>
       <c r="F155" s="220"/>
       <c r="G155" s="220"/>
       <c r="H155" s="220"/>
@@ -13018,6 +13349,7 @@
       <c r="J155" s="220"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="215"/>
       <c r="F156" s="220"/>
       <c r="G156" s="220"/>
       <c r="H156" s="220"/>
@@ -13025,6 +13357,7 @@
       <c r="J156" s="220"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="217"/>
       <c r="F157" s="220"/>
       <c r="G157" s="220"/>
       <c r="H157" s="220"/>
@@ -13150,7 +13483,94 @@
       <c r="I174" s="220"/>
       <c r="J174" s="220"/>
     </row>
+    <row r="175" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F175" s="220"/>
+      <c r="G175" s="220"/>
+      <c r="H175" s="220"/>
+      <c r="I175" s="220"/>
+      <c r="J175" s="220"/>
+    </row>
+    <row r="176" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F176" s="220"/>
+      <c r="G176" s="220"/>
+      <c r="H176" s="220"/>
+      <c r="I176" s="220"/>
+      <c r="J176" s="220"/>
+    </row>
+    <row r="177" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F177" s="220"/>
+      <c r="G177" s="220"/>
+      <c r="H177" s="220"/>
+      <c r="I177" s="220"/>
+      <c r="J177" s="220"/>
+    </row>
+    <row r="178" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F178" s="220"/>
+      <c r="G178" s="220"/>
+      <c r="H178" s="220"/>
+      <c r="I178" s="220"/>
+      <c r="J178" s="220"/>
+    </row>
+    <row r="179" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F179" s="220"/>
+      <c r="G179" s="220"/>
+      <c r="H179" s="220"/>
+      <c r="I179" s="220"/>
+      <c r="J179" s="220"/>
+    </row>
+    <row r="180" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F180" s="220"/>
+      <c r="G180" s="220"/>
+      <c r="H180" s="220"/>
+      <c r="I180" s="220"/>
+      <c r="J180" s="220"/>
+    </row>
+    <row r="181" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F181" s="220"/>
+      <c r="G181" s="220"/>
+      <c r="H181" s="220"/>
+      <c r="I181" s="220"/>
+      <c r="J181" s="220"/>
+    </row>
+    <row r="182" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F182" s="220"/>
+      <c r="G182" s="220"/>
+      <c r="H182" s="220"/>
+      <c r="I182" s="220"/>
+      <c r="J182" s="220"/>
+    </row>
+    <row r="183" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F183" s="220"/>
+      <c r="G183" s="220"/>
+      <c r="H183" s="220"/>
+      <c r="I183" s="220"/>
+      <c r="J183" s="220"/>
+    </row>
+    <row r="184" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F184" s="220"/>
+      <c r="G184" s="220"/>
+      <c r="H184" s="220"/>
+      <c r="I184" s="220"/>
+      <c r="J184" s="220"/>
+    </row>
+    <row r="185" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F185" s="220"/>
+      <c r="G185" s="220"/>
+      <c r="H185" s="220"/>
+      <c r="I185" s="220"/>
+      <c r="J185" s="220"/>
+    </row>
+    <row r="186" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F186" s="220"/>
+      <c r="G186" s="220"/>
+      <c r="H186" s="220"/>
+      <c r="I186" s="220"/>
+      <c r="J186" s="220"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B82:B83"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -13159,10 +13579,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C9"/>
+  <dimension ref="B3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13170,11 +13590,13 @@
     <col min="1" max="1" width="9.140625" style="234"/>
     <col min="2" max="2" width="21.85546875" style="234" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.28515625" style="234" customWidth="1"/>
-    <col min="4" max="4" width="47.42578125" style="234" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="234"/>
+    <col min="4" max="4" width="55.85546875" style="234" customWidth="1"/>
+    <col min="5" max="5" width="51.5703125" style="234" customWidth="1"/>
+    <col min="6" max="6" width="62.140625" style="234" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="234"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="234" t="s">
         <v>476</v>
       </c>
@@ -13182,7 +13604,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="234" t="s">
         <v>476</v>
       </c>
@@ -13190,7 +13612,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="234" t="s">
         <v>476</v>
       </c>
@@ -13198,7 +13620,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
       <c r="B9" s="234" t="s">
         <v>480</v>
       </c>
@@ -13206,7 +13628,19 @@
         <v>481</v>
       </c>
     </row>
+    <row r="10" spans="2:4" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="234" t="s">
+        <v>557</v>
+      </c>
+      <c r="C10" s="234" t="s">
+        <v>559</v>
+      </c>
+      <c r="D10" s="234" t="s">
+        <v>558</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/System_Design_Architecture.xlsx
+++ b/System_Design_Architecture.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3EEB9CC2-56EE-F048-8CAD-2AD34F399C6E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740" tabRatio="896" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="896" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="565">
   <si>
     <t>Scalability</t>
   </si>
@@ -2620,9 +2621,6 @@
     <t>Dis-Adv</t>
   </si>
   <si>
-    <t>Maintain two layers are difficult.</t>
-  </si>
-  <si>
     <t>Kappa Architecture</t>
   </si>
   <si>
@@ -2773,11 +2771,33 @@
 -- Use Framework
 -- Use Tools</t>
   </si>
+  <si>
+    <t>Lambda application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Maintain two layers are difficult. Any changes need to be done both layers
+-- Double processing required
+-- </t>
+  </si>
+  <si>
+    <t>-- Good for Log monitoring
+-- Good for Data synchronization</t>
+  </si>
+  <si>
+    <t>Kappa application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- </t>
+  </si>
+  <si>
+    <t>-- Only one processing required;
+-- Multiple type of analysis possible</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2940,7 +2960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="98">
+  <borders count="101">
     <border>
       <left/>
       <right/>
@@ -4257,12 +4277,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5065,49 +5120,64 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5116,21 +5186,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5170,9 +5225,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5211,7 +5281,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5249,7 +5325,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5292,7 +5374,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5348,7 +5436,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5386,7 +5480,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5439,7 +5539,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5492,7 +5598,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5545,7 +5657,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5598,7 +5716,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5648,7 +5772,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5701,7 +5831,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5754,7 +5890,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="https://www.talend.com/wp-content/uploads/image002.png"/>
+        <xdr:cNvPr id="11" name="Picture 10" descr="https://www.talend.com/wp-content/uploads/image002.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5807,18 +5949,24 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>3305175</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>1428750</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="https://www.talend.com/wp-content/uploads/image004.png"/>
+        <xdr:cNvPr id="12" name="Picture 11" descr="https://www.talend.com/wp-content/uploads/image004.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5858,6 +6006,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185855</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>123908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4486618</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2117300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94C42B20-7656-024F-82F6-60C74339E474}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9571465" y="18848664"/>
+          <a:ext cx="7305397" cy="1993392"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>185854</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>108458</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4222100</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>59985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B5B1A32-D4AF-664D-AF56-018A225557DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9571464" y="24377848"/>
+          <a:ext cx="7040880" cy="1748113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5878,7 +6114,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5921,7 +6163,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5988,7 +6236,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6046,7 +6300,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6114,7 +6374,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6187,7 +6453,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6245,7 +6517,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6304,7 +6582,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6357,7 +6641,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6415,7 +6705,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6468,7 +6764,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6521,7 +6823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6862,21 +7170,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E39"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="68.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="4.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="68.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="75" x14ac:dyDescent="0.2">
@@ -6936,7 +7244,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="2:5" s="2" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" s="2" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>71</v>
       </c>
@@ -6947,7 +7255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="2:5" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
@@ -6958,7 +7266,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="45" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
@@ -6966,7 +7274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
@@ -6974,7 +7282,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>29</v>
       </c>
@@ -6982,12 +7290,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
@@ -6995,7 +7303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>88</v>
       </c>
@@ -7006,7 +7314,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>88</v>
       </c>
@@ -7017,7 +7325,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="30" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,7 +7336,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>88</v>
       </c>
@@ -7039,7 +7347,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" ht="30" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>88</v>
       </c>
@@ -7050,7 +7358,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" ht="90" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>100</v>
       </c>
@@ -7058,31 +7366,31 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" ht="45" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="60" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="C39" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>546</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="B39" s="1" t="s">
-        <v>544</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -7091,27 +7399,27 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="C3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="65.85546875" customWidth="1"/>
-    <col min="4" max="4" width="72.140625" customWidth="1"/>
-    <col min="5" max="5" width="83.140625" customWidth="1"/>
+    <col min="3" max="3" width="65.83203125" customWidth="1"/>
+    <col min="4" max="4" width="72.1640625" customWidth="1"/>
+    <col min="5" max="5" width="83.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="3:5" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:5" s="1" customFormat="1" ht="198" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="217.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:5" ht="217.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="236"/>
       <c r="E5" s="236"/>
     </row>
@@ -7122,27 +7430,27 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="175" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="175" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" style="175" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" style="175" customWidth="1"/>
-    <col min="5" max="5" width="31.85546875" style="175" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" style="175" customWidth="1"/>
-    <col min="7" max="7" width="64.42578125" style="175" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="175"/>
+    <col min="1" max="1" width="3.5" style="175" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="175" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5" style="175" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" style="175" customWidth="1"/>
+    <col min="5" max="5" width="31.83203125" style="175" customWidth="1"/>
+    <col min="6" max="6" width="41.1640625" style="175" customWidth="1"/>
+    <col min="7" max="7" width="64.5" style="175" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="175"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" s="183"/>
       <c r="C3" s="184"/>
       <c r="D3" s="184"/>
@@ -7151,7 +7459,7 @@
       <c r="G3" s="184"/>
       <c r="H3" s="185"/>
     </row>
-    <row r="4" spans="1:8" s="176" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="176" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="178"/>
       <c r="C4" s="299" t="s">
         <v>220</v>
@@ -7164,7 +7472,7 @@
       <c r="G4" s="68"/>
       <c r="H4" s="179"/>
     </row>
-    <row r="5" spans="1:8" s="176" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="176" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="178" t="s">
         <v>222</v>
       </c>
@@ -7181,7 +7489,7 @@
       </c>
       <c r="H5" s="179"/>
     </row>
-    <row r="6" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="186"/>
       <c r="C6" s="297" t="s">
         <v>427</v>
@@ -7196,7 +7504,7 @@
       </c>
       <c r="H6" s="187"/>
     </row>
-    <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="175" t="s">
         <v>339</v>
       </c>
@@ -7214,7 +7522,7 @@
       <c r="G7" s="180"/>
       <c r="H7" s="187"/>
     </row>
-    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="B8" s="186" t="s">
         <v>462</v>
       </c>
@@ -7231,7 +7539,7 @@
       </c>
       <c r="H8" s="187"/>
     </row>
-    <row r="9" spans="1:8" s="202" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="202" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="212" t="s">
         <v>461</v>
       </c>
@@ -7244,7 +7552,7 @@
       <c r="G9" s="213"/>
       <c r="H9" s="214"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="188"/>
       <c r="C10" s="181"/>
       <c r="D10" s="181"/>
@@ -7253,8 +7561,8 @@
       <c r="G10" s="181"/>
       <c r="H10" s="189"/>
     </row>
-    <row r="12" spans="1:8" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="177" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:8" s="177" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B13" s="177" t="s">
         <v>382</v>
       </c>
@@ -7268,7 +7576,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="177" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="177" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="B14" s="177" t="s">
         <v>382</v>
       </c>
@@ -7286,7 +7594,7 @@
       </c>
       <c r="G14" s="294"/>
     </row>
-    <row r="15" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="177" t="s">
         <v>382</v>
       </c>
@@ -7296,7 +7604,7 @@
       <c r="F15" s="177"/>
       <c r="G15" s="294"/>
     </row>
-    <row r="17" spans="2:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="45" x14ac:dyDescent="0.2">
       <c r="B17" s="175" t="s">
         <v>457</v>
       </c>
@@ -7304,7 +7612,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="19" spans="2:3" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" s="176" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="B19" s="176" t="s">
         <v>226</v>
       </c>
@@ -7312,7 +7620,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="22" spans="2:3" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" s="176" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="B22" s="176" t="s">
         <v>228</v>
       </c>
@@ -7320,7 +7628,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="23" spans="2:3" s="176" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" s="176" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B23" s="176" t="s">
         <v>230</v>
       </c>
@@ -7328,7 +7636,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="24" spans="2:3" s="177" customFormat="1" ht="11.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3" s="177" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B24" s="182"/>
     </row>
   </sheetData>
@@ -7354,24 +7662,24 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A3:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="174"/>
-    <col min="2" max="2" width="11.85546875" style="174" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="174"/>
+    <col min="2" max="2" width="11.83203125" style="174" customWidth="1"/>
     <col min="3" max="3" width="83" style="174" customWidth="1"/>
-    <col min="4" max="4" width="55.7109375" style="174" customWidth="1"/>
-    <col min="5" max="5" width="68.5703125" style="174" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="174"/>
+    <col min="4" max="4" width="55.6640625" style="174" customWidth="1"/>
+    <col min="5" max="5" width="68.5" style="174" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="174"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" s="174" t="s">
         <v>276</v>
       </c>
@@ -7379,7 +7687,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="B6" s="174" t="s">
         <v>393</v>
       </c>
@@ -7390,7 +7698,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="B7" s="174" t="s">
         <v>397</v>
       </c>
@@ -7398,7 +7706,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B8" s="174" t="s">
         <v>400</v>
       </c>
@@ -7406,7 +7714,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B11" s="174" t="s">
         <v>402</v>
       </c>
@@ -7414,7 +7722,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B12" s="174" t="s">
         <v>403</v>
       </c>
@@ -7422,7 +7730,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="174" t="s">
         <v>414</v>
       </c>
@@ -7433,12 +7741,12 @@
         <v>498</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" s="174" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="B16" s="174" t="s">
         <v>411</v>
       </c>
@@ -7446,7 +7754,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="174" t="s">
         <v>414</v>
       </c>
@@ -7454,7 +7762,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="174" t="s">
         <v>414</v>
       </c>
@@ -7462,7 +7770,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="45" x14ac:dyDescent="0.2">
       <c r="B19" s="174" t="s">
         <v>416</v>
       </c>
@@ -7473,7 +7781,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.2">
       <c r="B20" s="174" t="s">
         <v>417</v>
       </c>
@@ -7487,15 +7795,15 @@
         <v>421</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B21" s="174" t="s">
+        <v>535</v>
+      </c>
+      <c r="C21" s="174" t="s">
         <v>536</v>
       </c>
-      <c r="C21" s="174" t="s">
+      <c r="D21" s="83" t="s">
         <v>537</v>
-      </c>
-      <c r="D21" s="83" t="s">
-        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -7504,24 +7812,24 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B4:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="80"/>
-    <col min="2" max="2" width="14.85546875" style="80" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="80"/>
+    <col min="2" max="2" width="14.83203125" style="80" customWidth="1"/>
     <col min="3" max="3" width="36" style="80" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="80" customWidth="1"/>
-    <col min="5" max="5" width="31.7109375" style="80" customWidth="1"/>
-    <col min="6" max="6" width="32.42578125" style="80" customWidth="1"/>
-    <col min="7" max="7" width="25.140625" style="80" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" style="80" customWidth="1"/>
-    <col min="9" max="16384" width="10.85546875" style="80"/>
+    <col min="4" max="4" width="16.83203125" style="80" customWidth="1"/>
+    <col min="5" max="5" width="31.6640625" style="80" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="80" customWidth="1"/>
+    <col min="7" max="7" width="25.1640625" style="80" customWidth="1"/>
+    <col min="8" max="8" width="26.83203125" style="80" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="80"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
@@ -7546,7 +7854,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.2">
       <c r="C6" s="83" t="s">
         <v>343</v>
       </c>
@@ -7582,7 +7890,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" ht="75" x14ac:dyDescent="0.2">
       <c r="E14" s="80" t="s">
         <v>351</v>
       </c>
@@ -7602,31 +7910,31 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B4:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="33.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="23.140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="14" customWidth="1"/>
-    <col min="9" max="9" width="24.28515625" style="14" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="33.5" style="14" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" style="14" customWidth="1"/>
+    <col min="10" max="10" width="27.6640625" style="14" customWidth="1"/>
     <col min="11" max="11" width="30" style="14" customWidth="1"/>
-    <col min="12" max="12" width="32.28515625" style="14" customWidth="1"/>
-    <col min="13" max="16384" width="10.85546875" style="14"/>
+    <col min="12" max="12" width="32.33203125" style="14" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="81" t="s">
         <v>324</v>
       </c>
@@ -7659,7 +7967,7 @@
       <c r="M4" s="81"/>
       <c r="N4" s="81"/>
     </row>
-    <row r="5" spans="2:14" ht="59.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" ht="59" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>324</v>
       </c>
@@ -7682,25 +7990,25 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="2"/>
-    <col min="2" max="2" width="21.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>383</v>
       </c>
@@ -7708,7 +8016,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>385</v>
       </c>
@@ -7716,7 +8024,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>387</v>
       </c>
@@ -7724,7 +8032,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="60" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>389</v>
       </c>
@@ -7732,7 +8040,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="36" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>390</v>
       </c>
@@ -7747,40 +8055,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:G64"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71" style="2" customWidth="1"/>
-    <col min="5" max="5" width="63.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="63.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="3:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
@@ -7793,7 +8101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="3:4" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
@@ -7801,7 +8109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="3:4" ht="37.35" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:4" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
@@ -7817,7 +8125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="3:4" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:4" ht="53.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="2" t="s">
         <v>17</v>
       </c>
@@ -7825,7 +8133,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
         <v>394</v>
       </c>
@@ -7833,12 +8141,12 @@
         <v>395</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:5" ht="12" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C19" s="2" t="s">
         <v>19</v>
       </c>
@@ -7851,7 +8159,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="2:5" s="1" customFormat="1" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" s="1" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
@@ -7859,7 +8167,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>58</v>
       </c>
@@ -7867,7 +8175,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="2:5" s="1" customFormat="1" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" s="1" customFormat="1" ht="34.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>59</v>
       </c>
@@ -7875,7 +8183,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="C25" s="2" t="s">
         <v>461</v>
       </c>
@@ -7886,7 +8194,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="24" x14ac:dyDescent="0.2">
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
@@ -7894,7 +8202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
@@ -7905,7 +8213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>40</v>
       </c>
@@ -7916,7 +8224,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="24" x14ac:dyDescent="0.2">
       <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
@@ -7927,7 +8235,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>64</v>
       </c>
@@ -7938,7 +8246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
@@ -7949,7 +8257,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C37" s="2" t="s">
         <v>75</v>
       </c>
@@ -7957,12 +8265,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C38" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="48" x14ac:dyDescent="0.2">
       <c r="C39" s="2" t="s">
         <v>65</v>
       </c>
@@ -7970,7 +8278,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>406</v>
       </c>
@@ -7978,7 +8286,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>406</v>
       </c>
@@ -7989,7 +8297,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>406</v>
       </c>
@@ -8000,7 +8308,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>406</v>
       </c>
@@ -8011,7 +8319,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>406</v>
       </c>
@@ -8019,7 +8327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>406</v>
       </c>
@@ -8030,7 +8338,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="2" t="s">
         <v>423</v>
       </c>
@@ -8038,7 +8346,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="2" t="s">
         <v>367</v>
       </c>
@@ -8049,16 +8357,16 @@
         <v>483</v>
       </c>
     </row>
-    <row r="49" spans="2:7" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" ht="132" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -8066,7 +8374,7 @@
       <c r="F57" s="5"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" ht="24" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>41</v>
       </c>
@@ -8080,7 +8388,7 @@
       <c r="F58" s="259"/>
       <c r="G58" s="9"/>
     </row>
-    <row r="59" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" ht="72" x14ac:dyDescent="0.2">
       <c r="B59" s="7" t="s">
         <v>41</v>
       </c>
@@ -8094,7 +8402,7 @@
       <c r="F59" s="261"/>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="2:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" ht="72" x14ac:dyDescent="0.2">
       <c r="B60" s="7" t="s">
         <v>41</v>
       </c>
@@ -8108,7 +8416,7 @@
       <c r="F60" s="261"/>
       <c r="G60" s="9"/>
     </row>
-    <row r="61" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B61" s="7" t="s">
         <v>41</v>
       </c>
@@ -8122,7 +8430,7 @@
       <c r="F61" s="261"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="2:7" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B62" s="7" t="s">
         <v>41</v>
       </c>
@@ -8136,7 +8444,7 @@
       <c r="F62" s="261"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="2:7" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" ht="36" x14ac:dyDescent="0.2">
       <c r="B63" s="7" t="s">
         <v>41</v>
       </c>
@@ -8150,7 +8458,7 @@
       <c r="F63" s="263"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -8169,7 +8477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -8179,17 +8487,17 @@
       <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="84" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" style="84" customWidth="1"/>
-    <col min="4" max="4" width="42.7109375" style="84" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" style="84" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="84"/>
+    <col min="1" max="1" width="3.33203125" style="84" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="84" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" style="84" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" style="84" customWidth="1"/>
+    <col min="5" max="5" width="42.83203125" style="84" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="84"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="84" t="s">
         <v>115</v>
       </c>
@@ -8197,8 +8505,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="85"/>
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
@@ -8206,7 +8514,7 @@
       <c r="F5" s="86"/>
       <c r="G5" s="87"/>
     </row>
-    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="65" x14ac:dyDescent="0.2">
       <c r="A6" s="84" t="s">
         <v>305</v>
       </c>
@@ -8221,7 +8529,7 @@
       <c r="F6" s="90"/>
       <c r="G6" s="91"/>
     </row>
-    <row r="7" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="78" x14ac:dyDescent="0.2">
       <c r="B7" s="92"/>
       <c r="C7" s="93" t="s">
         <v>299</v>
@@ -8233,7 +8541,7 @@
       <c r="F7" s="90"/>
       <c r="G7" s="91"/>
     </row>
-    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="39" x14ac:dyDescent="0.2">
       <c r="B8" s="94"/>
       <c r="C8" s="95" t="s">
         <v>103</v>
@@ -8245,7 +8553,7 @@
       <c r="F8" s="97"/>
       <c r="G8" s="98"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="94"/>
       <c r="C9" s="95" t="s">
         <v>104</v>
@@ -8257,7 +8565,7 @@
       <c r="F9" s="97"/>
       <c r="G9" s="98"/>
     </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="26" x14ac:dyDescent="0.2">
       <c r="B10" s="94"/>
       <c r="C10" s="95" t="s">
         <v>105</v>
@@ -8269,7 +8577,7 @@
       <c r="F10" s="97"/>
       <c r="G10" s="98"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" s="94"/>
       <c r="C11" s="95" t="s">
         <v>300</v>
@@ -8281,7 +8589,7 @@
       <c r="F11" s="97"/>
       <c r="G11" s="98"/>
     </row>
-    <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="99"/>
       <c r="C12" s="100"/>
       <c r="D12" s="100"/>
@@ -8289,8 +8597,8 @@
       <c r="F12" s="100"/>
       <c r="G12" s="101"/>
     </row>
-    <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="85"/>
       <c r="C14" s="86"/>
       <c r="D14" s="86"/>
@@ -8298,7 +8606,7 @@
       <c r="F14" s="86"/>
       <c r="G14" s="87"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="84" t="s">
         <v>305</v>
       </c>
@@ -8313,7 +8621,7 @@
       <c r="F15" s="90"/>
       <c r="G15" s="91"/>
     </row>
-    <row r="16" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="99"/>
       <c r="C16" s="100"/>
       <c r="D16" s="100"/>
@@ -8321,7 +8629,7 @@
       <c r="F16" s="100"/>
       <c r="G16" s="101"/>
     </row>
-    <row r="17" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="102"/>
       <c r="C17" s="102"/>
       <c r="D17" s="102"/>
@@ -8329,7 +8637,7 @@
       <c r="F17" s="102"/>
       <c r="G17" s="102"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="85"/>
       <c r="C18" s="86"/>
       <c r="D18" s="86"/>
@@ -8337,7 +8645,7 @@
       <c r="F18" s="86"/>
       <c r="G18" s="87"/>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="103" t="s">
         <v>107</v>
       </c>
@@ -8347,7 +8655,7 @@
       <c r="F19" s="104"/>
       <c r="G19" s="105"/>
     </row>
-    <row r="20" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="99"/>
       <c r="C20" s="100"/>
       <c r="D20" s="100"/>
@@ -8355,8 +8663,8 @@
       <c r="F20" s="100"/>
       <c r="G20" s="101"/>
     </row>
-    <row r="21" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="85"/>
       <c r="C22" s="86"/>
       <c r="D22" s="86"/>
@@ -8364,7 +8672,7 @@
       <c r="F22" s="86"/>
       <c r="G22" s="87"/>
     </row>
-    <row r="23" spans="2:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" ht="52" x14ac:dyDescent="0.2">
       <c r="B23" s="106" t="s">
         <v>378</v>
       </c>
@@ -8378,7 +8686,7 @@
       <c r="F23" s="90"/>
       <c r="G23" s="91"/>
     </row>
-    <row r="24" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="108"/>
       <c r="C24" s="109" t="s">
         <v>361</v>
@@ -8392,7 +8700,7 @@
       <c r="F24" s="97"/>
       <c r="G24" s="98"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="108"/>
       <c r="C25" s="109" t="s">
         <v>91</v>
@@ -8406,7 +8714,7 @@
       <c r="F25" s="97"/>
       <c r="G25" s="98"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="108"/>
       <c r="C26" s="109" t="s">
         <v>362</v>
@@ -8418,7 +8726,7 @@
       <c r="F26" s="97"/>
       <c r="G26" s="98"/>
     </row>
-    <row r="27" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="99"/>
       <c r="C27" s="100"/>
       <c r="D27" s="100"/>
@@ -8426,7 +8734,7 @@
       <c r="F27" s="100"/>
       <c r="G27" s="101"/>
     </row>
-    <row r="28" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="102"/>
       <c r="C28" s="102"/>
       <c r="D28" s="102"/>
@@ -8434,7 +8742,7 @@
       <c r="F28" s="102"/>
       <c r="G28" s="102"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="85"/>
       <c r="C29" s="86"/>
       <c r="D29" s="86"/>
@@ -8442,7 +8750,7 @@
       <c r="F29" s="86"/>
       <c r="G29" s="87"/>
     </row>
-    <row r="30" spans="2:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" ht="52" x14ac:dyDescent="0.2">
       <c r="B30" s="103" t="s">
         <v>367</v>
       </c>
@@ -8456,7 +8764,7 @@
       <c r="F30" s="104"/>
       <c r="G30" s="105"/>
     </row>
-    <row r="31" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="99"/>
       <c r="C31" s="100"/>
       <c r="D31" s="100"/>
@@ -8464,7 +8772,7 @@
       <c r="F31" s="100"/>
       <c r="G31" s="101"/>
     </row>
-    <row r="32" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:7" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="102"/>
       <c r="C32" s="102"/>
       <c r="D32" s="102"/>
@@ -8472,7 +8780,7 @@
       <c r="F32" s="102"/>
       <c r="G32" s="102"/>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B33" s="85"/>
       <c r="C33" s="86"/>
       <c r="D33" s="86"/>
@@ -8480,7 +8788,7 @@
       <c r="F33" s="86"/>
       <c r="G33" s="87"/>
     </row>
-    <row r="34" spans="1:27" ht="51" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="52" x14ac:dyDescent="0.2">
       <c r="B34" s="103" t="s">
         <v>369</v>
       </c>
@@ -8494,7 +8802,7 @@
       <c r="F34" s="104"/>
       <c r="G34" s="105"/>
     </row>
-    <row r="35" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="99"/>
       <c r="C35" s="100"/>
       <c r="D35" s="100"/>
@@ -8502,7 +8810,7 @@
       <c r="F35" s="100"/>
       <c r="G35" s="101"/>
     </row>
-    <row r="36" spans="1:27" s="111" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="112"/>
       <c r="C36" s="112"/>
       <c r="D36" s="112"/>
@@ -8510,7 +8818,7 @@
       <c r="F36" s="112"/>
       <c r="G36" s="112"/>
     </row>
-    <row r="37" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="102"/>
       <c r="C37" s="102"/>
       <c r="D37" s="102"/>
@@ -8518,7 +8826,7 @@
       <c r="F37" s="102"/>
       <c r="G37" s="102"/>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B38" s="85"/>
       <c r="C38" s="86"/>
       <c r="D38" s="86"/>
@@ -8526,7 +8834,7 @@
       <c r="F38" s="86"/>
       <c r="G38" s="87"/>
     </row>
-    <row r="39" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" ht="26" x14ac:dyDescent="0.2">
       <c r="B39" s="103" t="s">
         <v>373</v>
       </c>
@@ -8540,7 +8848,7 @@
       <c r="F39" s="104"/>
       <c r="G39" s="105"/>
     </row>
-    <row r="40" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="99"/>
       <c r="C40" s="100"/>
       <c r="D40" s="100"/>
@@ -8548,7 +8856,7 @@
       <c r="F40" s="100"/>
       <c r="G40" s="101"/>
     </row>
-    <row r="41" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="102"/>
       <c r="C41" s="102"/>
       <c r="D41" s="102"/>
@@ -8556,7 +8864,7 @@
       <c r="F41" s="102"/>
       <c r="G41" s="102"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B42" s="85"/>
       <c r="C42" s="86"/>
       <c r="D42" s="86"/>
@@ -8564,7 +8872,7 @@
       <c r="F42" s="86"/>
       <c r="G42" s="87"/>
     </row>
-    <row r="43" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="39" x14ac:dyDescent="0.2">
       <c r="B43" s="103" t="s">
         <v>376</v>
       </c>
@@ -8576,7 +8884,7 @@
       <c r="F43" s="104"/>
       <c r="G43" s="105"/>
     </row>
-    <row r="44" spans="1:27" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="99"/>
       <c r="C44" s="100"/>
       <c r="D44" s="100"/>
@@ -8584,7 +8892,7 @@
       <c r="F44" s="100"/>
       <c r="G44" s="101"/>
     </row>
-    <row r="45" spans="1:27" s="111" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" s="111" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="112"/>
       <c r="C45" s="112"/>
       <c r="D45" s="112"/>
@@ -8592,7 +8900,7 @@
       <c r="F45" s="112"/>
       <c r="G45" s="112"/>
     </row>
-    <row r="46" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="113"/>
       <c r="B46" s="114"/>
       <c r="C46" s="115"/>
@@ -8621,7 +8929,7 @@
       <c r="Z46" s="111"/>
       <c r="AA46" s="111"/>
     </row>
-    <row r="47" spans="1:27" s="118" customFormat="1" ht="79.349999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="118" customFormat="1" ht="79.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="113"/>
       <c r="B47" s="119" t="s">
         <v>117</v>
@@ -8654,7 +8962,7 @@
       <c r="Z47" s="111"/>
       <c r="AA47" s="111"/>
     </row>
-    <row r="48" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" s="118" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="113"/>
       <c r="B48" s="121"/>
       <c r="C48" s="122"/>
@@ -8683,9 +8991,9 @@
       <c r="Z48" s="111"/>
       <c r="AA48" s="111"/>
     </row>
-    <row r="49" spans="1:27" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:27" s="113" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="113" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="1:27" s="113" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="111"/>
       <c r="B51" s="124"/>
       <c r="C51" s="125"/>
@@ -8714,7 +9022,7 @@
       <c r="Z51" s="111"/>
       <c r="AA51" s="111"/>
     </row>
-    <row r="52" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="111"/>
       <c r="B52" s="127" t="s">
         <v>143</v>
@@ -8747,7 +9055,7 @@
       <c r="Z52" s="111"/>
       <c r="AA52" s="111"/>
     </row>
-    <row r="53" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="111"/>
       <c r="B53" s="127"/>
       <c r="C53" s="128" t="s">
@@ -8780,7 +9088,7 @@
       <c r="Z53" s="111"/>
       <c r="AA53" s="111"/>
     </row>
-    <row r="54" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="111"/>
       <c r="B54" s="127"/>
       <c r="C54" s="128" t="s">
@@ -8813,7 +9121,7 @@
       <c r="Z54" s="111"/>
       <c r="AA54" s="111"/>
     </row>
-    <row r="55" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="111"/>
       <c r="B55" s="127"/>
       <c r="C55" s="128" t="s">
@@ -8846,7 +9154,7 @@
       <c r="Z55" s="111"/>
       <c r="AA55" s="111"/>
     </row>
-    <row r="56" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="111"/>
       <c r="B56" s="130"/>
       <c r="C56" s="128" t="s">
@@ -8879,7 +9187,7 @@
       <c r="Z56" s="111"/>
       <c r="AA56" s="111"/>
     </row>
-    <row r="57" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="111"/>
       <c r="B57" s="130"/>
       <c r="C57" s="131" t="s">
@@ -8912,7 +9220,7 @@
       <c r="Z57" s="111"/>
       <c r="AA57" s="111"/>
     </row>
-    <row r="58" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" s="118" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="111"/>
       <c r="B58" s="133"/>
       <c r="C58" s="134"/>
@@ -8941,9 +9249,9 @@
       <c r="Z58" s="111"/>
       <c r="AA58" s="111"/>
     </row>
-    <row r="59" spans="1:27" s="111" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:27" s="111" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="111" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="1:27" s="111" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="111"/>
       <c r="B61" s="124"/>
       <c r="C61" s="125"/>
@@ -8972,7 +9280,7 @@
       <c r="Z61" s="111"/>
       <c r="AA61" s="111"/>
     </row>
-    <row r="62" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="111"/>
       <c r="B62" s="127" t="s">
         <v>118</v>
@@ -9003,7 +9311,7 @@
       <c r="Z62" s="111"/>
       <c r="AA62" s="111"/>
     </row>
-    <row r="63" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="111"/>
       <c r="B63" s="127"/>
       <c r="C63" s="136" t="s">
@@ -9036,7 +9344,7 @@
       <c r="Z63" s="111"/>
       <c r="AA63" s="111"/>
     </row>
-    <row r="64" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="111"/>
       <c r="B64" s="127"/>
       <c r="C64" s="136" t="s">
@@ -9069,7 +9377,7 @@
       <c r="Z64" s="111"/>
       <c r="AA64" s="111"/>
     </row>
-    <row r="65" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="111"/>
       <c r="B65" s="127"/>
       <c r="C65" s="136" t="s">
@@ -9102,7 +9410,7 @@
       <c r="Z65" s="111"/>
       <c r="AA65" s="111"/>
     </row>
-    <row r="66" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="111"/>
       <c r="B66" s="130"/>
       <c r="C66" s="137" t="s">
@@ -9135,7 +9443,7 @@
       <c r="Z66" s="111"/>
       <c r="AA66" s="111"/>
     </row>
-    <row r="67" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="111"/>
       <c r="B67" s="130"/>
       <c r="C67" s="137" t="s">
@@ -9168,7 +9476,7 @@
       <c r="Z67" s="111"/>
       <c r="AA67" s="111"/>
     </row>
-    <row r="68" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" s="118" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="111"/>
       <c r="B68" s="130"/>
       <c r="C68" s="131"/>
@@ -9197,7 +9505,7 @@
       <c r="Z68" s="111"/>
       <c r="AA68" s="111"/>
     </row>
-    <row r="69" spans="1:27" s="118" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" s="118" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="111"/>
       <c r="B69" s="133"/>
       <c r="C69" s="134"/>
@@ -9226,8 +9534,8 @@
       <c r="Z69" s="111"/>
       <c r="AA69" s="111"/>
     </row>
-    <row r="70" spans="1:27" s="111" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" s="111" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="139"/>
       <c r="B71" s="140"/>
       <c r="C71" s="141"/>
@@ -9237,7 +9545,7 @@
       <c r="G71" s="143"/>
       <c r="H71" s="144"/>
     </row>
-    <row r="72" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="139"/>
       <c r="B72" s="145"/>
       <c r="C72" s="146"/>
@@ -9247,7 +9555,7 @@
       <c r="G72" s="148"/>
       <c r="H72" s="144"/>
     </row>
-    <row r="73" spans="1:27" s="138" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" s="138" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A73" s="139"/>
       <c r="B73" s="145" t="s">
         <v>186</v>
@@ -9263,7 +9571,7 @@
       <c r="G73" s="148"/>
       <c r="H73" s="144"/>
     </row>
-    <row r="74" spans="1:27" s="138" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" s="138" customFormat="1" ht="39" x14ac:dyDescent="0.2">
       <c r="A74" s="139"/>
       <c r="B74" s="145"/>
       <c r="C74" s="146" t="s">
@@ -9277,7 +9585,7 @@
       <c r="G74" s="148"/>
       <c r="H74" s="144"/>
     </row>
-    <row r="75" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="139"/>
       <c r="B75" s="145"/>
       <c r="C75" s="267" t="s">
@@ -9289,7 +9597,7 @@
       <c r="G75" s="148"/>
       <c r="H75" s="144"/>
     </row>
-    <row r="76" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="139"/>
       <c r="B76" s="145"/>
       <c r="C76" s="146"/>
@@ -9299,7 +9607,7 @@
       <c r="G76" s="148"/>
       <c r="H76" s="144"/>
     </row>
-    <row r="77" spans="1:27" s="138" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" s="138" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="139"/>
       <c r="B77" s="149"/>
       <c r="C77" s="150"/>
@@ -9309,7 +9617,7 @@
       <c r="G77" s="152"/>
       <c r="H77" s="144"/>
     </row>
-    <row r="78" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="153"/>
       <c r="C78" s="154"/>
       <c r="D78" s="154"/>
@@ -9317,8 +9625,8 @@
       <c r="F78" s="154"/>
       <c r="G78" s="154"/>
     </row>
-    <row r="79" spans="1:27" s="111" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" s="111" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="139"/>
       <c r="B80" s="140"/>
       <c r="C80" s="141"/>
@@ -9328,7 +9636,7 @@
       <c r="G80" s="143"/>
       <c r="H80" s="144"/>
     </row>
-    <row r="81" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="139"/>
       <c r="B81" s="145"/>
       <c r="C81" s="146"/>
@@ -9338,7 +9646,7 @@
       <c r="G81" s="148"/>
       <c r="H81" s="144"/>
     </row>
-    <row r="82" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="139"/>
       <c r="B82" s="145" t="s">
         <v>380</v>
@@ -9350,7 +9658,7 @@
       <c r="G82" s="148"/>
       <c r="H82" s="144"/>
     </row>
-    <row r="83" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="139"/>
       <c r="B83" s="145"/>
       <c r="C83" s="146"/>
@@ -9360,7 +9668,7 @@
       <c r="G83" s="148"/>
       <c r="H83" s="144"/>
     </row>
-    <row r="84" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="139"/>
       <c r="B84" s="145"/>
       <c r="C84" s="267"/>
@@ -9370,7 +9678,7 @@
       <c r="G84" s="148"/>
       <c r="H84" s="144"/>
     </row>
-    <row r="85" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="139"/>
       <c r="B85" s="145"/>
       <c r="C85" s="146"/>
@@ -9380,7 +9688,7 @@
       <c r="G85" s="148"/>
       <c r="H85" s="144"/>
     </row>
-    <row r="86" spans="1:8" s="138" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="138" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="139"/>
       <c r="B86" s="149"/>
       <c r="C86" s="150"/>
@@ -9390,7 +9698,7 @@
       <c r="G86" s="152"/>
       <c r="H86" s="144"/>
     </row>
-    <row r="87" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B87" s="153"/>
       <c r="C87" s="154"/>
       <c r="D87" s="154"/>
@@ -9412,32 +9720,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A2:K211"/>
+  <dimension ref="A2:K212"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45:D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" style="23" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="16" customWidth="1"/>
     <col min="4" max="4" width="30" style="16" customWidth="1"/>
-    <col min="5" max="5" width="45.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="39.42578125" style="16" customWidth="1"/>
-    <col min="7" max="7" width="61.7109375" style="16" customWidth="1"/>
-    <col min="8" max="8" width="75.7109375" style="23" customWidth="1"/>
-    <col min="9" max="9" width="48.85546875" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="16"/>
+    <col min="5" max="5" width="45.83203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="39.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="61.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="75.6640625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="48.83203125" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" s="23" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:8" s="26" customFormat="1" ht="12.95" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" s="26" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
       <c r="D3" s="42"/>
@@ -9445,7 +9753,7 @@
       <c r="F3" s="42"/>
       <c r="G3" s="42"/>
     </row>
-    <row r="4" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41"/>
       <c r="B4" s="43"/>
       <c r="C4" s="38" t="s">
@@ -9485,7 +9793,7 @@
       <c r="G6" s="31"/>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="41"/>
       <c r="B7" s="44"/>
       <c r="C7" s="33"/>
@@ -9495,13 +9803,13 @@
       <c r="G7" s="31"/>
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="268" t="s">
+      <c r="C8" s="282" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="268"/>
+      <c r="D8" s="282"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="31"/>
@@ -9510,10 +9818,10 @@
     <row r="9" spans="1:8" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="268" t="s">
+      <c r="C9" s="282" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="268"/>
+      <c r="D9" s="282"/>
       <c r="E9" s="33" t="s">
         <v>195</v>
       </c>
@@ -9521,39 +9829,39 @@
       <c r="G9" s="31"/>
       <c r="H9" s="40"/>
     </row>
-    <row r="10" spans="1:8" s="26" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="26" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="268" t="s">
+      <c r="C10" s="282" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="268"/>
+      <c r="D10" s="282"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="31"/>
       <c r="H10" s="40"/>
     </row>
-    <row r="11" spans="1:8" s="26" customFormat="1" ht="11.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="26" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="268" t="s">
+      <c r="C11" s="282" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="268"/>
+      <c r="D11" s="282"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="31"/>
       <c r="H11" s="40"/>
     </row>
-    <row r="12" spans="1:8" s="26" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A12" s="41"/>
       <c r="B12" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="268" t="s">
+      <c r="C12" s="282" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="268"/>
+      <c r="D12" s="282"/>
       <c r="E12" s="33" t="s">
         <v>190</v>
       </c>
@@ -9563,21 +9871,21 @@
       </c>
       <c r="H12" s="40"/>
     </row>
-    <row r="13" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="41"/>
       <c r="B13" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="268" t="s">
+      <c r="C13" s="282" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="268"/>
+      <c r="D13" s="282"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="31"/>
       <c r="H13" s="40"/>
     </row>
-    <row r="14" spans="1:8" s="26" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="41"/>
       <c r="B14" s="34"/>
       <c r="C14" s="33"/>
@@ -9587,7 +9895,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="40"/>
     </row>
-    <row r="15" spans="1:8" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="24"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
@@ -9597,7 +9905,7 @@
       <c r="G15" s="19"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="20"/>
       <c r="C16" s="21"/>
@@ -9607,7 +9915,7 @@
       <c r="G16" s="22"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="26" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="203"/>
       <c r="C17" s="196"/>
       <c r="D17" s="196"/>
@@ -9615,7 +9923,7 @@
       <c r="F17" s="196"/>
       <c r="G17" s="196"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="24"/>
       <c r="B18" s="204"/>
       <c r="C18" s="205"/>
@@ -9628,7 +9936,7 @@
       <c r="J18" s="205"/>
       <c r="K18" s="36"/>
     </row>
-    <row r="19" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="24"/>
       <c r="B19" s="17" t="s">
         <v>446</v>
@@ -9657,7 +9965,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="1:11" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="A20" s="24"/>
       <c r="B20" s="17"/>
       <c r="C20" s="206"/>
@@ -9676,7 +9984,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="31"/>
     </row>
-    <row r="21" spans="1:11" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="119.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="24"/>
       <c r="B21" s="17"/>
       <c r="C21" s="18"/>
@@ -9689,7 +9997,7 @@
       <c r="J21" s="8"/>
       <c r="K21" s="31"/>
     </row>
-    <row r="22" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="117" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="24"/>
       <c r="B22" s="17"/>
       <c r="C22" s="18"/>
@@ -9704,7 +10012,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="31"/>
     </row>
-    <row r="23" spans="1:11" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24"/>
       <c r="B23" s="20"/>
       <c r="C23" s="21"/>
@@ -9717,7 +10025,7 @@
       <c r="J23" s="21"/>
       <c r="K23" s="22"/>
     </row>
-    <row r="24" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" s="26" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="203"/>
       <c r="C24" s="196"/>
       <c r="D24" s="196"/>
@@ -9725,7 +10033,7 @@
       <c r="F24" s="196"/>
       <c r="G24" s="196"/>
     </row>
-    <row r="25" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="39"/>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -9733,19 +10041,19 @@
       <c r="F25" s="37"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:11" s="26" customFormat="1" ht="155.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="26" customFormat="1" ht="155.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="277" t="s">
+      <c r="C26" s="272" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="276"/>
-      <c r="E26" s="273"/>
-      <c r="F26" s="274"/>
+      <c r="D26" s="275"/>
+      <c r="E26" s="280"/>
+      <c r="F26" s="281"/>
       <c r="G26" s="31"/>
     </row>
-    <row r="27" spans="1:11" s="26" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="26" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="34"/>
       <c r="C27" s="35" t="s">
         <v>178</v>
@@ -9753,13 +10061,13 @@
       <c r="D27" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="275" t="s">
+      <c r="E27" s="274" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="276"/>
+      <c r="F27" s="275"/>
       <c r="G27" s="31"/>
     </row>
-    <row r="28" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="34"/>
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
@@ -9767,15 +10075,15 @@
       <c r="F28" s="32"/>
       <c r="G28" s="31"/>
     </row>
-    <row r="29" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="34"/>
-      <c r="C29" s="268"/>
-      <c r="D29" s="268"/>
+      <c r="C29" s="282"/>
+      <c r="D29" s="282"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
       <c r="G29" s="31"/>
     </row>
-    <row r="30" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="34"/>
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
@@ -9783,7 +10091,7 @@
       <c r="F30" s="32"/>
       <c r="G30" s="31"/>
     </row>
-    <row r="31" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" s="26" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="30"/>
       <c r="C31" s="29"/>
       <c r="D31" s="29"/>
@@ -9791,7 +10099,7 @@
       <c r="F31" s="28"/>
       <c r="G31" s="27"/>
     </row>
-    <row r="32" spans="1:11" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="26" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="195"/>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
@@ -9799,7 +10107,7 @@
       <c r="F32" s="42"/>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="41"/>
       <c r="B33" s="197"/>
       <c r="C33" s="198"/>
@@ -9809,349 +10117,373 @@
       <c r="G33" s="243"/>
       <c r="H33" s="244"/>
     </row>
-    <row r="34" spans="1:8" s="26" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="26" customFormat="1" ht="225" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="41"/>
       <c r="B34" s="199" t="s">
         <v>444</v>
       </c>
-      <c r="C34" s="271" t="s">
+      <c r="C34" s="270" t="s">
         <v>475</v>
       </c>
-      <c r="D34" s="272"/>
+      <c r="D34" s="271"/>
       <c r="E34" s="41"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
       <c r="H34"/>
     </row>
-    <row r="35" spans="1:8" s="26" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="26" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="41"/>
       <c r="B35" s="199"/>
-      <c r="C35" s="271" t="s">
+      <c r="C35" s="270" t="s">
         <v>527</v>
       </c>
-      <c r="D35" s="272"/>
+      <c r="D35" s="271"/>
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
       <c r="H35" s="244"/>
     </row>
-    <row r="36" spans="1:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="26" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="199" t="s">
-        <v>526</v>
-      </c>
-      <c r="C36" s="277" t="s">
-        <v>528</v>
-      </c>
-      <c r="D36" s="280"/>
-      <c r="E36" s="32"/>
-      <c r="G36" s="32"/>
+        <v>559</v>
+      </c>
+      <c r="C36" s="307" t="s">
+        <v>561</v>
+      </c>
+      <c r="D36" s="306"/>
+      <c r="E36" s="303"/>
+      <c r="F36" s="304"/>
+      <c r="G36" s="305"/>
       <c r="H36" s="40"/>
     </row>
-    <row r="37" spans="1:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="41"/>
       <c r="B37" s="199" t="s">
+        <v>526</v>
+      </c>
+      <c r="C37" s="272" t="s">
+        <v>528</v>
+      </c>
+      <c r="D37" s="273"/>
+      <c r="E37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="40"/>
+    </row>
+    <row r="38" spans="1:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="41"/>
+      <c r="B38" s="199" t="s">
         <v>529</v>
       </c>
-      <c r="C37" s="275" t="s">
+      <c r="C38" s="272" t="s">
+        <v>560</v>
+      </c>
+      <c r="D38" s="275"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="244"/>
+    </row>
+    <row r="39" spans="1:8" s="26" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="41"/>
+      <c r="B39" s="200"/>
+      <c r="C39" s="201"/>
+      <c r="D39" s="201"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="201"/>
+      <c r="G39" s="245"/>
+      <c r="H39" s="40"/>
+    </row>
+    <row r="40" spans="1:8" s="26" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="194"/>
+      <c r="C40" s="246"/>
+      <c r="D40" s="246"/>
+      <c r="E40" s="246"/>
+      <c r="F40" s="246"/>
+      <c r="G40" s="246"/>
+    </row>
+    <row r="41" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="41"/>
+      <c r="B41" s="247"/>
+      <c r="C41" s="248"/>
+      <c r="D41" s="248"/>
+      <c r="E41" s="248"/>
+      <c r="F41" s="248"/>
+      <c r="G41" s="249"/>
+      <c r="H41" s="40"/>
+    </row>
+    <row r="42" spans="1:8" s="256" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="240"/>
+      <c r="B42" s="257" t="s">
         <v>530</v>
       </c>
-      <c r="D37" s="276"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="244"/>
-    </row>
-    <row r="38" spans="1:8" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="41"/>
-      <c r="B38" s="200"/>
-      <c r="C38" s="201"/>
-      <c r="D38" s="201"/>
-      <c r="E38" s="201"/>
-      <c r="F38" s="201"/>
-      <c r="G38" s="245"/>
-      <c r="H38" s="40"/>
-    </row>
-    <row r="39" spans="1:8" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="194"/>
-      <c r="C39" s="246"/>
-      <c r="D39" s="246"/>
-      <c r="E39" s="246"/>
-      <c r="F39" s="246"/>
-      <c r="G39" s="246"/>
-    </row>
-    <row r="40" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="247"/>
-      <c r="C40" s="248"/>
-      <c r="D40" s="248"/>
-      <c r="E40" s="248"/>
-      <c r="F40" s="248"/>
-      <c r="G40" s="249"/>
-      <c r="H40" s="40"/>
-    </row>
-    <row r="41" spans="1:8" s="256" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="240"/>
-      <c r="B41" s="257" t="s">
-        <v>531</v>
-      </c>
-      <c r="C41" s="281" t="s">
-        <v>533</v>
-      </c>
-      <c r="D41" s="282"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="269"/>
-      <c r="G41" s="270"/>
-      <c r="H41" s="241"/>
-    </row>
-    <row r="42" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="250"/>
-      <c r="C42" s="251"/>
-      <c r="D42" s="251"/>
-      <c r="E42" s="251"/>
-      <c r="F42" s="251"/>
-      <c r="G42" s="252"/>
-      <c r="H42" s="40"/>
-    </row>
-    <row r="43" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="276" t="s">
+        <v>532</v>
+      </c>
+      <c r="D42" s="277"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="278"/>
+      <c r="G42" s="279"/>
+      <c r="H42" s="241"/>
+    </row>
+    <row r="43" spans="1:8" s="26" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="41"/>
       <c r="B43" s="250" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="278"/>
-      <c r="D43" s="279"/>
+        <v>562</v>
+      </c>
+      <c r="C43" s="276" t="s">
+        <v>563</v>
+      </c>
+      <c r="D43" s="277"/>
       <c r="E43" s="251"/>
-      <c r="F43" s="251"/>
-      <c r="G43" s="252"/>
+      <c r="F43" s="278"/>
+      <c r="G43" s="279"/>
       <c r="H43" s="40"/>
     </row>
-    <row r="44" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="41"/>
       <c r="B44" s="250" t="s">
-        <v>532</v>
-      </c>
-      <c r="C44" s="278"/>
-      <c r="D44" s="279"/>
+        <v>168</v>
+      </c>
+      <c r="C44" s="276" t="s">
+        <v>564</v>
+      </c>
+      <c r="D44" s="277"/>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
       <c r="G44" s="252"/>
       <c r="H44" s="40"/>
     </row>
-    <row r="45" spans="1:8" s="26" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
-      <c r="B45" s="253"/>
-      <c r="C45" s="254"/>
-      <c r="D45" s="254"/>
-      <c r="E45" s="254"/>
-      <c r="F45" s="254"/>
-      <c r="G45" s="255"/>
+      <c r="B45" s="250" t="s">
+        <v>531</v>
+      </c>
+      <c r="C45" s="268"/>
+      <c r="D45" s="269"/>
+      <c r="E45" s="251"/>
+      <c r="F45" s="251"/>
+      <c r="G45" s="252"/>
       <c r="H45" s="40"/>
     </row>
-    <row r="46" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="194"/>
-      <c r="C46" s="196"/>
-      <c r="D46" s="196"/>
-      <c r="E46" s="196"/>
-      <c r="F46" s="196"/>
-      <c r="G46" s="196"/>
-    </row>
-    <row r="47" spans="1:8" s="26" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="2" t="s">
+    <row r="46" spans="1:8" s="26" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="253"/>
+      <c r="C46" s="254"/>
+      <c r="D46" s="254"/>
+      <c r="E46" s="254"/>
+      <c r="F46" s="254"/>
+      <c r="G46" s="255"/>
+      <c r="H46" s="40"/>
+    </row>
+    <row r="47" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="194"/>
+      <c r="C47" s="196"/>
+      <c r="D47" s="196"/>
+      <c r="E47" s="196"/>
+      <c r="F47" s="196"/>
+      <c r="G47" s="196"/>
+    </row>
+    <row r="48" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="2" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="23" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="2" t="s">
+    <row r="49" spans="2:2" s="23" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="B49" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="49" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="23" t="s">
+    <row r="50" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="23" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="50" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="23" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="23" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="22">
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10160,7 +10492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -10170,27 +10502,27 @@
       <selection activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="80" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="80" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="80" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="80" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" style="80" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="80" customWidth="1"/>
     <col min="4" max="4" width="35" style="80" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="80" customWidth="1"/>
-    <col min="6" max="6" width="32.5703125" style="80" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="80"/>
+    <col min="5" max="5" width="29.1640625" style="80" customWidth="1"/>
+    <col min="6" max="6" width="32.5" style="80" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="80"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="80" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="284" t="s">
+      <c r="C3" s="289" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="284"/>
-    </row>
-    <row r="4" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+      <c r="D3" s="289"/>
+    </row>
+    <row r="4" spans="1:27" ht="135" x14ac:dyDescent="0.2">
       <c r="B4" s="80" t="s">
         <v>355</v>
       </c>
@@ -10198,12 +10530,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C5" s="80" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="75" x14ac:dyDescent="0.2">
       <c r="C6" s="80" t="s">
         <v>358</v>
       </c>
@@ -10211,8 +10543,8 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="155" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" s="155" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A9" s="155"/>
       <c r="B9" s="156"/>
       <c r="C9" s="157"/>
@@ -10241,7 +10573,7 @@
       <c r="Z9" s="155"/>
       <c r="AA9" s="155"/>
     </row>
-    <row r="10" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A10" s="155"/>
       <c r="B10" s="161" t="s">
         <v>121</v>
@@ -10272,7 +10604,7 @@
       <c r="Z10" s="155"/>
       <c r="AA10" s="155"/>
     </row>
-    <row r="11" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A11" s="155"/>
       <c r="B11" s="161"/>
       <c r="C11" s="162" t="s">
@@ -10303,7 +10635,7 @@
       <c r="Z11" s="155"/>
       <c r="AA11" s="155"/>
     </row>
-    <row r="12" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A12" s="155"/>
       <c r="B12" s="161"/>
       <c r="C12" s="162" t="s">
@@ -10334,7 +10666,7 @@
       <c r="Z12" s="155"/>
       <c r="AA12" s="155"/>
     </row>
-    <row r="13" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A13" s="155"/>
       <c r="B13" s="161"/>
       <c r="C13" s="162" t="s">
@@ -10365,7 +10697,7 @@
       <c r="Z13" s="155"/>
       <c r="AA13" s="155"/>
     </row>
-    <row r="14" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A14" s="155"/>
       <c r="B14" s="161"/>
       <c r="C14" s="162" t="s">
@@ -10396,7 +10728,7 @@
       <c r="Z14" s="155"/>
       <c r="AA14" s="155"/>
     </row>
-    <row r="15" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A15" s="155"/>
       <c r="B15" s="161"/>
       <c r="C15" s="162" t="s">
@@ -10427,7 +10759,7 @@
       <c r="Z15" s="155"/>
       <c r="AA15" s="155"/>
     </row>
-    <row r="16" spans="1:27" s="160" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" s="160" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="155"/>
       <c r="B16" s="164"/>
       <c r="C16" s="165"/>
@@ -10456,8 +10788,8 @@
       <c r="Z16" s="155"/>
       <c r="AA16" s="155"/>
     </row>
-    <row r="17" spans="1:27" s="155" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="155" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A18" s="155"/>
       <c r="B18" s="156"/>
       <c r="C18" s="157"/>
@@ -10486,7 +10818,7 @@
       <c r="Z18" s="155"/>
       <c r="AA18" s="155"/>
     </row>
-    <row r="19" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A19" s="155"/>
       <c r="B19" s="161" t="s">
         <v>121</v>
@@ -10517,13 +10849,13 @@
       <c r="Z19" s="155"/>
       <c r="AA19" s="155"/>
     </row>
-    <row r="20" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A20" s="155"/>
       <c r="B20" s="161"/>
-      <c r="C20" s="283" t="s">
+      <c r="C20" s="288" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="283"/>
+      <c r="D20" s="288"/>
       <c r="E20" s="162"/>
       <c r="F20" s="162"/>
       <c r="G20" s="163"/>
@@ -10548,13 +10880,13 @@
       <c r="Z20" s="155"/>
       <c r="AA20" s="155"/>
     </row>
-    <row r="21" spans="1:27" s="160" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="160" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A21" s="155"/>
       <c r="B21" s="161"/>
-      <c r="C21" s="283" t="s">
+      <c r="C21" s="288" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="283"/>
+      <c r="D21" s="288"/>
       <c r="E21" s="162" t="s">
         <v>133</v>
       </c>
@@ -10581,11 +10913,11 @@
       <c r="Z21" s="155"/>
       <c r="AA21" s="155"/>
     </row>
-    <row r="22" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A22" s="155"/>
       <c r="B22" s="161"/>
-      <c r="C22" s="283"/>
-      <c r="D22" s="283"/>
+      <c r="C22" s="288"/>
+      <c r="D22" s="288"/>
       <c r="E22" s="162"/>
       <c r="F22" s="162"/>
       <c r="G22" s="163"/>
@@ -10610,7 +10942,7 @@
       <c r="Z22" s="155"/>
       <c r="AA22" s="155"/>
     </row>
-    <row r="23" spans="1:27" s="160" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" s="160" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="155"/>
       <c r="B23" s="164"/>
       <c r="C23" s="165"/>
@@ -10639,9 +10971,9 @@
       <c r="Z23" s="155"/>
       <c r="AA23" s="155"/>
     </row>
-    <row r="24" spans="1:27" s="155" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:27" s="155" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" s="155" customFormat="1" ht="13" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:27" s="155" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A26" s="155"/>
       <c r="B26" s="167"/>
       <c r="C26" s="168"/>
@@ -10670,7 +11002,7 @@
       <c r="Z26" s="155"/>
       <c r="AA26" s="155"/>
     </row>
-    <row r="27" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A27" s="155"/>
       <c r="B27" s="106" t="s">
         <v>119</v>
@@ -10701,7 +11033,7 @@
       <c r="Z27" s="155"/>
       <c r="AA27" s="155"/>
     </row>
-    <row r="28" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A28" s="155"/>
       <c r="B28" s="106"/>
       <c r="C28" s="107"/>
@@ -10730,7 +11062,7 @@
       <c r="Z28" s="155"/>
       <c r="AA28" s="155"/>
     </row>
-    <row r="29" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A29" s="155"/>
       <c r="B29" s="106"/>
       <c r="C29" s="107" t="s">
@@ -10761,7 +11093,7 @@
       <c r="Z29" s="155"/>
       <c r="AA29" s="155"/>
     </row>
-    <row r="30" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A30" s="155"/>
       <c r="B30" s="106"/>
       <c r="C30" s="107" t="s">
@@ -10792,7 +11124,7 @@
       <c r="Z30" s="155"/>
       <c r="AA30" s="155"/>
     </row>
-    <row r="31" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A31" s="155"/>
       <c r="B31" s="106"/>
       <c r="C31" s="107" t="s">
@@ -10823,7 +11155,7 @@
       <c r="Z31" s="155"/>
       <c r="AA31" s="155"/>
     </row>
-    <row r="32" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A32" s="155"/>
       <c r="B32" s="106"/>
       <c r="C32" s="107" t="s">
@@ -10854,7 +11186,7 @@
       <c r="Z32" s="155"/>
       <c r="AA32" s="155"/>
     </row>
-    <row r="33" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A33" s="155"/>
       <c r="B33" s="106"/>
       <c r="C33" s="107" t="s">
@@ -10885,7 +11217,7 @@
       <c r="Z33" s="155"/>
       <c r="AA33" s="155"/>
     </row>
-    <row r="34" spans="1:27" s="160" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A34" s="155"/>
       <c r="B34" s="106"/>
       <c r="C34" s="107"/>
@@ -10914,7 +11246,7 @@
       <c r="Z34" s="155"/>
       <c r="AA34" s="155"/>
     </row>
-    <row r="35" spans="1:27" s="160" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" s="160" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="155"/>
       <c r="B35" s="171"/>
       <c r="C35" s="172"/>
@@ -10943,8 +11275,8 @@
       <c r="Z35" s="155"/>
       <c r="AA35" s="155"/>
     </row>
-    <row r="36" spans="1:27" s="155" customFormat="1" ht="12.75" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:27" s="175" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" s="155" customFormat="1" ht="13" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:27" s="175" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="155"/>
       <c r="B37" s="155"/>
       <c r="C37" s="155"/>
@@ -10954,7 +11286,7 @@
       <c r="G37" s="155"/>
       <c r="H37" s="155"/>
     </row>
-    <row r="38" spans="1:27" s="175" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="155"/>
       <c r="B38" s="167"/>
       <c r="C38" s="168"/>
@@ -10964,7 +11296,7 @@
       <c r="G38" s="169"/>
       <c r="H38" s="159"/>
     </row>
-    <row r="39" spans="1:27" s="175" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" s="175" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="155"/>
       <c r="B39" s="106" t="s">
         <v>443</v>
@@ -10978,7 +11310,7 @@
       <c r="G39" s="170"/>
       <c r="H39" s="159"/>
     </row>
-    <row r="40" spans="1:27" s="175" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" s="175" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="155"/>
       <c r="B40" s="171"/>
       <c r="C40" s="172"/>
@@ -10988,7 +11320,7 @@
       <c r="G40" s="173"/>
       <c r="H40" s="159"/>
     </row>
-    <row r="41" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="155"/>
       <c r="B41" s="155"/>
       <c r="C41" s="155"/>
@@ -10998,7 +11330,7 @@
       <c r="G41" s="155"/>
       <c r="H41" s="155"/>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" s="155"/>
       <c r="B42" s="167" t="s">
         <v>432</v>
@@ -11012,7 +11344,7 @@
       <c r="G42" s="169"/>
       <c r="H42" s="159"/>
     </row>
-    <row r="43" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="155"/>
       <c r="B43" s="106" t="s">
         <v>429</v>
@@ -11026,7 +11358,7 @@
       <c r="G43" s="170"/>
       <c r="H43" s="159"/>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" s="155"/>
       <c r="B44" s="106"/>
       <c r="C44" s="107"/>
@@ -11036,7 +11368,7 @@
       <c r="G44" s="170"/>
       <c r="H44" s="159"/>
     </row>
-    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="155"/>
       <c r="B45" s="171"/>
       <c r="C45" s="172"/>
@@ -11046,7 +11378,7 @@
       <c r="G45" s="173"/>
       <c r="H45" s="159"/>
     </row>
-    <row r="46" spans="1:27" s="175" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" s="175" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="155"/>
       <c r="B46" s="155"/>
       <c r="C46" s="155"/>
@@ -11056,19 +11388,19 @@
       <c r="G46" s="155"/>
       <c r="H46" s="155"/>
     </row>
-    <row r="47" spans="1:27" s="175" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="155"/>
-      <c r="B47" s="287" t="s">
+      <c r="B47" s="283" t="s">
         <v>434</v>
       </c>
-      <c r="C47" s="288"/>
+      <c r="C47" s="284"/>
       <c r="D47" s="168"/>
       <c r="E47" s="168"/>
       <c r="F47" s="168"/>
       <c r="G47" s="169"/>
       <c r="H47" s="159"/>
     </row>
-    <row r="48" spans="1:27" s="175" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" s="175" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="155"/>
       <c r="B48" s="106" t="s">
         <v>435</v>
@@ -11077,14 +11409,14 @@
         <v>437</v>
       </c>
       <c r="D48" s="286"/>
-      <c r="E48" s="289" t="s">
+      <c r="E48" s="287" t="s">
         <v>438</v>
       </c>
       <c r="F48" s="286"/>
       <c r="G48" s="170"/>
       <c r="H48" s="159"/>
     </row>
-    <row r="49" spans="1:8" s="175" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="175" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="155"/>
       <c r="B49" s="106" t="s">
         <v>436</v>
@@ -11093,14 +11425,14 @@
         <v>439</v>
       </c>
       <c r="D49" s="286"/>
-      <c r="E49" s="289" t="s">
+      <c r="E49" s="287" t="s">
         <v>440</v>
       </c>
       <c r="F49" s="286"/>
       <c r="G49" s="170"/>
       <c r="H49" s="159"/>
     </row>
-    <row r="50" spans="1:8" s="175" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="175" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="155"/>
       <c r="B50" s="108" t="s">
         <v>417</v>
@@ -11114,7 +11446,7 @@
       <c r="G50" s="193"/>
       <c r="H50" s="159"/>
     </row>
-    <row r="51" spans="1:8" s="175" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" s="175" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="155"/>
       <c r="B51" s="171"/>
       <c r="C51" s="172"/>
@@ -11124,7 +11456,7 @@
       <c r="G51" s="173"/>
       <c r="H51" s="159"/>
     </row>
-    <row r="52" spans="1:8" s="175" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" s="175" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="155"/>
       <c r="B52" s="155"/>
       <c r="C52" s="155"/>
@@ -11134,19 +11466,19 @@
       <c r="G52" s="155"/>
       <c r="H52" s="155"/>
     </row>
-    <row r="53" spans="1:8" s="175" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="155"/>
-      <c r="B53" s="287" t="s">
+      <c r="B53" s="283" t="s">
         <v>441</v>
       </c>
-      <c r="C53" s="288"/>
+      <c r="C53" s="284"/>
       <c r="D53" s="168"/>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
       <c r="G53" s="169"/>
       <c r="H53" s="159"/>
     </row>
-    <row r="54" spans="1:8" s="175" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="175" customFormat="1" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="155"/>
       <c r="B54" s="106" t="s">
         <v>417</v>
@@ -11155,12 +11487,12 @@
         <v>445</v>
       </c>
       <c r="D54" s="286"/>
-      <c r="E54" s="289"/>
+      <c r="E54" s="287"/>
       <c r="F54" s="286"/>
       <c r="G54" s="170"/>
       <c r="H54" s="159"/>
     </row>
-    <row r="55" spans="1:8" s="175" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" s="175" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="155"/>
       <c r="B55" s="171"/>
       <c r="C55" s="172"/>
@@ -11172,6 +11504,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="E54:F54"/>
@@ -11181,12 +11519,6 @@
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11195,7 +11527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
   </sheetPr>
@@ -11205,18 +11537,18 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="238" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" style="238" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="238" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="238" customWidth="1"/>
-    <col min="5" max="5" width="60.42578125" style="238" customWidth="1"/>
-    <col min="6" max="6" width="57.85546875" style="238" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="238"/>
+    <col min="1" max="1" width="4.33203125" style="238" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="238" customWidth="1"/>
+    <col min="3" max="3" width="45.5" style="238" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" style="238" customWidth="1"/>
+    <col min="5" max="5" width="60.5" style="238" customWidth="1"/>
+    <col min="6" max="6" width="57.83203125" style="238" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="238"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="237" t="s">
         <v>409</v>
       </c>
@@ -11225,7 +11557,7 @@
       </c>
       <c r="D2" s="294"/>
     </row>
-    <row r="3" spans="2:6" ht="123.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="132" x14ac:dyDescent="0.2">
       <c r="C3" s="294" t="s">
         <v>512</v>
       </c>
@@ -11234,7 +11566,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="238" t="s">
         <v>500</v>
       </c>
@@ -11243,7 +11575,7 @@
       </c>
       <c r="D4" s="292"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="238" t="s">
         <v>501</v>
       </c>
@@ -11252,7 +11584,7 @@
       </c>
       <c r="D5" s="292"/>
     </row>
-    <row r="7" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="238" t="s">
         <v>504</v>
       </c>
@@ -11261,7 +11593,7 @@
       </c>
       <c r="D7" s="293"/>
     </row>
-    <row r="8" spans="2:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="238" t="s">
         <v>506</v>
       </c>
@@ -11274,7 +11606,7 @@
       </c>
       <c r="F8" s="290"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="238" t="s">
         <v>507</v>
       </c>
@@ -11301,7 +11633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -11311,16 +11643,16 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="13.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="76.42578125" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="9.1640625" style="14"/>
+    <col min="2" max="2" width="13.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="14" customWidth="1"/>
+    <col min="4" max="4" width="76.5" style="14" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="14"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="75" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
         <v>513</v>
       </c>
@@ -11331,34 +11663,34 @@
         <v>523</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:J186"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="64" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.85546875" style="64" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" style="64" customWidth="1"/>
-    <col min="5" max="5" width="26.7109375" style="220" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="64"/>
+    <col min="3" max="3" width="51.83203125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="60.6640625" style="64" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="220" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="218"/>
       <c r="B1" s="219"/>
       <c r="C1" s="219"/>
@@ -11369,7 +11701,7 @@
       <c r="I1" s="220"/>
       <c r="J1" s="220"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="215"/>
       <c r="B2" s="71"/>
       <c r="C2" s="72"/>
@@ -11380,7 +11712,7 @@
       <c r="I2" s="220"/>
       <c r="J2" s="220"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="215"/>
       <c r="B3" s="66"/>
       <c r="C3" s="45" t="s">
@@ -11395,7 +11727,7 @@
       <c r="I3" s="220"/>
       <c r="J3" s="220"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="215"/>
       <c r="B4" s="66"/>
       <c r="C4" s="47" t="s">
@@ -11410,7 +11742,7 @@
       <c r="I4" s="220"/>
       <c r="J4" s="220"/>
     </row>
-    <row r="5" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A5" s="215"/>
       <c r="B5" s="66"/>
       <c r="C5" s="47" t="s">
@@ -11425,7 +11757,7 @@
       <c r="I5" s="220"/>
       <c r="J5" s="220"/>
     </row>
-    <row r="6" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="215"/>
       <c r="B6" s="74"/>
       <c r="C6" s="75"/>
@@ -11436,7 +11768,7 @@
       <c r="I6" s="220"/>
       <c r="J6" s="220"/>
     </row>
-    <row r="7" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="218"/>
       <c r="B7" s="218"/>
       <c r="C7" s="218"/>
@@ -11447,7 +11779,7 @@
       <c r="I7" s="220"/>
       <c r="J7" s="220"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="215"/>
       <c r="B8" s="71"/>
       <c r="C8" s="72"/>
@@ -11458,7 +11790,7 @@
       <c r="I8" s="220"/>
       <c r="J8" s="220"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="215"/>
       <c r="B9" s="77"/>
       <c r="C9" s="45" t="s">
@@ -11473,7 +11805,7 @@
       <c r="I9" s="220"/>
       <c r="J9" s="220"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="215"/>
       <c r="B10" s="77"/>
       <c r="C10" s="78" t="s">
@@ -11488,7 +11820,7 @@
       <c r="I10" s="220"/>
       <c r="J10" s="220"/>
     </row>
-    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="215"/>
       <c r="B11" s="77"/>
       <c r="C11" s="78" t="s">
@@ -11503,7 +11835,7 @@
       <c r="I11" s="220"/>
       <c r="J11" s="220"/>
     </row>
-    <row r="12" spans="1:10" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="215"/>
       <c r="B12" s="74"/>
       <c r="C12" s="75"/>
@@ -11514,7 +11846,7 @@
       <c r="I12" s="220"/>
       <c r="J12" s="220"/>
     </row>
-    <row r="13" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="218"/>
       <c r="B13" s="218"/>
       <c r="C13" s="218"/>
@@ -11525,7 +11857,7 @@
       <c r="I13" s="220"/>
       <c r="J13" s="220"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="215"/>
       <c r="B14" s="71"/>
       <c r="C14" s="72"/>
@@ -11536,7 +11868,7 @@
       <c r="I14" s="220"/>
       <c r="J14" s="220"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="215"/>
       <c r="B15" s="77"/>
       <c r="C15" s="45" t="s">
@@ -11551,7 +11883,7 @@
       <c r="I15" s="220"/>
       <c r="J15" s="220"/>
     </row>
-    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="215"/>
       <c r="B16" s="77"/>
       <c r="C16" s="78" t="s">
@@ -11566,7 +11898,7 @@
       <c r="I16" s="220"/>
       <c r="J16" s="220"/>
     </row>
-    <row r="17" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="215"/>
       <c r="B17" s="77"/>
       <c r="C17" s="78" t="s">
@@ -11581,7 +11913,7 @@
       <c r="I17" s="220"/>
       <c r="J17" s="220"/>
     </row>
-    <row r="18" spans="1:10" ht="10.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="10.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="215"/>
       <c r="B18" s="74"/>
       <c r="C18" s="75"/>
@@ -11592,7 +11924,7 @@
       <c r="I18" s="220"/>
       <c r="J18" s="220"/>
     </row>
-    <row r="19" spans="1:10" s="211" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="211" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="218"/>
       <c r="B19" s="218"/>
       <c r="C19" s="218"/>
@@ -11604,7 +11936,7 @@
       <c r="I19" s="220"/>
       <c r="J19" s="220"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="215"/>
       <c r="B20" s="71"/>
       <c r="C20" s="72"/>
@@ -11615,7 +11947,7 @@
       <c r="I20" s="220"/>
       <c r="J20" s="220"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="215"/>
       <c r="B21" s="49"/>
       <c r="C21" s="45" t="s">
@@ -11630,7 +11962,7 @@
       <c r="I21" s="220"/>
       <c r="J21" s="220"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="215"/>
       <c r="B22" s="66"/>
       <c r="C22" s="47" t="s">
@@ -11645,7 +11977,7 @@
       <c r="I22" s="220"/>
       <c r="J22" s="220"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="215"/>
       <c r="B23" s="66"/>
       <c r="C23" s="47" t="s">
@@ -11660,7 +11992,7 @@
       <c r="I23" s="220"/>
       <c r="J23" s="220"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="215"/>
       <c r="B24" s="66"/>
       <c r="C24" s="47" t="s">
@@ -11675,7 +12007,7 @@
       <c r="I24" s="220"/>
       <c r="J24" s="220"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="215"/>
       <c r="B25" s="66"/>
       <c r="C25" s="47"/>
@@ -11686,7 +12018,7 @@
       <c r="I25" s="220"/>
       <c r="J25" s="220"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="215"/>
       <c r="B26" s="66"/>
       <c r="C26" s="47"/>
@@ -11697,7 +12029,7 @@
       <c r="I26" s="220"/>
       <c r="J26" s="220"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="215"/>
       <c r="B27" s="66" t="s">
         <v>205</v>
@@ -11714,7 +12046,7 @@
       <c r="I27" s="220"/>
       <c r="J27" s="220"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="215"/>
       <c r="B28" s="69" t="s">
         <v>219</v>
@@ -11731,7 +12063,7 @@
       <c r="I28" s="220"/>
       <c r="J28" s="220"/>
     </row>
-    <row r="29" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="215"/>
       <c r="B29" s="69" t="s">
         <v>216</v>
@@ -11748,7 +12080,7 @@
       <c r="I29" s="220"/>
       <c r="J29" s="220"/>
     </row>
-    <row r="30" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="215"/>
       <c r="B30" s="74"/>
       <c r="C30" s="75"/>
@@ -11759,8 +12091,8 @@
       <c r="I30" s="220"/>
       <c r="J30" s="220"/>
     </row>
-    <row r="31" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="215"/>
       <c r="B32" s="71"/>
       <c r="C32" s="72"/>
@@ -11772,7 +12104,7 @@
       <c r="I32" s="220"/>
       <c r="J32" s="220"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="215"/>
       <c r="B33" s="66"/>
       <c r="C33" s="45" t="s">
@@ -11788,7 +12120,7 @@
       <c r="I33" s="220"/>
       <c r="J33" s="220"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="215"/>
       <c r="B34" s="66"/>
       <c r="C34" s="47" t="s">
@@ -11802,7 +12134,7 @@
       <c r="I34" s="220"/>
       <c r="J34" s="220"/>
     </row>
-    <row r="35" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A35" s="215"/>
       <c r="B35" s="66"/>
       <c r="C35" s="47" t="s">
@@ -11818,7 +12150,7 @@
       <c r="I35" s="220"/>
       <c r="J35" s="220"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="215"/>
       <c r="B36" s="66"/>
       <c r="C36" s="47"/>
@@ -11830,7 +12162,7 @@
       <c r="I36" s="220"/>
       <c r="J36" s="220"/>
     </row>
-    <row r="37" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="215"/>
       <c r="B37" s="74"/>
       <c r="C37" s="75"/>
@@ -11842,8 +12174,8 @@
       <c r="I37" s="220"/>
       <c r="J37" s="220"/>
     </row>
-    <row r="38" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="215"/>
       <c r="B39" s="71"/>
       <c r="C39" s="72"/>
@@ -11855,7 +12187,7 @@
       <c r="I39" s="220"/>
       <c r="J39" s="220"/>
     </row>
-    <row r="40" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="215"/>
       <c r="B40" s="66"/>
       <c r="C40" s="45" t="s">
@@ -11871,7 +12203,7 @@
       <c r="I40" s="220"/>
       <c r="J40" s="220"/>
     </row>
-    <row r="41" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="215"/>
       <c r="B41" s="66" t="s">
         <v>469</v>
@@ -11889,7 +12221,7 @@
       <c r="I41" s="220"/>
       <c r="J41" s="220"/>
     </row>
-    <row r="42" spans="1:10" s="211" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" s="211" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A42" s="215"/>
       <c r="B42" s="66" t="s">
         <v>468</v>
@@ -11907,7 +12239,7 @@
       <c r="I42" s="220"/>
       <c r="J42" s="220"/>
     </row>
-    <row r="43" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="215"/>
       <c r="B43" s="66"/>
       <c r="C43" s="47"/>
@@ -11919,7 +12251,7 @@
       <c r="I43" s="220"/>
       <c r="J43" s="220"/>
     </row>
-    <row r="44" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="211" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="215"/>
       <c r="B44" s="79" t="s">
         <v>474</v>
@@ -11937,7 +12269,7 @@
       <c r="I44" s="220"/>
       <c r="J44" s="220"/>
     </row>
-    <row r="45" spans="1:10" s="211" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" s="211" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="215"/>
       <c r="B45" s="74"/>
       <c r="C45" s="75"/>
@@ -11949,8 +12281,8 @@
       <c r="I45" s="220"/>
       <c r="J45" s="220"/>
     </row>
-    <row r="46" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="215"/>
       <c r="B47" s="71"/>
       <c r="C47" s="72"/>
@@ -11962,14 +12294,14 @@
       <c r="I47" s="220"/>
       <c r="J47" s="220"/>
     </row>
-    <row r="48" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="215"/>
       <c r="B48" s="66"/>
       <c r="C48" s="45" t="s">
         <v>237</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E48" s="226"/>
       <c r="F48" s="220"/>
@@ -11978,14 +12310,14 @@
       <c r="I48" s="220"/>
       <c r="J48" s="220"/>
     </row>
-    <row r="49" spans="1:10" s="242" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="215"/>
       <c r="B49" s="66"/>
       <c r="C49" s="47" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E49" s="226"/>
       <c r="F49" s="220"/>
@@ -11994,14 +12326,14 @@
       <c r="I49" s="220"/>
       <c r="J49" s="220"/>
     </row>
-    <row r="50" spans="1:10" s="242" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" s="242" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="215"/>
       <c r="B50" s="79"/>
       <c r="C50" s="48" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D50" s="227" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E50" s="226"/>
       <c r="F50" s="220"/>
@@ -12010,7 +12342,7 @@
       <c r="I50" s="220"/>
       <c r="J50" s="220"/>
     </row>
-    <row r="51" spans="1:10" s="242" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" s="242" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="215"/>
       <c r="B51" s="74"/>
       <c r="C51" s="228"/>
@@ -12022,13 +12354,13 @@
       <c r="I51" s="220"/>
       <c r="J51" s="220"/>
     </row>
-    <row r="52" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="229"/>
       <c r="C52" s="229"/>
       <c r="D52" s="229"/>
       <c r="E52" s="229"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" s="215"/>
       <c r="B53" s="71"/>
       <c r="C53" s="72"/>
@@ -12040,7 +12372,7 @@
       <c r="I53" s="220"/>
       <c r="J53" s="220"/>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" s="215"/>
       <c r="B54" s="66"/>
       <c r="C54" s="45" t="s">
@@ -12056,7 +12388,7 @@
       <c r="I54" s="220"/>
       <c r="J54" s="220"/>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" s="215"/>
       <c r="B55" s="66"/>
       <c r="C55" s="47" t="s">
@@ -12072,7 +12404,7 @@
       <c r="I55" s="220"/>
       <c r="J55" s="220"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" s="215"/>
       <c r="B56" s="79"/>
       <c r="C56" s="48" t="s">
@@ -12088,7 +12420,7 @@
       <c r="I56" s="220"/>
       <c r="J56" s="220"/>
     </row>
-    <row r="57" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A57" s="215"/>
       <c r="B57" s="79"/>
       <c r="C57" s="48" t="s">
@@ -12102,7 +12434,7 @@
       <c r="I57" s="220"/>
       <c r="J57" s="220"/>
     </row>
-    <row r="58" spans="1:10" ht="44.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" ht="44.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A58" s="215"/>
       <c r="B58" s="74"/>
       <c r="C58" s="228" t="s">
@@ -12116,13 +12448,13 @@
       <c r="I58" s="220"/>
       <c r="J58" s="220"/>
     </row>
-    <row r="59" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B59" s="229"/>
       <c r="C59" s="229"/>
       <c r="D59" s="229"/>
       <c r="E59" s="229"/>
     </row>
-    <row r="60" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="215"/>
       <c r="B60" s="71"/>
       <c r="C60" s="72"/>
@@ -12134,7 +12466,7 @@
       <c r="I60" s="220"/>
       <c r="J60" s="220"/>
     </row>
-    <row r="61" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="215"/>
       <c r="B61" s="66"/>
       <c r="C61" s="45" t="s">
@@ -12150,7 +12482,7 @@
       <c r="I61" s="220"/>
       <c r="J61" s="220"/>
     </row>
-    <row r="62" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="215"/>
       <c r="B62" s="66"/>
       <c r="C62" s="47" t="s">
@@ -12166,7 +12498,7 @@
       <c r="I62" s="220"/>
       <c r="J62" s="220"/>
     </row>
-    <row r="63" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="215"/>
       <c r="B63" s="66"/>
       <c r="C63" s="47" t="s">
@@ -12182,7 +12514,7 @@
       <c r="I63" s="220"/>
       <c r="J63" s="220"/>
     </row>
-    <row r="64" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="215"/>
       <c r="B64" s="79"/>
       <c r="C64" s="48"/>
@@ -12196,7 +12528,7 @@
       <c r="I64" s="220"/>
       <c r="J64" s="220"/>
     </row>
-    <row r="65" spans="1:10" s="237" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" s="237" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="215"/>
       <c r="B65" s="79" t="s">
         <v>89</v>
@@ -12214,7 +12546,7 @@
       <c r="I65" s="220"/>
       <c r="J65" s="220"/>
     </row>
-    <row r="66" spans="1:10" s="237" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" s="237" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="215"/>
       <c r="B66" s="79" t="s">
         <v>186</v>
@@ -12232,7 +12564,7 @@
       <c r="I66" s="220"/>
       <c r="J66" s="220"/>
     </row>
-    <row r="67" spans="1:10" s="237" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" s="237" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A67" s="215"/>
       <c r="B67" s="79" t="s">
         <v>518</v>
@@ -12250,7 +12582,7 @@
       <c r="I67" s="220"/>
       <c r="J67" s="220"/>
     </row>
-    <row r="68" spans="1:10" s="239" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" s="239" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="215"/>
       <c r="B68" s="79"/>
       <c r="C68" s="50"/>
@@ -12262,7 +12594,7 @@
       <c r="I68" s="220"/>
       <c r="J68" s="220"/>
     </row>
-    <row r="69" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="215"/>
       <c r="B69" s="79"/>
       <c r="C69" s="50"/>
@@ -12276,7 +12608,7 @@
       <c r="I69" s="220"/>
       <c r="J69" s="220"/>
     </row>
-    <row r="70" spans="1:10" s="235" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" s="235" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="215"/>
       <c r="B70" s="74"/>
       <c r="C70" s="75"/>
@@ -12288,8 +12620,8 @@
       <c r="I70" s="220"/>
       <c r="J70" s="220"/>
     </row>
-    <row r="71" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="215"/>
       <c r="B72" s="71"/>
       <c r="C72" s="72"/>
@@ -12301,7 +12633,7 @@
       <c r="I72" s="220"/>
       <c r="J72" s="220"/>
     </row>
-    <row r="73" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="215"/>
       <c r="B73" s="66"/>
       <c r="C73" s="45" t="s">
@@ -12317,7 +12649,7 @@
       <c r="I73" s="220"/>
       <c r="J73" s="220"/>
     </row>
-    <row r="74" spans="1:10" s="235" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" s="235" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="215"/>
       <c r="B74" s="66"/>
       <c r="C74" s="47" t="s">
@@ -12333,7 +12665,7 @@
       <c r="I74" s="220"/>
       <c r="J74" s="220"/>
     </row>
-    <row r="75" spans="1:10" s="235" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" s="235" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="215"/>
       <c r="B75" s="66"/>
       <c r="C75" s="47" t="s">
@@ -12349,7 +12681,7 @@
       <c r="I75" s="220"/>
       <c r="J75" s="220"/>
     </row>
-    <row r="76" spans="1:10" s="235" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" s="235" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="215"/>
       <c r="B76" s="79"/>
       <c r="C76" s="48" t="s">
@@ -12365,7 +12697,7 @@
       <c r="I76" s="220"/>
       <c r="J76" s="220"/>
     </row>
-    <row r="77" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="215"/>
       <c r="B77" s="79"/>
       <c r="C77" s="48"/>
@@ -12377,7 +12709,7 @@
       <c r="I77" s="220"/>
       <c r="J77" s="220"/>
     </row>
-    <row r="78" spans="1:10" s="235" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" s="235" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="215"/>
       <c r="B78" s="74"/>
       <c r="C78" s="75"/>
@@ -12389,8 +12721,8 @@
       <c r="I78" s="220"/>
       <c r="J78" s="220"/>
     </row>
-    <row r="79" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="215"/>
       <c r="B80" s="71"/>
       <c r="C80" s="72"/>
@@ -12402,16 +12734,16 @@
       <c r="I80" s="220"/>
       <c r="J80" s="220"/>
     </row>
-    <row r="81" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="215"/>
       <c r="B81" s="66" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C81" s="45" t="s">
+        <v>547</v>
+      </c>
+      <c r="D81" s="46" t="s">
         <v>548</v>
-      </c>
-      <c r="D81" s="46" t="s">
-        <v>549</v>
       </c>
       <c r="E81" s="226"/>
       <c r="F81" s="220"/>
@@ -12420,16 +12752,16 @@
       <c r="I81" s="220"/>
       <c r="J81" s="220"/>
     </row>
-    <row r="82" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="215"/>
       <c r="B82" s="295" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C82" s="47" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D82" s="67" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E82" s="226"/>
       <c r="F82" s="220"/>
@@ -12438,14 +12770,14 @@
       <c r="I82" s="220"/>
       <c r="J82" s="220"/>
     </row>
-    <row r="83" spans="1:10" s="242" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" s="242" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="215"/>
       <c r="B83" s="296"/>
       <c r="C83" s="48" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D83" s="227" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E83" s="226"/>
       <c r="F83" s="220"/>
@@ -12454,7 +12786,7 @@
       <c r="I83" s="220"/>
       <c r="J83" s="220"/>
     </row>
-    <row r="84" spans="1:10" s="242" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" s="242" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="215"/>
       <c r="B84" s="74"/>
       <c r="C84" s="228"/>
@@ -12466,8 +12798,8 @@
       <c r="I84" s="220"/>
       <c r="J84" s="220"/>
     </row>
-    <row r="85" spans="1:10" s="218" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" s="215"/>
       <c r="B86" s="71"/>
       <c r="C86" s="72"/>
@@ -12479,7 +12811,7 @@
       <c r="I86" s="220"/>
       <c r="J86" s="220"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" s="215"/>
       <c r="B87" s="66"/>
       <c r="C87" s="45" t="s">
@@ -12497,7 +12829,7 @@
       <c r="I87" s="220"/>
       <c r="J87" s="220"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" s="215"/>
       <c r="B88" s="66" t="s">
         <v>168</v>
@@ -12513,7 +12845,7 @@
       <c r="I88" s="220"/>
       <c r="J88" s="220"/>
     </row>
-    <row r="89" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="215"/>
       <c r="B89" s="66" t="s">
         <v>168</v>
@@ -12529,7 +12861,7 @@
       <c r="I89" s="220"/>
       <c r="J89" s="220"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" s="215"/>
       <c r="B90" s="66" t="s">
         <v>168</v>
@@ -12545,7 +12877,7 @@
       <c r="I90" s="220"/>
       <c r="J90" s="220"/>
     </row>
-    <row r="91" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A91" s="215"/>
       <c r="B91" s="66" t="s">
         <v>168</v>
@@ -12561,7 +12893,7 @@
       <c r="I91" s="220"/>
       <c r="J91" s="220"/>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" s="215"/>
       <c r="B92" s="66" t="s">
         <v>168</v>
@@ -12577,7 +12909,7 @@
       <c r="I92" s="220"/>
       <c r="J92" s="220"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" s="215"/>
       <c r="B93" s="66" t="s">
         <v>168</v>
@@ -12595,7 +12927,7 @@
       <c r="I93" s="220"/>
       <c r="J93" s="220"/>
     </row>
-    <row r="94" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A94" s="215"/>
       <c r="B94" s="66" t="s">
         <v>163</v>
@@ -12611,7 +12943,7 @@
       <c r="I94" s="220"/>
       <c r="J94" s="220"/>
     </row>
-    <row r="95" spans="1:10" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.2">
       <c r="A95" s="215"/>
       <c r="B95" s="79" t="s">
         <v>163</v>
@@ -12627,7 +12959,7 @@
       <c r="I95" s="220"/>
       <c r="J95" s="220"/>
     </row>
-    <row r="96" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A96" s="215"/>
       <c r="B96" s="79" t="s">
         <v>163</v>
@@ -12643,7 +12975,7 @@
       <c r="I96" s="220"/>
       <c r="J96" s="220"/>
     </row>
-    <row r="97" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A97" s="215"/>
       <c r="B97" s="74"/>
       <c r="C97" s="75"/>
@@ -12655,8 +12987,8 @@
       <c r="I97" s="220"/>
       <c r="J97" s="220"/>
     </row>
-    <row r="98" spans="1:10" s="218" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" s="218" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" s="216"/>
       <c r="B99" s="51"/>
       <c r="F99" s="220"/>
@@ -12665,7 +12997,7 @@
       <c r="I99" s="220"/>
       <c r="J99" s="220"/>
     </row>
-    <row r="100" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" s="216" t="s">
         <v>318</v>
       </c>
@@ -12687,7 +13019,7 @@
       <c r="I100" s="220"/>
       <c r="J100" s="220"/>
     </row>
-    <row r="101" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" s="216" t="s">
         <v>318</v>
       </c>
@@ -12704,7 +13036,7 @@
       <c r="I101" s="220"/>
       <c r="J101" s="220"/>
     </row>
-    <row r="102" spans="1:10" ht="168.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="168" x14ac:dyDescent="0.2">
       <c r="A102" s="216" t="s">
         <v>318</v>
       </c>
@@ -12721,7 +13053,7 @@
       <c r="I102" s="220"/>
       <c r="J102" s="220"/>
     </row>
-    <row r="103" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" s="216" t="s">
         <v>318</v>
       </c>
@@ -12736,7 +13068,7 @@
       <c r="I103" s="220"/>
       <c r="J103" s="220"/>
     </row>
-    <row r="104" spans="1:10" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="216" t="s">
         <v>318</v>
       </c>
@@ -12749,7 +13081,7 @@
       <c r="I104" s="220"/>
       <c r="J104" s="220"/>
     </row>
-    <row r="105" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="216" t="s">
         <v>318</v>
       </c>
@@ -12764,7 +13096,7 @@
       <c r="I105" s="220"/>
       <c r="J105" s="220"/>
     </row>
-    <row r="106" spans="1:10" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="216" t="s">
         <v>318</v>
       </c>
@@ -12777,7 +13109,7 @@
       <c r="I106" s="220"/>
       <c r="J106" s="220"/>
     </row>
-    <row r="107" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="216"/>
       <c r="B107" s="65"/>
       <c r="C107" s="65"/>
@@ -12789,7 +13121,7 @@
       <c r="I107" s="220"/>
       <c r="J107" s="220"/>
     </row>
-    <row r="108" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A108" s="216" t="s">
         <v>318</v>
       </c>
@@ -12808,7 +13140,7 @@
       <c r="I108" s="220"/>
       <c r="J108" s="220"/>
     </row>
-    <row r="109" spans="1:10" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A109" s="216" t="s">
         <v>318</v>
       </c>
@@ -12825,7 +13157,7 @@
       <c r="I109" s="220"/>
       <c r="J109" s="220"/>
     </row>
-    <row r="110" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A110" s="216" t="s">
         <v>318</v>
       </c>
@@ -12842,7 +13174,7 @@
       <c r="I110" s="220"/>
       <c r="J110" s="220"/>
     </row>
-    <row r="111" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" s="216" t="s">
         <v>318</v>
       </c>
@@ -12857,7 +13189,7 @@
       <c r="I111" s="220"/>
       <c r="J111" s="220"/>
     </row>
-    <row r="112" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" s="216" t="s">
         <v>318</v>
       </c>
@@ -12870,7 +13202,7 @@
       <c r="I112" s="220"/>
       <c r="J112" s="220"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" s="215"/>
       <c r="F113" s="220"/>
       <c r="G113" s="220"/>
@@ -12878,7 +13210,7 @@
       <c r="I113" s="220"/>
       <c r="J113" s="220"/>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" s="216" t="s">
         <v>248</v>
       </c>
@@ -12897,7 +13229,7 @@
       <c r="I114" s="220"/>
       <c r="J114" s="220"/>
     </row>
-    <row r="115" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="36" x14ac:dyDescent="0.2">
       <c r="A115" s="216" t="s">
         <v>248</v>
       </c>
@@ -12916,7 +13248,7 @@
       <c r="I115" s="220"/>
       <c r="J115" s="220"/>
     </row>
-    <row r="116" spans="1:10" ht="253.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="253.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="216" t="s">
         <v>248</v>
       </c>
@@ -12931,7 +13263,7 @@
       <c r="I116" s="220"/>
       <c r="J116" s="220"/>
     </row>
-    <row r="117" spans="1:10" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="216" x14ac:dyDescent="0.2">
       <c r="A117" s="216" t="s">
         <v>248</v>
       </c>
@@ -12950,7 +13282,7 @@
       <c r="I117" s="220"/>
       <c r="J117" s="220"/>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" s="215"/>
       <c r="F118" s="220"/>
       <c r="G118" s="220"/>
@@ -12958,7 +13290,7 @@
       <c r="I118" s="220"/>
       <c r="J118" s="220"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" s="215"/>
       <c r="F119" s="220"/>
       <c r="G119" s="220"/>
@@ -12966,7 +13298,7 @@
       <c r="I119" s="220"/>
       <c r="J119" s="220"/>
     </row>
-    <row r="120" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A120" s="216" t="s">
         <v>254</v>
       </c>
@@ -12985,7 +13317,7 @@
       <c r="I120" s="220"/>
       <c r="J120" s="220"/>
     </row>
-    <row r="121" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="84" x14ac:dyDescent="0.2">
       <c r="A121" s="216" t="s">
         <v>254</v>
       </c>
@@ -13002,7 +13334,7 @@
       <c r="I121" s="220"/>
       <c r="J121" s="220"/>
     </row>
-    <row r="122" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A122" s="216" t="s">
         <v>254</v>
       </c>
@@ -13019,7 +13351,7 @@
       <c r="I122" s="220"/>
       <c r="J122" s="220"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" s="216"/>
       <c r="B123" s="53"/>
       <c r="C123" s="53" t="s">
@@ -13034,7 +13366,7 @@
       <c r="I123" s="220"/>
       <c r="J123" s="220"/>
     </row>
-    <row r="124" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="216" t="s">
         <v>254</v>
       </c>
@@ -13051,7 +13383,7 @@
       <c r="I124" s="220"/>
       <c r="J124" s="220"/>
     </row>
-    <row r="125" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A125" s="216" t="s">
         <v>254</v>
       </c>
@@ -13068,7 +13400,7 @@
       <c r="I125" s="220"/>
       <c r="J125" s="220"/>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" s="215"/>
       <c r="F126" s="220"/>
       <c r="G126" s="220"/>
@@ -13076,7 +13408,7 @@
       <c r="I126" s="220"/>
       <c r="J126" s="220"/>
     </row>
-    <row r="127" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A127" s="215"/>
       <c r="F127" s="220"/>
       <c r="G127" s="220"/>
@@ -13084,7 +13416,7 @@
       <c r="I127" s="220"/>
       <c r="J127" s="220"/>
     </row>
-    <row r="128" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" s="216" t="s">
         <v>268</v>
       </c>
@@ -13101,7 +13433,7 @@
       <c r="I128" s="220"/>
       <c r="J128" s="220"/>
     </row>
-    <row r="129" spans="1:10" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="72" x14ac:dyDescent="0.2">
       <c r="A129" s="216"/>
       <c r="B129" s="60"/>
       <c r="C129" s="60" t="s">
@@ -13116,7 +13448,7 @@
       <c r="I129" s="220"/>
       <c r="J129" s="220"/>
     </row>
-    <row r="130" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A130" s="216"/>
       <c r="B130" s="60"/>
       <c r="C130" s="60"/>
@@ -13129,7 +13461,7 @@
       <c r="I130" s="220"/>
       <c r="J130" s="220"/>
     </row>
-    <row r="131" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="24" x14ac:dyDescent="0.2">
       <c r="A131" s="216"/>
       <c r="B131" s="60"/>
       <c r="C131" s="60" t="s">
@@ -13144,7 +13476,7 @@
       <c r="I131" s="220"/>
       <c r="J131" s="220"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" s="216"/>
       <c r="B132" s="60"/>
       <c r="C132" s="60"/>
@@ -13155,7 +13487,7 @@
       <c r="I132" s="220"/>
       <c r="J132" s="220"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" s="216"/>
       <c r="B133" s="60"/>
       <c r="C133" s="60"/>
@@ -13166,7 +13498,7 @@
       <c r="I133" s="220"/>
       <c r="J133" s="220"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" s="216"/>
       <c r="B134" s="60"/>
       <c r="C134" s="60"/>
@@ -13177,7 +13509,7 @@
       <c r="I134" s="220"/>
       <c r="J134" s="220"/>
     </row>
-    <row r="135" spans="1:10" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A135" s="216"/>
       <c r="B135" s="62"/>
       <c r="C135" s="62"/>
@@ -13188,7 +13520,7 @@
       <c r="I135" s="220"/>
       <c r="J135" s="220"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" s="216"/>
       <c r="F136" s="220"/>
       <c r="G136" s="220"/>
@@ -13196,7 +13528,7 @@
       <c r="I136" s="220"/>
       <c r="J136" s="220"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" s="215"/>
       <c r="F137" s="220"/>
       <c r="G137" s="220"/>
@@ -13204,7 +13536,7 @@
       <c r="I137" s="220"/>
       <c r="J137" s="220"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" s="215"/>
       <c r="F138" s="220"/>
       <c r="G138" s="220"/>
@@ -13212,7 +13544,7 @@
       <c r="I138" s="220"/>
       <c r="J138" s="220"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" s="215"/>
       <c r="F139" s="220"/>
       <c r="G139" s="220"/>
@@ -13220,7 +13552,7 @@
       <c r="I139" s="220"/>
       <c r="J139" s="220"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" s="215"/>
       <c r="F140" s="220"/>
       <c r="G140" s="220"/>
@@ -13228,7 +13560,7 @@
       <c r="I140" s="220"/>
       <c r="J140" s="220"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" s="215"/>
       <c r="F141" s="220"/>
       <c r="G141" s="220"/>
@@ -13236,7 +13568,7 @@
       <c r="I141" s="220"/>
       <c r="J141" s="220"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" s="215"/>
       <c r="F142" s="220"/>
       <c r="G142" s="220"/>
@@ -13244,7 +13576,7 @@
       <c r="I142" s="220"/>
       <c r="J142" s="220"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" s="215"/>
       <c r="F143" s="220"/>
       <c r="G143" s="220"/>
@@ -13252,7 +13584,7 @@
       <c r="I143" s="220"/>
       <c r="J143" s="220"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" s="215"/>
       <c r="F144" s="220"/>
       <c r="G144" s="220"/>
@@ -13260,7 +13592,7 @@
       <c r="I144" s="220"/>
       <c r="J144" s="220"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" s="215"/>
       <c r="F145" s="220"/>
       <c r="G145" s="220"/>
@@ -13268,7 +13600,7 @@
       <c r="I145" s="220"/>
       <c r="J145" s="220"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" s="215"/>
       <c r="F146" s="220"/>
       <c r="G146" s="220"/>
@@ -13276,7 +13608,7 @@
       <c r="I146" s="220"/>
       <c r="J146" s="220"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" s="215"/>
       <c r="F147" s="220"/>
       <c r="G147" s="220"/>
@@ -13284,7 +13616,7 @@
       <c r="I147" s="220"/>
       <c r="J147" s="220"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" s="215"/>
       <c r="F148" s="220"/>
       <c r="G148" s="220"/>
@@ -13292,7 +13624,7 @@
       <c r="I148" s="220"/>
       <c r="J148" s="220"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" s="215"/>
       <c r="F149" s="220"/>
       <c r="G149" s="220"/>
@@ -13300,7 +13632,7 @@
       <c r="I149" s="220"/>
       <c r="J149" s="220"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" s="215"/>
       <c r="F150" s="220"/>
       <c r="G150" s="220"/>
@@ -13308,7 +13640,7 @@
       <c r="I150" s="220"/>
       <c r="J150" s="220"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" s="215"/>
       <c r="F151" s="220"/>
       <c r="G151" s="220"/>
@@ -13316,7 +13648,7 @@
       <c r="I151" s="220"/>
       <c r="J151" s="220"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" s="215"/>
       <c r="F152" s="220"/>
       <c r="G152" s="220"/>
@@ -13324,7 +13656,7 @@
       <c r="I152" s="220"/>
       <c r="J152" s="220"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" s="215"/>
       <c r="F153" s="220"/>
       <c r="G153" s="220"/>
@@ -13332,7 +13664,7 @@
       <c r="I153" s="220"/>
       <c r="J153" s="220"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" s="215"/>
       <c r="F154" s="220"/>
       <c r="G154" s="220"/>
@@ -13340,7 +13672,7 @@
       <c r="I154" s="220"/>
       <c r="J154" s="220"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" s="215"/>
       <c r="F155" s="220"/>
       <c r="G155" s="220"/>
@@ -13348,7 +13680,7 @@
       <c r="I155" s="220"/>
       <c r="J155" s="220"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" s="215"/>
       <c r="F156" s="220"/>
       <c r="G156" s="220"/>
@@ -13356,7 +13688,7 @@
       <c r="I156" s="220"/>
       <c r="J156" s="220"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" s="217"/>
       <c r="F157" s="220"/>
       <c r="G157" s="220"/>
@@ -13364,203 +13696,203 @@
       <c r="I157" s="220"/>
       <c r="J157" s="220"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F158" s="220"/>
       <c r="G158" s="220"/>
       <c r="H158" s="220"/>
       <c r="I158" s="220"/>
       <c r="J158" s="220"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F159" s="220"/>
       <c r="G159" s="220"/>
       <c r="H159" s="220"/>
       <c r="I159" s="220"/>
       <c r="J159" s="220"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="F160" s="220"/>
       <c r="G160" s="220"/>
       <c r="H160" s="220"/>
       <c r="I160" s="220"/>
       <c r="J160" s="220"/>
     </row>
-    <row r="161" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F161" s="220"/>
       <c r="G161" s="220"/>
       <c r="H161" s="220"/>
       <c r="I161" s="220"/>
       <c r="J161" s="220"/>
     </row>
-    <row r="162" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F162" s="220"/>
       <c r="G162" s="220"/>
       <c r="H162" s="220"/>
       <c r="I162" s="220"/>
       <c r="J162" s="220"/>
     </row>
-    <row r="163" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F163" s="220"/>
       <c r="G163" s="220"/>
       <c r="H163" s="220"/>
       <c r="I163" s="220"/>
       <c r="J163" s="220"/>
     </row>
-    <row r="164" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F164" s="220"/>
       <c r="G164" s="220"/>
       <c r="H164" s="220"/>
       <c r="I164" s="220"/>
       <c r="J164" s="220"/>
     </row>
-    <row r="165" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F165" s="220"/>
       <c r="G165" s="220"/>
       <c r="H165" s="220"/>
       <c r="I165" s="220"/>
       <c r="J165" s="220"/>
     </row>
-    <row r="166" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F166" s="220"/>
       <c r="G166" s="220"/>
       <c r="H166" s="220"/>
       <c r="I166" s="220"/>
       <c r="J166" s="220"/>
     </row>
-    <row r="167" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F167" s="220"/>
       <c r="G167" s="220"/>
       <c r="H167" s="220"/>
       <c r="I167" s="220"/>
       <c r="J167" s="220"/>
     </row>
-    <row r="168" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F168" s="220"/>
       <c r="G168" s="220"/>
       <c r="H168" s="220"/>
       <c r="I168" s="220"/>
       <c r="J168" s="220"/>
     </row>
-    <row r="169" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F169" s="220"/>
       <c r="G169" s="220"/>
       <c r="H169" s="220"/>
       <c r="I169" s="220"/>
       <c r="J169" s="220"/>
     </row>
-    <row r="170" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F170" s="220"/>
       <c r="G170" s="220"/>
       <c r="H170" s="220"/>
       <c r="I170" s="220"/>
       <c r="J170" s="220"/>
     </row>
-    <row r="171" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F171" s="220"/>
       <c r="G171" s="220"/>
       <c r="H171" s="220"/>
       <c r="I171" s="220"/>
       <c r="J171" s="220"/>
     </row>
-    <row r="172" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F172" s="220"/>
       <c r="G172" s="220"/>
       <c r="H172" s="220"/>
       <c r="I172" s="220"/>
       <c r="J172" s="220"/>
     </row>
-    <row r="173" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F173" s="220"/>
       <c r="G173" s="220"/>
       <c r="H173" s="220"/>
       <c r="I173" s="220"/>
       <c r="J173" s="220"/>
     </row>
-    <row r="174" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F174" s="220"/>
       <c r="G174" s="220"/>
       <c r="H174" s="220"/>
       <c r="I174" s="220"/>
       <c r="J174" s="220"/>
     </row>
-    <row r="175" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F175" s="220"/>
       <c r="G175" s="220"/>
       <c r="H175" s="220"/>
       <c r="I175" s="220"/>
       <c r="J175" s="220"/>
     </row>
-    <row r="176" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F176" s="220"/>
       <c r="G176" s="220"/>
       <c r="H176" s="220"/>
       <c r="I176" s="220"/>
       <c r="J176" s="220"/>
     </row>
-    <row r="177" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F177" s="220"/>
       <c r="G177" s="220"/>
       <c r="H177" s="220"/>
       <c r="I177" s="220"/>
       <c r="J177" s="220"/>
     </row>
-    <row r="178" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F178" s="220"/>
       <c r="G178" s="220"/>
       <c r="H178" s="220"/>
       <c r="I178" s="220"/>
       <c r="J178" s="220"/>
     </row>
-    <row r="179" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F179" s="220"/>
       <c r="G179" s="220"/>
       <c r="H179" s="220"/>
       <c r="I179" s="220"/>
       <c r="J179" s="220"/>
     </row>
-    <row r="180" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F180" s="220"/>
       <c r="G180" s="220"/>
       <c r="H180" s="220"/>
       <c r="I180" s="220"/>
       <c r="J180" s="220"/>
     </row>
-    <row r="181" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F181" s="220"/>
       <c r="G181" s="220"/>
       <c r="H181" s="220"/>
       <c r="I181" s="220"/>
       <c r="J181" s="220"/>
     </row>
-    <row r="182" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F182" s="220"/>
       <c r="G182" s="220"/>
       <c r="H182" s="220"/>
       <c r="I182" s="220"/>
       <c r="J182" s="220"/>
     </row>
-    <row r="183" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F183" s="220"/>
       <c r="G183" s="220"/>
       <c r="H183" s="220"/>
       <c r="I183" s="220"/>
       <c r="J183" s="220"/>
     </row>
-    <row r="184" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F184" s="220"/>
       <c r="G184" s="220"/>
       <c r="H184" s="220"/>
       <c r="I184" s="220"/>
       <c r="J184" s="220"/>
     </row>
-    <row r="185" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F185" s="220"/>
       <c r="G185" s="220"/>
       <c r="H185" s="220"/>
       <c r="I185" s="220"/>
       <c r="J185" s="220"/>
     </row>
-    <row r="186" spans="6:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F186" s="220"/>
       <c r="G186" s="220"/>
       <c r="H186" s="220"/>
@@ -13578,25 +13910,25 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="234"/>
-    <col min="2" max="2" width="21.85546875" style="234" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" style="234" customWidth="1"/>
-    <col min="4" max="4" width="55.85546875" style="234" customWidth="1"/>
-    <col min="5" max="5" width="51.5703125" style="234" customWidth="1"/>
-    <col min="6" max="6" width="62.140625" style="234" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="234"/>
+    <col min="1" max="1" width="9.1640625" style="234"/>
+    <col min="2" max="2" width="21.83203125" style="234" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" style="234" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" style="234" customWidth="1"/>
+    <col min="5" max="5" width="51.5" style="234" customWidth="1"/>
+    <col min="6" max="6" width="62.1640625" style="234" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="234"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" s="234" t="s">
         <v>476</v>
       </c>
@@ -13604,7 +13936,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="234" t="s">
         <v>476</v>
       </c>
@@ -13612,7 +13944,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="30" x14ac:dyDescent="0.2">
       <c r="B5" s="234" t="s">
         <v>476</v>
       </c>
@@ -13620,7 +13952,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="60" x14ac:dyDescent="0.2">
       <c r="B9" s="234" t="s">
         <v>480</v>
       </c>
@@ -13628,15 +13960,15 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="170.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="170.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="234" t="s">
+        <v>556</v>
+      </c>
+      <c r="C10" s="234" t="s">
+        <v>558</v>
+      </c>
+      <c r="D10" s="234" t="s">
         <v>557</v>
-      </c>
-      <c r="C10" s="234" t="s">
-        <v>559</v>
-      </c>
-      <c r="D10" s="234" t="s">
-        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/System_Design_Architecture.xlsx
+++ b/System_Design_Architecture.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3EEB9CC2-56EE-F048-8CAD-2AD34F399C6E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{56937556-7DCA-7D44-9185-77F49A782820}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="896" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="896" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="572">
   <si>
     <t>Scalability</t>
   </si>
@@ -2492,6 +2492,188 @@
   </si>
   <si>
     <t>Adv</t>
+  </si>
+  <si>
+    <t>-- capable of replay / rerun on same data produce based on rules / queries</t>
+  </si>
+  <si>
+    <t>Dis-Adv</t>
+  </si>
+  <si>
+    <t>Kappa Architecture</t>
+  </si>
+  <si>
+    <t>Cons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Only Streaming/Realtime data processing
+-- Not a replacement of Lamda Architecture; </t>
+  </si>
+  <si>
+    <t>JMX</t>
+  </si>
+  <si>
+    <t>Java Messaging Service (MOM - Messaging Oriented Middleware)</t>
+  </si>
+  <si>
+    <t>MOM techs</t>
+  </si>
+  <si>
+    <t>Message Oriented Middleware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- JMS
+-- </t>
+  </si>
+  <si>
+    <t>Java Management Extension</t>
+  </si>
+  <si>
+    <t>A tool for Managing and Monitoring applications;
+-- System Objects;
+-- Service Oriented networks</t>
+  </si>
+  <si>
+    <t>Communicate applications by send and receive messages</t>
+  </si>
+  <si>
+    <t>EAI</t>
+  </si>
+  <si>
+    <t>Enterprise App Integration</t>
+  </si>
+  <si>
+    <t>EIP</t>
+  </si>
+  <si>
+    <t>Enterprise Integration Pattern</t>
+  </si>
+  <si>
+    <t>-- RMI
+-- SOA ( SOAP, REST )
+-- MOM (JMS, ESB )</t>
+  </si>
+  <si>
+    <t>-- ESB - Comes with 
+1) Registry 
+2) Business Activity Monitoring
+3) Routing (GUI to link etc)</t>
+  </si>
+  <si>
+    <t>Apache Camel</t>
+  </si>
+  <si>
+    <t>ESB</t>
+  </si>
+  <si>
+    <t>EIP tools</t>
+  </si>
+  <si>
+    <t>lightweight integration framework</t>
+  </si>
+  <si>
+    <t>Both Apache Camel and ESB provides almost all features</t>
+  </si>
+  <si>
+    <t>Open source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a software architecture model </t>
+  </si>
+  <si>
+    <t>Open source ESBs
+-- Jboss ;Apache ServiceMix; MuleESB; OpenESB; 
+-- Spring Integration</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enterprise Service Bus
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-- Software Architecture model </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">:-
+----- communication between applications;
+----- Loosely coupled
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>-- functionalities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> :-
+----- Monitoring
+----- Routing
+----- Complext message exchange
+----- Integrate any different application
+----- Integrate with any PROTOCOLs</t>
+    </r>
+  </si>
+  <si>
+    <t>EIP - Choose</t>
+  </si>
+  <si>
+    <t>No Framework
+--  reading a file or sending a JMS message, it is probably much easier and faster to use some well known libraries such as Apache Commons IO or Spring JmsTemplate.</t>
+  </si>
+  <si>
+    <t>Enterprise Integration Pattern
+-- Use libraries / simple Framework
+-- Use Framework
+-- Use Tools</t>
+  </si>
+  <si>
+    <t>Lambda application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- Maintain two layers are difficult. Any changes need to be done both layers
+-- Double processing required
+-- </t>
+  </si>
+  <si>
+    <t>-- Good for Log monitoring
+-- Good for Data synchronization</t>
+  </si>
+  <si>
+    <t>Kappa application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- </t>
+  </si>
+  <si>
+    <t>-- Only one processing required;
+-- Multiple type of analysis possible</t>
+  </si>
+  <si>
+    <t>Lambda vs Kappa</t>
   </si>
   <si>
     <r>
@@ -2615,183 +2797,29 @@
     </r>
   </si>
   <si>
-    <t>-- capable of replay / rerun on same data produce based on rules / queries</t>
-  </si>
-  <si>
-    <t>Dis-Adv</t>
-  </si>
-  <si>
-    <t>Kappa Architecture</t>
-  </si>
-  <si>
-    <t>Cons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- Only Streaming/Realtime data processing
--- Not a replacement of Lamda Architecture; </t>
-  </si>
-  <si>
-    <t>JMX</t>
-  </si>
-  <si>
-    <t>Java Messaging Service (MOM - Messaging Oriented Middleware)</t>
-  </si>
-  <si>
-    <t>MOM techs</t>
-  </si>
-  <si>
-    <t>Message Oriented Middleware</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- JMS
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>In coming stream of data goes to two path; 
+-- Batch Layer ( delayed only append no update)
+-- Speed Layer ( Realtime )</t>
+  </si>
+  <si>
+    <t>if a algorithms applied to the real-time data and to the historical data are identical. Then the use-case using the Kappa architecture</t>
+  </si>
+  <si>
+    <t>if a algorithms used to process historical data and real-time data are not always identical. favoring batch execution performance; 
+complex use-cases, in which even the outputs of the real-time and batch algorithm are different, and computation time varies then Lambda Architecture MUST be used.</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DisAdvantages:
+-- Performance cost : directly executing queries faster than Hibernate generated one
+-- Many Tables Mapping and Joins causes Hibernate to code more and less maintenance
 -- </t>
-  </si>
-  <si>
-    <t>Java Management Extension</t>
-  </si>
-  <si>
-    <t>A tool for Managing and Monitoring applications;
--- System Objects;
--- Service Oriented networks</t>
-  </si>
-  <si>
-    <t>Communicate applications by send and receive messages</t>
-  </si>
-  <si>
-    <t>EAI</t>
-  </si>
-  <si>
-    <t>Enterprise App Integration</t>
-  </si>
-  <si>
-    <t>EIP</t>
-  </si>
-  <si>
-    <t>Enterprise Integration Pattern</t>
-  </si>
-  <si>
-    <t>-- RMI
--- SOA ( SOAP, REST )
--- MOM (JMS, ESB )</t>
-  </si>
-  <si>
-    <t>-- ESB - Comes with 
-1) Registry 
-2) Business Activity Monitoring
-3) Routing (GUI to link etc)</t>
-  </si>
-  <si>
-    <t>Apache Camel</t>
-  </si>
-  <si>
-    <t>ESB</t>
-  </si>
-  <si>
-    <t>EIP tools</t>
-  </si>
-  <si>
-    <t>lightweight integration framework</t>
-  </si>
-  <si>
-    <t>Both Apache Camel and ESB provides almost all features</t>
-  </si>
-  <si>
-    <t>Open source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a software architecture model </t>
-  </si>
-  <si>
-    <t>Open source ESBs
--- Jboss ;Apache ServiceMix; MuleESB; OpenESB; 
--- Spring Integration</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Enterprise Service Bus
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-- Software Architecture model </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">:-
------ communication between applications;
------ Loosely coupled
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>-- functionalities</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> :-
------ Monitoring
------ Routing
------ Complext message exchange
------ Integrate any different application
------ Integrate with any PROTOCOLs</t>
-    </r>
-  </si>
-  <si>
-    <t>EIP - Choose</t>
-  </si>
-  <si>
-    <t>No Framework
---  reading a file or sending a JMS message, it is probably much easier and faster to use some well known libraries such as Apache Commons IO or Spring JmsTemplate.</t>
-  </si>
-  <si>
-    <t>Enterprise Integration Pattern
--- Use libraries / simple Framework
--- Use Framework
--- Use Tools</t>
-  </si>
-  <si>
-    <t>Lambda application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- Maintain two layers are difficult. Any changes need to be done both layers
--- Double processing required
--- </t>
-  </si>
-  <si>
-    <t>-- Good for Log monitoring
--- Good for Data synchronization</t>
-  </si>
-  <si>
-    <t>Kappa application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-- </t>
-  </si>
-  <si>
-    <t>-- Only one processing required;
--- Multiple type of analysis possible</t>
   </si>
 </sst>
 </file>
@@ -4317,7 +4345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5090,6 +5118,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5120,6 +5160,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -5138,31 +5184,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5223,21 +5275,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="100" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6015,9 +6052,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4486618</xdr:colOff>
+      <xdr:colOff>2946400</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>2117300</xdr:rowOff>
+      <xdr:rowOff>1697330</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6040,8 +6077,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9571465" y="18848664"/>
-          <a:ext cx="7305397" cy="1993392"/>
+          <a:off x="9545755" y="18754808"/>
+          <a:ext cx="5770445" cy="1573422"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6050,7 +6087,7 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>185854</xdr:colOff>
@@ -6059,9 +6096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>4222100</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>59985</xdr:rowOff>
+      <xdr:colOff>3390900</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1656365</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6084,8 +6121,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9571464" y="24377848"/>
-          <a:ext cx="7040880" cy="1748113"/>
+          <a:off x="9545754" y="24276558"/>
+          <a:ext cx="6214946" cy="1547907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6289,13 +6326,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>3147060</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>2240280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6363,13 +6400,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>3246120</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>3550920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6429,6 +6466,94 @@
             </a14:hiddenLine>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4498770</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1224280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD00B7A4-38DB-AB4D-9280-9E522AC0DF88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6134100" y="17513300"/>
+          <a:ext cx="4346370" cy="1097280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>63522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4435926</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1279674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04904443-45F3-A54E-9711-90D92B1D4BFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2133600" y="17449822"/>
+          <a:ext cx="4334326" cy="1216152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7373,24 +7498,24 @@
     </row>
     <row r="38" spans="2:4" ht="45" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>542</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="60" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>544</v>
-      </c>
       <c r="D39" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -7461,14 +7586,14 @@
     </row>
     <row r="4" spans="1:8" s="176" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="178"/>
-      <c r="C4" s="299" t="s">
+      <c r="C4" s="307" t="s">
         <v>220</v>
       </c>
-      <c r="D4" s="299"/>
-      <c r="E4" s="299" t="s">
+      <c r="D4" s="307"/>
+      <c r="E4" s="307" t="s">
         <v>221</v>
       </c>
-      <c r="F4" s="299"/>
+      <c r="F4" s="307"/>
       <c r="G4" s="68"/>
       <c r="H4" s="179"/>
     </row>
@@ -7476,14 +7601,14 @@
       <c r="B5" s="178" t="s">
         <v>222</v>
       </c>
-      <c r="C5" s="298" t="s">
+      <c r="C5" s="306" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="298"/>
-      <c r="E5" s="298" t="s">
+      <c r="D5" s="306"/>
+      <c r="E5" s="306" t="s">
         <v>224</v>
       </c>
-      <c r="F5" s="298"/>
+      <c r="F5" s="306"/>
       <c r="G5" s="68" t="s">
         <v>225</v>
       </c>
@@ -7491,14 +7616,14 @@
     </row>
     <row r="6" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="186"/>
-      <c r="C6" s="297" t="s">
+      <c r="C6" s="305" t="s">
         <v>427</v>
       </c>
-      <c r="D6" s="297"/>
-      <c r="E6" s="297" t="s">
+      <c r="D6" s="305"/>
+      <c r="E6" s="305" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="297"/>
+      <c r="F6" s="305"/>
       <c r="G6" s="180" t="s">
         <v>428</v>
       </c>
@@ -7511,14 +7636,14 @@
       <c r="B7" s="186" t="s">
         <v>339</v>
       </c>
-      <c r="C7" s="297" t="s">
+      <c r="C7" s="305" t="s">
         <v>425</v>
       </c>
-      <c r="D7" s="297"/>
-      <c r="E7" s="300" t="s">
+      <c r="D7" s="305"/>
+      <c r="E7" s="308" t="s">
         <v>426</v>
       </c>
-      <c r="F7" s="297"/>
+      <c r="F7" s="305"/>
       <c r="G7" s="180"/>
       <c r="H7" s="187"/>
     </row>
@@ -7526,14 +7651,14 @@
       <c r="B8" s="186" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="301" t="s">
+      <c r="C8" s="309" t="s">
         <v>458</v>
       </c>
-      <c r="D8" s="302"/>
-      <c r="E8" s="301" t="s">
+      <c r="D8" s="310"/>
+      <c r="E8" s="309" t="s">
         <v>459</v>
       </c>
-      <c r="F8" s="302"/>
+      <c r="F8" s="310"/>
       <c r="G8" s="180" t="s">
         <v>460</v>
       </c>
@@ -7543,12 +7668,12 @@
       <c r="B9" s="212" t="s">
         <v>461</v>
       </c>
-      <c r="C9" s="301" t="s">
+      <c r="C9" s="309" t="s">
         <v>463</v>
       </c>
-      <c r="D9" s="302"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="302"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="309"/>
+      <c r="F9" s="310"/>
       <c r="G9" s="213"/>
       <c r="H9" s="214"/>
     </row>
@@ -7592,7 +7717,7 @@
       <c r="F14" s="177" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="294"/>
+      <c r="G14" s="302"/>
     </row>
     <row r="15" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="177" t="s">
@@ -7602,7 +7727,7 @@
       <c r="D15" s="177"/>
       <c r="E15" s="177"/>
       <c r="F15" s="177"/>
-      <c r="G15" s="294"/>
+      <c r="G15" s="302"/>
     </row>
     <row r="17" spans="2:3" ht="45" x14ac:dyDescent="0.2">
       <c r="B17" s="175" t="s">
@@ -7663,10 +7788,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A3:E21"/>
+  <dimension ref="A3:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7674,7 +7799,7 @@
     <col min="1" max="1" width="8.83203125" style="174"/>
     <col min="2" max="2" width="11.83203125" style="174" customWidth="1"/>
     <col min="3" max="3" width="83" style="174" customWidth="1"/>
-    <col min="4" max="4" width="55.6640625" style="174" customWidth="1"/>
+    <col min="4" max="4" width="83.33203125" style="174" customWidth="1"/>
     <col min="5" max="5" width="68.5" style="174" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="174"/>
   </cols>
@@ -7797,13 +7922,21 @@
     </row>
     <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B21" s="174" t="s">
+        <v>534</v>
+      </c>
+      <c r="C21" s="174" t="s">
         <v>535</v>
       </c>
-      <c r="C21" s="174" t="s">
+      <c r="D21" s="83" t="s">
         <v>536</v>
       </c>
-      <c r="D21" s="83" t="s">
-        <v>537</v>
+    </row>
+    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.2">
+      <c r="B23" s="174" t="s">
+        <v>570</v>
+      </c>
+      <c r="D23" s="174" t="s">
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -8359,10 +8492,10 @@
     </row>
     <row r="49" spans="2:7" ht="132" x14ac:dyDescent="0.2">
       <c r="C49" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="56" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -8384,8 +8517,8 @@
       <c r="D58" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="258"/>
-      <c r="F58" s="259"/>
+      <c r="E58" s="262"/>
+      <c r="F58" s="263"/>
       <c r="G58" s="9"/>
     </row>
     <row r="59" spans="2:7" ht="72" x14ac:dyDescent="0.2">
@@ -8398,8 +8531,8 @@
       <c r="D59" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="260"/>
-      <c r="F59" s="261"/>
+      <c r="E59" s="264"/>
+      <c r="F59" s="265"/>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="2:7" ht="72" x14ac:dyDescent="0.2">
@@ -8412,8 +8545,8 @@
       <c r="D60" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E60" s="260"/>
-      <c r="F60" s="261"/>
+      <c r="E60" s="264"/>
+      <c r="F60" s="265"/>
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="2:7" ht="48" x14ac:dyDescent="0.2">
@@ -8426,8 +8559,8 @@
       <c r="D61" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E61" s="260"/>
-      <c r="F61" s="261"/>
+      <c r="E61" s="264"/>
+      <c r="F61" s="265"/>
       <c r="G61" s="9"/>
     </row>
     <row r="62" spans="2:7" ht="48" x14ac:dyDescent="0.2">
@@ -8440,8 +8573,8 @@
       <c r="D62" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E62" s="260"/>
-      <c r="F62" s="261"/>
+      <c r="E62" s="264"/>
+      <c r="F62" s="265"/>
       <c r="G62" s="9"/>
     </row>
     <row r="63" spans="2:7" ht="36" x14ac:dyDescent="0.2">
@@ -8454,8 +8587,8 @@
       <c r="D63" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="262"/>
-      <c r="F63" s="263"/>
+      <c r="E63" s="266"/>
+      <c r="F63" s="267"/>
       <c r="G63" s="9"/>
     </row>
     <row r="64" spans="2:7" ht="13" thickBot="1" x14ac:dyDescent="0.25">
@@ -8934,12 +9067,12 @@
       <c r="B47" s="119" t="s">
         <v>117</v>
       </c>
-      <c r="C47" s="264" t="s">
+      <c r="C47" s="268" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="265"/>
-      <c r="E47" s="264"/>
-      <c r="F47" s="265"/>
+      <c r="D47" s="269"/>
+      <c r="E47" s="268"/>
+      <c r="F47" s="269"/>
       <c r="G47" s="120"/>
       <c r="H47" s="117"/>
       <c r="I47" s="111"/>
@@ -9027,10 +9160,10 @@
       <c r="B52" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="C52" s="266" t="s">
+      <c r="C52" s="270" t="s">
         <v>149</v>
       </c>
-      <c r="D52" s="266"/>
+      <c r="D52" s="270"/>
       <c r="E52" s="128"/>
       <c r="F52" s="128"/>
       <c r="G52" s="129"/>
@@ -9588,10 +9721,10 @@
     <row r="75" spans="1:27" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="139"/>
       <c r="B75" s="145"/>
-      <c r="C75" s="267" t="s">
+      <c r="C75" s="271" t="s">
         <v>181</v>
       </c>
-      <c r="D75" s="267"/>
+      <c r="D75" s="271"/>
       <c r="E75" s="146"/>
       <c r="F75" s="147"/>
       <c r="G75" s="148"/>
@@ -9671,8 +9804,8 @@
     <row r="84" spans="1:8" s="138" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="139"/>
       <c r="B84" s="145"/>
-      <c r="C84" s="267"/>
-      <c r="D84" s="267"/>
+      <c r="C84" s="271"/>
+      <c r="D84" s="271"/>
       <c r="E84" s="146"/>
       <c r="F84" s="147"/>
       <c r="G84" s="148"/>
@@ -9726,8 +9859,8 @@
   </sheetPr>
   <dimension ref="A2:K212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:D45"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -9806,10 +9939,10 @@
     <row r="8" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="41"/>
       <c r="B8" s="34"/>
-      <c r="C8" s="282" t="s">
+      <c r="C8" s="283" t="s">
         <v>197</v>
       </c>
-      <c r="D8" s="282"/>
+      <c r="D8" s="283"/>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="G8" s="31"/>
@@ -9818,10 +9951,10 @@
     <row r="9" spans="1:8" s="26" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="41"/>
       <c r="B9" s="34"/>
-      <c r="C9" s="282" t="s">
+      <c r="C9" s="283" t="s">
         <v>196</v>
       </c>
-      <c r="D9" s="282"/>
+      <c r="D9" s="283"/>
       <c r="E9" s="33" t="s">
         <v>195</v>
       </c>
@@ -9832,10 +9965,10 @@
     <row r="10" spans="1:8" s="26" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41"/>
       <c r="B10" s="34"/>
-      <c r="C10" s="282" t="s">
+      <c r="C10" s="283" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="282"/>
+      <c r="D10" s="283"/>
       <c r="E10" s="33"/>
       <c r="F10" s="33"/>
       <c r="G10" s="31"/>
@@ -9844,10 +9977,10 @@
     <row r="11" spans="1:8" s="26" customFormat="1" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="41"/>
       <c r="B11" s="34"/>
-      <c r="C11" s="282" t="s">
+      <c r="C11" s="283" t="s">
         <v>193</v>
       </c>
-      <c r="D11" s="282"/>
+      <c r="D11" s="283"/>
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="31"/>
@@ -9858,10 +9991,10 @@
       <c r="B12" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="282" t="s">
+      <c r="C12" s="283" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="282"/>
+      <c r="D12" s="283"/>
       <c r="E12" s="33" t="s">
         <v>190</v>
       </c>
@@ -9876,10 +10009,10 @@
       <c r="B13" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="282" t="s">
+      <c r="C13" s="283" t="s">
         <v>187</v>
       </c>
-      <c r="D13" s="282"/>
+      <c r="D13" s="283"/>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="31"/>
@@ -10045,12 +10178,12 @@
       <c r="B26" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="272" t="s">
+      <c r="C26" s="278" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="275"/>
-      <c r="E26" s="280"/>
-      <c r="F26" s="281"/>
+      <c r="D26" s="280"/>
+      <c r="E26" s="284"/>
+      <c r="F26" s="285"/>
       <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:11" s="26" customFormat="1" ht="84.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10061,10 +10194,10 @@
       <c r="D27" s="33" t="s">
         <v>177</v>
       </c>
-      <c r="E27" s="274" t="s">
+      <c r="E27" s="286" t="s">
         <v>203</v>
       </c>
-      <c r="F27" s="275"/>
+      <c r="F27" s="280"/>
       <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -10077,8 +10210,8 @@
     </row>
     <row r="29" spans="1:11" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="34"/>
-      <c r="C29" s="282"/>
-      <c r="D29" s="282"/>
+      <c r="C29" s="283"/>
+      <c r="D29" s="283"/>
       <c r="E29" s="33"/>
       <c r="F29" s="32"/>
       <c r="G29" s="31"/>
@@ -10122,10 +10255,10 @@
       <c r="B34" s="199" t="s">
         <v>444</v>
       </c>
-      <c r="C34" s="270" t="s">
+      <c r="C34" s="276" t="s">
         <v>475</v>
       </c>
-      <c r="D34" s="271"/>
+      <c r="D34" s="277"/>
       <c r="E34" s="41"/>
       <c r="F34" s="32"/>
       <c r="G34" s="32"/>
@@ -10134,26 +10267,30 @@
     <row r="35" spans="1:8" s="26" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="41"/>
       <c r="B35" s="199"/>
-      <c r="C35" s="270" t="s">
-        <v>527</v>
-      </c>
-      <c r="D35" s="271"/>
-      <c r="F35" s="32"/>
+      <c r="C35" s="276" t="s">
+        <v>565</v>
+      </c>
+      <c r="D35" s="277"/>
+      <c r="F35" s="32" t="s">
+        <v>566</v>
+      </c>
       <c r="G35" s="32"/>
       <c r="H35" s="244"/>
     </row>
-    <row r="36" spans="1:8" s="26" customFormat="1" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="26" customFormat="1" ht="163" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="41"/>
       <c r="B36" s="199" t="s">
-        <v>559</v>
-      </c>
-      <c r="C36" s="307" t="s">
-        <v>561</v>
-      </c>
-      <c r="D36" s="306"/>
-      <c r="E36" s="303"/>
-      <c r="F36" s="304"/>
-      <c r="G36" s="305"/>
+        <v>558</v>
+      </c>
+      <c r="C36" s="289" t="s">
+        <v>560</v>
+      </c>
+      <c r="D36" s="290"/>
+      <c r="E36" s="260"/>
+      <c r="F36" s="287" t="s">
+        <v>566</v>
+      </c>
+      <c r="G36" s="288"/>
       <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -10161,10 +10298,10 @@
       <c r="B37" s="199" t="s">
         <v>526</v>
       </c>
-      <c r="C37" s="272" t="s">
-        <v>528</v>
-      </c>
-      <c r="D37" s="273"/>
+      <c r="C37" s="278" t="s">
+        <v>527</v>
+      </c>
+      <c r="D37" s="279"/>
       <c r="E37" s="32"/>
       <c r="G37" s="32"/>
       <c r="H37" s="40"/>
@@ -10172,12 +10309,12 @@
     <row r="38" spans="1:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="41"/>
       <c r="B38" s="199" t="s">
-        <v>529</v>
-      </c>
-      <c r="C38" s="272" t="s">
-        <v>560</v>
-      </c>
-      <c r="D38" s="275"/>
+        <v>528</v>
+      </c>
+      <c r="C38" s="278" t="s">
+        <v>559</v>
+      </c>
+      <c r="D38" s="280"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
@@ -10214,29 +10351,33 @@
     <row r="42" spans="1:8" s="256" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="240"/>
       <c r="B42" s="257" t="s">
-        <v>530</v>
-      </c>
-      <c r="C42" s="276" t="s">
-        <v>532</v>
-      </c>
-      <c r="D42" s="277"/>
+        <v>529</v>
+      </c>
+      <c r="C42" s="272" t="s">
+        <v>531</v>
+      </c>
+      <c r="D42" s="273"/>
       <c r="E42" s="14"/>
-      <c r="F42" s="278"/>
-      <c r="G42" s="279"/>
+      <c r="F42" s="281" t="s">
+        <v>499</v>
+      </c>
+      <c r="G42" s="282"/>
       <c r="H42" s="241"/>
     </row>
     <row r="43" spans="1:8" s="26" customFormat="1" ht="142" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="41"/>
       <c r="B43" s="250" t="s">
+        <v>561</v>
+      </c>
+      <c r="C43" s="272" t="s">
         <v>562</v>
       </c>
-      <c r="C43" s="276" t="s">
-        <v>563</v>
-      </c>
-      <c r="D43" s="277"/>
+      <c r="D43" s="273"/>
       <c r="E43" s="251"/>
-      <c r="F43" s="278"/>
-      <c r="G43" s="279"/>
+      <c r="F43" s="281" t="s">
+        <v>499</v>
+      </c>
+      <c r="G43" s="282"/>
       <c r="H43" s="40"/>
     </row>
     <row r="44" spans="1:8" s="26" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
@@ -10244,10 +10385,10 @@
       <c r="B44" s="250" t="s">
         <v>168</v>
       </c>
-      <c r="C44" s="276" t="s">
-        <v>564</v>
-      </c>
-      <c r="D44" s="277"/>
+      <c r="C44" s="272" t="s">
+        <v>563</v>
+      </c>
+      <c r="D44" s="273"/>
       <c r="E44" s="251"/>
       <c r="F44" s="251"/>
       <c r="G44" s="252"/>
@@ -10256,10 +10397,10 @@
     <row r="45" spans="1:8" s="26" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="41"/>
       <c r="B45" s="250" t="s">
-        <v>531</v>
-      </c>
-      <c r="C45" s="268"/>
-      <c r="D45" s="269"/>
+        <v>530</v>
+      </c>
+      <c r="C45" s="274"/>
+      <c r="D45" s="275"/>
       <c r="E45" s="251"/>
       <c r="F45" s="251"/>
       <c r="G45" s="252"/>
@@ -10517,10 +10658,10 @@
       <c r="B3" s="80" t="s">
         <v>355</v>
       </c>
-      <c r="C3" s="289" t="s">
+      <c r="C3" s="297" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="297"/>
     </row>
     <row r="4" spans="1:27" ht="135" x14ac:dyDescent="0.2">
       <c r="B4" s="80" t="s">
@@ -10852,10 +10993,10 @@
     <row r="20" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A20" s="155"/>
       <c r="B20" s="161"/>
-      <c r="C20" s="288" t="s">
+      <c r="C20" s="296" t="s">
         <v>132</v>
       </c>
-      <c r="D20" s="288"/>
+      <c r="D20" s="296"/>
       <c r="E20" s="162"/>
       <c r="F20" s="162"/>
       <c r="G20" s="163"/>
@@ -10883,10 +11024,10 @@
     <row r="21" spans="1:27" s="160" customFormat="1" ht="26" x14ac:dyDescent="0.2">
       <c r="A21" s="155"/>
       <c r="B21" s="161"/>
-      <c r="C21" s="288" t="s">
+      <c r="C21" s="296" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="288"/>
+      <c r="D21" s="296"/>
       <c r="E21" s="162" t="s">
         <v>133</v>
       </c>
@@ -10916,8 +11057,8 @@
     <row r="22" spans="1:27" s="160" customFormat="1" ht="13" x14ac:dyDescent="0.2">
       <c r="A22" s="155"/>
       <c r="B22" s="161"/>
-      <c r="C22" s="288"/>
-      <c r="D22" s="288"/>
+      <c r="C22" s="296"/>
+      <c r="D22" s="296"/>
       <c r="E22" s="162"/>
       <c r="F22" s="162"/>
       <c r="G22" s="163"/>
@@ -11301,10 +11442,10 @@
       <c r="B39" s="106" t="s">
         <v>443</v>
       </c>
-      <c r="C39" s="285" t="s">
+      <c r="C39" s="293" t="s">
         <v>431</v>
       </c>
-      <c r="D39" s="286"/>
+      <c r="D39" s="294"/>
       <c r="E39" s="107"/>
       <c r="F39" s="107"/>
       <c r="G39" s="170"/>
@@ -11349,10 +11490,10 @@
       <c r="B43" s="106" t="s">
         <v>429</v>
       </c>
-      <c r="C43" s="285" t="s">
+      <c r="C43" s="293" t="s">
         <v>430</v>
       </c>
-      <c r="D43" s="286"/>
+      <c r="D43" s="294"/>
       <c r="E43" s="107"/>
       <c r="F43" s="107"/>
       <c r="G43" s="170"/>
@@ -11390,10 +11531,10 @@
     </row>
     <row r="47" spans="1:27" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="155"/>
-      <c r="B47" s="283" t="s">
+      <c r="B47" s="291" t="s">
         <v>434</v>
       </c>
-      <c r="C47" s="284"/>
+      <c r="C47" s="292"/>
       <c r="D47" s="168"/>
       <c r="E47" s="168"/>
       <c r="F47" s="168"/>
@@ -11405,14 +11546,14 @@
       <c r="B48" s="106" t="s">
         <v>435</v>
       </c>
-      <c r="C48" s="285" t="s">
+      <c r="C48" s="293" t="s">
         <v>437</v>
       </c>
-      <c r="D48" s="286"/>
-      <c r="E48" s="287" t="s">
+      <c r="D48" s="294"/>
+      <c r="E48" s="295" t="s">
         <v>438</v>
       </c>
-      <c r="F48" s="286"/>
+      <c r="F48" s="294"/>
       <c r="G48" s="170"/>
       <c r="H48" s="159"/>
     </row>
@@ -11421,14 +11562,14 @@
       <c r="B49" s="106" t="s">
         <v>436</v>
       </c>
-      <c r="C49" s="285" t="s">
+      <c r="C49" s="293" t="s">
         <v>439</v>
       </c>
-      <c r="D49" s="286"/>
-      <c r="E49" s="287" t="s">
+      <c r="D49" s="294"/>
+      <c r="E49" s="295" t="s">
         <v>440</v>
       </c>
-      <c r="F49" s="286"/>
+      <c r="F49" s="294"/>
       <c r="G49" s="170"/>
       <c r="H49" s="159"/>
     </row>
@@ -11437,10 +11578,10 @@
       <c r="B50" s="108" t="s">
         <v>417</v>
       </c>
-      <c r="C50" s="285" t="s">
+      <c r="C50" s="293" t="s">
         <v>442</v>
       </c>
-      <c r="D50" s="286"/>
+      <c r="D50" s="294"/>
       <c r="E50" s="192"/>
       <c r="F50" s="191"/>
       <c r="G50" s="193"/>
@@ -11468,10 +11609,10 @@
     </row>
     <row r="53" spans="1:8" s="175" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="155"/>
-      <c r="B53" s="283" t="s">
+      <c r="B53" s="291" t="s">
         <v>441</v>
       </c>
-      <c r="C53" s="284"/>
+      <c r="C53" s="292"/>
       <c r="D53" s="168"/>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
@@ -11483,12 +11624,12 @@
       <c r="B54" s="106" t="s">
         <v>417</v>
       </c>
-      <c r="C54" s="285" t="s">
+      <c r="C54" s="293" t="s">
         <v>445</v>
       </c>
-      <c r="D54" s="286"/>
-      <c r="E54" s="287"/>
-      <c r="F54" s="286"/>
+      <c r="D54" s="294"/>
+      <c r="E54" s="295"/>
+      <c r="F54" s="294"/>
       <c r="G54" s="170"/>
       <c r="H54" s="159"/>
     </row>
@@ -11552,16 +11693,16 @@
       <c r="B2" s="237" t="s">
         <v>409</v>
       </c>
-      <c r="C2" s="294" t="s">
+      <c r="C2" s="302" t="s">
         <v>511</v>
       </c>
-      <c r="D2" s="294"/>
+      <c r="D2" s="302"/>
     </row>
     <row r="3" spans="2:6" ht="132" x14ac:dyDescent="0.2">
-      <c r="C3" s="294" t="s">
+      <c r="C3" s="302" t="s">
         <v>512</v>
       </c>
-      <c r="D3" s="294"/>
+      <c r="D3" s="302"/>
       <c r="E3" s="237" t="s">
         <v>499</v>
       </c>
@@ -11570,50 +11711,50 @@
       <c r="B4" s="238" t="s">
         <v>500</v>
       </c>
-      <c r="C4" s="291" t="s">
+      <c r="C4" s="299" t="s">
         <v>503</v>
       </c>
-      <c r="D4" s="292"/>
+      <c r="D4" s="300"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="238" t="s">
         <v>501</v>
       </c>
-      <c r="C5" s="291" t="s">
+      <c r="C5" s="299" t="s">
         <v>502</v>
       </c>
-      <c r="D5" s="292"/>
+      <c r="D5" s="300"/>
     </row>
     <row r="7" spans="2:6" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="238" t="s">
         <v>504</v>
       </c>
-      <c r="C7" s="291" t="s">
+      <c r="C7" s="299" t="s">
         <v>505</v>
       </c>
-      <c r="D7" s="293"/>
+      <c r="D7" s="301"/>
     </row>
     <row r="8" spans="2:6" ht="106.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="238" t="s">
         <v>506</v>
       </c>
-      <c r="C8" s="291" t="s">
+      <c r="C8" s="299" t="s">
         <v>510</v>
       </c>
-      <c r="D8" s="291"/>
-      <c r="E8" s="290" t="s">
+      <c r="D8" s="299"/>
+      <c r="E8" s="298" t="s">
         <v>509</v>
       </c>
-      <c r="F8" s="290"/>
+      <c r="F8" s="298"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="238" t="s">
         <v>507</v>
       </c>
-      <c r="C9" s="292" t="s">
+      <c r="C9" s="300" t="s">
         <v>508</v>
       </c>
-      <c r="D9" s="293"/>
+      <c r="D9" s="301"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -11674,17 +11815,17 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:J186"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView topLeftCell="A74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" style="64" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.83203125" style="64" customWidth="1"/>
+    <col min="3" max="3" width="60.1640625" style="64" customWidth="1"/>
     <col min="4" max="4" width="60.6640625" style="64" customWidth="1"/>
     <col min="5" max="5" width="26.6640625" style="220" customWidth="1"/>
     <col min="6" max="16384" width="8.83203125" style="64"/>
@@ -11742,7 +11883,7 @@
       <c r="I4" s="220"/>
       <c r="J4" s="220"/>
     </row>
-    <row r="5" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="215"/>
       <c r="B5" s="66"/>
       <c r="C5" s="47" t="s">
@@ -12221,7 +12362,7 @@
       <c r="I41" s="220"/>
       <c r="J41" s="220"/>
     </row>
-    <row r="42" spans="1:10" s="211" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" s="211" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A42" s="215"/>
       <c r="B42" s="66" t="s">
         <v>468</v>
@@ -12301,7 +12442,7 @@
         <v>237</v>
       </c>
       <c r="D48" s="46" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E48" s="226"/>
       <c r="F48" s="220"/>
@@ -12314,10 +12455,10 @@
       <c r="A49" s="215"/>
       <c r="B49" s="66"/>
       <c r="C49" s="47" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D49" s="67" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E49" s="226"/>
       <c r="F49" s="220"/>
@@ -12330,10 +12471,10 @@
       <c r="A50" s="215"/>
       <c r="B50" s="79"/>
       <c r="C50" s="48" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D50" s="227" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E50" s="226"/>
       <c r="F50" s="220"/>
@@ -12448,12 +12589,7 @@
       <c r="I58" s="220"/>
       <c r="J58" s="220"/>
     </row>
-    <row r="59" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="229"/>
-      <c r="C59" s="229"/>
-      <c r="D59" s="229"/>
-      <c r="E59" s="229"/>
-    </row>
+    <row r="59" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="60" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="215"/>
       <c r="B60" s="71"/>
@@ -12470,10 +12606,10 @@
       <c r="A61" s="215"/>
       <c r="B61" s="66"/>
       <c r="C61" s="45" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="E61" s="226"/>
       <c r="F61" s="220"/>
@@ -12482,14 +12618,14 @@
       <c r="I61" s="220"/>
       <c r="J61" s="220"/>
     </row>
-    <row r="62" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" s="235" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="215"/>
       <c r="B62" s="66"/>
       <c r="C62" s="47" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="D62" s="67" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="E62" s="226"/>
       <c r="F62" s="220"/>
@@ -12498,14 +12634,14 @@
       <c r="I62" s="220"/>
       <c r="J62" s="220"/>
     </row>
-    <row r="63" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="235" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="215"/>
       <c r="B63" s="66"/>
       <c r="C63" s="47" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D63" s="67" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E63" s="226"/>
       <c r="F63" s="220"/>
@@ -12514,12 +12650,14 @@
       <c r="I63" s="220"/>
       <c r="J63" s="220"/>
     </row>
-    <row r="64" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="235" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="215"/>
       <c r="B64" s="79"/>
-      <c r="C64" s="48"/>
+      <c r="C64" s="48" t="s">
+        <v>494</v>
+      </c>
       <c r="D64" s="227" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="E64" s="226"/>
       <c r="F64" s="220"/>
@@ -12528,17 +12666,11 @@
       <c r="I64" s="220"/>
       <c r="J64" s="220"/>
     </row>
-    <row r="65" spans="1:10" s="237" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="215"/>
-      <c r="B65" s="79" t="s">
-        <v>89</v>
-      </c>
-      <c r="C65" s="50" t="s">
-        <v>516</v>
-      </c>
-      <c r="D65" s="233" t="s">
-        <v>520</v>
-      </c>
+      <c r="B65" s="79"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="227"/>
       <c r="E65" s="226"/>
       <c r="F65" s="220"/>
       <c r="G65" s="220"/>
@@ -12546,17 +12678,11 @@
       <c r="I65" s="220"/>
       <c r="J65" s="220"/>
     </row>
-    <row r="66" spans="1:10" s="237" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" s="235" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="215"/>
-      <c r="B66" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>517</v>
-      </c>
-      <c r="D66" s="227" t="s">
-        <v>521</v>
-      </c>
+      <c r="B66" s="74"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="76"/>
       <c r="E66" s="226"/>
       <c r="F66" s="220"/>
       <c r="G66" s="220"/>
@@ -12564,29 +12690,17 @@
       <c r="I66" s="220"/>
       <c r="J66" s="220"/>
     </row>
-    <row r="67" spans="1:10" s="237" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A67" s="215"/>
-      <c r="B67" s="79" t="s">
-        <v>518</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>519</v>
-      </c>
-      <c r="D67" s="227" t="s">
-        <v>522</v>
-      </c>
-      <c r="E67" s="226"/>
-      <c r="F67" s="220"/>
-      <c r="G67" s="220"/>
-      <c r="H67" s="220"/>
-      <c r="I67" s="220"/>
-      <c r="J67" s="220"/>
-    </row>
-    <row r="68" spans="1:10" s="239" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="229"/>
+      <c r="C67" s="229"/>
+      <c r="D67" s="229"/>
+      <c r="E67" s="229"/>
+    </row>
+    <row r="68" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="215"/>
-      <c r="B68" s="79"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="227"/>
+      <c r="B68" s="71"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="73"/>
       <c r="E68" s="226"/>
       <c r="F68" s="220"/>
       <c r="G68" s="220"/>
@@ -12594,12 +12708,14 @@
       <c r="I68" s="220"/>
       <c r="J68" s="220"/>
     </row>
-    <row r="69" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="215"/>
-      <c r="B69" s="79"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="233" t="s">
-        <v>524</v>
+      <c r="B69" s="66"/>
+      <c r="C69" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="D69" s="46" t="s">
+        <v>485</v>
       </c>
       <c r="E69" s="226"/>
       <c r="F69" s="220"/>
@@ -12608,11 +12724,15 @@
       <c r="I69" s="220"/>
       <c r="J69" s="220"/>
     </row>
-    <row r="70" spans="1:10" s="235" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="215"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="75"/>
-      <c r="D70" s="76"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="47" t="s">
+        <v>486</v>
+      </c>
+      <c r="D70" s="67" t="s">
+        <v>487</v>
+      </c>
       <c r="E70" s="226"/>
       <c r="F70" s="220"/>
       <c r="G70" s="220"/>
@@ -12620,12 +12740,29 @@
       <c r="I70" s="220"/>
       <c r="J70" s="220"/>
     </row>
-    <row r="71" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="215"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="47" t="s">
+        <v>496</v>
+      </c>
+      <c r="D71" s="67" t="s">
+        <v>497</v>
+      </c>
+      <c r="E71" s="226"/>
+      <c r="F71" s="220"/>
+      <c r="G71" s="220"/>
+      <c r="H71" s="220"/>
+      <c r="I71" s="220"/>
+      <c r="J71" s="220"/>
+    </row>
+    <row r="72" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="215"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="72"/>
-      <c r="D72" s="73"/>
+      <c r="B72" s="79"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="227" t="s">
+        <v>515</v>
+      </c>
       <c r="E72" s="226"/>
       <c r="F72" s="220"/>
       <c r="G72" s="220"/>
@@ -12633,14 +12770,16 @@
       <c r="I72" s="220"/>
       <c r="J72" s="220"/>
     </row>
-    <row r="73" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" s="237" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="215"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="45" t="s">
-        <v>488</v>
-      </c>
-      <c r="D73" s="46" t="s">
-        <v>489</v>
+      <c r="B73" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="D73" s="233" t="s">
+        <v>520</v>
       </c>
       <c r="E73" s="226"/>
       <c r="F73" s="220"/>
@@ -12649,14 +12788,16 @@
       <c r="I73" s="220"/>
       <c r="J73" s="220"/>
     </row>
-    <row r="74" spans="1:10" s="235" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" s="237" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="215"/>
-      <c r="B74" s="66"/>
-      <c r="C74" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="D74" s="67" t="s">
-        <v>491</v>
+      <c r="B74" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="50" t="s">
+        <v>517</v>
+      </c>
+      <c r="D74" s="227" t="s">
+        <v>521</v>
       </c>
       <c r="E74" s="226"/>
       <c r="F74" s="220"/>
@@ -12665,14 +12806,16 @@
       <c r="I74" s="220"/>
       <c r="J74" s="220"/>
     </row>
-    <row r="75" spans="1:10" s="235" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" s="237" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A75" s="215"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="47" t="s">
-        <v>492</v>
-      </c>
-      <c r="D75" s="67" t="s">
-        <v>493</v>
+      <c r="B75" s="79" t="s">
+        <v>518</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>519</v>
+      </c>
+      <c r="D75" s="227" t="s">
+        <v>522</v>
       </c>
       <c r="E75" s="226"/>
       <c r="F75" s="220"/>
@@ -12681,15 +12824,11 @@
       <c r="I75" s="220"/>
       <c r="J75" s="220"/>
     </row>
-    <row r="76" spans="1:10" s="235" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" s="239" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="215"/>
       <c r="B76" s="79"/>
-      <c r="C76" s="48" t="s">
-        <v>494</v>
-      </c>
-      <c r="D76" s="227" t="s">
-        <v>495</v>
-      </c>
+      <c r="C76" s="50"/>
+      <c r="D76" s="227"/>
       <c r="E76" s="226"/>
       <c r="F76" s="220"/>
       <c r="G76" s="220"/>
@@ -12697,11 +12836,13 @@
       <c r="I76" s="220"/>
       <c r="J76" s="220"/>
     </row>
-    <row r="77" spans="1:10" s="235" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" s="237" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="215"/>
       <c r="B77" s="79"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="227"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="233" t="s">
+        <v>524</v>
+      </c>
       <c r="E77" s="226"/>
       <c r="F77" s="220"/>
       <c r="G77" s="220"/>
@@ -12721,8 +12862,13 @@
       <c r="I78" s="220"/>
       <c r="J78" s="220"/>
     </row>
-    <row r="79" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="229"/>
+      <c r="C79" s="229"/>
+      <c r="D79" s="229"/>
+      <c r="E79" s="229"/>
+    </row>
+    <row r="80" spans="1:10" s="258" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="215"/>
       <c r="B80" s="71"/>
       <c r="C80" s="72"/>
@@ -12734,16 +12880,16 @@
       <c r="I80" s="220"/>
       <c r="J80" s="220"/>
     </row>
-    <row r="81" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="258" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="215"/>
       <c r="B81" s="66" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>547</v>
+        <v>444</v>
       </c>
       <c r="D81" s="46" t="s">
-        <v>548</v>
+        <v>529</v>
       </c>
       <c r="E81" s="226"/>
       <c r="F81" s="220"/>
@@ -12752,16 +12898,14 @@
       <c r="I81" s="220"/>
       <c r="J81" s="220"/>
     </row>
-    <row r="82" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" s="258" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A82" s="215"/>
-      <c r="B82" s="295" t="s">
-        <v>551</v>
-      </c>
+      <c r="B82" s="66"/>
       <c r="C82" s="47" t="s">
-        <v>550</v>
-      </c>
-      <c r="D82" s="67" t="s">
-        <v>553</v>
+        <v>567</v>
+      </c>
+      <c r="D82" s="261" t="s">
+        <v>531</v>
       </c>
       <c r="E82" s="226"/>
       <c r="F82" s="220"/>
@@ -12770,14 +12914,14 @@
       <c r="I82" s="220"/>
       <c r="J82" s="220"/>
     </row>
-    <row r="83" spans="1:10" s="242" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" s="258" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A83" s="215"/>
-      <c r="B83" s="296"/>
-      <c r="C83" s="48" t="s">
-        <v>552</v>
-      </c>
-      <c r="D83" s="227" t="s">
-        <v>554</v>
+      <c r="B83" s="66"/>
+      <c r="C83" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="D83" s="67" t="s">
+        <v>568</v>
       </c>
       <c r="E83" s="226"/>
       <c r="F83" s="220"/>
@@ -12786,11 +12930,11 @@
       <c r="I83" s="220"/>
       <c r="J83" s="220"/>
     </row>
-    <row r="84" spans="1:10" s="242" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" s="258" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="215"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="228"/>
-      <c r="D84" s="76"/>
+      <c r="B84" s="259"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="227"/>
       <c r="E84" s="226"/>
       <c r="F84" s="220"/>
       <c r="G84" s="220"/>
@@ -12798,391 +12942,350 @@
       <c r="I84" s="220"/>
       <c r="J84" s="220"/>
     </row>
-    <row r="85" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" s="258" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="215"/>
+      <c r="B85" s="259"/>
+      <c r="C85" s="50"/>
+      <c r="D85" s="233"/>
+      <c r="E85" s="226"/>
+      <c r="F85" s="220"/>
+      <c r="G85" s="220"/>
+      <c r="H85" s="220"/>
+      <c r="I85" s="220"/>
+      <c r="J85" s="220"/>
+    </row>
+    <row r="86" spans="1:10" s="258" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="215"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="72"/>
-      <c r="E86" s="230"/>
-      <c r="F86" s="226"/>
+      <c r="B86" s="259"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="227"/>
+      <c r="E86" s="226"/>
+      <c r="F86" s="220"/>
       <c r="G86" s="220"/>
       <c r="H86" s="220"/>
       <c r="I86" s="220"/>
       <c r="J86" s="220"/>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" s="258" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="215"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E87" s="231" t="s">
-        <v>278</v>
-      </c>
-      <c r="F87" s="226"/>
+      <c r="B87" s="259"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="227"/>
+      <c r="E87" s="226"/>
+      <c r="F87" s="220"/>
       <c r="G87" s="220"/>
       <c r="H87" s="220"/>
       <c r="I87" s="220"/>
       <c r="J87" s="220"/>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" s="258" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="215"/>
-      <c r="B88" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" s="47" t="s">
-        <v>173</v>
-      </c>
-      <c r="D88" s="47"/>
-      <c r="E88" s="231"/>
-      <c r="F88" s="226"/>
+      <c r="B88" s="259"/>
+      <c r="C88" s="50"/>
+      <c r="D88" s="227"/>
+      <c r="E88" s="226"/>
+      <c r="F88" s="220"/>
       <c r="G88" s="220"/>
       <c r="H88" s="220"/>
       <c r="I88" s="220"/>
       <c r="J88" s="220"/>
     </row>
-    <row r="89" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" s="258" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="215"/>
-      <c r="B89" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C89" s="47" t="s">
-        <v>172</v>
-      </c>
-      <c r="D89" s="47"/>
-      <c r="E89" s="231"/>
-      <c r="F89" s="226"/>
+      <c r="B89" s="259"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="233" t="s">
+        <v>524</v>
+      </c>
+      <c r="E89" s="226"/>
+      <c r="F89" s="220"/>
       <c r="G89" s="220"/>
       <c r="H89" s="220"/>
       <c r="I89" s="220"/>
       <c r="J89" s="220"/>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" s="258" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="215"/>
-      <c r="B90" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C90" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="D90" s="47"/>
-      <c r="E90" s="231"/>
-      <c r="F90" s="226"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="76"/>
+      <c r="E90" s="226"/>
+      <c r="F90" s="220"/>
       <c r="G90" s="220"/>
       <c r="H90" s="220"/>
       <c r="I90" s="220"/>
       <c r="J90" s="220"/>
     </row>
-    <row r="91" spans="1:10" ht="24" x14ac:dyDescent="0.2">
-      <c r="A91" s="215"/>
-      <c r="B91" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C91" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D91" s="47"/>
-      <c r="E91" s="231"/>
-      <c r="F91" s="226"/>
-      <c r="G91" s="220"/>
-      <c r="H91" s="220"/>
-      <c r="I91" s="220"/>
-      <c r="J91" s="220"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="215"/>
-      <c r="B92" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>169</v>
-      </c>
-      <c r="D92" s="47"/>
-      <c r="E92" s="231"/>
-      <c r="F92" s="226"/>
+      <c r="B92" s="71"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="73"/>
+      <c r="E92" s="226"/>
+      <c r="F92" s="220"/>
       <c r="G92" s="220"/>
       <c r="H92" s="220"/>
       <c r="I92" s="220"/>
       <c r="J92" s="220"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="215"/>
       <c r="B93" s="66" t="s">
-        <v>168</v>
-      </c>
-      <c r="C93" s="47" t="s">
-        <v>167</v>
-      </c>
-      <c r="D93" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="E93" s="231"/>
-      <c r="F93" s="226"/>
+        <v>548</v>
+      </c>
+      <c r="C93" s="45" t="s">
+        <v>546</v>
+      </c>
+      <c r="D93" s="46" t="s">
+        <v>547</v>
+      </c>
+      <c r="E93" s="226"/>
+      <c r="F93" s="220"/>
       <c r="G93" s="220"/>
       <c r="H93" s="220"/>
       <c r="I93" s="220"/>
       <c r="J93" s="220"/>
     </row>
-    <row r="94" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" s="242" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="215"/>
-      <c r="B94" s="66" t="s">
-        <v>163</v>
+      <c r="B94" s="303" t="s">
+        <v>550</v>
       </c>
       <c r="C94" s="47" t="s">
-        <v>165</v>
-      </c>
-      <c r="D94" s="47"/>
-      <c r="E94" s="231"/>
-      <c r="F94" s="226"/>
+        <v>549</v>
+      </c>
+      <c r="D94" s="67" t="s">
+        <v>552</v>
+      </c>
+      <c r="E94" s="226"/>
+      <c r="F94" s="220"/>
       <c r="G94" s="220"/>
       <c r="H94" s="220"/>
       <c r="I94" s="220"/>
       <c r="J94" s="220"/>
     </row>
-    <row r="95" spans="1:10" ht="60" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" s="242" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="215"/>
-      <c r="B95" s="79" t="s">
-        <v>163</v>
-      </c>
+      <c r="B95" s="304"/>
       <c r="C95" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D95" s="48"/>
-      <c r="E95" s="231"/>
-      <c r="F95" s="226"/>
+        <v>551</v>
+      </c>
+      <c r="D95" s="227" t="s">
+        <v>553</v>
+      </c>
+      <c r="E95" s="226"/>
+      <c r="F95" s="220"/>
       <c r="G95" s="220"/>
       <c r="H95" s="220"/>
       <c r="I95" s="220"/>
       <c r="J95" s="220"/>
     </row>
-    <row r="96" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" s="242" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A96" s="215"/>
-      <c r="B96" s="79" t="s">
-        <v>163</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D96" s="48"/>
-      <c r="E96" s="231"/>
-      <c r="F96" s="226"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="228"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="226"/>
+      <c r="F96" s="220"/>
       <c r="G96" s="220"/>
       <c r="H96" s="220"/>
       <c r="I96" s="220"/>
       <c r="J96" s="220"/>
     </row>
-    <row r="97" spans="1:10" ht="13" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="215"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="232"/>
-      <c r="F97" s="226"/>
-      <c r="G97" s="220"/>
-      <c r="H97" s="220"/>
-      <c r="I97" s="220"/>
-      <c r="J97" s="220"/>
-    </row>
-    <row r="98" spans="1:10" s="218" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="1:10" s="218" customFormat="1" ht="13" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="215"/>
+      <c r="B98" s="71"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="230"/>
+      <c r="F98" s="226"/>
+      <c r="G98" s="220"/>
+      <c r="H98" s="220"/>
+      <c r="I98" s="220"/>
+      <c r="J98" s="220"/>
+    </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" s="216"/>
-      <c r="B99" s="51"/>
-      <c r="F99" s="220"/>
+      <c r="A99" s="215"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="D99" s="45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E99" s="231" t="s">
+        <v>278</v>
+      </c>
+      <c r="F99" s="226"/>
       <c r="G99" s="220"/>
       <c r="H99" s="220"/>
       <c r="I99" s="220"/>
       <c r="J99" s="220"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B100" s="52" t="s">
-        <v>244</v>
-      </c>
-      <c r="C100" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="D100" s="52" t="s">
-        <v>242</v>
-      </c>
-      <c r="E100" s="220" t="s">
-        <v>241</v>
-      </c>
-      <c r="F100" s="220"/>
+      <c r="A100" s="215"/>
+      <c r="B100" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C100" s="47" t="s">
+        <v>173</v>
+      </c>
+      <c r="D100" s="47"/>
+      <c r="E100" s="231"/>
+      <c r="F100" s="226"/>
       <c r="G100" s="220"/>
       <c r="H100" s="220"/>
       <c r="I100" s="220"/>
       <c r="J100" s="220"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B101" s="53"/>
-      <c r="C101" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="D101" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="F101" s="220"/>
+    <row r="101" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A101" s="215"/>
+      <c r="B101" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C101" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D101" s="47"/>
+      <c r="E101" s="231"/>
+      <c r="F101" s="226"/>
       <c r="G101" s="220"/>
       <c r="H101" s="220"/>
       <c r="I101" s="220"/>
       <c r="J101" s="220"/>
     </row>
-    <row r="102" spans="1:10" ht="168" x14ac:dyDescent="0.2">
-      <c r="A102" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B102" s="53"/>
-      <c r="C102" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="D102" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="F102" s="220"/>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A102" s="215"/>
+      <c r="B102" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" s="47"/>
+      <c r="E102" s="231"/>
+      <c r="F102" s="226"/>
       <c r="G102" s="220"/>
       <c r="H102" s="220"/>
       <c r="I102" s="220"/>
       <c r="J102" s="220"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B103" s="53"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="53" t="s">
-        <v>238</v>
-      </c>
-      <c r="F103" s="220"/>
+    <row r="103" spans="1:10" ht="24" x14ac:dyDescent="0.2">
+      <c r="A103" s="215"/>
+      <c r="B103" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="C103" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D103" s="47"/>
+      <c r="E103" s="231"/>
+      <c r="F103" s="226"/>
       <c r="G103" s="220"/>
       <c r="H103" s="220"/>
       <c r="I103" s="220"/>
       <c r="J103" s="220"/>
     </row>
-    <row r="104" spans="1:10" ht="11.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="216" t="s">
-        <v>318</v>
-      </c>
-      <c r="B104" s="53"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="